--- a/USA USL Championship/USA USL Championship.xlsx
+++ b/USA USL Championship/USA USL Championship.xlsx
@@ -3221,7 +3221,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6126466</v>
+        <v>6126472</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3233,13 +3233,13 @@
         <v>45010.89583333334</v>
       </c>
       <c r="F31" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="G31" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -3248,7 +3248,7 @@
         <v>55</v>
       </c>
       <c r="K31">
-        <v>1.7</v>
+        <v>1.666</v>
       </c>
       <c r="L31">
         <v>3.6</v>
@@ -3257,34 +3257,34 @@
         <v>4.2</v>
       </c>
       <c r="N31">
-        <v>1.65</v>
+        <v>1.666</v>
       </c>
       <c r="O31">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P31">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q31">
         <v>-0.75</v>
       </c>
       <c r="R31">
+        <v>1.9</v>
+      </c>
+      <c r="S31">
+        <v>1.9</v>
+      </c>
+      <c r="T31">
+        <v>2.5</v>
+      </c>
+      <c r="U31">
         <v>1.825</v>
       </c>
-      <c r="S31">
+      <c r="V31">
         <v>1.975</v>
       </c>
-      <c r="T31">
-        <v>3</v>
-      </c>
-      <c r="U31">
-        <v>1.95</v>
-      </c>
-      <c r="V31">
-        <v>1.85</v>
-      </c>
       <c r="W31">
-        <v>0.6499999999999999</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X31">
         <v>-1</v>
@@ -3293,16 +3293,16 @@
         <v>-1</v>
       </c>
       <c r="Z31">
-        <v>0.825</v>
+        <v>0.45</v>
       </c>
       <c r="AA31">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB31">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC31">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3310,7 +3310,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6126472</v>
+        <v>6126466</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3322,13 +3322,13 @@
         <v>45010.89583333334</v>
       </c>
       <c r="F32" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="G32" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -3337,7 +3337,7 @@
         <v>55</v>
       </c>
       <c r="K32">
-        <v>1.666</v>
+        <v>1.7</v>
       </c>
       <c r="L32">
         <v>3.6</v>
@@ -3346,34 +3346,34 @@
         <v>4.2</v>
       </c>
       <c r="N32">
-        <v>1.666</v>
+        <v>1.65</v>
       </c>
       <c r="O32">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P32">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="Q32">
         <v>-0.75</v>
       </c>
       <c r="R32">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S32">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T32">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U32">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V32">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W32">
-        <v>0.6659999999999999</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X32">
         <v>-1</v>
@@ -3382,16 +3382,16 @@
         <v>-1</v>
       </c>
       <c r="Z32">
-        <v>0.45</v>
+        <v>0.825</v>
       </c>
       <c r="AA32">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB32">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC32">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3399,7 +3399,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6126470</v>
+        <v>6126471</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3411,76 +3411,76 @@
         <v>45010.95833333334</v>
       </c>
       <c r="F33" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G33" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33" t="s">
+        <v>55</v>
+      </c>
+      <c r="K33">
         <v>2</v>
       </c>
-      <c r="I33">
-        <v>2</v>
-      </c>
-      <c r="J33" t="s">
-        <v>54</v>
-      </c>
-      <c r="K33">
-        <v>1.8</v>
-      </c>
       <c r="L33">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M33">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="N33">
-        <v>1.571</v>
+        <v>1.85</v>
       </c>
       <c r="O33">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P33">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="Q33">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R33">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S33">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T33">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U33">
+        <v>1.875</v>
+      </c>
+      <c r="V33">
         <v>1.925</v>
       </c>
-      <c r="V33">
-        <v>1.875</v>
-      </c>
       <c r="W33">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X33">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y33">
         <v>-1</v>
       </c>
       <c r="Z33">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA33">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB33">
+        <v>-1</v>
+      </c>
+      <c r="AC33">
         <v>0.925</v>
-      </c>
-      <c r="AC33">
-        <v>-1</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3488,7 +3488,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6126471</v>
+        <v>6126470</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3500,76 +3500,76 @@
         <v>45010.95833333334</v>
       </c>
       <c r="F34" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G34" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K34">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L34">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M34">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="N34">
-        <v>1.85</v>
+        <v>1.571</v>
       </c>
       <c r="O34">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P34">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="Q34">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R34">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S34">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T34">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U34">
+        <v>1.925</v>
+      </c>
+      <c r="V34">
         <v>1.875</v>
       </c>
-      <c r="V34">
-        <v>1.925</v>
-      </c>
       <c r="W34">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X34">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y34">
         <v>-1</v>
       </c>
       <c r="Z34">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA34">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB34">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC34">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -9273,7 +9273,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6126540</v>
+        <v>6126536</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9285,76 +9285,76 @@
         <v>45052.85416666666</v>
       </c>
       <c r="F99" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G99" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H99">
+        <v>1</v>
+      </c>
+      <c r="I99">
+        <v>1</v>
+      </c>
+      <c r="J99" t="s">
+        <v>54</v>
+      </c>
+      <c r="K99">
         <v>2</v>
-      </c>
-      <c r="I99">
-        <v>0</v>
-      </c>
-      <c r="J99" t="s">
-        <v>55</v>
-      </c>
-      <c r="K99">
-        <v>2.25</v>
       </c>
       <c r="L99">
         <v>3.3</v>
       </c>
       <c r="M99">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="N99">
-        <v>1.833</v>
+        <v>2.1</v>
       </c>
       <c r="O99">
         <v>3.2</v>
       </c>
       <c r="P99">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="Q99">
+        <v>-0.25</v>
+      </c>
+      <c r="R99">
+        <v>1.85</v>
+      </c>
+      <c r="S99">
+        <v>1.95</v>
+      </c>
+      <c r="T99">
+        <v>2.5</v>
+      </c>
+      <c r="U99">
+        <v>2</v>
+      </c>
+      <c r="V99">
+        <v>1.8</v>
+      </c>
+      <c r="W99">
+        <v>-1</v>
+      </c>
+      <c r="X99">
+        <v>2.2</v>
+      </c>
+      <c r="Y99">
+        <v>-1</v>
+      </c>
+      <c r="Z99">
         <v>-0.5</v>
       </c>
-      <c r="R99">
-        <v>1.875</v>
-      </c>
-      <c r="S99">
-        <v>1.925</v>
-      </c>
-      <c r="T99">
-        <v>2.25</v>
-      </c>
-      <c r="U99">
-        <v>1.875</v>
-      </c>
-      <c r="V99">
-        <v>1.925</v>
-      </c>
-      <c r="W99">
-        <v>0.833</v>
-      </c>
-      <c r="X99">
-        <v>-1</v>
-      </c>
-      <c r="Y99">
-        <v>-1</v>
-      </c>
-      <c r="Z99">
-        <v>0.875</v>
-      </c>
       <c r="AA99">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB99">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC99">
-        <v>0.4625</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9362,7 +9362,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6126536</v>
+        <v>6126540</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9374,76 +9374,76 @@
         <v>45052.85416666666</v>
       </c>
       <c r="F100" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G100" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K100">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L100">
         <v>3.3</v>
       </c>
       <c r="M100">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="N100">
-        <v>2.1</v>
+        <v>1.833</v>
       </c>
       <c r="O100">
         <v>3.2</v>
       </c>
       <c r="P100">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="Q100">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R100">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S100">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T100">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U100">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V100">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W100">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X100">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y100">
         <v>-1</v>
       </c>
       <c r="Z100">
+        <v>0.875</v>
+      </c>
+      <c r="AA100">
+        <v>-1</v>
+      </c>
+      <c r="AB100">
         <v>-0.5</v>
       </c>
-      <c r="AA100">
-        <v>0.475</v>
-      </c>
-      <c r="AB100">
-        <v>-1</v>
-      </c>
       <c r="AC100">
-        <v>0.8</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9896,7 +9896,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6126553</v>
+        <v>6126542</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9908,73 +9908,73 @@
         <v>45059.85416666666</v>
       </c>
       <c r="F106" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G106" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="H106">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I106">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J106" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K106">
-        <v>1.615</v>
+        <v>2.5</v>
       </c>
       <c r="L106">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="M106">
-        <v>4.75</v>
+        <v>2.6</v>
       </c>
       <c r="N106">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="O106">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P106">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="Q106">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R106">
-        <v>1.825</v>
+        <v>2.1</v>
       </c>
       <c r="S106">
-        <v>1.975</v>
+        <v>1.7</v>
       </c>
       <c r="T106">
         <v>2.25</v>
       </c>
       <c r="U106">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V106">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W106">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X106">
         <v>-1</v>
       </c>
       <c r="Y106">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z106">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA106">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="AB106">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC106">
         <v>-1</v>
@@ -9985,7 +9985,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6126542</v>
+        <v>6126553</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9997,73 +9997,73 @@
         <v>45059.85416666666</v>
       </c>
       <c r="F107" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G107" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I107">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J107" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K107">
-        <v>2.5</v>
+        <v>1.615</v>
       </c>
       <c r="L107">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M107">
-        <v>2.6</v>
+        <v>4.75</v>
       </c>
       <c r="N107">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="O107">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P107">
-        <v>2.2</v>
+        <v>6</v>
       </c>
       <c r="Q107">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R107">
-        <v>2.1</v>
+        <v>1.825</v>
       </c>
       <c r="S107">
-        <v>1.7</v>
+        <v>1.975</v>
       </c>
       <c r="T107">
         <v>2.25</v>
       </c>
       <c r="U107">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V107">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W107">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X107">
         <v>-1</v>
       </c>
       <c r="Y107">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z107">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA107">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="AB107">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AC107">
         <v>-1</v>
@@ -10519,7 +10519,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6126549</v>
+        <v>6126544</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10531,76 +10531,76 @@
         <v>45059.97916666666</v>
       </c>
       <c r="F113" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G113" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H113">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I113">
         <v>1</v>
       </c>
       <c r="J113" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K113">
-        <v>1.533</v>
+        <v>2.2</v>
       </c>
       <c r="L113">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M113">
-        <v>4.6</v>
+        <v>2.8</v>
       </c>
       <c r="N113">
-        <v>1.6</v>
+        <v>1.909</v>
       </c>
       <c r="O113">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P113">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="Q113">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R113">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S113">
+        <v>1.825</v>
+      </c>
+      <c r="T113">
+        <v>2.75</v>
+      </c>
+      <c r="U113">
         <v>1.95</v>
       </c>
-      <c r="T113">
-        <v>3</v>
-      </c>
-      <c r="U113">
-        <v>1.875</v>
-      </c>
       <c r="V113">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W113">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X113">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y113">
         <v>-1</v>
       </c>
       <c r="Z113">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA113">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB113">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC113">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10608,7 +10608,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6126544</v>
+        <v>6126549</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10620,76 +10620,76 @@
         <v>45059.97916666666</v>
       </c>
       <c r="F114" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G114" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I114">
         <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K114">
-        <v>2.2</v>
+        <v>1.533</v>
       </c>
       <c r="L114">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M114">
-        <v>2.8</v>
+        <v>4.6</v>
       </c>
       <c r="N114">
-        <v>1.909</v>
+        <v>1.6</v>
       </c>
       <c r="O114">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P114">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="Q114">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R114">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S114">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T114">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U114">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V114">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W114">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X114">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y114">
         <v>-1</v>
       </c>
       <c r="Z114">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA114">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB114">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC114">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -13189,7 +13189,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6126581</v>
+        <v>6126586</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13201,67 +13201,67 @@
         <v>45080.83333333334</v>
       </c>
       <c r="F143" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G143" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I143">
         <v>0</v>
       </c>
       <c r="J143" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K143">
-        <v>3.5</v>
+        <v>1.7</v>
       </c>
       <c r="L143">
         <v>3.6</v>
       </c>
       <c r="M143">
-        <v>1.833</v>
+        <v>4.2</v>
       </c>
       <c r="N143">
-        <v>3.4</v>
+        <v>1.85</v>
       </c>
       <c r="O143">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P143">
-        <v>1.85</v>
+        <v>3.8</v>
       </c>
       <c r="Q143">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R143">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S143">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T143">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U143">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="V143">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W143">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X143">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y143">
         <v>-1</v>
       </c>
       <c r="Z143">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AA143">
         <v>-1</v>
@@ -13270,7 +13270,7 @@
         <v>-1</v>
       </c>
       <c r="AC143">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13278,7 +13278,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6126586</v>
+        <v>6126581</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13290,76 +13290,76 @@
         <v>45080.83333333334</v>
       </c>
       <c r="F144" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G144" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I144">
         <v>0</v>
       </c>
       <c r="J144" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K144">
-        <v>1.7</v>
+        <v>3.5</v>
       </c>
       <c r="L144">
         <v>3.6</v>
       </c>
       <c r="M144">
-        <v>4.2</v>
+        <v>1.833</v>
       </c>
       <c r="N144">
+        <v>3.4</v>
+      </c>
+      <c r="O144">
+        <v>3.6</v>
+      </c>
+      <c r="P144">
         <v>1.85</v>
       </c>
-      <c r="O144">
-        <v>3.3</v>
-      </c>
-      <c r="P144">
-        <v>3.8</v>
-      </c>
       <c r="Q144">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R144">
+        <v>1.9</v>
+      </c>
+      <c r="S144">
+        <v>1.9</v>
+      </c>
+      <c r="T144">
+        <v>2.75</v>
+      </c>
+      <c r="U144">
+        <v>1.875</v>
+      </c>
+      <c r="V144">
         <v>1.925</v>
       </c>
-      <c r="S144">
-        <v>1.875</v>
-      </c>
-      <c r="T144">
-        <v>2.25</v>
-      </c>
-      <c r="U144">
-        <v>1.75</v>
-      </c>
-      <c r="V144">
-        <v>1.95</v>
-      </c>
       <c r="W144">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X144">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y144">
         <v>-1</v>
       </c>
       <c r="Z144">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA144">
+        <v>-1</v>
+      </c>
+      <c r="AB144">
+        <v>-1</v>
+      </c>
+      <c r="AC144">
         <v>0.925</v>
-      </c>
-      <c r="AA144">
-        <v>-1</v>
-      </c>
-      <c r="AB144">
-        <v>-1</v>
-      </c>
-      <c r="AC144">
-        <v>0.95</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -14435,7 +14435,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6126599</v>
+        <v>6126596</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14447,73 +14447,73 @@
         <v>45087.875</v>
       </c>
       <c r="F157" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G157" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H157">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I157">
         <v>3</v>
       </c>
       <c r="J157" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K157">
-        <v>2.05</v>
+        <v>1.7</v>
       </c>
       <c r="L157">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M157">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="N157">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="O157">
         <v>3.4</v>
       </c>
       <c r="P157">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q157">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R157">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S157">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T157">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U157">
+        <v>1.9</v>
+      </c>
+      <c r="V157">
+        <v>1.9</v>
+      </c>
+      <c r="W157">
+        <v>-1</v>
+      </c>
+      <c r="X157">
+        <v>-1</v>
+      </c>
+      <c r="Y157">
         <v>1.8</v>
       </c>
-      <c r="V157">
-        <v>2</v>
-      </c>
-      <c r="W157">
-        <v>-1</v>
-      </c>
-      <c r="X157">
-        <v>2.4</v>
-      </c>
-      <c r="Y157">
-        <v>-1</v>
-      </c>
       <c r="Z157">
         <v>-1</v>
       </c>
       <c r="AA157">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB157">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC157">
         <v>-1</v>
@@ -14524,7 +14524,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6126596</v>
+        <v>6126599</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14536,73 +14536,73 @@
         <v>45087.875</v>
       </c>
       <c r="F158" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G158" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H158">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I158">
         <v>3</v>
       </c>
       <c r="J158" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K158">
-        <v>1.7</v>
+        <v>2.05</v>
       </c>
       <c r="L158">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M158">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="N158">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="O158">
         <v>3.4</v>
       </c>
       <c r="P158">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="Q158">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R158">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S158">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T158">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U158">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V158">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W158">
         <v>-1</v>
       </c>
       <c r="X158">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y158">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z158">
         <v>-1</v>
       </c>
       <c r="AA158">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB158">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC158">
         <v>-1</v>
@@ -16215,7 +16215,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6126616</v>
+        <v>6126619</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16227,13 +16227,13 @@
         <v>45098.875</v>
       </c>
       <c r="F177" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G177" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I177">
         <v>0</v>
@@ -16242,43 +16242,43 @@
         <v>55</v>
       </c>
       <c r="K177">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="L177">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M177">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="N177">
-        <v>1.7</v>
+        <v>2.15</v>
       </c>
       <c r="O177">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P177">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="Q177">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R177">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S177">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T177">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U177">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V177">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W177">
-        <v>0.7</v>
+        <v>1.15</v>
       </c>
       <c r="X177">
         <v>-1</v>
@@ -16287,7 +16287,7 @@
         <v>-1</v>
       </c>
       <c r="Z177">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA177">
         <v>-1</v>
@@ -16296,7 +16296,7 @@
         <v>-1</v>
       </c>
       <c r="AC177">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16393,7 +16393,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6126619</v>
+        <v>6126616</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16405,13 +16405,13 @@
         <v>45098.875</v>
       </c>
       <c r="F179" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G179" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I179">
         <v>0</v>
@@ -16420,43 +16420,43 @@
         <v>55</v>
       </c>
       <c r="K179">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="L179">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M179">
+        <v>3.6</v>
+      </c>
+      <c r="N179">
+        <v>1.7</v>
+      </c>
+      <c r="O179">
+        <v>3.8</v>
+      </c>
+      <c r="P179">
+        <v>3.75</v>
+      </c>
+      <c r="Q179">
+        <v>-0.75</v>
+      </c>
+      <c r="R179">
+        <v>1.95</v>
+      </c>
+      <c r="S179">
+        <v>1.85</v>
+      </c>
+      <c r="T179">
         <v>3</v>
       </c>
-      <c r="N179">
-        <v>2.15</v>
-      </c>
-      <c r="O179">
-        <v>3.4</v>
-      </c>
-      <c r="P179">
-        <v>2.875</v>
-      </c>
-      <c r="Q179">
-        <v>-0.25</v>
-      </c>
-      <c r="R179">
-        <v>1.975</v>
-      </c>
-      <c r="S179">
-        <v>1.825</v>
-      </c>
-      <c r="T179">
-        <v>2.75</v>
-      </c>
       <c r="U179">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V179">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W179">
-        <v>1.15</v>
+        <v>0.7</v>
       </c>
       <c r="X179">
         <v>-1</v>
@@ -16465,7 +16465,7 @@
         <v>-1</v>
       </c>
       <c r="Z179">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA179">
         <v>-1</v>
@@ -16474,7 +16474,7 @@
         <v>-1</v>
       </c>
       <c r="AC179">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -17906,7 +17906,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6126641</v>
+        <v>6126633</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17918,52 +17918,52 @@
         <v>45108.91666666666</v>
       </c>
       <c r="F196" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G196" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H196">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I196">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J196" t="s">
         <v>55</v>
       </c>
       <c r="K196">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L196">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M196">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="N196">
         <v>1.666</v>
       </c>
       <c r="O196">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P196">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q196">
         <v>-0.75</v>
       </c>
       <c r="R196">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S196">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T196">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U196">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="V196">
         <v>1.95</v>
@@ -17978,16 +17978,16 @@
         <v>-1</v>
       </c>
       <c r="Z196">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA196">
         <v>-1</v>
       </c>
       <c r="AB196">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC196">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="197" spans="1:29">
@@ -17995,7 +17995,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>6126633</v>
+        <v>6126641</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -18007,52 +18007,52 @@
         <v>45108.91666666666</v>
       </c>
       <c r="F197" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G197" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J197" t="s">
         <v>55</v>
       </c>
       <c r="K197">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="L197">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M197">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="N197">
         <v>1.666</v>
       </c>
       <c r="O197">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P197">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q197">
         <v>-0.75</v>
       </c>
       <c r="R197">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S197">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T197">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U197">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="V197">
         <v>1.95</v>
@@ -18067,16 +18067,16 @@
         <v>-1</v>
       </c>
       <c r="Z197">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA197">
         <v>-1</v>
       </c>
       <c r="AB197">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC197">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="198" spans="1:29">
@@ -18618,7 +18618,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>6126644</v>
+        <v>6126643</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18630,73 +18630,73 @@
         <v>45111.91666666666</v>
       </c>
       <c r="F204" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="G204" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="H204">
+        <v>4</v>
+      </c>
+      <c r="I204">
+        <v>0</v>
+      </c>
+      <c r="J204" t="s">
+        <v>55</v>
+      </c>
+      <c r="K204">
         <v>2</v>
       </c>
-      <c r="I204">
-        <v>2</v>
-      </c>
-      <c r="J204" t="s">
-        <v>54</v>
-      </c>
-      <c r="K204">
-        <v>2.625</v>
-      </c>
       <c r="L204">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M204">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="N204">
-        <v>2.3</v>
+        <v>1.727</v>
       </c>
       <c r="O204">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P204">
-        <v>2.55</v>
+        <v>3.8</v>
       </c>
       <c r="Q204">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R204">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S204">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T204">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U204">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V204">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W204">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X204">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y204">
         <v>-1</v>
       </c>
       <c r="Z204">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA204">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB204">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC204">
         <v>-1</v>
@@ -18707,7 +18707,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>6126643</v>
+        <v>6126644</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18719,73 +18719,73 @@
         <v>45111.91666666666</v>
       </c>
       <c r="F205" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="G205" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="H205">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I205">
+        <v>2</v>
+      </c>
+      <c r="J205" t="s">
+        <v>54</v>
+      </c>
+      <c r="K205">
+        <v>2.625</v>
+      </c>
+      <c r="L205">
+        <v>3.5</v>
+      </c>
+      <c r="M205">
+        <v>2.3</v>
+      </c>
+      <c r="N205">
+        <v>2.3</v>
+      </c>
+      <c r="O205">
+        <v>3.6</v>
+      </c>
+      <c r="P205">
+        <v>2.55</v>
+      </c>
+      <c r="Q205">
         <v>0</v>
       </c>
-      <c r="J205" t="s">
-        <v>55</v>
-      </c>
-      <c r="K205">
+      <c r="R205">
+        <v>1.8</v>
+      </c>
+      <c r="S205">
         <v>2</v>
       </c>
-      <c r="L205">
-        <v>3.6</v>
-      </c>
-      <c r="M205">
-        <v>3.1</v>
-      </c>
-      <c r="N205">
-        <v>1.727</v>
-      </c>
-      <c r="O205">
-        <v>3.8</v>
-      </c>
-      <c r="P205">
-        <v>3.8</v>
-      </c>
-      <c r="Q205">
-        <v>-0.75</v>
-      </c>
-      <c r="R205">
-        <v>1.975</v>
-      </c>
-      <c r="S205">
-        <v>1.825</v>
-      </c>
       <c r="T205">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U205">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V205">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W205">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X205">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y205">
         <v>-1</v>
       </c>
       <c r="Z205">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA205">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB205">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC205">
         <v>-1</v>
@@ -18885,7 +18885,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>6126652</v>
+        <v>6126647</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18897,76 +18897,76 @@
         <v>45115.83333333334</v>
       </c>
       <c r="F207" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G207" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="H207">
         <v>0</v>
       </c>
       <c r="I207">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J207" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K207">
         <v>1.909</v>
       </c>
       <c r="L207">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M207">
+        <v>3.5</v>
+      </c>
+      <c r="N207">
+        <v>1.666</v>
+      </c>
+      <c r="O207">
         <v>3.6</v>
       </c>
-      <c r="N207">
+      <c r="P207">
+        <v>4.5</v>
+      </c>
+      <c r="Q207">
+        <v>-0.75</v>
+      </c>
+      <c r="R207">
+        <v>1.9</v>
+      </c>
+      <c r="S207">
+        <v>1.9</v>
+      </c>
+      <c r="T207">
+        <v>2.75</v>
+      </c>
+      <c r="U207">
+        <v>1.85</v>
+      </c>
+      <c r="V207">
         <v>1.95</v>
       </c>
-      <c r="O207">
-        <v>3.25</v>
-      </c>
-      <c r="P207">
-        <v>3.75</v>
-      </c>
-      <c r="Q207">
-        <v>-0.25</v>
-      </c>
-      <c r="R207">
-        <v>1.75</v>
-      </c>
-      <c r="S207">
-        <v>2.05</v>
-      </c>
-      <c r="T207">
-        <v>1.75</v>
-      </c>
-      <c r="U207">
-        <v>1.8</v>
-      </c>
-      <c r="V207">
-        <v>2</v>
-      </c>
       <c r="W207">
         <v>-1</v>
       </c>
       <c r="X207">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y207">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z207">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA207">
-        <v>0.5249999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB207">
         <v>-1</v>
       </c>
       <c r="AC207">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="208" spans="1:29">
@@ -19063,7 +19063,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>6126647</v>
+        <v>6126652</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19075,76 +19075,76 @@
         <v>45115.83333333334</v>
       </c>
       <c r="F209" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G209" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H209">
         <v>0</v>
       </c>
       <c r="I209">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J209" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K209">
         <v>1.909</v>
       </c>
       <c r="L209">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M209">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="N209">
-        <v>1.666</v>
+        <v>1.95</v>
       </c>
       <c r="O209">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P209">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q209">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R209">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S209">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T209">
-        <v>2.75</v>
+        <v>1.75</v>
       </c>
       <c r="U209">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V209">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W209">
         <v>-1</v>
       </c>
       <c r="X209">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y209">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z209">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA209">
-        <v>0.8999999999999999</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB209">
         <v>-1</v>
       </c>
       <c r="AC209">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:29">
@@ -19330,7 +19330,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>6126651</v>
+        <v>6126649</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19342,10 +19342,10 @@
         <v>45115.91666666666</v>
       </c>
       <c r="F212" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="G212" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H212">
         <v>1</v>
@@ -19357,43 +19357,43 @@
         <v>55</v>
       </c>
       <c r="K212">
-        <v>2</v>
+        <v>1.533</v>
       </c>
       <c r="L212">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M212">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="N212">
-        <v>2</v>
+        <v>1.333</v>
       </c>
       <c r="O212">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P212">
-        <v>3.25</v>
+        <v>8</v>
       </c>
       <c r="Q212">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R212">
         <v>1.95</v>
       </c>
       <c r="S212">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T212">
         <v>2.5</v>
       </c>
       <c r="U212">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V212">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W212">
-        <v>1</v>
+        <v>0.333</v>
       </c>
       <c r="X212">
         <v>-1</v>
@@ -19402,16 +19402,16 @@
         <v>-1</v>
       </c>
       <c r="Z212">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA212">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB212">
         <v>-1</v>
       </c>
       <c r="AC212">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19419,7 +19419,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>6126649</v>
+        <v>6126651</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19431,10 +19431,10 @@
         <v>45115.91666666666</v>
       </c>
       <c r="F213" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G213" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H213">
         <v>1</v>
@@ -19446,43 +19446,43 @@
         <v>55</v>
       </c>
       <c r="K213">
-        <v>1.533</v>
+        <v>2</v>
       </c>
       <c r="L213">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M213">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="N213">
-        <v>1.333</v>
+        <v>2</v>
       </c>
       <c r="O213">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P213">
-        <v>8</v>
+        <v>3.25</v>
       </c>
       <c r="Q213">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R213">
         <v>1.95</v>
       </c>
       <c r="S213">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="T213">
         <v>2.5</v>
       </c>
       <c r="U213">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V213">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W213">
-        <v>0.333</v>
+        <v>1</v>
       </c>
       <c r="X213">
         <v>-1</v>
@@ -19491,16 +19491,16 @@
         <v>-1</v>
       </c>
       <c r="Z213">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA213">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB213">
         <v>-1</v>
       </c>
       <c r="AC213">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -22000,7 +22000,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>6126680</v>
+        <v>6126676</v>
       </c>
       <c r="C242" t="s">
         <v>28</v>
@@ -22012,76 +22012,76 @@
         <v>45129.97916666666</v>
       </c>
       <c r="F242" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G242" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H242">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I242">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J242" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K242">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="L242">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M242">
+        <v>3.6</v>
+      </c>
+      <c r="N242">
+        <v>1.75</v>
+      </c>
+      <c r="O242">
+        <v>4</v>
+      </c>
+      <c r="P242">
         <v>3.5</v>
       </c>
-      <c r="N242">
-        <v>1.7</v>
-      </c>
-      <c r="O242">
-        <v>3.8</v>
-      </c>
-      <c r="P242">
-        <v>4</v>
-      </c>
       <c r="Q242">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R242">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S242">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T242">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U242">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V242">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W242">
         <v>-1</v>
       </c>
       <c r="X242">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y242">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z242">
         <v>-1</v>
       </c>
       <c r="AA242">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB242">
         <v>-1</v>
       </c>
       <c r="AC242">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="243" spans="1:29">
@@ -22089,7 +22089,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>6126676</v>
+        <v>6126680</v>
       </c>
       <c r="C243" t="s">
         <v>28</v>
@@ -22101,76 +22101,76 @@
         <v>45129.97916666666</v>
       </c>
       <c r="F243" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G243" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I243">
+        <v>1</v>
+      </c>
+      <c r="J243" t="s">
+        <v>54</v>
+      </c>
+      <c r="K243">
+        <v>1.909</v>
+      </c>
+      <c r="L243">
+        <v>3.4</v>
+      </c>
+      <c r="M243">
+        <v>3.5</v>
+      </c>
+      <c r="N243">
+        <v>1.7</v>
+      </c>
+      <c r="O243">
+        <v>3.8</v>
+      </c>
+      <c r="P243">
+        <v>4</v>
+      </c>
+      <c r="Q243">
+        <v>-0.75</v>
+      </c>
+      <c r="R243">
         <v>2</v>
       </c>
-      <c r="J243" t="s">
-        <v>53</v>
-      </c>
-      <c r="K243">
+      <c r="S243">
+        <v>1.8</v>
+      </c>
+      <c r="T243">
+        <v>3</v>
+      </c>
+      <c r="U243">
+        <v>1.95</v>
+      </c>
+      <c r="V243">
         <v>1.85</v>
       </c>
-      <c r="L243">
-        <v>3.5</v>
-      </c>
-      <c r="M243">
-        <v>3.6</v>
-      </c>
-      <c r="N243">
-        <v>1.75</v>
-      </c>
-      <c r="O243">
-        <v>4</v>
-      </c>
-      <c r="P243">
-        <v>3.5</v>
-      </c>
-      <c r="Q243">
-        <v>-0.5</v>
-      </c>
-      <c r="R243">
-        <v>1.825</v>
-      </c>
-      <c r="S243">
-        <v>1.975</v>
-      </c>
-      <c r="T243">
-        <v>3.25</v>
-      </c>
-      <c r="U243">
-        <v>1.975</v>
-      </c>
-      <c r="V243">
-        <v>1.825</v>
-      </c>
       <c r="W243">
         <v>-1</v>
       </c>
       <c r="X243">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y243">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z243">
         <v>-1</v>
       </c>
       <c r="AA243">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB243">
         <v>-1</v>
       </c>
       <c r="AC243">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="244" spans="1:29">
@@ -22534,7 +22534,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>6126687</v>
+        <v>6126696</v>
       </c>
       <c r="C248" t="s">
         <v>28</v>
@@ -22546,76 +22546,76 @@
         <v>45136.85416666666</v>
       </c>
       <c r="F248" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G248" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="H248">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I248">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J248" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K248">
-        <v>2.1</v>
+        <v>1.533</v>
       </c>
       <c r="L248">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="M248">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N248">
-        <v>2.25</v>
+        <v>1.444</v>
       </c>
       <c r="O248">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P248">
-        <v>2.7</v>
+        <v>5.75</v>
       </c>
       <c r="Q248">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R248">
-        <v>1.725</v>
+        <v>1.975</v>
       </c>
       <c r="S248">
-        <v>2.075</v>
+        <v>1.825</v>
       </c>
       <c r="T248">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U248">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V248">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W248">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X248">
         <v>-1</v>
       </c>
       <c r="Y248">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z248">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA248">
-        <v>1.075</v>
+        <v>-1</v>
       </c>
       <c r="AB248">
-        <v>0.8500000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="AC248">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="249" spans="1:29">
@@ -22623,7 +22623,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>6126696</v>
+        <v>6126687</v>
       </c>
       <c r="C249" t="s">
         <v>28</v>
@@ -22635,76 +22635,76 @@
         <v>45136.85416666666</v>
       </c>
       <c r="F249" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G249" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="H249">
+        <v>1</v>
+      </c>
+      <c r="I249">
+        <v>2</v>
+      </c>
+      <c r="J249" t="s">
+        <v>53</v>
+      </c>
+      <c r="K249">
+        <v>2.1</v>
+      </c>
+      <c r="L249">
+        <v>3.3</v>
+      </c>
+      <c r="M249">
         <v>3</v>
       </c>
-      <c r="I249">
+      <c r="N249">
+        <v>2.25</v>
+      </c>
+      <c r="O249">
+        <v>3.3</v>
+      </c>
+      <c r="P249">
+        <v>2.7</v>
+      </c>
+      <c r="Q249">
         <v>0</v>
       </c>
-      <c r="J249" t="s">
-        <v>55</v>
-      </c>
-      <c r="K249">
-        <v>1.533</v>
-      </c>
-      <c r="L249">
-        <v>3.8</v>
-      </c>
-      <c r="M249">
-        <v>5</v>
-      </c>
-      <c r="N249">
-        <v>1.444</v>
-      </c>
-      <c r="O249">
-        <v>4</v>
-      </c>
-      <c r="P249">
-        <v>5.75</v>
-      </c>
-      <c r="Q249">
-        <v>-1.25</v>
-      </c>
       <c r="R249">
-        <v>1.975</v>
+        <v>1.725</v>
       </c>
       <c r="S249">
-        <v>1.825</v>
+        <v>2.075</v>
       </c>
       <c r="T249">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U249">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V249">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W249">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X249">
         <v>-1</v>
       </c>
       <c r="Y249">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z249">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA249">
-        <v>-1</v>
+        <v>1.075</v>
       </c>
       <c r="AB249">
-        <v>0.45</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC249">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="250" spans="1:29">
@@ -22801,7 +22801,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>6126688</v>
+        <v>6126693</v>
       </c>
       <c r="C251" t="s">
         <v>28</v>
@@ -22813,58 +22813,58 @@
         <v>45136.875</v>
       </c>
       <c r="F251" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G251" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="H251">
+        <v>5</v>
+      </c>
+      <c r="I251">
         <v>2</v>
-      </c>
-      <c r="I251">
-        <v>0</v>
       </c>
       <c r="J251" t="s">
         <v>55</v>
       </c>
       <c r="K251">
-        <v>1.95</v>
+        <v>2.375</v>
       </c>
       <c r="L251">
         <v>3.25</v>
       </c>
       <c r="M251">
+        <v>2.6</v>
+      </c>
+      <c r="N251">
+        <v>2.05</v>
+      </c>
+      <c r="O251">
         <v>3.4</v>
       </c>
-      <c r="N251">
-        <v>1.75</v>
-      </c>
-      <c r="O251">
-        <v>3.3</v>
-      </c>
       <c r="P251">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q251">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R251">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S251">
+        <v>1.975</v>
+      </c>
+      <c r="T251">
+        <v>2.5</v>
+      </c>
+      <c r="U251">
+        <v>1.85</v>
+      </c>
+      <c r="V251">
         <v>1.95</v>
       </c>
-      <c r="T251">
-        <v>2.25</v>
-      </c>
-      <c r="U251">
-        <v>1.8</v>
-      </c>
-      <c r="V251">
-        <v>2</v>
-      </c>
       <c r="W251">
-        <v>0.75</v>
+        <v>1.05</v>
       </c>
       <c r="X251">
         <v>-1</v>
@@ -22873,16 +22873,16 @@
         <v>-1</v>
       </c>
       <c r="Z251">
-        <v>0.75</v>
+        <v>0.825</v>
       </c>
       <c r="AA251">
         <v>-1</v>
       </c>
       <c r="AB251">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC251">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="252" spans="1:29">
@@ -22890,7 +22890,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>6126693</v>
+        <v>6126688</v>
       </c>
       <c r="C252" t="s">
         <v>28</v>
@@ -22902,58 +22902,58 @@
         <v>45136.875</v>
       </c>
       <c r="F252" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G252" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="H252">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I252">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J252" t="s">
         <v>55</v>
       </c>
       <c r="K252">
-        <v>2.375</v>
+        <v>1.95</v>
       </c>
       <c r="L252">
         <v>3.25</v>
       </c>
       <c r="M252">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="N252">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="O252">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P252">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="Q252">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R252">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S252">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T252">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U252">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V252">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W252">
-        <v>1.05</v>
+        <v>0.75</v>
       </c>
       <c r="X252">
         <v>-1</v>
@@ -22962,16 +22962,16 @@
         <v>-1</v>
       </c>
       <c r="Z252">
-        <v>0.825</v>
+        <v>0.75</v>
       </c>
       <c r="AA252">
         <v>-1</v>
       </c>
       <c r="AB252">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC252">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="253" spans="1:29">
@@ -23068,7 +23068,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>6126689</v>
+        <v>6126691</v>
       </c>
       <c r="C254" t="s">
         <v>28</v>
@@ -23080,76 +23080,76 @@
         <v>45136.95833333334</v>
       </c>
       <c r="F254" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G254" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H254">
+        <v>1</v>
+      </c>
+      <c r="I254">
         <v>0</v>
       </c>
-      <c r="I254">
-        <v>2</v>
-      </c>
       <c r="J254" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K254">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L254">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M254">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="N254">
-        <v>2.7</v>
+        <v>2.05</v>
       </c>
       <c r="O254">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P254">
-        <v>2.25</v>
+        <v>2.9</v>
       </c>
       <c r="Q254">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R254">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S254">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T254">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U254">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V254">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W254">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X254">
         <v>-1</v>
       </c>
       <c r="Y254">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z254">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA254">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB254">
         <v>-1</v>
       </c>
       <c r="AC254">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="255" spans="1:29">
@@ -23157,7 +23157,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>6126690</v>
+        <v>6126689</v>
       </c>
       <c r="C255" t="s">
         <v>28</v>
@@ -23169,76 +23169,76 @@
         <v>45136.95833333334</v>
       </c>
       <c r="F255" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G255" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H255">
+        <v>0</v>
+      </c>
+      <c r="I255">
+        <v>2</v>
+      </c>
+      <c r="J255" t="s">
+        <v>53</v>
+      </c>
+      <c r="K255">
+        <v>2</v>
+      </c>
+      <c r="L255">
+        <v>3.4</v>
+      </c>
+      <c r="M255">
+        <v>3.1</v>
+      </c>
+      <c r="N255">
+        <v>2.7</v>
+      </c>
+      <c r="O255">
+        <v>3.4</v>
+      </c>
+      <c r="P255">
+        <v>2.25</v>
+      </c>
+      <c r="Q255">
+        <v>0.25</v>
+      </c>
+      <c r="R255">
+        <v>1.8</v>
+      </c>
+      <c r="S255">
+        <v>2</v>
+      </c>
+      <c r="T255">
+        <v>2.75</v>
+      </c>
+      <c r="U255">
+        <v>1.75</v>
+      </c>
+      <c r="V255">
+        <v>1.95</v>
+      </c>
+      <c r="W255">
+        <v>-1</v>
+      </c>
+      <c r="X255">
+        <v>-1</v>
+      </c>
+      <c r="Y255">
+        <v>1.25</v>
+      </c>
+      <c r="Z255">
+        <v>-1</v>
+      </c>
+      <c r="AA255">
         <v>1</v>
       </c>
-      <c r="I255">
-        <v>1</v>
-      </c>
-      <c r="J255" t="s">
-        <v>54</v>
-      </c>
-      <c r="K255">
-        <v>1.6</v>
-      </c>
-      <c r="L255">
-        <v>3.75</v>
-      </c>
-      <c r="M255">
-        <v>4.5</v>
-      </c>
-      <c r="N255">
-        <v>1.727</v>
-      </c>
-      <c r="O255">
-        <v>3.6</v>
-      </c>
-      <c r="P255">
-        <v>3.8</v>
-      </c>
-      <c r="Q255">
-        <v>-0.5</v>
-      </c>
-      <c r="R255">
-        <v>1.75</v>
-      </c>
-      <c r="S255">
-        <v>1.95</v>
-      </c>
-      <c r="T255">
-        <v>2.5</v>
-      </c>
-      <c r="U255">
-        <v>1.975</v>
-      </c>
-      <c r="V255">
-        <v>1.825</v>
-      </c>
-      <c r="W255">
-        <v>-1</v>
-      </c>
-      <c r="X255">
-        <v>2.6</v>
-      </c>
-      <c r="Y255">
-        <v>-1</v>
-      </c>
-      <c r="Z255">
-        <v>-1</v>
-      </c>
-      <c r="AA255">
+      <c r="AB255">
+        <v>-1</v>
+      </c>
+      <c r="AC255">
         <v>0.95</v>
-      </c>
-      <c r="AB255">
-        <v>-1</v>
-      </c>
-      <c r="AC255">
-        <v>0.825</v>
       </c>
     </row>
     <row r="256" spans="1:29">
@@ -23246,7 +23246,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>6126691</v>
+        <v>6126690</v>
       </c>
       <c r="C256" t="s">
         <v>28</v>
@@ -23258,76 +23258,76 @@
         <v>45136.95833333334</v>
       </c>
       <c r="F256" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="G256" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H256">
         <v>1</v>
       </c>
       <c r="I256">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J256" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K256">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="L256">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M256">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="N256">
-        <v>2.05</v>
+        <v>1.727</v>
       </c>
       <c r="O256">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P256">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="Q256">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R256">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="S256">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T256">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U256">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V256">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W256">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X256">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y256">
         <v>-1</v>
       </c>
       <c r="Z256">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA256">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB256">
         <v>-1</v>
       </c>
       <c r="AC256">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="257" spans="1:29">
@@ -23869,7 +23869,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>6126706</v>
+        <v>6126708</v>
       </c>
       <c r="C263" t="s">
         <v>28</v>
@@ -23881,13 +23881,13 @@
         <v>45143.83333333334</v>
       </c>
       <c r="F263" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G263" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H263">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I263">
         <v>0</v>
@@ -23896,43 +23896,43 @@
         <v>55</v>
       </c>
       <c r="K263">
-        <v>2.15</v>
+        <v>2.55</v>
       </c>
       <c r="L263">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M263">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="N263">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="O263">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P263">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="Q263">
         <v>-0.25</v>
       </c>
       <c r="R263">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S263">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T263">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U263">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V263">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="W263">
-        <v>0.95</v>
+        <v>1.2</v>
       </c>
       <c r="X263">
         <v>-1</v>
@@ -23941,16 +23941,16 @@
         <v>-1</v>
       </c>
       <c r="Z263">
-        <v>0.7749999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA263">
         <v>-1</v>
       </c>
       <c r="AB263">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC263">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="264" spans="1:29">
@@ -23958,7 +23958,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>6126708</v>
+        <v>6126702</v>
       </c>
       <c r="C264" t="s">
         <v>28</v>
@@ -23970,73 +23970,73 @@
         <v>45143.83333333334</v>
       </c>
       <c r="F264" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="G264" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H264">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I264">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J264" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K264">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="L264">
         <v>3.25</v>
       </c>
       <c r="M264">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="N264">
         <v>2.2</v>
       </c>
       <c r="O264">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P264">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q264">
         <v>-0.25</v>
       </c>
       <c r="R264">
+        <v>1.975</v>
+      </c>
+      <c r="S264">
+        <v>1.825</v>
+      </c>
+      <c r="T264">
+        <v>2.5</v>
+      </c>
+      <c r="U264">
+        <v>1.925</v>
+      </c>
+      <c r="V264">
+        <v>1.875</v>
+      </c>
+      <c r="W264">
+        <v>-1</v>
+      </c>
+      <c r="X264">
+        <v>-1</v>
+      </c>
+      <c r="Y264">
         <v>2</v>
       </c>
-      <c r="S264">
-        <v>1.8</v>
-      </c>
-      <c r="T264">
-        <v>2.75</v>
-      </c>
-      <c r="U264">
-        <v>2</v>
-      </c>
-      <c r="V264">
-        <v>1.8</v>
-      </c>
-      <c r="W264">
-        <v>1.2</v>
-      </c>
-      <c r="X264">
-        <v>-1</v>
-      </c>
-      <c r="Y264">
-        <v>-1</v>
-      </c>
       <c r="Z264">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA264">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB264">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AC264">
         <v>-1</v>
@@ -24047,7 +24047,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>6126702</v>
+        <v>6126706</v>
       </c>
       <c r="C265" t="s">
         <v>28</v>
@@ -24059,76 +24059,76 @@
         <v>45143.83333333334</v>
       </c>
       <c r="F265" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G265" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H265">
         <v>1</v>
       </c>
       <c r="I265">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J265" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K265">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="L265">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M265">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="N265">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="O265">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P265">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Q265">
         <v>-0.25</v>
       </c>
       <c r="R265">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S265">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T265">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U265">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V265">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W265">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X265">
         <v>-1</v>
       </c>
       <c r="Y265">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z265">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA265">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB265">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC265">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="266" spans="1:29">
@@ -25026,7 +25026,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>6126713</v>
+        <v>6126721</v>
       </c>
       <c r="C276" t="s">
         <v>28</v>
@@ -25038,46 +25038,46 @@
         <v>45150.85416666666</v>
       </c>
       <c r="F276" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G276" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H276">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I276">
         <v>1</v>
       </c>
       <c r="J276" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K276">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="L276">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="M276">
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="N276">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="O276">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P276">
-        <v>2.4</v>
+        <v>5.25</v>
       </c>
       <c r="Q276">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R276">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S276">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T276">
         <v>2.5</v>
@@ -25089,25 +25089,25 @@
         <v>1.925</v>
       </c>
       <c r="W276">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X276">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y276">
         <v>-1</v>
       </c>
       <c r="Z276">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA276">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB276">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC276">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="277" spans="1:29">
@@ -25115,7 +25115,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>6126721</v>
+        <v>6126714</v>
       </c>
       <c r="C277" t="s">
         <v>28</v>
@@ -25127,76 +25127,76 @@
         <v>45150.85416666666</v>
       </c>
       <c r="F277" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G277" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H277">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I277">
         <v>1</v>
       </c>
       <c r="J277" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K277">
-        <v>1.4</v>
+        <v>2.45</v>
       </c>
       <c r="L277">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="M277">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="N277">
+        <v>2.45</v>
+      </c>
+      <c r="O277">
+        <v>3.2</v>
+      </c>
+      <c r="P277">
+        <v>2.5</v>
+      </c>
+      <c r="Q277">
+        <v>0</v>
+      </c>
+      <c r="R277">
+        <v>1.875</v>
+      </c>
+      <c r="S277">
+        <v>1.925</v>
+      </c>
+      <c r="T277">
+        <v>2.25</v>
+      </c>
+      <c r="U277">
+        <v>1.95</v>
+      </c>
+      <c r="V277">
+        <v>1.85</v>
+      </c>
+      <c r="W277">
+        <v>-1</v>
+      </c>
+      <c r="X277">
+        <v>-1</v>
+      </c>
+      <c r="Y277">
         <v>1.5</v>
       </c>
-      <c r="O277">
-        <v>4</v>
-      </c>
-      <c r="P277">
-        <v>5.25</v>
-      </c>
-      <c r="Q277">
-        <v>-1</v>
-      </c>
-      <c r="R277">
-        <v>1.825</v>
-      </c>
-      <c r="S277">
-        <v>1.975</v>
-      </c>
-      <c r="T277">
-        <v>2.5</v>
-      </c>
-      <c r="U277">
-        <v>1.875</v>
-      </c>
-      <c r="V277">
-        <v>1.925</v>
-      </c>
-      <c r="W277">
-        <v>0.5</v>
-      </c>
-      <c r="X277">
-        <v>-1</v>
-      </c>
-      <c r="Y277">
-        <v>-1</v>
-      </c>
       <c r="Z277">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA277">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB277">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC277">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="278" spans="1:29">
@@ -25204,7 +25204,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>6126714</v>
+        <v>6126713</v>
       </c>
       <c r="C278" t="s">
         <v>28</v>
@@ -25216,76 +25216,76 @@
         <v>45150.85416666666</v>
       </c>
       <c r="F278" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G278" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I278">
         <v>1</v>
       </c>
       <c r="J278" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K278">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="L278">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M278">
         <v>2.5</v>
       </c>
       <c r="N278">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="O278">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P278">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="Q278">
         <v>0</v>
       </c>
       <c r="R278">
+        <v>1.95</v>
+      </c>
+      <c r="S278">
+        <v>1.85</v>
+      </c>
+      <c r="T278">
+        <v>2.5</v>
+      </c>
+      <c r="U278">
         <v>1.875</v>
       </c>
-      <c r="S278">
+      <c r="V278">
         <v>1.925</v>
       </c>
-      <c r="T278">
-        <v>2.25</v>
-      </c>
-      <c r="U278">
-        <v>1.95</v>
-      </c>
-      <c r="V278">
-        <v>1.85</v>
-      </c>
       <c r="W278">
         <v>-1</v>
       </c>
       <c r="X278">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y278">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z278">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA278">
+        <v>-0</v>
+      </c>
+      <c r="AB278">
+        <v>-1</v>
+      </c>
+      <c r="AC278">
         <v>0.925</v>
-      </c>
-      <c r="AB278">
-        <v>-1</v>
-      </c>
-      <c r="AC278">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="279" spans="1:29">
@@ -26628,7 +26628,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>6126735</v>
+        <v>6126728</v>
       </c>
       <c r="C294" t="s">
         <v>28</v>
@@ -26640,73 +26640,73 @@
         <v>45157.9375</v>
       </c>
       <c r="F294" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G294" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H294">
         <v>2</v>
       </c>
       <c r="I294">
+        <v>3</v>
+      </c>
+      <c r="J294" t="s">
+        <v>53</v>
+      </c>
+      <c r="K294">
+        <v>2.2</v>
+      </c>
+      <c r="L294">
+        <v>3.4</v>
+      </c>
+      <c r="M294">
+        <v>2.75</v>
+      </c>
+      <c r="N294">
+        <v>2.2</v>
+      </c>
+      <c r="O294">
+        <v>3.3</v>
+      </c>
+      <c r="P294">
+        <v>2.75</v>
+      </c>
+      <c r="Q294">
+        <v>-0.25</v>
+      </c>
+      <c r="R294">
         <v>2</v>
       </c>
-      <c r="J294" t="s">
-        <v>54</v>
-      </c>
-      <c r="K294">
-        <v>1.65</v>
-      </c>
-      <c r="L294">
-        <v>3.6</v>
-      </c>
-      <c r="M294">
-        <v>4.333</v>
-      </c>
-      <c r="N294">
+      <c r="S294">
+        <v>1.8</v>
+      </c>
+      <c r="T294">
+        <v>2.5</v>
+      </c>
+      <c r="U294">
+        <v>1.85</v>
+      </c>
+      <c r="V294">
+        <v>1.95</v>
+      </c>
+      <c r="W294">
+        <v>-1</v>
+      </c>
+      <c r="X294">
+        <v>-1</v>
+      </c>
+      <c r="Y294">
         <v>1.75</v>
       </c>
-      <c r="O294">
-        <v>3.6</v>
-      </c>
-      <c r="P294">
-        <v>3.8</v>
-      </c>
-      <c r="Q294">
-        <v>-0.5</v>
-      </c>
-      <c r="R294">
-        <v>1.775</v>
-      </c>
-      <c r="S294">
-        <v>1.925</v>
-      </c>
-      <c r="T294">
-        <v>3</v>
-      </c>
-      <c r="U294">
-        <v>1.95</v>
-      </c>
-      <c r="V294">
-        <v>1.85</v>
-      </c>
-      <c r="W294">
-        <v>-1</v>
-      </c>
-      <c r="X294">
-        <v>2.6</v>
-      </c>
-      <c r="Y294">
-        <v>-1</v>
-      </c>
       <c r="Z294">
         <v>-1</v>
       </c>
       <c r="AA294">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AB294">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC294">
         <v>-1</v>
@@ -26717,7 +26717,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>6126728</v>
+        <v>6126735</v>
       </c>
       <c r="C295" t="s">
         <v>28</v>
@@ -26729,73 +26729,73 @@
         <v>45157.9375</v>
       </c>
       <c r="F295" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G295" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H295">
         <v>2</v>
       </c>
       <c r="I295">
+        <v>2</v>
+      </c>
+      <c r="J295" t="s">
+        <v>54</v>
+      </c>
+      <c r="K295">
+        <v>1.65</v>
+      </c>
+      <c r="L295">
+        <v>3.6</v>
+      </c>
+      <c r="M295">
+        <v>4.333</v>
+      </c>
+      <c r="N295">
+        <v>1.75</v>
+      </c>
+      <c r="O295">
+        <v>3.6</v>
+      </c>
+      <c r="P295">
+        <v>3.8</v>
+      </c>
+      <c r="Q295">
+        <v>-0.5</v>
+      </c>
+      <c r="R295">
+        <v>1.775</v>
+      </c>
+      <c r="S295">
+        <v>1.925</v>
+      </c>
+      <c r="T295">
         <v>3</v>
       </c>
-      <c r="J295" t="s">
-        <v>53</v>
-      </c>
-      <c r="K295">
-        <v>2.2</v>
-      </c>
-      <c r="L295">
-        <v>3.4</v>
-      </c>
-      <c r="M295">
-        <v>2.75</v>
-      </c>
-      <c r="N295">
-        <v>2.2</v>
-      </c>
-      <c r="O295">
-        <v>3.3</v>
-      </c>
-      <c r="P295">
-        <v>2.75</v>
-      </c>
-      <c r="Q295">
-        <v>-0.25</v>
-      </c>
-      <c r="R295">
-        <v>2</v>
-      </c>
-      <c r="S295">
-        <v>1.8</v>
-      </c>
-      <c r="T295">
-        <v>2.5</v>
-      </c>
       <c r="U295">
+        <v>1.95</v>
+      </c>
+      <c r="V295">
         <v>1.85</v>
       </c>
-      <c r="V295">
-        <v>1.95</v>
-      </c>
       <c r="W295">
         <v>-1</v>
       </c>
       <c r="X295">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y295">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z295">
         <v>-1</v>
       </c>
       <c r="AA295">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB295">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC295">
         <v>-1</v>
@@ -27340,7 +27340,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>6126745</v>
+        <v>6126744</v>
       </c>
       <c r="C302" t="s">
         <v>28</v>
@@ -27352,76 +27352,76 @@
         <v>45164.83333333334</v>
       </c>
       <c r="F302" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G302" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H302">
+        <v>0</v>
+      </c>
+      <c r="I302">
         <v>2</v>
       </c>
-      <c r="I302">
-        <v>1</v>
-      </c>
       <c r="J302" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K302">
-        <v>1.8</v>
+        <v>2.875</v>
       </c>
       <c r="L302">
         <v>3.5</v>
       </c>
       <c r="M302">
-        <v>4.1</v>
+        <v>2.25</v>
       </c>
       <c r="N302">
-        <v>1.571</v>
+        <v>2.15</v>
       </c>
       <c r="O302">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P302">
-        <v>5.25</v>
+        <v>2.7</v>
       </c>
       <c r="Q302">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R302">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S302">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T302">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U302">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V302">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W302">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X302">
         <v>-1</v>
       </c>
       <c r="Y302">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z302">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA302">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB302">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AC302">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="303" spans="1:29">
@@ -27429,7 +27429,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>6126753</v>
+        <v>6126745</v>
       </c>
       <c r="C303" t="s">
         <v>28</v>
@@ -27441,76 +27441,76 @@
         <v>45164.83333333334</v>
       </c>
       <c r="F303" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="G303" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H303">
+        <v>2</v>
+      </c>
+      <c r="I303">
+        <v>1</v>
+      </c>
+      <c r="J303" t="s">
+        <v>55</v>
+      </c>
+      <c r="K303">
+        <v>1.8</v>
+      </c>
+      <c r="L303">
+        <v>3.5</v>
+      </c>
+      <c r="M303">
+        <v>4.1</v>
+      </c>
+      <c r="N303">
+        <v>1.571</v>
+      </c>
+      <c r="O303">
+        <v>4</v>
+      </c>
+      <c r="P303">
+        <v>5.25</v>
+      </c>
+      <c r="Q303">
+        <v>-1</v>
+      </c>
+      <c r="R303">
+        <v>1.925</v>
+      </c>
+      <c r="S303">
+        <v>1.875</v>
+      </c>
+      <c r="T303">
+        <v>2.75</v>
+      </c>
+      <c r="U303">
+        <v>1.875</v>
+      </c>
+      <c r="V303">
+        <v>1.925</v>
+      </c>
+      <c r="W303">
+        <v>0.571</v>
+      </c>
+      <c r="X303">
+        <v>-1</v>
+      </c>
+      <c r="Y303">
+        <v>-1</v>
+      </c>
+      <c r="Z303">
         <v>0</v>
       </c>
-      <c r="I303">
-        <v>2</v>
-      </c>
-      <c r="J303" t="s">
-        <v>53</v>
-      </c>
-      <c r="K303">
-        <v>2.45</v>
-      </c>
-      <c r="L303">
-        <v>3.4</v>
-      </c>
-      <c r="M303">
-        <v>2.6</v>
-      </c>
-      <c r="N303">
-        <v>2.75</v>
-      </c>
-      <c r="O303">
-        <v>3.4</v>
-      </c>
-      <c r="P303">
-        <v>2.375</v>
-      </c>
-      <c r="Q303">
-        <v>0</v>
-      </c>
-      <c r="R303">
-        <v>2.05</v>
-      </c>
-      <c r="S303">
-        <v>1.75</v>
-      </c>
-      <c r="T303">
-        <v>2.5</v>
-      </c>
-      <c r="U303">
-        <v>1.925</v>
-      </c>
-      <c r="V303">
-        <v>1.875</v>
-      </c>
-      <c r="W303">
-        <v>-1</v>
-      </c>
-      <c r="X303">
-        <v>-1</v>
-      </c>
-      <c r="Y303">
-        <v>1.375</v>
-      </c>
-      <c r="Z303">
-        <v>-1</v>
-      </c>
       <c r="AA303">
-        <v>0.75</v>
+        <v>-0</v>
       </c>
       <c r="AB303">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC303">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="304" spans="1:29">
@@ -27518,7 +27518,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>6126744</v>
+        <v>6126753</v>
       </c>
       <c r="C304" t="s">
         <v>28</v>
@@ -27530,10 +27530,10 @@
         <v>45164.83333333334</v>
       </c>
       <c r="F304" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G304" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H304">
         <v>0</v>
@@ -27545,40 +27545,40 @@
         <v>53</v>
       </c>
       <c r="K304">
-        <v>2.875</v>
+        <v>2.45</v>
       </c>
       <c r="L304">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M304">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="N304">
-        <v>2.15</v>
+        <v>2.75</v>
       </c>
       <c r="O304">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P304">
-        <v>2.7</v>
+        <v>2.375</v>
       </c>
       <c r="Q304">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R304">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S304">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="T304">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U304">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V304">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W304">
         <v>-1</v>
@@ -27587,19 +27587,19 @@
         <v>-1</v>
       </c>
       <c r="Y304">
-        <v>1.7</v>
+        <v>1.375</v>
       </c>
       <c r="Z304">
         <v>-1</v>
       </c>
       <c r="AA304">
-        <v>0.8500000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AB304">
         <v>-1</v>
       </c>
       <c r="AC304">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="305" spans="1:29">
@@ -27607,7 +27607,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>6126743</v>
+        <v>6126747</v>
       </c>
       <c r="C305" t="s">
         <v>28</v>
@@ -27619,16 +27619,16 @@
         <v>45164.85416666666</v>
       </c>
       <c r="F305" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="G305" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="H305">
+        <v>2</v>
+      </c>
+      <c r="I305">
         <v>1</v>
-      </c>
-      <c r="I305">
-        <v>0</v>
       </c>
       <c r="J305" t="s">
         <v>55</v>
@@ -27643,34 +27643,34 @@
         <v>3.25</v>
       </c>
       <c r="N305">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="O305">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P305">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="Q305">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R305">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S305">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T305">
         <v>2.5</v>
       </c>
       <c r="U305">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V305">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W305">
-        <v>1.1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X305">
         <v>-1</v>
@@ -27679,16 +27679,16 @@
         <v>-1</v>
       </c>
       <c r="Z305">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA305">
         <v>-1</v>
       </c>
       <c r="AB305">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC305">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="306" spans="1:29">
@@ -27696,7 +27696,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>6126747</v>
+        <v>6126743</v>
       </c>
       <c r="C306" t="s">
         <v>28</v>
@@ -27708,16 +27708,16 @@
         <v>45164.85416666666</v>
       </c>
       <c r="F306" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G306" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I306">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J306" t="s">
         <v>55</v>
@@ -27732,34 +27732,34 @@
         <v>3.25</v>
       </c>
       <c r="N306">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="O306">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P306">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q306">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R306">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S306">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T306">
         <v>2.5</v>
       </c>
       <c r="U306">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V306">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W306">
-        <v>0.8500000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="X306">
         <v>-1</v>
@@ -27768,16 +27768,16 @@
         <v>-1</v>
       </c>
       <c r="Z306">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA306">
         <v>-1</v>
       </c>
       <c r="AB306">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC306">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="307" spans="1:29">
@@ -27874,7 +27874,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>6126749</v>
+        <v>6126752</v>
       </c>
       <c r="C308" t="s">
         <v>28</v>
@@ -27886,40 +27886,40 @@
         <v>45164.91666666666</v>
       </c>
       <c r="F308" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="G308" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J308" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K308">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="L308">
         <v>3.5</v>
       </c>
       <c r="M308">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="N308">
-        <v>1.5</v>
+        <v>1.833</v>
       </c>
       <c r="O308">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P308">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="Q308">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R308">
         <v>1.825</v>
@@ -27928,7 +27928,7 @@
         <v>1.975</v>
       </c>
       <c r="T308">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U308">
         <v>1.825</v>
@@ -27937,25 +27937,25 @@
         <v>1.975</v>
       </c>
       <c r="W308">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X308">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y308">
         <v>-1</v>
       </c>
       <c r="Z308">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA308">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB308">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC308">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="309" spans="1:29">
@@ -27963,7 +27963,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>6126752</v>
+        <v>6126749</v>
       </c>
       <c r="C309" t="s">
         <v>28</v>
@@ -27975,40 +27975,40 @@
         <v>45164.91666666666</v>
       </c>
       <c r="F309" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="G309" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J309" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K309">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="L309">
         <v>3.5</v>
       </c>
       <c r="M309">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="N309">
-        <v>1.833</v>
+        <v>1.5</v>
       </c>
       <c r="O309">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P309">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="Q309">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R309">
         <v>1.825</v>
@@ -28017,7 +28017,7 @@
         <v>1.975</v>
       </c>
       <c r="T309">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U309">
         <v>1.825</v>
@@ -28026,25 +28026,25 @@
         <v>1.975</v>
       </c>
       <c r="W309">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X309">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y309">
         <v>-1</v>
       </c>
       <c r="Z309">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA309">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB309">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC309">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="310" spans="1:29">
@@ -28942,7 +28942,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>6126763</v>
+        <v>6126758</v>
       </c>
       <c r="C320" t="s">
         <v>28</v>
@@ -28954,55 +28954,55 @@
         <v>45171.91666666666</v>
       </c>
       <c r="F320" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G320" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J320" t="s">
         <v>53</v>
       </c>
       <c r="K320">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="L320">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M320">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="N320">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="O320">
         <v>3.4</v>
       </c>
       <c r="P320">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="Q320">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R320">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S320">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T320">
         <v>2.5</v>
       </c>
       <c r="U320">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V320">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W320">
         <v>-1</v>
@@ -29011,19 +29011,19 @@
         <v>-1</v>
       </c>
       <c r="Y320">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="Z320">
         <v>-1</v>
       </c>
       <c r="AA320">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB320">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC320">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="321" spans="1:29">
@@ -29031,7 +29031,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>6126758</v>
+        <v>6126763</v>
       </c>
       <c r="C321" t="s">
         <v>28</v>
@@ -29043,55 +29043,55 @@
         <v>45171.91666666666</v>
       </c>
       <c r="F321" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G321" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H321">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I321">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J321" t="s">
         <v>53</v>
       </c>
       <c r="K321">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="L321">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M321">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="N321">
-        <v>2.4</v>
+        <v>2.05</v>
       </c>
       <c r="O321">
         <v>3.4</v>
       </c>
       <c r="P321">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="Q321">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R321">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S321">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T321">
         <v>2.5</v>
       </c>
       <c r="U321">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V321">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W321">
         <v>-1</v>
@@ -29100,19 +29100,19 @@
         <v>-1</v>
       </c>
       <c r="Y321">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="Z321">
         <v>-1</v>
       </c>
       <c r="AA321">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB321">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC321">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="322" spans="1:29">
@@ -31345,7 +31345,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>6126787</v>
+        <v>6126790</v>
       </c>
       <c r="C347" t="s">
         <v>28</v>
@@ -31357,46 +31357,46 @@
         <v>45185.95833333334</v>
       </c>
       <c r="F347" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G347" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="H347">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I347">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J347" t="s">
         <v>55</v>
       </c>
       <c r="K347">
-        <v>1.727</v>
+        <v>1.5</v>
       </c>
       <c r="L347">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M347">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="N347">
-        <v>1.833</v>
+        <v>1.65</v>
       </c>
       <c r="O347">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P347">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="Q347">
         <v>-0.75</v>
       </c>
       <c r="R347">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="S347">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="T347">
         <v>2.75</v>
@@ -31408,7 +31408,7 @@
         <v>1.85</v>
       </c>
       <c r="W347">
-        <v>0.833</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X347">
         <v>-1</v>
@@ -31417,16 +31417,16 @@
         <v>-1</v>
       </c>
       <c r="Z347">
-        <v>0.55</v>
+        <v>0.425</v>
       </c>
       <c r="AA347">
         <v>-0.5</v>
       </c>
       <c r="AB347">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC347">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="348" spans="1:29">
@@ -31523,7 +31523,7 @@
         <v>347</v>
       </c>
       <c r="B349">
-        <v>6126790</v>
+        <v>6126787</v>
       </c>
       <c r="C349" t="s">
         <v>28</v>
@@ -31535,46 +31535,46 @@
         <v>45185.95833333334</v>
       </c>
       <c r="F349" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G349" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="H349">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I349">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J349" t="s">
         <v>55</v>
       </c>
       <c r="K349">
-        <v>1.5</v>
+        <v>1.727</v>
       </c>
       <c r="L349">
+        <v>3.75</v>
+      </c>
+      <c r="M349">
         <v>4.2</v>
       </c>
-      <c r="M349">
-        <v>5.5</v>
-      </c>
       <c r="N349">
-        <v>1.65</v>
+        <v>1.833</v>
       </c>
       <c r="O349">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P349">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Q349">
         <v>-0.75</v>
       </c>
       <c r="R349">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="S349">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="T349">
         <v>2.75</v>
@@ -31586,7 +31586,7 @@
         <v>1.85</v>
       </c>
       <c r="W349">
-        <v>0.6499999999999999</v>
+        <v>0.833</v>
       </c>
       <c r="X349">
         <v>-1</v>
@@ -31595,16 +31595,16 @@
         <v>-1</v>
       </c>
       <c r="Z349">
-        <v>0.425</v>
+        <v>0.55</v>
       </c>
       <c r="AA349">
         <v>-0.5</v>
       </c>
       <c r="AB349">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC349">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="350" spans="1:29">
@@ -33837,7 +33837,7 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>6413716</v>
+        <v>6418146</v>
       </c>
       <c r="C375" t="s">
         <v>28</v>
@@ -33849,76 +33849,76 @@
         <v>45199.875</v>
       </c>
       <c r="F375" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G375" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H375">
         <v>1</v>
       </c>
       <c r="I375">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J375" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K375">
-        <v>1.727</v>
+        <v>1.833</v>
       </c>
       <c r="L375">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M375">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="N375">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="O375">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P375">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q375">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R375">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S375">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T375">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U375">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V375">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W375">
         <v>-1</v>
       </c>
       <c r="X375">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y375">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z375">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA375">
-        <v>0.8999999999999999</v>
+        <v>0.4875</v>
       </c>
       <c r="AB375">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC375">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="376" spans="1:29">
@@ -33926,7 +33926,7 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>6418146</v>
+        <v>6413716</v>
       </c>
       <c r="C376" t="s">
         <v>28</v>
@@ -33938,76 +33938,76 @@
         <v>45199.875</v>
       </c>
       <c r="F376" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G376" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H376">
         <v>1</v>
       </c>
       <c r="I376">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J376" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K376">
-        <v>1.833</v>
+        <v>1.727</v>
       </c>
       <c r="L376">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M376">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="N376">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="O376">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P376">
+        <v>4</v>
+      </c>
+      <c r="Q376">
+        <v>-0.75</v>
+      </c>
+      <c r="R376">
+        <v>1.9</v>
+      </c>
+      <c r="S376">
+        <v>1.9</v>
+      </c>
+      <c r="T376">
         <v>3</v>
       </c>
-      <c r="Q376">
-        <v>-0.25</v>
-      </c>
-      <c r="R376">
-        <v>1.825</v>
-      </c>
-      <c r="S376">
-        <v>1.975</v>
-      </c>
-      <c r="T376">
-        <v>2.75</v>
-      </c>
       <c r="U376">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V376">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W376">
         <v>-1</v>
       </c>
       <c r="X376">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y376">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z376">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA376">
-        <v>0.4875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB376">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC376">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="377" spans="1:29">
@@ -36596,7 +36596,7 @@
         <v>404</v>
       </c>
       <c r="B406">
-        <v>6504695</v>
+        <v>6492480</v>
       </c>
       <c r="C406" t="s">
         <v>28</v>
@@ -36608,56 +36608,56 @@
         <v>45213.95833333334</v>
       </c>
       <c r="F406" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="G406" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I406">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J406" t="s">
         <v>53</v>
       </c>
       <c r="K406">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="L406">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M406">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="N406">
-        <v>3.8</v>
+        <v>1.727</v>
       </c>
       <c r="O406">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P406">
+        <v>3.75</v>
+      </c>
+      <c r="Q406">
+        <v>-0.75</v>
+      </c>
+      <c r="R406">
+        <v>1.95</v>
+      </c>
+      <c r="S406">
+        <v>1.85</v>
+      </c>
+      <c r="T406">
+        <v>2.75</v>
+      </c>
+      <c r="U406">
         <v>1.8</v>
       </c>
-      <c r="Q406">
-        <v>0.75</v>
-      </c>
-      <c r="R406">
-        <v>1.8</v>
-      </c>
-      <c r="S406">
+      <c r="V406">
         <v>2</v>
       </c>
-      <c r="T406">
-        <v>2.5</v>
-      </c>
-      <c r="U406">
-        <v>1.875</v>
-      </c>
-      <c r="V406">
-        <v>1.925</v>
-      </c>
       <c r="W406">
         <v>-1</v>
       </c>
@@ -36665,19 +36665,19 @@
         <v>-1</v>
       </c>
       <c r="Y406">
-        <v>0.8</v>
+        <v>2.75</v>
       </c>
       <c r="Z406">
+        <v>-1</v>
+      </c>
+      <c r="AA406">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB406">
+        <v>0.4</v>
+      </c>
+      <c r="AC406">
         <v>-0.5</v>
-      </c>
-      <c r="AA406">
-        <v>0.5</v>
-      </c>
-      <c r="AB406">
-        <v>-1</v>
-      </c>
-      <c r="AC406">
-        <v>0.925</v>
       </c>
     </row>
     <row r="407" spans="1:29">
@@ -36685,7 +36685,7 @@
         <v>405</v>
       </c>
       <c r="B407">
-        <v>6492480</v>
+        <v>6504524</v>
       </c>
       <c r="C407" t="s">
         <v>28</v>
@@ -36697,37 +36697,37 @@
         <v>45213.95833333334</v>
       </c>
       <c r="F407" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G407" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H407">
         <v>1</v>
       </c>
       <c r="I407">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J407" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K407">
-        <v>1.95</v>
+        <v>1.533</v>
       </c>
       <c r="L407">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M407">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="N407">
-        <v>1.727</v>
+        <v>1.7</v>
       </c>
       <c r="O407">
         <v>3.75</v>
       </c>
       <c r="P407">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q407">
         <v>-0.75</v>
@@ -36742,31 +36742,31 @@
         <v>2.75</v>
       </c>
       <c r="U407">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V407">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W407">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X407">
         <v>-1</v>
       </c>
       <c r="Y407">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z407">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA407">
+        <v>-0.5</v>
+      </c>
+      <c r="AB407">
+        <v>-1</v>
+      </c>
+      <c r="AC407">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB407">
-        <v>0.4</v>
-      </c>
-      <c r="AC407">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="408" spans="1:29">
@@ -36774,7 +36774,7 @@
         <v>406</v>
       </c>
       <c r="B408">
-        <v>6504524</v>
+        <v>6504695</v>
       </c>
       <c r="C408" t="s">
         <v>28</v>
@@ -36786,76 +36786,76 @@
         <v>45213.95833333334</v>
       </c>
       <c r="F408" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G408" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H408">
+        <v>0</v>
+      </c>
+      <c r="I408">
         <v>1</v>
       </c>
-      <c r="I408">
-        <v>0</v>
-      </c>
       <c r="J408" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K408">
-        <v>1.533</v>
+        <v>2.3</v>
       </c>
       <c r="L408">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M408">
-        <v>4.75</v>
+        <v>2.6</v>
       </c>
       <c r="N408">
-        <v>1.7</v>
+        <v>3.8</v>
       </c>
       <c r="O408">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P408">
-        <v>3.8</v>
+        <v>1.8</v>
       </c>
       <c r="Q408">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R408">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S408">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T408">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U408">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V408">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W408">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X408">
         <v>-1</v>
       </c>
       <c r="Y408">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z408">
-        <v>0.475</v>
+        <v>-0.5</v>
       </c>
       <c r="AA408">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="AB408">
         <v>-1</v>
       </c>
       <c r="AC408">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="409" spans="1:29">

--- a/USA USL Championship/USA USL Championship.xlsx
+++ b/USA USL Championship/USA USL Championship.xlsx
@@ -2153,7 +2153,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6126455</v>
+        <v>6126456</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2165,76 +2165,76 @@
         <v>45003.95833333334</v>
       </c>
       <c r="F19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19">
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K19">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="L19">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M19">
-        <v>1.666</v>
+        <v>3.1</v>
       </c>
       <c r="N19">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="O19">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P19">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="Q19">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R19">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="S19">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="T19">
         <v>2.75</v>
       </c>
       <c r="U19">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="V19">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="W19">
         <v>-1</v>
       </c>
       <c r="X19">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y19">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z19">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA19">
-        <v>0.5249999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB19">
         <v>-1</v>
       </c>
       <c r="AC19">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2242,7 +2242,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6126457</v>
+        <v>6126455</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2254,76 +2254,76 @@
         <v>45003.95833333334</v>
       </c>
       <c r="F20" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G20" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K20">
-        <v>1.666</v>
+        <v>4.2</v>
       </c>
       <c r="L20">
         <v>3.6</v>
       </c>
       <c r="M20">
-        <v>4.2</v>
+        <v>1.666</v>
       </c>
       <c r="N20">
-        <v>1.45</v>
+        <v>3.8</v>
       </c>
       <c r="O20">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="P20">
-        <v>5.5</v>
+        <v>1.8</v>
       </c>
       <c r="Q20">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R20">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S20">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T20">
         <v>2.75</v>
       </c>
       <c r="U20">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V20">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W20">
         <v>-1</v>
       </c>
       <c r="X20">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y20">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z20">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA20">
-        <v>0.8500000000000001</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB20">
         <v>-1</v>
       </c>
       <c r="AC20">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2331,7 +2331,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6126456</v>
+        <v>6126457</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2343,10 +2343,10 @@
         <v>45003.95833333334</v>
       </c>
       <c r="F21" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -2358,61 +2358,61 @@
         <v>54</v>
       </c>
       <c r="K21">
-        <v>2.1</v>
+        <v>1.666</v>
       </c>
       <c r="L21">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M21">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="N21">
-        <v>2.7</v>
+        <v>1.45</v>
       </c>
       <c r="O21">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="P21">
-        <v>2.4</v>
+        <v>5.5</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R21">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S21">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T21">
         <v>2.75</v>
       </c>
       <c r="U21">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="V21">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="W21">
         <v>-1</v>
       </c>
       <c r="X21">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="Y21">
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA21">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB21">
         <v>-1</v>
       </c>
       <c r="AC21">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -3221,7 +3221,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6126472</v>
+        <v>6126466</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3233,13 +3233,13 @@
         <v>45010.89583333334</v>
       </c>
       <c r="F31" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="G31" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -3248,7 +3248,7 @@
         <v>55</v>
       </c>
       <c r="K31">
-        <v>1.666</v>
+        <v>1.7</v>
       </c>
       <c r="L31">
         <v>3.6</v>
@@ -3257,34 +3257,34 @@
         <v>4.2</v>
       </c>
       <c r="N31">
-        <v>1.666</v>
+        <v>1.65</v>
       </c>
       <c r="O31">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P31">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="Q31">
         <v>-0.75</v>
       </c>
       <c r="R31">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S31">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T31">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U31">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V31">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W31">
-        <v>0.6659999999999999</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X31">
         <v>-1</v>
@@ -3293,16 +3293,16 @@
         <v>-1</v>
       </c>
       <c r="Z31">
-        <v>0.45</v>
+        <v>0.825</v>
       </c>
       <c r="AA31">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB31">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC31">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3310,7 +3310,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6126466</v>
+        <v>6126472</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3322,13 +3322,13 @@
         <v>45010.89583333334</v>
       </c>
       <c r="F32" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="G32" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -3337,7 +3337,7 @@
         <v>55</v>
       </c>
       <c r="K32">
-        <v>1.7</v>
+        <v>1.666</v>
       </c>
       <c r="L32">
         <v>3.6</v>
@@ -3346,34 +3346,34 @@
         <v>4.2</v>
       </c>
       <c r="N32">
-        <v>1.65</v>
+        <v>1.666</v>
       </c>
       <c r="O32">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P32">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q32">
         <v>-0.75</v>
       </c>
       <c r="R32">
+        <v>1.9</v>
+      </c>
+      <c r="S32">
+        <v>1.9</v>
+      </c>
+      <c r="T32">
+        <v>2.5</v>
+      </c>
+      <c r="U32">
         <v>1.825</v>
       </c>
-      <c r="S32">
+      <c r="V32">
         <v>1.975</v>
       </c>
-      <c r="T32">
-        <v>3</v>
-      </c>
-      <c r="U32">
-        <v>1.95</v>
-      </c>
-      <c r="V32">
-        <v>1.85</v>
-      </c>
       <c r="W32">
-        <v>0.6499999999999999</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X32">
         <v>-1</v>
@@ -3382,16 +3382,16 @@
         <v>-1</v>
       </c>
       <c r="Z32">
-        <v>0.825</v>
+        <v>0.45</v>
       </c>
       <c r="AA32">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB32">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC32">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3399,7 +3399,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6126471</v>
+        <v>6126470</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3411,76 +3411,76 @@
         <v>45010.95833333334</v>
       </c>
       <c r="F33" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G33" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K33">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L33">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M33">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="N33">
-        <v>1.85</v>
+        <v>1.571</v>
       </c>
       <c r="O33">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P33">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="Q33">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R33">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S33">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T33">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U33">
+        <v>1.925</v>
+      </c>
+      <c r="V33">
         <v>1.875</v>
       </c>
-      <c r="V33">
-        <v>1.925</v>
-      </c>
       <c r="W33">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X33">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y33">
         <v>-1</v>
       </c>
       <c r="Z33">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA33">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB33">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC33">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3488,7 +3488,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6126470</v>
+        <v>6126471</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3500,76 +3500,76 @@
         <v>45010.95833333334</v>
       </c>
       <c r="F34" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G34" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34" t="s">
+        <v>55</v>
+      </c>
+      <c r="K34">
         <v>2</v>
       </c>
-      <c r="I34">
-        <v>2</v>
-      </c>
-      <c r="J34" t="s">
-        <v>54</v>
-      </c>
-      <c r="K34">
-        <v>1.8</v>
-      </c>
       <c r="L34">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M34">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="N34">
-        <v>1.571</v>
+        <v>1.85</v>
       </c>
       <c r="O34">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P34">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="Q34">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R34">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S34">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T34">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U34">
+        <v>1.875</v>
+      </c>
+      <c r="V34">
         <v>1.925</v>
       </c>
-      <c r="V34">
-        <v>1.875</v>
-      </c>
       <c r="W34">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X34">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y34">
         <v>-1</v>
       </c>
       <c r="Z34">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA34">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB34">
+        <v>-1</v>
+      </c>
+      <c r="AC34">
         <v>0.925</v>
-      </c>
-      <c r="AC34">
-        <v>-1</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -10519,7 +10519,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6126544</v>
+        <v>6126549</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10531,76 +10531,76 @@
         <v>45059.97916666666</v>
       </c>
       <c r="F113" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G113" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I113">
         <v>1</v>
       </c>
       <c r="J113" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K113">
-        <v>2.2</v>
+        <v>1.533</v>
       </c>
       <c r="L113">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M113">
-        <v>2.8</v>
+        <v>4.6</v>
       </c>
       <c r="N113">
-        <v>1.909</v>
+        <v>1.6</v>
       </c>
       <c r="O113">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P113">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="Q113">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R113">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S113">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T113">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U113">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V113">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W113">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X113">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y113">
         <v>-1</v>
       </c>
       <c r="Z113">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA113">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB113">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC113">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10608,7 +10608,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6126549</v>
+        <v>6126544</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10620,76 +10620,76 @@
         <v>45059.97916666666</v>
       </c>
       <c r="F114" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G114" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H114">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I114">
         <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K114">
-        <v>1.533</v>
+        <v>2.2</v>
       </c>
       <c r="L114">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M114">
-        <v>4.6</v>
+        <v>2.8</v>
       </c>
       <c r="N114">
-        <v>1.6</v>
+        <v>1.909</v>
       </c>
       <c r="O114">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P114">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="Q114">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R114">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S114">
+        <v>1.825</v>
+      </c>
+      <c r="T114">
+        <v>2.75</v>
+      </c>
+      <c r="U114">
         <v>1.95</v>
       </c>
-      <c r="T114">
-        <v>3</v>
-      </c>
-      <c r="U114">
-        <v>1.875</v>
-      </c>
       <c r="V114">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W114">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X114">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y114">
         <v>-1</v>
       </c>
       <c r="Z114">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA114">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB114">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC114">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -11142,7 +11142,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6126560</v>
+        <v>6126561</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11154,13 +11154,13 @@
         <v>45066.83333333334</v>
       </c>
       <c r="F120" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G120" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I120">
         <v>0</v>
@@ -11169,43 +11169,43 @@
         <v>55</v>
       </c>
       <c r="K120">
-        <v>2.3</v>
+        <v>2.875</v>
       </c>
       <c r="L120">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M120">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="N120">
-        <v>1.85</v>
+        <v>2.45</v>
       </c>
       <c r="O120">
         <v>3.5</v>
       </c>
       <c r="P120">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="Q120">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R120">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S120">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T120">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U120">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="V120">
         <v>1.95</v>
       </c>
       <c r="W120">
-        <v>0.8500000000000001</v>
+        <v>1.45</v>
       </c>
       <c r="X120">
         <v>-1</v>
@@ -11214,7 +11214,7 @@
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA120">
         <v>-1</v>
@@ -11231,7 +11231,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6126563</v>
+        <v>6126560</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11243,58 +11243,58 @@
         <v>45066.83333333334</v>
       </c>
       <c r="F121" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G121" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="H121">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J121" t="s">
         <v>55</v>
       </c>
       <c r="K121">
-        <v>1.666</v>
+        <v>2.3</v>
       </c>
       <c r="L121">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M121">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="N121">
-        <v>1.533</v>
+        <v>1.85</v>
       </c>
       <c r="O121">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P121">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="Q121">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R121">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S121">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T121">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U121">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V121">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W121">
-        <v>0.5329999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X121">
         <v>-1</v>
@@ -11303,16 +11303,16 @@
         <v>-1</v>
       </c>
       <c r="Z121">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA121">
         <v>-1</v>
       </c>
       <c r="AB121">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC121">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11320,7 +11320,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6126561</v>
+        <v>6126563</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11332,40 +11332,40 @@
         <v>45066.83333333334</v>
       </c>
       <c r="F122" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G122" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H122">
+        <v>4</v>
+      </c>
+      <c r="I122">
         <v>1</v>
-      </c>
-      <c r="I122">
-        <v>0</v>
       </c>
       <c r="J122" t="s">
         <v>55</v>
       </c>
       <c r="K122">
-        <v>2.875</v>
+        <v>1.666</v>
       </c>
       <c r="L122">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M122">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="N122">
-        <v>2.45</v>
+        <v>1.533</v>
       </c>
       <c r="O122">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P122">
-        <v>2.4</v>
+        <v>5</v>
       </c>
       <c r="Q122">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R122">
         <v>1.975</v>
@@ -11377,13 +11377,13 @@
         <v>2.5</v>
       </c>
       <c r="U122">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="V122">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W122">
-        <v>1.45</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X122">
         <v>-1</v>
@@ -11398,10 +11398,10 @@
         <v>-1</v>
       </c>
       <c r="AB122">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC122">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -15236,7 +15236,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6126609</v>
+        <v>6126615</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15248,55 +15248,55 @@
         <v>45094.83333333334</v>
       </c>
       <c r="F166" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G166" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H166">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I166">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J166" t="s">
         <v>53</v>
       </c>
       <c r="K166">
-        <v>2.875</v>
+        <v>1.7</v>
       </c>
       <c r="L166">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M166">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
       <c r="N166">
-        <v>2.45</v>
+        <v>1.666</v>
       </c>
       <c r="O166">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P166">
-        <v>2.55</v>
+        <v>4.75</v>
       </c>
       <c r="Q166">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R166">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S166">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T166">
         <v>2.75</v>
       </c>
       <c r="U166">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V166">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W166">
         <v>-1</v>
@@ -15305,19 +15305,19 @@
         <v>-1</v>
       </c>
       <c r="Y166">
-        <v>1.55</v>
+        <v>3.75</v>
       </c>
       <c r="Z166">
         <v>-1</v>
       </c>
       <c r="AA166">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AB166">
-        <v>0.925</v>
+        <v>0.475</v>
       </c>
       <c r="AC166">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15325,7 +15325,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6126615</v>
+        <v>6126609</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15337,55 +15337,55 @@
         <v>45094.83333333334</v>
       </c>
       <c r="F167" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G167" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I167">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J167" t="s">
         <v>53</v>
       </c>
       <c r="K167">
-        <v>1.7</v>
+        <v>2.875</v>
       </c>
       <c r="L167">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M167">
-        <v>4.5</v>
+        <v>2.2</v>
       </c>
       <c r="N167">
-        <v>1.666</v>
+        <v>2.45</v>
       </c>
       <c r="O167">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P167">
-        <v>4.75</v>
+        <v>2.55</v>
       </c>
       <c r="Q167">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R167">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S167">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T167">
         <v>2.75</v>
       </c>
       <c r="U167">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V167">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W167">
         <v>-1</v>
@@ -15394,19 +15394,19 @@
         <v>-1</v>
       </c>
       <c r="Y167">
-        <v>3.75</v>
+        <v>1.55</v>
       </c>
       <c r="Z167">
         <v>-1</v>
       </c>
       <c r="AA167">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AB167">
-        <v>0.475</v>
+        <v>0.925</v>
       </c>
       <c r="AC167">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -17194,7 +17194,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>6126627</v>
+        <v>6126625</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17206,76 +17206,76 @@
         <v>45101.95833333334</v>
       </c>
       <c r="F188" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G188" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H188">
         <v>1</v>
       </c>
       <c r="I188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J188" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K188">
         <v>1.833</v>
       </c>
       <c r="L188">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M188">
         <v>3.6</v>
       </c>
       <c r="N188">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="O188">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P188">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="Q188">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R188">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S188">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T188">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U188">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V188">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W188">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X188">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y188">
         <v>-1</v>
       </c>
       <c r="Z188">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA188">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB188">
         <v>-1</v>
       </c>
       <c r="AC188">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17283,7 +17283,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6126625</v>
+        <v>6126627</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17295,76 +17295,76 @@
         <v>45101.95833333334</v>
       </c>
       <c r="F189" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="G189" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H189">
         <v>1</v>
       </c>
       <c r="I189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J189" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K189">
         <v>1.833</v>
       </c>
       <c r="L189">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M189">
         <v>3.6</v>
       </c>
       <c r="N189">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="O189">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P189">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="Q189">
+        <v>-0.25</v>
+      </c>
+      <c r="R189">
+        <v>1.925</v>
+      </c>
+      <c r="S189">
+        <v>1.875</v>
+      </c>
+      <c r="T189">
+        <v>2.5</v>
+      </c>
+      <c r="U189">
+        <v>1.875</v>
+      </c>
+      <c r="V189">
+        <v>1.925</v>
+      </c>
+      <c r="W189">
+        <v>-1</v>
+      </c>
+      <c r="X189">
+        <v>2.25</v>
+      </c>
+      <c r="Y189">
+        <v>-1</v>
+      </c>
+      <c r="Z189">
         <v>-0.5</v>
       </c>
-      <c r="R189">
-        <v>1.825</v>
-      </c>
-      <c r="S189">
-        <v>1.975</v>
-      </c>
-      <c r="T189">
-        <v>2.25</v>
-      </c>
-      <c r="U189">
-        <v>1.95</v>
-      </c>
-      <c r="V189">
-        <v>1.85</v>
-      </c>
-      <c r="W189">
-        <v>0.8</v>
-      </c>
-      <c r="X189">
-        <v>-1</v>
-      </c>
-      <c r="Y189">
-        <v>-1</v>
-      </c>
-      <c r="Z189">
-        <v>0.825</v>
-      </c>
       <c r="AA189">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB189">
         <v>-1</v>
       </c>
       <c r="AC189">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17906,7 +17906,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6126633</v>
+        <v>6126641</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17918,52 +17918,52 @@
         <v>45108.91666666666</v>
       </c>
       <c r="F196" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G196" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J196" t="s">
         <v>55</v>
       </c>
       <c r="K196">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="L196">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M196">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="N196">
         <v>1.666</v>
       </c>
       <c r="O196">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P196">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q196">
         <v>-0.75</v>
       </c>
       <c r="R196">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S196">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T196">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U196">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="V196">
         <v>1.95</v>
@@ -17978,16 +17978,16 @@
         <v>-1</v>
       </c>
       <c r="Z196">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA196">
         <v>-1</v>
       </c>
       <c r="AB196">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC196">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="197" spans="1:29">
@@ -17995,7 +17995,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>6126641</v>
+        <v>6126633</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -18007,52 +18007,52 @@
         <v>45108.91666666666</v>
       </c>
       <c r="F197" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G197" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H197">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I197">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J197" t="s">
         <v>55</v>
       </c>
       <c r="K197">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L197">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M197">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="N197">
         <v>1.666</v>
       </c>
       <c r="O197">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P197">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q197">
         <v>-0.75</v>
       </c>
       <c r="R197">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S197">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T197">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U197">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="V197">
         <v>1.95</v>
@@ -18067,16 +18067,16 @@
         <v>-1</v>
       </c>
       <c r="Z197">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA197">
         <v>-1</v>
       </c>
       <c r="AB197">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC197">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="198" spans="1:29">
@@ -18618,7 +18618,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>6126643</v>
+        <v>6126644</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18630,73 +18630,73 @@
         <v>45111.91666666666</v>
       </c>
       <c r="F204" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="G204" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="H204">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I204">
+        <v>2</v>
+      </c>
+      <c r="J204" t="s">
+        <v>54</v>
+      </c>
+      <c r="K204">
+        <v>2.625</v>
+      </c>
+      <c r="L204">
+        <v>3.5</v>
+      </c>
+      <c r="M204">
+        <v>2.3</v>
+      </c>
+      <c r="N204">
+        <v>2.3</v>
+      </c>
+      <c r="O204">
+        <v>3.6</v>
+      </c>
+      <c r="P204">
+        <v>2.55</v>
+      </c>
+      <c r="Q204">
         <v>0</v>
       </c>
-      <c r="J204" t="s">
-        <v>55</v>
-      </c>
-      <c r="K204">
+      <c r="R204">
+        <v>1.8</v>
+      </c>
+      <c r="S204">
         <v>2</v>
       </c>
-      <c r="L204">
-        <v>3.6</v>
-      </c>
-      <c r="M204">
-        <v>3.1</v>
-      </c>
-      <c r="N204">
-        <v>1.727</v>
-      </c>
-      <c r="O204">
-        <v>3.8</v>
-      </c>
-      <c r="P204">
-        <v>3.8</v>
-      </c>
-      <c r="Q204">
-        <v>-0.75</v>
-      </c>
-      <c r="R204">
-        <v>1.975</v>
-      </c>
-      <c r="S204">
-        <v>1.825</v>
-      </c>
       <c r="T204">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U204">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V204">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W204">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X204">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y204">
         <v>-1</v>
       </c>
       <c r="Z204">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA204">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB204">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC204">
         <v>-1</v>
@@ -18707,7 +18707,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>6126644</v>
+        <v>6126643</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18719,73 +18719,73 @@
         <v>45111.91666666666</v>
       </c>
       <c r="F205" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="G205" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="H205">
+        <v>4</v>
+      </c>
+      <c r="I205">
+        <v>0</v>
+      </c>
+      <c r="J205" t="s">
+        <v>55</v>
+      </c>
+      <c r="K205">
         <v>2</v>
       </c>
-      <c r="I205">
-        <v>2</v>
-      </c>
-      <c r="J205" t="s">
-        <v>54</v>
-      </c>
-      <c r="K205">
-        <v>2.625</v>
-      </c>
       <c r="L205">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M205">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="N205">
-        <v>2.3</v>
+        <v>1.727</v>
       </c>
       <c r="O205">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P205">
-        <v>2.55</v>
+        <v>3.8</v>
       </c>
       <c r="Q205">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R205">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S205">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T205">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U205">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V205">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W205">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X205">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y205">
         <v>-1</v>
       </c>
       <c r="Z205">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA205">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB205">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC205">
         <v>-1</v>
@@ -18885,7 +18885,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>6126647</v>
+        <v>6126652</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18897,76 +18897,76 @@
         <v>45115.83333333334</v>
       </c>
       <c r="F207" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G207" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H207">
         <v>0</v>
       </c>
       <c r="I207">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J207" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K207">
         <v>1.909</v>
       </c>
       <c r="L207">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M207">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="N207">
-        <v>1.666</v>
+        <v>1.95</v>
       </c>
       <c r="O207">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P207">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q207">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R207">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S207">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T207">
-        <v>2.75</v>
+        <v>1.75</v>
       </c>
       <c r="U207">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V207">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W207">
         <v>-1</v>
       </c>
       <c r="X207">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y207">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z207">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA207">
-        <v>0.8999999999999999</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB207">
         <v>-1</v>
       </c>
       <c r="AC207">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:29">
@@ -19063,7 +19063,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>6126652</v>
+        <v>6126647</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19075,76 +19075,76 @@
         <v>45115.83333333334</v>
       </c>
       <c r="F209" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G209" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="H209">
         <v>0</v>
       </c>
       <c r="I209">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J209" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K209">
         <v>1.909</v>
       </c>
       <c r="L209">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M209">
+        <v>3.5</v>
+      </c>
+      <c r="N209">
+        <v>1.666</v>
+      </c>
+      <c r="O209">
         <v>3.6</v>
       </c>
-      <c r="N209">
+      <c r="P209">
+        <v>4.5</v>
+      </c>
+      <c r="Q209">
+        <v>-0.75</v>
+      </c>
+      <c r="R209">
+        <v>1.9</v>
+      </c>
+      <c r="S209">
+        <v>1.9</v>
+      </c>
+      <c r="T209">
+        <v>2.75</v>
+      </c>
+      <c r="U209">
+        <v>1.85</v>
+      </c>
+      <c r="V209">
         <v>1.95</v>
       </c>
-      <c r="O209">
-        <v>3.25</v>
-      </c>
-      <c r="P209">
-        <v>3.75</v>
-      </c>
-      <c r="Q209">
-        <v>-0.25</v>
-      </c>
-      <c r="R209">
-        <v>1.75</v>
-      </c>
-      <c r="S209">
-        <v>2.05</v>
-      </c>
-      <c r="T209">
-        <v>1.75</v>
-      </c>
-      <c r="U209">
-        <v>1.8</v>
-      </c>
-      <c r="V209">
-        <v>2</v>
-      </c>
       <c r="W209">
         <v>-1</v>
       </c>
       <c r="X209">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y209">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z209">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA209">
-        <v>0.5249999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB209">
         <v>-1</v>
       </c>
       <c r="AC209">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="210" spans="1:29">
@@ -19330,7 +19330,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>6126649</v>
+        <v>6126651</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19342,10 +19342,10 @@
         <v>45115.91666666666</v>
       </c>
       <c r="F212" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G212" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H212">
         <v>1</v>
@@ -19357,43 +19357,43 @@
         <v>55</v>
       </c>
       <c r="K212">
-        <v>1.533</v>
+        <v>2</v>
       </c>
       <c r="L212">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M212">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="N212">
-        <v>1.333</v>
+        <v>2</v>
       </c>
       <c r="O212">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P212">
-        <v>8</v>
+        <v>3.25</v>
       </c>
       <c r="Q212">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R212">
         <v>1.95</v>
       </c>
       <c r="S212">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="T212">
         <v>2.5</v>
       </c>
       <c r="U212">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V212">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W212">
-        <v>0.333</v>
+        <v>1</v>
       </c>
       <c r="X212">
         <v>-1</v>
@@ -19402,16 +19402,16 @@
         <v>-1</v>
       </c>
       <c r="Z212">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA212">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB212">
         <v>-1</v>
       </c>
       <c r="AC212">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19419,7 +19419,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>6126651</v>
+        <v>6126649</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19431,10 +19431,10 @@
         <v>45115.91666666666</v>
       </c>
       <c r="F213" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="G213" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H213">
         <v>1</v>
@@ -19446,43 +19446,43 @@
         <v>55</v>
       </c>
       <c r="K213">
-        <v>2</v>
+        <v>1.533</v>
       </c>
       <c r="L213">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M213">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="N213">
-        <v>2</v>
+        <v>1.333</v>
       </c>
       <c r="O213">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P213">
-        <v>3.25</v>
+        <v>8</v>
       </c>
       <c r="Q213">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R213">
         <v>1.95</v>
       </c>
       <c r="S213">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T213">
         <v>2.5</v>
       </c>
       <c r="U213">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V213">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W213">
-        <v>1</v>
+        <v>0.333</v>
       </c>
       <c r="X213">
         <v>-1</v>
@@ -19491,16 +19491,16 @@
         <v>-1</v>
       </c>
       <c r="Z213">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA213">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB213">
         <v>-1</v>
       </c>
       <c r="AC213">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -20042,7 +20042,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>6126657</v>
+        <v>6126658</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20054,19 +20054,19 @@
         <v>45119.91666666666</v>
       </c>
       <c r="F220" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="G220" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H220">
         <v>1</v>
       </c>
       <c r="I220">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J220" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K220">
         <v>1.95</v>
@@ -20078,52 +20078,52 @@
         <v>3.25</v>
       </c>
       <c r="N220">
-        <v>2.75</v>
+        <v>2.375</v>
       </c>
       <c r="O220">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P220">
-        <v>2.4</v>
+        <v>2.875</v>
       </c>
       <c r="Q220">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R220">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S220">
-        <v>1.775</v>
+        <v>1.725</v>
       </c>
       <c r="T220">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U220">
+        <v>2</v>
+      </c>
+      <c r="V220">
         <v>1.8</v>
       </c>
-      <c r="V220">
-        <v>2</v>
-      </c>
       <c r="W220">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X220">
         <v>-1</v>
       </c>
       <c r="Y220">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z220">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA220">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB220">
+        <v>-1</v>
+      </c>
+      <c r="AC220">
         <v>0.8</v>
-      </c>
-      <c r="AC220">
-        <v>-1</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20131,7 +20131,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>6126658</v>
+        <v>6126657</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20143,19 +20143,19 @@
         <v>45119.91666666666</v>
       </c>
       <c r="F221" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G221" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H221">
         <v>1</v>
       </c>
       <c r="I221">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J221" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K221">
         <v>1.95</v>
@@ -20167,52 +20167,52 @@
         <v>3.25</v>
       </c>
       <c r="N221">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="O221">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P221">
-        <v>2.875</v>
+        <v>2.4</v>
       </c>
       <c r="Q221">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R221">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S221">
-        <v>1.725</v>
+        <v>1.775</v>
       </c>
       <c r="T221">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U221">
+        <v>1.8</v>
+      </c>
+      <c r="V221">
         <v>2</v>
       </c>
-      <c r="V221">
-        <v>1.8</v>
-      </c>
       <c r="W221">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X221">
         <v>-1</v>
       </c>
       <c r="Y221">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z221">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA221">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB221">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC221">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -20398,7 +20398,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>6126667</v>
+        <v>6126669</v>
       </c>
       <c r="C224" t="s">
         <v>28</v>
@@ -20410,76 +20410,76 @@
         <v>45122.83333333334</v>
       </c>
       <c r="F224" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G224" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I224">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J224" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K224">
-        <v>1.571</v>
+        <v>2.1</v>
       </c>
       <c r="L224">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M224">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N224">
-        <v>1.5</v>
+        <v>2.55</v>
       </c>
       <c r="O224">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P224">
-        <v>6</v>
+        <v>2.375</v>
       </c>
       <c r="Q224">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R224">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="S224">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T224">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U224">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V224">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W224">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X224">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y224">
         <v>-1</v>
       </c>
       <c r="Z224">
-        <v>0.8999999999999999</v>
+        <v>0.3625</v>
       </c>
       <c r="AA224">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB224">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC224">
-        <v>0.475</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="225" spans="1:29">
@@ -20487,7 +20487,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>6126669</v>
+        <v>6126667</v>
       </c>
       <c r="C225" t="s">
         <v>28</v>
@@ -20499,76 +20499,76 @@
         <v>45122.83333333334</v>
       </c>
       <c r="F225" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G225" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="H225">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I225">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J225" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K225">
-        <v>2.1</v>
+        <v>1.571</v>
       </c>
       <c r="L225">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M225">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N225">
-        <v>2.55</v>
+        <v>1.5</v>
       </c>
       <c r="O225">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P225">
-        <v>2.375</v>
+        <v>6</v>
       </c>
       <c r="Q225">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R225">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="S225">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T225">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U225">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V225">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W225">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X225">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y225">
         <v>-1</v>
       </c>
       <c r="Z225">
-        <v>0.3625</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA225">
+        <v>-1</v>
+      </c>
+      <c r="AB225">
         <v>-0.5</v>
       </c>
-      <c r="AB225">
-        <v>-1</v>
-      </c>
       <c r="AC225">
-        <v>0.825</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="226" spans="1:29">
@@ -21733,7 +21733,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>6126679</v>
+        <v>6126681</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21745,76 +21745,76 @@
         <v>45129.91666666666</v>
       </c>
       <c r="F239" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="G239" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H239">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I239">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J239" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K239">
+        <v>1.571</v>
+      </c>
+      <c r="L239">
+        <v>3.75</v>
+      </c>
+      <c r="M239">
+        <v>5</v>
+      </c>
+      <c r="N239">
+        <v>1.45</v>
+      </c>
+      <c r="O239">
+        <v>4.2</v>
+      </c>
+      <c r="P239">
+        <v>5.5</v>
+      </c>
+      <c r="Q239">
+        <v>-1</v>
+      </c>
+      <c r="R239">
+        <v>1.8</v>
+      </c>
+      <c r="S239">
+        <v>2</v>
+      </c>
+      <c r="T239">
         <v>2.75</v>
       </c>
-      <c r="L239">
-        <v>3.3</v>
-      </c>
-      <c r="M239">
-        <v>2.3</v>
-      </c>
-      <c r="N239">
-        <v>2.5</v>
-      </c>
-      <c r="O239">
-        <v>3.3</v>
-      </c>
-      <c r="P239">
-        <v>2.5</v>
-      </c>
-      <c r="Q239">
-        <v>0</v>
-      </c>
-      <c r="R239">
-        <v>1.9</v>
-      </c>
-      <c r="S239">
-        <v>1.9</v>
-      </c>
-      <c r="T239">
-        <v>2.5</v>
-      </c>
       <c r="U239">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V239">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W239">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X239">
         <v>-1</v>
       </c>
       <c r="Y239">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Z239">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA239">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB239">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC239">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="240" spans="1:29">
@@ -21822,7 +21822,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>6126681</v>
+        <v>6126679</v>
       </c>
       <c r="C240" t="s">
         <v>28</v>
@@ -21834,76 +21834,76 @@
         <v>45129.91666666666</v>
       </c>
       <c r="F240" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="G240" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H240">
+        <v>3</v>
+      </c>
+      <c r="I240">
         <v>0</v>
       </c>
-      <c r="I240">
-        <v>1</v>
-      </c>
       <c r="J240" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K240">
-        <v>1.571</v>
+        <v>2.75</v>
       </c>
       <c r="L240">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M240">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="N240">
-        <v>1.45</v>
+        <v>2.5</v>
       </c>
       <c r="O240">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="P240">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q240">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R240">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S240">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T240">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U240">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V240">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W240">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X240">
         <v>-1</v>
       </c>
       <c r="Y240">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Z240">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA240">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB240">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC240">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="241" spans="1:29">
@@ -23157,7 +23157,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>6126689</v>
+        <v>6126690</v>
       </c>
       <c r="C255" t="s">
         <v>28</v>
@@ -23169,76 +23169,76 @@
         <v>45136.95833333334</v>
       </c>
       <c r="F255" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="G255" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I255">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J255" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K255">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="L255">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M255">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="N255">
-        <v>2.7</v>
+        <v>1.727</v>
       </c>
       <c r="O255">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P255">
-        <v>2.25</v>
+        <v>3.8</v>
       </c>
       <c r="Q255">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R255">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S255">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T255">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U255">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V255">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W255">
         <v>-1</v>
       </c>
       <c r="X255">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y255">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z255">
         <v>-1</v>
       </c>
       <c r="AA255">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AB255">
         <v>-1</v>
       </c>
       <c r="AC255">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="256" spans="1:29">
@@ -23246,7 +23246,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>6126690</v>
+        <v>6126689</v>
       </c>
       <c r="C256" t="s">
         <v>28</v>
@@ -23258,76 +23258,76 @@
         <v>45136.95833333334</v>
       </c>
       <c r="F256" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G256" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H256">
+        <v>0</v>
+      </c>
+      <c r="I256">
+        <v>2</v>
+      </c>
+      <c r="J256" t="s">
+        <v>53</v>
+      </c>
+      <c r="K256">
+        <v>2</v>
+      </c>
+      <c r="L256">
+        <v>3.4</v>
+      </c>
+      <c r="M256">
+        <v>3.1</v>
+      </c>
+      <c r="N256">
+        <v>2.7</v>
+      </c>
+      <c r="O256">
+        <v>3.4</v>
+      </c>
+      <c r="P256">
+        <v>2.25</v>
+      </c>
+      <c r="Q256">
+        <v>0.25</v>
+      </c>
+      <c r="R256">
+        <v>1.8</v>
+      </c>
+      <c r="S256">
+        <v>2</v>
+      </c>
+      <c r="T256">
+        <v>2.75</v>
+      </c>
+      <c r="U256">
+        <v>1.75</v>
+      </c>
+      <c r="V256">
+        <v>1.95</v>
+      </c>
+      <c r="W256">
+        <v>-1</v>
+      </c>
+      <c r="X256">
+        <v>-1</v>
+      </c>
+      <c r="Y256">
+        <v>1.25</v>
+      </c>
+      <c r="Z256">
+        <v>-1</v>
+      </c>
+      <c r="AA256">
         <v>1</v>
       </c>
-      <c r="I256">
-        <v>1</v>
-      </c>
-      <c r="J256" t="s">
-        <v>54</v>
-      </c>
-      <c r="K256">
-        <v>1.6</v>
-      </c>
-      <c r="L256">
-        <v>3.75</v>
-      </c>
-      <c r="M256">
-        <v>4.5</v>
-      </c>
-      <c r="N256">
-        <v>1.727</v>
-      </c>
-      <c r="O256">
-        <v>3.6</v>
-      </c>
-      <c r="P256">
-        <v>3.8</v>
-      </c>
-      <c r="Q256">
-        <v>-0.5</v>
-      </c>
-      <c r="R256">
-        <v>1.75</v>
-      </c>
-      <c r="S256">
-        <v>1.95</v>
-      </c>
-      <c r="T256">
-        <v>2.5</v>
-      </c>
-      <c r="U256">
-        <v>1.975</v>
-      </c>
-      <c r="V256">
-        <v>1.825</v>
-      </c>
-      <c r="W256">
-        <v>-1</v>
-      </c>
-      <c r="X256">
-        <v>2.6</v>
-      </c>
-      <c r="Y256">
-        <v>-1</v>
-      </c>
-      <c r="Z256">
-        <v>-1</v>
-      </c>
-      <c r="AA256">
+      <c r="AB256">
+        <v>-1</v>
+      </c>
+      <c r="AC256">
         <v>0.95</v>
-      </c>
-      <c r="AB256">
-        <v>-1</v>
-      </c>
-      <c r="AC256">
-        <v>0.825</v>
       </c>
     </row>
     <row r="257" spans="1:29">
@@ -23869,7 +23869,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>6126708</v>
+        <v>6126706</v>
       </c>
       <c r="C263" t="s">
         <v>28</v>
@@ -23881,13 +23881,13 @@
         <v>45143.83333333334</v>
       </c>
       <c r="F263" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G263" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H263">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I263">
         <v>0</v>
@@ -23896,43 +23896,43 @@
         <v>55</v>
       </c>
       <c r="K263">
-        <v>2.55</v>
+        <v>2.15</v>
       </c>
       <c r="L263">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M263">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="N263">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="O263">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P263">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="Q263">
         <v>-0.25</v>
       </c>
       <c r="R263">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S263">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T263">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U263">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V263">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="W263">
-        <v>1.2</v>
+        <v>0.95</v>
       </c>
       <c r="X263">
         <v>-1</v>
@@ -23941,16 +23941,16 @@
         <v>-1</v>
       </c>
       <c r="Z263">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA263">
         <v>-1</v>
       </c>
       <c r="AB263">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC263">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="264" spans="1:29">
@@ -23958,7 +23958,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>6126702</v>
+        <v>6126708</v>
       </c>
       <c r="C264" t="s">
         <v>28</v>
@@ -23970,73 +23970,73 @@
         <v>45143.83333333334</v>
       </c>
       <c r="F264" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="G264" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H264">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I264">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J264" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K264">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="L264">
         <v>3.25</v>
       </c>
       <c r="M264">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="N264">
         <v>2.2</v>
       </c>
       <c r="O264">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P264">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q264">
         <v>-0.25</v>
       </c>
       <c r="R264">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S264">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T264">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U264">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V264">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W264">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X264">
         <v>-1</v>
       </c>
       <c r="Y264">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z264">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA264">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB264">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AC264">
         <v>-1</v>
@@ -24047,7 +24047,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>6126706</v>
+        <v>6126701</v>
       </c>
       <c r="C265" t="s">
         <v>28</v>
@@ -24059,58 +24059,58 @@
         <v>45143.83333333334</v>
       </c>
       <c r="F265" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G265" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="H265">
+        <v>2</v>
+      </c>
+      <c r="I265">
         <v>1</v>
-      </c>
-      <c r="I265">
-        <v>0</v>
       </c>
       <c r="J265" t="s">
         <v>55</v>
       </c>
       <c r="K265">
-        <v>2.15</v>
+        <v>2.9</v>
       </c>
       <c r="L265">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M265">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="N265">
-        <v>1.95</v>
+        <v>2.7</v>
       </c>
       <c r="O265">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P265">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q265">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R265">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S265">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T265">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U265">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V265">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="W265">
-        <v>0.95</v>
+        <v>1.7</v>
       </c>
       <c r="X265">
         <v>-1</v>
@@ -24119,16 +24119,16 @@
         <v>-1</v>
       </c>
       <c r="Z265">
-        <v>0.7749999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AA265">
         <v>-1</v>
       </c>
       <c r="AB265">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC265">
-        <v>0.7749999999999999</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="266" spans="1:29">
@@ -24136,7 +24136,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>6126701</v>
+        <v>6126702</v>
       </c>
       <c r="C266" t="s">
         <v>28</v>
@@ -24148,76 +24148,76 @@
         <v>45143.83333333334</v>
       </c>
       <c r="F266" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G266" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="H266">
+        <v>1</v>
+      </c>
+      <c r="I266">
         <v>2</v>
       </c>
-      <c r="I266">
-        <v>1</v>
-      </c>
       <c r="J266" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K266">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="L266">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M266">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="N266">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="O266">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="P266">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="Q266">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R266">
+        <v>1.975</v>
+      </c>
+      <c r="S266">
+        <v>1.825</v>
+      </c>
+      <c r="T266">
+        <v>2.5</v>
+      </c>
+      <c r="U266">
+        <v>1.925</v>
+      </c>
+      <c r="V266">
         <v>1.875</v>
       </c>
-      <c r="S266">
-        <v>1.925</v>
-      </c>
-      <c r="T266">
-        <v>3.25</v>
-      </c>
-      <c r="U266">
-        <v>1.875</v>
-      </c>
-      <c r="V266">
-        <v>1.925</v>
-      </c>
       <c r="W266">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X266">
         <v>-1</v>
       </c>
       <c r="Y266">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z266">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA266">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB266">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC266">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="267" spans="1:29">
@@ -26272,7 +26272,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>6126727</v>
+        <v>6126730</v>
       </c>
       <c r="C290" t="s">
         <v>28</v>
@@ -26284,40 +26284,40 @@
         <v>45157.85416666666</v>
       </c>
       <c r="F290" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G290" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H290">
         <v>1</v>
       </c>
       <c r="I290">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J290" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K290">
-        <v>1.833</v>
+        <v>3.5</v>
       </c>
       <c r="L290">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M290">
-        <v>3.6</v>
+        <v>1.909</v>
       </c>
       <c r="N290">
+        <v>3.75</v>
+      </c>
+      <c r="O290">
+        <v>3.3</v>
+      </c>
+      <c r="P290">
         <v>1.85</v>
       </c>
-      <c r="O290">
-        <v>3.5</v>
-      </c>
-      <c r="P290">
-        <v>3.5</v>
-      </c>
       <c r="Q290">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R290">
         <v>1.9</v>
@@ -26326,34 +26326,34 @@
         <v>1.9</v>
       </c>
       <c r="T290">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U290">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V290">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W290">
+        <v>-1</v>
+      </c>
+      <c r="X290">
+        <v>-1</v>
+      </c>
+      <c r="Y290">
         <v>0.8500000000000001</v>
       </c>
-      <c r="X290">
-        <v>-1</v>
-      </c>
-      <c r="Y290">
-        <v>-1</v>
-      </c>
       <c r="Z290">
+        <v>-1</v>
+      </c>
+      <c r="AA290">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA290">
-        <v>-1</v>
-      </c>
       <c r="AB290">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC290">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="291" spans="1:29">
@@ -26361,7 +26361,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>6126730</v>
+        <v>6126727</v>
       </c>
       <c r="C291" t="s">
         <v>28</v>
@@ -26373,40 +26373,40 @@
         <v>45157.85416666666</v>
       </c>
       <c r="F291" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G291" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H291">
         <v>1</v>
       </c>
       <c r="I291">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J291" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K291">
+        <v>1.833</v>
+      </c>
+      <c r="L291">
+        <v>3.4</v>
+      </c>
+      <c r="M291">
+        <v>3.6</v>
+      </c>
+      <c r="N291">
+        <v>1.85</v>
+      </c>
+      <c r="O291">
         <v>3.5</v>
       </c>
-      <c r="L291">
-        <v>3.25</v>
-      </c>
-      <c r="M291">
-        <v>1.909</v>
-      </c>
-      <c r="N291">
-        <v>3.75</v>
-      </c>
-      <c r="O291">
-        <v>3.3</v>
-      </c>
       <c r="P291">
-        <v>1.85</v>
+        <v>3.5</v>
       </c>
       <c r="Q291">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R291">
         <v>1.9</v>
@@ -26415,34 +26415,34 @@
         <v>1.9</v>
       </c>
       <c r="T291">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U291">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V291">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W291">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X291">
         <v>-1</v>
       </c>
       <c r="Y291">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z291">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA291">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB291">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC291">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="292" spans="1:29">
@@ -26628,7 +26628,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>6126728</v>
+        <v>6126735</v>
       </c>
       <c r="C294" t="s">
         <v>28</v>
@@ -26640,73 +26640,73 @@
         <v>45157.9375</v>
       </c>
       <c r="F294" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G294" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H294">
         <v>2</v>
       </c>
       <c r="I294">
+        <v>2</v>
+      </c>
+      <c r="J294" t="s">
+        <v>54</v>
+      </c>
+      <c r="K294">
+        <v>1.65</v>
+      </c>
+      <c r="L294">
+        <v>3.6</v>
+      </c>
+      <c r="M294">
+        <v>4.333</v>
+      </c>
+      <c r="N294">
+        <v>1.75</v>
+      </c>
+      <c r="O294">
+        <v>3.6</v>
+      </c>
+      <c r="P294">
+        <v>3.8</v>
+      </c>
+      <c r="Q294">
+        <v>-0.5</v>
+      </c>
+      <c r="R294">
+        <v>1.775</v>
+      </c>
+      <c r="S294">
+        <v>1.925</v>
+      </c>
+      <c r="T294">
         <v>3</v>
       </c>
-      <c r="J294" t="s">
-        <v>53</v>
-      </c>
-      <c r="K294">
-        <v>2.2</v>
-      </c>
-      <c r="L294">
-        <v>3.4</v>
-      </c>
-      <c r="M294">
-        <v>2.75</v>
-      </c>
-      <c r="N294">
-        <v>2.2</v>
-      </c>
-      <c r="O294">
-        <v>3.3</v>
-      </c>
-      <c r="P294">
-        <v>2.75</v>
-      </c>
-      <c r="Q294">
-        <v>-0.25</v>
-      </c>
-      <c r="R294">
-        <v>2</v>
-      </c>
-      <c r="S294">
-        <v>1.8</v>
-      </c>
-      <c r="T294">
-        <v>2.5</v>
-      </c>
       <c r="U294">
+        <v>1.95</v>
+      </c>
+      <c r="V294">
         <v>1.85</v>
       </c>
-      <c r="V294">
-        <v>1.95</v>
-      </c>
       <c r="W294">
         <v>-1</v>
       </c>
       <c r="X294">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y294">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z294">
         <v>-1</v>
       </c>
       <c r="AA294">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB294">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC294">
         <v>-1</v>
@@ -26717,7 +26717,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>6126735</v>
+        <v>6126728</v>
       </c>
       <c r="C295" t="s">
         <v>28</v>
@@ -26729,73 +26729,73 @@
         <v>45157.9375</v>
       </c>
       <c r="F295" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G295" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H295">
         <v>2</v>
       </c>
       <c r="I295">
+        <v>3</v>
+      </c>
+      <c r="J295" t="s">
+        <v>53</v>
+      </c>
+      <c r="K295">
+        <v>2.2</v>
+      </c>
+      <c r="L295">
+        <v>3.4</v>
+      </c>
+      <c r="M295">
+        <v>2.75</v>
+      </c>
+      <c r="N295">
+        <v>2.2</v>
+      </c>
+      <c r="O295">
+        <v>3.3</v>
+      </c>
+      <c r="P295">
+        <v>2.75</v>
+      </c>
+      <c r="Q295">
+        <v>-0.25</v>
+      </c>
+      <c r="R295">
         <v>2</v>
       </c>
-      <c r="J295" t="s">
-        <v>54</v>
-      </c>
-      <c r="K295">
-        <v>1.65</v>
-      </c>
-      <c r="L295">
-        <v>3.6</v>
-      </c>
-      <c r="M295">
-        <v>4.333</v>
-      </c>
-      <c r="N295">
+      <c r="S295">
+        <v>1.8</v>
+      </c>
+      <c r="T295">
+        <v>2.5</v>
+      </c>
+      <c r="U295">
+        <v>1.85</v>
+      </c>
+      <c r="V295">
+        <v>1.95</v>
+      </c>
+      <c r="W295">
+        <v>-1</v>
+      </c>
+      <c r="X295">
+        <v>-1</v>
+      </c>
+      <c r="Y295">
         <v>1.75</v>
       </c>
-      <c r="O295">
-        <v>3.6</v>
-      </c>
-      <c r="P295">
-        <v>3.8</v>
-      </c>
-      <c r="Q295">
-        <v>-0.5</v>
-      </c>
-      <c r="R295">
-        <v>1.775</v>
-      </c>
-      <c r="S295">
-        <v>1.925</v>
-      </c>
-      <c r="T295">
-        <v>3</v>
-      </c>
-      <c r="U295">
-        <v>1.95</v>
-      </c>
-      <c r="V295">
-        <v>1.85</v>
-      </c>
-      <c r="W295">
-        <v>-1</v>
-      </c>
-      <c r="X295">
-        <v>2.6</v>
-      </c>
-      <c r="Y295">
-        <v>-1</v>
-      </c>
       <c r="Z295">
         <v>-1</v>
       </c>
       <c r="AA295">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AB295">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC295">
         <v>-1</v>
@@ -26806,7 +26806,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>6126731</v>
+        <v>6126732</v>
       </c>
       <c r="C296" t="s">
         <v>28</v>
@@ -26818,19 +26818,19 @@
         <v>45157.95833333334</v>
       </c>
       <c r="F296" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="G296" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H296">
         <v>2</v>
       </c>
       <c r="I296">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J296" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K296">
         <v>2</v>
@@ -26842,52 +26842,52 @@
         <v>3.1</v>
       </c>
       <c r="N296">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="O296">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P296">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="Q296">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R296">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S296">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T296">
         <v>2.5</v>
       </c>
       <c r="U296">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V296">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W296">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X296">
         <v>-1</v>
       </c>
       <c r="Y296">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z296">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA296">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB296">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC296">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="297" spans="1:29">
@@ -26895,7 +26895,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>6126732</v>
+        <v>6126731</v>
       </c>
       <c r="C297" t="s">
         <v>28</v>
@@ -26907,19 +26907,19 @@
         <v>45157.95833333334</v>
       </c>
       <c r="F297" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="G297" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H297">
         <v>2</v>
       </c>
       <c r="I297">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J297" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K297">
         <v>2</v>
@@ -26931,52 +26931,52 @@
         <v>3.1</v>
       </c>
       <c r="N297">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="O297">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P297">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="Q297">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R297">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S297">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T297">
         <v>2.5</v>
       </c>
       <c r="U297">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V297">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W297">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X297">
         <v>-1</v>
       </c>
       <c r="Y297">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z297">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA297">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB297">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC297">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="298" spans="1:29">
@@ -27607,7 +27607,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>6126747</v>
+        <v>6126743</v>
       </c>
       <c r="C305" t="s">
         <v>28</v>
@@ -27619,16 +27619,16 @@
         <v>45164.85416666666</v>
       </c>
       <c r="F305" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G305" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I305">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J305" t="s">
         <v>55</v>
@@ -27643,34 +27643,34 @@
         <v>3.25</v>
       </c>
       <c r="N305">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="O305">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P305">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q305">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R305">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S305">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T305">
         <v>2.5</v>
       </c>
       <c r="U305">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V305">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W305">
-        <v>0.8500000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="X305">
         <v>-1</v>
@@ -27679,16 +27679,16 @@
         <v>-1</v>
       </c>
       <c r="Z305">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA305">
         <v>-1</v>
       </c>
       <c r="AB305">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC305">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="306" spans="1:29">
@@ -27696,7 +27696,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>6126743</v>
+        <v>6126747</v>
       </c>
       <c r="C306" t="s">
         <v>28</v>
@@ -27708,16 +27708,16 @@
         <v>45164.85416666666</v>
       </c>
       <c r="F306" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="G306" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="H306">
+        <v>2</v>
+      </c>
+      <c r="I306">
         <v>1</v>
-      </c>
-      <c r="I306">
-        <v>0</v>
       </c>
       <c r="J306" t="s">
         <v>55</v>
@@ -27732,34 +27732,34 @@
         <v>3.25</v>
       </c>
       <c r="N306">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="O306">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P306">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="Q306">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R306">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S306">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T306">
         <v>2.5</v>
       </c>
       <c r="U306">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V306">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W306">
-        <v>1.1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X306">
         <v>-1</v>
@@ -27768,16 +27768,16 @@
         <v>-1</v>
       </c>
       <c r="Z306">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA306">
         <v>-1</v>
       </c>
       <c r="AB306">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC306">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="307" spans="1:29">
@@ -27874,7 +27874,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>6126752</v>
+        <v>6126749</v>
       </c>
       <c r="C308" t="s">
         <v>28</v>
@@ -27886,40 +27886,40 @@
         <v>45164.91666666666</v>
       </c>
       <c r="F308" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="G308" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J308" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K308">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="L308">
         <v>3.5</v>
       </c>
       <c r="M308">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="N308">
-        <v>1.833</v>
+        <v>1.5</v>
       </c>
       <c r="O308">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P308">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="Q308">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R308">
         <v>1.825</v>
@@ -27928,7 +27928,7 @@
         <v>1.975</v>
       </c>
       <c r="T308">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U308">
         <v>1.825</v>
@@ -27937,25 +27937,25 @@
         <v>1.975</v>
       </c>
       <c r="W308">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X308">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y308">
         <v>-1</v>
       </c>
       <c r="Z308">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA308">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB308">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC308">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="309" spans="1:29">
@@ -27963,7 +27963,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>6126749</v>
+        <v>6126752</v>
       </c>
       <c r="C309" t="s">
         <v>28</v>
@@ -27975,40 +27975,40 @@
         <v>45164.91666666666</v>
       </c>
       <c r="F309" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="G309" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H309">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J309" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K309">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="L309">
         <v>3.5</v>
       </c>
       <c r="M309">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="N309">
-        <v>1.5</v>
+        <v>1.833</v>
       </c>
       <c r="O309">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P309">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="Q309">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R309">
         <v>1.825</v>
@@ -28017,7 +28017,7 @@
         <v>1.975</v>
       </c>
       <c r="T309">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U309">
         <v>1.825</v>
@@ -28026,25 +28026,25 @@
         <v>1.975</v>
       </c>
       <c r="W309">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X309">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y309">
         <v>-1</v>
       </c>
       <c r="Z309">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA309">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB309">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC309">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="310" spans="1:29">
@@ -28942,7 +28942,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>6126758</v>
+        <v>6126763</v>
       </c>
       <c r="C320" t="s">
         <v>28</v>
@@ -28954,55 +28954,55 @@
         <v>45171.91666666666</v>
       </c>
       <c r="F320" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G320" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H320">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I320">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J320" t="s">
         <v>53</v>
       </c>
       <c r="K320">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="L320">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M320">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="N320">
-        <v>2.4</v>
+        <v>2.05</v>
       </c>
       <c r="O320">
         <v>3.4</v>
       </c>
       <c r="P320">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="Q320">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R320">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S320">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T320">
         <v>2.5</v>
       </c>
       <c r="U320">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V320">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W320">
         <v>-1</v>
@@ -29011,19 +29011,19 @@
         <v>-1</v>
       </c>
       <c r="Y320">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="Z320">
         <v>-1</v>
       </c>
       <c r="AA320">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB320">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC320">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="321" spans="1:29">
@@ -29031,7 +29031,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>6126763</v>
+        <v>6126758</v>
       </c>
       <c r="C321" t="s">
         <v>28</v>
@@ -29043,55 +29043,55 @@
         <v>45171.91666666666</v>
       </c>
       <c r="F321" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G321" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J321" t="s">
         <v>53</v>
       </c>
       <c r="K321">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="L321">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M321">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="N321">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="O321">
         <v>3.4</v>
       </c>
       <c r="P321">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="Q321">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R321">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S321">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T321">
         <v>2.5</v>
       </c>
       <c r="U321">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V321">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W321">
         <v>-1</v>
@@ -29100,19 +29100,19 @@
         <v>-1</v>
       </c>
       <c r="Y321">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="Z321">
         <v>-1</v>
       </c>
       <c r="AA321">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB321">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC321">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="322" spans="1:29">
@@ -31345,7 +31345,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>6126790</v>
+        <v>6126787</v>
       </c>
       <c r="C347" t="s">
         <v>28</v>
@@ -31357,46 +31357,46 @@
         <v>45185.95833333334</v>
       </c>
       <c r="F347" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G347" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="H347">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I347">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J347" t="s">
         <v>55</v>
       </c>
       <c r="K347">
-        <v>1.5</v>
+        <v>1.727</v>
       </c>
       <c r="L347">
+        <v>3.75</v>
+      </c>
+      <c r="M347">
         <v>4.2</v>
       </c>
-      <c r="M347">
-        <v>5.5</v>
-      </c>
       <c r="N347">
-        <v>1.65</v>
+        <v>1.833</v>
       </c>
       <c r="O347">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P347">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Q347">
         <v>-0.75</v>
       </c>
       <c r="R347">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="S347">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="T347">
         <v>2.75</v>
@@ -31408,7 +31408,7 @@
         <v>1.85</v>
       </c>
       <c r="W347">
-        <v>0.6499999999999999</v>
+        <v>0.833</v>
       </c>
       <c r="X347">
         <v>-1</v>
@@ -31417,16 +31417,16 @@
         <v>-1</v>
       </c>
       <c r="Z347">
-        <v>0.425</v>
+        <v>0.55</v>
       </c>
       <c r="AA347">
         <v>-0.5</v>
       </c>
       <c r="AB347">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC347">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="348" spans="1:29">
@@ -31523,7 +31523,7 @@
         <v>347</v>
       </c>
       <c r="B349">
-        <v>6126787</v>
+        <v>6126790</v>
       </c>
       <c r="C349" t="s">
         <v>28</v>
@@ -31535,46 +31535,46 @@
         <v>45185.95833333334</v>
       </c>
       <c r="F349" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G349" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="H349">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I349">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J349" t="s">
         <v>55</v>
       </c>
       <c r="K349">
-        <v>1.727</v>
+        <v>1.5</v>
       </c>
       <c r="L349">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M349">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="N349">
-        <v>1.833</v>
+        <v>1.65</v>
       </c>
       <c r="O349">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P349">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="Q349">
         <v>-0.75</v>
       </c>
       <c r="R349">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="S349">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="T349">
         <v>2.75</v>
@@ -31586,7 +31586,7 @@
         <v>1.85</v>
       </c>
       <c r="W349">
-        <v>0.833</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X349">
         <v>-1</v>
@@ -31595,16 +31595,16 @@
         <v>-1</v>
       </c>
       <c r="Z349">
-        <v>0.55</v>
+        <v>0.425</v>
       </c>
       <c r="AA349">
         <v>-0.5</v>
       </c>
       <c r="AB349">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC349">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="350" spans="1:29">
@@ -36329,7 +36329,7 @@
         <v>401</v>
       </c>
       <c r="B403">
-        <v>6504580</v>
+        <v>6531323</v>
       </c>
       <c r="C403" t="s">
         <v>28</v>
@@ -36341,58 +36341,58 @@
         <v>45213.875</v>
       </c>
       <c r="F403" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G403" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="H403">
         <v>2</v>
       </c>
       <c r="I403">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J403" t="s">
         <v>55</v>
       </c>
       <c r="K403">
-        <v>2.05</v>
+        <v>1.444</v>
       </c>
       <c r="L403">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M403">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="N403">
-        <v>2</v>
+        <v>1.45</v>
       </c>
       <c r="O403">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P403">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q403">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R403">
+        <v>1.975</v>
+      </c>
+      <c r="S403">
         <v>1.825</v>
-      </c>
-      <c r="S403">
-        <v>1.975</v>
       </c>
       <c r="T403">
         <v>3</v>
       </c>
       <c r="U403">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V403">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W403">
-        <v>1</v>
+        <v>0.45</v>
       </c>
       <c r="X403">
         <v>-1</v>
@@ -36401,16 +36401,16 @@
         <v>-1</v>
       </c>
       <c r="Z403">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA403">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB403">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC403">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="404" spans="1:29">
@@ -36418,7 +36418,7 @@
         <v>402</v>
       </c>
       <c r="B404">
-        <v>6531323</v>
+        <v>6504580</v>
       </c>
       <c r="C404" t="s">
         <v>28</v>
@@ -36430,58 +36430,58 @@
         <v>45213.875</v>
       </c>
       <c r="F404" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G404" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="H404">
         <v>2</v>
       </c>
       <c r="I404">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J404" t="s">
         <v>55</v>
       </c>
       <c r="K404">
-        <v>1.444</v>
+        <v>2.05</v>
       </c>
       <c r="L404">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M404">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="N404">
-        <v>1.45</v>
+        <v>2</v>
       </c>
       <c r="O404">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P404">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q404">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R404">
+        <v>1.825</v>
+      </c>
+      <c r="S404">
         <v>1.975</v>
-      </c>
-      <c r="S404">
-        <v>1.825</v>
       </c>
       <c r="T404">
         <v>3</v>
       </c>
       <c r="U404">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V404">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W404">
-        <v>0.45</v>
+        <v>1</v>
       </c>
       <c r="X404">
         <v>-1</v>
@@ -36490,16 +36490,16 @@
         <v>-1</v>
       </c>
       <c r="Z404">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA404">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB404">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC404">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="405" spans="1:29">
@@ -36596,7 +36596,7 @@
         <v>404</v>
       </c>
       <c r="B406">
-        <v>6492480</v>
+        <v>6504695</v>
       </c>
       <c r="C406" t="s">
         <v>28</v>
@@ -36608,55 +36608,55 @@
         <v>45213.95833333334</v>
       </c>
       <c r="F406" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G406" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H406">
+        <v>0</v>
+      </c>
+      <c r="I406">
         <v>1</v>
-      </c>
-      <c r="I406">
-        <v>2</v>
       </c>
       <c r="J406" t="s">
         <v>53</v>
       </c>
       <c r="K406">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="L406">
+        <v>3.4</v>
+      </c>
+      <c r="M406">
+        <v>2.6</v>
+      </c>
+      <c r="N406">
+        <v>3.8</v>
+      </c>
+      <c r="O406">
         <v>3.5</v>
       </c>
-      <c r="M406">
-        <v>3.2</v>
-      </c>
-      <c r="N406">
-        <v>1.727</v>
-      </c>
-      <c r="O406">
-        <v>3.75</v>
-      </c>
       <c r="P406">
-        <v>3.75</v>
+        <v>1.8</v>
       </c>
       <c r="Q406">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R406">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S406">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T406">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U406">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V406">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W406">
         <v>-1</v>
@@ -36665,19 +36665,19 @@
         <v>-1</v>
       </c>
       <c r="Y406">
-        <v>2.75</v>
+        <v>0.8</v>
       </c>
       <c r="Z406">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA406">
-        <v>0.8500000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AB406">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC406">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="407" spans="1:29">
@@ -36685,7 +36685,7 @@
         <v>405</v>
       </c>
       <c r="B407">
-        <v>6504524</v>
+        <v>6492480</v>
       </c>
       <c r="C407" t="s">
         <v>28</v>
@@ -36697,37 +36697,37 @@
         <v>45213.95833333334</v>
       </c>
       <c r="F407" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G407" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H407">
         <v>1</v>
       </c>
       <c r="I407">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J407" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K407">
-        <v>1.533</v>
+        <v>1.95</v>
       </c>
       <c r="L407">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M407">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="N407">
-        <v>1.7</v>
+        <v>1.727</v>
       </c>
       <c r="O407">
         <v>3.75</v>
       </c>
       <c r="P407">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="Q407">
         <v>-0.75</v>
@@ -36742,31 +36742,31 @@
         <v>2.75</v>
       </c>
       <c r="U407">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V407">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W407">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X407">
         <v>-1</v>
       </c>
       <c r="Y407">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z407">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA407">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB407">
+        <v>0.4</v>
+      </c>
+      <c r="AC407">
         <v>-0.5</v>
-      </c>
-      <c r="AB407">
-        <v>-1</v>
-      </c>
-      <c r="AC407">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="408" spans="1:29">
@@ -36774,7 +36774,7 @@
         <v>406</v>
       </c>
       <c r="B408">
-        <v>6504695</v>
+        <v>6504524</v>
       </c>
       <c r="C408" t="s">
         <v>28</v>
@@ -36786,76 +36786,76 @@
         <v>45213.95833333334</v>
       </c>
       <c r="F408" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G408" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H408">
+        <v>1</v>
+      </c>
+      <c r="I408">
         <v>0</v>
       </c>
-      <c r="I408">
-        <v>1</v>
-      </c>
       <c r="J408" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K408">
-        <v>2.3</v>
+        <v>1.533</v>
       </c>
       <c r="L408">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M408">
-        <v>2.6</v>
+        <v>4.75</v>
       </c>
       <c r="N408">
+        <v>1.7</v>
+      </c>
+      <c r="O408">
+        <v>3.75</v>
+      </c>
+      <c r="P408">
         <v>3.8</v>
       </c>
-      <c r="O408">
-        <v>3.5</v>
-      </c>
-      <c r="P408">
-        <v>1.8</v>
-      </c>
       <c r="Q408">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R408">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S408">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T408">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U408">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V408">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W408">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X408">
         <v>-1</v>
       </c>
       <c r="Y408">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z408">
+        <v>0.475</v>
+      </c>
+      <c r="AA408">
         <v>-0.5</v>
       </c>
-      <c r="AA408">
-        <v>0.5</v>
-      </c>
       <c r="AB408">
         <v>-1</v>
       </c>
       <c r="AC408">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="409" spans="1:29">

--- a/USA USL Championship/USA USL Championship.xlsx
+++ b/USA USL Championship/USA USL Championship.xlsx
@@ -4289,7 +4289,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6126482</v>
+        <v>6126479</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4301,40 +4301,40 @@
         <v>45017.95833333334</v>
       </c>
       <c r="F43" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G43" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="H43">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J43" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K43">
-        <v>2.6</v>
+        <v>3.25</v>
       </c>
       <c r="L43">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M43">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="N43">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="O43">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P43">
-        <v>3.2</v>
+        <v>1.909</v>
       </c>
       <c r="Q43">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R43">
         <v>1.85</v>
@@ -4343,31 +4343,31 @@
         <v>1.95</v>
       </c>
       <c r="T43">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U43">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V43">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W43">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X43">
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z43">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA43">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB43">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AC43">
         <v>-1</v>
@@ -4378,7 +4378,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6126480</v>
+        <v>6126482</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4390,13 +4390,13 @@
         <v>45017.95833333334</v>
       </c>
       <c r="F44" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G44" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I44">
         <v>0</v>
@@ -4405,34 +4405,34 @@
         <v>55</v>
       </c>
       <c r="K44">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="L44">
         <v>3.2</v>
       </c>
       <c r="M44">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="N44">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="O44">
         <v>3.1</v>
       </c>
       <c r="P44">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="Q44">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R44">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S44">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T44">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U44">
         <v>1.8</v>
@@ -4441,7 +4441,7 @@
         <v>2</v>
       </c>
       <c r="W44">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="X44">
         <v>-1</v>
@@ -4450,16 +4450,16 @@
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA44">
         <v>-1</v>
       </c>
       <c r="AB44">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC44">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4467,7 +4467,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6126479</v>
+        <v>6126480</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4479,76 +4479,76 @@
         <v>45017.95833333334</v>
       </c>
       <c r="F45" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="G45" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="H45">
         <v>1</v>
       </c>
       <c r="I45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K45">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="L45">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M45">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="N45">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="O45">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P45">
-        <v>1.909</v>
+        <v>2.7</v>
       </c>
       <c r="Q45">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R45">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S45">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T45">
         <v>2.5</v>
       </c>
       <c r="U45">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V45">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W45">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X45">
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z45">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA45">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB45">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC45">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -15236,7 +15236,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6126615</v>
+        <v>6126609</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15248,55 +15248,55 @@
         <v>45094.83333333334</v>
       </c>
       <c r="F166" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G166" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H166">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I166">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J166" t="s">
         <v>53</v>
       </c>
       <c r="K166">
-        <v>1.7</v>
+        <v>2.875</v>
       </c>
       <c r="L166">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M166">
-        <v>4.5</v>
+        <v>2.2</v>
       </c>
       <c r="N166">
-        <v>1.666</v>
+        <v>2.45</v>
       </c>
       <c r="O166">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P166">
-        <v>4.75</v>
+        <v>2.55</v>
       </c>
       <c r="Q166">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R166">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S166">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T166">
         <v>2.75</v>
       </c>
       <c r="U166">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V166">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W166">
         <v>-1</v>
@@ -15305,19 +15305,19 @@
         <v>-1</v>
       </c>
       <c r="Y166">
-        <v>3.75</v>
+        <v>1.55</v>
       </c>
       <c r="Z166">
         <v>-1</v>
       </c>
       <c r="AA166">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AB166">
-        <v>0.475</v>
+        <v>0.925</v>
       </c>
       <c r="AC166">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15325,7 +15325,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6126609</v>
+        <v>6126615</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15337,55 +15337,55 @@
         <v>45094.83333333334</v>
       </c>
       <c r="F167" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G167" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H167">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I167">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J167" t="s">
         <v>53</v>
       </c>
       <c r="K167">
-        <v>2.875</v>
+        <v>1.7</v>
       </c>
       <c r="L167">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M167">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
       <c r="N167">
-        <v>2.45</v>
+        <v>1.666</v>
       </c>
       <c r="O167">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P167">
-        <v>2.55</v>
+        <v>4.75</v>
       </c>
       <c r="Q167">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R167">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S167">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T167">
         <v>2.75</v>
       </c>
       <c r="U167">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V167">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W167">
         <v>-1</v>
@@ -15394,19 +15394,19 @@
         <v>-1</v>
       </c>
       <c r="Y167">
-        <v>1.55</v>
+        <v>3.75</v>
       </c>
       <c r="Z167">
         <v>-1</v>
       </c>
       <c r="AA167">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AB167">
-        <v>0.925</v>
+        <v>0.475</v>
       </c>
       <c r="AC167">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15681,7 +15681,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6126606</v>
+        <v>6126611</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15693,76 +15693,76 @@
         <v>45094.91666666666</v>
       </c>
       <c r="F171" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G171" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="H171">
         <v>2</v>
       </c>
       <c r="I171">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J171" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K171">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="L171">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M171">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="N171">
-        <v>1.7</v>
+        <v>2.05</v>
       </c>
       <c r="O171">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P171">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q171">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R171">
+        <v>1.85</v>
+      </c>
+      <c r="S171">
+        <v>1.95</v>
+      </c>
+      <c r="T171">
+        <v>2.5</v>
+      </c>
+      <c r="U171">
         <v>1.875</v>
       </c>
-      <c r="S171">
+      <c r="V171">
         <v>1.925</v>
       </c>
-      <c r="T171">
-        <v>3</v>
-      </c>
-      <c r="U171">
-        <v>1.975</v>
-      </c>
-      <c r="V171">
-        <v>1.825</v>
-      </c>
       <c r="W171">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X171">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y171">
         <v>-1</v>
       </c>
       <c r="Z171">
+        <v>-0.5</v>
+      </c>
+      <c r="AA171">
+        <v>0.475</v>
+      </c>
+      <c r="AB171">
         <v>0.875</v>
       </c>
-      <c r="AA171">
-        <v>-1</v>
-      </c>
-      <c r="AB171">
-        <v>-1</v>
-      </c>
       <c r="AC171">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15770,7 +15770,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6126611</v>
+        <v>6126606</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15782,76 +15782,76 @@
         <v>45094.91666666666</v>
       </c>
       <c r="F172" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G172" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="H172">
         <v>2</v>
       </c>
       <c r="I172">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J172" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K172">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="L172">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M172">
+        <v>4.75</v>
+      </c>
+      <c r="N172">
+        <v>1.7</v>
+      </c>
+      <c r="O172">
         <v>3.8</v>
       </c>
-      <c r="N172">
-        <v>2.05</v>
-      </c>
-      <c r="O172">
-        <v>3.4</v>
-      </c>
       <c r="P172">
+        <v>4</v>
+      </c>
+      <c r="Q172">
+        <v>-0.75</v>
+      </c>
+      <c r="R172">
+        <v>1.875</v>
+      </c>
+      <c r="S172">
+        <v>1.925</v>
+      </c>
+      <c r="T172">
         <v>3</v>
       </c>
-      <c r="Q172">
-        <v>-0.25</v>
-      </c>
-      <c r="R172">
-        <v>1.85</v>
-      </c>
-      <c r="S172">
-        <v>1.95</v>
-      </c>
-      <c r="T172">
-        <v>2.5</v>
-      </c>
       <c r="U172">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V172">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W172">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X172">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y172">
         <v>-1</v>
       </c>
       <c r="Z172">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA172">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB172">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC172">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -16215,7 +16215,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6126617</v>
+        <v>6126619</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16227,13 +16227,13 @@
         <v>45098.875</v>
       </c>
       <c r="F177" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G177" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="H177">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I177">
         <v>0</v>
@@ -16242,43 +16242,43 @@
         <v>55</v>
       </c>
       <c r="K177">
-        <v>1.615</v>
+        <v>2.1</v>
       </c>
       <c r="L177">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M177">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="N177">
-        <v>1.5</v>
+        <v>2.15</v>
       </c>
       <c r="O177">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P177">
-        <v>4.75</v>
+        <v>2.875</v>
       </c>
       <c r="Q177">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R177">
+        <v>1.975</v>
+      </c>
+      <c r="S177">
         <v>1.825</v>
       </c>
-      <c r="S177">
+      <c r="T177">
+        <v>2.75</v>
+      </c>
+      <c r="U177">
         <v>1.975</v>
       </c>
-      <c r="T177">
-        <v>3</v>
-      </c>
-      <c r="U177">
-        <v>1.95</v>
-      </c>
       <c r="V177">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="W177">
-        <v>0.5</v>
+        <v>1.15</v>
       </c>
       <c r="X177">
         <v>-1</v>
@@ -16287,16 +16287,16 @@
         <v>-1</v>
       </c>
       <c r="Z177">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA177">
+        <v>-1</v>
+      </c>
+      <c r="AB177">
+        <v>-1</v>
+      </c>
+      <c r="AC177">
         <v>0.825</v>
-      </c>
-      <c r="AA177">
-        <v>-1</v>
-      </c>
-      <c r="AB177">
-        <v>0.95</v>
-      </c>
-      <c r="AC177">
-        <v>-1</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16393,7 +16393,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6126619</v>
+        <v>6126617</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16405,13 +16405,13 @@
         <v>45098.875</v>
       </c>
       <c r="F179" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G179" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I179">
         <v>0</v>
@@ -16420,43 +16420,43 @@
         <v>55</v>
       </c>
       <c r="K179">
-        <v>2.1</v>
+        <v>1.615</v>
       </c>
       <c r="L179">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M179">
+        <v>4.333</v>
+      </c>
+      <c r="N179">
+        <v>1.5</v>
+      </c>
+      <c r="O179">
+        <v>4.2</v>
+      </c>
+      <c r="P179">
+        <v>4.75</v>
+      </c>
+      <c r="Q179">
+        <v>-1</v>
+      </c>
+      <c r="R179">
+        <v>1.825</v>
+      </c>
+      <c r="S179">
+        <v>1.975</v>
+      </c>
+      <c r="T179">
         <v>3</v>
       </c>
-      <c r="N179">
-        <v>2.15</v>
-      </c>
-      <c r="O179">
-        <v>3.4</v>
-      </c>
-      <c r="P179">
-        <v>2.875</v>
-      </c>
-      <c r="Q179">
-        <v>-0.25</v>
-      </c>
-      <c r="R179">
-        <v>1.975</v>
-      </c>
-      <c r="S179">
-        <v>1.825</v>
-      </c>
-      <c r="T179">
-        <v>2.75</v>
-      </c>
       <c r="U179">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V179">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="W179">
-        <v>1.15</v>
+        <v>0.5</v>
       </c>
       <c r="X179">
         <v>-1</v>
@@ -16465,16 +16465,16 @@
         <v>-1</v>
       </c>
       <c r="Z179">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA179">
         <v>-1</v>
       </c>
       <c r="AB179">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC179">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -17194,7 +17194,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>6126625</v>
+        <v>6126627</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17206,76 +17206,76 @@
         <v>45101.95833333334</v>
       </c>
       <c r="F188" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="G188" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H188">
         <v>1</v>
       </c>
       <c r="I188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J188" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K188">
         <v>1.833</v>
       </c>
       <c r="L188">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M188">
         <v>3.6</v>
       </c>
       <c r="N188">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="O188">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P188">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="Q188">
+        <v>-0.25</v>
+      </c>
+      <c r="R188">
+        <v>1.925</v>
+      </c>
+      <c r="S188">
+        <v>1.875</v>
+      </c>
+      <c r="T188">
+        <v>2.5</v>
+      </c>
+      <c r="U188">
+        <v>1.875</v>
+      </c>
+      <c r="V188">
+        <v>1.925</v>
+      </c>
+      <c r="W188">
+        <v>-1</v>
+      </c>
+      <c r="X188">
+        <v>2.25</v>
+      </c>
+      <c r="Y188">
+        <v>-1</v>
+      </c>
+      <c r="Z188">
         <v>-0.5</v>
       </c>
-      <c r="R188">
-        <v>1.825</v>
-      </c>
-      <c r="S188">
-        <v>1.975</v>
-      </c>
-      <c r="T188">
-        <v>2.25</v>
-      </c>
-      <c r="U188">
-        <v>1.95</v>
-      </c>
-      <c r="V188">
-        <v>1.85</v>
-      </c>
-      <c r="W188">
-        <v>0.8</v>
-      </c>
-      <c r="X188">
-        <v>-1</v>
-      </c>
-      <c r="Y188">
-        <v>-1</v>
-      </c>
-      <c r="Z188">
-        <v>0.825</v>
-      </c>
       <c r="AA188">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB188">
         <v>-1</v>
       </c>
       <c r="AC188">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17283,7 +17283,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6126627</v>
+        <v>6126625</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17295,76 +17295,76 @@
         <v>45101.95833333334</v>
       </c>
       <c r="F189" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G189" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H189">
         <v>1</v>
       </c>
       <c r="I189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J189" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K189">
         <v>1.833</v>
       </c>
       <c r="L189">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M189">
         <v>3.6</v>
       </c>
       <c r="N189">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="O189">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P189">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="Q189">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R189">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S189">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T189">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U189">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V189">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W189">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X189">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y189">
         <v>-1</v>
       </c>
       <c r="Z189">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA189">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB189">
         <v>-1</v>
       </c>
       <c r="AC189">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -18618,7 +18618,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>6126644</v>
+        <v>6126643</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18630,73 +18630,73 @@
         <v>45111.91666666666</v>
       </c>
       <c r="F204" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="G204" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="H204">
+        <v>4</v>
+      </c>
+      <c r="I204">
+        <v>0</v>
+      </c>
+      <c r="J204" t="s">
+        <v>55</v>
+      </c>
+      <c r="K204">
         <v>2</v>
       </c>
-      <c r="I204">
-        <v>2</v>
-      </c>
-      <c r="J204" t="s">
-        <v>54</v>
-      </c>
-      <c r="K204">
-        <v>2.625</v>
-      </c>
       <c r="L204">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M204">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="N204">
-        <v>2.3</v>
+        <v>1.727</v>
       </c>
       <c r="O204">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P204">
-        <v>2.55</v>
+        <v>3.8</v>
       </c>
       <c r="Q204">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R204">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S204">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T204">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U204">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V204">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W204">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X204">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y204">
         <v>-1</v>
       </c>
       <c r="Z204">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA204">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB204">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC204">
         <v>-1</v>
@@ -18707,7 +18707,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>6126643</v>
+        <v>6126644</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18719,73 +18719,73 @@
         <v>45111.91666666666</v>
       </c>
       <c r="F205" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="G205" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="H205">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I205">
+        <v>2</v>
+      </c>
+      <c r="J205" t="s">
+        <v>54</v>
+      </c>
+      <c r="K205">
+        <v>2.625</v>
+      </c>
+      <c r="L205">
+        <v>3.5</v>
+      </c>
+      <c r="M205">
+        <v>2.3</v>
+      </c>
+      <c r="N205">
+        <v>2.3</v>
+      </c>
+      <c r="O205">
+        <v>3.6</v>
+      </c>
+      <c r="P205">
+        <v>2.55</v>
+      </c>
+      <c r="Q205">
         <v>0</v>
       </c>
-      <c r="J205" t="s">
-        <v>55</v>
-      </c>
-      <c r="K205">
+      <c r="R205">
+        <v>1.8</v>
+      </c>
+      <c r="S205">
         <v>2</v>
       </c>
-      <c r="L205">
-        <v>3.6</v>
-      </c>
-      <c r="M205">
-        <v>3.1</v>
-      </c>
-      <c r="N205">
-        <v>1.727</v>
-      </c>
-      <c r="O205">
-        <v>3.8</v>
-      </c>
-      <c r="P205">
-        <v>3.8</v>
-      </c>
-      <c r="Q205">
-        <v>-0.75</v>
-      </c>
-      <c r="R205">
-        <v>1.975</v>
-      </c>
-      <c r="S205">
-        <v>1.825</v>
-      </c>
       <c r="T205">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U205">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V205">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W205">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X205">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y205">
         <v>-1</v>
       </c>
       <c r="Z205">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA205">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB205">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC205">
         <v>-1</v>
@@ -21733,7 +21733,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>6126679</v>
+        <v>6126681</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21745,76 +21745,76 @@
         <v>45129.91666666666</v>
       </c>
       <c r="F239" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="G239" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H239">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I239">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J239" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K239">
+        <v>1.571</v>
+      </c>
+      <c r="L239">
+        <v>3.75</v>
+      </c>
+      <c r="M239">
+        <v>5</v>
+      </c>
+      <c r="N239">
+        <v>1.45</v>
+      </c>
+      <c r="O239">
+        <v>4.2</v>
+      </c>
+      <c r="P239">
+        <v>5.5</v>
+      </c>
+      <c r="Q239">
+        <v>-1</v>
+      </c>
+      <c r="R239">
+        <v>1.8</v>
+      </c>
+      <c r="S239">
+        <v>2</v>
+      </c>
+      <c r="T239">
         <v>2.75</v>
       </c>
-      <c r="L239">
-        <v>3.3</v>
-      </c>
-      <c r="M239">
-        <v>2.3</v>
-      </c>
-      <c r="N239">
-        <v>2.5</v>
-      </c>
-      <c r="O239">
-        <v>3.3</v>
-      </c>
-      <c r="P239">
-        <v>2.5</v>
-      </c>
-      <c r="Q239">
-        <v>0</v>
-      </c>
-      <c r="R239">
-        <v>1.9</v>
-      </c>
-      <c r="S239">
-        <v>1.9</v>
-      </c>
-      <c r="T239">
-        <v>2.5</v>
-      </c>
       <c r="U239">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V239">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W239">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X239">
         <v>-1</v>
       </c>
       <c r="Y239">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Z239">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA239">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB239">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC239">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="240" spans="1:29">
@@ -21822,7 +21822,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>6126681</v>
+        <v>6126679</v>
       </c>
       <c r="C240" t="s">
         <v>28</v>
@@ -21834,76 +21834,76 @@
         <v>45129.91666666666</v>
       </c>
       <c r="F240" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="G240" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H240">
+        <v>3</v>
+      </c>
+      <c r="I240">
         <v>0</v>
       </c>
-      <c r="I240">
-        <v>1</v>
-      </c>
       <c r="J240" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K240">
-        <v>1.571</v>
+        <v>2.75</v>
       </c>
       <c r="L240">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M240">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="N240">
-        <v>1.45</v>
+        <v>2.5</v>
       </c>
       <c r="O240">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="P240">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q240">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R240">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S240">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T240">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U240">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V240">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W240">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X240">
         <v>-1</v>
       </c>
       <c r="Y240">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Z240">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA240">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB240">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC240">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="241" spans="1:29">
@@ -22534,7 +22534,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>6126696</v>
+        <v>6126685</v>
       </c>
       <c r="C248" t="s">
         <v>28</v>
@@ -22546,73 +22546,73 @@
         <v>45136.85416666666</v>
       </c>
       <c r="F248" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G248" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="H248">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I248">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J248" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K248">
-        <v>1.533</v>
+        <v>2.25</v>
       </c>
       <c r="L248">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M248">
-        <v>5</v>
+        <v>2.625</v>
       </c>
       <c r="N248">
-        <v>1.444</v>
+        <v>2.05</v>
       </c>
       <c r="O248">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P248">
-        <v>5.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q248">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R248">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S248">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T248">
         <v>2.75</v>
       </c>
       <c r="U248">
+        <v>1.925</v>
+      </c>
+      <c r="V248">
+        <v>1.875</v>
+      </c>
+      <c r="W248">
+        <v>-1</v>
+      </c>
+      <c r="X248">
+        <v>-1</v>
+      </c>
+      <c r="Y248">
         <v>1.9</v>
       </c>
-      <c r="V248">
-        <v>1.9</v>
-      </c>
-      <c r="W248">
-        <v>0.444</v>
-      </c>
-      <c r="X248">
-        <v>-1</v>
-      </c>
-      <c r="Y248">
-        <v>-1</v>
-      </c>
       <c r="Z248">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA248">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB248">
-        <v>0.45</v>
+        <v>0.4625</v>
       </c>
       <c r="AC248">
         <v>-0.5</v>
@@ -22712,7 +22712,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>6126685</v>
+        <v>6126696</v>
       </c>
       <c r="C250" t="s">
         <v>28</v>
@@ -22724,73 +22724,73 @@
         <v>45136.85416666666</v>
       </c>
       <c r="F250" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G250" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="H250">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I250">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J250" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K250">
-        <v>2.25</v>
+        <v>1.533</v>
       </c>
       <c r="L250">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M250">
-        <v>2.625</v>
+        <v>5</v>
       </c>
       <c r="N250">
-        <v>2.05</v>
+        <v>1.444</v>
       </c>
       <c r="O250">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P250">
-        <v>2.9</v>
+        <v>5.75</v>
       </c>
       <c r="Q250">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R250">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S250">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T250">
         <v>2.75</v>
       </c>
       <c r="U250">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V250">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W250">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X250">
         <v>-1</v>
       </c>
       <c r="Y250">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z250">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA250">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB250">
-        <v>0.4625</v>
+        <v>0.45</v>
       </c>
       <c r="AC250">
         <v>-0.5</v>
@@ -22801,7 +22801,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>6126693</v>
+        <v>6126688</v>
       </c>
       <c r="C251" t="s">
         <v>28</v>
@@ -22813,58 +22813,58 @@
         <v>45136.875</v>
       </c>
       <c r="F251" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G251" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="H251">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I251">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J251" t="s">
         <v>55</v>
       </c>
       <c r="K251">
-        <v>2.375</v>
+        <v>1.95</v>
       </c>
       <c r="L251">
         <v>3.25</v>
       </c>
       <c r="M251">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="N251">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="O251">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P251">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="Q251">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R251">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S251">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T251">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U251">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V251">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W251">
-        <v>1.05</v>
+        <v>0.75</v>
       </c>
       <c r="X251">
         <v>-1</v>
@@ -22873,16 +22873,16 @@
         <v>-1</v>
       </c>
       <c r="Z251">
-        <v>0.825</v>
+        <v>0.75</v>
       </c>
       <c r="AA251">
         <v>-1</v>
       </c>
       <c r="AB251">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC251">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="252" spans="1:29">
@@ -22890,7 +22890,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>6126688</v>
+        <v>6126693</v>
       </c>
       <c r="C252" t="s">
         <v>28</v>
@@ -22902,58 +22902,58 @@
         <v>45136.875</v>
       </c>
       <c r="F252" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G252" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="H252">
+        <v>5</v>
+      </c>
+      <c r="I252">
         <v>2</v>
-      </c>
-      <c r="I252">
-        <v>0</v>
       </c>
       <c r="J252" t="s">
         <v>55</v>
       </c>
       <c r="K252">
-        <v>1.95</v>
+        <v>2.375</v>
       </c>
       <c r="L252">
         <v>3.25</v>
       </c>
       <c r="M252">
+        <v>2.6</v>
+      </c>
+      <c r="N252">
+        <v>2.05</v>
+      </c>
+      <c r="O252">
         <v>3.4</v>
       </c>
-      <c r="N252">
-        <v>1.75</v>
-      </c>
-      <c r="O252">
-        <v>3.3</v>
-      </c>
       <c r="P252">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q252">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R252">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S252">
+        <v>1.975</v>
+      </c>
+      <c r="T252">
+        <v>2.5</v>
+      </c>
+      <c r="U252">
+        <v>1.85</v>
+      </c>
+      <c r="V252">
         <v>1.95</v>
       </c>
-      <c r="T252">
-        <v>2.25</v>
-      </c>
-      <c r="U252">
-        <v>1.8</v>
-      </c>
-      <c r="V252">
-        <v>2</v>
-      </c>
       <c r="W252">
-        <v>0.75</v>
+        <v>1.05</v>
       </c>
       <c r="X252">
         <v>-1</v>
@@ -22962,16 +22962,16 @@
         <v>-1</v>
       </c>
       <c r="Z252">
-        <v>0.75</v>
+        <v>0.825</v>
       </c>
       <c r="AA252">
         <v>-1</v>
       </c>
       <c r="AB252">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC252">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="253" spans="1:29">
@@ -23068,7 +23068,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>6126689</v>
+        <v>6126691</v>
       </c>
       <c r="C254" t="s">
         <v>28</v>
@@ -23080,76 +23080,76 @@
         <v>45136.95833333334</v>
       </c>
       <c r="F254" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G254" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H254">
+        <v>1</v>
+      </c>
+      <c r="I254">
         <v>0</v>
       </c>
-      <c r="I254">
-        <v>2</v>
-      </c>
       <c r="J254" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K254">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L254">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M254">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="N254">
-        <v>2.7</v>
+        <v>2.05</v>
       </c>
       <c r="O254">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P254">
-        <v>2.25</v>
+        <v>2.9</v>
       </c>
       <c r="Q254">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R254">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S254">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T254">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U254">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V254">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W254">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X254">
         <v>-1</v>
       </c>
       <c r="Y254">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z254">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA254">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB254">
         <v>-1</v>
       </c>
       <c r="AC254">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="255" spans="1:29">
@@ -23246,7 +23246,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>6126691</v>
+        <v>6126689</v>
       </c>
       <c r="C256" t="s">
         <v>28</v>
@@ -23258,76 +23258,76 @@
         <v>45136.95833333334</v>
       </c>
       <c r="F256" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G256" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H256">
+        <v>0</v>
+      </c>
+      <c r="I256">
+        <v>2</v>
+      </c>
+      <c r="J256" t="s">
+        <v>53</v>
+      </c>
+      <c r="K256">
+        <v>2</v>
+      </c>
+      <c r="L256">
+        <v>3.4</v>
+      </c>
+      <c r="M256">
+        <v>3.1</v>
+      </c>
+      <c r="N256">
+        <v>2.7</v>
+      </c>
+      <c r="O256">
+        <v>3.4</v>
+      </c>
+      <c r="P256">
+        <v>2.25</v>
+      </c>
+      <c r="Q256">
+        <v>0.25</v>
+      </c>
+      <c r="R256">
+        <v>1.8</v>
+      </c>
+      <c r="S256">
+        <v>2</v>
+      </c>
+      <c r="T256">
+        <v>2.75</v>
+      </c>
+      <c r="U256">
+        <v>1.75</v>
+      </c>
+      <c r="V256">
+        <v>1.95</v>
+      </c>
+      <c r="W256">
+        <v>-1</v>
+      </c>
+      <c r="X256">
+        <v>-1</v>
+      </c>
+      <c r="Y256">
+        <v>1.25</v>
+      </c>
+      <c r="Z256">
+        <v>-1</v>
+      </c>
+      <c r="AA256">
         <v>1</v>
       </c>
-      <c r="I256">
-        <v>0</v>
-      </c>
-      <c r="J256" t="s">
-        <v>55</v>
-      </c>
-      <c r="K256">
-        <v>2.1</v>
-      </c>
-      <c r="L256">
-        <v>3.3</v>
-      </c>
-      <c r="M256">
-        <v>3</v>
-      </c>
-      <c r="N256">
-        <v>2.05</v>
-      </c>
-      <c r="O256">
-        <v>3.5</v>
-      </c>
-      <c r="P256">
-        <v>2.9</v>
-      </c>
-      <c r="Q256">
-        <v>-0.25</v>
-      </c>
-      <c r="R256">
-        <v>1.875</v>
-      </c>
-      <c r="S256">
-        <v>1.925</v>
-      </c>
-      <c r="T256">
-        <v>3</v>
-      </c>
-      <c r="U256">
-        <v>1.9</v>
-      </c>
-      <c r="V256">
-        <v>1.9</v>
-      </c>
-      <c r="W256">
-        <v>1.05</v>
-      </c>
-      <c r="X256">
-        <v>-1</v>
-      </c>
-      <c r="Y256">
-        <v>-1</v>
-      </c>
-      <c r="Z256">
-        <v>0.875</v>
-      </c>
-      <c r="AA256">
-        <v>-1</v>
-      </c>
       <c r="AB256">
         <v>-1</v>
       </c>
       <c r="AC256">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="257" spans="1:29">
@@ -23869,7 +23869,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>6126701</v>
+        <v>6126708</v>
       </c>
       <c r="C263" t="s">
         <v>28</v>
@@ -23881,58 +23881,58 @@
         <v>45143.83333333334</v>
       </c>
       <c r="F263" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G263" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H263">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I263">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J263" t="s">
         <v>55</v>
       </c>
       <c r="K263">
-        <v>2.9</v>
+        <v>2.55</v>
       </c>
       <c r="L263">
+        <v>3.25</v>
+      </c>
+      <c r="M263">
+        <v>2.4</v>
+      </c>
+      <c r="N263">
+        <v>2.2</v>
+      </c>
+      <c r="O263">
         <v>3.4</v>
       </c>
-      <c r="M263">
-        <v>2.1</v>
-      </c>
-      <c r="N263">
-        <v>2.7</v>
-      </c>
-      <c r="O263">
-        <v>3.8</v>
-      </c>
       <c r="P263">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="Q263">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R263">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S263">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T263">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U263">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V263">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W263">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="X263">
         <v>-1</v>
@@ -23941,16 +23941,16 @@
         <v>-1</v>
       </c>
       <c r="Z263">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AA263">
         <v>-1</v>
       </c>
       <c r="AB263">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC263">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="264" spans="1:29">
@@ -23958,7 +23958,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>6126708</v>
+        <v>6126706</v>
       </c>
       <c r="C264" t="s">
         <v>28</v>
@@ -23970,13 +23970,13 @@
         <v>45143.83333333334</v>
       </c>
       <c r="F264" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G264" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H264">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I264">
         <v>0</v>
@@ -23985,43 +23985,43 @@
         <v>55</v>
       </c>
       <c r="K264">
-        <v>2.55</v>
+        <v>2.15</v>
       </c>
       <c r="L264">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M264">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="N264">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="O264">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P264">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="Q264">
         <v>-0.25</v>
       </c>
       <c r="R264">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S264">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T264">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U264">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V264">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="W264">
-        <v>1.2</v>
+        <v>0.95</v>
       </c>
       <c r="X264">
         <v>-1</v>
@@ -24030,16 +24030,16 @@
         <v>-1</v>
       </c>
       <c r="Z264">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA264">
         <v>-1</v>
       </c>
       <c r="AB264">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC264">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="265" spans="1:29">
@@ -24047,7 +24047,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>6126706</v>
+        <v>6126701</v>
       </c>
       <c r="C265" t="s">
         <v>28</v>
@@ -24059,58 +24059,58 @@
         <v>45143.83333333334</v>
       </c>
       <c r="F265" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G265" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="H265">
+        <v>2</v>
+      </c>
+      <c r="I265">
         <v>1</v>
-      </c>
-      <c r="I265">
-        <v>0</v>
       </c>
       <c r="J265" t="s">
         <v>55</v>
       </c>
       <c r="K265">
-        <v>2.15</v>
+        <v>2.9</v>
       </c>
       <c r="L265">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M265">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="N265">
-        <v>1.95</v>
+        <v>2.7</v>
       </c>
       <c r="O265">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P265">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q265">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R265">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S265">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T265">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U265">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V265">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="W265">
-        <v>0.95</v>
+        <v>1.7</v>
       </c>
       <c r="X265">
         <v>-1</v>
@@ -24119,16 +24119,16 @@
         <v>-1</v>
       </c>
       <c r="Z265">
-        <v>0.7749999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AA265">
         <v>-1</v>
       </c>
       <c r="AB265">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC265">
-        <v>0.7749999999999999</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="266" spans="1:29">
@@ -24225,7 +24225,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>6126704</v>
+        <v>6126707</v>
       </c>
       <c r="C267" t="s">
         <v>28</v>
@@ -24237,55 +24237,55 @@
         <v>45143.95833333334</v>
       </c>
       <c r="F267" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G267" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I267">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J267" t="s">
         <v>53</v>
       </c>
       <c r="K267">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="L267">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M267">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="N267">
-        <v>3.4</v>
+        <v>1.727</v>
       </c>
       <c r="O267">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P267">
-        <v>2.05</v>
+        <v>3.6</v>
       </c>
       <c r="Q267">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R267">
-        <v>1.725</v>
+        <v>1.75</v>
       </c>
       <c r="S267">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T267">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U267">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V267">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W267">
         <v>-1</v>
@@ -24294,19 +24294,19 @@
         <v>-1</v>
       </c>
       <c r="Y267">
-        <v>1.05</v>
+        <v>2.6</v>
       </c>
       <c r="Z267">
         <v>-1</v>
       </c>
       <c r="AA267">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB267">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC267">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="268" spans="1:29">
@@ -24314,7 +24314,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>6126707</v>
+        <v>6126704</v>
       </c>
       <c r="C268" t="s">
         <v>28</v>
@@ -24326,55 +24326,55 @@
         <v>45143.95833333334</v>
       </c>
       <c r="F268" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G268" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H268">
+        <v>0</v>
+      </c>
+      <c r="I268">
         <v>1</v>
-      </c>
-      <c r="I268">
-        <v>3</v>
       </c>
       <c r="J268" t="s">
         <v>53</v>
       </c>
       <c r="K268">
+        <v>2.5</v>
+      </c>
+      <c r="L268">
+        <v>3.2</v>
+      </c>
+      <c r="M268">
+        <v>2.5</v>
+      </c>
+      <c r="N268">
+        <v>3.4</v>
+      </c>
+      <c r="O268">
+        <v>3.1</v>
+      </c>
+      <c r="P268">
         <v>2.05</v>
       </c>
-      <c r="L268">
-        <v>3.5</v>
-      </c>
-      <c r="M268">
-        <v>2.9</v>
-      </c>
-      <c r="N268">
-        <v>1.727</v>
-      </c>
-      <c r="O268">
-        <v>3.75</v>
-      </c>
-      <c r="P268">
-        <v>3.6</v>
-      </c>
       <c r="Q268">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R268">
-        <v>1.75</v>
+        <v>1.725</v>
       </c>
       <c r="S268">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T268">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U268">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V268">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W268">
         <v>-1</v>
@@ -24383,19 +24383,19 @@
         <v>-1</v>
       </c>
       <c r="Y268">
-        <v>2.6</v>
+        <v>1.05</v>
       </c>
       <c r="Z268">
         <v>-1</v>
       </c>
       <c r="AA268">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB268">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC268">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="269" spans="1:29">
@@ -25026,7 +25026,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>6126713</v>
+        <v>6126721</v>
       </c>
       <c r="C276" t="s">
         <v>28</v>
@@ -25038,46 +25038,46 @@
         <v>45150.85416666666</v>
       </c>
       <c r="F276" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G276" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H276">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I276">
         <v>1</v>
       </c>
       <c r="J276" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K276">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="L276">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="M276">
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="N276">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="O276">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P276">
-        <v>2.4</v>
+        <v>5.25</v>
       </c>
       <c r="Q276">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R276">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S276">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T276">
         <v>2.5</v>
@@ -25089,25 +25089,25 @@
         <v>1.925</v>
       </c>
       <c r="W276">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X276">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y276">
         <v>-1</v>
       </c>
       <c r="Z276">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA276">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB276">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC276">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="277" spans="1:29">
@@ -25204,7 +25204,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>6126721</v>
+        <v>6126713</v>
       </c>
       <c r="C278" t="s">
         <v>28</v>
@@ -25216,46 +25216,46 @@
         <v>45150.85416666666</v>
       </c>
       <c r="F278" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G278" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H278">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I278">
         <v>1</v>
       </c>
       <c r="J278" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K278">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="L278">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="M278">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="N278">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="O278">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P278">
-        <v>5.25</v>
+        <v>2.4</v>
       </c>
       <c r="Q278">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R278">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S278">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T278">
         <v>2.5</v>
@@ -25267,25 +25267,25 @@
         <v>1.925</v>
       </c>
       <c r="W278">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X278">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y278">
         <v>-1</v>
       </c>
       <c r="Z278">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA278">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB278">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC278">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="279" spans="1:29">
@@ -26806,7 +26806,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>6126731</v>
+        <v>6126732</v>
       </c>
       <c r="C296" t="s">
         <v>28</v>
@@ -26818,19 +26818,19 @@
         <v>45157.95833333334</v>
       </c>
       <c r="F296" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="G296" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H296">
         <v>2</v>
       </c>
       <c r="I296">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J296" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K296">
         <v>2</v>
@@ -26842,52 +26842,52 @@
         <v>3.1</v>
       </c>
       <c r="N296">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="O296">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P296">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="Q296">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R296">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S296">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T296">
         <v>2.5</v>
       </c>
       <c r="U296">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V296">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W296">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X296">
         <v>-1</v>
       </c>
       <c r="Y296">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z296">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA296">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB296">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC296">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="297" spans="1:29">
@@ -26895,7 +26895,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>6126732</v>
+        <v>6126731</v>
       </c>
       <c r="C297" t="s">
         <v>28</v>
@@ -26907,19 +26907,19 @@
         <v>45157.95833333334</v>
       </c>
       <c r="F297" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="G297" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H297">
         <v>2</v>
       </c>
       <c r="I297">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J297" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K297">
         <v>2</v>
@@ -26931,52 +26931,52 @@
         <v>3.1</v>
       </c>
       <c r="N297">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="O297">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P297">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="Q297">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R297">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S297">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T297">
         <v>2.5</v>
       </c>
       <c r="U297">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V297">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W297">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X297">
         <v>-1</v>
       </c>
       <c r="Y297">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z297">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA297">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB297">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC297">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="298" spans="1:29">
@@ -27073,7 +27073,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>6126741</v>
+        <v>6126739</v>
       </c>
       <c r="C299" t="s">
         <v>28</v>
@@ -27085,76 +27085,76 @@
         <v>45161.875</v>
       </c>
       <c r="F299" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="G299" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="H299">
+        <v>1</v>
+      </c>
+      <c r="I299">
+        <v>3</v>
+      </c>
+      <c r="J299" t="s">
+        <v>53</v>
+      </c>
+      <c r="K299">
+        <v>2.55</v>
+      </c>
+      <c r="L299">
+        <v>3.3</v>
+      </c>
+      <c r="M299">
+        <v>2.625</v>
+      </c>
+      <c r="N299">
+        <v>2.7</v>
+      </c>
+      <c r="O299">
+        <v>3.5</v>
+      </c>
+      <c r="P299">
+        <v>2.375</v>
+      </c>
+      <c r="Q299">
         <v>0</v>
       </c>
-      <c r="I299">
-        <v>0</v>
-      </c>
-      <c r="J299" t="s">
-        <v>54</v>
-      </c>
-      <c r="K299">
-        <v>1.909</v>
-      </c>
-      <c r="L299">
-        <v>3.5</v>
-      </c>
-      <c r="M299">
-        <v>3.7</v>
-      </c>
-      <c r="N299">
-        <v>2</v>
-      </c>
-      <c r="O299">
-        <v>3.4</v>
-      </c>
-      <c r="P299">
-        <v>3.4</v>
-      </c>
-      <c r="Q299">
-        <v>-0.25</v>
-      </c>
       <c r="R299">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="S299">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="T299">
         <v>2.75</v>
       </c>
       <c r="U299">
+        <v>1.85</v>
+      </c>
+      <c r="V299">
         <v>1.95</v>
       </c>
-      <c r="V299">
-        <v>1.85</v>
-      </c>
       <c r="W299">
         <v>-1</v>
       </c>
       <c r="X299">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y299">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z299">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA299">
-        <v>0.5249999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB299">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC299">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="300" spans="1:29">
@@ -27162,7 +27162,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>6126739</v>
+        <v>6126741</v>
       </c>
       <c r="C300" t="s">
         <v>28</v>
@@ -27174,76 +27174,76 @@
         <v>45161.875</v>
       </c>
       <c r="F300" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="G300" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="H300">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I300">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J300" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K300">
-        <v>2.55</v>
+        <v>1.909</v>
       </c>
       <c r="L300">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M300">
-        <v>2.625</v>
+        <v>3.7</v>
       </c>
       <c r="N300">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="O300">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P300">
-        <v>2.375</v>
+        <v>3.4</v>
       </c>
       <c r="Q300">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R300">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="S300">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="T300">
         <v>2.75</v>
       </c>
       <c r="U300">
+        <v>1.95</v>
+      </c>
+      <c r="V300">
         <v>1.85</v>
       </c>
-      <c r="V300">
-        <v>1.95</v>
-      </c>
       <c r="W300">
         <v>-1</v>
       </c>
       <c r="X300">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y300">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z300">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA300">
-        <v>0.7749999999999999</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB300">
+        <v>-1</v>
+      </c>
+      <c r="AC300">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC300">
-        <v>-1</v>
       </c>
     </row>
     <row r="301" spans="1:29">
@@ -28942,7 +28942,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>6126758</v>
+        <v>6126763</v>
       </c>
       <c r="C320" t="s">
         <v>28</v>
@@ -28954,55 +28954,55 @@
         <v>45171.91666666666</v>
       </c>
       <c r="F320" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G320" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H320">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I320">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J320" t="s">
         <v>53</v>
       </c>
       <c r="K320">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="L320">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M320">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="N320">
-        <v>2.4</v>
+        <v>2.05</v>
       </c>
       <c r="O320">
         <v>3.4</v>
       </c>
       <c r="P320">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="Q320">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R320">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S320">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T320">
         <v>2.5</v>
       </c>
       <c r="U320">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V320">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W320">
         <v>-1</v>
@@ -29011,19 +29011,19 @@
         <v>-1</v>
       </c>
       <c r="Y320">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="Z320">
         <v>-1</v>
       </c>
       <c r="AA320">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB320">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC320">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="321" spans="1:29">
@@ -29031,7 +29031,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>6126763</v>
+        <v>6126758</v>
       </c>
       <c r="C321" t="s">
         <v>28</v>
@@ -29043,55 +29043,55 @@
         <v>45171.91666666666</v>
       </c>
       <c r="F321" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G321" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J321" t="s">
         <v>53</v>
       </c>
       <c r="K321">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="L321">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M321">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="N321">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="O321">
         <v>3.4</v>
       </c>
       <c r="P321">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="Q321">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R321">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S321">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T321">
         <v>2.5</v>
       </c>
       <c r="U321">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V321">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W321">
         <v>-1</v>
@@ -29100,19 +29100,19 @@
         <v>-1</v>
       </c>
       <c r="Y321">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="Z321">
         <v>-1</v>
       </c>
       <c r="AA321">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB321">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC321">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="322" spans="1:29">
@@ -29832,7 +29832,7 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>6126770</v>
+        <v>6126779</v>
       </c>
       <c r="C330" t="s">
         <v>28</v>
@@ -29844,58 +29844,58 @@
         <v>45178.85416666666</v>
       </c>
       <c r="F330" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G330" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H330">
         <v>2</v>
       </c>
       <c r="I330">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J330" t="s">
         <v>55</v>
       </c>
       <c r="K330">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="L330">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M330">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="N330">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="O330">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P330">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="Q330">
         <v>-0.25</v>
       </c>
       <c r="R330">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S330">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T330">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U330">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V330">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W330">
-        <v>1.15</v>
+        <v>1</v>
       </c>
       <c r="X330">
         <v>-1</v>
@@ -29904,16 +29904,16 @@
         <v>-1</v>
       </c>
       <c r="Z330">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AA330">
         <v>-1</v>
       </c>
       <c r="AB330">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC330">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="331" spans="1:29">
@@ -29921,7 +29921,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>6126779</v>
+        <v>6126772</v>
       </c>
       <c r="C331" t="s">
         <v>28</v>
@@ -29933,10 +29933,10 @@
         <v>45178.85416666666</v>
       </c>
       <c r="F331" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G331" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H331">
         <v>2</v>
@@ -29948,43 +29948,43 @@
         <v>55</v>
       </c>
       <c r="K331">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="L331">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M331">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="N331">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="O331">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P331">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q331">
         <v>-0.25</v>
       </c>
       <c r="R331">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S331">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T331">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U331">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V331">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W331">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="X331">
         <v>-1</v>
@@ -29993,13 +29993,13 @@
         <v>-1</v>
       </c>
       <c r="Z331">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA331">
         <v>-1</v>
       </c>
       <c r="AB331">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC331">
         <v>-1</v>
@@ -30010,7 +30010,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>6126772</v>
+        <v>6126770</v>
       </c>
       <c r="C332" t="s">
         <v>28</v>
@@ -30022,58 +30022,58 @@
         <v>45178.85416666666</v>
       </c>
       <c r="F332" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G332" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H332">
         <v>2</v>
       </c>
       <c r="I332">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J332" t="s">
         <v>55</v>
       </c>
       <c r="K332">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L332">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M332">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="N332">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O332">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P332">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="Q332">
         <v>-0.25</v>
       </c>
       <c r="R332">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S332">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T332">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U332">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V332">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W332">
-        <v>1.2</v>
+        <v>1.15</v>
       </c>
       <c r="X332">
         <v>-1</v>
@@ -30082,16 +30082,16 @@
         <v>-1</v>
       </c>
       <c r="Z332">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA332">
         <v>-1</v>
       </c>
       <c r="AB332">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC332">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="333" spans="1:29">
@@ -31345,7 +31345,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>6126790</v>
+        <v>6126787</v>
       </c>
       <c r="C347" t="s">
         <v>28</v>
@@ -31357,46 +31357,46 @@
         <v>45185.95833333334</v>
       </c>
       <c r="F347" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G347" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="H347">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I347">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J347" t="s">
         <v>55</v>
       </c>
       <c r="K347">
-        <v>1.5</v>
+        <v>1.727</v>
       </c>
       <c r="L347">
+        <v>3.75</v>
+      </c>
+      <c r="M347">
         <v>4.2</v>
       </c>
-      <c r="M347">
-        <v>5.5</v>
-      </c>
       <c r="N347">
-        <v>1.65</v>
+        <v>1.833</v>
       </c>
       <c r="O347">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P347">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Q347">
         <v>-0.75</v>
       </c>
       <c r="R347">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="S347">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="T347">
         <v>2.75</v>
@@ -31408,7 +31408,7 @@
         <v>1.85</v>
       </c>
       <c r="W347">
-        <v>0.6499999999999999</v>
+        <v>0.833</v>
       </c>
       <c r="X347">
         <v>-1</v>
@@ -31417,16 +31417,16 @@
         <v>-1</v>
       </c>
       <c r="Z347">
-        <v>0.425</v>
+        <v>0.55</v>
       </c>
       <c r="AA347">
         <v>-0.5</v>
       </c>
       <c r="AB347">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC347">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="348" spans="1:29">
@@ -31434,7 +31434,7 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>6126787</v>
+        <v>6126788</v>
       </c>
       <c r="C348" t="s">
         <v>28</v>
@@ -31446,76 +31446,76 @@
         <v>45185.95833333334</v>
       </c>
       <c r="F348" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="G348" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="H348">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I348">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J348" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K348">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="L348">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M348">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="N348">
-        <v>1.833</v>
+        <v>1.7</v>
       </c>
       <c r="O348">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P348">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="Q348">
         <v>-0.75</v>
       </c>
       <c r="R348">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="S348">
-        <v>1.7</v>
+        <v>1.875</v>
       </c>
       <c r="T348">
         <v>2.75</v>
       </c>
       <c r="U348">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V348">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W348">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X348">
         <v>-1</v>
       </c>
       <c r="Y348">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z348">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="AA348">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB348">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC348">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="349" spans="1:29">
@@ -31523,7 +31523,7 @@
         <v>347</v>
       </c>
       <c r="B349">
-        <v>6126788</v>
+        <v>6126790</v>
       </c>
       <c r="C349" t="s">
         <v>28</v>
@@ -31535,34 +31535,34 @@
         <v>45185.95833333334</v>
       </c>
       <c r="F349" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G349" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="H349">
+        <v>1</v>
+      </c>
+      <c r="I349">
         <v>0</v>
       </c>
-      <c r="I349">
-        <v>1</v>
-      </c>
       <c r="J349" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K349">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="L349">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="M349">
-        <v>4.1</v>
+        <v>5.5</v>
       </c>
       <c r="N349">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="O349">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P349">
         <v>4.5</v>
@@ -31571,40 +31571,40 @@
         <v>-0.75</v>
       </c>
       <c r="R349">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S349">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T349">
         <v>2.75</v>
       </c>
       <c r="U349">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V349">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W349">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X349">
         <v>-1</v>
       </c>
       <c r="Y349">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z349">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA349">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB349">
         <v>-1</v>
       </c>
       <c r="AC349">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="350" spans="1:29">
@@ -33481,7 +33481,7 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>6418149</v>
+        <v>6413717</v>
       </c>
       <c r="C371" t="s">
         <v>28</v>
@@ -33493,40 +33493,40 @@
         <v>45199.83333333334</v>
       </c>
       <c r="F371" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G371" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H371">
+        <v>3</v>
+      </c>
+      <c r="I371">
         <v>2</v>
-      </c>
-      <c r="I371">
-        <v>0</v>
       </c>
       <c r="J371" t="s">
         <v>55</v>
       </c>
       <c r="K371">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="L371">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="M371">
-        <v>5.75</v>
+        <v>6.6</v>
       </c>
       <c r="N371">
-        <v>1.5</v>
+        <v>1.333</v>
       </c>
       <c r="O371">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P371">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="Q371">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R371">
         <v>1.75</v>
@@ -33535,16 +33535,16 @@
         <v>1.95</v>
       </c>
       <c r="T371">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U371">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V371">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W371">
-        <v>0.5</v>
+        <v>0.333</v>
       </c>
       <c r="X371">
         <v>-1</v>
@@ -33553,16 +33553,16 @@
         <v>-1</v>
       </c>
       <c r="Z371">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="AA371">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB371">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC371">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="372" spans="1:29">
@@ -33570,7 +33570,7 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>6413717</v>
+        <v>6418149</v>
       </c>
       <c r="C372" t="s">
         <v>28</v>
@@ -33582,40 +33582,40 @@
         <v>45199.83333333334</v>
       </c>
       <c r="F372" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G372" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H372">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I372">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J372" t="s">
         <v>55</v>
       </c>
       <c r="K372">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="L372">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="M372">
-        <v>6.6</v>
+        <v>5.75</v>
       </c>
       <c r="N372">
-        <v>1.333</v>
+        <v>1.5</v>
       </c>
       <c r="O372">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P372">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="Q372">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R372">
         <v>1.75</v>
@@ -33624,16 +33624,16 @@
         <v>1.95</v>
       </c>
       <c r="T372">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U372">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V372">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W372">
-        <v>0.333</v>
+        <v>0.5</v>
       </c>
       <c r="X372">
         <v>-1</v>
@@ -33642,16 +33642,16 @@
         <v>-1</v>
       </c>
       <c r="Z372">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AA372">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB372">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC372">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="373" spans="1:29">
@@ -35172,7 +35172,7 @@
         <v>388</v>
       </c>
       <c r="B390">
-        <v>6418155</v>
+        <v>6492410</v>
       </c>
       <c r="C390" t="s">
         <v>28</v>
@@ -35184,40 +35184,40 @@
         <v>45206.875</v>
       </c>
       <c r="F390" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G390" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H390">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I390">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J390" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K390">
-        <v>1.85</v>
+        <v>2.9</v>
       </c>
       <c r="L390">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M390">
-        <v>4</v>
+        <v>2.375</v>
       </c>
       <c r="N390">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="O390">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P390">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="Q390">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R390">
         <v>1.85</v>
@@ -35226,31 +35226,31 @@
         <v>1.95</v>
       </c>
       <c r="T390">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U390">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V390">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W390">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X390">
         <v>-1</v>
       </c>
       <c r="Y390">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z390">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA390">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB390">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AC390">
         <v>-1</v>
@@ -35261,7 +35261,7 @@
         <v>389</v>
       </c>
       <c r="B391">
-        <v>6492410</v>
+        <v>6418155</v>
       </c>
       <c r="C391" t="s">
         <v>28</v>
@@ -35273,40 +35273,40 @@
         <v>45206.875</v>
       </c>
       <c r="F391" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G391" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H391">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I391">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J391" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K391">
-        <v>2.9</v>
+        <v>1.85</v>
       </c>
       <c r="L391">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M391">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="N391">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="O391">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P391">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="Q391">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R391">
         <v>1.85</v>
@@ -35315,31 +35315,31 @@
         <v>1.95</v>
       </c>
       <c r="T391">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U391">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V391">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W391">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X391">
         <v>-1</v>
       </c>
       <c r="Y391">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z391">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA391">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB391">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AC391">
         <v>-1</v>
@@ -36685,7 +36685,7 @@
         <v>405</v>
       </c>
       <c r="B407">
-        <v>6504524</v>
+        <v>6492480</v>
       </c>
       <c r="C407" t="s">
         <v>28</v>
@@ -36697,37 +36697,37 @@
         <v>45213.95833333334</v>
       </c>
       <c r="F407" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G407" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H407">
         <v>1</v>
       </c>
       <c r="I407">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J407" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K407">
-        <v>1.533</v>
+        <v>1.95</v>
       </c>
       <c r="L407">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M407">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="N407">
-        <v>1.7</v>
+        <v>1.727</v>
       </c>
       <c r="O407">
         <v>3.75</v>
       </c>
       <c r="P407">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="Q407">
         <v>-0.75</v>
@@ -36742,31 +36742,31 @@
         <v>2.75</v>
       </c>
       <c r="U407">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V407">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W407">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X407">
         <v>-1</v>
       </c>
       <c r="Y407">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z407">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA407">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB407">
+        <v>0.4</v>
+      </c>
+      <c r="AC407">
         <v>-0.5</v>
-      </c>
-      <c r="AB407">
-        <v>-1</v>
-      </c>
-      <c r="AC407">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="408" spans="1:29">
@@ -36774,7 +36774,7 @@
         <v>406</v>
       </c>
       <c r="B408">
-        <v>6492480</v>
+        <v>6504524</v>
       </c>
       <c r="C408" t="s">
         <v>28</v>
@@ -36786,37 +36786,37 @@
         <v>45213.95833333334</v>
       </c>
       <c r="F408" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G408" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H408">
         <v>1</v>
       </c>
       <c r="I408">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J408" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K408">
-        <v>1.95</v>
+        <v>1.533</v>
       </c>
       <c r="L408">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M408">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="N408">
-        <v>1.727</v>
+        <v>1.7</v>
       </c>
       <c r="O408">
         <v>3.75</v>
       </c>
       <c r="P408">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q408">
         <v>-0.75</v>
@@ -36831,31 +36831,31 @@
         <v>2.75</v>
       </c>
       <c r="U408">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V408">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W408">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X408">
         <v>-1</v>
       </c>
       <c r="Y408">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z408">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA408">
+        <v>-0.5</v>
+      </c>
+      <c r="AB408">
+        <v>-1</v>
+      </c>
+      <c r="AC408">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB408">
-        <v>0.4</v>
-      </c>
-      <c r="AC408">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="409" spans="1:29">

--- a/USA USL Championship/USA USL Championship.xlsx
+++ b/USA USL Championship/USA USL Championship.xlsx
@@ -109,10 +109,10 @@
     <t>Colorado Switchbacks FC</t>
   </si>
   <si>
-    <t>Pittsburgh Riverhounds</t>
+    <t>Hartford Athletic</t>
   </si>
   <si>
-    <t>Hartford Athletic</t>
+    <t>Pittsburgh Riverhounds</t>
   </si>
   <si>
     <t>Tampa Bay Rowdies</t>
@@ -121,16 +121,16 @@
     <t>Memphis 901 FC</t>
   </si>
   <si>
+    <t>New Mexico United</t>
+  </si>
+  <si>
     <t>San Antonio FC</t>
   </si>
   <si>
-    <t>New Mexico United</t>
+    <t>Monterey Bay FC</t>
   </si>
   <si>
     <t>Orange County SC</t>
-  </si>
-  <si>
-    <t>Monterey Bay FC</t>
   </si>
   <si>
     <t>Loudoun United FC</t>
@@ -142,10 +142,10 @@
     <t>Indy Eleven</t>
   </si>
   <si>
-    <t>Louisville City FC</t>
+    <t>Rio Grande Valley FC Toros</t>
   </si>
   <si>
-    <t>Rio Grande Valley FC Toros</t>
+    <t>Louisville City FC</t>
   </si>
   <si>
     <t>Las Vegas Lights FC</t>
@@ -178,10 +178,10 @@
     <t>A</t>
   </si>
   <si>
-    <t>H</t>
+    <t>D</t>
   </si>
   <si>
-    <t>D</t>
+    <t>H</t>
   </si>
 </sst>
 </file>
@@ -818,7 +818,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6126586</v>
+        <v>6126581</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -833,10 +833,10 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -845,61 +845,61 @@
         <v>54</v>
       </c>
       <c r="K4">
-        <v>1.7</v>
+        <v>3.5</v>
       </c>
       <c r="L4">
         <v>3.6</v>
       </c>
       <c r="M4">
-        <v>4.2</v>
+        <v>1.833</v>
       </c>
       <c r="N4">
+        <v>3.4</v>
+      </c>
+      <c r="O4">
+        <v>3.6</v>
+      </c>
+      <c r="P4">
         <v>1.85</v>
       </c>
-      <c r="O4">
-        <v>3.3</v>
-      </c>
-      <c r="P4">
-        <v>3.8</v>
-      </c>
       <c r="Q4">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R4">
+        <v>1.9</v>
+      </c>
+      <c r="S4">
+        <v>1.9</v>
+      </c>
+      <c r="T4">
+        <v>2.75</v>
+      </c>
+      <c r="U4">
+        <v>1.875</v>
+      </c>
+      <c r="V4">
         <v>1.925</v>
       </c>
-      <c r="S4">
-        <v>1.875</v>
-      </c>
-      <c r="T4">
-        <v>2.25</v>
-      </c>
-      <c r="U4">
-        <v>1.75</v>
-      </c>
-      <c r="V4">
-        <v>1.95</v>
-      </c>
       <c r="W4">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X4">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA4">
+        <v>-1</v>
+      </c>
+      <c r="AB4">
+        <v>-1</v>
+      </c>
+      <c r="AC4">
         <v>0.925</v>
-      </c>
-      <c r="AA4">
-        <v>-1</v>
-      </c>
-      <c r="AB4">
-        <v>-1</v>
-      </c>
-      <c r="AC4">
-        <v>0.95</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -907,7 +907,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6126581</v>
+        <v>6126586</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -922,10 +922,10 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -934,52 +934,52 @@
         <v>55</v>
       </c>
       <c r="K5">
-        <v>3.5</v>
+        <v>1.7</v>
       </c>
       <c r="L5">
         <v>3.6</v>
       </c>
       <c r="M5">
-        <v>1.833</v>
+        <v>4.2</v>
       </c>
       <c r="N5">
-        <v>3.4</v>
+        <v>1.85</v>
       </c>
       <c r="O5">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P5">
-        <v>1.85</v>
+        <v>3.8</v>
       </c>
       <c r="Q5">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R5">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S5">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T5">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U5">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="V5">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W5">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X5">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y5">
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AA5">
         <v>-1</v>
@@ -988,7 +988,7 @@
         <v>-1</v>
       </c>
       <c r="AC5">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1020,7 +1020,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K6">
         <v>2.25</v>
@@ -1109,7 +1109,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -1174,7 +1174,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6126587</v>
+        <v>6126584</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1189,73 +1189,73 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K8">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="L8">
         <v>3.4</v>
       </c>
       <c r="M8">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="N8">
-        <v>1.8</v>
+        <v>2.15</v>
       </c>
       <c r="O8">
         <v>3.4</v>
       </c>
       <c r="P8">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="Q8">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R8">
+        <v>1.95</v>
+      </c>
+      <c r="S8">
         <v>1.85</v>
       </c>
-      <c r="S8">
-        <v>1.95</v>
-      </c>
       <c r="T8">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U8">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V8">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W8">
         <v>-1</v>
       </c>
       <c r="X8">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y8">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z8">
         <v>-1</v>
       </c>
       <c r="AA8">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB8">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC8">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1263,7 +1263,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6126584</v>
+        <v>6126587</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1278,73 +1278,73 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K9">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="L9">
         <v>3.4</v>
       </c>
       <c r="M9">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="N9">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="O9">
         <v>3.4</v>
       </c>
       <c r="P9">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q9">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R9">
+        <v>1.85</v>
+      </c>
+      <c r="S9">
         <v>1.95</v>
       </c>
-      <c r="S9">
-        <v>1.85</v>
-      </c>
       <c r="T9">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U9">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V9">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W9">
         <v>-1</v>
       </c>
       <c r="X9">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y9">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z9">
         <v>-1</v>
       </c>
       <c r="AA9">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB9">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC9">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1352,7 +1352,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6126585</v>
+        <v>6126583</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1367,55 +1367,55 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K10">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="L10">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M10">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="N10">
-        <v>2.1</v>
+        <v>1.615</v>
       </c>
       <c r="O10">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P10">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="Q10">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R10">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S10">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T10">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U10">
+        <v>1.95</v>
+      </c>
+      <c r="V10">
         <v>1.85</v>
       </c>
-      <c r="V10">
-        <v>1.95</v>
-      </c>
       <c r="W10">
-        <v>1.1</v>
+        <v>0.615</v>
       </c>
       <c r="X10">
         <v>-1</v>
@@ -1424,16 +1424,16 @@
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AA10">
         <v>-1</v>
       </c>
       <c r="AB10">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC10">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1441,7 +1441,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6126583</v>
+        <v>6126585</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1456,55 +1456,55 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K11">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L11">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M11">
+        <v>3.2</v>
+      </c>
+      <c r="N11">
+        <v>2.1</v>
+      </c>
+      <c r="O11">
+        <v>3.1</v>
+      </c>
+      <c r="P11">
         <v>3.3</v>
       </c>
-      <c r="N11">
-        <v>1.615</v>
-      </c>
-      <c r="O11">
-        <v>4</v>
-      </c>
-      <c r="P11">
-        <v>4.2</v>
-      </c>
       <c r="Q11">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R11">
+        <v>1.8</v>
+      </c>
+      <c r="S11">
+        <v>2</v>
+      </c>
+      <c r="T11">
+        <v>2.25</v>
+      </c>
+      <c r="U11">
+        <v>1.85</v>
+      </c>
+      <c r="V11">
         <v>1.95</v>
       </c>
-      <c r="S11">
-        <v>1.75</v>
-      </c>
-      <c r="T11">
-        <v>2.75</v>
-      </c>
-      <c r="U11">
-        <v>1.95</v>
-      </c>
-      <c r="V11">
-        <v>1.85</v>
-      </c>
       <c r="W11">
-        <v>0.615</v>
+        <v>1.1</v>
       </c>
       <c r="X11">
         <v>-1</v>
@@ -1513,16 +1513,16 @@
         <v>-1</v>
       </c>
       <c r="Z11">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AA11">
         <v>-1</v>
       </c>
       <c r="AB11">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AC11">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1554,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K12">
         <v>1.8</v>
@@ -1643,7 +1643,7 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K13">
         <v>2.4</v>
@@ -1732,7 +1732,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K14">
         <v>2.3</v>
@@ -1809,7 +1809,7 @@
         <v>45087.83333333334</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G15" t="s">
         <v>29</v>
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K15">
         <v>1.75</v>
@@ -1901,7 +1901,7 @@
         <v>41</v>
       </c>
       <c r="G16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -1910,7 +1910,7 @@
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K16">
         <v>1.666</v>
@@ -1990,7 +1990,7 @@
         <v>33</v>
       </c>
       <c r="G17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H17">
         <v>3</v>
@@ -1999,7 +1999,7 @@
         <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K17">
         <v>1.65</v>
@@ -2064,7 +2064,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6126596</v>
+        <v>6126599</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2079,70 +2079,70 @@
         <v>42</v>
       </c>
       <c r="G18" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I18">
         <v>3</v>
       </c>
       <c r="J18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K18">
-        <v>1.7</v>
+        <v>2.05</v>
       </c>
       <c r="L18">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M18">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="N18">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="O18">
         <v>3.4</v>
       </c>
       <c r="P18">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="Q18">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R18">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S18">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T18">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U18">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V18">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W18">
         <v>-1</v>
       </c>
       <c r="X18">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y18">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z18">
         <v>-1</v>
       </c>
       <c r="AA18">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB18">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC18">
         <v>-1</v>
@@ -2153,7 +2153,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6126599</v>
+        <v>6126596</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2168,70 +2168,70 @@
         <v>43</v>
       </c>
       <c r="G19" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="H19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I19">
         <v>3</v>
       </c>
       <c r="J19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K19">
-        <v>2.05</v>
+        <v>1.7</v>
       </c>
       <c r="L19">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M19">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="N19">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="O19">
         <v>3.4</v>
       </c>
       <c r="P19">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q19">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R19">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S19">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T19">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U19">
+        <v>1.9</v>
+      </c>
+      <c r="V19">
+        <v>1.9</v>
+      </c>
+      <c r="W19">
+        <v>-1</v>
+      </c>
+      <c r="X19">
+        <v>-1</v>
+      </c>
+      <c r="Y19">
         <v>1.8</v>
       </c>
-      <c r="V19">
-        <v>2</v>
-      </c>
-      <c r="W19">
-        <v>-1</v>
-      </c>
-      <c r="X19">
-        <v>2.4</v>
-      </c>
-      <c r="Y19">
-        <v>-1</v>
-      </c>
       <c r="Z19">
         <v>-1</v>
       </c>
       <c r="AA19">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB19">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC19">
         <v>-1</v>
@@ -2257,7 +2257,7 @@
         <v>30</v>
       </c>
       <c r="G20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H20">
         <v>4</v>
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K20">
         <v>1.85</v>
@@ -2343,7 +2343,7 @@
         <v>45087.91666666666</v>
       </c>
       <c r="F21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -2355,7 +2355,7 @@
         <v>2</v>
       </c>
       <c r="J21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -2435,7 +2435,7 @@
         <v>44</v>
       </c>
       <c r="G22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -2533,7 +2533,7 @@
         <v>2</v>
       </c>
       <c r="J23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K23">
         <v>1.95</v>
@@ -2610,7 +2610,7 @@
         <v>45091.83333333334</v>
       </c>
       <c r="F24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G24" t="s">
         <v>52</v>
@@ -2711,7 +2711,7 @@
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K25">
         <v>1.3</v>
@@ -2791,7 +2791,7 @@
         <v>40</v>
       </c>
       <c r="G26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H26">
         <v>2</v>
@@ -2800,7 +2800,7 @@
         <v>2</v>
       </c>
       <c r="J26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K26">
         <v>2.15</v>
@@ -2865,7 +2865,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6126615</v>
+        <v>6126609</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2877,55 +2877,55 @@
         <v>45094.83333333334</v>
       </c>
       <c r="F27" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G27" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I27">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J27" t="s">
         <v>53</v>
       </c>
       <c r="K27">
-        <v>1.7</v>
+        <v>2.875</v>
       </c>
       <c r="L27">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M27">
-        <v>4.5</v>
+        <v>2.2</v>
       </c>
       <c r="N27">
-        <v>1.666</v>
+        <v>2.45</v>
       </c>
       <c r="O27">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P27">
-        <v>4.75</v>
+        <v>2.55</v>
       </c>
       <c r="Q27">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R27">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S27">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T27">
         <v>2.75</v>
       </c>
       <c r="U27">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V27">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W27">
         <v>-1</v>
@@ -2934,19 +2934,19 @@
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>3.75</v>
+        <v>1.55</v>
       </c>
       <c r="Z27">
         <v>-1</v>
       </c>
       <c r="AA27">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AB27">
-        <v>0.475</v>
+        <v>0.925</v>
       </c>
       <c r="AC27">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2954,7 +2954,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6126609</v>
+        <v>6126615</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2966,55 +2966,55 @@
         <v>45094.83333333334</v>
       </c>
       <c r="F28" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="G28" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I28">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J28" t="s">
         <v>53</v>
       </c>
       <c r="K28">
-        <v>2.875</v>
+        <v>1.7</v>
       </c>
       <c r="L28">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M28">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
       <c r="N28">
-        <v>2.45</v>
+        <v>1.666</v>
       </c>
       <c r="O28">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P28">
-        <v>2.55</v>
+        <v>4.75</v>
       </c>
       <c r="Q28">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R28">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S28">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T28">
         <v>2.75</v>
       </c>
       <c r="U28">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V28">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W28">
         <v>-1</v>
@@ -3023,19 +3023,19 @@
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>1.55</v>
+        <v>3.75</v>
       </c>
       <c r="Z28">
         <v>-1</v>
       </c>
       <c r="AA28">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AB28">
-        <v>0.925</v>
+        <v>0.475</v>
       </c>
       <c r="AC28">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3067,7 +3067,7 @@
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K29">
         <v>1.8</v>
@@ -3147,7 +3147,7 @@
         <v>49</v>
       </c>
       <c r="G30" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -3245,7 +3245,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K31">
         <v>1.65</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K32">
         <v>1.6</v>
@@ -3411,10 +3411,10 @@
         <v>45094.91666666666</v>
       </c>
       <c r="F33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H33">
         <v>2</v>
@@ -3423,7 +3423,7 @@
         <v>2</v>
       </c>
       <c r="J33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K33">
         <v>1.8</v>
@@ -3512,7 +3512,7 @@
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K34">
         <v>1.8</v>
@@ -3592,7 +3592,7 @@
         <v>50</v>
       </c>
       <c r="G35" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -3601,7 +3601,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K35">
         <v>2.1</v>
@@ -3681,7 +3681,7 @@
         <v>45</v>
       </c>
       <c r="G36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H36">
         <v>2</v>
@@ -3690,7 +3690,7 @@
         <v>2</v>
       </c>
       <c r="J36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K36">
         <v>2.9</v>
@@ -3770,7 +3770,7 @@
         <v>51</v>
       </c>
       <c r="G37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -3844,7 +3844,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6126616</v>
+        <v>6126619</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3856,58 +3856,58 @@
         <v>45098.875</v>
       </c>
       <c r="F38" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G38" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38">
         <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K38">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="L38">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M38">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="N38">
-        <v>1.7</v>
+        <v>2.15</v>
       </c>
       <c r="O38">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P38">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="Q38">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R38">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S38">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T38">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U38">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V38">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W38">
-        <v>0.7</v>
+        <v>1.15</v>
       </c>
       <c r="X38">
         <v>-1</v>
@@ -3916,7 +3916,7 @@
         <v>-1</v>
       </c>
       <c r="Z38">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA38">
         <v>-1</v>
@@ -3925,7 +3925,7 @@
         <v>-1</v>
       </c>
       <c r="AC38">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3933,7 +3933,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6126617</v>
+        <v>6126616</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3945,58 +3945,58 @@
         <v>45098.875</v>
       </c>
       <c r="F39" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="G39" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H39">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K39">
-        <v>1.615</v>
+        <v>1.8</v>
       </c>
       <c r="L39">
+        <v>3.5</v>
+      </c>
+      <c r="M39">
+        <v>3.6</v>
+      </c>
+      <c r="N39">
+        <v>1.7</v>
+      </c>
+      <c r="O39">
+        <v>3.8</v>
+      </c>
+      <c r="P39">
         <v>3.75</v>
       </c>
-      <c r="M39">
-        <v>4.333</v>
-      </c>
-      <c r="N39">
-        <v>1.5</v>
-      </c>
-      <c r="O39">
-        <v>4.2</v>
-      </c>
-      <c r="P39">
-        <v>4.75</v>
-      </c>
       <c r="Q39">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R39">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S39">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T39">
         <v>3</v>
       </c>
       <c r="U39">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V39">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="W39">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="X39">
         <v>-1</v>
@@ -4005,16 +4005,16 @@
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AA39">
         <v>-1</v>
       </c>
       <c r="AB39">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC39">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4022,7 +4022,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6126619</v>
+        <v>6126617</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4034,58 +4034,58 @@
         <v>45098.875</v>
       </c>
       <c r="F40" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G40" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I40">
         <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K40">
-        <v>2.1</v>
+        <v>1.615</v>
       </c>
       <c r="L40">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M40">
+        <v>4.333</v>
+      </c>
+      <c r="N40">
+        <v>1.5</v>
+      </c>
+      <c r="O40">
+        <v>4.2</v>
+      </c>
+      <c r="P40">
+        <v>4.75</v>
+      </c>
+      <c r="Q40">
+        <v>-1</v>
+      </c>
+      <c r="R40">
+        <v>1.825</v>
+      </c>
+      <c r="S40">
+        <v>1.975</v>
+      </c>
+      <c r="T40">
         <v>3</v>
       </c>
-      <c r="N40">
-        <v>2.15</v>
-      </c>
-      <c r="O40">
-        <v>3.4</v>
-      </c>
-      <c r="P40">
-        <v>2.875</v>
-      </c>
-      <c r="Q40">
-        <v>-0.25</v>
-      </c>
-      <c r="R40">
-        <v>1.975</v>
-      </c>
-      <c r="S40">
-        <v>1.825</v>
-      </c>
-      <c r="T40">
-        <v>2.75</v>
-      </c>
       <c r="U40">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V40">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="W40">
-        <v>1.15</v>
+        <v>0.5</v>
       </c>
       <c r="X40">
         <v>-1</v>
@@ -4094,16 +4094,16 @@
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA40">
         <v>-1</v>
       </c>
       <c r="AB40">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC40">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4123,7 +4123,7 @@
         <v>45098.91666666666</v>
       </c>
       <c r="F41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G41" t="s">
         <v>45</v>
@@ -4200,7 +4200,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6126622</v>
+        <v>6126628</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4212,46 +4212,46 @@
         <v>45101.83333333334</v>
       </c>
       <c r="F42" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G42" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H42">
         <v>2</v>
       </c>
       <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42" t="s">
+        <v>55</v>
+      </c>
+      <c r="K42">
+        <v>1.727</v>
+      </c>
+      <c r="L42">
+        <v>3.5</v>
+      </c>
+      <c r="M42">
         <v>4</v>
       </c>
-      <c r="J42" t="s">
-        <v>53</v>
-      </c>
-      <c r="K42">
-        <v>3.4</v>
-      </c>
-      <c r="L42">
-        <v>3.4</v>
-      </c>
-      <c r="M42">
+      <c r="N42">
         <v>1.909</v>
-      </c>
-      <c r="N42">
-        <v>3.75</v>
       </c>
       <c r="O42">
         <v>3.5</v>
       </c>
       <c r="P42">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q42">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R42">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S42">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T42">
         <v>2.75</v>
@@ -4260,28 +4260,28 @@
         <v>1.925</v>
       </c>
       <c r="V42">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W42">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X42">
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z42">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA42">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB42">
-        <v>0.925</v>
+        <v>0.4625</v>
       </c>
       <c r="AC42">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4289,7 +4289,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6126628</v>
+        <v>6126622</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4301,46 +4301,46 @@
         <v>45101.83333333334</v>
       </c>
       <c r="F43" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G43" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H43">
         <v>2</v>
       </c>
       <c r="I43">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K43">
-        <v>1.727</v>
+        <v>3.4</v>
       </c>
       <c r="L43">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M43">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="N43">
-        <v>1.909</v>
+        <v>3.75</v>
       </c>
       <c r="O43">
         <v>3.5</v>
       </c>
       <c r="P43">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="Q43">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R43">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S43">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T43">
         <v>2.75</v>
@@ -4349,28 +4349,28 @@
         <v>1.925</v>
       </c>
       <c r="V43">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="W43">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X43">
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z43">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA43">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB43">
-        <v>0.4625</v>
+        <v>0.925</v>
       </c>
       <c r="AC43">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4390,7 +4390,7 @@
         <v>45101.83333333334</v>
       </c>
       <c r="F44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G44" t="s">
         <v>41</v>
@@ -4482,7 +4482,7 @@
         <v>52</v>
       </c>
       <c r="G45" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -4568,7 +4568,7 @@
         <v>45101.875</v>
       </c>
       <c r="F46" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G46" t="s">
         <v>44</v>
@@ -4580,7 +4580,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K46">
         <v>1.615</v>
@@ -4669,7 +4669,7 @@
         <v>2</v>
       </c>
       <c r="J47" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K47">
         <v>1.727</v>
@@ -4746,7 +4746,7 @@
         <v>45101.91666666666</v>
       </c>
       <c r="F48" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G48" t="s">
         <v>30</v>
@@ -4758,7 +4758,7 @@
         <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K48">
         <v>2.1</v>
@@ -4823,7 +4823,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6126627</v>
+        <v>6126625</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4835,16 +4835,16 @@
         <v>45101.95833333334</v>
       </c>
       <c r="F49" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="G49" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H49">
         <v>1</v>
       </c>
       <c r="I49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" t="s">
         <v>55</v>
@@ -4853,58 +4853,58 @@
         <v>1.833</v>
       </c>
       <c r="L49">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M49">
         <v>3.6</v>
       </c>
       <c r="N49">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="O49">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P49">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="Q49">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R49">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S49">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T49">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U49">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V49">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W49">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X49">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y49">
         <v>-1</v>
       </c>
       <c r="Z49">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA49">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB49">
         <v>-1</v>
       </c>
       <c r="AC49">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4912,7 +4912,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6126625</v>
+        <v>6126627</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4924,16 +4924,16 @@
         <v>45101.95833333334</v>
       </c>
       <c r="F50" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="G50" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H50">
         <v>1</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" t="s">
         <v>54</v>
@@ -4942,58 +4942,58 @@
         <v>1.833</v>
       </c>
       <c r="L50">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M50">
         <v>3.6</v>
       </c>
       <c r="N50">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="O50">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P50">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="Q50">
+        <v>-0.25</v>
+      </c>
+      <c r="R50">
+        <v>1.925</v>
+      </c>
+      <c r="S50">
+        <v>1.875</v>
+      </c>
+      <c r="T50">
+        <v>2.5</v>
+      </c>
+      <c r="U50">
+        <v>1.875</v>
+      </c>
+      <c r="V50">
+        <v>1.925</v>
+      </c>
+      <c r="W50">
+        <v>-1</v>
+      </c>
+      <c r="X50">
+        <v>2.25</v>
+      </c>
+      <c r="Y50">
+        <v>-1</v>
+      </c>
+      <c r="Z50">
         <v>-0.5</v>
       </c>
-      <c r="R50">
-        <v>1.825</v>
-      </c>
-      <c r="S50">
-        <v>1.975</v>
-      </c>
-      <c r="T50">
-        <v>2.25</v>
-      </c>
-      <c r="U50">
-        <v>1.95</v>
-      </c>
-      <c r="V50">
-        <v>1.85</v>
-      </c>
-      <c r="W50">
-        <v>0.8</v>
-      </c>
-      <c r="X50">
-        <v>-1</v>
-      </c>
-      <c r="Y50">
-        <v>-1</v>
-      </c>
-      <c r="Z50">
-        <v>0.825</v>
-      </c>
       <c r="AA50">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB50">
         <v>-1</v>
       </c>
       <c r="AC50">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -5016,7 +5016,7 @@
         <v>51</v>
       </c>
       <c r="G51" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H51">
         <v>3</v>
@@ -5025,7 +5025,7 @@
         <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K51">
         <v>1.75</v>
@@ -5105,7 +5105,7 @@
         <v>50</v>
       </c>
       <c r="G52" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H52">
         <v>0</v>
@@ -5203,7 +5203,7 @@
         <v>0</v>
       </c>
       <c r="J53" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K53">
         <v>1.571</v>
@@ -5292,7 +5292,7 @@
         <v>2</v>
       </c>
       <c r="J54" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K54">
         <v>2.1</v>
@@ -5381,7 +5381,7 @@
         <v>2</v>
       </c>
       <c r="J55" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K55">
         <v>2.25</v>
@@ -5458,10 +5458,10 @@
         <v>45108.83333333334</v>
       </c>
       <c r="F56" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G56" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -5470,7 +5470,7 @@
         <v>0</v>
       </c>
       <c r="J56" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K56">
         <v>1.909</v>
@@ -5559,7 +5559,7 @@
         <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K57">
         <v>2.1</v>
@@ -5636,7 +5636,7 @@
         <v>45108.91666666666</v>
       </c>
       <c r="F58" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G58" t="s">
         <v>48</v>
@@ -5648,7 +5648,7 @@
         <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K58">
         <v>1.909</v>
@@ -5728,7 +5728,7 @@
         <v>46</v>
       </c>
       <c r="G59" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -5814,10 +5814,10 @@
         <v>45108.95833333334</v>
       </c>
       <c r="F60" t="s">
+        <v>38</v>
+      </c>
+      <c r="G60" t="s">
         <v>37</v>
-      </c>
-      <c r="G60" t="s">
-        <v>38</v>
       </c>
       <c r="H60">
         <v>3</v>
@@ -5826,7 +5826,7 @@
         <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K60">
         <v>2.15</v>
@@ -6004,7 +6004,7 @@
         <v>0</v>
       </c>
       <c r="J62" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K62">
         <v>2.15</v>
@@ -6084,7 +6084,7 @@
         <v>51</v>
       </c>
       <c r="G63" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -6093,7 +6093,7 @@
         <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K63">
         <v>1.571</v>
@@ -6173,7 +6173,7 @@
         <v>39</v>
       </c>
       <c r="G64" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H64">
         <v>2</v>
@@ -6182,7 +6182,7 @@
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K64">
         <v>2.1</v>
@@ -6247,7 +6247,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6126644</v>
+        <v>6126643</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6259,73 +6259,73 @@
         <v>45111.91666666666</v>
       </c>
       <c r="F65" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G65" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I65">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J65" t="s">
         <v>55</v>
       </c>
       <c r="K65">
-        <v>2.625</v>
+        <v>2</v>
       </c>
       <c r="L65">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M65">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="N65">
-        <v>2.3</v>
+        <v>1.727</v>
       </c>
       <c r="O65">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P65">
-        <v>2.55</v>
+        <v>3.8</v>
       </c>
       <c r="Q65">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R65">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S65">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T65">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U65">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V65">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W65">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X65">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y65">
         <v>-1</v>
       </c>
       <c r="Z65">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA65">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB65">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC65">
         <v>-1</v>
@@ -6336,7 +6336,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6126643</v>
+        <v>6126644</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6348,73 +6348,73 @@
         <v>45111.91666666666</v>
       </c>
       <c r="F66" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G66" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H66">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I66">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J66" t="s">
         <v>54</v>
       </c>
       <c r="K66">
-        <v>2</v>
+        <v>2.625</v>
       </c>
       <c r="L66">
+        <v>3.5</v>
+      </c>
+      <c r="M66">
+        <v>2.3</v>
+      </c>
+      <c r="N66">
+        <v>2.3</v>
+      </c>
+      <c r="O66">
         <v>3.6</v>
       </c>
-      <c r="M66">
-        <v>3.1</v>
-      </c>
-      <c r="N66">
-        <v>1.727</v>
-      </c>
-      <c r="O66">
-        <v>3.8</v>
-      </c>
       <c r="P66">
-        <v>3.8</v>
+        <v>2.55</v>
       </c>
       <c r="Q66">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R66">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S66">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T66">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U66">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V66">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W66">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X66">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y66">
         <v>-1</v>
       </c>
       <c r="Z66">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA66">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB66">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC66">
         <v>-1</v>
@@ -6440,7 +6440,7 @@
         <v>34</v>
       </c>
       <c r="G67" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -6514,7 +6514,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6126647</v>
+        <v>6126652</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6526,76 +6526,76 @@
         <v>45115.83333333334</v>
       </c>
       <c r="F68" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G68" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H68">
         <v>0</v>
       </c>
       <c r="I68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K68">
         <v>1.909</v>
       </c>
       <c r="L68">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M68">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="N68">
-        <v>1.666</v>
+        <v>1.95</v>
       </c>
       <c r="O68">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P68">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q68">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R68">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S68">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T68">
-        <v>2.75</v>
+        <v>1.75</v>
       </c>
       <c r="U68">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V68">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W68">
         <v>-1</v>
       </c>
       <c r="X68">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y68">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z68">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA68">
-        <v>0.8999999999999999</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB68">
         <v>-1</v>
       </c>
       <c r="AC68">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6603,7 +6603,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6126652</v>
+        <v>6126647</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6615,76 +6615,76 @@
         <v>45115.83333333334</v>
       </c>
       <c r="F69" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G69" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H69">
         <v>0</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K69">
         <v>1.909</v>
       </c>
       <c r="L69">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M69">
+        <v>3.5</v>
+      </c>
+      <c r="N69">
+        <v>1.666</v>
+      </c>
+      <c r="O69">
         <v>3.6</v>
       </c>
-      <c r="N69">
+      <c r="P69">
+        <v>4.5</v>
+      </c>
+      <c r="Q69">
+        <v>-0.75</v>
+      </c>
+      <c r="R69">
+        <v>1.9</v>
+      </c>
+      <c r="S69">
+        <v>1.9</v>
+      </c>
+      <c r="T69">
+        <v>2.75</v>
+      </c>
+      <c r="U69">
+        <v>1.85</v>
+      </c>
+      <c r="V69">
         <v>1.95</v>
       </c>
-      <c r="O69">
-        <v>3.25</v>
-      </c>
-      <c r="P69">
-        <v>3.75</v>
-      </c>
-      <c r="Q69">
-        <v>-0.25</v>
-      </c>
-      <c r="R69">
-        <v>1.75</v>
-      </c>
-      <c r="S69">
-        <v>2.05</v>
-      </c>
-      <c r="T69">
-        <v>1.75</v>
-      </c>
-      <c r="U69">
-        <v>1.8</v>
-      </c>
-      <c r="V69">
-        <v>2</v>
-      </c>
       <c r="W69">
         <v>-1</v>
       </c>
       <c r="X69">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y69">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z69">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA69">
-        <v>0.5249999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB69">
         <v>-1</v>
       </c>
       <c r="AC69">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6704,7 +6704,7 @@
         <v>45115.83333333334</v>
       </c>
       <c r="F70" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G70" t="s">
         <v>40</v>
@@ -6805,7 +6805,7 @@
         <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K71">
         <v>2.7</v>
@@ -6894,7 +6894,7 @@
         <v>0</v>
       </c>
       <c r="J72" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K72">
         <v>2</v>
@@ -6971,7 +6971,7 @@
         <v>45115.91666666666</v>
       </c>
       <c r="F73" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G73" t="s">
         <v>52</v>
@@ -6983,7 +6983,7 @@
         <v>0</v>
       </c>
       <c r="J73" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K73">
         <v>2</v>
@@ -7060,7 +7060,7 @@
         <v>45115.91666666666</v>
       </c>
       <c r="F74" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G74" t="s">
         <v>39</v>
@@ -7072,7 +7072,7 @@
         <v>0</v>
       </c>
       <c r="J74" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K74">
         <v>1.533</v>
@@ -7149,7 +7149,7 @@
         <v>45115.95833333334</v>
       </c>
       <c r="F75" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G75" t="s">
         <v>46</v>
@@ -7161,7 +7161,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K75">
         <v>2.5</v>
@@ -7250,7 +7250,7 @@
         <v>3</v>
       </c>
       <c r="J76" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K76">
         <v>2.6</v>
@@ -7327,10 +7327,10 @@
         <v>45116.875</v>
       </c>
       <c r="F77" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G77" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H77">
         <v>2</v>
@@ -7339,7 +7339,7 @@
         <v>0</v>
       </c>
       <c r="J77" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K77">
         <v>2.1</v>
@@ -7428,7 +7428,7 @@
         <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K78">
         <v>2.2</v>
@@ -7517,7 +7517,7 @@
         <v>1</v>
       </c>
       <c r="J79" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K79">
         <v>1.75</v>
@@ -7594,10 +7594,10 @@
         <v>45119.875</v>
       </c>
       <c r="F80" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G80" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H80">
         <v>0</v>
@@ -7695,7 +7695,7 @@
         <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K81">
         <v>1.95</v>
@@ -7775,7 +7775,7 @@
         <v>46</v>
       </c>
       <c r="G82" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H82">
         <v>1</v>
@@ -7873,7 +7873,7 @@
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K83">
         <v>2.15</v>
@@ -8027,7 +8027,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6126667</v>
+        <v>6126669</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8039,76 +8039,76 @@
         <v>45122.83333333334</v>
       </c>
       <c r="F85" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G85" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="s">
         <v>54</v>
       </c>
       <c r="K85">
-        <v>1.571</v>
+        <v>2.1</v>
       </c>
       <c r="L85">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M85">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N85">
-        <v>1.5</v>
+        <v>2.55</v>
       </c>
       <c r="O85">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P85">
-        <v>6</v>
+        <v>2.375</v>
       </c>
       <c r="Q85">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R85">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="S85">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T85">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U85">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V85">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W85">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X85">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y85">
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>0.8999999999999999</v>
+        <v>0.3625</v>
       </c>
       <c r="AA85">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB85">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC85">
-        <v>0.475</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8116,7 +8116,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6126669</v>
+        <v>6126667</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8128,76 +8128,76 @@
         <v>45122.83333333334</v>
       </c>
       <c r="F86" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="G86" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" t="s">
         <v>55</v>
       </c>
       <c r="K86">
-        <v>2.1</v>
+        <v>1.571</v>
       </c>
       <c r="L86">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M86">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N86">
-        <v>2.55</v>
+        <v>1.5</v>
       </c>
       <c r="O86">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P86">
-        <v>2.375</v>
+        <v>6</v>
       </c>
       <c r="Q86">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R86">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="S86">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T86">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U86">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V86">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W86">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X86">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y86">
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>0.3625</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA86">
+        <v>-1</v>
+      </c>
+      <c r="AB86">
         <v>-0.5</v>
       </c>
-      <c r="AB86">
-        <v>-1</v>
-      </c>
       <c r="AC86">
-        <v>0.825</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8205,7 +8205,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6126665</v>
+        <v>6126662</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8217,76 +8217,76 @@
         <v>45122.85416666666</v>
       </c>
       <c r="F87" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="G87" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H87">
         <v>1</v>
       </c>
       <c r="I87">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J87" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K87">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="L87">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M87">
-        <v>2.5</v>
+        <v>2.625</v>
       </c>
       <c r="N87">
+        <v>2.55</v>
+      </c>
+      <c r="O87">
+        <v>3.2</v>
+      </c>
+      <c r="P87">
         <v>2.45</v>
-      </c>
-      <c r="O87">
-        <v>3.5</v>
-      </c>
-      <c r="P87">
-        <v>2.4</v>
       </c>
       <c r="Q87">
         <v>0</v>
       </c>
       <c r="R87">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S87">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T87">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U87">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V87">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W87">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X87">
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z87">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA87">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB87">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC87">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8294,7 +8294,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6126662</v>
+        <v>6126665</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8306,76 +8306,76 @@
         <v>45122.85416666666</v>
       </c>
       <c r="F88" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G88" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H88">
         <v>1</v>
       </c>
       <c r="I88">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J88" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K88">
+        <v>2.375</v>
+      </c>
+      <c r="L88">
+        <v>3.4</v>
+      </c>
+      <c r="M88">
+        <v>2.5</v>
+      </c>
+      <c r="N88">
+        <v>2.45</v>
+      </c>
+      <c r="O88">
+        <v>3.5</v>
+      </c>
+      <c r="P88">
         <v>2.4</v>
-      </c>
-      <c r="L88">
-        <v>3.2</v>
-      </c>
-      <c r="M88">
-        <v>2.625</v>
-      </c>
-      <c r="N88">
-        <v>2.55</v>
-      </c>
-      <c r="O88">
-        <v>3.2</v>
-      </c>
-      <c r="P88">
-        <v>2.45</v>
       </c>
       <c r="Q88">
         <v>0</v>
       </c>
       <c r="R88">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S88">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T88">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U88">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V88">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W88">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X88">
         <v>-1</v>
       </c>
       <c r="Y88">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z88">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA88">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB88">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC88">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8398,7 +8398,7 @@
         <v>49</v>
       </c>
       <c r="G89" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H89">
         <v>3</v>
@@ -8407,7 +8407,7 @@
         <v>2</v>
       </c>
       <c r="J89" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K89">
         <v>1.833</v>
@@ -8487,7 +8487,7 @@
         <v>46</v>
       </c>
       <c r="G90" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H90">
         <v>1</v>
@@ -8496,7 +8496,7 @@
         <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K90">
         <v>1.615</v>
@@ -8573,7 +8573,7 @@
         <v>45122.95833333334</v>
       </c>
       <c r="F91" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G91" t="s">
         <v>50</v>
@@ -8674,7 +8674,7 @@
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K92">
         <v>1.95</v>
@@ -8754,7 +8754,7 @@
         <v>52</v>
       </c>
       <c r="G93" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H93">
         <v>2</v>
@@ -8763,7 +8763,7 @@
         <v>0</v>
       </c>
       <c r="J93" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K93">
         <v>2.8</v>
@@ -8843,7 +8843,7 @@
         <v>49</v>
       </c>
       <c r="G94" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H94">
         <v>2</v>
@@ -8852,7 +8852,7 @@
         <v>1</v>
       </c>
       <c r="J94" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K94">
         <v>2.375</v>
@@ -8941,7 +8941,7 @@
         <v>0</v>
       </c>
       <c r="J95" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K95">
         <v>2.75</v>
@@ -9021,7 +9021,7 @@
         <v>29</v>
       </c>
       <c r="G96" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H96">
         <v>3</v>
@@ -9030,7 +9030,7 @@
         <v>1</v>
       </c>
       <c r="J96" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K96">
         <v>2.5</v>
@@ -9110,7 +9110,7 @@
         <v>52</v>
       </c>
       <c r="G97" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H97">
         <v>1</v>
@@ -9119,7 +9119,7 @@
         <v>0</v>
       </c>
       <c r="J97" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K97">
         <v>2.3</v>
@@ -9196,7 +9196,7 @@
         <v>45129.875</v>
       </c>
       <c r="F98" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G98" t="s">
         <v>48</v>
@@ -9288,7 +9288,7 @@
         <v>34</v>
       </c>
       <c r="G99" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H99">
         <v>3</v>
@@ -9374,7 +9374,7 @@
         <v>45129.91666666666</v>
       </c>
       <c r="F100" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G100" t="s">
         <v>51</v>
@@ -9386,7 +9386,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K100">
         <v>2.75</v>
@@ -9463,7 +9463,7 @@
         <v>45129.91666666666</v>
       </c>
       <c r="F101" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G101" t="s">
         <v>47</v>
@@ -9653,7 +9653,7 @@
         <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K103">
         <v>1.909</v>
@@ -9733,7 +9733,7 @@
         <v>44</v>
       </c>
       <c r="G104" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H104">
         <v>0</v>
@@ -9819,7 +9819,7 @@
         <v>45133.83333333334</v>
       </c>
       <c r="F105" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G105" t="s">
         <v>41</v>
@@ -9920,7 +9920,7 @@
         <v>0</v>
       </c>
       <c r="J106" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K106">
         <v>1.666</v>
@@ -10009,7 +10009,7 @@
         <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K107">
         <v>1.727</v>
@@ -10086,7 +10086,7 @@
         <v>45136.83333333334</v>
       </c>
       <c r="F108" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G108" t="s">
         <v>34</v>
@@ -10098,7 +10098,7 @@
         <v>2</v>
       </c>
       <c r="J108" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K108">
         <v>1.833</v>
@@ -10187,7 +10187,7 @@
         <v>0</v>
       </c>
       <c r="J109" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K109">
         <v>1.533</v>
@@ -10252,7 +10252,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6126687</v>
+        <v>6126685</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10264,10 +10264,10 @@
         <v>45136.85416666666</v>
       </c>
       <c r="F110" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="G110" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="H110">
         <v>1</v>
@@ -10279,40 +10279,40 @@
         <v>53</v>
       </c>
       <c r="K110">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L110">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M110">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="N110">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="O110">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P110">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="Q110">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R110">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="S110">
-        <v>2.075</v>
+        <v>1.95</v>
       </c>
       <c r="T110">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U110">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V110">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W110">
         <v>-1</v>
@@ -10321,19 +10321,19 @@
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="Z110">
         <v>-1</v>
       </c>
       <c r="AA110">
-        <v>1.075</v>
+        <v>0.95</v>
       </c>
       <c r="AB110">
-        <v>0.8500000000000001</v>
+        <v>0.4625</v>
       </c>
       <c r="AC110">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10341,7 +10341,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6126685</v>
+        <v>6126687</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10353,10 +10353,10 @@
         <v>45136.85416666666</v>
       </c>
       <c r="F111" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G111" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="H111">
         <v>1</v>
@@ -10368,41 +10368,41 @@
         <v>53</v>
       </c>
       <c r="K111">
+        <v>2.1</v>
+      </c>
+      <c r="L111">
+        <v>3.3</v>
+      </c>
+      <c r="M111">
+        <v>3</v>
+      </c>
+      <c r="N111">
         <v>2.25</v>
       </c>
-      <c r="L111">
-        <v>3.4</v>
-      </c>
-      <c r="M111">
-        <v>2.625</v>
-      </c>
-      <c r="N111">
-        <v>2.05</v>
-      </c>
       <c r="O111">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P111">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="Q111">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R111">
+        <v>1.725</v>
+      </c>
+      <c r="S111">
+        <v>2.075</v>
+      </c>
+      <c r="T111">
+        <v>2.5</v>
+      </c>
+      <c r="U111">
         <v>1.85</v>
       </c>
-      <c r="S111">
+      <c r="V111">
         <v>1.95</v>
       </c>
-      <c r="T111">
-        <v>2.75</v>
-      </c>
-      <c r="U111">
-        <v>1.925</v>
-      </c>
-      <c r="V111">
-        <v>1.875</v>
-      </c>
       <c r="W111">
         <v>-1</v>
       </c>
@@ -10410,19 +10410,19 @@
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="Z111">
         <v>-1</v>
       </c>
       <c r="AA111">
-        <v>0.95</v>
+        <v>1.075</v>
       </c>
       <c r="AB111">
-        <v>0.4625</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC111">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10430,7 +10430,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6126693</v>
+        <v>6126688</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10445,55 +10445,55 @@
         <v>43</v>
       </c>
       <c r="G112" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H112">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I112">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J112" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K112">
-        <v>2.375</v>
+        <v>1.95</v>
       </c>
       <c r="L112">
         <v>3.25</v>
       </c>
       <c r="M112">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="N112">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="O112">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P112">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="Q112">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R112">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S112">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T112">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U112">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V112">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W112">
-        <v>1.05</v>
+        <v>0.75</v>
       </c>
       <c r="X112">
         <v>-1</v>
@@ -10502,16 +10502,16 @@
         <v>-1</v>
       </c>
       <c r="Z112">
-        <v>0.825</v>
+        <v>0.75</v>
       </c>
       <c r="AA112">
         <v>-1</v>
       </c>
       <c r="AB112">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC112">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10519,7 +10519,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6126688</v>
+        <v>6126693</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10534,55 +10534,55 @@
         <v>42</v>
       </c>
       <c r="G113" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I113">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J113" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K113">
-        <v>1.95</v>
+        <v>2.375</v>
       </c>
       <c r="L113">
         <v>3.25</v>
       </c>
       <c r="M113">
+        <v>2.6</v>
+      </c>
+      <c r="N113">
+        <v>2.05</v>
+      </c>
+      <c r="O113">
         <v>3.4</v>
       </c>
-      <c r="N113">
-        <v>1.75</v>
-      </c>
-      <c r="O113">
-        <v>3.3</v>
-      </c>
       <c r="P113">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q113">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R113">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S113">
+        <v>1.975</v>
+      </c>
+      <c r="T113">
+        <v>2.5</v>
+      </c>
+      <c r="U113">
+        <v>1.85</v>
+      </c>
+      <c r="V113">
         <v>1.95</v>
       </c>
-      <c r="T113">
-        <v>2.25</v>
-      </c>
-      <c r="U113">
-        <v>1.8</v>
-      </c>
-      <c r="V113">
-        <v>2</v>
-      </c>
       <c r="W113">
-        <v>0.75</v>
+        <v>1.05</v>
       </c>
       <c r="X113">
         <v>-1</v>
@@ -10591,16 +10591,16 @@
         <v>-1</v>
       </c>
       <c r="Z113">
-        <v>0.75</v>
+        <v>0.825</v>
       </c>
       <c r="AA113">
         <v>-1</v>
       </c>
       <c r="AB113">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC113">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10620,10 +10620,10 @@
         <v>45136.91666666666</v>
       </c>
       <c r="F114" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G114" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H114">
         <v>5</v>
@@ -10632,7 +10632,7 @@
         <v>2</v>
       </c>
       <c r="J114" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K114">
         <v>1.444</v>
@@ -10709,10 +10709,10 @@
         <v>45136.95833333334</v>
       </c>
       <c r="F115" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G115" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H115">
         <v>1</v>
@@ -10721,7 +10721,7 @@
         <v>0</v>
       </c>
       <c r="J115" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K115">
         <v>2.1</v>
@@ -10810,7 +10810,7 @@
         <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K116">
         <v>1.6</v>
@@ -10887,7 +10887,7 @@
         <v>45136.95833333334</v>
       </c>
       <c r="F117" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G117" t="s">
         <v>45</v>
@@ -11077,7 +11077,7 @@
         <v>0</v>
       </c>
       <c r="J119" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K119">
         <v>1.8</v>
@@ -11166,7 +11166,7 @@
         <v>0</v>
       </c>
       <c r="J120" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K120">
         <v>2.875</v>
@@ -11320,7 +11320,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6126699</v>
+        <v>6126700</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11332,76 +11332,76 @@
         <v>45142.91666666666</v>
       </c>
       <c r="F122" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="G122" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J122" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K122">
+        <v>2.4</v>
+      </c>
+      <c r="L122">
+        <v>3.3</v>
+      </c>
+      <c r="M122">
+        <v>2.55</v>
+      </c>
+      <c r="N122">
+        <v>3.1</v>
+      </c>
+      <c r="O122">
+        <v>3.4</v>
+      </c>
+      <c r="P122">
         <v>2.05</v>
       </c>
-      <c r="L122">
-        <v>3.4</v>
-      </c>
-      <c r="M122">
-        <v>3</v>
-      </c>
-      <c r="N122">
-        <v>2</v>
-      </c>
-      <c r="O122">
-        <v>3.8</v>
-      </c>
-      <c r="P122">
-        <v>2.875</v>
-      </c>
       <c r="Q122">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R122">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S122">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T122">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U122">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V122">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W122">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X122">
         <v>-1</v>
       </c>
       <c r="Y122">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z122">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA122">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB122">
-        <v>0.4</v>
+        <v>0.875</v>
       </c>
       <c r="AC122">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11409,7 +11409,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6126700</v>
+        <v>6126699</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11421,76 +11421,76 @@
         <v>45142.91666666666</v>
       </c>
       <c r="F123" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="G123" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123">
+        <v>1</v>
+      </c>
+      <c r="J123" t="s">
+        <v>55</v>
+      </c>
+      <c r="K123">
+        <v>2.05</v>
+      </c>
+      <c r="L123">
+        <v>3.4</v>
+      </c>
+      <c r="M123">
         <v>3</v>
       </c>
-      <c r="J123" t="s">
-        <v>53</v>
-      </c>
-      <c r="K123">
-        <v>2.4</v>
-      </c>
-      <c r="L123">
-        <v>3.3</v>
-      </c>
-      <c r="M123">
-        <v>2.55</v>
-      </c>
       <c r="N123">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="O123">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P123">
-        <v>2.05</v>
+        <v>2.875</v>
       </c>
       <c r="Q123">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R123">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S123">
+        <v>1.95</v>
+      </c>
+      <c r="T123">
+        <v>2.75</v>
+      </c>
+      <c r="U123">
         <v>1.8</v>
       </c>
-      <c r="T123">
-        <v>2.5</v>
-      </c>
-      <c r="U123">
-        <v>1.875</v>
-      </c>
       <c r="V123">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W123">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X123">
         <v>-1</v>
       </c>
       <c r="Y123">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z123">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA123">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB123">
-        <v>0.875</v>
+        <v>0.4</v>
       </c>
       <c r="AC123">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11498,7 +11498,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6126701</v>
+        <v>6126706</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11513,55 +11513,55 @@
         <v>32</v>
       </c>
       <c r="G124" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J124" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K124">
+        <v>2.15</v>
+      </c>
+      <c r="L124">
+        <v>3.3</v>
+      </c>
+      <c r="M124">
         <v>2.9</v>
       </c>
-      <c r="L124">
-        <v>3.4</v>
-      </c>
-      <c r="M124">
-        <v>2.1</v>
-      </c>
       <c r="N124">
-        <v>2.7</v>
+        <v>1.95</v>
       </c>
       <c r="O124">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P124">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="Q124">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R124">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S124">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T124">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U124">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V124">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="W124">
-        <v>1.7</v>
+        <v>0.95</v>
       </c>
       <c r="X124">
         <v>-1</v>
@@ -11570,16 +11570,16 @@
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>0.875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA124">
         <v>-1</v>
       </c>
       <c r="AB124">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC124">
-        <v>0.4625</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11587,7 +11587,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6126702</v>
+        <v>6126708</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11599,73 +11599,73 @@
         <v>45143.83333333334</v>
       </c>
       <c r="F125" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G125" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I125">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J125" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K125">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="L125">
         <v>3.25</v>
       </c>
       <c r="M125">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="N125">
         <v>2.2</v>
       </c>
       <c r="O125">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P125">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q125">
         <v>-0.25</v>
       </c>
       <c r="R125">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S125">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T125">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U125">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V125">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W125">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X125">
         <v>-1</v>
       </c>
       <c r="Y125">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z125">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA125">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB125">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AC125">
         <v>-1</v>
@@ -11676,7 +11676,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6126706</v>
+        <v>6126702</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11688,76 +11688,76 @@
         <v>45143.83333333334</v>
       </c>
       <c r="F126" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G126" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H126">
         <v>1</v>
       </c>
       <c r="I126">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J126" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K126">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="L126">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M126">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="N126">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="O126">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P126">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q126">
         <v>-0.25</v>
       </c>
       <c r="R126">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S126">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T126">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U126">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V126">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="W126">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X126">
         <v>-1</v>
       </c>
       <c r="Y126">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z126">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA126">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB126">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC126">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11765,7 +11765,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6126708</v>
+        <v>6126701</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11777,58 +11777,58 @@
         <v>45143.83333333334</v>
       </c>
       <c r="F127" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G127" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="H127">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J127" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K127">
-        <v>2.55</v>
+        <v>2.9</v>
       </c>
       <c r="L127">
+        <v>3.4</v>
+      </c>
+      <c r="M127">
+        <v>2.1</v>
+      </c>
+      <c r="N127">
+        <v>2.7</v>
+      </c>
+      <c r="O127">
+        <v>3.8</v>
+      </c>
+      <c r="P127">
+        <v>2.1</v>
+      </c>
+      <c r="Q127">
+        <v>0.25</v>
+      </c>
+      <c r="R127">
+        <v>1.875</v>
+      </c>
+      <c r="S127">
+        <v>1.925</v>
+      </c>
+      <c r="T127">
         <v>3.25</v>
       </c>
-      <c r="M127">
-        <v>2.4</v>
-      </c>
-      <c r="N127">
-        <v>2.2</v>
-      </c>
-      <c r="O127">
-        <v>3.4</v>
-      </c>
-      <c r="P127">
-        <v>2.75</v>
-      </c>
-      <c r="Q127">
-        <v>-0.25</v>
-      </c>
-      <c r="R127">
-        <v>2</v>
-      </c>
-      <c r="S127">
-        <v>1.8</v>
-      </c>
-      <c r="T127">
-        <v>2.75</v>
-      </c>
       <c r="U127">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V127">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W127">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="X127">
         <v>-1</v>
@@ -11837,16 +11837,16 @@
         <v>-1</v>
       </c>
       <c r="Z127">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AA127">
         <v>-1</v>
       </c>
       <c r="AB127">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC127">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11866,7 +11866,7 @@
         <v>45143.95833333334</v>
       </c>
       <c r="F128" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G128" t="s">
         <v>51</v>
@@ -11958,7 +11958,7 @@
         <v>40</v>
       </c>
       <c r="G129" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H129">
         <v>1</v>
@@ -12047,7 +12047,7 @@
         <v>44</v>
       </c>
       <c r="G130" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H130">
         <v>2</v>
@@ -12056,7 +12056,7 @@
         <v>1</v>
       </c>
       <c r="J130" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K130">
         <v>2.8</v>
@@ -12136,7 +12136,7 @@
         <v>45</v>
       </c>
       <c r="G131" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H131">
         <v>1</v>
@@ -12222,7 +12222,7 @@
         <v>45147.875</v>
       </c>
       <c r="F132" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G132" t="s">
         <v>29</v>
@@ -12234,7 +12234,7 @@
         <v>1</v>
       </c>
       <c r="J132" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K132">
         <v>1.909</v>
@@ -12299,7 +12299,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6126709</v>
+        <v>6126712</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12311,49 +12311,49 @@
         <v>45147.91666666666</v>
       </c>
       <c r="F133" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G133" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H133">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J133" t="s">
         <v>54</v>
       </c>
       <c r="K133">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="L133">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M133">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="N133">
-        <v>2.6</v>
+        <v>1.615</v>
       </c>
       <c r="O133">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="P133">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q133">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R133">
+        <v>1.75</v>
+      </c>
+      <c r="S133">
         <v>1.95</v>
       </c>
-      <c r="S133">
-        <v>1.85</v>
-      </c>
       <c r="T133">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U133">
         <v>1.95</v>
@@ -12362,25 +12362,25 @@
         <v>1.85</v>
       </c>
       <c r="W133">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X133">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y133">
         <v>-1</v>
       </c>
       <c r="Z133">
+        <v>-1</v>
+      </c>
+      <c r="AA133">
         <v>0.95</v>
       </c>
-      <c r="AA133">
-        <v>-1</v>
-      </c>
       <c r="AB133">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC133">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12388,7 +12388,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6126712</v>
+        <v>6126709</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12400,49 +12400,49 @@
         <v>45147.91666666666</v>
       </c>
       <c r="F134" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G134" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J134" t="s">
         <v>55</v>
       </c>
       <c r="K134">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="L134">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M134">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="N134">
-        <v>1.615</v>
+        <v>2.6</v>
       </c>
       <c r="O134">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="P134">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q134">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R134">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S134">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T134">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U134">
         <v>1.95</v>
@@ -12451,25 +12451,25 @@
         <v>1.85</v>
       </c>
       <c r="W134">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X134">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y134">
         <v>-1</v>
       </c>
       <c r="Z134">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA134">
+        <v>-1</v>
+      </c>
+      <c r="AB134">
         <v>0.95</v>
       </c>
-      <c r="AB134">
-        <v>-1</v>
-      </c>
       <c r="AC134">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12501,7 +12501,7 @@
         <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K135">
         <v>1.4</v>
@@ -12655,7 +12655,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6126713</v>
+        <v>6126714</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12667,76 +12667,76 @@
         <v>45150.85416666666</v>
       </c>
       <c r="F137" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G137" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137">
         <v>1</v>
       </c>
       <c r="J137" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K137">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="L137">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M137">
         <v>2.5</v>
       </c>
       <c r="N137">
+        <v>2.45</v>
+      </c>
+      <c r="O137">
+        <v>3.2</v>
+      </c>
+      <c r="P137">
         <v>2.5</v>
-      </c>
-      <c r="O137">
-        <v>3.3</v>
-      </c>
-      <c r="P137">
-        <v>2.4</v>
       </c>
       <c r="Q137">
         <v>0</v>
       </c>
       <c r="R137">
+        <v>1.875</v>
+      </c>
+      <c r="S137">
+        <v>1.925</v>
+      </c>
+      <c r="T137">
+        <v>2.25</v>
+      </c>
+      <c r="U137">
         <v>1.95</v>
       </c>
-      <c r="S137">
+      <c r="V137">
         <v>1.85</v>
       </c>
-      <c r="T137">
-        <v>2.5</v>
-      </c>
-      <c r="U137">
-        <v>1.875</v>
-      </c>
-      <c r="V137">
-        <v>1.925</v>
-      </c>
       <c r="W137">
         <v>-1</v>
       </c>
       <c r="X137">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y137">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z137">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA137">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
       <c r="AB137">
         <v>-1</v>
       </c>
       <c r="AC137">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12744,7 +12744,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6126721</v>
+        <v>6126713</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12756,13 +12756,13 @@
         <v>45150.85416666666</v>
       </c>
       <c r="F138" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="G138" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="H138">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I138">
         <v>1</v>
@@ -12771,31 +12771,31 @@
         <v>54</v>
       </c>
       <c r="K138">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="L138">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="M138">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="N138">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="O138">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P138">
-        <v>5.25</v>
+        <v>2.4</v>
       </c>
       <c r="Q138">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R138">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S138">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T138">
         <v>2.5</v>
@@ -12807,25 +12807,25 @@
         <v>1.925</v>
       </c>
       <c r="W138">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X138">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y138">
         <v>-1</v>
       </c>
       <c r="Z138">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA138">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB138">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC138">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12833,7 +12833,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6126714</v>
+        <v>6126721</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12845,76 +12845,76 @@
         <v>45150.85416666666</v>
       </c>
       <c r="F139" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="G139" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I139">
         <v>1</v>
       </c>
       <c r="J139" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K139">
-        <v>2.45</v>
+        <v>1.4</v>
       </c>
       <c r="L139">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="M139">
+        <v>6</v>
+      </c>
+      <c r="N139">
+        <v>1.5</v>
+      </c>
+      <c r="O139">
+        <v>4</v>
+      </c>
+      <c r="P139">
+        <v>5.25</v>
+      </c>
+      <c r="Q139">
+        <v>-1</v>
+      </c>
+      <c r="R139">
+        <v>1.825</v>
+      </c>
+      <c r="S139">
+        <v>1.975</v>
+      </c>
+      <c r="T139">
         <v>2.5</v>
       </c>
-      <c r="N139">
-        <v>2.45</v>
-      </c>
-      <c r="O139">
-        <v>3.2</v>
-      </c>
-      <c r="P139">
-        <v>2.5</v>
-      </c>
-      <c r="Q139">
-        <v>0</v>
-      </c>
-      <c r="R139">
+      <c r="U139">
         <v>1.875</v>
       </c>
-      <c r="S139">
+      <c r="V139">
         <v>1.925</v>
       </c>
-      <c r="T139">
-        <v>2.25</v>
-      </c>
-      <c r="U139">
-        <v>1.95</v>
-      </c>
-      <c r="V139">
-        <v>1.85</v>
-      </c>
       <c r="W139">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X139">
         <v>-1</v>
       </c>
       <c r="Y139">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z139">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA139">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB139">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC139">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12934,11 +12934,11 @@
         <v>45150.875</v>
       </c>
       <c r="F140" t="s">
+        <v>43</v>
+      </c>
+      <c r="G140" t="s">
         <v>42</v>
       </c>
-      <c r="G140" t="s">
-        <v>43</v>
-      </c>
       <c r="H140">
         <v>2</v>
       </c>
@@ -12946,7 +12946,7 @@
         <v>2</v>
       </c>
       <c r="J140" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K140">
         <v>1.8</v>
@@ -13023,10 +13023,10 @@
         <v>45150.91666666666</v>
       </c>
       <c r="F141" t="s">
+        <v>35</v>
+      </c>
+      <c r="G141" t="s">
         <v>36</v>
-      </c>
-      <c r="G141" t="s">
-        <v>35</v>
       </c>
       <c r="H141">
         <v>0</v>
@@ -13201,10 +13201,10 @@
         <v>45150.9625</v>
       </c>
       <c r="F143" t="s">
+        <v>32</v>
+      </c>
+      <c r="G143" t="s">
         <v>31</v>
-      </c>
-      <c r="G143" t="s">
-        <v>32</v>
       </c>
       <c r="H143">
         <v>2</v>
@@ -13213,7 +13213,7 @@
         <v>0</v>
       </c>
       <c r="J143" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K143">
         <v>1.3</v>
@@ -13391,7 +13391,7 @@
         <v>0</v>
       </c>
       <c r="J145" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K145">
         <v>2.1</v>
@@ -13468,10 +13468,10 @@
         <v>45154.91666666666</v>
       </c>
       <c r="F146" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G146" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H146">
         <v>2</v>
@@ -13480,7 +13480,7 @@
         <v>1</v>
       </c>
       <c r="J146" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K146">
         <v>1.571</v>
@@ -13557,10 +13557,10 @@
         <v>45154.95833333334</v>
       </c>
       <c r="F147" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G147" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H147">
         <v>1</v>
@@ -13569,7 +13569,7 @@
         <v>0</v>
       </c>
       <c r="J147" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K147">
         <v>2.55</v>
@@ -13738,7 +13738,7 @@
         <v>48</v>
       </c>
       <c r="G149" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H149">
         <v>2</v>
@@ -13747,7 +13747,7 @@
         <v>0</v>
       </c>
       <c r="J149" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K149">
         <v>2.15</v>
@@ -13824,7 +13824,7 @@
         <v>45157.83333333334</v>
       </c>
       <c r="F150" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G150" t="s">
         <v>47</v>
@@ -13925,7 +13925,7 @@
         <v>0</v>
       </c>
       <c r="J151" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K151">
         <v>1.833</v>
@@ -14091,7 +14091,7 @@
         <v>45157.875</v>
       </c>
       <c r="F153" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G153" t="s">
         <v>45</v>
@@ -14103,7 +14103,7 @@
         <v>0</v>
       </c>
       <c r="J153" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K153">
         <v>2.2</v>
@@ -14180,10 +14180,10 @@
         <v>45157.91666666666</v>
       </c>
       <c r="F154" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G154" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H154">
         <v>0</v>
@@ -14192,7 +14192,7 @@
         <v>0</v>
       </c>
       <c r="J154" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K154">
         <v>1.4</v>
@@ -14257,7 +14257,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6126728</v>
+        <v>6126735</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14269,73 +14269,73 @@
         <v>45157.9375</v>
       </c>
       <c r="F155" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G155" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H155">
         <v>2</v>
       </c>
       <c r="I155">
+        <v>2</v>
+      </c>
+      <c r="J155" t="s">
+        <v>54</v>
+      </c>
+      <c r="K155">
+        <v>1.65</v>
+      </c>
+      <c r="L155">
+        <v>3.6</v>
+      </c>
+      <c r="M155">
+        <v>4.333</v>
+      </c>
+      <c r="N155">
+        <v>1.75</v>
+      </c>
+      <c r="O155">
+        <v>3.6</v>
+      </c>
+      <c r="P155">
+        <v>3.8</v>
+      </c>
+      <c r="Q155">
+        <v>-0.5</v>
+      </c>
+      <c r="R155">
+        <v>1.775</v>
+      </c>
+      <c r="S155">
+        <v>1.925</v>
+      </c>
+      <c r="T155">
         <v>3</v>
       </c>
-      <c r="J155" t="s">
-        <v>53</v>
-      </c>
-      <c r="K155">
-        <v>2.2</v>
-      </c>
-      <c r="L155">
-        <v>3.4</v>
-      </c>
-      <c r="M155">
-        <v>2.75</v>
-      </c>
-      <c r="N155">
-        <v>2.2</v>
-      </c>
-      <c r="O155">
-        <v>3.3</v>
-      </c>
-      <c r="P155">
-        <v>2.75</v>
-      </c>
-      <c r="Q155">
-        <v>-0.25</v>
-      </c>
-      <c r="R155">
-        <v>2</v>
-      </c>
-      <c r="S155">
-        <v>1.8</v>
-      </c>
-      <c r="T155">
-        <v>2.5</v>
-      </c>
       <c r="U155">
+        <v>1.95</v>
+      </c>
+      <c r="V155">
         <v>1.85</v>
       </c>
-      <c r="V155">
-        <v>1.95</v>
-      </c>
       <c r="W155">
         <v>-1</v>
       </c>
       <c r="X155">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y155">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z155">
         <v>-1</v>
       </c>
       <c r="AA155">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB155">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC155">
         <v>-1</v>
@@ -14346,7 +14346,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6126735</v>
+        <v>6126728</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14358,73 +14358,73 @@
         <v>45157.9375</v>
       </c>
       <c r="F156" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G156" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H156">
         <v>2</v>
       </c>
       <c r="I156">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J156" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K156">
-        <v>1.65</v>
+        <v>2.2</v>
       </c>
       <c r="L156">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M156">
-        <v>4.333</v>
+        <v>2.75</v>
       </c>
       <c r="N156">
+        <v>2.2</v>
+      </c>
+      <c r="O156">
+        <v>3.3</v>
+      </c>
+      <c r="P156">
+        <v>2.75</v>
+      </c>
+      <c r="Q156">
+        <v>-0.25</v>
+      </c>
+      <c r="R156">
+        <v>2</v>
+      </c>
+      <c r="S156">
+        <v>1.8</v>
+      </c>
+      <c r="T156">
+        <v>2.5</v>
+      </c>
+      <c r="U156">
+        <v>1.85</v>
+      </c>
+      <c r="V156">
+        <v>1.95</v>
+      </c>
+      <c r="W156">
+        <v>-1</v>
+      </c>
+      <c r="X156">
+        <v>-1</v>
+      </c>
+      <c r="Y156">
         <v>1.75</v>
       </c>
-      <c r="O156">
-        <v>3.6</v>
-      </c>
-      <c r="P156">
-        <v>3.8</v>
-      </c>
-      <c r="Q156">
-        <v>-0.5</v>
-      </c>
-      <c r="R156">
-        <v>1.775</v>
-      </c>
-      <c r="S156">
-        <v>1.925</v>
-      </c>
-      <c r="T156">
-        <v>3</v>
-      </c>
-      <c r="U156">
-        <v>1.95</v>
-      </c>
-      <c r="V156">
-        <v>1.85</v>
-      </c>
-      <c r="W156">
-        <v>-1</v>
-      </c>
-      <c r="X156">
-        <v>2.6</v>
-      </c>
-      <c r="Y156">
-        <v>-1</v>
-      </c>
       <c r="Z156">
         <v>-1</v>
       </c>
       <c r="AA156">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AB156">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC156">
         <v>-1</v>
@@ -14435,7 +14435,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6126731</v>
+        <v>6126732</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14447,19 +14447,19 @@
         <v>45157.95833333334</v>
       </c>
       <c r="F157" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="G157" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H157">
         <v>2</v>
       </c>
       <c r="I157">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J157" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K157">
         <v>2</v>
@@ -14471,52 +14471,52 @@
         <v>3.1</v>
       </c>
       <c r="N157">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="O157">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P157">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="Q157">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R157">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S157">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T157">
         <v>2.5</v>
       </c>
       <c r="U157">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V157">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W157">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X157">
         <v>-1</v>
       </c>
       <c r="Y157">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z157">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA157">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB157">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC157">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14524,7 +14524,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6126732</v>
+        <v>6126731</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14536,19 +14536,19 @@
         <v>45157.95833333334</v>
       </c>
       <c r="F158" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="G158" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H158">
         <v>2</v>
       </c>
       <c r="I158">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J158" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K158">
         <v>2</v>
@@ -14560,52 +14560,52 @@
         <v>3.1</v>
       </c>
       <c r="N158">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="O158">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P158">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="Q158">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R158">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S158">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T158">
         <v>2.5</v>
       </c>
       <c r="U158">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V158">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W158">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X158">
         <v>-1</v>
       </c>
       <c r="Y158">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z158">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA158">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB158">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC158">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14625,10 +14625,10 @@
         <v>45161.83333333334</v>
       </c>
       <c r="F159" t="s">
+        <v>31</v>
+      </c>
+      <c r="G159" t="s">
         <v>32</v>
-      </c>
-      <c r="G159" t="s">
-        <v>31</v>
       </c>
       <c r="H159">
         <v>3</v>
@@ -14815,7 +14815,7 @@
         <v>0</v>
       </c>
       <c r="J161" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K161">
         <v>1.909</v>
@@ -14892,7 +14892,7 @@
         <v>45161.91666666666</v>
       </c>
       <c r="F162" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G162" t="s">
         <v>50</v>
@@ -14981,7 +14981,7 @@
         <v>45164.83333333334</v>
       </c>
       <c r="F163" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G163" t="s">
         <v>46</v>
@@ -15082,7 +15082,7 @@
         <v>1</v>
       </c>
       <c r="J164" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K164">
         <v>1.8</v>
@@ -15248,7 +15248,7 @@
         <v>45164.85416666666</v>
       </c>
       <c r="F166" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G166" t="s">
         <v>50</v>
@@ -15260,7 +15260,7 @@
         <v>1</v>
       </c>
       <c r="J166" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K166">
         <v>2.05</v>
@@ -15349,7 +15349,7 @@
         <v>0</v>
       </c>
       <c r="J167" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K167">
         <v>2.05</v>
@@ -15426,7 +15426,7 @@
         <v>45164.875</v>
       </c>
       <c r="F168" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G168" t="s">
         <v>40</v>
@@ -15515,10 +15515,10 @@
         <v>45164.91666666666</v>
       </c>
       <c r="F169" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G169" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H169">
         <v>0</v>
@@ -15527,7 +15527,7 @@
         <v>0</v>
       </c>
       <c r="J169" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K169">
         <v>2.05</v>
@@ -15604,7 +15604,7 @@
         <v>45164.91666666666</v>
       </c>
       <c r="F170" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G170" t="s">
         <v>49</v>
@@ -15616,7 +15616,7 @@
         <v>1</v>
       </c>
       <c r="J170" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K170">
         <v>1.95</v>
@@ -15693,7 +15693,7 @@
         <v>45164.95833333334</v>
       </c>
       <c r="F171" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G171" t="s">
         <v>30</v>
@@ -15705,7 +15705,7 @@
         <v>1</v>
       </c>
       <c r="J171" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K171">
         <v>2.5</v>
@@ -15770,7 +15770,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6126751</v>
+        <v>6126746</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15782,55 +15782,55 @@
         <v>45164.97916666666</v>
       </c>
       <c r="F172" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G172" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J172" t="s">
         <v>53</v>
       </c>
       <c r="K172">
-        <v>1.75</v>
+        <v>3.25</v>
       </c>
       <c r="L172">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M172">
-        <v>4.333</v>
+        <v>2.05</v>
       </c>
       <c r="N172">
-        <v>1.615</v>
+        <v>3</v>
       </c>
       <c r="O172">
         <v>3.75</v>
       </c>
       <c r="P172">
-        <v>5</v>
+        <v>2.15</v>
       </c>
       <c r="Q172">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R172">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S172">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T172">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U172">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V172">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W172">
         <v>-1</v>
@@ -15839,19 +15839,19 @@
         <v>-1</v>
       </c>
       <c r="Y172">
-        <v>4</v>
+        <v>1.15</v>
       </c>
       <c r="Z172">
         <v>-1</v>
       </c>
       <c r="AA172">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB172">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC172">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -15859,7 +15859,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6126746</v>
+        <v>6126751</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15871,56 +15871,56 @@
         <v>45164.97916666666</v>
       </c>
       <c r="F173" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G173" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J173" t="s">
         <v>53</v>
       </c>
       <c r="K173">
-        <v>3.25</v>
+        <v>1.75</v>
       </c>
       <c r="L173">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M173">
-        <v>2.05</v>
+        <v>4.333</v>
       </c>
       <c r="N173">
-        <v>3</v>
+        <v>1.615</v>
       </c>
       <c r="O173">
         <v>3.75</v>
       </c>
       <c r="P173">
-        <v>2.15</v>
+        <v>5</v>
       </c>
       <c r="Q173">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R173">
+        <v>1.95</v>
+      </c>
+      <c r="S173">
+        <v>1.75</v>
+      </c>
+      <c r="T173">
+        <v>2.5</v>
+      </c>
+      <c r="U173">
         <v>1.9</v>
       </c>
-      <c r="S173">
+      <c r="V173">
         <v>1.9</v>
       </c>
-      <c r="T173">
-        <v>3</v>
-      </c>
-      <c r="U173">
-        <v>2</v>
-      </c>
-      <c r="V173">
-        <v>1.8</v>
-      </c>
       <c r="W173">
         <v>-1</v>
       </c>
@@ -15928,19 +15928,19 @@
         <v>-1</v>
       </c>
       <c r="Y173">
-        <v>1.15</v>
+        <v>4</v>
       </c>
       <c r="Z173">
         <v>-1</v>
       </c>
       <c r="AA173">
+        <v>0.75</v>
+      </c>
+      <c r="AB173">
+        <v>-1</v>
+      </c>
+      <c r="AC173">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB173">
-        <v>1</v>
-      </c>
-      <c r="AC173">
-        <v>-1</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -16049,10 +16049,10 @@
         <v>45168.875</v>
       </c>
       <c r="F175" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G175" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H175">
         <v>0</v>
@@ -16061,7 +16061,7 @@
         <v>0</v>
       </c>
       <c r="J175" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K175">
         <v>3.1</v>
@@ -16138,7 +16138,7 @@
         <v>45168.91666666666</v>
       </c>
       <c r="F176" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G176" t="s">
         <v>44</v>
@@ -16150,7 +16150,7 @@
         <v>3</v>
       </c>
       <c r="J176" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K176">
         <v>1.85</v>
@@ -16239,7 +16239,7 @@
         <v>1</v>
       </c>
       <c r="J177" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K177">
         <v>2.15</v>
@@ -16328,7 +16328,7 @@
         <v>0</v>
       </c>
       <c r="J178" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K178">
         <v>2</v>
@@ -16393,7 +16393,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6126766</v>
+        <v>6126759</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16405,13 +16405,13 @@
         <v>45171.85416666666</v>
       </c>
       <c r="F179" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="G179" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I179">
         <v>1</v>
@@ -16420,61 +16420,61 @@
         <v>54</v>
       </c>
       <c r="K179">
-        <v>1.333</v>
+        <v>2.9</v>
       </c>
       <c r="L179">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="M179">
-        <v>7.5</v>
+        <v>2.2</v>
       </c>
       <c r="N179">
-        <v>1.045</v>
+        <v>2.6</v>
       </c>
       <c r="O179">
-        <v>11</v>
+        <v>3.25</v>
       </c>
       <c r="P179">
-        <v>19</v>
+        <v>2.5</v>
       </c>
       <c r="Q179">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="R179">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S179">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T179">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U179">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="V179">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W179">
-        <v>0.04499999999999993</v>
+        <v>-1</v>
       </c>
       <c r="X179">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y179">
         <v>-1</v>
       </c>
       <c r="Z179">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA179">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
       <c r="AB179">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC179">
-        <v>1.05</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16482,7 +16482,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6126759</v>
+        <v>6126766</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16494,13 +16494,13 @@
         <v>45171.85416666666</v>
       </c>
       <c r="F180" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="G180" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H180">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I180">
         <v>1</v>
@@ -16509,61 +16509,61 @@
         <v>55</v>
       </c>
       <c r="K180">
-        <v>2.9</v>
+        <v>1.333</v>
       </c>
       <c r="L180">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="M180">
-        <v>2.2</v>
+        <v>7.5</v>
       </c>
       <c r="N180">
-        <v>2.6</v>
+        <v>1.045</v>
       </c>
       <c r="O180">
-        <v>3.25</v>
+        <v>11</v>
       </c>
       <c r="P180">
-        <v>2.5</v>
+        <v>19</v>
       </c>
       <c r="Q180">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="R180">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S180">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T180">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U180">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="V180">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W180">
-        <v>-1</v>
+        <v>0.04499999999999993</v>
       </c>
       <c r="X180">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y180">
         <v>-1</v>
       </c>
       <c r="Z180">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA180">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
       <c r="AB180">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC180">
-        <v>-0</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16571,7 +16571,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6126758</v>
+        <v>6126763</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16583,55 +16583,55 @@
         <v>45171.91666666666</v>
       </c>
       <c r="F181" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G181" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J181" t="s">
         <v>53</v>
       </c>
       <c r="K181">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="L181">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M181">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="N181">
-        <v>2.4</v>
+        <v>2.05</v>
       </c>
       <c r="O181">
         <v>3.4</v>
       </c>
       <c r="P181">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="Q181">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R181">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S181">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T181">
         <v>2.5</v>
       </c>
       <c r="U181">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V181">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W181">
         <v>-1</v>
@@ -16640,19 +16640,19 @@
         <v>-1</v>
       </c>
       <c r="Y181">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="Z181">
         <v>-1</v>
       </c>
       <c r="AA181">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB181">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC181">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16660,7 +16660,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>6126763</v>
+        <v>6126758</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16672,55 +16672,55 @@
         <v>45171.91666666666</v>
       </c>
       <c r="F182" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G182" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J182" t="s">
         <v>53</v>
       </c>
       <c r="K182">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="L182">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M182">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="N182">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="O182">
         <v>3.4</v>
       </c>
       <c r="P182">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="Q182">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R182">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S182">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T182">
         <v>2.5</v>
       </c>
       <c r="U182">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V182">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W182">
         <v>-1</v>
@@ -16729,19 +16729,19 @@
         <v>-1</v>
       </c>
       <c r="Y182">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="Z182">
         <v>-1</v>
       </c>
       <c r="AA182">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB182">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC182">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="183" spans="1:29">
@@ -16764,7 +16764,7 @@
         <v>46</v>
       </c>
       <c r="G183" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H183">
         <v>1</v>
@@ -16927,7 +16927,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>6126765</v>
+        <v>6126762</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16939,76 +16939,76 @@
         <v>45171.97916666666</v>
       </c>
       <c r="F185" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G185" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I185">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J185" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K185">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="L185">
+        <v>3.4</v>
+      </c>
+      <c r="M185">
+        <v>2</v>
+      </c>
+      <c r="N185">
+        <v>2.9</v>
+      </c>
+      <c r="O185">
         <v>3.5</v>
       </c>
-      <c r="M185">
-        <v>3.2</v>
-      </c>
-      <c r="N185">
-        <v>1.909</v>
-      </c>
-      <c r="O185">
-        <v>3.75</v>
-      </c>
       <c r="P185">
-        <v>3.3</v>
+        <v>2.15</v>
       </c>
       <c r="Q185">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R185">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S185">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T185">
         <v>2.75</v>
       </c>
       <c r="U185">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V185">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W185">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X185">
         <v>-1</v>
       </c>
       <c r="Y185">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z185">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA185">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB185">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC185">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -17016,7 +17016,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>6126762</v>
+        <v>6126765</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17028,76 +17028,76 @@
         <v>45171.97916666666</v>
       </c>
       <c r="F186" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G186" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H186">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I186">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J186" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K186">
+        <v>2</v>
+      </c>
+      <c r="L186">
+        <v>3.5</v>
+      </c>
+      <c r="M186">
+        <v>3.2</v>
+      </c>
+      <c r="N186">
+        <v>1.909</v>
+      </c>
+      <c r="O186">
+        <v>3.75</v>
+      </c>
+      <c r="P186">
         <v>3.3</v>
       </c>
-      <c r="L186">
-        <v>3.4</v>
-      </c>
-      <c r="M186">
-        <v>2</v>
-      </c>
-      <c r="N186">
-        <v>2.9</v>
-      </c>
-      <c r="O186">
-        <v>3.5</v>
-      </c>
-      <c r="P186">
-        <v>2.15</v>
-      </c>
       <c r="Q186">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R186">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S186">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T186">
         <v>2.75</v>
       </c>
       <c r="U186">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V186">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W186">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X186">
         <v>-1</v>
       </c>
       <c r="Y186">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z186">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA186">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB186">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC186">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17129,7 +17129,7 @@
         <v>0</v>
       </c>
       <c r="J187" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K187">
         <v>1.95</v>
@@ -17209,7 +17209,7 @@
         <v>49</v>
       </c>
       <c r="G188" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H188">
         <v>2</v>
@@ -17218,7 +17218,7 @@
         <v>1</v>
       </c>
       <c r="J188" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K188">
         <v>3.4</v>
@@ -17307,7 +17307,7 @@
         <v>2</v>
       </c>
       <c r="J189" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K189">
         <v>2.9</v>
@@ -17384,7 +17384,7 @@
         <v>45178.83333333334</v>
       </c>
       <c r="F190" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G190" t="s">
         <v>39</v>
@@ -17396,7 +17396,7 @@
         <v>1</v>
       </c>
       <c r="J190" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K190">
         <v>1.4</v>
@@ -17485,7 +17485,7 @@
         <v>1</v>
       </c>
       <c r="J191" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K191">
         <v>2.1</v>
@@ -17574,7 +17574,7 @@
         <v>0</v>
       </c>
       <c r="J192" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K192">
         <v>2.2</v>
@@ -17654,7 +17654,7 @@
         <v>33</v>
       </c>
       <c r="G193" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H193">
         <v>2</v>
@@ -17663,7 +17663,7 @@
         <v>1</v>
       </c>
       <c r="J193" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K193">
         <v>1.75</v>
@@ -17743,7 +17743,7 @@
         <v>34</v>
       </c>
       <c r="G194" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H194">
         <v>0</v>
@@ -17841,7 +17841,7 @@
         <v>0</v>
       </c>
       <c r="J195" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K195">
         <v>2.05</v>
@@ -17921,7 +17921,7 @@
         <v>30</v>
       </c>
       <c r="G196" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H196">
         <v>1</v>
@@ -17930,7 +17930,7 @@
         <v>1</v>
       </c>
       <c r="J196" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K196">
         <v>2.2</v>
@@ -18007,7 +18007,7 @@
         <v>45178.95833333334</v>
       </c>
       <c r="F197" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G197" t="s">
         <v>46</v>
@@ -18019,7 +18019,7 @@
         <v>0</v>
       </c>
       <c r="J197" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K197">
         <v>1.615</v>
@@ -18108,7 +18108,7 @@
         <v>1</v>
       </c>
       <c r="J198" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K198">
         <v>3.2</v>
@@ -18188,7 +18188,7 @@
         <v>48</v>
       </c>
       <c r="G199" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H199">
         <v>1</v>
@@ -18197,7 +18197,7 @@
         <v>0</v>
       </c>
       <c r="J199" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K199">
         <v>1.909</v>
@@ -18363,7 +18363,7 @@
         <v>45184.91666666666</v>
       </c>
       <c r="F201" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G201" t="s">
         <v>41</v>
@@ -18375,7 +18375,7 @@
         <v>2</v>
       </c>
       <c r="J201" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K201">
         <v>2.2</v>
@@ -18452,7 +18452,7 @@
         <v>45184.95833333334</v>
       </c>
       <c r="F202" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G202" t="s">
         <v>30</v>
@@ -18544,7 +18544,7 @@
         <v>47</v>
       </c>
       <c r="G203" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H203">
         <v>1</v>
@@ -18642,7 +18642,7 @@
         <v>2</v>
       </c>
       <c r="J204" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K204">
         <v>2.875</v>
@@ -18719,7 +18719,7 @@
         <v>45185.85416666666</v>
       </c>
       <c r="F205" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G205" t="s">
         <v>40</v>
@@ -18731,7 +18731,7 @@
         <v>0</v>
       </c>
       <c r="J205" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K205">
         <v>2.1</v>
@@ -18811,7 +18811,7 @@
         <v>34</v>
       </c>
       <c r="G206" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H206">
         <v>4</v>
@@ -18820,7 +18820,7 @@
         <v>2</v>
       </c>
       <c r="J206" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K206">
         <v>1.5</v>
@@ -18897,7 +18897,7 @@
         <v>45185.89583333334</v>
       </c>
       <c r="F207" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G207" t="s">
         <v>33</v>
@@ -18909,7 +18909,7 @@
         <v>3</v>
       </c>
       <c r="J207" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K207">
         <v>1.909</v>
@@ -18974,7 +18974,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>6126787</v>
+        <v>6126788</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18986,76 +18986,76 @@
         <v>45185.95833333334</v>
       </c>
       <c r="F208" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="G208" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="H208">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I208">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J208" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K208">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="L208">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M208">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="N208">
-        <v>1.833</v>
+        <v>1.7</v>
       </c>
       <c r="O208">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P208">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="Q208">
         <v>-0.75</v>
       </c>
       <c r="R208">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="S208">
-        <v>1.7</v>
+        <v>1.875</v>
       </c>
       <c r="T208">
         <v>2.75</v>
       </c>
       <c r="U208">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V208">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W208">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X208">
         <v>-1</v>
       </c>
       <c r="Y208">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z208">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="AA208">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB208">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC208">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -19063,7 +19063,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>6126790</v>
+        <v>6126787</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19075,46 +19075,46 @@
         <v>45185.95833333334</v>
       </c>
       <c r="F209" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="G209" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H209">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I209">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J209" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K209">
-        <v>1.5</v>
+        <v>1.727</v>
       </c>
       <c r="L209">
+        <v>3.75</v>
+      </c>
+      <c r="M209">
         <v>4.2</v>
       </c>
-      <c r="M209">
-        <v>5.5</v>
-      </c>
       <c r="N209">
-        <v>1.65</v>
+        <v>1.833</v>
       </c>
       <c r="O209">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P209">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Q209">
         <v>-0.75</v>
       </c>
       <c r="R209">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="S209">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="T209">
         <v>2.75</v>
@@ -19126,7 +19126,7 @@
         <v>1.85</v>
       </c>
       <c r="W209">
-        <v>0.6499999999999999</v>
+        <v>0.833</v>
       </c>
       <c r="X209">
         <v>-1</v>
@@ -19135,16 +19135,16 @@
         <v>-1</v>
       </c>
       <c r="Z209">
-        <v>0.425</v>
+        <v>0.55</v>
       </c>
       <c r="AA209">
         <v>-0.5</v>
       </c>
       <c r="AB209">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC209">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="210" spans="1:29">
@@ -19152,7 +19152,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>6126788</v>
+        <v>6126790</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19164,34 +19164,34 @@
         <v>45185.95833333334</v>
       </c>
       <c r="F210" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G210" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H210">
+        <v>1</v>
+      </c>
+      <c r="I210">
         <v>0</v>
       </c>
-      <c r="I210">
-        <v>1</v>
-      </c>
       <c r="J210" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K210">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="L210">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="M210">
-        <v>4.1</v>
+        <v>5.5</v>
       </c>
       <c r="N210">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="O210">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P210">
         <v>4.5</v>
@@ -19200,40 +19200,40 @@
         <v>-0.75</v>
       </c>
       <c r="R210">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S210">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T210">
         <v>2.75</v>
       </c>
       <c r="U210">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V210">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W210">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X210">
         <v>-1</v>
       </c>
       <c r="Y210">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z210">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA210">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB210">
         <v>-1</v>
       </c>
       <c r="AC210">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="211" spans="1:29">
@@ -19265,7 +19265,7 @@
         <v>0</v>
       </c>
       <c r="J211" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K211">
         <v>1.8</v>
@@ -19342,7 +19342,7 @@
         <v>45186.92916666667</v>
       </c>
       <c r="F212" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G212" t="s">
         <v>48</v>
@@ -19354,7 +19354,7 @@
         <v>0</v>
       </c>
       <c r="J212" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K212">
         <v>2.05</v>
@@ -19434,7 +19434,7 @@
         <v>47</v>
       </c>
       <c r="G213" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H213">
         <v>4</v>
@@ -19443,7 +19443,7 @@
         <v>3</v>
       </c>
       <c r="J213" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K213">
         <v>2.4</v>
@@ -19532,7 +19532,7 @@
         <v>1</v>
       </c>
       <c r="J214" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K214">
         <v>2</v>
@@ -19612,7 +19612,7 @@
         <v>51</v>
       </c>
       <c r="G215" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H215">
         <v>0</v>
@@ -19621,7 +19621,7 @@
         <v>0</v>
       </c>
       <c r="J215" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K215">
         <v>1.5</v>
@@ -19698,7 +19698,7 @@
         <v>45189.95833333334</v>
       </c>
       <c r="F216" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G216" t="s">
         <v>40</v>
@@ -19799,7 +19799,7 @@
         <v>1</v>
       </c>
       <c r="J217" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K217">
         <v>1.909</v>
@@ -19879,7 +19879,7 @@
         <v>39</v>
       </c>
       <c r="G218" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H218">
         <v>1</v>
@@ -19965,10 +19965,10 @@
         <v>45192.83333333334</v>
       </c>
       <c r="F219" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G219" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H219">
         <v>2</v>
@@ -19977,7 +19977,7 @@
         <v>1</v>
       </c>
       <c r="J219" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K219">
         <v>1.666</v>
@@ -20042,7 +20042,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>6387474</v>
+        <v>6126801</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20054,40 +20054,40 @@
         <v>45192.85416666666</v>
       </c>
       <c r="F220" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G220" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="H220">
         <v>2</v>
       </c>
       <c r="I220">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J220" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K220">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="L220">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M220">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="N220">
-        <v>1.55</v>
+        <v>2</v>
       </c>
       <c r="O220">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="P220">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="Q220">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R220">
         <v>1.85</v>
@@ -20105,25 +20105,25 @@
         <v>1.975</v>
       </c>
       <c r="W220">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X220">
         <v>-1</v>
       </c>
       <c r="Y220">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z220">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA220">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
       <c r="AB220">
-        <v>0.4125</v>
+        <v>0.825</v>
       </c>
       <c r="AC220">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20131,7 +20131,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>6126801</v>
+        <v>6126798</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20143,76 +20143,76 @@
         <v>45192.85416666666</v>
       </c>
       <c r="F221" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="G221" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I221">
+        <v>0</v>
+      </c>
+      <c r="J221" t="s">
+        <v>55</v>
+      </c>
+      <c r="K221">
+        <v>1.5</v>
+      </c>
+      <c r="L221">
         <v>4</v>
       </c>
-      <c r="J221" t="s">
-        <v>53</v>
-      </c>
-      <c r="K221">
-        <v>1.909</v>
-      </c>
-      <c r="L221">
-        <v>3.4</v>
-      </c>
       <c r="M221">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="N221">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="O221">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P221">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="Q221">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R221">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S221">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T221">
         <v>2.75</v>
       </c>
       <c r="U221">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V221">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W221">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X221">
         <v>-1</v>
       </c>
       <c r="Y221">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z221">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA221">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB221">
-        <v>0.825</v>
+        <v>0.475</v>
       </c>
       <c r="AC221">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -20220,7 +20220,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>6126798</v>
+        <v>6387474</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20232,58 +20232,58 @@
         <v>45192.85416666666</v>
       </c>
       <c r="F222" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="G222" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="H222">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I222">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J222" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K222">
-        <v>1.5</v>
+        <v>1.666</v>
       </c>
       <c r="L222">
+        <v>3.75</v>
+      </c>
+      <c r="M222">
         <v>4</v>
       </c>
-      <c r="M222">
-        <v>5</v>
-      </c>
       <c r="N222">
-        <v>1.75</v>
+        <v>1.55</v>
       </c>
       <c r="O222">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="P222">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="Q222">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R222">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S222">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T222">
         <v>2.75</v>
       </c>
       <c r="U222">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V222">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W222">
-        <v>0.75</v>
+        <v>0.55</v>
       </c>
       <c r="X222">
         <v>-1</v>
@@ -20292,13 +20292,13 @@
         <v>-1</v>
       </c>
       <c r="Z222">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA222">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB222">
-        <v>0.475</v>
+        <v>0.4125</v>
       </c>
       <c r="AC222">
         <v>-0.5</v>
@@ -20333,7 +20333,7 @@
         <v>0</v>
       </c>
       <c r="J223" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K223">
         <v>2.4</v>
@@ -20410,10 +20410,10 @@
         <v>45192.89583333334</v>
       </c>
       <c r="F224" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G224" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H224">
         <v>4</v>
@@ -20422,7 +20422,7 @@
         <v>0</v>
       </c>
       <c r="J224" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K224">
         <v>2.1</v>
@@ -20511,7 +20511,7 @@
         <v>1</v>
       </c>
       <c r="J225" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K225">
         <v>3.4</v>
@@ -20591,7 +20591,7 @@
         <v>50</v>
       </c>
       <c r="G226" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H226">
         <v>2</v>
@@ -20600,7 +20600,7 @@
         <v>2</v>
       </c>
       <c r="J226" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K226">
         <v>2</v>
@@ -20680,7 +20680,7 @@
         <v>41</v>
       </c>
       <c r="G227" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H227">
         <v>0</v>
@@ -20778,7 +20778,7 @@
         <v>1</v>
       </c>
       <c r="J228" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K228">
         <v>1.5</v>
@@ -20944,7 +20944,7 @@
         <v>45196.83333333334</v>
       </c>
       <c r="F230" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G230" t="s">
         <v>33</v>
@@ -21125,7 +21125,7 @@
         <v>47</v>
       </c>
       <c r="G232" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H232">
         <v>2</v>
@@ -21134,7 +21134,7 @@
         <v>0</v>
       </c>
       <c r="J232" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K232">
         <v>1.45</v>
@@ -21223,7 +21223,7 @@
         <v>0</v>
       </c>
       <c r="J233" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K233">
         <v>1.833</v>
@@ -21300,7 +21300,7 @@
         <v>45199.83333333334</v>
       </c>
       <c r="F234" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G234" t="s">
         <v>49</v>
@@ -21312,7 +21312,7 @@
         <v>2</v>
       </c>
       <c r="J234" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K234">
         <v>1.4</v>
@@ -21401,7 +21401,7 @@
         <v>0</v>
       </c>
       <c r="J235" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K235">
         <v>1.363</v>
@@ -21570,7 +21570,7 @@
         <v>30</v>
       </c>
       <c r="G237" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H237">
         <v>1</v>
@@ -21579,7 +21579,7 @@
         <v>1</v>
       </c>
       <c r="J237" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K237">
         <v>1.833</v>
@@ -21656,10 +21656,10 @@
         <v>45199.91666666666</v>
       </c>
       <c r="F238" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G238" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H238">
         <v>2</v>
@@ -21668,7 +21668,7 @@
         <v>0</v>
       </c>
       <c r="J238" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K238">
         <v>2.4</v>
@@ -21757,7 +21757,7 @@
         <v>2</v>
       </c>
       <c r="J239" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K239">
         <v>2.65</v>
@@ -21822,7 +21822,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>6387479</v>
+        <v>6387717</v>
       </c>
       <c r="C240" t="s">
         <v>28</v>
@@ -21834,73 +21834,73 @@
         <v>45199.95833333334</v>
       </c>
       <c r="F240" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G240" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I240">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J240" t="s">
         <v>55</v>
       </c>
       <c r="K240">
+        <v>1.666</v>
+      </c>
+      <c r="L240">
+        <v>3.75</v>
+      </c>
+      <c r="M240">
+        <v>4.333</v>
+      </c>
+      <c r="N240">
+        <v>1.533</v>
+      </c>
+      <c r="O240">
+        <v>4</v>
+      </c>
+      <c r="P240">
+        <v>5</v>
+      </c>
+      <c r="Q240">
+        <v>-1</v>
+      </c>
+      <c r="R240">
+        <v>1.9</v>
+      </c>
+      <c r="S240">
+        <v>1.9</v>
+      </c>
+      <c r="T240">
         <v>3</v>
       </c>
-      <c r="L240">
-        <v>3.5</v>
-      </c>
-      <c r="M240">
-        <v>2.1</v>
-      </c>
-      <c r="N240">
-        <v>3</v>
-      </c>
-      <c r="O240">
-        <v>3.6</v>
-      </c>
-      <c r="P240">
-        <v>2.05</v>
-      </c>
-      <c r="Q240">
-        <v>0.25</v>
-      </c>
-      <c r="R240">
-        <v>1.975</v>
-      </c>
-      <c r="S240">
-        <v>1.825</v>
-      </c>
-      <c r="T240">
-        <v>2.75</v>
-      </c>
       <c r="U240">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V240">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W240">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X240">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y240">
         <v>-1</v>
       </c>
       <c r="Z240">
-        <v>0.4875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA240">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB240">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AC240">
         <v>-1</v>
@@ -21911,7 +21911,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>6387717</v>
+        <v>6387479</v>
       </c>
       <c r="C241" t="s">
         <v>28</v>
@@ -21923,73 +21923,73 @@
         <v>45199.95833333334</v>
       </c>
       <c r="F241" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G241" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H241">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I241">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J241" t="s">
         <v>54</v>
       </c>
       <c r="K241">
-        <v>1.666</v>
+        <v>3</v>
       </c>
       <c r="L241">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M241">
-        <v>4.333</v>
+        <v>2.1</v>
       </c>
       <c r="N241">
-        <v>1.533</v>
+        <v>3</v>
       </c>
       <c r="O241">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P241">
-        <v>5</v>
+        <v>2.05</v>
       </c>
       <c r="Q241">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R241">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S241">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T241">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U241">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V241">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W241">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X241">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y241">
         <v>-1</v>
       </c>
       <c r="Z241">
-        <v>0.8999999999999999</v>
+        <v>0.4875</v>
       </c>
       <c r="AA241">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB241">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AC241">
         <v>-1</v>
@@ -22015,7 +22015,7 @@
         <v>45</v>
       </c>
       <c r="G242" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H242">
         <v>1</v>
@@ -22024,7 +22024,7 @@
         <v>1</v>
       </c>
       <c r="J242" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K242">
         <v>1.909</v>
@@ -22113,7 +22113,7 @@
         <v>0</v>
       </c>
       <c r="J243" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K243">
         <v>1.3</v>
@@ -22190,10 +22190,10 @@
         <v>45203.83333333334</v>
       </c>
       <c r="F244" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G244" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H244">
         <v>2</v>
@@ -22202,7 +22202,7 @@
         <v>2</v>
       </c>
       <c r="J244" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K244">
         <v>2.8</v>
@@ -22291,7 +22291,7 @@
         <v>0</v>
       </c>
       <c r="J245" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K245">
         <v>2.2</v>
@@ -22368,7 +22368,7 @@
         <v>45203.95833333334</v>
       </c>
       <c r="F246" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G246" t="s">
         <v>50</v>
@@ -22380,7 +22380,7 @@
         <v>1</v>
       </c>
       <c r="J246" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K246">
         <v>1.909</v>
@@ -22635,10 +22635,10 @@
         <v>45206.85416666666</v>
       </c>
       <c r="F249" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G249" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H249">
         <v>1</v>
@@ -22647,7 +22647,7 @@
         <v>1</v>
       </c>
       <c r="J249" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K249">
         <v>1.3</v>
@@ -22727,7 +22727,7 @@
         <v>33</v>
       </c>
       <c r="G250" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H250">
         <v>0</v>
@@ -22813,7 +22813,7 @@
         <v>45206.875</v>
       </c>
       <c r="F251" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G251" t="s">
         <v>51</v>
@@ -22914,7 +22914,7 @@
         <v>0</v>
       </c>
       <c r="J252" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K252">
         <v>1.85</v>
@@ -23068,7 +23068,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>6488732</v>
+        <v>6488884</v>
       </c>
       <c r="C254" t="s">
         <v>28</v>
@@ -23080,58 +23080,58 @@
         <v>45206.95833333334</v>
       </c>
       <c r="F254" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G254" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="H254">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I254">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J254" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K254">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="L254">
+        <v>3.6</v>
+      </c>
+      <c r="M254">
+        <v>3.75</v>
+      </c>
+      <c r="N254">
+        <v>1.909</v>
+      </c>
+      <c r="O254">
+        <v>3.75</v>
+      </c>
+      <c r="P254">
         <v>3.4</v>
       </c>
-      <c r="M254">
+      <c r="Q254">
+        <v>-0.5</v>
+      </c>
+      <c r="R254">
+        <v>1.925</v>
+      </c>
+      <c r="S254">
+        <v>1.875</v>
+      </c>
+      <c r="T254">
         <v>3</v>
       </c>
-      <c r="N254">
-        <v>2.375</v>
-      </c>
-      <c r="O254">
-        <v>3.4</v>
-      </c>
-      <c r="P254">
-        <v>2.9</v>
-      </c>
-      <c r="Q254">
-        <v>-0.25</v>
-      </c>
-      <c r="R254">
-        <v>1.975</v>
-      </c>
-      <c r="S254">
-        <v>1.725</v>
-      </c>
-      <c r="T254">
-        <v>2.5</v>
-      </c>
       <c r="U254">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V254">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W254">
-        <v>1.375</v>
+        <v>0.909</v>
       </c>
       <c r="X254">
         <v>-1</v>
@@ -23140,16 +23140,16 @@
         <v>-1</v>
       </c>
       <c r="Z254">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA254">
         <v>-1</v>
       </c>
       <c r="AB254">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC254">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="255" spans="1:29">
@@ -23157,7 +23157,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>6488884</v>
+        <v>6488732</v>
       </c>
       <c r="C255" t="s">
         <v>28</v>
@@ -23169,58 +23169,58 @@
         <v>45206.95833333334</v>
       </c>
       <c r="F255" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G255" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="H255">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I255">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J255" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K255">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="L255">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M255">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="N255">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="O255">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P255">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="Q255">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R255">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S255">
-        <v>1.875</v>
+        <v>1.725</v>
       </c>
       <c r="T255">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U255">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V255">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W255">
-        <v>0.909</v>
+        <v>1.375</v>
       </c>
       <c r="X255">
         <v>-1</v>
@@ -23229,16 +23229,16 @@
         <v>-1</v>
       </c>
       <c r="Z255">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA255">
         <v>-1</v>
       </c>
       <c r="AB255">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC255">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="256" spans="1:29">
@@ -23246,7 +23246,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>6507495</v>
+        <v>6492575</v>
       </c>
       <c r="C256" t="s">
         <v>28</v>
@@ -23258,56 +23258,56 @@
         <v>45206.97916666666</v>
       </c>
       <c r="F256" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G256" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H256">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I256">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J256" t="s">
         <v>53</v>
       </c>
       <c r="K256">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L256">
+        <v>3.4</v>
+      </c>
+      <c r="M256">
+        <v>2.3</v>
+      </c>
+      <c r="N256">
         <v>3.5</v>
       </c>
-      <c r="M256">
+      <c r="O256">
         <v>3.6</v>
       </c>
-      <c r="N256">
-        <v>1.85</v>
-      </c>
-      <c r="O256">
-        <v>3.75</v>
-      </c>
       <c r="P256">
-        <v>3.8</v>
+        <v>1.909</v>
       </c>
       <c r="Q256">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R256">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S256">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T256">
         <v>2.75</v>
       </c>
       <c r="U256">
+        <v>1.75</v>
+      </c>
+      <c r="V256">
         <v>1.95</v>
       </c>
-      <c r="V256">
-        <v>1.85</v>
-      </c>
       <c r="W256">
         <v>-1</v>
       </c>
@@ -23315,19 +23315,19 @@
         <v>-1</v>
       </c>
       <c r="Y256">
-        <v>2.8</v>
+        <v>0.909</v>
       </c>
       <c r="Z256">
         <v>-1</v>
       </c>
       <c r="AA256">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB256">
-        <v>0.475</v>
+        <v>0.75</v>
       </c>
       <c r="AC256">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="257" spans="1:29">
@@ -23335,7 +23335,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>6492575</v>
+        <v>6507495</v>
       </c>
       <c r="C257" t="s">
         <v>28</v>
@@ -23347,55 +23347,55 @@
         <v>45206.97916666666</v>
       </c>
       <c r="F257" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G257" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H257">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I257">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J257" t="s">
         <v>53</v>
       </c>
       <c r="K257">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L257">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M257">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="N257">
-        <v>3.5</v>
+        <v>1.85</v>
       </c>
       <c r="O257">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P257">
-        <v>1.909</v>
+        <v>3.8</v>
       </c>
       <c r="Q257">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R257">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S257">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T257">
         <v>2.75</v>
       </c>
       <c r="U257">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="V257">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W257">
         <v>-1</v>
@@ -23404,19 +23404,19 @@
         <v>-1</v>
       </c>
       <c r="Y257">
-        <v>0.909</v>
+        <v>2.8</v>
       </c>
       <c r="Z257">
         <v>-1</v>
       </c>
       <c r="AA257">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB257">
-        <v>0.75</v>
+        <v>0.475</v>
       </c>
       <c r="AC257">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="258" spans="1:29">
@@ -23439,7 +23439,7 @@
         <v>48</v>
       </c>
       <c r="G258" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H258">
         <v>2</v>
@@ -23448,7 +23448,7 @@
         <v>0</v>
       </c>
       <c r="J258" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K258">
         <v>1.95</v>
@@ -23525,7 +23525,7 @@
         <v>45212.83333333334</v>
       </c>
       <c r="F259" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G259" t="s">
         <v>49</v>
@@ -23614,7 +23614,7 @@
         <v>45212.91666666666</v>
       </c>
       <c r="F260" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G260" t="s">
         <v>34</v>
@@ -23626,7 +23626,7 @@
         <v>1</v>
       </c>
       <c r="J260" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K260">
         <v>2.375</v>
@@ -23706,7 +23706,7 @@
         <v>52</v>
       </c>
       <c r="G261" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H261">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="J261" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K261">
         <v>3</v>
@@ -23804,7 +23804,7 @@
         <v>0</v>
       </c>
       <c r="J262" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K262">
         <v>1.909</v>
@@ -23881,7 +23881,7 @@
         <v>45213.85416666666</v>
       </c>
       <c r="F263" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G263" t="s">
         <v>33</v>
@@ -23982,7 +23982,7 @@
         <v>0</v>
       </c>
       <c r="J264" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K264">
         <v>2.05</v>
@@ -24059,7 +24059,7 @@
         <v>45213.875</v>
       </c>
       <c r="F265" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G265" t="s">
         <v>39</v>
@@ -24071,7 +24071,7 @@
         <v>1</v>
       </c>
       <c r="J265" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K265">
         <v>1.444</v>
@@ -24148,7 +24148,7 @@
         <v>45213.89583333334</v>
       </c>
       <c r="F266" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G266" t="s">
         <v>41</v>
@@ -24160,7 +24160,7 @@
         <v>3</v>
       </c>
       <c r="J266" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K266">
         <v>1.615</v>
@@ -24338,7 +24338,7 @@
         <v>0</v>
       </c>
       <c r="J268" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K268">
         <v>1.533</v>
@@ -24415,10 +24415,10 @@
         <v>45213.95833333334</v>
       </c>
       <c r="F269" t="s">
+        <v>37</v>
+      </c>
+      <c r="G269" t="s">
         <v>38</v>
-      </c>
-      <c r="G269" t="s">
-        <v>37</v>
       </c>
       <c r="H269">
         <v>0</v>
@@ -24596,7 +24596,7 @@
         <v>34</v>
       </c>
       <c r="G271" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H271">
         <v>5</v>
@@ -24682,7 +24682,7 @@
         <v>45220.83333333334</v>
       </c>
       <c r="F272" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G272" t="s">
         <v>52</v>
@@ -24860,7 +24860,7 @@
         <v>45220.91666666666</v>
       </c>
       <c r="F274" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G274" t="s">
         <v>30</v>
@@ -24872,7 +24872,7 @@
         <v>0</v>
       </c>
       <c r="J274" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K274">
         <v>1.833</v>
@@ -24952,7 +24952,7 @@
         <v>51</v>
       </c>
       <c r="G275" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H275">
         <v>1</v>
@@ -24961,7 +24961,7 @@
         <v>0</v>
       </c>
       <c r="J275" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K275">
         <v>1.571</v>
@@ -25038,7 +25038,7 @@
         <v>45220.97916666666</v>
       </c>
       <c r="F276" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G276" t="s">
         <v>46</v>
@@ -25050,7 +25050,7 @@
         <v>0</v>
       </c>
       <c r="J276" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K276">
         <v>1.727</v>
@@ -25139,7 +25139,7 @@
         <v>0</v>
       </c>
       <c r="J277" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K277">
         <v>2</v>
@@ -25308,7 +25308,7 @@
         <v>51</v>
       </c>
       <c r="G279" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H279">
         <v>3</v>
@@ -25317,7 +25317,7 @@
         <v>1</v>
       </c>
       <c r="J279" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K279">
         <v>2.1</v>
@@ -25406,7 +25406,7 @@
         <v>1</v>
       </c>
       <c r="J280" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K280">
         <v>1.909</v>
@@ -25483,7 +25483,7 @@
         <v>45227.85416666666</v>
       </c>
       <c r="F281" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G281" t="s">
         <v>52</v>
@@ -25495,7 +25495,7 @@
         <v>0</v>
       </c>
       <c r="J281" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K281">
         <v>1.7</v>
@@ -25572,7 +25572,7 @@
         <v>45227.95833333334</v>
       </c>
       <c r="F282" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G282" t="s">
         <v>45</v>
@@ -25664,7 +25664,7 @@
         <v>29</v>
       </c>
       <c r="G283" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H283">
         <v>2</v>
@@ -25673,7 +25673,7 @@
         <v>1</v>
       </c>
       <c r="J283" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K283">
         <v>2.3</v>

--- a/USA USL Championship/USA USL Championship.xlsx
+++ b/USA USL Championship/USA USL Championship.xlsx
@@ -1797,7 +1797,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6126598</v>
+        <v>6126594</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1809,76 +1809,76 @@
         <v>45087.83333333334</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G15" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K15">
+        <v>1.666</v>
+      </c>
+      <c r="L15">
+        <v>3.75</v>
+      </c>
+      <c r="M15">
+        <v>4</v>
+      </c>
+      <c r="N15">
         <v>1.75</v>
       </c>
-      <c r="L15">
+      <c r="O15">
         <v>3.6</v>
       </c>
-      <c r="M15">
-        <v>3.75</v>
-      </c>
-      <c r="N15">
-        <v>1.7</v>
-      </c>
-      <c r="O15">
-        <v>3.25</v>
-      </c>
       <c r="P15">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q15">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R15">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S15">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T15">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U15">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V15">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W15">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X15">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y15">
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA15">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB15">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC15">
-        <v>0.4375</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1886,7 +1886,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6126594</v>
+        <v>6126598</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1898,76 +1898,76 @@
         <v>45087.83333333334</v>
       </c>
       <c r="F16" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K16">
-        <v>1.666</v>
+        <v>1.75</v>
       </c>
       <c r="L16">
+        <v>3.6</v>
+      </c>
+      <c r="M16">
         <v>3.75</v>
       </c>
-      <c r="M16">
-        <v>4</v>
-      </c>
       <c r="N16">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="O16">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P16">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="Q16">
+        <v>-0.75</v>
+      </c>
+      <c r="R16">
+        <v>1.975</v>
+      </c>
+      <c r="S16">
+        <v>1.825</v>
+      </c>
+      <c r="T16">
+        <v>2.25</v>
+      </c>
+      <c r="U16">
+        <v>1.925</v>
+      </c>
+      <c r="V16">
+        <v>1.875</v>
+      </c>
+      <c r="W16">
+        <v>0.7</v>
+      </c>
+      <c r="X16">
+        <v>-1</v>
+      </c>
+      <c r="Y16">
+        <v>-1</v>
+      </c>
+      <c r="Z16">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA16">
+        <v>-1</v>
+      </c>
+      <c r="AB16">
         <v>-0.5</v>
       </c>
-      <c r="R16">
-        <v>1.75</v>
-      </c>
-      <c r="S16">
-        <v>1.95</v>
-      </c>
-      <c r="T16">
-        <v>2.75</v>
-      </c>
-      <c r="U16">
-        <v>1.9</v>
-      </c>
-      <c r="V16">
-        <v>1.9</v>
-      </c>
-      <c r="W16">
-        <v>-1</v>
-      </c>
-      <c r="X16">
-        <v>2.6</v>
-      </c>
-      <c r="Y16">
-        <v>-1</v>
-      </c>
-      <c r="Z16">
-        <v>-1</v>
-      </c>
-      <c r="AA16">
-        <v>0.95</v>
-      </c>
-      <c r="AB16">
-        <v>-1</v>
-      </c>
       <c r="AC16">
-        <v>0.8999999999999999</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -2242,7 +2242,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6126593</v>
+        <v>6126600</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2254,73 +2254,73 @@
         <v>45087.91666666666</v>
       </c>
       <c r="F20" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G20" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K20">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>3.4</v>
       </c>
       <c r="M20">
+        <v>3.1</v>
+      </c>
+      <c r="N20">
+        <v>1.65</v>
+      </c>
+      <c r="O20">
         <v>3.6</v>
       </c>
-      <c r="N20">
-        <v>2.1</v>
-      </c>
-      <c r="O20">
-        <v>3.5</v>
-      </c>
       <c r="P20">
-        <v>2.875</v>
+        <v>4.2</v>
       </c>
       <c r="Q20">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R20">
+        <v>1.95</v>
+      </c>
+      <c r="S20">
+        <v>1.85</v>
+      </c>
+      <c r="T20">
+        <v>2.5</v>
+      </c>
+      <c r="U20">
+        <v>1.775</v>
+      </c>
+      <c r="V20">
         <v>1.925</v>
       </c>
-      <c r="S20">
-        <v>1.875</v>
-      </c>
-      <c r="T20">
-        <v>2.75</v>
-      </c>
-      <c r="U20">
-        <v>1.75</v>
-      </c>
-      <c r="V20">
-        <v>1.95</v>
-      </c>
       <c r="W20">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X20">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y20">
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA20">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB20">
-        <v>0.75</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC20">
         <v>-1</v>
@@ -2331,7 +2331,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6126600</v>
+        <v>6126593</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2343,73 +2343,73 @@
         <v>45087.91666666666</v>
       </c>
       <c r="F21" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="L21">
         <v>3.4</v>
       </c>
       <c r="M21">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="N21">
-        <v>1.65</v>
+        <v>2.1</v>
       </c>
       <c r="O21">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P21">
-        <v>4.2</v>
+        <v>2.875</v>
       </c>
       <c r="Q21">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R21">
+        <v>1.925</v>
+      </c>
+      <c r="S21">
+        <v>1.875</v>
+      </c>
+      <c r="T21">
+        <v>2.75</v>
+      </c>
+      <c r="U21">
+        <v>1.75</v>
+      </c>
+      <c r="V21">
         <v>1.95</v>
       </c>
-      <c r="S21">
-        <v>1.85</v>
-      </c>
-      <c r="T21">
-        <v>2.5</v>
-      </c>
-      <c r="U21">
-        <v>1.775</v>
-      </c>
-      <c r="V21">
-        <v>1.925</v>
-      </c>
       <c r="W21">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X21">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y21">
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA21">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB21">
-        <v>0.7749999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AC21">
         <v>-1</v>
@@ -3844,7 +3844,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6126619</v>
+        <v>6126616</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3856,13 +3856,13 @@
         <v>45098.875</v>
       </c>
       <c r="F38" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G38" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -3871,43 +3871,43 @@
         <v>55</v>
       </c>
       <c r="K38">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="L38">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M38">
+        <v>3.6</v>
+      </c>
+      <c r="N38">
+        <v>1.7</v>
+      </c>
+      <c r="O38">
+        <v>3.8</v>
+      </c>
+      <c r="P38">
+        <v>3.75</v>
+      </c>
+      <c r="Q38">
+        <v>-0.75</v>
+      </c>
+      <c r="R38">
+        <v>1.95</v>
+      </c>
+      <c r="S38">
+        <v>1.85</v>
+      </c>
+      <c r="T38">
         <v>3</v>
       </c>
-      <c r="N38">
-        <v>2.15</v>
-      </c>
-      <c r="O38">
-        <v>3.4</v>
-      </c>
-      <c r="P38">
-        <v>2.875</v>
-      </c>
-      <c r="Q38">
-        <v>-0.25</v>
-      </c>
-      <c r="R38">
-        <v>1.975</v>
-      </c>
-      <c r="S38">
-        <v>1.825</v>
-      </c>
-      <c r="T38">
-        <v>2.75</v>
-      </c>
       <c r="U38">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V38">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W38">
-        <v>1.15</v>
+        <v>0.7</v>
       </c>
       <c r="X38">
         <v>-1</v>
@@ -3916,7 +3916,7 @@
         <v>-1</v>
       </c>
       <c r="Z38">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA38">
         <v>-1</v>
@@ -3925,7 +3925,7 @@
         <v>-1</v>
       </c>
       <c r="AC38">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3933,7 +3933,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6126616</v>
+        <v>6126619</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3945,13 +3945,13 @@
         <v>45098.875</v>
       </c>
       <c r="F39" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G39" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -3960,43 +3960,43 @@
         <v>55</v>
       </c>
       <c r="K39">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="L39">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M39">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="N39">
-        <v>1.7</v>
+        <v>2.15</v>
       </c>
       <c r="O39">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P39">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="Q39">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R39">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S39">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T39">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U39">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V39">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W39">
-        <v>0.7</v>
+        <v>1.15</v>
       </c>
       <c r="X39">
         <v>-1</v>
@@ -4005,7 +4005,7 @@
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA39">
         <v>-1</v>
@@ -4014,7 +4014,7 @@
         <v>-1</v>
       </c>
       <c r="AC39">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -5535,7 +5535,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6126633</v>
+        <v>6126641</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5547,52 +5547,52 @@
         <v>45108.91666666666</v>
       </c>
       <c r="F57" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="s">
         <v>55</v>
       </c>
       <c r="K57">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="L57">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M57">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="N57">
         <v>1.666</v>
       </c>
       <c r="O57">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P57">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q57">
         <v>-0.75</v>
       </c>
       <c r="R57">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S57">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T57">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U57">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="V57">
         <v>1.95</v>
@@ -5607,16 +5607,16 @@
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA57">
         <v>-1</v>
       </c>
       <c r="AB57">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC57">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5624,7 +5624,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6126641</v>
+        <v>6126633</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5636,52 +5636,52 @@
         <v>45108.91666666666</v>
       </c>
       <c r="F58" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G58" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H58">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" t="s">
         <v>55</v>
       </c>
       <c r="K58">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L58">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M58">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="N58">
         <v>1.666</v>
       </c>
       <c r="O58">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P58">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q58">
         <v>-0.75</v>
       </c>
       <c r="R58">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S58">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T58">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U58">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="V58">
         <v>1.95</v>
@@ -5696,16 +5696,16 @@
         <v>-1</v>
       </c>
       <c r="Z58">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA58">
         <v>-1</v>
       </c>
       <c r="AB58">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC58">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5980,7 +5980,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6126638</v>
+        <v>6126640</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5992,76 +5992,76 @@
         <v>45109</v>
       </c>
       <c r="F62" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G62" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H62">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K62">
-        <v>2.15</v>
+        <v>1.571</v>
       </c>
       <c r="L62">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M62">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="N62">
-        <v>2.2</v>
+        <v>1.533</v>
       </c>
       <c r="O62">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P62">
-        <v>2.7</v>
+        <v>5.25</v>
       </c>
       <c r="Q62">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R62">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S62">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T62">
+        <v>2.5</v>
+      </c>
+      <c r="U62">
+        <v>1.875</v>
+      </c>
+      <c r="V62">
+        <v>1.925</v>
+      </c>
+      <c r="W62">
+        <v>-1</v>
+      </c>
+      <c r="X62">
         <v>3</v>
       </c>
-      <c r="U62">
-        <v>1.8</v>
-      </c>
-      <c r="V62">
-        <v>2</v>
-      </c>
-      <c r="W62">
-        <v>1.2</v>
-      </c>
-      <c r="X62">
-        <v>-1</v>
-      </c>
       <c r="Y62">
         <v>-1</v>
       </c>
       <c r="Z62">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA62">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB62">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC62">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6069,7 +6069,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6126640</v>
+        <v>6126638</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6081,76 +6081,76 @@
         <v>45109</v>
       </c>
       <c r="F63" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="G63" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K63">
-        <v>1.571</v>
+        <v>2.15</v>
       </c>
       <c r="L63">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M63">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="N63">
-        <v>1.533</v>
+        <v>2.2</v>
       </c>
       <c r="O63">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P63">
-        <v>5.25</v>
+        <v>2.7</v>
       </c>
       <c r="Q63">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R63">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S63">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T63">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U63">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V63">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W63">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X63">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y63">
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA63">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB63">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC63">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6514,7 +6514,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6126652</v>
+        <v>6126647</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6526,76 +6526,76 @@
         <v>45115.83333333334</v>
       </c>
       <c r="F68" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G68" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H68">
         <v>0</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K68">
         <v>1.909</v>
       </c>
       <c r="L68">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M68">
+        <v>3.5</v>
+      </c>
+      <c r="N68">
+        <v>1.666</v>
+      </c>
+      <c r="O68">
         <v>3.6</v>
       </c>
-      <c r="N68">
+      <c r="P68">
+        <v>4.5</v>
+      </c>
+      <c r="Q68">
+        <v>-0.75</v>
+      </c>
+      <c r="R68">
+        <v>1.9</v>
+      </c>
+      <c r="S68">
+        <v>1.9</v>
+      </c>
+      <c r="T68">
+        <v>2.75</v>
+      </c>
+      <c r="U68">
+        <v>1.85</v>
+      </c>
+      <c r="V68">
         <v>1.95</v>
       </c>
-      <c r="O68">
-        <v>3.25</v>
-      </c>
-      <c r="P68">
-        <v>3.75</v>
-      </c>
-      <c r="Q68">
-        <v>-0.25</v>
-      </c>
-      <c r="R68">
-        <v>1.75</v>
-      </c>
-      <c r="S68">
-        <v>2.05</v>
-      </c>
-      <c r="T68">
-        <v>1.75</v>
-      </c>
-      <c r="U68">
-        <v>1.8</v>
-      </c>
-      <c r="V68">
-        <v>2</v>
-      </c>
       <c r="W68">
         <v>-1</v>
       </c>
       <c r="X68">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y68">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z68">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA68">
-        <v>0.5249999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB68">
         <v>-1</v>
       </c>
       <c r="AC68">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6603,7 +6603,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6126647</v>
+        <v>6126646</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6615,55 +6615,55 @@
         <v>45115.83333333334</v>
       </c>
       <c r="F69" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G69" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="H69">
         <v>0</v>
       </c>
       <c r="I69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J69" t="s">
         <v>53</v>
       </c>
       <c r="K69">
-        <v>1.909</v>
+        <v>3.25</v>
       </c>
       <c r="L69">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M69">
+        <v>2</v>
+      </c>
+      <c r="N69">
+        <v>3</v>
+      </c>
+      <c r="O69">
         <v>3.5</v>
       </c>
-      <c r="N69">
-        <v>1.666</v>
-      </c>
-      <c r="O69">
-        <v>3.6</v>
-      </c>
       <c r="P69">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q69">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R69">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S69">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T69">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U69">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V69">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W69">
         <v>-1</v>
@@ -6672,19 +6672,19 @@
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>3.5</v>
+        <v>1.1</v>
       </c>
       <c r="Z69">
         <v>-1</v>
       </c>
       <c r="AA69">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB69">
         <v>-1</v>
       </c>
       <c r="AC69">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6692,7 +6692,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6126646</v>
+        <v>6126655</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6704,76 +6704,76 @@
         <v>45115.83333333334</v>
       </c>
       <c r="F70" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G70" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K70">
-        <v>3.25</v>
+        <v>2.7</v>
       </c>
       <c r="L70">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M70">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="N70">
         <v>3</v>
       </c>
       <c r="O70">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P70">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Q70">
         <v>0.25</v>
       </c>
       <c r="R70">
+        <v>1.825</v>
+      </c>
+      <c r="S70">
         <v>1.975</v>
       </c>
-      <c r="S70">
-        <v>1.825</v>
-      </c>
       <c r="T70">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U70">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V70">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W70">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X70">
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z70">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA70">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB70">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC70">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6781,7 +6781,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6126655</v>
+        <v>6126652</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6793,76 +6793,76 @@
         <v>45115.83333333334</v>
       </c>
       <c r="F71" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="G71" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71" t="s">
+        <v>54</v>
+      </c>
+      <c r="K71">
+        <v>1.909</v>
+      </c>
+      <c r="L71">
+        <v>3.3</v>
+      </c>
+      <c r="M71">
+        <v>3.6</v>
+      </c>
+      <c r="N71">
+        <v>1.95</v>
+      </c>
+      <c r="O71">
+        <v>3.25</v>
+      </c>
+      <c r="P71">
+        <v>3.75</v>
+      </c>
+      <c r="Q71">
+        <v>-0.25</v>
+      </c>
+      <c r="R71">
+        <v>1.75</v>
+      </c>
+      <c r="S71">
+        <v>2.05</v>
+      </c>
+      <c r="T71">
+        <v>1.75</v>
+      </c>
+      <c r="U71">
+        <v>1.8</v>
+      </c>
+      <c r="V71">
+        <v>2</v>
+      </c>
+      <c r="W71">
+        <v>-1</v>
+      </c>
+      <c r="X71">
+        <v>2.25</v>
+      </c>
+      <c r="Y71">
+        <v>-1</v>
+      </c>
+      <c r="Z71">
+        <v>-0.5</v>
+      </c>
+      <c r="AA71">
+        <v>0.5249999999999999</v>
+      </c>
+      <c r="AB71">
+        <v>-1</v>
+      </c>
+      <c r="AC71">
         <v>1</v>
-      </c>
-      <c r="J71" t="s">
-        <v>55</v>
-      </c>
-      <c r="K71">
-        <v>2.7</v>
-      </c>
-      <c r="L71">
-        <v>3.2</v>
-      </c>
-      <c r="M71">
-        <v>2.375</v>
-      </c>
-      <c r="N71">
-        <v>3</v>
-      </c>
-      <c r="O71">
-        <v>3.2</v>
-      </c>
-      <c r="P71">
-        <v>2.2</v>
-      </c>
-      <c r="Q71">
-        <v>0.25</v>
-      </c>
-      <c r="R71">
-        <v>1.825</v>
-      </c>
-      <c r="S71">
-        <v>1.975</v>
-      </c>
-      <c r="T71">
-        <v>2.75</v>
-      </c>
-      <c r="U71">
-        <v>1.875</v>
-      </c>
-      <c r="V71">
-        <v>1.925</v>
-      </c>
-      <c r="W71">
-        <v>2</v>
-      </c>
-      <c r="X71">
-        <v>-1</v>
-      </c>
-      <c r="Y71">
-        <v>-1</v>
-      </c>
-      <c r="Z71">
-        <v>0.825</v>
-      </c>
-      <c r="AA71">
-        <v>-1</v>
-      </c>
-      <c r="AB71">
-        <v>0.4375</v>
-      </c>
-      <c r="AC71">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -7671,7 +7671,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6126658</v>
+        <v>6126657</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7683,19 +7683,19 @@
         <v>45119.91666666666</v>
       </c>
       <c r="F81" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G81" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H81">
         <v>1</v>
       </c>
       <c r="I81">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J81" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K81">
         <v>1.95</v>
@@ -7707,52 +7707,52 @@
         <v>3.25</v>
       </c>
       <c r="N81">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="O81">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P81">
-        <v>2.875</v>
+        <v>2.4</v>
       </c>
       <c r="Q81">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R81">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S81">
-        <v>1.725</v>
+        <v>1.775</v>
       </c>
       <c r="T81">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U81">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V81">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W81">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X81">
         <v>-1</v>
       </c>
       <c r="Y81">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z81">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA81">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB81">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC81">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7760,7 +7760,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6126657</v>
+        <v>6126658</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7772,19 +7772,19 @@
         <v>45119.91666666666</v>
       </c>
       <c r="F82" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G82" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H82">
         <v>1</v>
       </c>
       <c r="I82">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J82" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K82">
         <v>1.95</v>
@@ -7796,52 +7796,52 @@
         <v>3.25</v>
       </c>
       <c r="N82">
-        <v>2.75</v>
+        <v>2.375</v>
       </c>
       <c r="O82">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P82">
-        <v>2.4</v>
+        <v>2.875</v>
       </c>
       <c r="Q82">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R82">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S82">
-        <v>1.775</v>
+        <v>1.725</v>
       </c>
       <c r="T82">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U82">
+        <v>2</v>
+      </c>
+      <c r="V82">
         <v>1.8</v>
       </c>
-      <c r="V82">
-        <v>2</v>
-      </c>
       <c r="W82">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X82">
         <v>-1</v>
       </c>
       <c r="Y82">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z82">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA82">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB82">
+        <v>-1</v>
+      </c>
+      <c r="AC82">
         <v>0.8</v>
-      </c>
-      <c r="AC82">
-        <v>-1</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -8205,7 +8205,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6126662</v>
+        <v>6126665</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8217,76 +8217,76 @@
         <v>45122.85416666666</v>
       </c>
       <c r="F87" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G87" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H87">
         <v>1</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J87" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K87">
+        <v>2.375</v>
+      </c>
+      <c r="L87">
+        <v>3.4</v>
+      </c>
+      <c r="M87">
+        <v>2.5</v>
+      </c>
+      <c r="N87">
+        <v>2.45</v>
+      </c>
+      <c r="O87">
+        <v>3.5</v>
+      </c>
+      <c r="P87">
         <v>2.4</v>
-      </c>
-      <c r="L87">
-        <v>3.2</v>
-      </c>
-      <c r="M87">
-        <v>2.625</v>
-      </c>
-      <c r="N87">
-        <v>2.55</v>
-      </c>
-      <c r="O87">
-        <v>3.2</v>
-      </c>
-      <c r="P87">
-        <v>2.45</v>
       </c>
       <c r="Q87">
         <v>0</v>
       </c>
       <c r="R87">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S87">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T87">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U87">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V87">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W87">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X87">
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z87">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA87">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB87">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC87">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8294,7 +8294,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6126665</v>
+        <v>6126662</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8306,76 +8306,76 @@
         <v>45122.85416666666</v>
       </c>
       <c r="F88" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="G88" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H88">
         <v>1</v>
       </c>
       <c r="I88">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J88" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K88">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="L88">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M88">
-        <v>2.5</v>
+        <v>2.625</v>
       </c>
       <c r="N88">
+        <v>2.55</v>
+      </c>
+      <c r="O88">
+        <v>3.2</v>
+      </c>
+      <c r="P88">
         <v>2.45</v>
-      </c>
-      <c r="O88">
-        <v>3.5</v>
-      </c>
-      <c r="P88">
-        <v>2.4</v>
       </c>
       <c r="Q88">
         <v>0</v>
       </c>
       <c r="R88">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S88">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T88">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U88">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V88">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W88">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X88">
         <v>-1</v>
       </c>
       <c r="Y88">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z88">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA88">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB88">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC88">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -9006,7 +9006,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6126672</v>
+        <v>6126673</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -9018,58 +9018,58 @@
         <v>45129.85416666666</v>
       </c>
       <c r="F96" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="G96" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H96">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" t="s">
         <v>55</v>
       </c>
       <c r="K96">
+        <v>2.3</v>
+      </c>
+      <c r="L96">
+        <v>3.3</v>
+      </c>
+      <c r="M96">
+        <v>2.75</v>
+      </c>
+      <c r="N96">
+        <v>1.85</v>
+      </c>
+      <c r="O96">
+        <v>3.5</v>
+      </c>
+      <c r="P96">
+        <v>3.5</v>
+      </c>
+      <c r="Q96">
+        <v>-0.5</v>
+      </c>
+      <c r="R96">
+        <v>1.925</v>
+      </c>
+      <c r="S96">
+        <v>1.875</v>
+      </c>
+      <c r="T96">
         <v>2.5</v>
       </c>
-      <c r="L96">
-        <v>3.1</v>
-      </c>
-      <c r="M96">
-        <v>2.625</v>
-      </c>
-      <c r="N96">
-        <v>2.45</v>
-      </c>
-      <c r="O96">
-        <v>3</v>
-      </c>
-      <c r="P96">
-        <v>2.625</v>
-      </c>
-      <c r="Q96">
-        <v>0</v>
-      </c>
-      <c r="R96">
+      <c r="U96">
+        <v>2</v>
+      </c>
+      <c r="V96">
         <v>1.8</v>
       </c>
-      <c r="S96">
-        <v>2</v>
-      </c>
-      <c r="T96">
-        <v>2.25</v>
-      </c>
-      <c r="U96">
-        <v>1.975</v>
-      </c>
-      <c r="V96">
-        <v>1.725</v>
-      </c>
       <c r="W96">
-        <v>1.45</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X96">
         <v>-1</v>
@@ -9078,16 +9078,16 @@
         <v>-1</v>
       </c>
       <c r="Z96">
+        <v>0.925</v>
+      </c>
+      <c r="AA96">
+        <v>-1</v>
+      </c>
+      <c r="AB96">
+        <v>-1</v>
+      </c>
+      <c r="AC96">
         <v>0.8</v>
-      </c>
-      <c r="AA96">
-        <v>-1</v>
-      </c>
-      <c r="AB96">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC96">
-        <v>-1</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9095,7 +9095,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6126673</v>
+        <v>6126672</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9107,58 +9107,58 @@
         <v>45129.85416666666</v>
       </c>
       <c r="F97" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="G97" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H97">
+        <v>3</v>
+      </c>
+      <c r="I97">
         <v>1</v>
-      </c>
-      <c r="I97">
-        <v>0</v>
       </c>
       <c r="J97" t="s">
         <v>55</v>
       </c>
       <c r="K97">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="L97">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M97">
-        <v>2.75</v>
+        <v>2.625</v>
       </c>
       <c r="N97">
-        <v>1.85</v>
+        <v>2.45</v>
       </c>
       <c r="O97">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P97">
-        <v>3.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q97">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R97">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S97">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T97">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U97">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V97">
-        <v>1.8</v>
+        <v>1.725</v>
       </c>
       <c r="W97">
-        <v>0.8500000000000001</v>
+        <v>1.45</v>
       </c>
       <c r="X97">
         <v>-1</v>
@@ -9167,16 +9167,16 @@
         <v>-1</v>
       </c>
       <c r="Z97">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AA97">
         <v>-1</v>
       </c>
       <c r="AB97">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC97">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9362,7 +9362,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6126679</v>
+        <v>6126681</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9374,76 +9374,76 @@
         <v>45129.91666666666</v>
       </c>
       <c r="F100" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G100" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H100">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K100">
+        <v>1.571</v>
+      </c>
+      <c r="L100">
+        <v>3.75</v>
+      </c>
+      <c r="M100">
+        <v>5</v>
+      </c>
+      <c r="N100">
+        <v>1.45</v>
+      </c>
+      <c r="O100">
+        <v>4.2</v>
+      </c>
+      <c r="P100">
+        <v>5.5</v>
+      </c>
+      <c r="Q100">
+        <v>-1</v>
+      </c>
+      <c r="R100">
+        <v>1.8</v>
+      </c>
+      <c r="S100">
+        <v>2</v>
+      </c>
+      <c r="T100">
         <v>2.75</v>
       </c>
-      <c r="L100">
-        <v>3.3</v>
-      </c>
-      <c r="M100">
-        <v>2.3</v>
-      </c>
-      <c r="N100">
-        <v>2.5</v>
-      </c>
-      <c r="O100">
-        <v>3.3</v>
-      </c>
-      <c r="P100">
-        <v>2.5</v>
-      </c>
-      <c r="Q100">
-        <v>0</v>
-      </c>
-      <c r="R100">
-        <v>1.9</v>
-      </c>
-      <c r="S100">
-        <v>1.9</v>
-      </c>
-      <c r="T100">
-        <v>2.5</v>
-      </c>
       <c r="U100">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V100">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W100">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X100">
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Z100">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA100">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB100">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC100">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9451,7 +9451,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6126681</v>
+        <v>6126679</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9463,76 +9463,76 @@
         <v>45129.91666666666</v>
       </c>
       <c r="F101" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G101" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H101">
+        <v>3</v>
+      </c>
+      <c r="I101">
         <v>0</v>
       </c>
-      <c r="I101">
-        <v>1</v>
-      </c>
       <c r="J101" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K101">
-        <v>1.571</v>
+        <v>2.75</v>
       </c>
       <c r="L101">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M101">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="N101">
-        <v>1.45</v>
+        <v>2.5</v>
       </c>
       <c r="O101">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="P101">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q101">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R101">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S101">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T101">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U101">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V101">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W101">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X101">
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Z101">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA101">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB101">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC101">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -10163,7 +10163,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6126696</v>
+        <v>6126685</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10175,73 +10175,73 @@
         <v>45136.85416666666</v>
       </c>
       <c r="F109" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="G109" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="H109">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I109">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J109" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K109">
-        <v>1.533</v>
+        <v>2.25</v>
       </c>
       <c r="L109">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M109">
-        <v>5</v>
+        <v>2.625</v>
       </c>
       <c r="N109">
-        <v>1.444</v>
+        <v>2.05</v>
       </c>
       <c r="O109">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P109">
-        <v>5.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q109">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R109">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S109">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T109">
         <v>2.75</v>
       </c>
       <c r="U109">
+        <v>1.925</v>
+      </c>
+      <c r="V109">
+        <v>1.875</v>
+      </c>
+      <c r="W109">
+        <v>-1</v>
+      </c>
+      <c r="X109">
+        <v>-1</v>
+      </c>
+      <c r="Y109">
         <v>1.9</v>
       </c>
-      <c r="V109">
-        <v>1.9</v>
-      </c>
-      <c r="W109">
-        <v>0.444</v>
-      </c>
-      <c r="X109">
-        <v>-1</v>
-      </c>
-      <c r="Y109">
-        <v>-1</v>
-      </c>
       <c r="Z109">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA109">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB109">
-        <v>0.45</v>
+        <v>0.4625</v>
       </c>
       <c r="AC109">
         <v>-0.5</v>
@@ -10252,7 +10252,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6126685</v>
+        <v>6126687</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10264,10 +10264,10 @@
         <v>45136.85416666666</v>
       </c>
       <c r="F110" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G110" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="H110">
         <v>1</v>
@@ -10279,41 +10279,41 @@
         <v>53</v>
       </c>
       <c r="K110">
+        <v>2.1</v>
+      </c>
+      <c r="L110">
+        <v>3.3</v>
+      </c>
+      <c r="M110">
+        <v>3</v>
+      </c>
+      <c r="N110">
         <v>2.25</v>
       </c>
-      <c r="L110">
-        <v>3.4</v>
-      </c>
-      <c r="M110">
-        <v>2.625</v>
-      </c>
-      <c r="N110">
-        <v>2.05</v>
-      </c>
       <c r="O110">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P110">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="Q110">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R110">
+        <v>1.725</v>
+      </c>
+      <c r="S110">
+        <v>2.075</v>
+      </c>
+      <c r="T110">
+        <v>2.5</v>
+      </c>
+      <c r="U110">
         <v>1.85</v>
       </c>
-      <c r="S110">
+      <c r="V110">
         <v>1.95</v>
       </c>
-      <c r="T110">
-        <v>2.75</v>
-      </c>
-      <c r="U110">
-        <v>1.925</v>
-      </c>
-      <c r="V110">
-        <v>1.875</v>
-      </c>
       <c r="W110">
         <v>-1</v>
       </c>
@@ -10321,19 +10321,19 @@
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="Z110">
         <v>-1</v>
       </c>
       <c r="AA110">
-        <v>0.95</v>
+        <v>1.075</v>
       </c>
       <c r="AB110">
-        <v>0.4625</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC110">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10341,7 +10341,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6126687</v>
+        <v>6126696</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10353,76 +10353,76 @@
         <v>45136.85416666666</v>
       </c>
       <c r="F111" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G111" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I111">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J111" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K111">
-        <v>2.1</v>
+        <v>1.533</v>
       </c>
       <c r="L111">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="M111">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N111">
-        <v>2.25</v>
+        <v>1.444</v>
       </c>
       <c r="O111">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P111">
-        <v>2.7</v>
+        <v>5.75</v>
       </c>
       <c r="Q111">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R111">
-        <v>1.725</v>
+        <v>1.975</v>
       </c>
       <c r="S111">
-        <v>2.075</v>
+        <v>1.825</v>
       </c>
       <c r="T111">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U111">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V111">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W111">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X111">
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z111">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA111">
-        <v>1.075</v>
+        <v>-1</v>
       </c>
       <c r="AB111">
-        <v>0.8500000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="AC111">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10697,7 +10697,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6126691</v>
+        <v>6126690</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10709,76 +10709,76 @@
         <v>45136.95833333334</v>
       </c>
       <c r="F115" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="G115" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="H115">
         <v>1</v>
       </c>
       <c r="I115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K115">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="L115">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M115">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="N115">
-        <v>2.05</v>
+        <v>1.727</v>
       </c>
       <c r="O115">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P115">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="Q115">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R115">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="S115">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T115">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U115">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V115">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W115">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X115">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y115">
         <v>-1</v>
       </c>
       <c r="Z115">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA115">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB115">
         <v>-1</v>
       </c>
       <c r="AC115">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10786,7 +10786,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6126690</v>
+        <v>6126691</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10798,76 +10798,76 @@
         <v>45136.95833333334</v>
       </c>
       <c r="F116" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="G116" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="H116">
         <v>1</v>
       </c>
       <c r="I116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K116">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="L116">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M116">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="N116">
-        <v>1.727</v>
+        <v>2.05</v>
       </c>
       <c r="O116">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P116">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="Q116">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R116">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="S116">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T116">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U116">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V116">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W116">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X116">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y116">
         <v>-1</v>
       </c>
       <c r="Z116">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA116">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB116">
         <v>-1</v>
       </c>
       <c r="AC116">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -11587,7 +11587,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6126708</v>
+        <v>6126701</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11599,58 +11599,58 @@
         <v>45143.83333333334</v>
       </c>
       <c r="F125" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G125" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="H125">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J125" t="s">
         <v>55</v>
       </c>
       <c r="K125">
-        <v>2.55</v>
+        <v>2.9</v>
       </c>
       <c r="L125">
+        <v>3.4</v>
+      </c>
+      <c r="M125">
+        <v>2.1</v>
+      </c>
+      <c r="N125">
+        <v>2.7</v>
+      </c>
+      <c r="O125">
+        <v>3.8</v>
+      </c>
+      <c r="P125">
+        <v>2.1</v>
+      </c>
+      <c r="Q125">
+        <v>0.25</v>
+      </c>
+      <c r="R125">
+        <v>1.875</v>
+      </c>
+      <c r="S125">
+        <v>1.925</v>
+      </c>
+      <c r="T125">
         <v>3.25</v>
       </c>
-      <c r="M125">
-        <v>2.4</v>
-      </c>
-      <c r="N125">
-        <v>2.2</v>
-      </c>
-      <c r="O125">
-        <v>3.4</v>
-      </c>
-      <c r="P125">
-        <v>2.75</v>
-      </c>
-      <c r="Q125">
-        <v>-0.25</v>
-      </c>
-      <c r="R125">
-        <v>2</v>
-      </c>
-      <c r="S125">
-        <v>1.8</v>
-      </c>
-      <c r="T125">
-        <v>2.75</v>
-      </c>
       <c r="U125">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V125">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W125">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="X125">
         <v>-1</v>
@@ -11659,16 +11659,16 @@
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AA125">
         <v>-1</v>
       </c>
       <c r="AB125">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC125">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11676,7 +11676,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6126702</v>
+        <v>6126708</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11688,73 +11688,73 @@
         <v>45143.83333333334</v>
       </c>
       <c r="F126" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G126" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I126">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J126" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K126">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="L126">
         <v>3.25</v>
       </c>
       <c r="M126">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="N126">
         <v>2.2</v>
       </c>
       <c r="O126">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P126">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q126">
         <v>-0.25</v>
       </c>
       <c r="R126">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S126">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T126">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U126">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V126">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W126">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X126">
         <v>-1</v>
       </c>
       <c r="Y126">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z126">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA126">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB126">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AC126">
         <v>-1</v>
@@ -11765,7 +11765,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6126701</v>
+        <v>6126702</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11777,76 +11777,76 @@
         <v>45143.83333333334</v>
       </c>
       <c r="F127" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G127" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I127">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J127" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K127">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="L127">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M127">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="N127">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="O127">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="P127">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="Q127">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R127">
+        <v>1.975</v>
+      </c>
+      <c r="S127">
+        <v>1.825</v>
+      </c>
+      <c r="T127">
+        <v>2.5</v>
+      </c>
+      <c r="U127">
+        <v>1.925</v>
+      </c>
+      <c r="V127">
         <v>1.875</v>
       </c>
-      <c r="S127">
-        <v>1.925</v>
-      </c>
-      <c r="T127">
-        <v>3.25</v>
-      </c>
-      <c r="U127">
-        <v>1.875</v>
-      </c>
-      <c r="V127">
-        <v>1.925</v>
-      </c>
       <c r="W127">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X127">
         <v>-1</v>
       </c>
       <c r="Y127">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z127">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA127">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB127">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC127">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11854,7 +11854,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6126704</v>
+        <v>6126707</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11866,55 +11866,55 @@
         <v>45143.95833333334</v>
       </c>
       <c r="F128" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G128" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I128">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J128" t="s">
         <v>53</v>
       </c>
       <c r="K128">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="L128">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M128">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="N128">
-        <v>3.4</v>
+        <v>1.727</v>
       </c>
       <c r="O128">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P128">
-        <v>2.05</v>
+        <v>3.6</v>
       </c>
       <c r="Q128">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R128">
-        <v>1.725</v>
+        <v>1.75</v>
       </c>
       <c r="S128">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T128">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U128">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V128">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W128">
         <v>-1</v>
@@ -11923,19 +11923,19 @@
         <v>-1</v>
       </c>
       <c r="Y128">
-        <v>1.05</v>
+        <v>2.6</v>
       </c>
       <c r="Z128">
         <v>-1</v>
       </c>
       <c r="AA128">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB128">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC128">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11943,7 +11943,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6126707</v>
+        <v>6126704</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11955,55 +11955,55 @@
         <v>45143.95833333334</v>
       </c>
       <c r="F129" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G129" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="H129">
+        <v>0</v>
+      </c>
+      <c r="I129">
         <v>1</v>
-      </c>
-      <c r="I129">
-        <v>3</v>
       </c>
       <c r="J129" t="s">
         <v>53</v>
       </c>
       <c r="K129">
+        <v>2.5</v>
+      </c>
+      <c r="L129">
+        <v>3.2</v>
+      </c>
+      <c r="M129">
+        <v>2.5</v>
+      </c>
+      <c r="N129">
+        <v>3.4</v>
+      </c>
+      <c r="O129">
+        <v>3.1</v>
+      </c>
+      <c r="P129">
         <v>2.05</v>
       </c>
-      <c r="L129">
-        <v>3.5</v>
-      </c>
-      <c r="M129">
-        <v>2.9</v>
-      </c>
-      <c r="N129">
-        <v>1.727</v>
-      </c>
-      <c r="O129">
-        <v>3.75</v>
-      </c>
-      <c r="P129">
-        <v>3.6</v>
-      </c>
       <c r="Q129">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R129">
-        <v>1.75</v>
+        <v>1.725</v>
       </c>
       <c r="S129">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T129">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U129">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V129">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W129">
         <v>-1</v>
@@ -12012,19 +12012,19 @@
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>2.6</v>
+        <v>1.05</v>
       </c>
       <c r="Z129">
         <v>-1</v>
       </c>
       <c r="AA129">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB129">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC129">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -14702,7 +14702,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6126739</v>
+        <v>6126741</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14714,76 +14714,76 @@
         <v>45161.875</v>
       </c>
       <c r="F160" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="G160" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J160" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K160">
-        <v>2.55</v>
+        <v>1.909</v>
       </c>
       <c r="L160">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M160">
-        <v>2.625</v>
+        <v>3.7</v>
       </c>
       <c r="N160">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="O160">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P160">
-        <v>2.375</v>
+        <v>3.4</v>
       </c>
       <c r="Q160">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R160">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="S160">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="T160">
         <v>2.75</v>
       </c>
       <c r="U160">
+        <v>1.95</v>
+      </c>
+      <c r="V160">
         <v>1.85</v>
       </c>
-      <c r="V160">
-        <v>1.95</v>
-      </c>
       <c r="W160">
         <v>-1</v>
       </c>
       <c r="X160">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y160">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z160">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA160">
-        <v>0.7749999999999999</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB160">
+        <v>-1</v>
+      </c>
+      <c r="AC160">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC160">
-        <v>-1</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -14791,7 +14791,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6126741</v>
+        <v>6126739</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14803,76 +14803,76 @@
         <v>45161.875</v>
       </c>
       <c r="F161" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="G161" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H161">
+        <v>1</v>
+      </c>
+      <c r="I161">
+        <v>3</v>
+      </c>
+      <c r="J161" t="s">
+        <v>53</v>
+      </c>
+      <c r="K161">
+        <v>2.55</v>
+      </c>
+      <c r="L161">
+        <v>3.3</v>
+      </c>
+      <c r="M161">
+        <v>2.625</v>
+      </c>
+      <c r="N161">
+        <v>2.7</v>
+      </c>
+      <c r="O161">
+        <v>3.5</v>
+      </c>
+      <c r="P161">
+        <v>2.375</v>
+      </c>
+      <c r="Q161">
         <v>0</v>
       </c>
-      <c r="I161">
-        <v>0</v>
-      </c>
-      <c r="J161" t="s">
-        <v>54</v>
-      </c>
-      <c r="K161">
-        <v>1.909</v>
-      </c>
-      <c r="L161">
-        <v>3.5</v>
-      </c>
-      <c r="M161">
-        <v>3.7</v>
-      </c>
-      <c r="N161">
-        <v>2</v>
-      </c>
-      <c r="O161">
-        <v>3.4</v>
-      </c>
-      <c r="P161">
-        <v>3.4</v>
-      </c>
-      <c r="Q161">
-        <v>-0.25</v>
-      </c>
       <c r="R161">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="S161">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="T161">
         <v>2.75</v>
       </c>
       <c r="U161">
+        <v>1.85</v>
+      </c>
+      <c r="V161">
         <v>1.95</v>
       </c>
-      <c r="V161">
-        <v>1.85</v>
-      </c>
       <c r="W161">
         <v>-1</v>
       </c>
       <c r="X161">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y161">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z161">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA161">
-        <v>0.5249999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB161">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC161">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -14969,7 +14969,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6126744</v>
+        <v>6126745</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14981,76 +14981,76 @@
         <v>45164.83333333334</v>
       </c>
       <c r="F163" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G163" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J163" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K163">
-        <v>2.875</v>
+        <v>1.8</v>
       </c>
       <c r="L163">
         <v>3.5</v>
       </c>
       <c r="M163">
-        <v>2.25</v>
+        <v>4.1</v>
       </c>
       <c r="N163">
-        <v>2.15</v>
+        <v>1.571</v>
       </c>
       <c r="O163">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P163">
-        <v>2.7</v>
+        <v>5.25</v>
       </c>
       <c r="Q163">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R163">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S163">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T163">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U163">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V163">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W163">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X163">
         <v>-1</v>
       </c>
       <c r="Y163">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z163">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA163">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB163">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC163">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -15058,7 +15058,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6126745</v>
+        <v>6126753</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15070,76 +15070,76 @@
         <v>45164.83333333334</v>
       </c>
       <c r="F164" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G164" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J164" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K164">
-        <v>1.8</v>
+        <v>2.45</v>
       </c>
       <c r="L164">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M164">
-        <v>4.1</v>
+        <v>2.6</v>
       </c>
       <c r="N164">
-        <v>1.571</v>
+        <v>2.75</v>
       </c>
       <c r="O164">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P164">
-        <v>5.25</v>
+        <v>2.375</v>
       </c>
       <c r="Q164">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R164">
+        <v>2.05</v>
+      </c>
+      <c r="S164">
+        <v>1.75</v>
+      </c>
+      <c r="T164">
+        <v>2.5</v>
+      </c>
+      <c r="U164">
         <v>1.925</v>
       </c>
-      <c r="S164">
+      <c r="V164">
         <v>1.875</v>
       </c>
-      <c r="T164">
-        <v>2.75</v>
-      </c>
-      <c r="U164">
-        <v>1.875</v>
-      </c>
-      <c r="V164">
-        <v>1.925</v>
-      </c>
       <c r="W164">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X164">
         <v>-1</v>
       </c>
       <c r="Y164">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z164">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA164">
-        <v>-0</v>
+        <v>0.75</v>
       </c>
       <c r="AB164">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AC164">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15147,7 +15147,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6126753</v>
+        <v>6126744</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15159,10 +15159,10 @@
         <v>45164.83333333334</v>
       </c>
       <c r="F165" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G165" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="H165">
         <v>0</v>
@@ -15174,40 +15174,40 @@
         <v>53</v>
       </c>
       <c r="K165">
-        <v>2.45</v>
+        <v>2.875</v>
       </c>
       <c r="L165">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M165">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="N165">
-        <v>2.75</v>
+        <v>2.15</v>
       </c>
       <c r="O165">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P165">
-        <v>2.375</v>
+        <v>2.7</v>
       </c>
       <c r="Q165">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R165">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S165">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T165">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U165">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V165">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W165">
         <v>-1</v>
@@ -15216,19 +15216,19 @@
         <v>-1</v>
       </c>
       <c r="Y165">
-        <v>1.375</v>
+        <v>1.7</v>
       </c>
       <c r="Z165">
         <v>-1</v>
       </c>
       <c r="AA165">
-        <v>0.75</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB165">
         <v>-1</v>
       </c>
       <c r="AC165">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15236,7 +15236,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6126747</v>
+        <v>6126743</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15248,16 +15248,16 @@
         <v>45164.85416666666</v>
       </c>
       <c r="F166" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G166" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J166" t="s">
         <v>55</v>
@@ -15272,34 +15272,34 @@
         <v>3.25</v>
       </c>
       <c r="N166">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="O166">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P166">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q166">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R166">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S166">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T166">
         <v>2.5</v>
       </c>
       <c r="U166">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V166">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W166">
-        <v>0.8500000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="X166">
         <v>-1</v>
@@ -15308,16 +15308,16 @@
         <v>-1</v>
       </c>
       <c r="Z166">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA166">
         <v>-1</v>
       </c>
       <c r="AB166">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC166">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15325,7 +15325,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6126743</v>
+        <v>6126747</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15337,16 +15337,16 @@
         <v>45164.85416666666</v>
       </c>
       <c r="F167" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G167" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="H167">
+        <v>2</v>
+      </c>
+      <c r="I167">
         <v>1</v>
-      </c>
-      <c r="I167">
-        <v>0</v>
       </c>
       <c r="J167" t="s">
         <v>55</v>
@@ -15361,34 +15361,34 @@
         <v>3.25</v>
       </c>
       <c r="N167">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="O167">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P167">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="Q167">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R167">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S167">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T167">
         <v>2.5</v>
       </c>
       <c r="U167">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V167">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W167">
-        <v>1.1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X167">
         <v>-1</v>
@@ -15397,16 +15397,16 @@
         <v>-1</v>
       </c>
       <c r="Z167">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA167">
         <v>-1</v>
       </c>
       <c r="AB167">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC167">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15503,7 +15503,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6126752</v>
+        <v>6126749</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15515,40 +15515,40 @@
         <v>45164.91666666666</v>
       </c>
       <c r="F169" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G169" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J169" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K169">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="L169">
         <v>3.5</v>
       </c>
       <c r="M169">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="N169">
-        <v>1.833</v>
+        <v>1.5</v>
       </c>
       <c r="O169">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P169">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="Q169">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R169">
         <v>1.825</v>
@@ -15557,7 +15557,7 @@
         <v>1.975</v>
       </c>
       <c r="T169">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U169">
         <v>1.825</v>
@@ -15566,25 +15566,25 @@
         <v>1.975</v>
       </c>
       <c r="W169">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X169">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y169">
         <v>-1</v>
       </c>
       <c r="Z169">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA169">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB169">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC169">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -15592,7 +15592,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6126749</v>
+        <v>6126752</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15604,40 +15604,40 @@
         <v>45164.91666666666</v>
       </c>
       <c r="F170" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G170" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J170" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K170">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="L170">
         <v>3.5</v>
       </c>
       <c r="M170">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="N170">
-        <v>1.5</v>
+        <v>1.833</v>
       </c>
       <c r="O170">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P170">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="Q170">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R170">
         <v>1.825</v>
@@ -15646,7 +15646,7 @@
         <v>1.975</v>
       </c>
       <c r="T170">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U170">
         <v>1.825</v>
@@ -15655,25 +15655,25 @@
         <v>1.975</v>
       </c>
       <c r="W170">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X170">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y170">
         <v>-1</v>
       </c>
       <c r="Z170">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA170">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB170">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC170">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15770,7 +15770,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6126746</v>
+        <v>6126751</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15782,56 +15782,56 @@
         <v>45164.97916666666</v>
       </c>
       <c r="F172" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G172" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J172" t="s">
         <v>53</v>
       </c>
       <c r="K172">
-        <v>3.25</v>
+        <v>1.75</v>
       </c>
       <c r="L172">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M172">
-        <v>2.05</v>
+        <v>4.333</v>
       </c>
       <c r="N172">
-        <v>3</v>
+        <v>1.615</v>
       </c>
       <c r="O172">
         <v>3.75</v>
       </c>
       <c r="P172">
-        <v>2.15</v>
+        <v>5</v>
       </c>
       <c r="Q172">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R172">
+        <v>1.95</v>
+      </c>
+      <c r="S172">
+        <v>1.75</v>
+      </c>
+      <c r="T172">
+        <v>2.5</v>
+      </c>
+      <c r="U172">
         <v>1.9</v>
       </c>
-      <c r="S172">
+      <c r="V172">
         <v>1.9</v>
       </c>
-      <c r="T172">
-        <v>3</v>
-      </c>
-      <c r="U172">
-        <v>2</v>
-      </c>
-      <c r="V172">
-        <v>1.8</v>
-      </c>
       <c r="W172">
         <v>-1</v>
       </c>
@@ -15839,19 +15839,19 @@
         <v>-1</v>
       </c>
       <c r="Y172">
-        <v>1.15</v>
+        <v>4</v>
       </c>
       <c r="Z172">
         <v>-1</v>
       </c>
       <c r="AA172">
+        <v>0.75</v>
+      </c>
+      <c r="AB172">
+        <v>-1</v>
+      </c>
+      <c r="AC172">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB172">
-        <v>1</v>
-      </c>
-      <c r="AC172">
-        <v>-1</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -15859,7 +15859,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6126751</v>
+        <v>6126746</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15871,55 +15871,55 @@
         <v>45164.97916666666</v>
       </c>
       <c r="F173" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G173" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J173" t="s">
         <v>53</v>
       </c>
       <c r="K173">
-        <v>1.75</v>
+        <v>3.25</v>
       </c>
       <c r="L173">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M173">
-        <v>4.333</v>
+        <v>2.05</v>
       </c>
       <c r="N173">
-        <v>1.615</v>
+        <v>3</v>
       </c>
       <c r="O173">
         <v>3.75</v>
       </c>
       <c r="P173">
-        <v>5</v>
+        <v>2.15</v>
       </c>
       <c r="Q173">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R173">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S173">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T173">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U173">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V173">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W173">
         <v>-1</v>
@@ -15928,19 +15928,19 @@
         <v>-1</v>
       </c>
       <c r="Y173">
-        <v>4</v>
+        <v>1.15</v>
       </c>
       <c r="Z173">
         <v>-1</v>
       </c>
       <c r="AA173">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB173">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC173">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -16393,7 +16393,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6126759</v>
+        <v>6126766</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16405,76 +16405,76 @@
         <v>45171.85416666666</v>
       </c>
       <c r="F179" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="G179" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I179">
         <v>1</v>
       </c>
       <c r="J179" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K179">
-        <v>2.9</v>
+        <v>1.333</v>
       </c>
       <c r="L179">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="M179">
-        <v>2.2</v>
+        <v>7.5</v>
       </c>
       <c r="N179">
-        <v>2.6</v>
+        <v>1.045</v>
       </c>
       <c r="O179">
-        <v>3.25</v>
+        <v>11</v>
       </c>
       <c r="P179">
-        <v>2.5</v>
+        <v>19</v>
       </c>
       <c r="Q179">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="R179">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S179">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T179">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U179">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="V179">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W179">
-        <v>-1</v>
+        <v>0.04499999999999993</v>
       </c>
       <c r="X179">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y179">
         <v>-1</v>
       </c>
       <c r="Z179">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA179">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
       <c r="AB179">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC179">
-        <v>-0</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16482,7 +16482,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6126766</v>
+        <v>6126759</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16494,76 +16494,76 @@
         <v>45171.85416666666</v>
       </c>
       <c r="F180" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="G180" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I180">
         <v>1</v>
       </c>
       <c r="J180" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K180">
-        <v>1.333</v>
+        <v>2.9</v>
       </c>
       <c r="L180">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="M180">
-        <v>7.5</v>
+        <v>2.2</v>
       </c>
       <c r="N180">
-        <v>1.045</v>
+        <v>2.6</v>
       </c>
       <c r="O180">
-        <v>11</v>
+        <v>3.25</v>
       </c>
       <c r="P180">
-        <v>19</v>
+        <v>2.5</v>
       </c>
       <c r="Q180">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="R180">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S180">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T180">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U180">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="V180">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W180">
-        <v>0.04499999999999993</v>
+        <v>-1</v>
       </c>
       <c r="X180">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y180">
         <v>-1</v>
       </c>
       <c r="Z180">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA180">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
       <c r="AB180">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC180">
-        <v>1.05</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16927,7 +16927,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>6126762</v>
+        <v>6126765</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16939,76 +16939,76 @@
         <v>45171.97916666666</v>
       </c>
       <c r="F185" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G185" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H185">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I185">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J185" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K185">
+        <v>2</v>
+      </c>
+      <c r="L185">
+        <v>3.5</v>
+      </c>
+      <c r="M185">
+        <v>3.2</v>
+      </c>
+      <c r="N185">
+        <v>1.909</v>
+      </c>
+      <c r="O185">
+        <v>3.75</v>
+      </c>
+      <c r="P185">
         <v>3.3</v>
       </c>
-      <c r="L185">
-        <v>3.4</v>
-      </c>
-      <c r="M185">
-        <v>2</v>
-      </c>
-      <c r="N185">
-        <v>2.9</v>
-      </c>
-      <c r="O185">
-        <v>3.5</v>
-      </c>
-      <c r="P185">
-        <v>2.15</v>
-      </c>
       <c r="Q185">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R185">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S185">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T185">
         <v>2.75</v>
       </c>
       <c r="U185">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V185">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W185">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X185">
         <v>-1</v>
       </c>
       <c r="Y185">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z185">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA185">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB185">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC185">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -17016,7 +17016,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>6126765</v>
+        <v>6126762</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17028,76 +17028,76 @@
         <v>45171.97916666666</v>
       </c>
       <c r="F186" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G186" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I186">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J186" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K186">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="L186">
+        <v>3.4</v>
+      </c>
+      <c r="M186">
+        <v>2</v>
+      </c>
+      <c r="N186">
+        <v>2.9</v>
+      </c>
+      <c r="O186">
         <v>3.5</v>
       </c>
-      <c r="M186">
-        <v>3.2</v>
-      </c>
-      <c r="N186">
-        <v>1.909</v>
-      </c>
-      <c r="O186">
-        <v>3.75</v>
-      </c>
       <c r="P186">
-        <v>3.3</v>
+        <v>2.15</v>
       </c>
       <c r="Q186">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R186">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S186">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T186">
         <v>2.75</v>
       </c>
       <c r="U186">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V186">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W186">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X186">
         <v>-1</v>
       </c>
       <c r="Y186">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z186">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA186">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB186">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC186">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17550,7 +17550,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>6126770</v>
+        <v>6126779</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17562,58 +17562,58 @@
         <v>45178.85416666666</v>
       </c>
       <c r="F192" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G192" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H192">
         <v>2</v>
       </c>
       <c r="I192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J192" t="s">
         <v>55</v>
       </c>
       <c r="K192">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="L192">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M192">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="N192">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="O192">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P192">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="Q192">
         <v>-0.25</v>
       </c>
       <c r="R192">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S192">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T192">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U192">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V192">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W192">
-        <v>1.15</v>
+        <v>1</v>
       </c>
       <c r="X192">
         <v>-1</v>
@@ -17622,16 +17622,16 @@
         <v>-1</v>
       </c>
       <c r="Z192">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AA192">
         <v>-1</v>
       </c>
       <c r="AB192">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC192">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="193" spans="1:29">
@@ -17639,7 +17639,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>6126779</v>
+        <v>6126770</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17651,58 +17651,58 @@
         <v>45178.85416666666</v>
       </c>
       <c r="F193" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G193" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H193">
         <v>2</v>
       </c>
       <c r="I193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J193" t="s">
         <v>55</v>
       </c>
       <c r="K193">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="L193">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M193">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="N193">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="O193">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P193">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="Q193">
         <v>-0.25</v>
       </c>
       <c r="R193">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S193">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T193">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U193">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V193">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W193">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="X193">
         <v>-1</v>
@@ -17711,16 +17711,16 @@
         <v>-1</v>
       </c>
       <c r="Z193">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AA193">
         <v>-1</v>
       </c>
       <c r="AB193">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC193">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="194" spans="1:29">
@@ -18529,7 +18529,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>6126792</v>
+        <v>6126784</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18541,52 +18541,52 @@
         <v>45185.83333333334</v>
       </c>
       <c r="F203" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G203" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H203">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I203">
         <v>2</v>
       </c>
       <c r="J203" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K203">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="L203">
         <v>3.4</v>
       </c>
       <c r="M203">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="N203">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="O203">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P203">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="Q203">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R203">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S203">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T203">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U203">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="V203">
         <v>1.95</v>
@@ -18595,19 +18595,19 @@
         <v>-1</v>
       </c>
       <c r="X203">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y203">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z203">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA203">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB203">
-        <v>0.75</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC203">
         <v>-1</v>
@@ -18618,7 +18618,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>6126784</v>
+        <v>6126792</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18630,52 +18630,52 @@
         <v>45185.83333333334</v>
       </c>
       <c r="F204" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G204" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I204">
         <v>2</v>
       </c>
       <c r="J204" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K204">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="L204">
         <v>3.4</v>
       </c>
       <c r="M204">
+        <v>2.35</v>
+      </c>
+      <c r="N204">
+        <v>2.7</v>
+      </c>
+      <c r="O204">
+        <v>3.2</v>
+      </c>
+      <c r="P204">
+        <v>2.5</v>
+      </c>
+      <c r="Q204">
+        <v>0</v>
+      </c>
+      <c r="R204">
+        <v>1.975</v>
+      </c>
+      <c r="S204">
+        <v>1.825</v>
+      </c>
+      <c r="T204">
         <v>2.25</v>
       </c>
-      <c r="N204">
-        <v>3.8</v>
-      </c>
-      <c r="O204">
-        <v>3.4</v>
-      </c>
-      <c r="P204">
+      <c r="U204">
         <v>1.75</v>
-      </c>
-      <c r="Q204">
-        <v>0.75</v>
-      </c>
-      <c r="R204">
-        <v>1.75</v>
-      </c>
-      <c r="S204">
-        <v>1.95</v>
-      </c>
-      <c r="T204">
-        <v>2.75</v>
-      </c>
-      <c r="U204">
-        <v>1.85</v>
       </c>
       <c r="V204">
         <v>1.95</v>
@@ -18684,19 +18684,19 @@
         <v>-1</v>
       </c>
       <c r="X204">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y204">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z204">
+        <v>-1</v>
+      </c>
+      <c r="AA204">
+        <v>0.825</v>
+      </c>
+      <c r="AB204">
         <v>0.75</v>
-      </c>
-      <c r="AA204">
-        <v>-1</v>
-      </c>
-      <c r="AB204">
-        <v>0.8500000000000001</v>
       </c>
       <c r="AC204">
         <v>-1</v>
@@ -18974,7 +18974,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>6126788</v>
+        <v>6126787</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18986,76 +18986,76 @@
         <v>45185.95833333334</v>
       </c>
       <c r="F208" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="G208" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I208">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J208" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K208">
-        <v>1.8</v>
+        <v>1.727</v>
       </c>
       <c r="L208">
+        <v>3.75</v>
+      </c>
+      <c r="M208">
+        <v>4.2</v>
+      </c>
+      <c r="N208">
+        <v>1.833</v>
+      </c>
+      <c r="O208">
         <v>3.5</v>
       </c>
-      <c r="M208">
-        <v>4.1</v>
-      </c>
-      <c r="N208">
-        <v>1.7</v>
-      </c>
-      <c r="O208">
-        <v>3.6</v>
-      </c>
       <c r="P208">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Q208">
         <v>-0.75</v>
       </c>
       <c r="R208">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="S208">
-        <v>1.875</v>
+        <v>1.7</v>
       </c>
       <c r="T208">
         <v>2.75</v>
       </c>
       <c r="U208">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V208">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W208">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X208">
         <v>-1</v>
       </c>
       <c r="Y208">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z208">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="AA208">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB208">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC208">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -19063,7 +19063,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>6126787</v>
+        <v>6126790</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19075,46 +19075,46 @@
         <v>45185.95833333334</v>
       </c>
       <c r="F209" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="G209" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H209">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I209">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J209" t="s">
         <v>55</v>
       </c>
       <c r="K209">
-        <v>1.727</v>
+        <v>1.5</v>
       </c>
       <c r="L209">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M209">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="N209">
-        <v>1.833</v>
+        <v>1.65</v>
       </c>
       <c r="O209">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P209">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="Q209">
         <v>-0.75</v>
       </c>
       <c r="R209">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="S209">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="T209">
         <v>2.75</v>
@@ -19126,7 +19126,7 @@
         <v>1.85</v>
       </c>
       <c r="W209">
-        <v>0.833</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X209">
         <v>-1</v>
@@ -19135,16 +19135,16 @@
         <v>-1</v>
       </c>
       <c r="Z209">
-        <v>0.55</v>
+        <v>0.425</v>
       </c>
       <c r="AA209">
         <v>-0.5</v>
       </c>
       <c r="AB209">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC209">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="210" spans="1:29">
@@ -19152,7 +19152,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>6126790</v>
+        <v>6126788</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19164,34 +19164,34 @@
         <v>45185.95833333334</v>
       </c>
       <c r="F210" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G210" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H210">
+        <v>0</v>
+      </c>
+      <c r="I210">
         <v>1</v>
       </c>
-      <c r="I210">
-        <v>0</v>
-      </c>
       <c r="J210" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K210">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="L210">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="M210">
-        <v>5.5</v>
+        <v>4.1</v>
       </c>
       <c r="N210">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="O210">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P210">
         <v>4.5</v>
@@ -19200,40 +19200,40 @@
         <v>-0.75</v>
       </c>
       <c r="R210">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S210">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T210">
         <v>2.75</v>
       </c>
       <c r="U210">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V210">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W210">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X210">
         <v>-1</v>
       </c>
       <c r="Y210">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z210">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA210">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB210">
         <v>-1</v>
       </c>
       <c r="AC210">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="211" spans="1:29">
@@ -20042,7 +20042,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>6126801</v>
+        <v>6387474</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20054,40 +20054,40 @@
         <v>45192.85416666666</v>
       </c>
       <c r="F220" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G220" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="H220">
         <v>2</v>
       </c>
       <c r="I220">
+        <v>1</v>
+      </c>
+      <c r="J220" t="s">
+        <v>55</v>
+      </c>
+      <c r="K220">
+        <v>1.666</v>
+      </c>
+      <c r="L220">
+        <v>3.75</v>
+      </c>
+      <c r="M220">
         <v>4</v>
       </c>
-      <c r="J220" t="s">
-        <v>53</v>
-      </c>
-      <c r="K220">
-        <v>1.909</v>
-      </c>
-      <c r="L220">
-        <v>3.4</v>
-      </c>
-      <c r="M220">
-        <v>3.4</v>
-      </c>
       <c r="N220">
-        <v>2</v>
+        <v>1.55</v>
       </c>
       <c r="O220">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="P220">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="Q220">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R220">
         <v>1.85</v>
@@ -20105,25 +20105,25 @@
         <v>1.975</v>
       </c>
       <c r="W220">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X220">
         <v>-1</v>
       </c>
       <c r="Y220">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z220">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA220">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
       <c r="AB220">
-        <v>0.825</v>
+        <v>0.4125</v>
       </c>
       <c r="AC220">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20220,7 +20220,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>6387474</v>
+        <v>6126801</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20232,40 +20232,40 @@
         <v>45192.85416666666</v>
       </c>
       <c r="F222" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G222" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="H222">
         <v>2</v>
       </c>
       <c r="I222">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J222" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K222">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="L222">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M222">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="N222">
-        <v>1.55</v>
+        <v>2</v>
       </c>
       <c r="O222">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="P222">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="Q222">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R222">
         <v>1.85</v>
@@ -20283,25 +20283,25 @@
         <v>1.975</v>
       </c>
       <c r="W222">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X222">
         <v>-1</v>
       </c>
       <c r="Y222">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z222">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA222">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
       <c r="AB222">
-        <v>0.4125</v>
+        <v>0.825</v>
       </c>
       <c r="AC222">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="223" spans="1:29">
@@ -21110,7 +21110,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>6418149</v>
+        <v>6413717</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21122,40 +21122,40 @@
         <v>45199.83333333334</v>
       </c>
       <c r="F232" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="G232" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I232">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J232" t="s">
         <v>55</v>
       </c>
       <c r="K232">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="L232">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="M232">
-        <v>5.75</v>
+        <v>6.6</v>
       </c>
       <c r="N232">
-        <v>1.5</v>
+        <v>1.333</v>
       </c>
       <c r="O232">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P232">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="Q232">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R232">
         <v>1.75</v>
@@ -21164,16 +21164,16 @@
         <v>1.95</v>
       </c>
       <c r="T232">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U232">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V232">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W232">
-        <v>0.5</v>
+        <v>0.333</v>
       </c>
       <c r="X232">
         <v>-1</v>
@@ -21182,16 +21182,16 @@
         <v>-1</v>
       </c>
       <c r="Z232">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="AA232">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB232">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC232">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="233" spans="1:29">
@@ -21199,7 +21199,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>6418147</v>
+        <v>6418149</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21211,13 +21211,13 @@
         <v>45199.83333333334</v>
       </c>
       <c r="F233" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G233" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="H233">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I233">
         <v>0</v>
@@ -21226,43 +21226,43 @@
         <v>55</v>
       </c>
       <c r="K233">
-        <v>1.833</v>
+        <v>1.45</v>
       </c>
       <c r="L233">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M233">
-        <v>3.9</v>
+        <v>5.75</v>
       </c>
       <c r="N233">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="O233">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="P233">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="Q233">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R233">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S233">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T233">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U233">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V233">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W233">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="X233">
         <v>-1</v>
@@ -21271,16 +21271,16 @@
         <v>-1</v>
       </c>
       <c r="Z233">
-        <v>0.825</v>
+        <v>0.75</v>
       </c>
       <c r="AA233">
         <v>-1</v>
       </c>
       <c r="AB233">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC233">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="234" spans="1:29">
@@ -21288,7 +21288,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>6413717</v>
+        <v>6418147</v>
       </c>
       <c r="C234" t="s">
         <v>28</v>
@@ -21300,58 +21300,58 @@
         <v>45199.83333333334</v>
       </c>
       <c r="F234" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G234" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H234">
         <v>3</v>
       </c>
       <c r="I234">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J234" t="s">
         <v>55</v>
       </c>
       <c r="K234">
-        <v>1.4</v>
+        <v>1.833</v>
       </c>
       <c r="L234">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M234">
-        <v>6.6</v>
+        <v>3.9</v>
       </c>
       <c r="N234">
-        <v>1.333</v>
+        <v>1.8</v>
       </c>
       <c r="O234">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="P234">
-        <v>8</v>
+        <v>4.2</v>
       </c>
       <c r="Q234">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R234">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S234">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T234">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U234">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V234">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W234">
-        <v>0.333</v>
+        <v>0.8</v>
       </c>
       <c r="X234">
         <v>-1</v>
@@ -21360,13 +21360,13 @@
         <v>-1</v>
       </c>
       <c r="Z234">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA234">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB234">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AC234">
         <v>-1</v>
@@ -22623,7 +22623,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>6503957</v>
+        <v>6488610</v>
       </c>
       <c r="C249" t="s">
         <v>28</v>
@@ -22635,40 +22635,40 @@
         <v>45206.85416666666</v>
       </c>
       <c r="F249" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G249" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H249">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I249">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J249" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K249">
-        <v>1.3</v>
+        <v>2.15</v>
       </c>
       <c r="L249">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="M249">
-        <v>9</v>
+        <v>3.3</v>
       </c>
       <c r="N249">
-        <v>1.363</v>
+        <v>2.6</v>
       </c>
       <c r="O249">
-        <v>5.5</v>
+        <v>3.3</v>
       </c>
       <c r="P249">
-        <v>7</v>
+        <v>2.625</v>
       </c>
       <c r="Q249">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R249">
         <v>1.875</v>
@@ -22677,22 +22677,22 @@
         <v>1.925</v>
       </c>
       <c r="T249">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U249">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V249">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W249">
         <v>-1</v>
       </c>
       <c r="X249">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Y249">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z249">
         <v>-1</v>
@@ -22704,7 +22704,7 @@
         <v>-1</v>
       </c>
       <c r="AC249">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="250" spans="1:29">
@@ -22712,7 +22712,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>6488610</v>
+        <v>6503957</v>
       </c>
       <c r="C250" t="s">
         <v>28</v>
@@ -22724,40 +22724,40 @@
         <v>45206.85416666666</v>
       </c>
       <c r="F250" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G250" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I250">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J250" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K250">
-        <v>2.15</v>
+        <v>1.3</v>
       </c>
       <c r="L250">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="M250">
-        <v>3.3</v>
+        <v>9</v>
       </c>
       <c r="N250">
-        <v>2.6</v>
+        <v>1.363</v>
       </c>
       <c r="O250">
-        <v>3.3</v>
+        <v>5.5</v>
       </c>
       <c r="P250">
-        <v>2.625</v>
+        <v>7</v>
       </c>
       <c r="Q250">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R250">
         <v>1.875</v>
@@ -22766,22 +22766,22 @@
         <v>1.925</v>
       </c>
       <c r="T250">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U250">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V250">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W250">
         <v>-1</v>
       </c>
       <c r="X250">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Y250">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z250">
         <v>-1</v>
@@ -22793,7 +22793,7 @@
         <v>-1</v>
       </c>
       <c r="AC250">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="251" spans="1:29">
@@ -22801,7 +22801,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>6492410</v>
+        <v>6418155</v>
       </c>
       <c r="C251" t="s">
         <v>28</v>
@@ -22813,40 +22813,40 @@
         <v>45206.875</v>
       </c>
       <c r="F251" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G251" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I251">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J251" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K251">
-        <v>2.9</v>
+        <v>1.85</v>
       </c>
       <c r="L251">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M251">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="N251">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="O251">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P251">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="Q251">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R251">
         <v>1.85</v>
@@ -22855,31 +22855,31 @@
         <v>1.95</v>
       </c>
       <c r="T251">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U251">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V251">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W251">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X251">
         <v>-1</v>
       </c>
       <c r="Y251">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z251">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA251">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB251">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AC251">
         <v>-1</v>
@@ -22890,7 +22890,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>6418155</v>
+        <v>6492410</v>
       </c>
       <c r="C252" t="s">
         <v>28</v>
@@ -22902,40 +22902,40 @@
         <v>45206.875</v>
       </c>
       <c r="F252" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G252" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="H252">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I252">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J252" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K252">
-        <v>1.85</v>
+        <v>2.9</v>
       </c>
       <c r="L252">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M252">
-        <v>4</v>
+        <v>2.375</v>
       </c>
       <c r="N252">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="O252">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P252">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="Q252">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R252">
         <v>1.85</v>
@@ -22944,31 +22944,31 @@
         <v>1.95</v>
       </c>
       <c r="T252">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U252">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V252">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W252">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X252">
         <v>-1</v>
       </c>
       <c r="Y252">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z252">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA252">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB252">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AC252">
         <v>-1</v>
@@ -23246,7 +23246,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>6492575</v>
+        <v>6507495</v>
       </c>
       <c r="C256" t="s">
         <v>28</v>
@@ -23258,55 +23258,55 @@
         <v>45206.97916666666</v>
       </c>
       <c r="F256" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G256" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H256">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I256">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J256" t="s">
         <v>53</v>
       </c>
       <c r="K256">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L256">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M256">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="N256">
-        <v>3.5</v>
+        <v>1.85</v>
       </c>
       <c r="O256">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P256">
-        <v>1.909</v>
+        <v>3.8</v>
       </c>
       <c r="Q256">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R256">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S256">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T256">
         <v>2.75</v>
       </c>
       <c r="U256">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="V256">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W256">
         <v>-1</v>
@@ -23315,19 +23315,19 @@
         <v>-1</v>
       </c>
       <c r="Y256">
-        <v>0.909</v>
+        <v>2.8</v>
       </c>
       <c r="Z256">
         <v>-1</v>
       </c>
       <c r="AA256">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB256">
-        <v>0.75</v>
+        <v>0.475</v>
       </c>
       <c r="AC256">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="257" spans="1:29">
@@ -23335,7 +23335,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>6507495</v>
+        <v>6492575</v>
       </c>
       <c r="C257" t="s">
         <v>28</v>
@@ -23347,56 +23347,56 @@
         <v>45206.97916666666</v>
       </c>
       <c r="F257" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G257" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H257">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I257">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J257" t="s">
         <v>53</v>
       </c>
       <c r="K257">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L257">
+        <v>3.4</v>
+      </c>
+      <c r="M257">
+        <v>2.3</v>
+      </c>
+      <c r="N257">
         <v>3.5</v>
       </c>
-      <c r="M257">
+      <c r="O257">
         <v>3.6</v>
       </c>
-      <c r="N257">
-        <v>1.85</v>
-      </c>
-      <c r="O257">
-        <v>3.75</v>
-      </c>
       <c r="P257">
-        <v>3.8</v>
+        <v>1.909</v>
       </c>
       <c r="Q257">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R257">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S257">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T257">
         <v>2.75</v>
       </c>
       <c r="U257">
+        <v>1.75</v>
+      </c>
+      <c r="V257">
         <v>1.95</v>
       </c>
-      <c r="V257">
-        <v>1.85</v>
-      </c>
       <c r="W257">
         <v>-1</v>
       </c>
@@ -23404,19 +23404,19 @@
         <v>-1</v>
       </c>
       <c r="Y257">
-        <v>2.8</v>
+        <v>0.909</v>
       </c>
       <c r="Z257">
         <v>-1</v>
       </c>
       <c r="AA257">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB257">
-        <v>0.475</v>
+        <v>0.75</v>
       </c>
       <c r="AC257">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="258" spans="1:29">
@@ -23958,7 +23958,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>6504580</v>
+        <v>6531323</v>
       </c>
       <c r="C264" t="s">
         <v>28</v>
@@ -23970,58 +23970,58 @@
         <v>45213.875</v>
       </c>
       <c r="F264" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G264" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H264">
         <v>2</v>
       </c>
       <c r="I264">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J264" t="s">
         <v>55</v>
       </c>
       <c r="K264">
-        <v>2.05</v>
+        <v>1.444</v>
       </c>
       <c r="L264">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M264">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="N264">
-        <v>2</v>
+        <v>1.45</v>
       </c>
       <c r="O264">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P264">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q264">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R264">
+        <v>1.975</v>
+      </c>
+      <c r="S264">
         <v>1.825</v>
-      </c>
-      <c r="S264">
-        <v>1.975</v>
       </c>
       <c r="T264">
         <v>3</v>
       </c>
       <c r="U264">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V264">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W264">
-        <v>1</v>
+        <v>0.45</v>
       </c>
       <c r="X264">
         <v>-1</v>
@@ -24030,16 +24030,16 @@
         <v>-1</v>
       </c>
       <c r="Z264">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA264">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB264">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC264">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="265" spans="1:29">
@@ -24047,7 +24047,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>6531323</v>
+        <v>6504580</v>
       </c>
       <c r="C265" t="s">
         <v>28</v>
@@ -24059,58 +24059,58 @@
         <v>45213.875</v>
       </c>
       <c r="F265" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G265" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H265">
         <v>2</v>
       </c>
       <c r="I265">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J265" t="s">
         <v>55</v>
       </c>
       <c r="K265">
-        <v>1.444</v>
+        <v>2.05</v>
       </c>
       <c r="L265">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M265">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="N265">
-        <v>1.45</v>
+        <v>2</v>
       </c>
       <c r="O265">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P265">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q265">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R265">
+        <v>1.825</v>
+      </c>
+      <c r="S265">
         <v>1.975</v>
-      </c>
-      <c r="S265">
-        <v>1.825</v>
       </c>
       <c r="T265">
         <v>3</v>
       </c>
       <c r="U265">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V265">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W265">
-        <v>0.45</v>
+        <v>1</v>
       </c>
       <c r="X265">
         <v>-1</v>
@@ -24119,16 +24119,16 @@
         <v>-1</v>
       </c>
       <c r="Z265">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA265">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB265">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC265">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="266" spans="1:29">
@@ -24225,7 +24225,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>6492480</v>
+        <v>6504695</v>
       </c>
       <c r="C267" t="s">
         <v>28</v>
@@ -24237,55 +24237,55 @@
         <v>45213.95833333334</v>
       </c>
       <c r="F267" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="G267" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H267">
+        <v>0</v>
+      </c>
+      <c r="I267">
         <v>1</v>
-      </c>
-      <c r="I267">
-        <v>2</v>
       </c>
       <c r="J267" t="s">
         <v>53</v>
       </c>
       <c r="K267">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="L267">
+        <v>3.4</v>
+      </c>
+      <c r="M267">
+        <v>2.6</v>
+      </c>
+      <c r="N267">
+        <v>3.8</v>
+      </c>
+      <c r="O267">
         <v>3.5</v>
       </c>
-      <c r="M267">
-        <v>3.2</v>
-      </c>
-      <c r="N267">
-        <v>1.727</v>
-      </c>
-      <c r="O267">
-        <v>3.75</v>
-      </c>
       <c r="P267">
-        <v>3.75</v>
+        <v>1.8</v>
       </c>
       <c r="Q267">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R267">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S267">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T267">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U267">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V267">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W267">
         <v>-1</v>
@@ -24294,19 +24294,19 @@
         <v>-1</v>
       </c>
       <c r="Y267">
-        <v>2.75</v>
+        <v>0.8</v>
       </c>
       <c r="Z267">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA267">
-        <v>0.8500000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AB267">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC267">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="268" spans="1:29">
@@ -24403,7 +24403,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>6504695</v>
+        <v>6492480</v>
       </c>
       <c r="C269" t="s">
         <v>28</v>
@@ -24415,55 +24415,55 @@
         <v>45213.95833333334</v>
       </c>
       <c r="F269" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="G269" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I269">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J269" t="s">
         <v>53</v>
       </c>
       <c r="K269">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="L269">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M269">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="N269">
-        <v>3.8</v>
+        <v>1.727</v>
       </c>
       <c r="O269">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P269">
+        <v>3.75</v>
+      </c>
+      <c r="Q269">
+        <v>-0.75</v>
+      </c>
+      <c r="R269">
+        <v>1.95</v>
+      </c>
+      <c r="S269">
+        <v>1.85</v>
+      </c>
+      <c r="T269">
+        <v>2.75</v>
+      </c>
+      <c r="U269">
         <v>1.8</v>
       </c>
-      <c r="Q269">
-        <v>0.75</v>
-      </c>
-      <c r="R269">
-        <v>1.8</v>
-      </c>
-      <c r="S269">
-        <v>2</v>
-      </c>
-      <c r="T269">
-        <v>2.5</v>
-      </c>
-      <c r="U269">
-        <v>1.875</v>
-      </c>
       <c r="V269">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W269">
         <v>-1</v>
@@ -24472,19 +24472,19 @@
         <v>-1</v>
       </c>
       <c r="Y269">
-        <v>0.8</v>
+        <v>2.75</v>
       </c>
       <c r="Z269">
+        <v>-1</v>
+      </c>
+      <c r="AA269">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB269">
+        <v>0.4</v>
+      </c>
+      <c r="AC269">
         <v>-0.5</v>
-      </c>
-      <c r="AA269">
-        <v>0.5</v>
-      </c>
-      <c r="AB269">
-        <v>-1</v>
-      </c>
-      <c r="AC269">
-        <v>0.925</v>
       </c>
     </row>
     <row r="270" spans="1:29">

--- a/USA USL Championship/USA USL Championship.xlsx
+++ b/USA USL Championship/USA USL Championship.xlsx
@@ -109,10 +109,10 @@
     <t>Colorado Switchbacks FC</t>
   </si>
   <si>
-    <t>Hartford Athletic</t>
+    <t>Pittsburgh Riverhounds</t>
   </si>
   <si>
-    <t>Pittsburgh Riverhounds</t>
+    <t>Hartford Athletic</t>
   </si>
   <si>
     <t>Tampa Bay Rowdies</t>
@@ -121,16 +121,16 @@
     <t>Memphis 901 FC</t>
   </si>
   <si>
+    <t>San Antonio FC</t>
+  </si>
+  <si>
     <t>New Mexico United</t>
   </si>
   <si>
-    <t>San Antonio FC</t>
+    <t>Orange County SC</t>
   </si>
   <si>
     <t>Monterey Bay FC</t>
-  </si>
-  <si>
-    <t>Orange County SC</t>
   </si>
   <si>
     <t>Loudoun United FC</t>
@@ -142,10 +142,10 @@
     <t>Indy Eleven</t>
   </si>
   <si>
-    <t>Rio Grande Valley FC Toros</t>
+    <t>Louisville City FC</t>
   </si>
   <si>
-    <t>Louisville City FC</t>
+    <t>Rio Grande Valley FC Toros</t>
   </si>
   <si>
     <t>Las Vegas Lights FC</t>
@@ -178,10 +178,10 @@
     <t>A</t>
   </si>
   <si>
-    <t>D</t>
+    <t>H</t>
   </si>
   <si>
-    <t>H</t>
+    <t>D</t>
   </si>
 </sst>
 </file>
@@ -818,7 +818,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6126581</v>
+        <v>6126586</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -833,10 +833,10 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -845,52 +845,52 @@
         <v>54</v>
       </c>
       <c r="K4">
-        <v>3.5</v>
+        <v>1.7</v>
       </c>
       <c r="L4">
         <v>3.6</v>
       </c>
       <c r="M4">
-        <v>1.833</v>
+        <v>4.2</v>
       </c>
       <c r="N4">
-        <v>3.4</v>
+        <v>1.85</v>
       </c>
       <c r="O4">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P4">
-        <v>1.85</v>
+        <v>3.8</v>
       </c>
       <c r="Q4">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R4">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S4">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T4">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U4">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="V4">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W4">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X4">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AA4">
         <v>-1</v>
@@ -899,7 +899,7 @@
         <v>-1</v>
       </c>
       <c r="AC4">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -907,7 +907,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6126586</v>
+        <v>6126581</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -922,10 +922,10 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -934,61 +934,61 @@
         <v>55</v>
       </c>
       <c r="K5">
-        <v>1.7</v>
+        <v>3.5</v>
       </c>
       <c r="L5">
         <v>3.6</v>
       </c>
       <c r="M5">
-        <v>4.2</v>
+        <v>1.833</v>
       </c>
       <c r="N5">
+        <v>3.4</v>
+      </c>
+      <c r="O5">
+        <v>3.6</v>
+      </c>
+      <c r="P5">
         <v>1.85</v>
       </c>
-      <c r="O5">
-        <v>3.3</v>
-      </c>
-      <c r="P5">
-        <v>3.8</v>
-      </c>
       <c r="Q5">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R5">
+        <v>1.9</v>
+      </c>
+      <c r="S5">
+        <v>1.9</v>
+      </c>
+      <c r="T5">
+        <v>2.75</v>
+      </c>
+      <c r="U5">
+        <v>1.875</v>
+      </c>
+      <c r="V5">
         <v>1.925</v>
       </c>
-      <c r="S5">
-        <v>1.875</v>
-      </c>
-      <c r="T5">
-        <v>2.25</v>
-      </c>
-      <c r="U5">
-        <v>1.75</v>
-      </c>
-      <c r="V5">
-        <v>1.95</v>
-      </c>
       <c r="W5">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X5">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y5">
         <v>-1</v>
       </c>
       <c r="Z5">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA5">
+        <v>-1</v>
+      </c>
+      <c r="AB5">
+        <v>-1</v>
+      </c>
+      <c r="AC5">
         <v>0.925</v>
-      </c>
-      <c r="AA5">
-        <v>-1</v>
-      </c>
-      <c r="AB5">
-        <v>-1</v>
-      </c>
-      <c r="AC5">
-        <v>0.95</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1020,7 +1020,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K6">
         <v>2.25</v>
@@ -1109,7 +1109,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -1174,7 +1174,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6126584</v>
+        <v>6126587</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1189,73 +1189,73 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K8">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="L8">
         <v>3.4</v>
       </c>
       <c r="M8">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="N8">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="O8">
         <v>3.4</v>
       </c>
       <c r="P8">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q8">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R8">
+        <v>1.85</v>
+      </c>
+      <c r="S8">
         <v>1.95</v>
       </c>
-      <c r="S8">
-        <v>1.85</v>
-      </c>
       <c r="T8">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U8">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V8">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W8">
         <v>-1</v>
       </c>
       <c r="X8">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y8">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z8">
         <v>-1</v>
       </c>
       <c r="AA8">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB8">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC8">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1263,7 +1263,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6126587</v>
+        <v>6126584</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1278,73 +1278,73 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K9">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="L9">
         <v>3.4</v>
       </c>
       <c r="M9">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="N9">
-        <v>1.8</v>
+        <v>2.15</v>
       </c>
       <c r="O9">
         <v>3.4</v>
       </c>
       <c r="P9">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="Q9">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R9">
+        <v>1.95</v>
+      </c>
+      <c r="S9">
         <v>1.85</v>
       </c>
-      <c r="S9">
-        <v>1.95</v>
-      </c>
       <c r="T9">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U9">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V9">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W9">
         <v>-1</v>
       </c>
       <c r="X9">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y9">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z9">
         <v>-1</v>
       </c>
       <c r="AA9">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB9">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC9">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1352,7 +1352,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6126583</v>
+        <v>6126585</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1367,55 +1367,55 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K10">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L10">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M10">
+        <v>3.2</v>
+      </c>
+      <c r="N10">
+        <v>2.1</v>
+      </c>
+      <c r="O10">
+        <v>3.1</v>
+      </c>
+      <c r="P10">
         <v>3.3</v>
       </c>
-      <c r="N10">
-        <v>1.615</v>
-      </c>
-      <c r="O10">
-        <v>4</v>
-      </c>
-      <c r="P10">
-        <v>4.2</v>
-      </c>
       <c r="Q10">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R10">
+        <v>1.8</v>
+      </c>
+      <c r="S10">
+        <v>2</v>
+      </c>
+      <c r="T10">
+        <v>2.25</v>
+      </c>
+      <c r="U10">
+        <v>1.85</v>
+      </c>
+      <c r="V10">
         <v>1.95</v>
       </c>
-      <c r="S10">
-        <v>1.75</v>
-      </c>
-      <c r="T10">
-        <v>2.75</v>
-      </c>
-      <c r="U10">
-        <v>1.95</v>
-      </c>
-      <c r="V10">
-        <v>1.85</v>
-      </c>
       <c r="W10">
-        <v>0.615</v>
+        <v>1.1</v>
       </c>
       <c r="X10">
         <v>-1</v>
@@ -1424,16 +1424,16 @@
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AA10">
         <v>-1</v>
       </c>
       <c r="AB10">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AC10">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1441,7 +1441,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6126585</v>
+        <v>6126583</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1456,55 +1456,55 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K11">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="L11">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M11">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="N11">
-        <v>2.1</v>
+        <v>1.615</v>
       </c>
       <c r="O11">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P11">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="Q11">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R11">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S11">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T11">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U11">
+        <v>1.95</v>
+      </c>
+      <c r="V11">
         <v>1.85</v>
       </c>
-      <c r="V11">
-        <v>1.95</v>
-      </c>
       <c r="W11">
-        <v>1.1</v>
+        <v>0.615</v>
       </c>
       <c r="X11">
         <v>-1</v>
@@ -1513,16 +1513,16 @@
         <v>-1</v>
       </c>
       <c r="Z11">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AA11">
         <v>-1</v>
       </c>
       <c r="AB11">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC11">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1554,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K12">
         <v>1.8</v>
@@ -1643,7 +1643,7 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K13">
         <v>2.4</v>
@@ -1732,7 +1732,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K14">
         <v>2.3</v>
@@ -1812,7 +1812,7 @@
         <v>41</v>
       </c>
       <c r="G15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -1821,7 +1821,7 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K15">
         <v>1.666</v>
@@ -1898,7 +1898,7 @@
         <v>45087.83333333334</v>
       </c>
       <c r="F16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G16" t="s">
         <v>29</v>
@@ -1910,7 +1910,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K16">
         <v>1.75</v>
@@ -1990,7 +1990,7 @@
         <v>33</v>
       </c>
       <c r="G17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H17">
         <v>3</v>
@@ -1999,7 +1999,7 @@
         <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K17">
         <v>1.65</v>
@@ -2064,7 +2064,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6126599</v>
+        <v>6126596</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2079,70 +2079,70 @@
         <v>42</v>
       </c>
       <c r="G18" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="H18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I18">
         <v>3</v>
       </c>
       <c r="J18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K18">
-        <v>2.05</v>
+        <v>1.7</v>
       </c>
       <c r="L18">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M18">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="N18">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="O18">
         <v>3.4</v>
       </c>
       <c r="P18">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q18">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R18">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S18">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T18">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U18">
+        <v>1.9</v>
+      </c>
+      <c r="V18">
+        <v>1.9</v>
+      </c>
+      <c r="W18">
+        <v>-1</v>
+      </c>
+      <c r="X18">
+        <v>-1</v>
+      </c>
+      <c r="Y18">
         <v>1.8</v>
       </c>
-      <c r="V18">
-        <v>2</v>
-      </c>
-      <c r="W18">
-        <v>-1</v>
-      </c>
-      <c r="X18">
-        <v>2.4</v>
-      </c>
-      <c r="Y18">
-        <v>-1</v>
-      </c>
       <c r="Z18">
         <v>-1</v>
       </c>
       <c r="AA18">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB18">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC18">
         <v>-1</v>
@@ -2153,7 +2153,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6126596</v>
+        <v>6126599</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2168,70 +2168,70 @@
         <v>43</v>
       </c>
       <c r="G19" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I19">
         <v>3</v>
       </c>
       <c r="J19" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K19">
-        <v>1.7</v>
+        <v>2.05</v>
       </c>
       <c r="L19">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M19">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="N19">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="O19">
         <v>3.4</v>
       </c>
       <c r="P19">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="Q19">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R19">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S19">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T19">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U19">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V19">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W19">
         <v>-1</v>
       </c>
       <c r="X19">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y19">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z19">
         <v>-1</v>
       </c>
       <c r="AA19">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB19">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC19">
         <v>-1</v>
@@ -2242,7 +2242,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6126600</v>
+        <v>6126593</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2254,73 +2254,73 @@
         <v>45087.91666666666</v>
       </c>
       <c r="F20" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J20" t="s">
         <v>54</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="L20">
         <v>3.4</v>
       </c>
       <c r="M20">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="N20">
-        <v>1.65</v>
+        <v>2.1</v>
       </c>
       <c r="O20">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P20">
-        <v>4.2</v>
+        <v>2.875</v>
       </c>
       <c r="Q20">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R20">
+        <v>1.925</v>
+      </c>
+      <c r="S20">
+        <v>1.875</v>
+      </c>
+      <c r="T20">
+        <v>2.75</v>
+      </c>
+      <c r="U20">
+        <v>1.75</v>
+      </c>
+      <c r="V20">
         <v>1.95</v>
       </c>
-      <c r="S20">
-        <v>1.85</v>
-      </c>
-      <c r="T20">
-        <v>2.5</v>
-      </c>
-      <c r="U20">
-        <v>1.775</v>
-      </c>
-      <c r="V20">
-        <v>1.925</v>
-      </c>
       <c r="W20">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X20">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y20">
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA20">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB20">
-        <v>0.7749999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AC20">
         <v>-1</v>
@@ -2331,7 +2331,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6126593</v>
+        <v>6126600</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2343,73 +2343,73 @@
         <v>45087.91666666666</v>
       </c>
       <c r="F21" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G21" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J21" t="s">
         <v>55</v>
       </c>
       <c r="K21">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>3.4</v>
       </c>
       <c r="M21">
+        <v>3.1</v>
+      </c>
+      <c r="N21">
+        <v>1.65</v>
+      </c>
+      <c r="O21">
         <v>3.6</v>
       </c>
-      <c r="N21">
-        <v>2.1</v>
-      </c>
-      <c r="O21">
-        <v>3.5</v>
-      </c>
       <c r="P21">
-        <v>2.875</v>
+        <v>4.2</v>
       </c>
       <c r="Q21">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R21">
+        <v>1.95</v>
+      </c>
+      <c r="S21">
+        <v>1.85</v>
+      </c>
+      <c r="T21">
+        <v>2.5</v>
+      </c>
+      <c r="U21">
+        <v>1.775</v>
+      </c>
+      <c r="V21">
         <v>1.925</v>
       </c>
-      <c r="S21">
-        <v>1.875</v>
-      </c>
-      <c r="T21">
-        <v>2.75</v>
-      </c>
-      <c r="U21">
-        <v>1.75</v>
-      </c>
-      <c r="V21">
-        <v>1.95</v>
-      </c>
       <c r="W21">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X21">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y21">
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA21">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB21">
-        <v>0.75</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC21">
         <v>-1</v>
@@ -2435,7 +2435,7 @@
         <v>44</v>
       </c>
       <c r="G22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -2533,7 +2533,7 @@
         <v>2</v>
       </c>
       <c r="J23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K23">
         <v>1.95</v>
@@ -2610,7 +2610,7 @@
         <v>45091.83333333334</v>
       </c>
       <c r="F24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G24" t="s">
         <v>52</v>
@@ -2711,7 +2711,7 @@
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K25">
         <v>1.3</v>
@@ -2791,7 +2791,7 @@
         <v>40</v>
       </c>
       <c r="G26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H26">
         <v>2</v>
@@ -2800,7 +2800,7 @@
         <v>2</v>
       </c>
       <c r="J26" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K26">
         <v>2.15</v>
@@ -2877,7 +2877,7 @@
         <v>45094.83333333334</v>
       </c>
       <c r="F27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G27" t="s">
         <v>29</v>
@@ -3067,7 +3067,7 @@
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K29">
         <v>1.8</v>
@@ -3147,7 +3147,7 @@
         <v>49</v>
       </c>
       <c r="G30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -3245,7 +3245,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K31">
         <v>1.65</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K32">
         <v>1.6</v>
@@ -3411,10 +3411,10 @@
         <v>45094.91666666666</v>
       </c>
       <c r="F33" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G33" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H33">
         <v>2</v>
@@ -3423,7 +3423,7 @@
         <v>2</v>
       </c>
       <c r="J33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K33">
         <v>1.8</v>
@@ -3512,7 +3512,7 @@
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K34">
         <v>1.8</v>
@@ -3592,7 +3592,7 @@
         <v>50</v>
       </c>
       <c r="G35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -3601,7 +3601,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K35">
         <v>2.1</v>
@@ -3681,7 +3681,7 @@
         <v>45</v>
       </c>
       <c r="G36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H36">
         <v>2</v>
@@ -3690,7 +3690,7 @@
         <v>2</v>
       </c>
       <c r="J36" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K36">
         <v>2.9</v>
@@ -3770,7 +3770,7 @@
         <v>51</v>
       </c>
       <c r="G37" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -3844,7 +3844,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6126616</v>
+        <v>6126617</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3856,58 +3856,58 @@
         <v>45098.875</v>
       </c>
       <c r="F38" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="G38" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I38">
         <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K38">
-        <v>1.8</v>
+        <v>1.615</v>
       </c>
       <c r="L38">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M38">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="N38">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="O38">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P38">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="Q38">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R38">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S38">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T38">
         <v>3</v>
       </c>
       <c r="U38">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V38">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="W38">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="X38">
         <v>-1</v>
@@ -3916,16 +3916,16 @@
         <v>-1</v>
       </c>
       <c r="Z38">
+        <v>0.825</v>
+      </c>
+      <c r="AA38">
+        <v>-1</v>
+      </c>
+      <c r="AB38">
         <v>0.95</v>
       </c>
-      <c r="AA38">
-        <v>-1</v>
-      </c>
-      <c r="AB38">
-        <v>-1</v>
-      </c>
       <c r="AC38">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3945,7 +3945,7 @@
         <v>45098.875</v>
       </c>
       <c r="F39" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G39" t="s">
         <v>30</v>
@@ -3957,7 +3957,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K39">
         <v>2.1</v>
@@ -4022,7 +4022,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6126617</v>
+        <v>6126616</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4034,58 +4034,58 @@
         <v>45098.875</v>
       </c>
       <c r="F40" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="G40" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H40">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I40">
         <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K40">
-        <v>1.615</v>
+        <v>1.8</v>
       </c>
       <c r="L40">
+        <v>3.5</v>
+      </c>
+      <c r="M40">
+        <v>3.6</v>
+      </c>
+      <c r="N40">
+        <v>1.7</v>
+      </c>
+      <c r="O40">
+        <v>3.8</v>
+      </c>
+      <c r="P40">
         <v>3.75</v>
       </c>
-      <c r="M40">
-        <v>4.333</v>
-      </c>
-      <c r="N40">
-        <v>1.5</v>
-      </c>
-      <c r="O40">
-        <v>4.2</v>
-      </c>
-      <c r="P40">
-        <v>4.75</v>
-      </c>
       <c r="Q40">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R40">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S40">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T40">
         <v>3</v>
       </c>
       <c r="U40">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V40">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="W40">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="X40">
         <v>-1</v>
@@ -4094,16 +4094,16 @@
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AA40">
         <v>-1</v>
       </c>
       <c r="AB40">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC40">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4123,7 +4123,7 @@
         <v>45098.91666666666</v>
       </c>
       <c r="F41" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G41" t="s">
         <v>45</v>
@@ -4200,7 +4200,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6126628</v>
+        <v>6126621</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4215,73 +4215,73 @@
         <v>32</v>
       </c>
       <c r="G42" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J42" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K42">
-        <v>1.727</v>
+        <v>2.3</v>
       </c>
       <c r="L42">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M42">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="N42">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="O42">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P42">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="Q42">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R42">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S42">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T42">
         <v>2.75</v>
       </c>
       <c r="U42">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V42">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W42">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X42">
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z42">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA42">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB42">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC42">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4289,7 +4289,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6126622</v>
+        <v>6126628</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4301,46 +4301,46 @@
         <v>45101.83333333334</v>
       </c>
       <c r="F43" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G43" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H43">
         <v>2</v>
       </c>
       <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43" t="s">
+        <v>54</v>
+      </c>
+      <c r="K43">
+        <v>1.727</v>
+      </c>
+      <c r="L43">
+        <v>3.5</v>
+      </c>
+      <c r="M43">
         <v>4</v>
       </c>
-      <c r="J43" t="s">
-        <v>53</v>
-      </c>
-      <c r="K43">
-        <v>3.4</v>
-      </c>
-      <c r="L43">
-        <v>3.4</v>
-      </c>
-      <c r="M43">
+      <c r="N43">
         <v>1.909</v>
-      </c>
-      <c r="N43">
-        <v>3.75</v>
       </c>
       <c r="O43">
         <v>3.5</v>
       </c>
       <c r="P43">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q43">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R43">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S43">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T43">
         <v>2.75</v>
@@ -4349,28 +4349,28 @@
         <v>1.925</v>
       </c>
       <c r="V43">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W43">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X43">
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z43">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA43">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB43">
-        <v>0.925</v>
+        <v>0.4625</v>
       </c>
       <c r="AC43">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4378,7 +4378,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6126621</v>
+        <v>6126622</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4390,55 +4390,55 @@
         <v>45101.83333333334</v>
       </c>
       <c r="F44" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G44" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J44" t="s">
         <v>53</v>
       </c>
       <c r="K44">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="L44">
         <v>3.4</v>
       </c>
       <c r="M44">
-        <v>2.625</v>
+        <v>1.909</v>
       </c>
       <c r="N44">
-        <v>2.4</v>
+        <v>3.75</v>
       </c>
       <c r="O44">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P44">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="Q44">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R44">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S44">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T44">
         <v>2.75</v>
       </c>
       <c r="U44">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V44">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W44">
         <v>-1</v>
@@ -4447,19 +4447,19 @@
         <v>-1</v>
       </c>
       <c r="Y44">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="Z44">
         <v>-1</v>
       </c>
       <c r="AA44">
+        <v>0.825</v>
+      </c>
+      <c r="AB44">
         <v>0.925</v>
       </c>
-      <c r="AB44">
-        <v>-1</v>
-      </c>
       <c r="AC44">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4482,7 +4482,7 @@
         <v>52</v>
       </c>
       <c r="G45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -4568,7 +4568,7 @@
         <v>45101.875</v>
       </c>
       <c r="F46" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G46" t="s">
         <v>44</v>
@@ -4580,7 +4580,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K46">
         <v>1.615</v>
@@ -4669,7 +4669,7 @@
         <v>2</v>
       </c>
       <c r="J47" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K47">
         <v>1.727</v>
@@ -4746,7 +4746,7 @@
         <v>45101.91666666666</v>
       </c>
       <c r="F48" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G48" t="s">
         <v>30</v>
@@ -4758,7 +4758,7 @@
         <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K48">
         <v>2.1</v>
@@ -4835,7 +4835,7 @@
         <v>45101.95833333334</v>
       </c>
       <c r="F49" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G49" t="s">
         <v>47</v>
@@ -4847,7 +4847,7 @@
         <v>0</v>
       </c>
       <c r="J49" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K49">
         <v>1.833</v>
@@ -4936,7 +4936,7 @@
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K50">
         <v>1.833</v>
@@ -5016,7 +5016,7 @@
         <v>51</v>
       </c>
       <c r="G51" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H51">
         <v>3</v>
@@ -5025,7 +5025,7 @@
         <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K51">
         <v>1.75</v>
@@ -5105,7 +5105,7 @@
         <v>50</v>
       </c>
       <c r="G52" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H52">
         <v>0</v>
@@ -5203,7 +5203,7 @@
         <v>0</v>
       </c>
       <c r="J53" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K53">
         <v>1.571</v>
@@ -5292,7 +5292,7 @@
         <v>2</v>
       </c>
       <c r="J54" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K54">
         <v>2.1</v>
@@ -5381,7 +5381,7 @@
         <v>2</v>
       </c>
       <c r="J55" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K55">
         <v>2.25</v>
@@ -5458,10 +5458,10 @@
         <v>45108.83333333334</v>
       </c>
       <c r="F56" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G56" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -5470,7 +5470,7 @@
         <v>0</v>
       </c>
       <c r="J56" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K56">
         <v>1.909</v>
@@ -5535,7 +5535,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6126641</v>
+        <v>6126633</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5547,52 +5547,52 @@
         <v>45108.91666666666</v>
       </c>
       <c r="F57" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G57" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H57">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K57">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L57">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M57">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="N57">
         <v>1.666</v>
       </c>
       <c r="O57">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P57">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q57">
         <v>-0.75</v>
       </c>
       <c r="R57">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S57">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T57">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U57">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="V57">
         <v>1.95</v>
@@ -5607,16 +5607,16 @@
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA57">
         <v>-1</v>
       </c>
       <c r="AB57">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC57">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5624,7 +5624,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6126633</v>
+        <v>6126641</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5636,52 +5636,52 @@
         <v>45108.91666666666</v>
       </c>
       <c r="F58" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K58">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="L58">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M58">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="N58">
         <v>1.666</v>
       </c>
       <c r="O58">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P58">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q58">
         <v>-0.75</v>
       </c>
       <c r="R58">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S58">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T58">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U58">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="V58">
         <v>1.95</v>
@@ -5696,16 +5696,16 @@
         <v>-1</v>
       </c>
       <c r="Z58">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA58">
         <v>-1</v>
       </c>
       <c r="AB58">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC58">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5728,7 +5728,7 @@
         <v>46</v>
       </c>
       <c r="G59" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -5814,10 +5814,10 @@
         <v>45108.95833333334</v>
       </c>
       <c r="F60" t="s">
+        <v>37</v>
+      </c>
+      <c r="G60" t="s">
         <v>38</v>
-      </c>
-      <c r="G60" t="s">
-        <v>37</v>
       </c>
       <c r="H60">
         <v>3</v>
@@ -5826,7 +5826,7 @@
         <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K60">
         <v>2.15</v>
@@ -5980,7 +5980,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6126640</v>
+        <v>6126638</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5992,76 +5992,76 @@
         <v>45109</v>
       </c>
       <c r="F62" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="G62" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62" t="s">
         <v>54</v>
       </c>
       <c r="K62">
-        <v>1.571</v>
+        <v>2.15</v>
       </c>
       <c r="L62">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M62">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="N62">
-        <v>1.533</v>
+        <v>2.2</v>
       </c>
       <c r="O62">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P62">
-        <v>5.25</v>
+        <v>2.7</v>
       </c>
       <c r="Q62">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R62">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S62">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T62">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U62">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V62">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W62">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X62">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y62">
         <v>-1</v>
       </c>
       <c r="Z62">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA62">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB62">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC62">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6069,7 +6069,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6126638</v>
+        <v>6126640</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6081,76 +6081,76 @@
         <v>45109</v>
       </c>
       <c r="F63" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G63" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H63">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" t="s">
         <v>55</v>
       </c>
       <c r="K63">
-        <v>2.15</v>
+        <v>1.571</v>
       </c>
       <c r="L63">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M63">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="N63">
-        <v>2.2</v>
+        <v>1.533</v>
       </c>
       <c r="O63">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P63">
-        <v>2.7</v>
+        <v>5.25</v>
       </c>
       <c r="Q63">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R63">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S63">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T63">
+        <v>2.5</v>
+      </c>
+      <c r="U63">
+        <v>1.875</v>
+      </c>
+      <c r="V63">
+        <v>1.925</v>
+      </c>
+      <c r="W63">
+        <v>-1</v>
+      </c>
+      <c r="X63">
         <v>3</v>
       </c>
-      <c r="U63">
-        <v>1.8</v>
-      </c>
-      <c r="V63">
-        <v>2</v>
-      </c>
-      <c r="W63">
-        <v>1.2</v>
-      </c>
-      <c r="X63">
-        <v>-1</v>
-      </c>
       <c r="Y63">
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA63">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB63">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC63">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6173,7 +6173,7 @@
         <v>39</v>
       </c>
       <c r="G64" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H64">
         <v>2</v>
@@ -6182,7 +6182,7 @@
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K64">
         <v>2.1</v>
@@ -6247,7 +6247,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6126643</v>
+        <v>6126644</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6259,73 +6259,73 @@
         <v>45111.91666666666</v>
       </c>
       <c r="F65" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G65" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H65">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I65">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J65" t="s">
         <v>55</v>
       </c>
       <c r="K65">
-        <v>2</v>
+        <v>2.625</v>
       </c>
       <c r="L65">
+        <v>3.5</v>
+      </c>
+      <c r="M65">
+        <v>2.3</v>
+      </c>
+      <c r="N65">
+        <v>2.3</v>
+      </c>
+      <c r="O65">
         <v>3.6</v>
       </c>
-      <c r="M65">
-        <v>3.1</v>
-      </c>
-      <c r="N65">
-        <v>1.727</v>
-      </c>
-      <c r="O65">
-        <v>3.8</v>
-      </c>
       <c r="P65">
-        <v>3.8</v>
+        <v>2.55</v>
       </c>
       <c r="Q65">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R65">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S65">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T65">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U65">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V65">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W65">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X65">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y65">
         <v>-1</v>
       </c>
       <c r="Z65">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA65">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB65">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC65">
         <v>-1</v>
@@ -6336,7 +6336,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6126644</v>
+        <v>6126643</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6348,73 +6348,73 @@
         <v>45111.91666666666</v>
       </c>
       <c r="F66" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G66" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I66">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J66" t="s">
         <v>54</v>
       </c>
       <c r="K66">
-        <v>2.625</v>
+        <v>2</v>
       </c>
       <c r="L66">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M66">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="N66">
-        <v>2.3</v>
+        <v>1.727</v>
       </c>
       <c r="O66">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P66">
-        <v>2.55</v>
+        <v>3.8</v>
       </c>
       <c r="Q66">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R66">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S66">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T66">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U66">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V66">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W66">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X66">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y66">
         <v>-1</v>
       </c>
       <c r="Z66">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA66">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB66">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC66">
         <v>-1</v>
@@ -6440,7 +6440,7 @@
         <v>34</v>
       </c>
       <c r="G67" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -6514,7 +6514,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6126647</v>
+        <v>6126655</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6526,76 +6526,76 @@
         <v>45115.83333333334</v>
       </c>
       <c r="F68" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G68" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68">
         <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K68">
-        <v>1.909</v>
+        <v>2.7</v>
       </c>
       <c r="L68">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M68">
-        <v>3.5</v>
+        <v>2.375</v>
       </c>
       <c r="N68">
-        <v>1.666</v>
+        <v>3</v>
       </c>
       <c r="O68">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P68">
-        <v>4.5</v>
+        <v>2.2</v>
       </c>
       <c r="Q68">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R68">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S68">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T68">
         <v>2.75</v>
       </c>
       <c r="U68">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V68">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W68">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X68">
         <v>-1</v>
       </c>
       <c r="Y68">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z68">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA68">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB68">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC68">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6603,7 +6603,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6126646</v>
+        <v>6126647</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6615,76 +6615,76 @@
         <v>45115.83333333334</v>
       </c>
       <c r="F69" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G69" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="H69">
         <v>0</v>
       </c>
       <c r="I69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J69" t="s">
         <v>53</v>
       </c>
       <c r="K69">
-        <v>3.25</v>
+        <v>1.909</v>
       </c>
       <c r="L69">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M69">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="N69">
-        <v>3</v>
+        <v>1.666</v>
       </c>
       <c r="O69">
+        <v>3.6</v>
+      </c>
+      <c r="P69">
+        <v>4.5</v>
+      </c>
+      <c r="Q69">
+        <v>-0.75</v>
+      </c>
+      <c r="R69">
+        <v>1.9</v>
+      </c>
+      <c r="S69">
+        <v>1.9</v>
+      </c>
+      <c r="T69">
+        <v>2.75</v>
+      </c>
+      <c r="U69">
+        <v>1.85</v>
+      </c>
+      <c r="V69">
+        <v>1.95</v>
+      </c>
+      <c r="W69">
+        <v>-1</v>
+      </c>
+      <c r="X69">
+        <v>-1</v>
+      </c>
+      <c r="Y69">
         <v>3.5</v>
       </c>
-      <c r="P69">
-        <v>2.1</v>
-      </c>
-      <c r="Q69">
-        <v>0.25</v>
-      </c>
-      <c r="R69">
-        <v>1.975</v>
-      </c>
-      <c r="S69">
-        <v>1.825</v>
-      </c>
-      <c r="T69">
-        <v>3</v>
-      </c>
-      <c r="U69">
-        <v>1.8</v>
-      </c>
-      <c r="V69">
-        <v>2</v>
-      </c>
-      <c r="W69">
-        <v>-1</v>
-      </c>
-      <c r="X69">
-        <v>-1</v>
-      </c>
-      <c r="Y69">
-        <v>1.1</v>
-      </c>
       <c r="Z69">
         <v>-1</v>
       </c>
       <c r="AA69">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB69">
         <v>-1</v>
       </c>
       <c r="AC69">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6692,7 +6692,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6126655</v>
+        <v>6126646</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6704,76 +6704,76 @@
         <v>45115.83333333334</v>
       </c>
       <c r="F70" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="G70" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J70" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K70">
-        <v>2.7</v>
+        <v>3.25</v>
       </c>
       <c r="L70">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M70">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="N70">
         <v>3</v>
       </c>
       <c r="O70">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P70">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q70">
         <v>0.25</v>
       </c>
       <c r="R70">
+        <v>1.975</v>
+      </c>
+      <c r="S70">
         <v>1.825</v>
       </c>
-      <c r="S70">
-        <v>1.975</v>
-      </c>
       <c r="T70">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U70">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V70">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W70">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X70">
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z70">
+        <v>-1</v>
+      </c>
+      <c r="AA70">
         <v>0.825</v>
       </c>
-      <c r="AA70">
-        <v>-1</v>
-      </c>
       <c r="AB70">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AC70">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6793,7 +6793,7 @@
         <v>45115.83333333334</v>
       </c>
       <c r="F71" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G71" t="s">
         <v>51</v>
@@ -6805,7 +6805,7 @@
         <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K71">
         <v>1.909</v>
@@ -6894,7 +6894,7 @@
         <v>0</v>
       </c>
       <c r="J72" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K72">
         <v>2</v>
@@ -6959,7 +6959,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6126651</v>
+        <v>6126649</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6971,10 +6971,10 @@
         <v>45115.91666666666</v>
       </c>
       <c r="F73" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G73" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="H73">
         <v>1</v>
@@ -6983,46 +6983,46 @@
         <v>0</v>
       </c>
       <c r="J73" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K73">
-        <v>2</v>
+        <v>1.533</v>
       </c>
       <c r="L73">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M73">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="N73">
-        <v>2</v>
+        <v>1.333</v>
       </c>
       <c r="O73">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P73">
-        <v>3.25</v>
+        <v>8</v>
       </c>
       <c r="Q73">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R73">
         <v>1.95</v>
       </c>
       <c r="S73">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T73">
         <v>2.5</v>
       </c>
       <c r="U73">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V73">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W73">
-        <v>1</v>
+        <v>0.333</v>
       </c>
       <c r="X73">
         <v>-1</v>
@@ -7031,16 +7031,16 @@
         <v>-1</v>
       </c>
       <c r="Z73">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA73">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB73">
         <v>-1</v>
       </c>
       <c r="AC73">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7048,7 +7048,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6126649</v>
+        <v>6126651</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7060,10 +7060,10 @@
         <v>45115.91666666666</v>
       </c>
       <c r="F74" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G74" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="H74">
         <v>1</v>
@@ -7072,46 +7072,46 @@
         <v>0</v>
       </c>
       <c r="J74" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K74">
-        <v>1.533</v>
+        <v>2</v>
       </c>
       <c r="L74">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M74">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="N74">
-        <v>1.333</v>
+        <v>2</v>
       </c>
       <c r="O74">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P74">
-        <v>8</v>
+        <v>3.25</v>
       </c>
       <c r="Q74">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R74">
         <v>1.95</v>
       </c>
       <c r="S74">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="T74">
         <v>2.5</v>
       </c>
       <c r="U74">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V74">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W74">
-        <v>0.333</v>
+        <v>1</v>
       </c>
       <c r="X74">
         <v>-1</v>
@@ -7120,16 +7120,16 @@
         <v>-1</v>
       </c>
       <c r="Z74">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA74">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB74">
         <v>-1</v>
       </c>
       <c r="AC74">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7149,7 +7149,7 @@
         <v>45115.95833333334</v>
       </c>
       <c r="F75" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G75" t="s">
         <v>46</v>
@@ -7161,7 +7161,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K75">
         <v>2.5</v>
@@ -7250,7 +7250,7 @@
         <v>3</v>
       </c>
       <c r="J76" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K76">
         <v>2.6</v>
@@ -7327,10 +7327,10 @@
         <v>45116.875</v>
       </c>
       <c r="F77" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G77" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H77">
         <v>2</v>
@@ -7339,7 +7339,7 @@
         <v>0</v>
       </c>
       <c r="J77" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K77">
         <v>2.1</v>
@@ -7428,7 +7428,7 @@
         <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K78">
         <v>2.2</v>
@@ -7517,7 +7517,7 @@
         <v>1</v>
       </c>
       <c r="J79" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K79">
         <v>1.75</v>
@@ -7594,10 +7594,10 @@
         <v>45119.875</v>
       </c>
       <c r="F80" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G80" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H80">
         <v>0</v>
@@ -7686,7 +7686,7 @@
         <v>46</v>
       </c>
       <c r="G81" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H81">
         <v>1</v>
@@ -7784,7 +7784,7 @@
         <v>0</v>
       </c>
       <c r="J82" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K82">
         <v>1.95</v>
@@ -7873,7 +7873,7 @@
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K83">
         <v>2.15</v>
@@ -8051,7 +8051,7 @@
         <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K85">
         <v>2.1</v>
@@ -8128,7 +8128,7 @@
         <v>45122.83333333334</v>
       </c>
       <c r="F86" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G86" t="s">
         <v>52</v>
@@ -8140,7 +8140,7 @@
         <v>0</v>
       </c>
       <c r="J86" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K86">
         <v>1.571</v>
@@ -8205,7 +8205,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6126665</v>
+        <v>6126662</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8217,76 +8217,76 @@
         <v>45122.85416666666</v>
       </c>
       <c r="F87" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="G87" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H87">
         <v>1</v>
       </c>
       <c r="I87">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J87" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K87">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="L87">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M87">
-        <v>2.5</v>
+        <v>2.625</v>
       </c>
       <c r="N87">
+        <v>2.55</v>
+      </c>
+      <c r="O87">
+        <v>3.2</v>
+      </c>
+      <c r="P87">
         <v>2.45</v>
-      </c>
-      <c r="O87">
-        <v>3.5</v>
-      </c>
-      <c r="P87">
-        <v>2.4</v>
       </c>
       <c r="Q87">
         <v>0</v>
       </c>
       <c r="R87">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S87">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T87">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U87">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V87">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W87">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X87">
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z87">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA87">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB87">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC87">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8294,7 +8294,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6126662</v>
+        <v>6126665</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8306,76 +8306,76 @@
         <v>45122.85416666666</v>
       </c>
       <c r="F88" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G88" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H88">
         <v>1</v>
       </c>
       <c r="I88">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J88" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K88">
+        <v>2.375</v>
+      </c>
+      <c r="L88">
+        <v>3.4</v>
+      </c>
+      <c r="M88">
+        <v>2.5</v>
+      </c>
+      <c r="N88">
+        <v>2.45</v>
+      </c>
+      <c r="O88">
+        <v>3.5</v>
+      </c>
+      <c r="P88">
         <v>2.4</v>
-      </c>
-      <c r="L88">
-        <v>3.2</v>
-      </c>
-      <c r="M88">
-        <v>2.625</v>
-      </c>
-      <c r="N88">
-        <v>2.55</v>
-      </c>
-      <c r="O88">
-        <v>3.2</v>
-      </c>
-      <c r="P88">
-        <v>2.45</v>
       </c>
       <c r="Q88">
         <v>0</v>
       </c>
       <c r="R88">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S88">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T88">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U88">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V88">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W88">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X88">
         <v>-1</v>
       </c>
       <c r="Y88">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z88">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA88">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB88">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC88">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8398,7 +8398,7 @@
         <v>49</v>
       </c>
       <c r="G89" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H89">
         <v>3</v>
@@ -8407,7 +8407,7 @@
         <v>2</v>
       </c>
       <c r="J89" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K89">
         <v>1.833</v>
@@ -8487,7 +8487,7 @@
         <v>46</v>
       </c>
       <c r="G90" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H90">
         <v>1</v>
@@ -8496,7 +8496,7 @@
         <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K90">
         <v>1.615</v>
@@ -8573,7 +8573,7 @@
         <v>45122.95833333334</v>
       </c>
       <c r="F91" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G91" t="s">
         <v>50</v>
@@ -8674,7 +8674,7 @@
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K92">
         <v>1.95</v>
@@ -8754,7 +8754,7 @@
         <v>52</v>
       </c>
       <c r="G93" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H93">
         <v>2</v>
@@ -8763,7 +8763,7 @@
         <v>0</v>
       </c>
       <c r="J93" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K93">
         <v>2.8</v>
@@ -8843,7 +8843,7 @@
         <v>49</v>
       </c>
       <c r="G94" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H94">
         <v>2</v>
@@ -8852,7 +8852,7 @@
         <v>1</v>
       </c>
       <c r="J94" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K94">
         <v>2.375</v>
@@ -8941,7 +8941,7 @@
         <v>0</v>
       </c>
       <c r="J95" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K95">
         <v>2.75</v>
@@ -9006,7 +9006,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6126673</v>
+        <v>6126672</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -9018,58 +9018,58 @@
         <v>45129.85416666666</v>
       </c>
       <c r="F96" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="G96" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H96">
+        <v>3</v>
+      </c>
+      <c r="I96">
         <v>1</v>
       </c>
-      <c r="I96">
+      <c r="J96" t="s">
+        <v>54</v>
+      </c>
+      <c r="K96">
+        <v>2.5</v>
+      </c>
+      <c r="L96">
+        <v>3.1</v>
+      </c>
+      <c r="M96">
+        <v>2.625</v>
+      </c>
+      <c r="N96">
+        <v>2.45</v>
+      </c>
+      <c r="O96">
+        <v>3</v>
+      </c>
+      <c r="P96">
+        <v>2.625</v>
+      </c>
+      <c r="Q96">
         <v>0</v>
       </c>
-      <c r="J96" t="s">
-        <v>55</v>
-      </c>
-      <c r="K96">
-        <v>2.3</v>
-      </c>
-      <c r="L96">
-        <v>3.3</v>
-      </c>
-      <c r="M96">
-        <v>2.75</v>
-      </c>
-      <c r="N96">
-        <v>1.85</v>
-      </c>
-      <c r="O96">
-        <v>3.5</v>
-      </c>
-      <c r="P96">
-        <v>3.5</v>
-      </c>
-      <c r="Q96">
-        <v>-0.5</v>
-      </c>
       <c r="R96">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S96">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T96">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U96">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V96">
-        <v>1.8</v>
+        <v>1.725</v>
       </c>
       <c r="W96">
-        <v>0.8500000000000001</v>
+        <v>1.45</v>
       </c>
       <c r="X96">
         <v>-1</v>
@@ -9078,16 +9078,16 @@
         <v>-1</v>
       </c>
       <c r="Z96">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AA96">
         <v>-1</v>
       </c>
       <c r="AB96">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC96">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9095,7 +9095,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6126672</v>
+        <v>6126673</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9107,58 +9107,58 @@
         <v>45129.85416666666</v>
       </c>
       <c r="F97" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="G97" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H97">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K97">
+        <v>2.3</v>
+      </c>
+      <c r="L97">
+        <v>3.3</v>
+      </c>
+      <c r="M97">
+        <v>2.75</v>
+      </c>
+      <c r="N97">
+        <v>1.85</v>
+      </c>
+      <c r="O97">
+        <v>3.5</v>
+      </c>
+      <c r="P97">
+        <v>3.5</v>
+      </c>
+      <c r="Q97">
+        <v>-0.5</v>
+      </c>
+      <c r="R97">
+        <v>1.925</v>
+      </c>
+      <c r="S97">
+        <v>1.875</v>
+      </c>
+      <c r="T97">
         <v>2.5</v>
       </c>
-      <c r="L97">
-        <v>3.1</v>
-      </c>
-      <c r="M97">
-        <v>2.625</v>
-      </c>
-      <c r="N97">
-        <v>2.45</v>
-      </c>
-      <c r="O97">
-        <v>3</v>
-      </c>
-      <c r="P97">
-        <v>2.625</v>
-      </c>
-      <c r="Q97">
-        <v>0</v>
-      </c>
-      <c r="R97">
+      <c r="U97">
+        <v>2</v>
+      </c>
+      <c r="V97">
         <v>1.8</v>
       </c>
-      <c r="S97">
-        <v>2</v>
-      </c>
-      <c r="T97">
-        <v>2.25</v>
-      </c>
-      <c r="U97">
-        <v>1.975</v>
-      </c>
-      <c r="V97">
-        <v>1.725</v>
-      </c>
       <c r="W97">
-        <v>1.45</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X97">
         <v>-1</v>
@@ -9167,16 +9167,16 @@
         <v>-1</v>
       </c>
       <c r="Z97">
+        <v>0.925</v>
+      </c>
+      <c r="AA97">
+        <v>-1</v>
+      </c>
+      <c r="AB97">
+        <v>-1</v>
+      </c>
+      <c r="AC97">
         <v>0.8</v>
-      </c>
-      <c r="AA97">
-        <v>-1</v>
-      </c>
-      <c r="AB97">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC97">
-        <v>-1</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9196,7 +9196,7 @@
         <v>45129.875</v>
       </c>
       <c r="F98" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G98" t="s">
         <v>48</v>
@@ -9288,7 +9288,7 @@
         <v>34</v>
       </c>
       <c r="G99" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H99">
         <v>3</v>
@@ -9362,7 +9362,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6126681</v>
+        <v>6126679</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9377,73 +9377,73 @@
         <v>36</v>
       </c>
       <c r="G100" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H100">
+        <v>3</v>
+      </c>
+      <c r="I100">
         <v>0</v>
       </c>
-      <c r="I100">
-        <v>1</v>
-      </c>
       <c r="J100" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K100">
-        <v>1.571</v>
+        <v>2.75</v>
       </c>
       <c r="L100">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M100">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="N100">
-        <v>1.45</v>
+        <v>2.5</v>
       </c>
       <c r="O100">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="P100">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q100">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R100">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S100">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T100">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U100">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V100">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W100">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X100">
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Z100">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA100">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB100">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC100">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9451,7 +9451,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6126679</v>
+        <v>6126681</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9466,73 +9466,73 @@
         <v>35</v>
       </c>
       <c r="G101" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H101">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K101">
+        <v>1.571</v>
+      </c>
+      <c r="L101">
+        <v>3.75</v>
+      </c>
+      <c r="M101">
+        <v>5</v>
+      </c>
+      <c r="N101">
+        <v>1.45</v>
+      </c>
+      <c r="O101">
+        <v>4.2</v>
+      </c>
+      <c r="P101">
+        <v>5.5</v>
+      </c>
+      <c r="Q101">
+        <v>-1</v>
+      </c>
+      <c r="R101">
+        <v>1.8</v>
+      </c>
+      <c r="S101">
+        <v>2</v>
+      </c>
+      <c r="T101">
         <v>2.75</v>
       </c>
-      <c r="L101">
-        <v>3.3</v>
-      </c>
-      <c r="M101">
-        <v>2.3</v>
-      </c>
-      <c r="N101">
-        <v>2.5</v>
-      </c>
-      <c r="O101">
-        <v>3.3</v>
-      </c>
-      <c r="P101">
-        <v>2.5</v>
-      </c>
-      <c r="Q101">
-        <v>0</v>
-      </c>
-      <c r="R101">
-        <v>1.9</v>
-      </c>
-      <c r="S101">
-        <v>1.9</v>
-      </c>
-      <c r="T101">
-        <v>2.5</v>
-      </c>
       <c r="U101">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V101">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W101">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X101">
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Z101">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA101">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB101">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC101">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9653,7 +9653,7 @@
         <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K103">
         <v>1.909</v>
@@ -9733,7 +9733,7 @@
         <v>44</v>
       </c>
       <c r="G104" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H104">
         <v>0</v>
@@ -9819,7 +9819,7 @@
         <v>45133.83333333334</v>
       </c>
       <c r="F105" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G105" t="s">
         <v>41</v>
@@ -9920,7 +9920,7 @@
         <v>0</v>
       </c>
       <c r="J106" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K106">
         <v>1.666</v>
@@ -10009,7 +10009,7 @@
         <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K107">
         <v>1.727</v>
@@ -10086,7 +10086,7 @@
         <v>45136.83333333334</v>
       </c>
       <c r="F108" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G108" t="s">
         <v>34</v>
@@ -10098,7 +10098,7 @@
         <v>2</v>
       </c>
       <c r="J108" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K108">
         <v>1.833</v>
@@ -10163,7 +10163,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6126685</v>
+        <v>6126687</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10175,10 +10175,10 @@
         <v>45136.85416666666</v>
       </c>
       <c r="F109" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G109" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="H109">
         <v>1</v>
@@ -10190,41 +10190,41 @@
         <v>53</v>
       </c>
       <c r="K109">
+        <v>2.1</v>
+      </c>
+      <c r="L109">
+        <v>3.3</v>
+      </c>
+      <c r="M109">
+        <v>3</v>
+      </c>
+      <c r="N109">
         <v>2.25</v>
       </c>
-      <c r="L109">
-        <v>3.4</v>
-      </c>
-      <c r="M109">
-        <v>2.625</v>
-      </c>
-      <c r="N109">
-        <v>2.05</v>
-      </c>
       <c r="O109">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P109">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="Q109">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R109">
+        <v>1.725</v>
+      </c>
+      <c r="S109">
+        <v>2.075</v>
+      </c>
+      <c r="T109">
+        <v>2.5</v>
+      </c>
+      <c r="U109">
         <v>1.85</v>
       </c>
-      <c r="S109">
+      <c r="V109">
         <v>1.95</v>
       </c>
-      <c r="T109">
-        <v>2.75</v>
-      </c>
-      <c r="U109">
-        <v>1.925</v>
-      </c>
-      <c r="V109">
-        <v>1.875</v>
-      </c>
       <c r="W109">
         <v>-1</v>
       </c>
@@ -10232,19 +10232,19 @@
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="Z109">
         <v>-1</v>
       </c>
       <c r="AA109">
-        <v>0.95</v>
+        <v>1.075</v>
       </c>
       <c r="AB109">
-        <v>0.4625</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC109">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10252,7 +10252,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6126687</v>
+        <v>6126696</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10264,76 +10264,76 @@
         <v>45136.85416666666</v>
       </c>
       <c r="F110" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G110" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I110">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J110" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K110">
-        <v>2.1</v>
+        <v>1.533</v>
       </c>
       <c r="L110">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="M110">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N110">
-        <v>2.25</v>
+        <v>1.444</v>
       </c>
       <c r="O110">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P110">
-        <v>2.7</v>
+        <v>5.75</v>
       </c>
       <c r="Q110">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R110">
-        <v>1.725</v>
+        <v>1.975</v>
       </c>
       <c r="S110">
-        <v>2.075</v>
+        <v>1.825</v>
       </c>
       <c r="T110">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U110">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V110">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W110">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X110">
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z110">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA110">
-        <v>1.075</v>
+        <v>-1</v>
       </c>
       <c r="AB110">
-        <v>0.8500000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="AC110">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10341,7 +10341,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6126696</v>
+        <v>6126685</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10353,73 +10353,73 @@
         <v>45136.85416666666</v>
       </c>
       <c r="F111" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="G111" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="H111">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I111">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J111" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K111">
-        <v>1.533</v>
+        <v>2.25</v>
       </c>
       <c r="L111">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M111">
-        <v>5</v>
+        <v>2.625</v>
       </c>
       <c r="N111">
-        <v>1.444</v>
+        <v>2.05</v>
       </c>
       <c r="O111">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P111">
-        <v>5.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q111">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R111">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S111">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T111">
         <v>2.75</v>
       </c>
       <c r="U111">
+        <v>1.925</v>
+      </c>
+      <c r="V111">
+        <v>1.875</v>
+      </c>
+      <c r="W111">
+        <v>-1</v>
+      </c>
+      <c r="X111">
+        <v>-1</v>
+      </c>
+      <c r="Y111">
         <v>1.9</v>
       </c>
-      <c r="V111">
-        <v>1.9</v>
-      </c>
-      <c r="W111">
-        <v>0.444</v>
-      </c>
-      <c r="X111">
-        <v>-1</v>
-      </c>
-      <c r="Y111">
-        <v>-1</v>
-      </c>
       <c r="Z111">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA111">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB111">
-        <v>0.45</v>
+        <v>0.4625</v>
       </c>
       <c r="AC111">
         <v>-0.5</v>
@@ -10442,7 +10442,7 @@
         <v>45136.875</v>
       </c>
       <c r="F112" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G112" t="s">
         <v>41</v>
@@ -10454,7 +10454,7 @@
         <v>0</v>
       </c>
       <c r="J112" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K112">
         <v>1.95</v>
@@ -10531,7 +10531,7 @@
         <v>45136.875</v>
       </c>
       <c r="F113" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G113" t="s">
         <v>46</v>
@@ -10543,7 +10543,7 @@
         <v>2</v>
       </c>
       <c r="J113" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K113">
         <v>2.375</v>
@@ -10620,10 +10620,10 @@
         <v>45136.91666666666</v>
       </c>
       <c r="F114" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G114" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H114">
         <v>5</v>
@@ -10632,7 +10632,7 @@
         <v>2</v>
       </c>
       <c r="J114" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K114">
         <v>1.444</v>
@@ -10721,7 +10721,7 @@
         <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K115">
         <v>1.6</v>
@@ -10798,10 +10798,10 @@
         <v>45136.95833333334</v>
       </c>
       <c r="F116" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G116" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H116">
         <v>1</v>
@@ -10810,7 +10810,7 @@
         <v>0</v>
       </c>
       <c r="J116" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K116">
         <v>2.1</v>
@@ -10887,7 +10887,7 @@
         <v>45136.95833333334</v>
       </c>
       <c r="F117" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G117" t="s">
         <v>45</v>
@@ -11077,7 +11077,7 @@
         <v>0</v>
       </c>
       <c r="J119" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K119">
         <v>1.8</v>
@@ -11166,7 +11166,7 @@
         <v>0</v>
       </c>
       <c r="J120" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K120">
         <v>2.875</v>
@@ -11335,7 +11335,7 @@
         <v>49</v>
       </c>
       <c r="G122" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H122">
         <v>0</v>
@@ -11433,7 +11433,7 @@
         <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K123">
         <v>2.05</v>
@@ -11498,7 +11498,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6126706</v>
+        <v>6126708</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11510,58 +11510,58 @@
         <v>45143.83333333334</v>
       </c>
       <c r="F124" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="G124" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I124">
         <v>0</v>
       </c>
       <c r="J124" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K124">
-        <v>2.15</v>
+        <v>2.55</v>
       </c>
       <c r="L124">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M124">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="N124">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="O124">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P124">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="Q124">
         <v>-0.25</v>
       </c>
       <c r="R124">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S124">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T124">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U124">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V124">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="W124">
-        <v>0.95</v>
+        <v>1.2</v>
       </c>
       <c r="X124">
         <v>-1</v>
@@ -11570,16 +11570,16 @@
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>0.7749999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA124">
         <v>-1</v>
       </c>
       <c r="AB124">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC124">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11587,7 +11587,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6126701</v>
+        <v>6126706</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11602,55 +11602,55 @@
         <v>31</v>
       </c>
       <c r="G125" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J125" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K125">
+        <v>2.15</v>
+      </c>
+      <c r="L125">
+        <v>3.3</v>
+      </c>
+      <c r="M125">
         <v>2.9</v>
       </c>
-      <c r="L125">
-        <v>3.4</v>
-      </c>
-      <c r="M125">
-        <v>2.1</v>
-      </c>
       <c r="N125">
-        <v>2.7</v>
+        <v>1.95</v>
       </c>
       <c r="O125">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P125">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="Q125">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R125">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S125">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T125">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U125">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V125">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="W125">
-        <v>1.7</v>
+        <v>0.95</v>
       </c>
       <c r="X125">
         <v>-1</v>
@@ -11659,16 +11659,16 @@
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>0.875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA125">
         <v>-1</v>
       </c>
       <c r="AB125">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC125">
-        <v>0.4625</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11676,7 +11676,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6126708</v>
+        <v>6126702</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11688,73 +11688,73 @@
         <v>45143.83333333334</v>
       </c>
       <c r="F126" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G126" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="H126">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I126">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J126" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K126">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="L126">
         <v>3.25</v>
       </c>
       <c r="M126">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="N126">
         <v>2.2</v>
       </c>
       <c r="O126">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P126">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q126">
         <v>-0.25</v>
       </c>
       <c r="R126">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S126">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T126">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U126">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V126">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W126">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X126">
         <v>-1</v>
       </c>
       <c r="Y126">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z126">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA126">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB126">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AC126">
         <v>-1</v>
@@ -11765,7 +11765,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6126702</v>
+        <v>6126701</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11777,76 +11777,76 @@
         <v>45143.83333333334</v>
       </c>
       <c r="F127" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G127" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H127">
+        <v>2</v>
+      </c>
+      <c r="I127">
         <v>1</v>
       </c>
-      <c r="I127">
-        <v>2</v>
-      </c>
       <c r="J127" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K127">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="L127">
+        <v>3.4</v>
+      </c>
+      <c r="M127">
+        <v>2.1</v>
+      </c>
+      <c r="N127">
+        <v>2.7</v>
+      </c>
+      <c r="O127">
+        <v>3.8</v>
+      </c>
+      <c r="P127">
+        <v>2.1</v>
+      </c>
+      <c r="Q127">
+        <v>0.25</v>
+      </c>
+      <c r="R127">
+        <v>1.875</v>
+      </c>
+      <c r="S127">
+        <v>1.925</v>
+      </c>
+      <c r="T127">
         <v>3.25</v>
       </c>
-      <c r="M127">
-        <v>2.7</v>
-      </c>
-      <c r="N127">
-        <v>2.2</v>
-      </c>
-      <c r="O127">
-        <v>3.1</v>
-      </c>
-      <c r="P127">
-        <v>3</v>
-      </c>
-      <c r="Q127">
-        <v>-0.25</v>
-      </c>
-      <c r="R127">
-        <v>1.975</v>
-      </c>
-      <c r="S127">
-        <v>1.825</v>
-      </c>
-      <c r="T127">
-        <v>2.5</v>
-      </c>
       <c r="U127">
+        <v>1.875</v>
+      </c>
+      <c r="V127">
         <v>1.925</v>
       </c>
-      <c r="V127">
-        <v>1.875</v>
-      </c>
       <c r="W127">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X127">
         <v>-1</v>
       </c>
       <c r="Y127">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z127">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA127">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB127">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AC127">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11854,7 +11854,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6126707</v>
+        <v>6126704</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11866,55 +11866,55 @@
         <v>45143.95833333334</v>
       </c>
       <c r="F128" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G128" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="H128">
+        <v>0</v>
+      </c>
+      <c r="I128">
         <v>1</v>
-      </c>
-      <c r="I128">
-        <v>3</v>
       </c>
       <c r="J128" t="s">
         <v>53</v>
       </c>
       <c r="K128">
+        <v>2.5</v>
+      </c>
+      <c r="L128">
+        <v>3.2</v>
+      </c>
+      <c r="M128">
+        <v>2.5</v>
+      </c>
+      <c r="N128">
+        <v>3.4</v>
+      </c>
+      <c r="O128">
+        <v>3.1</v>
+      </c>
+      <c r="P128">
         <v>2.05</v>
       </c>
-      <c r="L128">
-        <v>3.5</v>
-      </c>
-      <c r="M128">
-        <v>2.9</v>
-      </c>
-      <c r="N128">
-        <v>1.727</v>
-      </c>
-      <c r="O128">
-        <v>3.75</v>
-      </c>
-      <c r="P128">
-        <v>3.6</v>
-      </c>
       <c r="Q128">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R128">
-        <v>1.75</v>
+        <v>1.725</v>
       </c>
       <c r="S128">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T128">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U128">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V128">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W128">
         <v>-1</v>
@@ -11923,19 +11923,19 @@
         <v>-1</v>
       </c>
       <c r="Y128">
-        <v>2.6</v>
+        <v>1.05</v>
       </c>
       <c r="Z128">
         <v>-1</v>
       </c>
       <c r="AA128">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB128">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC128">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11943,7 +11943,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6126704</v>
+        <v>6126707</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11955,55 +11955,55 @@
         <v>45143.95833333334</v>
       </c>
       <c r="F129" t="s">
+        <v>40</v>
+      </c>
+      <c r="G129" t="s">
         <v>37</v>
       </c>
-      <c r="G129" t="s">
-        <v>51</v>
-      </c>
       <c r="H129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I129">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J129" t="s">
         <v>53</v>
       </c>
       <c r="K129">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="L129">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M129">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="N129">
-        <v>3.4</v>
+        <v>1.727</v>
       </c>
       <c r="O129">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P129">
-        <v>2.05</v>
+        <v>3.6</v>
       </c>
       <c r="Q129">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R129">
-        <v>1.725</v>
+        <v>1.75</v>
       </c>
       <c r="S129">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T129">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U129">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V129">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W129">
         <v>-1</v>
@@ -12012,19 +12012,19 @@
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>1.05</v>
+        <v>2.6</v>
       </c>
       <c r="Z129">
         <v>-1</v>
       </c>
       <c r="AA129">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB129">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC129">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12047,7 +12047,7 @@
         <v>44</v>
       </c>
       <c r="G130" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H130">
         <v>2</v>
@@ -12056,7 +12056,7 @@
         <v>1</v>
       </c>
       <c r="J130" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K130">
         <v>2.8</v>
@@ -12136,7 +12136,7 @@
         <v>45</v>
       </c>
       <c r="G131" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H131">
         <v>1</v>
@@ -12222,7 +12222,7 @@
         <v>45147.875</v>
       </c>
       <c r="F132" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G132" t="s">
         <v>29</v>
@@ -12234,7 +12234,7 @@
         <v>1</v>
       </c>
       <c r="J132" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K132">
         <v>1.909</v>
@@ -12299,7 +12299,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6126712</v>
+        <v>6126709</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12311,49 +12311,49 @@
         <v>45147.91666666666</v>
       </c>
       <c r="F133" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G133" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J133" t="s">
         <v>54</v>
       </c>
       <c r="K133">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="L133">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M133">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="N133">
-        <v>1.615</v>
+        <v>2.6</v>
       </c>
       <c r="O133">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="P133">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q133">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R133">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S133">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T133">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U133">
         <v>1.95</v>
@@ -12362,25 +12362,25 @@
         <v>1.85</v>
       </c>
       <c r="W133">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X133">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y133">
         <v>-1</v>
       </c>
       <c r="Z133">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA133">
+        <v>-1</v>
+      </c>
+      <c r="AB133">
         <v>0.95</v>
       </c>
-      <c r="AB133">
-        <v>-1</v>
-      </c>
       <c r="AC133">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12388,7 +12388,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6126709</v>
+        <v>6126712</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12400,49 +12400,49 @@
         <v>45147.91666666666</v>
       </c>
       <c r="F134" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G134" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H134">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J134" t="s">
         <v>55</v>
       </c>
       <c r="K134">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="L134">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M134">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="N134">
-        <v>2.6</v>
+        <v>1.615</v>
       </c>
       <c r="O134">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="P134">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q134">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R134">
+        <v>1.75</v>
+      </c>
+      <c r="S134">
         <v>1.95</v>
       </c>
-      <c r="S134">
-        <v>1.85</v>
-      </c>
       <c r="T134">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U134">
         <v>1.95</v>
@@ -12451,25 +12451,25 @@
         <v>1.85</v>
       </c>
       <c r="W134">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X134">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y134">
         <v>-1</v>
       </c>
       <c r="Z134">
+        <v>-1</v>
+      </c>
+      <c r="AA134">
         <v>0.95</v>
       </c>
-      <c r="AA134">
-        <v>-1</v>
-      </c>
       <c r="AB134">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC134">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12501,7 +12501,7 @@
         <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K135">
         <v>1.4</v>
@@ -12655,7 +12655,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6126714</v>
+        <v>6126713</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12667,76 +12667,76 @@
         <v>45150.85416666666</v>
       </c>
       <c r="F137" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G137" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I137">
         <v>1</v>
       </c>
       <c r="J137" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K137">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="L137">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M137">
         <v>2.5</v>
       </c>
       <c r="N137">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="O137">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P137">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="Q137">
         <v>0</v>
       </c>
       <c r="R137">
+        <v>1.95</v>
+      </c>
+      <c r="S137">
+        <v>1.85</v>
+      </c>
+      <c r="T137">
+        <v>2.5</v>
+      </c>
+      <c r="U137">
         <v>1.875</v>
       </c>
-      <c r="S137">
+      <c r="V137">
         <v>1.925</v>
       </c>
-      <c r="T137">
-        <v>2.25</v>
-      </c>
-      <c r="U137">
-        <v>1.95</v>
-      </c>
-      <c r="V137">
-        <v>1.85</v>
-      </c>
       <c r="W137">
         <v>-1</v>
       </c>
       <c r="X137">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y137">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z137">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA137">
+        <v>-0</v>
+      </c>
+      <c r="AB137">
+        <v>-1</v>
+      </c>
+      <c r="AC137">
         <v>0.925</v>
-      </c>
-      <c r="AB137">
-        <v>-1</v>
-      </c>
-      <c r="AC137">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12744,7 +12744,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6126713</v>
+        <v>6126714</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12756,76 +12756,76 @@
         <v>45150.85416666666</v>
       </c>
       <c r="F138" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G138" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138">
         <v>1</v>
       </c>
       <c r="J138" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K138">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="L138">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M138">
         <v>2.5</v>
       </c>
       <c r="N138">
+        <v>2.45</v>
+      </c>
+      <c r="O138">
+        <v>3.2</v>
+      </c>
+      <c r="P138">
         <v>2.5</v>
-      </c>
-      <c r="O138">
-        <v>3.3</v>
-      </c>
-      <c r="P138">
-        <v>2.4</v>
       </c>
       <c r="Q138">
         <v>0</v>
       </c>
       <c r="R138">
+        <v>1.875</v>
+      </c>
+      <c r="S138">
+        <v>1.925</v>
+      </c>
+      <c r="T138">
+        <v>2.25</v>
+      </c>
+      <c r="U138">
         <v>1.95</v>
       </c>
-      <c r="S138">
+      <c r="V138">
         <v>1.85</v>
       </c>
-      <c r="T138">
-        <v>2.5</v>
-      </c>
-      <c r="U138">
-        <v>1.875</v>
-      </c>
-      <c r="V138">
-        <v>1.925</v>
-      </c>
       <c r="W138">
         <v>-1</v>
       </c>
       <c r="X138">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y138">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z138">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA138">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
       <c r="AB138">
         <v>-1</v>
       </c>
       <c r="AC138">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12848,7 +12848,7 @@
         <v>33</v>
       </c>
       <c r="G139" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H139">
         <v>4</v>
@@ -12857,7 +12857,7 @@
         <v>1</v>
       </c>
       <c r="J139" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K139">
         <v>1.4</v>
@@ -12934,11 +12934,11 @@
         <v>45150.875</v>
       </c>
       <c r="F140" t="s">
+        <v>42</v>
+      </c>
+      <c r="G140" t="s">
         <v>43</v>
       </c>
-      <c r="G140" t="s">
-        <v>42</v>
-      </c>
       <c r="H140">
         <v>2</v>
       </c>
@@ -12946,7 +12946,7 @@
         <v>2</v>
       </c>
       <c r="J140" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K140">
         <v>1.8</v>
@@ -13023,10 +13023,10 @@
         <v>45150.91666666666</v>
       </c>
       <c r="F141" t="s">
+        <v>36</v>
+      </c>
+      <c r="G141" t="s">
         <v>35</v>
-      </c>
-      <c r="G141" t="s">
-        <v>36</v>
       </c>
       <c r="H141">
         <v>0</v>
@@ -13201,10 +13201,10 @@
         <v>45150.9625</v>
       </c>
       <c r="F143" t="s">
+        <v>31</v>
+      </c>
+      <c r="G143" t="s">
         <v>32</v>
-      </c>
-      <c r="G143" t="s">
-        <v>31</v>
       </c>
       <c r="H143">
         <v>2</v>
@@ -13213,7 +13213,7 @@
         <v>0</v>
       </c>
       <c r="J143" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K143">
         <v>1.3</v>
@@ -13391,7 +13391,7 @@
         <v>0</v>
       </c>
       <c r="J145" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K145">
         <v>2.1</v>
@@ -13468,10 +13468,10 @@
         <v>45154.91666666666</v>
       </c>
       <c r="F146" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G146" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H146">
         <v>2</v>
@@ -13480,7 +13480,7 @@
         <v>1</v>
       </c>
       <c r="J146" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K146">
         <v>1.571</v>
@@ -13557,10 +13557,10 @@
         <v>45154.95833333334</v>
       </c>
       <c r="F147" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G147" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H147">
         <v>1</v>
@@ -13569,7 +13569,7 @@
         <v>0</v>
       </c>
       <c r="J147" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K147">
         <v>2.55</v>
@@ -13738,7 +13738,7 @@
         <v>48</v>
       </c>
       <c r="G149" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H149">
         <v>2</v>
@@ -13747,7 +13747,7 @@
         <v>0</v>
       </c>
       <c r="J149" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K149">
         <v>2.15</v>
@@ -13824,7 +13824,7 @@
         <v>45157.83333333334</v>
       </c>
       <c r="F150" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G150" t="s">
         <v>47</v>
@@ -13901,7 +13901,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>6126727</v>
+        <v>6126730</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13913,40 +13913,40 @@
         <v>45157.85416666666</v>
       </c>
       <c r="F151" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="G151" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="H151">
         <v>1</v>
       </c>
       <c r="I151">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J151" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K151">
-        <v>1.833</v>
+        <v>3.5</v>
       </c>
       <c r="L151">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M151">
-        <v>3.6</v>
+        <v>1.909</v>
       </c>
       <c r="N151">
+        <v>3.75</v>
+      </c>
+      <c r="O151">
+        <v>3.3</v>
+      </c>
+      <c r="P151">
         <v>1.85</v>
       </c>
-      <c r="O151">
-        <v>3.5</v>
-      </c>
-      <c r="P151">
-        <v>3.5</v>
-      </c>
       <c r="Q151">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R151">
         <v>1.9</v>
@@ -13955,34 +13955,34 @@
         <v>1.9</v>
       </c>
       <c r="T151">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U151">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V151">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W151">
+        <v>-1</v>
+      </c>
+      <c r="X151">
+        <v>-1</v>
+      </c>
+      <c r="Y151">
         <v>0.8500000000000001</v>
       </c>
-      <c r="X151">
-        <v>-1</v>
-      </c>
-      <c r="Y151">
-        <v>-1</v>
-      </c>
       <c r="Z151">
+        <v>-1</v>
+      </c>
+      <c r="AA151">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA151">
-        <v>-1</v>
-      </c>
       <c r="AB151">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC151">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -13990,7 +13990,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6126730</v>
+        <v>6126727</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -14002,40 +14002,40 @@
         <v>45157.85416666666</v>
       </c>
       <c r="F152" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="G152" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="H152">
         <v>1</v>
       </c>
       <c r="I152">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J152" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K152">
+        <v>1.833</v>
+      </c>
+      <c r="L152">
+        <v>3.4</v>
+      </c>
+      <c r="M152">
+        <v>3.6</v>
+      </c>
+      <c r="N152">
+        <v>1.85</v>
+      </c>
+      <c r="O152">
         <v>3.5</v>
       </c>
-      <c r="L152">
-        <v>3.25</v>
-      </c>
-      <c r="M152">
-        <v>1.909</v>
-      </c>
-      <c r="N152">
-        <v>3.75</v>
-      </c>
-      <c r="O152">
-        <v>3.3</v>
-      </c>
       <c r="P152">
-        <v>1.85</v>
+        <v>3.5</v>
       </c>
       <c r="Q152">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R152">
         <v>1.9</v>
@@ -14044,34 +14044,34 @@
         <v>1.9</v>
       </c>
       <c r="T152">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U152">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V152">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W152">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X152">
         <v>-1</v>
       </c>
       <c r="Y152">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z152">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA152">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB152">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC152">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14091,7 +14091,7 @@
         <v>45157.875</v>
       </c>
       <c r="F153" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G153" t="s">
         <v>45</v>
@@ -14103,7 +14103,7 @@
         <v>0</v>
       </c>
       <c r="J153" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K153">
         <v>2.2</v>
@@ -14180,10 +14180,10 @@
         <v>45157.91666666666</v>
       </c>
       <c r="F154" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G154" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H154">
         <v>0</v>
@@ -14192,7 +14192,7 @@
         <v>0</v>
       </c>
       <c r="J154" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K154">
         <v>1.4</v>
@@ -14257,7 +14257,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6126735</v>
+        <v>6126728</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14269,73 +14269,73 @@
         <v>45157.9375</v>
       </c>
       <c r="F155" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G155" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H155">
         <v>2</v>
       </c>
       <c r="I155">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J155" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K155">
-        <v>1.65</v>
+        <v>2.2</v>
       </c>
       <c r="L155">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M155">
-        <v>4.333</v>
+        <v>2.75</v>
       </c>
       <c r="N155">
+        <v>2.2</v>
+      </c>
+      <c r="O155">
+        <v>3.3</v>
+      </c>
+      <c r="P155">
+        <v>2.75</v>
+      </c>
+      <c r="Q155">
+        <v>-0.25</v>
+      </c>
+      <c r="R155">
+        <v>2</v>
+      </c>
+      <c r="S155">
+        <v>1.8</v>
+      </c>
+      <c r="T155">
+        <v>2.5</v>
+      </c>
+      <c r="U155">
+        <v>1.85</v>
+      </c>
+      <c r="V155">
+        <v>1.95</v>
+      </c>
+      <c r="W155">
+        <v>-1</v>
+      </c>
+      <c r="X155">
+        <v>-1</v>
+      </c>
+      <c r="Y155">
         <v>1.75</v>
       </c>
-      <c r="O155">
-        <v>3.6</v>
-      </c>
-      <c r="P155">
-        <v>3.8</v>
-      </c>
-      <c r="Q155">
-        <v>-0.5</v>
-      </c>
-      <c r="R155">
-        <v>1.775</v>
-      </c>
-      <c r="S155">
-        <v>1.925</v>
-      </c>
-      <c r="T155">
-        <v>3</v>
-      </c>
-      <c r="U155">
-        <v>1.95</v>
-      </c>
-      <c r="V155">
-        <v>1.85</v>
-      </c>
-      <c r="W155">
-        <v>-1</v>
-      </c>
-      <c r="X155">
-        <v>2.6</v>
-      </c>
-      <c r="Y155">
-        <v>-1</v>
-      </c>
       <c r="Z155">
         <v>-1</v>
       </c>
       <c r="AA155">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AB155">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC155">
         <v>-1</v>
@@ -14346,7 +14346,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6126728</v>
+        <v>6126735</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14358,73 +14358,73 @@
         <v>45157.9375</v>
       </c>
       <c r="F156" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G156" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H156">
         <v>2</v>
       </c>
       <c r="I156">
+        <v>2</v>
+      </c>
+      <c r="J156" t="s">
+        <v>55</v>
+      </c>
+      <c r="K156">
+        <v>1.65</v>
+      </c>
+      <c r="L156">
+        <v>3.6</v>
+      </c>
+      <c r="M156">
+        <v>4.333</v>
+      </c>
+      <c r="N156">
+        <v>1.75</v>
+      </c>
+      <c r="O156">
+        <v>3.6</v>
+      </c>
+      <c r="P156">
+        <v>3.8</v>
+      </c>
+      <c r="Q156">
+        <v>-0.5</v>
+      </c>
+      <c r="R156">
+        <v>1.775</v>
+      </c>
+      <c r="S156">
+        <v>1.925</v>
+      </c>
+      <c r="T156">
         <v>3</v>
       </c>
-      <c r="J156" t="s">
-        <v>53</v>
-      </c>
-      <c r="K156">
-        <v>2.2</v>
-      </c>
-      <c r="L156">
-        <v>3.4</v>
-      </c>
-      <c r="M156">
-        <v>2.75</v>
-      </c>
-      <c r="N156">
-        <v>2.2</v>
-      </c>
-      <c r="O156">
-        <v>3.3</v>
-      </c>
-      <c r="P156">
-        <v>2.75</v>
-      </c>
-      <c r="Q156">
-        <v>-0.25</v>
-      </c>
-      <c r="R156">
-        <v>2</v>
-      </c>
-      <c r="S156">
-        <v>1.8</v>
-      </c>
-      <c r="T156">
-        <v>2.5</v>
-      </c>
       <c r="U156">
+        <v>1.95</v>
+      </c>
+      <c r="V156">
         <v>1.85</v>
       </c>
-      <c r="V156">
-        <v>1.95</v>
-      </c>
       <c r="W156">
         <v>-1</v>
       </c>
       <c r="X156">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y156">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z156">
         <v>-1</v>
       </c>
       <c r="AA156">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB156">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC156">
         <v>-1</v>
@@ -14447,7 +14447,7 @@
         <v>45157.95833333334</v>
       </c>
       <c r="F157" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G157" t="s">
         <v>29</v>
@@ -14459,7 +14459,7 @@
         <v>0</v>
       </c>
       <c r="J157" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K157">
         <v>2</v>
@@ -14625,10 +14625,10 @@
         <v>45161.83333333334</v>
       </c>
       <c r="F159" t="s">
+        <v>32</v>
+      </c>
+      <c r="G159" t="s">
         <v>31</v>
-      </c>
-      <c r="G159" t="s">
-        <v>32</v>
       </c>
       <c r="H159">
         <v>3</v>
@@ -14702,7 +14702,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6126741</v>
+        <v>6126739</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14714,76 +14714,76 @@
         <v>45161.875</v>
       </c>
       <c r="F160" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="G160" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H160">
+        <v>1</v>
+      </c>
+      <c r="I160">
+        <v>3</v>
+      </c>
+      <c r="J160" t="s">
+        <v>53</v>
+      </c>
+      <c r="K160">
+        <v>2.55</v>
+      </c>
+      <c r="L160">
+        <v>3.3</v>
+      </c>
+      <c r="M160">
+        <v>2.625</v>
+      </c>
+      <c r="N160">
+        <v>2.7</v>
+      </c>
+      <c r="O160">
+        <v>3.5</v>
+      </c>
+      <c r="P160">
+        <v>2.375</v>
+      </c>
+      <c r="Q160">
         <v>0</v>
       </c>
-      <c r="I160">
-        <v>0</v>
-      </c>
-      <c r="J160" t="s">
-        <v>54</v>
-      </c>
-      <c r="K160">
-        <v>1.909</v>
-      </c>
-      <c r="L160">
-        <v>3.5</v>
-      </c>
-      <c r="M160">
-        <v>3.7</v>
-      </c>
-      <c r="N160">
-        <v>2</v>
-      </c>
-      <c r="O160">
-        <v>3.4</v>
-      </c>
-      <c r="P160">
-        <v>3.4</v>
-      </c>
-      <c r="Q160">
-        <v>-0.25</v>
-      </c>
       <c r="R160">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="S160">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="T160">
         <v>2.75</v>
       </c>
       <c r="U160">
+        <v>1.85</v>
+      </c>
+      <c r="V160">
         <v>1.95</v>
       </c>
-      <c r="V160">
-        <v>1.85</v>
-      </c>
       <c r="W160">
         <v>-1</v>
       </c>
       <c r="X160">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y160">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z160">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA160">
-        <v>0.5249999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB160">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC160">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -14791,7 +14791,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6126739</v>
+        <v>6126741</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14803,76 +14803,76 @@
         <v>45161.875</v>
       </c>
       <c r="F161" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="G161" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I161">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J161" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K161">
-        <v>2.55</v>
+        <v>1.909</v>
       </c>
       <c r="L161">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M161">
-        <v>2.625</v>
+        <v>3.7</v>
       </c>
       <c r="N161">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="O161">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P161">
-        <v>2.375</v>
+        <v>3.4</v>
       </c>
       <c r="Q161">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R161">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="S161">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="T161">
         <v>2.75</v>
       </c>
       <c r="U161">
+        <v>1.95</v>
+      </c>
+      <c r="V161">
         <v>1.85</v>
       </c>
-      <c r="V161">
-        <v>1.95</v>
-      </c>
       <c r="W161">
         <v>-1</v>
       </c>
       <c r="X161">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y161">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z161">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA161">
-        <v>0.7749999999999999</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB161">
+        <v>-1</v>
+      </c>
+      <c r="AC161">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC161">
-        <v>-1</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -14892,7 +14892,7 @@
         <v>45161.91666666666</v>
       </c>
       <c r="F162" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G162" t="s">
         <v>50</v>
@@ -14969,7 +14969,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6126745</v>
+        <v>6126753</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14981,76 +14981,76 @@
         <v>45164.83333333334</v>
       </c>
       <c r="F163" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G163" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J163" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K163">
-        <v>1.8</v>
+        <v>2.45</v>
       </c>
       <c r="L163">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M163">
-        <v>4.1</v>
+        <v>2.6</v>
       </c>
       <c r="N163">
-        <v>1.571</v>
+        <v>2.75</v>
       </c>
       <c r="O163">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P163">
-        <v>5.25</v>
+        <v>2.375</v>
       </c>
       <c r="Q163">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R163">
+        <v>2.05</v>
+      </c>
+      <c r="S163">
+        <v>1.75</v>
+      </c>
+      <c r="T163">
+        <v>2.5</v>
+      </c>
+      <c r="U163">
         <v>1.925</v>
       </c>
-      <c r="S163">
+      <c r="V163">
         <v>1.875</v>
       </c>
-      <c r="T163">
-        <v>2.75</v>
-      </c>
-      <c r="U163">
-        <v>1.875</v>
-      </c>
-      <c r="V163">
-        <v>1.925</v>
-      </c>
       <c r="W163">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X163">
         <v>-1</v>
       </c>
       <c r="Y163">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z163">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA163">
-        <v>-0</v>
+        <v>0.75</v>
       </c>
       <c r="AB163">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AC163">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -15058,7 +15058,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6126753</v>
+        <v>6126745</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15070,76 +15070,76 @@
         <v>45164.83333333334</v>
       </c>
       <c r="F164" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G164" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H164">
+        <v>2</v>
+      </c>
+      <c r="I164">
+        <v>1</v>
+      </c>
+      <c r="J164" t="s">
+        <v>54</v>
+      </c>
+      <c r="K164">
+        <v>1.8</v>
+      </c>
+      <c r="L164">
+        <v>3.5</v>
+      </c>
+      <c r="M164">
+        <v>4.1</v>
+      </c>
+      <c r="N164">
+        <v>1.571</v>
+      </c>
+      <c r="O164">
+        <v>4</v>
+      </c>
+      <c r="P164">
+        <v>5.25</v>
+      </c>
+      <c r="Q164">
+        <v>-1</v>
+      </c>
+      <c r="R164">
+        <v>1.925</v>
+      </c>
+      <c r="S164">
+        <v>1.875</v>
+      </c>
+      <c r="T164">
+        <v>2.75</v>
+      </c>
+      <c r="U164">
+        <v>1.875</v>
+      </c>
+      <c r="V164">
+        <v>1.925</v>
+      </c>
+      <c r="W164">
+        <v>0.571</v>
+      </c>
+      <c r="X164">
+        <v>-1</v>
+      </c>
+      <c r="Y164">
+        <v>-1</v>
+      </c>
+      <c r="Z164">
         <v>0</v>
       </c>
-      <c r="I164">
-        <v>2</v>
-      </c>
-      <c r="J164" t="s">
-        <v>53</v>
-      </c>
-      <c r="K164">
-        <v>2.45</v>
-      </c>
-      <c r="L164">
-        <v>3.4</v>
-      </c>
-      <c r="M164">
-        <v>2.6</v>
-      </c>
-      <c r="N164">
-        <v>2.75</v>
-      </c>
-      <c r="O164">
-        <v>3.4</v>
-      </c>
-      <c r="P164">
-        <v>2.375</v>
-      </c>
-      <c r="Q164">
-        <v>0</v>
-      </c>
-      <c r="R164">
-        <v>2.05</v>
-      </c>
-      <c r="S164">
-        <v>1.75</v>
-      </c>
-      <c r="T164">
-        <v>2.5</v>
-      </c>
-      <c r="U164">
-        <v>1.925</v>
-      </c>
-      <c r="V164">
-        <v>1.875</v>
-      </c>
-      <c r="W164">
-        <v>-1</v>
-      </c>
-      <c r="X164">
-        <v>-1</v>
-      </c>
-      <c r="Y164">
-        <v>1.375</v>
-      </c>
-      <c r="Z164">
-        <v>-1</v>
-      </c>
       <c r="AA164">
-        <v>0.75</v>
+        <v>-0</v>
       </c>
       <c r="AB164">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC164">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15159,7 +15159,7 @@
         <v>45164.83333333334</v>
       </c>
       <c r="F165" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G165" t="s">
         <v>46</v>
@@ -15236,7 +15236,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6126743</v>
+        <v>6126747</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15248,19 +15248,19 @@
         <v>45164.85416666666</v>
       </c>
       <c r="F166" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G166" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="H166">
+        <v>2</v>
+      </c>
+      <c r="I166">
         <v>1</v>
       </c>
-      <c r="I166">
-        <v>0</v>
-      </c>
       <c r="J166" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K166">
         <v>2.05</v>
@@ -15272,34 +15272,34 @@
         <v>3.25</v>
       </c>
       <c r="N166">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="O166">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P166">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="Q166">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R166">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S166">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T166">
         <v>2.5</v>
       </c>
       <c r="U166">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V166">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W166">
-        <v>1.1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X166">
         <v>-1</v>
@@ -15308,16 +15308,16 @@
         <v>-1</v>
       </c>
       <c r="Z166">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA166">
         <v>-1</v>
       </c>
       <c r="AB166">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC166">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15325,7 +15325,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6126747</v>
+        <v>6126743</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15337,19 +15337,19 @@
         <v>45164.85416666666</v>
       </c>
       <c r="F167" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G167" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J167" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K167">
         <v>2.05</v>
@@ -15361,34 +15361,34 @@
         <v>3.25</v>
       </c>
       <c r="N167">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="O167">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P167">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q167">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R167">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S167">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T167">
         <v>2.5</v>
       </c>
       <c r="U167">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V167">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W167">
-        <v>0.8500000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="X167">
         <v>-1</v>
@@ -15397,16 +15397,16 @@
         <v>-1</v>
       </c>
       <c r="Z167">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA167">
         <v>-1</v>
       </c>
       <c r="AB167">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC167">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15426,7 +15426,7 @@
         <v>45164.875</v>
       </c>
       <c r="F168" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G168" t="s">
         <v>40</v>
@@ -15515,7 +15515,7 @@
         <v>45164.91666666666</v>
       </c>
       <c r="F169" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G169" t="s">
         <v>49</v>
@@ -15527,7 +15527,7 @@
         <v>1</v>
       </c>
       <c r="J169" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K169">
         <v>1.95</v>
@@ -15604,10 +15604,10 @@
         <v>45164.91666666666</v>
       </c>
       <c r="F170" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G170" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H170">
         <v>0</v>
@@ -15616,7 +15616,7 @@
         <v>0</v>
       </c>
       <c r="J170" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K170">
         <v>2.05</v>
@@ -15693,7 +15693,7 @@
         <v>45164.95833333334</v>
       </c>
       <c r="F171" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G171" t="s">
         <v>30</v>
@@ -15705,7 +15705,7 @@
         <v>1</v>
       </c>
       <c r="J171" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K171">
         <v>2.5</v>
@@ -15770,7 +15770,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6126751</v>
+        <v>6126746</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15782,55 +15782,55 @@
         <v>45164.97916666666</v>
       </c>
       <c r="F172" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G172" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J172" t="s">
         <v>53</v>
       </c>
       <c r="K172">
-        <v>1.75</v>
+        <v>3.25</v>
       </c>
       <c r="L172">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M172">
-        <v>4.333</v>
+        <v>2.05</v>
       </c>
       <c r="N172">
-        <v>1.615</v>
+        <v>3</v>
       </c>
       <c r="O172">
         <v>3.75</v>
       </c>
       <c r="P172">
-        <v>5</v>
+        <v>2.15</v>
       </c>
       <c r="Q172">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R172">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S172">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T172">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U172">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V172">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W172">
         <v>-1</v>
@@ -15839,19 +15839,19 @@
         <v>-1</v>
       </c>
       <c r="Y172">
-        <v>4</v>
+        <v>1.15</v>
       </c>
       <c r="Z172">
         <v>-1</v>
       </c>
       <c r="AA172">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB172">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC172">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -15859,7 +15859,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6126746</v>
+        <v>6126751</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15871,56 +15871,56 @@
         <v>45164.97916666666</v>
       </c>
       <c r="F173" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G173" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J173" t="s">
         <v>53</v>
       </c>
       <c r="K173">
-        <v>3.25</v>
+        <v>1.75</v>
       </c>
       <c r="L173">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M173">
-        <v>2.05</v>
+        <v>4.333</v>
       </c>
       <c r="N173">
-        <v>3</v>
+        <v>1.615</v>
       </c>
       <c r="O173">
         <v>3.75</v>
       </c>
       <c r="P173">
-        <v>2.15</v>
+        <v>5</v>
       </c>
       <c r="Q173">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R173">
+        <v>1.95</v>
+      </c>
+      <c r="S173">
+        <v>1.75</v>
+      </c>
+      <c r="T173">
+        <v>2.5</v>
+      </c>
+      <c r="U173">
         <v>1.9</v>
       </c>
-      <c r="S173">
+      <c r="V173">
         <v>1.9</v>
       </c>
-      <c r="T173">
-        <v>3</v>
-      </c>
-      <c r="U173">
-        <v>2</v>
-      </c>
-      <c r="V173">
-        <v>1.8</v>
-      </c>
       <c r="W173">
         <v>-1</v>
       </c>
@@ -15928,19 +15928,19 @@
         <v>-1</v>
       </c>
       <c r="Y173">
-        <v>1.15</v>
+        <v>4</v>
       </c>
       <c r="Z173">
         <v>-1</v>
       </c>
       <c r="AA173">
+        <v>0.75</v>
+      </c>
+      <c r="AB173">
+        <v>-1</v>
+      </c>
+      <c r="AC173">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB173">
-        <v>1</v>
-      </c>
-      <c r="AC173">
-        <v>-1</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -16049,10 +16049,10 @@
         <v>45168.875</v>
       </c>
       <c r="F175" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G175" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H175">
         <v>0</v>
@@ -16061,7 +16061,7 @@
         <v>0</v>
       </c>
       <c r="J175" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K175">
         <v>3.1</v>
@@ -16138,7 +16138,7 @@
         <v>45168.91666666666</v>
       </c>
       <c r="F176" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G176" t="s">
         <v>44</v>
@@ -16150,7 +16150,7 @@
         <v>3</v>
       </c>
       <c r="J176" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K176">
         <v>1.85</v>
@@ -16239,7 +16239,7 @@
         <v>1</v>
       </c>
       <c r="J177" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K177">
         <v>2.15</v>
@@ -16328,7 +16328,7 @@
         <v>0</v>
       </c>
       <c r="J178" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K178">
         <v>2</v>
@@ -16393,7 +16393,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6126766</v>
+        <v>6126759</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16405,13 +16405,13 @@
         <v>45171.85416666666</v>
       </c>
       <c r="F179" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="G179" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I179">
         <v>1</v>
@@ -16420,61 +16420,61 @@
         <v>55</v>
       </c>
       <c r="K179">
-        <v>1.333</v>
+        <v>2.9</v>
       </c>
       <c r="L179">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="M179">
-        <v>7.5</v>
+        <v>2.2</v>
       </c>
       <c r="N179">
-        <v>1.045</v>
+        <v>2.6</v>
       </c>
       <c r="O179">
-        <v>11</v>
+        <v>3.25</v>
       </c>
       <c r="P179">
-        <v>19</v>
+        <v>2.5</v>
       </c>
       <c r="Q179">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="R179">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S179">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T179">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U179">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="V179">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W179">
-        <v>0.04499999999999993</v>
+        <v>-1</v>
       </c>
       <c r="X179">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y179">
         <v>-1</v>
       </c>
       <c r="Z179">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA179">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
       <c r="AB179">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC179">
-        <v>1.05</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16482,7 +16482,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6126759</v>
+        <v>6126766</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16494,13 +16494,13 @@
         <v>45171.85416666666</v>
       </c>
       <c r="F180" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="G180" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H180">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I180">
         <v>1</v>
@@ -16509,61 +16509,61 @@
         <v>54</v>
       </c>
       <c r="K180">
-        <v>2.9</v>
+        <v>1.333</v>
       </c>
       <c r="L180">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="M180">
-        <v>2.2</v>
+        <v>7.5</v>
       </c>
       <c r="N180">
-        <v>2.6</v>
+        <v>1.045</v>
       </c>
       <c r="O180">
-        <v>3.25</v>
+        <v>11</v>
       </c>
       <c r="P180">
-        <v>2.5</v>
+        <v>19</v>
       </c>
       <c r="Q180">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="R180">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S180">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T180">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U180">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="V180">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W180">
-        <v>-1</v>
+        <v>0.04499999999999993</v>
       </c>
       <c r="X180">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y180">
         <v>-1</v>
       </c>
       <c r="Z180">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA180">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
       <c r="AB180">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC180">
-        <v>-0</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16583,7 +16583,7 @@
         <v>45171.91666666666</v>
       </c>
       <c r="F181" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G181" t="s">
         <v>29</v>
@@ -16675,7 +16675,7 @@
         <v>30</v>
       </c>
       <c r="G182" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H182">
         <v>2</v>
@@ -16764,7 +16764,7 @@
         <v>46</v>
       </c>
       <c r="G183" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H183">
         <v>1</v>
@@ -16942,7 +16942,7 @@
         <v>45</v>
       </c>
       <c r="G185" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H185">
         <v>2</v>
@@ -16951,7 +16951,7 @@
         <v>0</v>
       </c>
       <c r="J185" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K185">
         <v>2</v>
@@ -17031,7 +17031,7 @@
         <v>44</v>
       </c>
       <c r="G186" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H186">
         <v>1</v>
@@ -17129,7 +17129,7 @@
         <v>0</v>
       </c>
       <c r="J187" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K187">
         <v>1.95</v>
@@ -17209,7 +17209,7 @@
         <v>49</v>
       </c>
       <c r="G188" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H188">
         <v>2</v>
@@ -17218,7 +17218,7 @@
         <v>1</v>
       </c>
       <c r="J188" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K188">
         <v>3.4</v>
@@ -17307,7 +17307,7 @@
         <v>2</v>
       </c>
       <c r="J189" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K189">
         <v>2.9</v>
@@ -17384,7 +17384,7 @@
         <v>45178.83333333334</v>
       </c>
       <c r="F190" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G190" t="s">
         <v>39</v>
@@ -17396,7 +17396,7 @@
         <v>1</v>
       </c>
       <c r="J190" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K190">
         <v>1.4</v>
@@ -17485,7 +17485,7 @@
         <v>1</v>
       </c>
       <c r="J191" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K191">
         <v>2.1</v>
@@ -17565,7 +17565,7 @@
         <v>33</v>
       </c>
       <c r="G192" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H192">
         <v>2</v>
@@ -17574,7 +17574,7 @@
         <v>1</v>
       </c>
       <c r="J192" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K192">
         <v>1.75</v>
@@ -17663,7 +17663,7 @@
         <v>0</v>
       </c>
       <c r="J193" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K193">
         <v>2.2</v>
@@ -17743,7 +17743,7 @@
         <v>34</v>
       </c>
       <c r="G194" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H194">
         <v>0</v>
@@ -17841,7 +17841,7 @@
         <v>0</v>
       </c>
       <c r="J195" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K195">
         <v>2.05</v>
@@ -17921,7 +17921,7 @@
         <v>30</v>
       </c>
       <c r="G196" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H196">
         <v>1</v>
@@ -17930,7 +17930,7 @@
         <v>1</v>
       </c>
       <c r="J196" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K196">
         <v>2.2</v>
@@ -18007,7 +18007,7 @@
         <v>45178.95833333334</v>
       </c>
       <c r="F197" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G197" t="s">
         <v>46</v>
@@ -18019,7 +18019,7 @@
         <v>0</v>
       </c>
       <c r="J197" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K197">
         <v>1.615</v>
@@ -18108,7 +18108,7 @@
         <v>1</v>
       </c>
       <c r="J198" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K198">
         <v>3.2</v>
@@ -18188,7 +18188,7 @@
         <v>48</v>
       </c>
       <c r="G199" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H199">
         <v>1</v>
@@ -18197,7 +18197,7 @@
         <v>0</v>
       </c>
       <c r="J199" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K199">
         <v>1.909</v>
@@ -18363,7 +18363,7 @@
         <v>45184.91666666666</v>
       </c>
       <c r="F201" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G201" t="s">
         <v>41</v>
@@ -18375,7 +18375,7 @@
         <v>2</v>
       </c>
       <c r="J201" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K201">
         <v>2.2</v>
@@ -18452,7 +18452,7 @@
         <v>45184.95833333334</v>
       </c>
       <c r="F202" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G202" t="s">
         <v>30</v>
@@ -18553,7 +18553,7 @@
         <v>2</v>
       </c>
       <c r="J203" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K203">
         <v>2.875</v>
@@ -18633,7 +18633,7 @@
         <v>47</v>
       </c>
       <c r="G204" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H204">
         <v>1</v>
@@ -18719,7 +18719,7 @@
         <v>45185.85416666666</v>
       </c>
       <c r="F205" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G205" t="s">
         <v>40</v>
@@ -18731,7 +18731,7 @@
         <v>0</v>
       </c>
       <c r="J205" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K205">
         <v>2.1</v>
@@ -18811,7 +18811,7 @@
         <v>34</v>
       </c>
       <c r="G206" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H206">
         <v>4</v>
@@ -18820,7 +18820,7 @@
         <v>2</v>
       </c>
       <c r="J206" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K206">
         <v>1.5</v>
@@ -18897,7 +18897,7 @@
         <v>45185.89583333334</v>
       </c>
       <c r="F207" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G207" t="s">
         <v>33</v>
@@ -18909,7 +18909,7 @@
         <v>3</v>
       </c>
       <c r="J207" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K207">
         <v>1.909</v>
@@ -18974,7 +18974,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>6126787</v>
+        <v>6126788</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18986,76 +18986,76 @@
         <v>45185.95833333334</v>
       </c>
       <c r="F208" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="G208" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="H208">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I208">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J208" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K208">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="L208">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M208">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="N208">
-        <v>1.833</v>
+        <v>1.7</v>
       </c>
       <c r="O208">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P208">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="Q208">
         <v>-0.75</v>
       </c>
       <c r="R208">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="S208">
-        <v>1.7</v>
+        <v>1.875</v>
       </c>
       <c r="T208">
         <v>2.75</v>
       </c>
       <c r="U208">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V208">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W208">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X208">
         <v>-1</v>
       </c>
       <c r="Y208">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z208">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="AA208">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB208">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC208">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -19087,7 +19087,7 @@
         <v>0</v>
       </c>
       <c r="J209" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K209">
         <v>1.5</v>
@@ -19152,7 +19152,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>6126788</v>
+        <v>6126787</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19164,76 +19164,76 @@
         <v>45185.95833333334</v>
       </c>
       <c r="F210" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="G210" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I210">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J210" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K210">
-        <v>1.8</v>
+        <v>1.727</v>
       </c>
       <c r="L210">
+        <v>3.75</v>
+      </c>
+      <c r="M210">
+        <v>4.2</v>
+      </c>
+      <c r="N210">
+        <v>1.833</v>
+      </c>
+      <c r="O210">
         <v>3.5</v>
       </c>
-      <c r="M210">
-        <v>4.1</v>
-      </c>
-      <c r="N210">
-        <v>1.7</v>
-      </c>
-      <c r="O210">
-        <v>3.6</v>
-      </c>
       <c r="P210">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Q210">
         <v>-0.75</v>
       </c>
       <c r="R210">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="S210">
-        <v>1.875</v>
+        <v>1.7</v>
       </c>
       <c r="T210">
         <v>2.75</v>
       </c>
       <c r="U210">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V210">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W210">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X210">
         <v>-1</v>
       </c>
       <c r="Y210">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z210">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="AA210">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB210">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC210">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="211" spans="1:29">
@@ -19265,7 +19265,7 @@
         <v>0</v>
       </c>
       <c r="J211" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K211">
         <v>1.8</v>
@@ -19342,7 +19342,7 @@
         <v>45186.92916666667</v>
       </c>
       <c r="F212" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G212" t="s">
         <v>48</v>
@@ -19354,7 +19354,7 @@
         <v>0</v>
       </c>
       <c r="J212" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K212">
         <v>2.05</v>
@@ -19434,7 +19434,7 @@
         <v>47</v>
       </c>
       <c r="G213" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H213">
         <v>4</v>
@@ -19443,7 +19443,7 @@
         <v>3</v>
       </c>
       <c r="J213" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K213">
         <v>2.4</v>
@@ -19532,7 +19532,7 @@
         <v>1</v>
       </c>
       <c r="J214" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K214">
         <v>2</v>
@@ -19612,7 +19612,7 @@
         <v>51</v>
       </c>
       <c r="G215" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H215">
         <v>0</v>
@@ -19621,7 +19621,7 @@
         <v>0</v>
       </c>
       <c r="J215" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K215">
         <v>1.5</v>
@@ -19698,7 +19698,7 @@
         <v>45189.95833333334</v>
       </c>
       <c r="F216" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G216" t="s">
         <v>40</v>
@@ -19799,7 +19799,7 @@
         <v>1</v>
       </c>
       <c r="J217" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K217">
         <v>1.909</v>
@@ -19879,7 +19879,7 @@
         <v>39</v>
       </c>
       <c r="G218" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H218">
         <v>1</v>
@@ -19965,10 +19965,10 @@
         <v>45192.83333333334</v>
       </c>
       <c r="F219" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G219" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H219">
         <v>2</v>
@@ -19977,7 +19977,7 @@
         <v>1</v>
       </c>
       <c r="J219" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K219">
         <v>1.666</v>
@@ -20042,7 +20042,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>6387474</v>
+        <v>6126798</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20054,58 +20054,58 @@
         <v>45192.85416666666</v>
       </c>
       <c r="F220" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="G220" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I220">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J220" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K220">
-        <v>1.666</v>
+        <v>1.5</v>
       </c>
       <c r="L220">
+        <v>4</v>
+      </c>
+      <c r="M220">
+        <v>5</v>
+      </c>
+      <c r="N220">
+        <v>1.75</v>
+      </c>
+      <c r="O220">
         <v>3.75</v>
       </c>
-      <c r="M220">
+      <c r="P220">
         <v>4</v>
       </c>
-      <c r="N220">
-        <v>1.55</v>
-      </c>
-      <c r="O220">
-        <v>4.333</v>
-      </c>
-      <c r="P220">
-        <v>4.75</v>
-      </c>
       <c r="Q220">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R220">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S220">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T220">
         <v>2.75</v>
       </c>
       <c r="U220">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V220">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W220">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="X220">
         <v>-1</v>
@@ -20114,13 +20114,13 @@
         <v>-1</v>
       </c>
       <c r="Z220">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA220">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB220">
-        <v>0.4125</v>
+        <v>0.475</v>
       </c>
       <c r="AC220">
         <v>-0.5</v>
@@ -20131,7 +20131,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>6126798</v>
+        <v>6387474</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20143,58 +20143,58 @@
         <v>45192.85416666666</v>
       </c>
       <c r="F221" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="G221" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="H221">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I221">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J221" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K221">
-        <v>1.5</v>
+        <v>1.666</v>
       </c>
       <c r="L221">
+        <v>3.75</v>
+      </c>
+      <c r="M221">
         <v>4</v>
       </c>
-      <c r="M221">
-        <v>5</v>
-      </c>
       <c r="N221">
-        <v>1.75</v>
+        <v>1.55</v>
       </c>
       <c r="O221">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="P221">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="Q221">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R221">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S221">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T221">
         <v>2.75</v>
       </c>
       <c r="U221">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V221">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W221">
-        <v>0.75</v>
+        <v>0.55</v>
       </c>
       <c r="X221">
         <v>-1</v>
@@ -20203,13 +20203,13 @@
         <v>-1</v>
       </c>
       <c r="Z221">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA221">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB221">
-        <v>0.475</v>
+        <v>0.4125</v>
       </c>
       <c r="AC221">
         <v>-0.5</v>
@@ -20333,7 +20333,7 @@
         <v>0</v>
       </c>
       <c r="J223" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K223">
         <v>2.4</v>
@@ -20410,10 +20410,10 @@
         <v>45192.89583333334</v>
       </c>
       <c r="F224" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G224" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H224">
         <v>4</v>
@@ -20422,7 +20422,7 @@
         <v>0</v>
       </c>
       <c r="J224" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K224">
         <v>2.1</v>
@@ -20511,7 +20511,7 @@
         <v>1</v>
       </c>
       <c r="J225" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K225">
         <v>3.4</v>
@@ -20591,7 +20591,7 @@
         <v>50</v>
       </c>
       <c r="G226" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H226">
         <v>2</v>
@@ -20600,7 +20600,7 @@
         <v>2</v>
       </c>
       <c r="J226" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K226">
         <v>2</v>
@@ -20680,7 +20680,7 @@
         <v>41</v>
       </c>
       <c r="G227" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H227">
         <v>0</v>
@@ -20778,7 +20778,7 @@
         <v>1</v>
       </c>
       <c r="J228" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K228">
         <v>1.5</v>
@@ -20944,7 +20944,7 @@
         <v>45196.83333333334</v>
       </c>
       <c r="F230" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G230" t="s">
         <v>33</v>
@@ -21122,7 +21122,7 @@
         <v>45199.83333333334</v>
       </c>
       <c r="F232" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G232" t="s">
         <v>49</v>
@@ -21134,7 +21134,7 @@
         <v>2</v>
       </c>
       <c r="J232" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K232">
         <v>1.4</v>
@@ -21199,7 +21199,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>6418149</v>
+        <v>6418147</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21211,58 +21211,58 @@
         <v>45199.83333333334</v>
       </c>
       <c r="F233" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G233" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I233">
         <v>0</v>
       </c>
       <c r="J233" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K233">
-        <v>1.45</v>
+        <v>1.833</v>
       </c>
       <c r="L233">
+        <v>3.4</v>
+      </c>
+      <c r="M233">
+        <v>3.9</v>
+      </c>
+      <c r="N233">
+        <v>1.8</v>
+      </c>
+      <c r="O233">
+        <v>3.3</v>
+      </c>
+      <c r="P233">
         <v>4.2</v>
       </c>
-      <c r="M233">
-        <v>5.75</v>
-      </c>
-      <c r="N233">
-        <v>1.5</v>
-      </c>
-      <c r="O233">
-        <v>4.2</v>
-      </c>
-      <c r="P233">
-        <v>5.5</v>
-      </c>
       <c r="Q233">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R233">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S233">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T233">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U233">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V233">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W233">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="X233">
         <v>-1</v>
@@ -21271,16 +21271,16 @@
         <v>-1</v>
       </c>
       <c r="Z233">
-        <v>0.75</v>
+        <v>0.825</v>
       </c>
       <c r="AA233">
         <v>-1</v>
       </c>
       <c r="AB233">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC233">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="234" spans="1:29">
@@ -21288,7 +21288,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>6418147</v>
+        <v>6418149</v>
       </c>
       <c r="C234" t="s">
         <v>28</v>
@@ -21300,58 +21300,58 @@
         <v>45199.83333333334</v>
       </c>
       <c r="F234" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G234" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="H234">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I234">
         <v>0</v>
       </c>
       <c r="J234" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K234">
-        <v>1.833</v>
+        <v>1.45</v>
       </c>
       <c r="L234">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M234">
-        <v>3.9</v>
+        <v>5.75</v>
       </c>
       <c r="N234">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="O234">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="P234">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="Q234">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R234">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S234">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T234">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U234">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V234">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W234">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="X234">
         <v>-1</v>
@@ -21360,16 +21360,16 @@
         <v>-1</v>
       </c>
       <c r="Z234">
-        <v>0.825</v>
+        <v>0.75</v>
       </c>
       <c r="AA234">
         <v>-1</v>
       </c>
       <c r="AB234">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC234">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="235" spans="1:29">
@@ -21401,7 +21401,7 @@
         <v>0</v>
       </c>
       <c r="J235" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K235">
         <v>1.363</v>
@@ -21570,7 +21570,7 @@
         <v>30</v>
       </c>
       <c r="G237" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H237">
         <v>1</v>
@@ -21579,7 +21579,7 @@
         <v>1</v>
       </c>
       <c r="J237" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K237">
         <v>1.833</v>
@@ -21656,10 +21656,10 @@
         <v>45199.91666666666</v>
       </c>
       <c r="F238" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G238" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H238">
         <v>2</v>
@@ -21668,7 +21668,7 @@
         <v>0</v>
       </c>
       <c r="J238" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K238">
         <v>2.4</v>
@@ -21757,7 +21757,7 @@
         <v>2</v>
       </c>
       <c r="J239" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K239">
         <v>2.65</v>
@@ -21837,7 +21837,7 @@
         <v>40</v>
       </c>
       <c r="G240" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H240">
         <v>4</v>
@@ -21846,7 +21846,7 @@
         <v>1</v>
       </c>
       <c r="J240" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K240">
         <v>1.666</v>
@@ -21926,7 +21926,7 @@
         <v>50</v>
       </c>
       <c r="G241" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H241">
         <v>2</v>
@@ -21935,7 +21935,7 @@
         <v>2</v>
       </c>
       <c r="J241" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K241">
         <v>3</v>
@@ -22015,7 +22015,7 @@
         <v>45</v>
       </c>
       <c r="G242" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H242">
         <v>1</v>
@@ -22024,7 +22024,7 @@
         <v>1</v>
       </c>
       <c r="J242" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K242">
         <v>1.909</v>
@@ -22113,7 +22113,7 @@
         <v>0</v>
       </c>
       <c r="J243" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K243">
         <v>1.3</v>
@@ -22190,10 +22190,10 @@
         <v>45203.83333333334</v>
       </c>
       <c r="F244" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G244" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H244">
         <v>2</v>
@@ -22202,7 +22202,7 @@
         <v>2</v>
       </c>
       <c r="J244" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K244">
         <v>2.8</v>
@@ -22291,7 +22291,7 @@
         <v>0</v>
       </c>
       <c r="J245" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K245">
         <v>2.2</v>
@@ -22368,7 +22368,7 @@
         <v>45203.95833333334</v>
       </c>
       <c r="F246" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G246" t="s">
         <v>50</v>
@@ -22380,7 +22380,7 @@
         <v>1</v>
       </c>
       <c r="J246" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K246">
         <v>1.909</v>
@@ -22638,7 +22638,7 @@
         <v>33</v>
       </c>
       <c r="G249" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H249">
         <v>0</v>
@@ -22724,10 +22724,10 @@
         <v>45206.85416666666</v>
       </c>
       <c r="F250" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G250" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H250">
         <v>1</v>
@@ -22736,7 +22736,7 @@
         <v>1</v>
       </c>
       <c r="J250" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K250">
         <v>1.3</v>
@@ -22825,7 +22825,7 @@
         <v>0</v>
       </c>
       <c r="J251" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K251">
         <v>1.85</v>
@@ -22902,7 +22902,7 @@
         <v>45206.875</v>
       </c>
       <c r="F252" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G252" t="s">
         <v>51</v>
@@ -23092,7 +23092,7 @@
         <v>2</v>
       </c>
       <c r="J254" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K254">
         <v>1.909</v>
@@ -23169,10 +23169,10 @@
         <v>45206.95833333334</v>
       </c>
       <c r="F255" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G255" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H255">
         <v>1</v>
@@ -23181,7 +23181,7 @@
         <v>0</v>
       </c>
       <c r="J255" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K255">
         <v>2.3</v>
@@ -23261,7 +23261,7 @@
         <v>45</v>
       </c>
       <c r="G256" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H256">
         <v>1</v>
@@ -23439,7 +23439,7 @@
         <v>48</v>
       </c>
       <c r="G258" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H258">
         <v>2</v>
@@ -23448,7 +23448,7 @@
         <v>0</v>
       </c>
       <c r="J258" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K258">
         <v>1.95</v>
@@ -23525,7 +23525,7 @@
         <v>45212.83333333334</v>
       </c>
       <c r="F259" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G259" t="s">
         <v>49</v>
@@ -23614,7 +23614,7 @@
         <v>45212.91666666666</v>
       </c>
       <c r="F260" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G260" t="s">
         <v>34</v>
@@ -23626,7 +23626,7 @@
         <v>1</v>
       </c>
       <c r="J260" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K260">
         <v>2.375</v>
@@ -23706,7 +23706,7 @@
         <v>52</v>
       </c>
       <c r="G261" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H261">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="J261" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K261">
         <v>3</v>
@@ -23804,7 +23804,7 @@
         <v>0</v>
       </c>
       <c r="J262" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K262">
         <v>1.909</v>
@@ -23881,7 +23881,7 @@
         <v>45213.85416666666</v>
       </c>
       <c r="F263" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G263" t="s">
         <v>33</v>
@@ -23970,7 +23970,7 @@
         <v>45213.875</v>
       </c>
       <c r="F264" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G264" t="s">
         <v>39</v>
@@ -23982,7 +23982,7 @@
         <v>1</v>
       </c>
       <c r="J264" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K264">
         <v>1.444</v>
@@ -24071,7 +24071,7 @@
         <v>0</v>
       </c>
       <c r="J265" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K265">
         <v>2.05</v>
@@ -24148,7 +24148,7 @@
         <v>45213.89583333334</v>
       </c>
       <c r="F266" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G266" t="s">
         <v>41</v>
@@ -24160,7 +24160,7 @@
         <v>3</v>
       </c>
       <c r="J266" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K266">
         <v>1.615</v>
@@ -24237,10 +24237,10 @@
         <v>45213.95833333334</v>
       </c>
       <c r="F267" t="s">
+        <v>38</v>
+      </c>
+      <c r="G267" t="s">
         <v>37</v>
-      </c>
-      <c r="G267" t="s">
-        <v>38</v>
       </c>
       <c r="H267">
         <v>0</v>
@@ -24338,7 +24338,7 @@
         <v>0</v>
       </c>
       <c r="J268" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K268">
         <v>1.533</v>
@@ -24596,7 +24596,7 @@
         <v>34</v>
       </c>
       <c r="G271" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H271">
         <v>5</v>
@@ -24682,7 +24682,7 @@
         <v>45220.83333333334</v>
       </c>
       <c r="F272" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G272" t="s">
         <v>52</v>
@@ -24860,7 +24860,7 @@
         <v>45220.91666666666</v>
       </c>
       <c r="F274" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G274" t="s">
         <v>30</v>
@@ -24872,7 +24872,7 @@
         <v>0</v>
       </c>
       <c r="J274" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K274">
         <v>1.833</v>
@@ -24952,7 +24952,7 @@
         <v>51</v>
       </c>
       <c r="G275" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H275">
         <v>1</v>
@@ -24961,7 +24961,7 @@
         <v>0</v>
       </c>
       <c r="J275" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K275">
         <v>1.571</v>
@@ -25038,7 +25038,7 @@
         <v>45220.97916666666</v>
       </c>
       <c r="F276" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G276" t="s">
         <v>46</v>
@@ -25050,7 +25050,7 @@
         <v>0</v>
       </c>
       <c r="J276" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K276">
         <v>1.727</v>
@@ -25139,7 +25139,7 @@
         <v>0</v>
       </c>
       <c r="J277" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K277">
         <v>2</v>
@@ -25308,7 +25308,7 @@
         <v>51</v>
       </c>
       <c r="G279" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H279">
         <v>3</v>
@@ -25317,7 +25317,7 @@
         <v>1</v>
       </c>
       <c r="J279" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K279">
         <v>2.1</v>
@@ -25406,7 +25406,7 @@
         <v>1</v>
       </c>
       <c r="J280" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K280">
         <v>1.909</v>
@@ -25483,7 +25483,7 @@
         <v>45227.85416666666</v>
       </c>
       <c r="F281" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G281" t="s">
         <v>52</v>
@@ -25495,7 +25495,7 @@
         <v>0</v>
       </c>
       <c r="J281" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K281">
         <v>1.7</v>
@@ -25572,7 +25572,7 @@
         <v>45227.95833333334</v>
       </c>
       <c r="F282" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G282" t="s">
         <v>45</v>
@@ -25664,7 +25664,7 @@
         <v>29</v>
       </c>
       <c r="G283" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H283">
         <v>2</v>
@@ -25673,7 +25673,7 @@
         <v>1</v>
       </c>
       <c r="J283" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K283">
         <v>2.3</v>

--- a/USA USL Championship/USA USL Championship.xlsx
+++ b/USA USL Championship/USA USL Championship.xlsx
@@ -121,10 +121,10 @@
     <t>Memphis 901 FC</t>
   </si>
   <si>
-    <t>New Mexico United</t>
+    <t>San Antonio FC</t>
   </si>
   <si>
-    <t>San Antonio FC</t>
+    <t>New Mexico United</t>
   </si>
   <si>
     <t>Monterey Bay FC</t>
@@ -148,10 +148,10 @@
     <t>Rio Grande Valley FC Toros</t>
   </si>
   <si>
-    <t>Phoenix Rising FC</t>
+    <t>Las Vegas Lights FC</t>
   </si>
   <si>
-    <t>Las Vegas Lights FC</t>
+    <t>Phoenix Rising FC</t>
   </si>
   <si>
     <t>El Paso Locomotive FC</t>
@@ -922,7 +922,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -1174,7 +1174,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6126584</v>
+        <v>6126587</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1189,73 +1189,73 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K8">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="L8">
         <v>3.4</v>
       </c>
       <c r="M8">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="N8">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="O8">
         <v>3.4</v>
       </c>
       <c r="P8">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q8">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R8">
+        <v>1.85</v>
+      </c>
+      <c r="S8">
         <v>1.95</v>
       </c>
-      <c r="S8">
-        <v>1.85</v>
-      </c>
       <c r="T8">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U8">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V8">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W8">
         <v>-1</v>
       </c>
       <c r="X8">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y8">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z8">
         <v>-1</v>
       </c>
       <c r="AA8">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB8">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC8">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1263,7 +1263,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6126587</v>
+        <v>6126584</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1278,73 +1278,73 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K9">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="L9">
         <v>3.4</v>
       </c>
       <c r="M9">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="N9">
-        <v>1.8</v>
+        <v>2.15</v>
       </c>
       <c r="O9">
         <v>3.4</v>
       </c>
       <c r="P9">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="Q9">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R9">
+        <v>1.95</v>
+      </c>
+      <c r="S9">
         <v>1.85</v>
       </c>
-      <c r="S9">
-        <v>1.95</v>
-      </c>
       <c r="T9">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U9">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V9">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W9">
         <v>-1</v>
       </c>
       <c r="X9">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y9">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z9">
         <v>-1</v>
       </c>
       <c r="AA9">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB9">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC9">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1990,7 +1990,7 @@
         <v>33</v>
       </c>
       <c r="G17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H17">
         <v>3</v>
@@ -2242,7 +2242,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6126600</v>
+        <v>6126593</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2254,73 +2254,73 @@
         <v>45087.91666666666</v>
       </c>
       <c r="F20" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="L20">
         <v>3.4</v>
       </c>
       <c r="M20">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="N20">
-        <v>1.65</v>
+        <v>2.1</v>
       </c>
       <c r="O20">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P20">
-        <v>4.2</v>
+        <v>2.875</v>
       </c>
       <c r="Q20">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R20">
+        <v>1.925</v>
+      </c>
+      <c r="S20">
+        <v>1.875</v>
+      </c>
+      <c r="T20">
+        <v>2.75</v>
+      </c>
+      <c r="U20">
+        <v>1.75</v>
+      </c>
+      <c r="V20">
         <v>1.95</v>
       </c>
-      <c r="S20">
-        <v>1.85</v>
-      </c>
-      <c r="T20">
-        <v>2.5</v>
-      </c>
-      <c r="U20">
-        <v>1.775</v>
-      </c>
-      <c r="V20">
-        <v>1.925</v>
-      </c>
       <c r="W20">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X20">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y20">
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA20">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB20">
-        <v>0.7749999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AC20">
         <v>-1</v>
@@ -2331,7 +2331,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6126593</v>
+        <v>6126600</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2343,73 +2343,73 @@
         <v>45087.91666666666</v>
       </c>
       <c r="F21" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G21" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K21">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>3.4</v>
       </c>
       <c r="M21">
+        <v>3.1</v>
+      </c>
+      <c r="N21">
+        <v>1.65</v>
+      </c>
+      <c r="O21">
         <v>3.6</v>
       </c>
-      <c r="N21">
-        <v>2.1</v>
-      </c>
-      <c r="O21">
-        <v>3.5</v>
-      </c>
       <c r="P21">
-        <v>2.875</v>
+        <v>4.2</v>
       </c>
       <c r="Q21">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R21">
+        <v>1.95</v>
+      </c>
+      <c r="S21">
+        <v>1.85</v>
+      </c>
+      <c r="T21">
+        <v>2.5</v>
+      </c>
+      <c r="U21">
+        <v>1.775</v>
+      </c>
+      <c r="V21">
         <v>1.925</v>
       </c>
-      <c r="S21">
-        <v>1.875</v>
-      </c>
-      <c r="T21">
-        <v>2.75</v>
-      </c>
-      <c r="U21">
-        <v>1.75</v>
-      </c>
-      <c r="V21">
-        <v>1.95</v>
-      </c>
       <c r="W21">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X21">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y21">
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA21">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB21">
-        <v>0.75</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC21">
         <v>-1</v>
@@ -2420,7 +2420,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6126597</v>
+        <v>6126595</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2435,73 +2435,73 @@
         <v>44</v>
       </c>
       <c r="G22" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22">
         <v>2</v>
       </c>
       <c r="J22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K22">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="L22">
         <v>3.3</v>
       </c>
       <c r="M22">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="N22">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="O22">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P22">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="Q22">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R22">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S22">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T22">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U22">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V22">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W22">
         <v>-1</v>
       </c>
       <c r="X22">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y22">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z22">
+        <v>-1</v>
+      </c>
+      <c r="AA22">
+        <v>1</v>
+      </c>
+      <c r="AB22">
+        <v>0.4875</v>
+      </c>
+      <c r="AC22">
         <v>-0.5</v>
-      </c>
-      <c r="AA22">
-        <v>0.475</v>
-      </c>
-      <c r="AB22">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC22">
-        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2509,7 +2509,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6126595</v>
+        <v>6126597</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2524,73 +2524,73 @@
         <v>45</v>
       </c>
       <c r="G23" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23">
         <v>2</v>
       </c>
       <c r="J23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K23">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="L23">
         <v>3.3</v>
       </c>
       <c r="M23">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="N23">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="O23">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P23">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="Q23">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R23">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S23">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T23">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U23">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V23">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W23">
         <v>-1</v>
       </c>
       <c r="X23">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y23">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z23">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA23">
-        <v>1</v>
+        <v>0.475</v>
       </c>
       <c r="AB23">
-        <v>0.4875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC23">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2702,7 +2702,7 @@
         <v>46</v>
       </c>
       <c r="G25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H25">
         <v>2</v>
@@ -2791,7 +2791,7 @@
         <v>40</v>
       </c>
       <c r="G26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H26">
         <v>2</v>
@@ -3322,7 +3322,7 @@
         <v>45094.91666666666</v>
       </c>
       <c r="F32" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G32" t="s">
         <v>43</v>
@@ -3414,7 +3414,7 @@
         <v>30</v>
       </c>
       <c r="G33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H33">
         <v>2</v>
@@ -3678,7 +3678,7 @@
         <v>45094.97916666666</v>
       </c>
       <c r="F36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G36" t="s">
         <v>42</v>
@@ -3844,7 +3844,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6126617</v>
+        <v>6126616</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3856,13 +3856,13 @@
         <v>45098.875</v>
       </c>
       <c r="F38" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="G38" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H38">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -3871,43 +3871,43 @@
         <v>55</v>
       </c>
       <c r="K38">
-        <v>1.615</v>
+        <v>1.8</v>
       </c>
       <c r="L38">
+        <v>3.5</v>
+      </c>
+      <c r="M38">
+        <v>3.6</v>
+      </c>
+      <c r="N38">
+        <v>1.7</v>
+      </c>
+      <c r="O38">
+        <v>3.8</v>
+      </c>
+      <c r="P38">
         <v>3.75</v>
       </c>
-      <c r="M38">
-        <v>4.333</v>
-      </c>
-      <c r="N38">
-        <v>1.5</v>
-      </c>
-      <c r="O38">
-        <v>4.2</v>
-      </c>
-      <c r="P38">
-        <v>4.75</v>
-      </c>
       <c r="Q38">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R38">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S38">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T38">
         <v>3</v>
       </c>
       <c r="U38">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V38">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="W38">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="X38">
         <v>-1</v>
@@ -3916,16 +3916,16 @@
         <v>-1</v>
       </c>
       <c r="Z38">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AA38">
         <v>-1</v>
       </c>
       <c r="AB38">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC38">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3933,7 +3933,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6126619</v>
+        <v>6126617</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3945,13 +3945,13 @@
         <v>45098.875</v>
       </c>
       <c r="F39" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G39" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -3960,43 +3960,43 @@
         <v>55</v>
       </c>
       <c r="K39">
-        <v>2.1</v>
+        <v>1.615</v>
       </c>
       <c r="L39">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M39">
+        <v>4.333</v>
+      </c>
+      <c r="N39">
+        <v>1.5</v>
+      </c>
+      <c r="O39">
+        <v>4.2</v>
+      </c>
+      <c r="P39">
+        <v>4.75</v>
+      </c>
+      <c r="Q39">
+        <v>-1</v>
+      </c>
+      <c r="R39">
+        <v>1.825</v>
+      </c>
+      <c r="S39">
+        <v>1.975</v>
+      </c>
+      <c r="T39">
         <v>3</v>
       </c>
-      <c r="N39">
-        <v>2.15</v>
-      </c>
-      <c r="O39">
-        <v>3.4</v>
-      </c>
-      <c r="P39">
-        <v>2.875</v>
-      </c>
-      <c r="Q39">
-        <v>-0.25</v>
-      </c>
-      <c r="R39">
-        <v>1.975</v>
-      </c>
-      <c r="S39">
-        <v>1.825</v>
-      </c>
-      <c r="T39">
-        <v>2.75</v>
-      </c>
       <c r="U39">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V39">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="W39">
-        <v>1.15</v>
+        <v>0.5</v>
       </c>
       <c r="X39">
         <v>-1</v>
@@ -4005,16 +4005,16 @@
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA39">
         <v>-1</v>
       </c>
       <c r="AB39">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC39">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4022,7 +4022,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6126616</v>
+        <v>6126619</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4034,13 +4034,13 @@
         <v>45098.875</v>
       </c>
       <c r="F40" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G40" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -4049,43 +4049,43 @@
         <v>55</v>
       </c>
       <c r="K40">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="L40">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M40">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="N40">
-        <v>1.7</v>
+        <v>2.15</v>
       </c>
       <c r="O40">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P40">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="Q40">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R40">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S40">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T40">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U40">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V40">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W40">
-        <v>0.7</v>
+        <v>1.15</v>
       </c>
       <c r="X40">
         <v>-1</v>
@@ -4094,7 +4094,7 @@
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA40">
         <v>-1</v>
@@ -4103,7 +4103,7 @@
         <v>-1</v>
       </c>
       <c r="AC40">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4123,10 +4123,10 @@
         <v>45098.91666666666</v>
       </c>
       <c r="F41" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H41">
         <v>1</v>
@@ -4200,7 +4200,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6126628</v>
+        <v>6126622</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4212,46 +4212,46 @@
         <v>45101.83333333334</v>
       </c>
       <c r="F42" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G42" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H42">
         <v>2</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J42" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K42">
-        <v>1.727</v>
+        <v>3.4</v>
       </c>
       <c r="L42">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M42">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="N42">
-        <v>1.909</v>
+        <v>3.75</v>
       </c>
       <c r="O42">
         <v>3.5</v>
       </c>
       <c r="P42">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="Q42">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R42">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S42">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T42">
         <v>2.75</v>
@@ -4260,28 +4260,28 @@
         <v>1.925</v>
       </c>
       <c r="V42">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="W42">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X42">
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z42">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA42">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB42">
-        <v>0.4625</v>
+        <v>0.925</v>
       </c>
       <c r="AC42">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4378,7 +4378,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6126622</v>
+        <v>6126628</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4390,46 +4390,46 @@
         <v>45101.83333333334</v>
       </c>
       <c r="F44" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G44" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H44">
         <v>2</v>
       </c>
       <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44" t="s">
+        <v>55</v>
+      </c>
+      <c r="K44">
+        <v>1.727</v>
+      </c>
+      <c r="L44">
+        <v>3.5</v>
+      </c>
+      <c r="M44">
         <v>4</v>
       </c>
-      <c r="J44" t="s">
-        <v>53</v>
-      </c>
-      <c r="K44">
-        <v>3.4</v>
-      </c>
-      <c r="L44">
-        <v>3.4</v>
-      </c>
-      <c r="M44">
+      <c r="N44">
         <v>1.909</v>
-      </c>
-      <c r="N44">
-        <v>3.75</v>
       </c>
       <c r="O44">
         <v>3.5</v>
       </c>
       <c r="P44">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q44">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R44">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S44">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T44">
         <v>2.75</v>
@@ -4438,28 +4438,28 @@
         <v>1.925</v>
       </c>
       <c r="V44">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W44">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X44">
         <v>-1</v>
       </c>
       <c r="Y44">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z44">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA44">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB44">
-        <v>0.925</v>
+        <v>0.4625</v>
       </c>
       <c r="AC44">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4571,7 +4571,7 @@
         <v>42</v>
       </c>
       <c r="G46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H46">
         <v>1</v>
@@ -4746,7 +4746,7 @@
         <v>45101.91666666666</v>
       </c>
       <c r="F48" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G48" t="s">
         <v>30</v>
@@ -4823,7 +4823,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6126627</v>
+        <v>6126625</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4835,76 +4835,76 @@
         <v>45101.95833333334</v>
       </c>
       <c r="F49" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="G49" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H49">
         <v>1</v>
       </c>
       <c r="I49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K49">
         <v>1.833</v>
       </c>
       <c r="L49">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M49">
         <v>3.6</v>
       </c>
       <c r="N49">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="O49">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P49">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="Q49">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R49">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S49">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T49">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U49">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V49">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W49">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X49">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y49">
         <v>-1</v>
       </c>
       <c r="Z49">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA49">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB49">
         <v>-1</v>
       </c>
       <c r="AC49">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4912,7 +4912,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6126625</v>
+        <v>6126627</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4924,76 +4924,76 @@
         <v>45101.95833333334</v>
       </c>
       <c r="F50" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="G50" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H50">
         <v>1</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K50">
         <v>1.833</v>
       </c>
       <c r="L50">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M50">
         <v>3.6</v>
       </c>
       <c r="N50">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="O50">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P50">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="Q50">
+        <v>-0.25</v>
+      </c>
+      <c r="R50">
+        <v>1.925</v>
+      </c>
+      <c r="S50">
+        <v>1.875</v>
+      </c>
+      <c r="T50">
+        <v>2.5</v>
+      </c>
+      <c r="U50">
+        <v>1.875</v>
+      </c>
+      <c r="V50">
+        <v>1.925</v>
+      </c>
+      <c r="W50">
+        <v>-1</v>
+      </c>
+      <c r="X50">
+        <v>2.25</v>
+      </c>
+      <c r="Y50">
+        <v>-1</v>
+      </c>
+      <c r="Z50">
         <v>-0.5</v>
       </c>
-      <c r="R50">
-        <v>1.825</v>
-      </c>
-      <c r="S50">
-        <v>1.975</v>
-      </c>
-      <c r="T50">
-        <v>2.25</v>
-      </c>
-      <c r="U50">
-        <v>1.95</v>
-      </c>
-      <c r="V50">
-        <v>1.85</v>
-      </c>
-      <c r="W50">
-        <v>0.8</v>
-      </c>
-      <c r="X50">
-        <v>-1</v>
-      </c>
-      <c r="Y50">
-        <v>-1</v>
-      </c>
-      <c r="Z50">
-        <v>0.825</v>
-      </c>
       <c r="AA50">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB50">
         <v>-1</v>
       </c>
       <c r="AC50">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -5016,7 +5016,7 @@
         <v>51</v>
       </c>
       <c r="G51" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H51">
         <v>3</v>
@@ -5535,7 +5535,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6126633</v>
+        <v>6126641</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5547,52 +5547,52 @@
         <v>45108.91666666666</v>
       </c>
       <c r="F57" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="s">
         <v>55</v>
       </c>
       <c r="K57">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="L57">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M57">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="N57">
         <v>1.666</v>
       </c>
       <c r="O57">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P57">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q57">
         <v>-0.75</v>
       </c>
       <c r="R57">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S57">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T57">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U57">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="V57">
         <v>1.95</v>
@@ -5607,16 +5607,16 @@
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA57">
         <v>-1</v>
       </c>
       <c r="AB57">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC57">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5624,7 +5624,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6126641</v>
+        <v>6126633</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5636,52 +5636,52 @@
         <v>45108.91666666666</v>
       </c>
       <c r="F58" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G58" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H58">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" t="s">
         <v>55</v>
       </c>
       <c r="K58">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L58">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M58">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="N58">
         <v>1.666</v>
       </c>
       <c r="O58">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P58">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q58">
         <v>-0.75</v>
       </c>
       <c r="R58">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S58">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T58">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U58">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="V58">
         <v>1.95</v>
@@ -5696,16 +5696,16 @@
         <v>-1</v>
       </c>
       <c r="Z58">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA58">
         <v>-1</v>
       </c>
       <c r="AB58">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC58">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5728,7 +5728,7 @@
         <v>46</v>
       </c>
       <c r="G59" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -5903,7 +5903,7 @@
         <v>45108.97916666666</v>
       </c>
       <c r="F61" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G61" t="s">
         <v>33</v>
@@ -5992,7 +5992,7 @@
         <v>45109</v>
       </c>
       <c r="F62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G62" t="s">
         <v>34</v>
@@ -6247,7 +6247,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6126643</v>
+        <v>6126644</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6259,73 +6259,73 @@
         <v>45111.91666666666</v>
       </c>
       <c r="F65" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G65" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H65">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I65">
+        <v>2</v>
+      </c>
+      <c r="J65" t="s">
+        <v>54</v>
+      </c>
+      <c r="K65">
+        <v>2.625</v>
+      </c>
+      <c r="L65">
+        <v>3.5</v>
+      </c>
+      <c r="M65">
+        <v>2.3</v>
+      </c>
+      <c r="N65">
+        <v>2.3</v>
+      </c>
+      <c r="O65">
+        <v>3.6</v>
+      </c>
+      <c r="P65">
+        <v>2.55</v>
+      </c>
+      <c r="Q65">
         <v>0</v>
       </c>
-      <c r="J65" t="s">
-        <v>55</v>
-      </c>
-      <c r="K65">
-        <v>2</v>
-      </c>
-      <c r="L65">
-        <v>3.6</v>
-      </c>
-      <c r="M65">
-        <v>3.1</v>
-      </c>
-      <c r="N65">
-        <v>1.727</v>
-      </c>
-      <c r="O65">
-        <v>3.8</v>
-      </c>
-      <c r="P65">
-        <v>3.8</v>
-      </c>
-      <c r="Q65">
-        <v>-0.75</v>
-      </c>
       <c r="R65">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S65">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T65">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U65">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V65">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W65">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X65">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y65">
         <v>-1</v>
       </c>
       <c r="Z65">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA65">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB65">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC65">
         <v>-1</v>
@@ -6336,7 +6336,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6126644</v>
+        <v>6126643</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6348,73 +6348,73 @@
         <v>45111.91666666666</v>
       </c>
       <c r="F66" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G66" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I66">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J66" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K66">
-        <v>2.625</v>
+        <v>2</v>
       </c>
       <c r="L66">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M66">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="N66">
-        <v>2.3</v>
+        <v>1.727</v>
       </c>
       <c r="O66">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P66">
-        <v>2.55</v>
+        <v>3.8</v>
       </c>
       <c r="Q66">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R66">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S66">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T66">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U66">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V66">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W66">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X66">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y66">
         <v>-1</v>
       </c>
       <c r="Z66">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA66">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB66">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC66">
         <v>-1</v>
@@ -6440,7 +6440,7 @@
         <v>34</v>
       </c>
       <c r="G67" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -6514,7 +6514,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6126646</v>
+        <v>6126652</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6526,49 +6526,49 @@
         <v>45115.83333333334</v>
       </c>
       <c r="F68" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G68" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H68">
         <v>0</v>
       </c>
       <c r="I68">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J68" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K68">
-        <v>3.25</v>
+        <v>1.909</v>
       </c>
       <c r="L68">
         <v>3.3</v>
       </c>
       <c r="M68">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="N68">
-        <v>3</v>
+        <v>1.95</v>
       </c>
       <c r="O68">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P68">
-        <v>2.1</v>
+        <v>3.75</v>
       </c>
       <c r="Q68">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R68">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S68">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T68">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="U68">
         <v>1.8</v>
@@ -6580,16 +6580,16 @@
         <v>-1</v>
       </c>
       <c r="X68">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y68">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z68">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA68">
-        <v>0.825</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB68">
         <v>-1</v>
@@ -6692,7 +6692,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6126652</v>
+        <v>6126655</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6704,76 +6704,76 @@
         <v>45115.83333333334</v>
       </c>
       <c r="F70" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="G70" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K70">
-        <v>1.909</v>
+        <v>2.7</v>
       </c>
       <c r="L70">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M70">
-        <v>3.6</v>
+        <v>2.375</v>
       </c>
       <c r="N70">
-        <v>1.95</v>
+        <v>3</v>
       </c>
       <c r="O70">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P70">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="Q70">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R70">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S70">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T70">
-        <v>1.75</v>
+        <v>2.75</v>
       </c>
       <c r="U70">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V70">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W70">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X70">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y70">
         <v>-1</v>
       </c>
       <c r="Z70">
+        <v>0.825</v>
+      </c>
+      <c r="AA70">
+        <v>-1</v>
+      </c>
+      <c r="AB70">
+        <v>0.4375</v>
+      </c>
+      <c r="AC70">
         <v>-0.5</v>
-      </c>
-      <c r="AA70">
-        <v>0.5249999999999999</v>
-      </c>
-      <c r="AB70">
-        <v>-1</v>
-      </c>
-      <c r="AC70">
-        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6781,7 +6781,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6126655</v>
+        <v>6126646</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6793,76 +6793,76 @@
         <v>45115.83333333334</v>
       </c>
       <c r="F71" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G71" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J71" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K71">
-        <v>2.7</v>
+        <v>3.25</v>
       </c>
       <c r="L71">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M71">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="N71">
         <v>3</v>
       </c>
       <c r="O71">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P71">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q71">
         <v>0.25</v>
       </c>
       <c r="R71">
+        <v>1.975</v>
+      </c>
+      <c r="S71">
         <v>1.825</v>
       </c>
-      <c r="S71">
-        <v>1.975</v>
-      </c>
       <c r="T71">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U71">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V71">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W71">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X71">
         <v>-1</v>
       </c>
       <c r="Y71">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z71">
+        <v>-1</v>
+      </c>
+      <c r="AA71">
         <v>0.825</v>
       </c>
-      <c r="AA71">
-        <v>-1</v>
-      </c>
       <c r="AB71">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AC71">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -7060,7 +7060,7 @@
         <v>45115.91666666666</v>
       </c>
       <c r="F74" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G74" t="s">
         <v>52</v>
@@ -7238,7 +7238,7 @@
         <v>45115.97916666666</v>
       </c>
       <c r="F76" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G76" t="s">
         <v>48</v>
@@ -7775,7 +7775,7 @@
         <v>46</v>
       </c>
       <c r="G82" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H82">
         <v>1</v>
@@ -8027,7 +8027,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6126667</v>
+        <v>6126669</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8039,76 +8039,76 @@
         <v>45122.83333333334</v>
       </c>
       <c r="F85" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="G85" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K85">
-        <v>1.571</v>
+        <v>2.1</v>
       </c>
       <c r="L85">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M85">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N85">
-        <v>1.5</v>
+        <v>2.55</v>
       </c>
       <c r="O85">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P85">
-        <v>6</v>
+        <v>2.375</v>
       </c>
       <c r="Q85">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R85">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="S85">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T85">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U85">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V85">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W85">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X85">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y85">
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>0.8999999999999999</v>
+        <v>0.3625</v>
       </c>
       <c r="AA85">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB85">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC85">
-        <v>0.475</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8116,7 +8116,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6126669</v>
+        <v>6126667</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8128,76 +8128,76 @@
         <v>45122.83333333334</v>
       </c>
       <c r="F86" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="G86" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K86">
-        <v>2.1</v>
+        <v>1.571</v>
       </c>
       <c r="L86">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M86">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N86">
-        <v>2.55</v>
+        <v>1.5</v>
       </c>
       <c r="O86">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P86">
-        <v>2.375</v>
+        <v>6</v>
       </c>
       <c r="Q86">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R86">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="S86">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T86">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U86">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V86">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W86">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X86">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y86">
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>0.3625</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA86">
+        <v>-1</v>
+      </c>
+      <c r="AB86">
         <v>-0.5</v>
       </c>
-      <c r="AB86">
-        <v>-1</v>
-      </c>
       <c r="AC86">
-        <v>0.825</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -9374,7 +9374,7 @@
         <v>45129.91666666666</v>
       </c>
       <c r="F100" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G100" t="s">
         <v>47</v>
@@ -9463,7 +9463,7 @@
         <v>45129.91666666666</v>
       </c>
       <c r="F101" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G101" t="s">
         <v>51</v>
@@ -9641,7 +9641,7 @@
         <v>45129.97916666666</v>
       </c>
       <c r="F103" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G103" t="s">
         <v>31</v>
@@ -9730,7 +9730,7 @@
         <v>45129.97916666666</v>
       </c>
       <c r="F104" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G104" t="s">
         <v>30</v>
@@ -9911,7 +9911,7 @@
         <v>50</v>
       </c>
       <c r="G106" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H106">
         <v>1</v>
@@ -10000,7 +10000,7 @@
         <v>51</v>
       </c>
       <c r="G107" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H107">
         <v>4</v>
@@ -10252,7 +10252,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6126685</v>
+        <v>6126696</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10264,73 +10264,73 @@
         <v>45136.85416666666</v>
       </c>
       <c r="F110" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="G110" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I110">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J110" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K110">
-        <v>2.25</v>
+        <v>1.533</v>
       </c>
       <c r="L110">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M110">
-        <v>2.625</v>
+        <v>5</v>
       </c>
       <c r="N110">
-        <v>2.05</v>
+        <v>1.444</v>
       </c>
       <c r="O110">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P110">
-        <v>2.9</v>
+        <v>5.75</v>
       </c>
       <c r="Q110">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R110">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S110">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T110">
         <v>2.75</v>
       </c>
       <c r="U110">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V110">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W110">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X110">
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z110">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA110">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB110">
-        <v>0.4625</v>
+        <v>0.45</v>
       </c>
       <c r="AC110">
         <v>-0.5</v>
@@ -10341,7 +10341,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6126696</v>
+        <v>6126685</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10353,73 +10353,73 @@
         <v>45136.85416666666</v>
       </c>
       <c r="F111" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="G111" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="H111">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I111">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J111" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K111">
-        <v>1.533</v>
+        <v>2.25</v>
       </c>
       <c r="L111">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M111">
-        <v>5</v>
+        <v>2.625</v>
       </c>
       <c r="N111">
-        <v>1.444</v>
+        <v>2.05</v>
       </c>
       <c r="O111">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P111">
-        <v>5.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q111">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R111">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S111">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T111">
         <v>2.75</v>
       </c>
       <c r="U111">
+        <v>1.925</v>
+      </c>
+      <c r="V111">
+        <v>1.875</v>
+      </c>
+      <c r="W111">
+        <v>-1</v>
+      </c>
+      <c r="X111">
+        <v>-1</v>
+      </c>
+      <c r="Y111">
         <v>1.9</v>
       </c>
-      <c r="V111">
-        <v>1.9</v>
-      </c>
-      <c r="W111">
-        <v>0.444</v>
-      </c>
-      <c r="X111">
-        <v>-1</v>
-      </c>
-      <c r="Y111">
-        <v>-1</v>
-      </c>
       <c r="Z111">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA111">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB111">
-        <v>0.45</v>
+        <v>0.4625</v>
       </c>
       <c r="AC111">
         <v>-0.5</v>
@@ -10620,7 +10620,7 @@
         <v>45136.91666666666</v>
       </c>
       <c r="F114" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G114" t="s">
         <v>31</v>
@@ -10712,7 +10712,7 @@
         <v>38</v>
       </c>
       <c r="G115" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H115">
         <v>1</v>
@@ -10786,7 +10786,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6126690</v>
+        <v>6126689</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10798,76 +10798,76 @@
         <v>45136.95833333334</v>
       </c>
       <c r="F116" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="G116" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="H116">
+        <v>0</v>
+      </c>
+      <c r="I116">
+        <v>2</v>
+      </c>
+      <c r="J116" t="s">
+        <v>53</v>
+      </c>
+      <c r="K116">
+        <v>2</v>
+      </c>
+      <c r="L116">
+        <v>3.4</v>
+      </c>
+      <c r="M116">
+        <v>3.1</v>
+      </c>
+      <c r="N116">
+        <v>2.7</v>
+      </c>
+      <c r="O116">
+        <v>3.4</v>
+      </c>
+      <c r="P116">
+        <v>2.25</v>
+      </c>
+      <c r="Q116">
+        <v>0.25</v>
+      </c>
+      <c r="R116">
+        <v>1.8</v>
+      </c>
+      <c r="S116">
+        <v>2</v>
+      </c>
+      <c r="T116">
+        <v>2.75</v>
+      </c>
+      <c r="U116">
+        <v>1.75</v>
+      </c>
+      <c r="V116">
+        <v>1.95</v>
+      </c>
+      <c r="W116">
+        <v>-1</v>
+      </c>
+      <c r="X116">
+        <v>-1</v>
+      </c>
+      <c r="Y116">
+        <v>1.25</v>
+      </c>
+      <c r="Z116">
+        <v>-1</v>
+      </c>
+      <c r="AA116">
         <v>1</v>
       </c>
-      <c r="I116">
-        <v>1</v>
-      </c>
-      <c r="J116" t="s">
-        <v>54</v>
-      </c>
-      <c r="K116">
-        <v>1.6</v>
-      </c>
-      <c r="L116">
-        <v>3.75</v>
-      </c>
-      <c r="M116">
-        <v>4.5</v>
-      </c>
-      <c r="N116">
-        <v>1.727</v>
-      </c>
-      <c r="O116">
-        <v>3.6</v>
-      </c>
-      <c r="P116">
-        <v>3.8</v>
-      </c>
-      <c r="Q116">
-        <v>-0.5</v>
-      </c>
-      <c r="R116">
-        <v>1.75</v>
-      </c>
-      <c r="S116">
-        <v>1.95</v>
-      </c>
-      <c r="T116">
-        <v>2.5</v>
-      </c>
-      <c r="U116">
-        <v>1.975</v>
-      </c>
-      <c r="V116">
-        <v>1.825</v>
-      </c>
-      <c r="W116">
-        <v>-1</v>
-      </c>
-      <c r="X116">
-        <v>2.6</v>
-      </c>
-      <c r="Y116">
-        <v>-1</v>
-      </c>
-      <c r="Z116">
-        <v>-1</v>
-      </c>
-      <c r="AA116">
+      <c r="AB116">
+        <v>-1</v>
+      </c>
+      <c r="AC116">
         <v>0.95</v>
-      </c>
-      <c r="AB116">
-        <v>-1</v>
-      </c>
-      <c r="AC116">
-        <v>0.825</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10875,7 +10875,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6126689</v>
+        <v>6126690</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10887,76 +10887,76 @@
         <v>45136.95833333334</v>
       </c>
       <c r="F117" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="G117" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I117">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J117" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K117">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="L117">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M117">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="N117">
-        <v>2.7</v>
+        <v>1.727</v>
       </c>
       <c r="O117">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P117">
-        <v>2.25</v>
+        <v>3.8</v>
       </c>
       <c r="Q117">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R117">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S117">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T117">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U117">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V117">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W117">
         <v>-1</v>
       </c>
       <c r="X117">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y117">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z117">
         <v>-1</v>
       </c>
       <c r="AA117">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AB117">
         <v>-1</v>
       </c>
       <c r="AC117">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10976,7 +10976,7 @@
         <v>45136.97916666666</v>
       </c>
       <c r="F118" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G118" t="s">
         <v>51</v>
@@ -11320,7 +11320,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6126700</v>
+        <v>6126699</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11332,76 +11332,76 @@
         <v>45142.91666666666</v>
       </c>
       <c r="F122" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="G122" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122">
+        <v>1</v>
+      </c>
+      <c r="J122" t="s">
+        <v>55</v>
+      </c>
+      <c r="K122">
+        <v>2.05</v>
+      </c>
+      <c r="L122">
+        <v>3.4</v>
+      </c>
+      <c r="M122">
         <v>3</v>
       </c>
-      <c r="J122" t="s">
-        <v>53</v>
-      </c>
-      <c r="K122">
-        <v>2.4</v>
-      </c>
-      <c r="L122">
-        <v>3.3</v>
-      </c>
-      <c r="M122">
-        <v>2.55</v>
-      </c>
       <c r="N122">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="O122">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P122">
-        <v>2.05</v>
+        <v>2.875</v>
       </c>
       <c r="Q122">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R122">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S122">
+        <v>1.95</v>
+      </c>
+      <c r="T122">
+        <v>2.75</v>
+      </c>
+      <c r="U122">
         <v>1.8</v>
       </c>
-      <c r="T122">
-        <v>2.5</v>
-      </c>
-      <c r="U122">
-        <v>1.875</v>
-      </c>
       <c r="V122">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W122">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X122">
         <v>-1</v>
       </c>
       <c r="Y122">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z122">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA122">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB122">
-        <v>0.875</v>
+        <v>0.4</v>
       </c>
       <c r="AC122">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11409,7 +11409,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6126699</v>
+        <v>6126700</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11421,76 +11421,76 @@
         <v>45142.91666666666</v>
       </c>
       <c r="F123" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="G123" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J123" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K123">
+        <v>2.4</v>
+      </c>
+      <c r="L123">
+        <v>3.3</v>
+      </c>
+      <c r="M123">
+        <v>2.55</v>
+      </c>
+      <c r="N123">
+        <v>3.1</v>
+      </c>
+      <c r="O123">
+        <v>3.4</v>
+      </c>
+      <c r="P123">
         <v>2.05</v>
       </c>
-      <c r="L123">
-        <v>3.4</v>
-      </c>
-      <c r="M123">
-        <v>3</v>
-      </c>
-      <c r="N123">
-        <v>2</v>
-      </c>
-      <c r="O123">
-        <v>3.8</v>
-      </c>
-      <c r="P123">
-        <v>2.875</v>
-      </c>
       <c r="Q123">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R123">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S123">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T123">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U123">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V123">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W123">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X123">
         <v>-1</v>
       </c>
       <c r="Y123">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z123">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA123">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB123">
-        <v>0.4</v>
+        <v>0.875</v>
       </c>
       <c r="AC123">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11498,7 +11498,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6126702</v>
+        <v>6126706</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11510,76 +11510,76 @@
         <v>45143.83333333334</v>
       </c>
       <c r="F124" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G124" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H124">
         <v>1</v>
       </c>
       <c r="I124">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J124" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K124">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="L124">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M124">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="N124">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="O124">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P124">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Q124">
         <v>-0.25</v>
       </c>
       <c r="R124">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S124">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T124">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U124">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V124">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W124">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X124">
         <v>-1</v>
       </c>
       <c r="Y124">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z124">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA124">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB124">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC124">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11587,7 +11587,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6126706</v>
+        <v>6126701</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11599,58 +11599,58 @@
         <v>45143.83333333334</v>
       </c>
       <c r="F125" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G125" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H125">
+        <v>2</v>
+      </c>
+      <c r="I125">
         <v>1</v>
-      </c>
-      <c r="I125">
-        <v>0</v>
       </c>
       <c r="J125" t="s">
         <v>55</v>
       </c>
       <c r="K125">
-        <v>2.15</v>
+        <v>2.9</v>
       </c>
       <c r="L125">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M125">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="N125">
-        <v>1.95</v>
+        <v>2.7</v>
       </c>
       <c r="O125">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P125">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q125">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R125">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S125">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T125">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U125">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V125">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="W125">
-        <v>0.95</v>
+        <v>1.7</v>
       </c>
       <c r="X125">
         <v>-1</v>
@@ -11659,16 +11659,16 @@
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>0.7749999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AA125">
         <v>-1</v>
       </c>
       <c r="AB125">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC125">
-        <v>0.7749999999999999</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11676,7 +11676,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6126701</v>
+        <v>6126708</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11688,58 +11688,58 @@
         <v>45143.83333333334</v>
       </c>
       <c r="F126" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G126" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J126" t="s">
         <v>55</v>
       </c>
       <c r="K126">
-        <v>2.9</v>
+        <v>2.55</v>
       </c>
       <c r="L126">
+        <v>3.25</v>
+      </c>
+      <c r="M126">
+        <v>2.4</v>
+      </c>
+      <c r="N126">
+        <v>2.2</v>
+      </c>
+      <c r="O126">
         <v>3.4</v>
       </c>
-      <c r="M126">
-        <v>2.1</v>
-      </c>
-      <c r="N126">
-        <v>2.7</v>
-      </c>
-      <c r="O126">
-        <v>3.8</v>
-      </c>
       <c r="P126">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="Q126">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R126">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S126">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T126">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U126">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V126">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W126">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="X126">
         <v>-1</v>
@@ -11748,16 +11748,16 @@
         <v>-1</v>
       </c>
       <c r="Z126">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AA126">
         <v>-1</v>
       </c>
       <c r="AB126">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC126">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11765,7 +11765,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6126708</v>
+        <v>6126702</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11777,73 +11777,73 @@
         <v>45143.83333333334</v>
       </c>
       <c r="F127" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G127" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="H127">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I127">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J127" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K127">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="L127">
         <v>3.25</v>
       </c>
       <c r="M127">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="N127">
         <v>2.2</v>
       </c>
       <c r="O127">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P127">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q127">
         <v>-0.25</v>
       </c>
       <c r="R127">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S127">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T127">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U127">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V127">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W127">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X127">
         <v>-1</v>
       </c>
       <c r="Y127">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z127">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA127">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB127">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AC127">
         <v>-1</v>
@@ -11854,7 +11854,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6126707</v>
+        <v>6126704</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11866,55 +11866,55 @@
         <v>45143.95833333334</v>
       </c>
       <c r="F128" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G128" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="H128">
+        <v>0</v>
+      </c>
+      <c r="I128">
         <v>1</v>
-      </c>
-      <c r="I128">
-        <v>3</v>
       </c>
       <c r="J128" t="s">
         <v>53</v>
       </c>
       <c r="K128">
+        <v>2.5</v>
+      </c>
+      <c r="L128">
+        <v>3.2</v>
+      </c>
+      <c r="M128">
+        <v>2.5</v>
+      </c>
+      <c r="N128">
+        <v>3.4</v>
+      </c>
+      <c r="O128">
+        <v>3.1</v>
+      </c>
+      <c r="P128">
         <v>2.05</v>
       </c>
-      <c r="L128">
-        <v>3.5</v>
-      </c>
-      <c r="M128">
-        <v>2.9</v>
-      </c>
-      <c r="N128">
-        <v>1.727</v>
-      </c>
-      <c r="O128">
-        <v>3.75</v>
-      </c>
-      <c r="P128">
-        <v>3.6</v>
-      </c>
       <c r="Q128">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R128">
-        <v>1.75</v>
+        <v>1.725</v>
       </c>
       <c r="S128">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T128">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U128">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V128">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W128">
         <v>-1</v>
@@ -11923,19 +11923,19 @@
         <v>-1</v>
       </c>
       <c r="Y128">
-        <v>2.6</v>
+        <v>1.05</v>
       </c>
       <c r="Z128">
         <v>-1</v>
       </c>
       <c r="AA128">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB128">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC128">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11943,7 +11943,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6126704</v>
+        <v>6126707</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11955,55 +11955,55 @@
         <v>45143.95833333334</v>
       </c>
       <c r="F129" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G129" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I129">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J129" t="s">
         <v>53</v>
       </c>
       <c r="K129">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="L129">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M129">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="N129">
-        <v>3.4</v>
+        <v>1.727</v>
       </c>
       <c r="O129">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P129">
-        <v>2.05</v>
+        <v>3.6</v>
       </c>
       <c r="Q129">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R129">
-        <v>1.725</v>
+        <v>1.75</v>
       </c>
       <c r="S129">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T129">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U129">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V129">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W129">
         <v>-1</v>
@@ -12012,19 +12012,19 @@
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>1.05</v>
+        <v>2.6</v>
       </c>
       <c r="Z129">
         <v>-1</v>
       </c>
       <c r="AA129">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB129">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC129">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12044,7 +12044,7 @@
         <v>45143.97916666666</v>
       </c>
       <c r="F130" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G130" t="s">
         <v>43</v>
@@ -12133,10 +12133,10 @@
         <v>45144</v>
       </c>
       <c r="F131" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G131" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H131">
         <v>1</v>
@@ -12299,7 +12299,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6126712</v>
+        <v>6126709</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12311,49 +12311,49 @@
         <v>45147.91666666666</v>
       </c>
       <c r="F133" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G133" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J133" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K133">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="L133">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M133">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="N133">
-        <v>1.615</v>
+        <v>2.6</v>
       </c>
       <c r="O133">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="P133">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q133">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R133">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S133">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T133">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U133">
         <v>1.95</v>
@@ -12362,25 +12362,25 @@
         <v>1.85</v>
       </c>
       <c r="W133">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X133">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y133">
         <v>-1</v>
       </c>
       <c r="Z133">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA133">
+        <v>-1</v>
+      </c>
+      <c r="AB133">
         <v>0.95</v>
       </c>
-      <c r="AB133">
-        <v>-1</v>
-      </c>
       <c r="AC133">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12388,7 +12388,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6126709</v>
+        <v>6126712</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12400,49 +12400,49 @@
         <v>45147.91666666666</v>
       </c>
       <c r="F134" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G134" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H134">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K134">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="L134">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M134">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="N134">
-        <v>2.6</v>
+        <v>1.615</v>
       </c>
       <c r="O134">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="P134">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q134">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R134">
+        <v>1.75</v>
+      </c>
+      <c r="S134">
         <v>1.95</v>
       </c>
-      <c r="S134">
-        <v>1.85</v>
-      </c>
       <c r="T134">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U134">
         <v>1.95</v>
@@ -12451,25 +12451,25 @@
         <v>1.85</v>
       </c>
       <c r="W134">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X134">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y134">
         <v>-1</v>
       </c>
       <c r="Z134">
+        <v>-1</v>
+      </c>
+      <c r="AA134">
         <v>0.95</v>
       </c>
-      <c r="AA134">
-        <v>-1</v>
-      </c>
       <c r="AB134">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC134">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12744,7 +12744,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6126713</v>
+        <v>6126714</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12756,76 +12756,76 @@
         <v>45150.85416666666</v>
       </c>
       <c r="F138" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G138" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138">
         <v>1</v>
       </c>
       <c r="J138" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K138">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="L138">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M138">
         <v>2.5</v>
       </c>
       <c r="N138">
+        <v>2.45</v>
+      </c>
+      <c r="O138">
+        <v>3.2</v>
+      </c>
+      <c r="P138">
         <v>2.5</v>
-      </c>
-      <c r="O138">
-        <v>3.3</v>
-      </c>
-      <c r="P138">
-        <v>2.4</v>
       </c>
       <c r="Q138">
         <v>0</v>
       </c>
       <c r="R138">
+        <v>1.875</v>
+      </c>
+      <c r="S138">
+        <v>1.925</v>
+      </c>
+      <c r="T138">
+        <v>2.25</v>
+      </c>
+      <c r="U138">
         <v>1.95</v>
       </c>
-      <c r="S138">
+      <c r="V138">
         <v>1.85</v>
       </c>
-      <c r="T138">
-        <v>2.5</v>
-      </c>
-      <c r="U138">
-        <v>1.875</v>
-      </c>
-      <c r="V138">
-        <v>1.925</v>
-      </c>
       <c r="W138">
         <v>-1</v>
       </c>
       <c r="X138">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y138">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z138">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA138">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
       <c r="AB138">
         <v>-1</v>
       </c>
       <c r="AC138">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12833,7 +12833,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6126714</v>
+        <v>6126713</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12845,76 +12845,76 @@
         <v>45150.85416666666</v>
       </c>
       <c r="F139" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G139" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I139">
         <v>1</v>
       </c>
       <c r="J139" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K139">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="L139">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M139">
         <v>2.5</v>
       </c>
       <c r="N139">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="O139">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P139">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="Q139">
         <v>0</v>
       </c>
       <c r="R139">
+        <v>1.95</v>
+      </c>
+      <c r="S139">
+        <v>1.85</v>
+      </c>
+      <c r="T139">
+        <v>2.5</v>
+      </c>
+      <c r="U139">
         <v>1.875</v>
       </c>
-      <c r="S139">
+      <c r="V139">
         <v>1.925</v>
       </c>
-      <c r="T139">
-        <v>2.25</v>
-      </c>
-      <c r="U139">
-        <v>1.95</v>
-      </c>
-      <c r="V139">
-        <v>1.85</v>
-      </c>
       <c r="W139">
         <v>-1</v>
       </c>
       <c r="X139">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y139">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z139">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA139">
+        <v>-0</v>
+      </c>
+      <c r="AB139">
+        <v>-1</v>
+      </c>
+      <c r="AC139">
         <v>0.925</v>
-      </c>
-      <c r="AB139">
-        <v>-1</v>
-      </c>
-      <c r="AC139">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -13023,10 +13023,10 @@
         <v>45150.91666666666</v>
       </c>
       <c r="F141" t="s">
+        <v>36</v>
+      </c>
+      <c r="G141" t="s">
         <v>35</v>
-      </c>
-      <c r="G141" t="s">
-        <v>36</v>
       </c>
       <c r="H141">
         <v>0</v>
@@ -13290,7 +13290,7 @@
         <v>45150.97916666666</v>
       </c>
       <c r="F144" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G144" t="s">
         <v>39</v>
@@ -13379,7 +13379,7 @@
         <v>45151</v>
       </c>
       <c r="F145" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G145" t="s">
         <v>46</v>
@@ -13468,7 +13468,7 @@
         <v>45154.91666666666</v>
       </c>
       <c r="F146" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G146" t="s">
         <v>43</v>
@@ -13901,7 +13901,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>6126730</v>
+        <v>6126727</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13913,40 +13913,40 @@
         <v>45157.85416666666</v>
       </c>
       <c r="F151" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="G151" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="H151">
         <v>1</v>
       </c>
       <c r="I151">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J151" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K151">
+        <v>1.833</v>
+      </c>
+      <c r="L151">
+        <v>3.4</v>
+      </c>
+      <c r="M151">
+        <v>3.6</v>
+      </c>
+      <c r="N151">
+        <v>1.85</v>
+      </c>
+      <c r="O151">
         <v>3.5</v>
       </c>
-      <c r="L151">
-        <v>3.25</v>
-      </c>
-      <c r="M151">
-        <v>1.909</v>
-      </c>
-      <c r="N151">
-        <v>3.75</v>
-      </c>
-      <c r="O151">
-        <v>3.3</v>
-      </c>
       <c r="P151">
-        <v>1.85</v>
+        <v>3.5</v>
       </c>
       <c r="Q151">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R151">
         <v>1.9</v>
@@ -13955,34 +13955,34 @@
         <v>1.9</v>
       </c>
       <c r="T151">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U151">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V151">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W151">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X151">
         <v>-1</v>
       </c>
       <c r="Y151">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z151">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA151">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB151">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC151">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -13990,7 +13990,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6126727</v>
+        <v>6126730</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -14002,40 +14002,40 @@
         <v>45157.85416666666</v>
       </c>
       <c r="F152" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="G152" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="H152">
         <v>1</v>
       </c>
       <c r="I152">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J152" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K152">
-        <v>1.833</v>
+        <v>3.5</v>
       </c>
       <c r="L152">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M152">
-        <v>3.6</v>
+        <v>1.909</v>
       </c>
       <c r="N152">
+        <v>3.75</v>
+      </c>
+      <c r="O152">
+        <v>3.3</v>
+      </c>
+      <c r="P152">
         <v>1.85</v>
       </c>
-      <c r="O152">
-        <v>3.5</v>
-      </c>
-      <c r="P152">
-        <v>3.5</v>
-      </c>
       <c r="Q152">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R152">
         <v>1.9</v>
@@ -14044,34 +14044,34 @@
         <v>1.9</v>
       </c>
       <c r="T152">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U152">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V152">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W152">
+        <v>-1</v>
+      </c>
+      <c r="X152">
+        <v>-1</v>
+      </c>
+      <c r="Y152">
         <v>0.8500000000000001</v>
       </c>
-      <c r="X152">
-        <v>-1</v>
-      </c>
-      <c r="Y152">
-        <v>-1</v>
-      </c>
       <c r="Z152">
+        <v>-1</v>
+      </c>
+      <c r="AA152">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA152">
-        <v>-1</v>
-      </c>
       <c r="AB152">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC152">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14094,7 +14094,7 @@
         <v>43</v>
       </c>
       <c r="G153" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H153">
         <v>1</v>
@@ -14180,7 +14180,7 @@
         <v>45157.91666666666</v>
       </c>
       <c r="F154" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G154" t="s">
         <v>37</v>
@@ -14361,7 +14361,7 @@
         <v>40</v>
       </c>
       <c r="G156" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H156">
         <v>2</v>
@@ -14435,7 +14435,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6126731</v>
+        <v>6126732</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14447,19 +14447,19 @@
         <v>45157.95833333334</v>
       </c>
       <c r="F157" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="G157" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H157">
         <v>2</v>
       </c>
       <c r="I157">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J157" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K157">
         <v>2</v>
@@ -14471,52 +14471,52 @@
         <v>3.1</v>
       </c>
       <c r="N157">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="O157">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P157">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="Q157">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R157">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S157">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T157">
         <v>2.5</v>
       </c>
       <c r="U157">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V157">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W157">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X157">
         <v>-1</v>
       </c>
       <c r="Y157">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z157">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA157">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB157">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC157">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14524,7 +14524,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6126732</v>
+        <v>6126731</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14536,19 +14536,19 @@
         <v>45157.95833333334</v>
       </c>
       <c r="F158" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="G158" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H158">
         <v>2</v>
       </c>
       <c r="I158">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J158" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K158">
         <v>2</v>
@@ -14560,52 +14560,52 @@
         <v>3.1</v>
       </c>
       <c r="N158">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="O158">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P158">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="Q158">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R158">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S158">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T158">
         <v>2.5</v>
       </c>
       <c r="U158">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V158">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W158">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X158">
         <v>-1</v>
       </c>
       <c r="Y158">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z158">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA158">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB158">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC158">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14892,7 +14892,7 @@
         <v>45161.91666666666</v>
       </c>
       <c r="F162" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G162" t="s">
         <v>50</v>
@@ -14969,7 +14969,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6126744</v>
+        <v>6126753</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14981,10 +14981,10 @@
         <v>45164.83333333334</v>
       </c>
       <c r="F163" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G163" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="H163">
         <v>0</v>
@@ -14996,40 +14996,40 @@
         <v>53</v>
       </c>
       <c r="K163">
-        <v>2.875</v>
+        <v>2.45</v>
       </c>
       <c r="L163">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M163">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="N163">
-        <v>2.15</v>
+        <v>2.75</v>
       </c>
       <c r="O163">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P163">
-        <v>2.7</v>
+        <v>2.375</v>
       </c>
       <c r="Q163">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R163">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S163">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="T163">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U163">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V163">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W163">
         <v>-1</v>
@@ -15038,19 +15038,19 @@
         <v>-1</v>
       </c>
       <c r="Y163">
-        <v>1.7</v>
+        <v>1.375</v>
       </c>
       <c r="Z163">
         <v>-1</v>
       </c>
       <c r="AA163">
-        <v>0.8500000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AB163">
         <v>-1</v>
       </c>
       <c r="AC163">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -15147,7 +15147,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6126753</v>
+        <v>6126744</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15159,10 +15159,10 @@
         <v>45164.83333333334</v>
       </c>
       <c r="F165" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G165" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="H165">
         <v>0</v>
@@ -15174,40 +15174,40 @@
         <v>53</v>
       </c>
       <c r="K165">
-        <v>2.45</v>
+        <v>2.875</v>
       </c>
       <c r="L165">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M165">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="N165">
-        <v>2.75</v>
+        <v>2.15</v>
       </c>
       <c r="O165">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P165">
-        <v>2.375</v>
+        <v>2.7</v>
       </c>
       <c r="Q165">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R165">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S165">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T165">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U165">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V165">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W165">
         <v>-1</v>
@@ -15216,19 +15216,19 @@
         <v>-1</v>
       </c>
       <c r="Y165">
-        <v>1.375</v>
+        <v>1.7</v>
       </c>
       <c r="Z165">
         <v>-1</v>
       </c>
       <c r="AA165">
-        <v>0.75</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB165">
         <v>-1</v>
       </c>
       <c r="AC165">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15236,7 +15236,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6126747</v>
+        <v>6126743</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15248,16 +15248,16 @@
         <v>45164.85416666666</v>
       </c>
       <c r="F166" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G166" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J166" t="s">
         <v>55</v>
@@ -15272,34 +15272,34 @@
         <v>3.25</v>
       </c>
       <c r="N166">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="O166">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P166">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q166">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R166">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S166">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T166">
         <v>2.5</v>
       </c>
       <c r="U166">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V166">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W166">
-        <v>0.8500000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="X166">
         <v>-1</v>
@@ -15308,16 +15308,16 @@
         <v>-1</v>
       </c>
       <c r="Z166">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA166">
         <v>-1</v>
       </c>
       <c r="AB166">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC166">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15325,7 +15325,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6126743</v>
+        <v>6126747</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15337,16 +15337,16 @@
         <v>45164.85416666666</v>
       </c>
       <c r="F167" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G167" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="H167">
+        <v>2</v>
+      </c>
+      <c r="I167">
         <v>1</v>
-      </c>
-      <c r="I167">
-        <v>0</v>
       </c>
       <c r="J167" t="s">
         <v>55</v>
@@ -15361,34 +15361,34 @@
         <v>3.25</v>
       </c>
       <c r="N167">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="O167">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P167">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="Q167">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R167">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S167">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T167">
         <v>2.5</v>
       </c>
       <c r="U167">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V167">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W167">
-        <v>1.1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X167">
         <v>-1</v>
@@ -15397,16 +15397,16 @@
         <v>-1</v>
       </c>
       <c r="Z167">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA167">
         <v>-1</v>
       </c>
       <c r="AB167">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC167">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15515,7 +15515,7 @@
         <v>45164.91666666666</v>
       </c>
       <c r="F169" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G169" t="s">
         <v>49</v>
@@ -15604,7 +15604,7 @@
         <v>45164.91666666666</v>
       </c>
       <c r="F170" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G170" t="s">
         <v>32</v>
@@ -15770,7 +15770,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6126751</v>
+        <v>6126746</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15782,55 +15782,55 @@
         <v>45164.97916666666</v>
       </c>
       <c r="F172" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G172" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J172" t="s">
         <v>53</v>
       </c>
       <c r="K172">
-        <v>1.75</v>
+        <v>3.25</v>
       </c>
       <c r="L172">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M172">
-        <v>4.333</v>
+        <v>2.05</v>
       </c>
       <c r="N172">
-        <v>1.615</v>
+        <v>3</v>
       </c>
       <c r="O172">
         <v>3.75</v>
       </c>
       <c r="P172">
-        <v>5</v>
+        <v>2.15</v>
       </c>
       <c r="Q172">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R172">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S172">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T172">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U172">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V172">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W172">
         <v>-1</v>
@@ -15839,19 +15839,19 @@
         <v>-1</v>
       </c>
       <c r="Y172">
-        <v>4</v>
+        <v>1.15</v>
       </c>
       <c r="Z172">
         <v>-1</v>
       </c>
       <c r="AA172">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB172">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC172">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -15859,7 +15859,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6126746</v>
+        <v>6126751</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15871,56 +15871,56 @@
         <v>45164.97916666666</v>
       </c>
       <c r="F173" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G173" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J173" t="s">
         <v>53</v>
       </c>
       <c r="K173">
-        <v>3.25</v>
+        <v>1.75</v>
       </c>
       <c r="L173">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M173">
-        <v>2.05</v>
+        <v>4.333</v>
       </c>
       <c r="N173">
-        <v>3</v>
+        <v>1.615</v>
       </c>
       <c r="O173">
         <v>3.75</v>
       </c>
       <c r="P173">
-        <v>2.15</v>
+        <v>5</v>
       </c>
       <c r="Q173">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R173">
+        <v>1.95</v>
+      </c>
+      <c r="S173">
+        <v>1.75</v>
+      </c>
+      <c r="T173">
+        <v>2.5</v>
+      </c>
+      <c r="U173">
         <v>1.9</v>
       </c>
-      <c r="S173">
+      <c r="V173">
         <v>1.9</v>
       </c>
-      <c r="T173">
-        <v>3</v>
-      </c>
-      <c r="U173">
-        <v>2</v>
-      </c>
-      <c r="V173">
-        <v>1.8</v>
-      </c>
       <c r="W173">
         <v>-1</v>
       </c>
@@ -15928,19 +15928,19 @@
         <v>-1</v>
       </c>
       <c r="Y173">
-        <v>1.15</v>
+        <v>4</v>
       </c>
       <c r="Z173">
         <v>-1</v>
       </c>
       <c r="AA173">
+        <v>0.75</v>
+      </c>
+      <c r="AB173">
+        <v>-1</v>
+      </c>
+      <c r="AC173">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB173">
-        <v>1</v>
-      </c>
-      <c r="AC173">
-        <v>-1</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -16052,7 +16052,7 @@
         <v>43</v>
       </c>
       <c r="G175" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H175">
         <v>0</v>
@@ -16138,10 +16138,10 @@
         <v>45168.91666666666</v>
       </c>
       <c r="F176" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G176" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H176">
         <v>3</v>
@@ -16227,7 +16227,7 @@
         <v>45168.97916666666</v>
       </c>
       <c r="F177" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G177" t="s">
         <v>51</v>
@@ -16393,7 +16393,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6126759</v>
+        <v>6126766</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16405,76 +16405,76 @@
         <v>45171.85416666666</v>
       </c>
       <c r="F179" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="G179" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I179">
         <v>1</v>
       </c>
       <c r="J179" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K179">
-        <v>2.9</v>
+        <v>1.333</v>
       </c>
       <c r="L179">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="M179">
-        <v>2.2</v>
+        <v>7.5</v>
       </c>
       <c r="N179">
-        <v>2.6</v>
+        <v>1.045</v>
       </c>
       <c r="O179">
-        <v>3.25</v>
+        <v>11</v>
       </c>
       <c r="P179">
-        <v>2.5</v>
+        <v>19</v>
       </c>
       <c r="Q179">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="R179">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S179">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T179">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U179">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="V179">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W179">
-        <v>-1</v>
+        <v>0.04499999999999993</v>
       </c>
       <c r="X179">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y179">
         <v>-1</v>
       </c>
       <c r="Z179">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA179">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
       <c r="AB179">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC179">
-        <v>-0</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16482,7 +16482,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6126766</v>
+        <v>6126759</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16494,76 +16494,76 @@
         <v>45171.85416666666</v>
       </c>
       <c r="F180" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="G180" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I180">
         <v>1</v>
       </c>
       <c r="J180" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K180">
-        <v>1.333</v>
+        <v>2.9</v>
       </c>
       <c r="L180">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="M180">
-        <v>7.5</v>
+        <v>2.2</v>
       </c>
       <c r="N180">
-        <v>1.045</v>
+        <v>2.6</v>
       </c>
       <c r="O180">
-        <v>11</v>
+        <v>3.25</v>
       </c>
       <c r="P180">
-        <v>19</v>
+        <v>2.5</v>
       </c>
       <c r="Q180">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="R180">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S180">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T180">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U180">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="V180">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W180">
-        <v>0.04499999999999993</v>
+        <v>-1</v>
       </c>
       <c r="X180">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y180">
         <v>-1</v>
       </c>
       <c r="Z180">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA180">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
       <c r="AB180">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC180">
-        <v>1.05</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16672,7 +16672,7 @@
         <v>45171.91666666666</v>
       </c>
       <c r="F182" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G182" t="s">
         <v>29</v>
@@ -16939,7 +16939,7 @@
         <v>45171.97916666666</v>
       </c>
       <c r="F185" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G185" t="s">
         <v>38</v>
@@ -17028,7 +17028,7 @@
         <v>45171.97916666666</v>
       </c>
       <c r="F186" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G186" t="s">
         <v>43</v>
@@ -17209,7 +17209,7 @@
         <v>49</v>
       </c>
       <c r="G188" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H188">
         <v>2</v>
@@ -17461,7 +17461,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>6126772</v>
+        <v>6126779</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17473,10 +17473,10 @@
         <v>45178.85416666666</v>
       </c>
       <c r="F191" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="G191" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H191">
         <v>2</v>
@@ -17488,43 +17488,43 @@
         <v>55</v>
       </c>
       <c r="K191">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="L191">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M191">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="N191">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="O191">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P191">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Q191">
         <v>-0.25</v>
       </c>
       <c r="R191">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S191">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T191">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U191">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V191">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W191">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="X191">
         <v>-1</v>
@@ -17533,13 +17533,13 @@
         <v>-1</v>
       </c>
       <c r="Z191">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA191">
         <v>-1</v>
       </c>
       <c r="AB191">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC191">
         <v>-1</v>
@@ -17550,7 +17550,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>6126770</v>
+        <v>6126772</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17562,58 +17562,58 @@
         <v>45178.85416666666</v>
       </c>
       <c r="F192" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="G192" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="H192">
         <v>2</v>
       </c>
       <c r="I192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J192" t="s">
         <v>55</v>
       </c>
       <c r="K192">
+        <v>2.1</v>
+      </c>
+      <c r="L192">
+        <v>3.25</v>
+      </c>
+      <c r="M192">
+        <v>3.1</v>
+      </c>
+      <c r="N192">
         <v>2.2</v>
       </c>
-      <c r="L192">
-        <v>3.3</v>
-      </c>
-      <c r="M192">
-        <v>2.875</v>
-      </c>
-      <c r="N192">
-        <v>2.15</v>
-      </c>
       <c r="O192">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P192">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="Q192">
         <v>-0.25</v>
       </c>
       <c r="R192">
+        <v>1.975</v>
+      </c>
+      <c r="S192">
+        <v>1.825</v>
+      </c>
+      <c r="T192">
+        <v>2.25</v>
+      </c>
+      <c r="U192">
         <v>1.95</v>
       </c>
-      <c r="S192">
+      <c r="V192">
         <v>1.85</v>
       </c>
-      <c r="T192">
-        <v>2.75</v>
-      </c>
-      <c r="U192">
-        <v>1.875</v>
-      </c>
-      <c r="V192">
-        <v>1.925</v>
-      </c>
       <c r="W192">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
       <c r="X192">
         <v>-1</v>
@@ -17622,16 +17622,16 @@
         <v>-1</v>
       </c>
       <c r="Z192">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA192">
+        <v>-1</v>
+      </c>
+      <c r="AB192">
         <v>0.95</v>
       </c>
-      <c r="AA192">
-        <v>-1</v>
-      </c>
-      <c r="AB192">
-        <v>-1</v>
-      </c>
       <c r="AC192">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="193" spans="1:29">
@@ -17639,7 +17639,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>6126779</v>
+        <v>6126770</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17651,58 +17651,58 @@
         <v>45178.85416666666</v>
       </c>
       <c r="F193" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G193" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H193">
         <v>2</v>
       </c>
       <c r="I193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J193" t="s">
         <v>55</v>
       </c>
       <c r="K193">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="L193">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M193">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="N193">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="O193">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P193">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="Q193">
         <v>-0.25</v>
       </c>
       <c r="R193">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S193">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T193">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U193">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V193">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W193">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="X193">
         <v>-1</v>
@@ -17711,16 +17711,16 @@
         <v>-1</v>
       </c>
       <c r="Z193">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AA193">
         <v>-1</v>
       </c>
       <c r="AB193">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC193">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="194" spans="1:29">
@@ -17832,7 +17832,7 @@
         <v>49</v>
       </c>
       <c r="G195" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H195">
         <v>0</v>
@@ -17921,7 +17921,7 @@
         <v>30</v>
       </c>
       <c r="G196" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H196">
         <v>1</v>
@@ -18096,7 +18096,7 @@
         <v>45178.97916666666</v>
       </c>
       <c r="F198" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G198" t="s">
         <v>50</v>
@@ -18188,7 +18188,7 @@
         <v>48</v>
       </c>
       <c r="G199" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H199">
         <v>1</v>
@@ -18274,7 +18274,7 @@
         <v>45182.97916666666</v>
       </c>
       <c r="F200" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G200" t="s">
         <v>46</v>
@@ -18363,7 +18363,7 @@
         <v>45184.91666666666</v>
       </c>
       <c r="F201" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G201" t="s">
         <v>41</v>
@@ -18897,7 +18897,7 @@
         <v>45185.89583333334</v>
       </c>
       <c r="F207" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G207" t="s">
         <v>33</v>
@@ -19063,7 +19063,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>6126788</v>
+        <v>6126787</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19075,76 +19075,76 @@
         <v>45185.95833333334</v>
       </c>
       <c r="F209" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="G209" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I209">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J209" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K209">
-        <v>1.8</v>
+        <v>1.727</v>
       </c>
       <c r="L209">
+        <v>3.75</v>
+      </c>
+      <c r="M209">
+        <v>4.2</v>
+      </c>
+      <c r="N209">
+        <v>1.833</v>
+      </c>
+      <c r="O209">
         <v>3.5</v>
       </c>
-      <c r="M209">
-        <v>4.1</v>
-      </c>
-      <c r="N209">
-        <v>1.7</v>
-      </c>
-      <c r="O209">
-        <v>3.6</v>
-      </c>
       <c r="P209">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Q209">
         <v>-0.75</v>
       </c>
       <c r="R209">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="S209">
-        <v>1.875</v>
+        <v>1.7</v>
       </c>
       <c r="T209">
         <v>2.75</v>
       </c>
       <c r="U209">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V209">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W209">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X209">
         <v>-1</v>
       </c>
       <c r="Y209">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z209">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="AA209">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB209">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC209">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="210" spans="1:29">
@@ -19152,7 +19152,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>6126787</v>
+        <v>6126788</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19164,76 +19164,76 @@
         <v>45185.95833333334</v>
       </c>
       <c r="F210" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="G210" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H210">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I210">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J210" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K210">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="L210">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M210">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="N210">
-        <v>1.833</v>
+        <v>1.7</v>
       </c>
       <c r="O210">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P210">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="Q210">
         <v>-0.75</v>
       </c>
       <c r="R210">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="S210">
-        <v>1.7</v>
+        <v>1.875</v>
       </c>
       <c r="T210">
         <v>2.75</v>
       </c>
       <c r="U210">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V210">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W210">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X210">
         <v>-1</v>
       </c>
       <c r="Y210">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z210">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="AA210">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB210">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC210">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="211" spans="1:29">
@@ -19253,7 +19253,7 @@
         <v>45185.97916666666</v>
       </c>
       <c r="F211" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G211" t="s">
         <v>52</v>
@@ -19597,7 +19597,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>6126795</v>
+        <v>6230627</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19609,76 +19609,76 @@
         <v>45189.95833333334</v>
       </c>
       <c r="F215" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="G215" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J215" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K215">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="L215">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M215">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="N215">
-        <v>1.571</v>
+        <v>2.7</v>
       </c>
       <c r="O215">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="P215">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q215">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R215">
-        <v>1.925</v>
+        <v>1.725</v>
       </c>
       <c r="S215">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T215">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U215">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V215">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W215">
         <v>-1</v>
       </c>
       <c r="X215">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y215">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z215">
         <v>-1</v>
       </c>
       <c r="AA215">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB215">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC215">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="216" spans="1:29">
@@ -19686,7 +19686,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>6230627</v>
+        <v>6126795</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19698,76 +19698,76 @@
         <v>45189.95833333334</v>
       </c>
       <c r="F216" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="G216" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216">
+        <v>0</v>
+      </c>
+      <c r="J216" t="s">
+        <v>54</v>
+      </c>
+      <c r="K216">
+        <v>1.5</v>
+      </c>
+      <c r="L216">
+        <v>3.75</v>
+      </c>
+      <c r="M216">
+        <v>5.5</v>
+      </c>
+      <c r="N216">
+        <v>1.571</v>
+      </c>
+      <c r="O216">
+        <v>4.2</v>
+      </c>
+      <c r="P216">
+        <v>4.5</v>
+      </c>
+      <c r="Q216">
+        <v>-1</v>
+      </c>
+      <c r="R216">
+        <v>1.925</v>
+      </c>
+      <c r="S216">
+        <v>1.875</v>
+      </c>
+      <c r="T216">
         <v>3</v>
       </c>
-      <c r="J216" t="s">
-        <v>53</v>
-      </c>
-      <c r="K216">
-        <v>2.4</v>
-      </c>
-      <c r="L216">
-        <v>3.4</v>
-      </c>
-      <c r="M216">
-        <v>2.5</v>
-      </c>
-      <c r="N216">
-        <v>2.7</v>
-      </c>
-      <c r="O216">
-        <v>3.3</v>
-      </c>
-      <c r="P216">
-        <v>2.3</v>
-      </c>
-      <c r="Q216">
-        <v>0.25</v>
-      </c>
-      <c r="R216">
-        <v>1.725</v>
-      </c>
-      <c r="S216">
+      <c r="U216">
+        <v>1.825</v>
+      </c>
+      <c r="V216">
         <v>1.975</v>
       </c>
-      <c r="T216">
-        <v>2.75</v>
-      </c>
-      <c r="U216">
-        <v>1.9</v>
-      </c>
-      <c r="V216">
-        <v>1.9</v>
-      </c>
       <c r="W216">
         <v>-1</v>
       </c>
       <c r="X216">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y216">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z216">
         <v>-1</v>
       </c>
       <c r="AA216">
+        <v>0.875</v>
+      </c>
+      <c r="AB216">
+        <v>-1</v>
+      </c>
+      <c r="AC216">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB216">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC216">
-        <v>-1</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -19787,7 +19787,7 @@
         <v>45189.97916666666</v>
       </c>
       <c r="F217" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G217" t="s">
         <v>41</v>
@@ -19968,7 +19968,7 @@
         <v>32</v>
       </c>
       <c r="G219" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H219">
         <v>2</v>
@@ -20131,7 +20131,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>6126801</v>
+        <v>6126798</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20143,76 +20143,76 @@
         <v>45192.85416666666</v>
       </c>
       <c r="F221" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="G221" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I221">
+        <v>0</v>
+      </c>
+      <c r="J221" t="s">
+        <v>55</v>
+      </c>
+      <c r="K221">
+        <v>1.5</v>
+      </c>
+      <c r="L221">
         <v>4</v>
       </c>
-      <c r="J221" t="s">
-        <v>53</v>
-      </c>
-      <c r="K221">
-        <v>1.909</v>
-      </c>
-      <c r="L221">
-        <v>3.4</v>
-      </c>
       <c r="M221">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="N221">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="O221">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P221">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="Q221">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R221">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S221">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T221">
         <v>2.75</v>
       </c>
       <c r="U221">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V221">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W221">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X221">
         <v>-1</v>
       </c>
       <c r="Y221">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z221">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA221">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB221">
-        <v>0.825</v>
+        <v>0.475</v>
       </c>
       <c r="AC221">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -20220,7 +20220,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>6126798</v>
+        <v>6126801</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20232,76 +20232,76 @@
         <v>45192.85416666666</v>
       </c>
       <c r="F222" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="G222" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H222">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I222">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J222" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K222">
-        <v>1.5</v>
+        <v>1.909</v>
       </c>
       <c r="L222">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M222">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="N222">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="O222">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P222">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="Q222">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R222">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S222">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T222">
         <v>2.75</v>
       </c>
       <c r="U222">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V222">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W222">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X222">
         <v>-1</v>
       </c>
       <c r="Y222">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z222">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA222">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB222">
-        <v>0.475</v>
+        <v>0.825</v>
       </c>
       <c r="AC222">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="223" spans="1:29">
@@ -20410,7 +20410,7 @@
         <v>45192.89583333334</v>
       </c>
       <c r="F224" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G224" t="s">
         <v>38</v>
@@ -20502,7 +20502,7 @@
         <v>46</v>
       </c>
       <c r="G225" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H225">
         <v>1</v>
@@ -20769,7 +20769,7 @@
         <v>40</v>
       </c>
       <c r="G228" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H228">
         <v>1</v>
@@ -21466,7 +21466,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>6418146</v>
+        <v>6413716</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21478,76 +21478,76 @@
         <v>45199.875</v>
       </c>
       <c r="F236" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G236" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="H236">
         <v>1</v>
       </c>
       <c r="I236">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J236" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K236">
-        <v>1.833</v>
+        <v>1.727</v>
       </c>
       <c r="L236">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M236">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="N236">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="O236">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P236">
+        <v>4</v>
+      </c>
+      <c r="Q236">
+        <v>-0.75</v>
+      </c>
+      <c r="R236">
+        <v>1.9</v>
+      </c>
+      <c r="S236">
+        <v>1.9</v>
+      </c>
+      <c r="T236">
         <v>3</v>
       </c>
-      <c r="Q236">
-        <v>-0.25</v>
-      </c>
-      <c r="R236">
-        <v>1.825</v>
-      </c>
-      <c r="S236">
-        <v>1.975</v>
-      </c>
-      <c r="T236">
-        <v>2.75</v>
-      </c>
       <c r="U236">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V236">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W236">
         <v>-1</v>
       </c>
       <c r="X236">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y236">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z236">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA236">
-        <v>0.4875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB236">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC236">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="237" spans="1:29">
@@ -21555,7 +21555,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>6413716</v>
+        <v>6418146</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21567,76 +21567,76 @@
         <v>45199.875</v>
       </c>
       <c r="F237" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G237" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H237">
         <v>1</v>
       </c>
       <c r="I237">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J237" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K237">
-        <v>1.727</v>
+        <v>1.833</v>
       </c>
       <c r="L237">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M237">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="N237">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="O237">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P237">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q237">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R237">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S237">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T237">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U237">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V237">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W237">
         <v>-1</v>
       </c>
       <c r="X237">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y237">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z237">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA237">
-        <v>0.8999999999999999</v>
+        <v>0.4875</v>
       </c>
       <c r="AB237">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC237">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="238" spans="1:29">
@@ -21656,7 +21656,7 @@
         <v>45199.91666666666</v>
       </c>
       <c r="F238" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G238" t="s">
         <v>42</v>
@@ -21822,7 +21822,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>6387717</v>
+        <v>6387479</v>
       </c>
       <c r="C240" t="s">
         <v>28</v>
@@ -21834,73 +21834,73 @@
         <v>45199.95833333334</v>
       </c>
       <c r="F240" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G240" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H240">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I240">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J240" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K240">
-        <v>1.666</v>
+        <v>3</v>
       </c>
       <c r="L240">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M240">
-        <v>4.333</v>
+        <v>2.1</v>
       </c>
       <c r="N240">
-        <v>1.533</v>
+        <v>3</v>
       </c>
       <c r="O240">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P240">
-        <v>5</v>
+        <v>2.05</v>
       </c>
       <c r="Q240">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R240">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S240">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T240">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U240">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V240">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W240">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X240">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y240">
         <v>-1</v>
       </c>
       <c r="Z240">
-        <v>0.8999999999999999</v>
+        <v>0.4875</v>
       </c>
       <c r="AA240">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB240">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AC240">
         <v>-1</v>
@@ -21911,7 +21911,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>6387479</v>
+        <v>6387717</v>
       </c>
       <c r="C241" t="s">
         <v>28</v>
@@ -21923,73 +21923,73 @@
         <v>45199.95833333334</v>
       </c>
       <c r="F241" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G241" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I241">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J241" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K241">
+        <v>1.666</v>
+      </c>
+      <c r="L241">
+        <v>3.75</v>
+      </c>
+      <c r="M241">
+        <v>4.333</v>
+      </c>
+      <c r="N241">
+        <v>1.533</v>
+      </c>
+      <c r="O241">
+        <v>4</v>
+      </c>
+      <c r="P241">
+        <v>5</v>
+      </c>
+      <c r="Q241">
+        <v>-1</v>
+      </c>
+      <c r="R241">
+        <v>1.9</v>
+      </c>
+      <c r="S241">
+        <v>1.9</v>
+      </c>
+      <c r="T241">
         <v>3</v>
       </c>
-      <c r="L241">
-        <v>3.5</v>
-      </c>
-      <c r="M241">
-        <v>2.1</v>
-      </c>
-      <c r="N241">
-        <v>3</v>
-      </c>
-      <c r="O241">
-        <v>3.6</v>
-      </c>
-      <c r="P241">
-        <v>2.05</v>
-      </c>
-      <c r="Q241">
-        <v>0.25</v>
-      </c>
-      <c r="R241">
-        <v>1.975</v>
-      </c>
-      <c r="S241">
-        <v>1.825</v>
-      </c>
-      <c r="T241">
-        <v>2.75</v>
-      </c>
       <c r="U241">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V241">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W241">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X241">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y241">
         <v>-1</v>
       </c>
       <c r="Z241">
-        <v>0.4875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA241">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB241">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AC241">
         <v>-1</v>
@@ -22012,7 +22012,7 @@
         <v>45199.97916666666</v>
       </c>
       <c r="F242" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G242" t="s">
         <v>38</v>
@@ -22104,7 +22104,7 @@
         <v>51</v>
       </c>
       <c r="G243" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H243">
         <v>2</v>
@@ -22623,7 +22623,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>6503957</v>
+        <v>6488610</v>
       </c>
       <c r="C249" t="s">
         <v>28</v>
@@ -22635,40 +22635,40 @@
         <v>45206.85416666666</v>
       </c>
       <c r="F249" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G249" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H249">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I249">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J249" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K249">
-        <v>1.3</v>
+        <v>2.15</v>
       </c>
       <c r="L249">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="M249">
-        <v>9</v>
+        <v>3.3</v>
       </c>
       <c r="N249">
-        <v>1.363</v>
+        <v>2.6</v>
       </c>
       <c r="O249">
-        <v>5.5</v>
+        <v>3.3</v>
       </c>
       <c r="P249">
-        <v>7</v>
+        <v>2.625</v>
       </c>
       <c r="Q249">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R249">
         <v>1.875</v>
@@ -22677,22 +22677,22 @@
         <v>1.925</v>
       </c>
       <c r="T249">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U249">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V249">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W249">
         <v>-1</v>
       </c>
       <c r="X249">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Y249">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z249">
         <v>-1</v>
@@ -22704,7 +22704,7 @@
         <v>-1</v>
       </c>
       <c r="AC249">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="250" spans="1:29">
@@ -22712,7 +22712,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>6488610</v>
+        <v>6503957</v>
       </c>
       <c r="C250" t="s">
         <v>28</v>
@@ -22724,40 +22724,40 @@
         <v>45206.85416666666</v>
       </c>
       <c r="F250" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G250" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I250">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J250" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K250">
-        <v>2.15</v>
+        <v>1.3</v>
       </c>
       <c r="L250">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="M250">
-        <v>3.3</v>
+        <v>9</v>
       </c>
       <c r="N250">
-        <v>2.6</v>
+        <v>1.363</v>
       </c>
       <c r="O250">
-        <v>3.3</v>
+        <v>5.5</v>
       </c>
       <c r="P250">
-        <v>2.625</v>
+        <v>7</v>
       </c>
       <c r="Q250">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R250">
         <v>1.875</v>
@@ -22766,22 +22766,22 @@
         <v>1.925</v>
       </c>
       <c r="T250">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U250">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V250">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W250">
         <v>-1</v>
       </c>
       <c r="X250">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Y250">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z250">
         <v>-1</v>
@@ -22793,7 +22793,7 @@
         <v>-1</v>
       </c>
       <c r="AC250">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="251" spans="1:29">
@@ -22801,7 +22801,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>6492410</v>
+        <v>6418155</v>
       </c>
       <c r="C251" t="s">
         <v>28</v>
@@ -22813,40 +22813,40 @@
         <v>45206.875</v>
       </c>
       <c r="F251" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G251" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I251">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J251" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K251">
-        <v>2.9</v>
+        <v>1.85</v>
       </c>
       <c r="L251">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M251">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="N251">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="O251">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P251">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="Q251">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R251">
         <v>1.85</v>
@@ -22855,31 +22855,31 @@
         <v>1.95</v>
       </c>
       <c r="T251">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U251">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V251">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W251">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X251">
         <v>-1</v>
       </c>
       <c r="Y251">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z251">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA251">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB251">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AC251">
         <v>-1</v>
@@ -22890,7 +22890,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>6418155</v>
+        <v>6492410</v>
       </c>
       <c r="C252" t="s">
         <v>28</v>
@@ -22902,40 +22902,40 @@
         <v>45206.875</v>
       </c>
       <c r="F252" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G252" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="H252">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I252">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J252" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K252">
-        <v>1.85</v>
+        <v>2.9</v>
       </c>
       <c r="L252">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M252">
-        <v>4</v>
+        <v>2.375</v>
       </c>
       <c r="N252">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="O252">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P252">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="Q252">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R252">
         <v>1.85</v>
@@ -22944,31 +22944,31 @@
         <v>1.95</v>
       </c>
       <c r="T252">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U252">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V252">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W252">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X252">
         <v>-1</v>
       </c>
       <c r="Y252">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z252">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA252">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB252">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AC252">
         <v>-1</v>
@@ -23068,7 +23068,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>6488884</v>
+        <v>6488732</v>
       </c>
       <c r="C254" t="s">
         <v>28</v>
@@ -23080,58 +23080,58 @@
         <v>45206.95833333334</v>
       </c>
       <c r="F254" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G254" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="H254">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I254">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J254" t="s">
         <v>55</v>
       </c>
       <c r="K254">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="L254">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M254">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="N254">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="O254">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P254">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="Q254">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R254">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S254">
-        <v>1.875</v>
+        <v>1.725</v>
       </c>
       <c r="T254">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U254">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V254">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W254">
-        <v>0.909</v>
+        <v>1.375</v>
       </c>
       <c r="X254">
         <v>-1</v>
@@ -23140,16 +23140,16 @@
         <v>-1</v>
       </c>
       <c r="Z254">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA254">
         <v>-1</v>
       </c>
       <c r="AB254">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC254">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="255" spans="1:29">
@@ -23157,7 +23157,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>6488732</v>
+        <v>6488884</v>
       </c>
       <c r="C255" t="s">
         <v>28</v>
@@ -23169,58 +23169,58 @@
         <v>45206.95833333334</v>
       </c>
       <c r="F255" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G255" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="H255">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I255">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J255" t="s">
         <v>55</v>
       </c>
       <c r="K255">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="L255">
+        <v>3.6</v>
+      </c>
+      <c r="M255">
+        <v>3.75</v>
+      </c>
+      <c r="N255">
+        <v>1.909</v>
+      </c>
+      <c r="O255">
+        <v>3.75</v>
+      </c>
+      <c r="P255">
         <v>3.4</v>
       </c>
-      <c r="M255">
+      <c r="Q255">
+        <v>-0.5</v>
+      </c>
+      <c r="R255">
+        <v>1.925</v>
+      </c>
+      <c r="S255">
+        <v>1.875</v>
+      </c>
+      <c r="T255">
         <v>3</v>
       </c>
-      <c r="N255">
-        <v>2.375</v>
-      </c>
-      <c r="O255">
-        <v>3.4</v>
-      </c>
-      <c r="P255">
-        <v>2.9</v>
-      </c>
-      <c r="Q255">
-        <v>-0.25</v>
-      </c>
-      <c r="R255">
-        <v>1.975</v>
-      </c>
-      <c r="S255">
-        <v>1.725</v>
-      </c>
-      <c r="T255">
-        <v>2.5</v>
-      </c>
       <c r="U255">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V255">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W255">
-        <v>1.375</v>
+        <v>0.909</v>
       </c>
       <c r="X255">
         <v>-1</v>
@@ -23229,16 +23229,16 @@
         <v>-1</v>
       </c>
       <c r="Z255">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA255">
         <v>-1</v>
       </c>
       <c r="AB255">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC255">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="256" spans="1:29">
@@ -23246,7 +23246,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>6507495</v>
+        <v>6492575</v>
       </c>
       <c r="C256" t="s">
         <v>28</v>
@@ -23261,53 +23261,53 @@
         <v>44</v>
       </c>
       <c r="G256" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H256">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I256">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J256" t="s">
         <v>53</v>
       </c>
       <c r="K256">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L256">
+        <v>3.4</v>
+      </c>
+      <c r="M256">
+        <v>2.3</v>
+      </c>
+      <c r="N256">
         <v>3.5</v>
       </c>
-      <c r="M256">
+      <c r="O256">
         <v>3.6</v>
       </c>
-      <c r="N256">
-        <v>1.85</v>
-      </c>
-      <c r="O256">
-        <v>3.75</v>
-      </c>
       <c r="P256">
-        <v>3.8</v>
+        <v>1.909</v>
       </c>
       <c r="Q256">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R256">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S256">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T256">
         <v>2.75</v>
       </c>
       <c r="U256">
+        <v>1.75</v>
+      </c>
+      <c r="V256">
         <v>1.95</v>
       </c>
-      <c r="V256">
-        <v>1.85</v>
-      </c>
       <c r="W256">
         <v>-1</v>
       </c>
@@ -23315,19 +23315,19 @@
         <v>-1</v>
       </c>
       <c r="Y256">
-        <v>2.8</v>
+        <v>0.909</v>
       </c>
       <c r="Z256">
         <v>-1</v>
       </c>
       <c r="AA256">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB256">
-        <v>0.475</v>
+        <v>0.75</v>
       </c>
       <c r="AC256">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="257" spans="1:29">
@@ -23335,7 +23335,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>6492575</v>
+        <v>6507495</v>
       </c>
       <c r="C257" t="s">
         <v>28</v>
@@ -23350,52 +23350,52 @@
         <v>45</v>
       </c>
       <c r="G257" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H257">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I257">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J257" t="s">
         <v>53</v>
       </c>
       <c r="K257">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L257">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M257">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="N257">
-        <v>3.5</v>
+        <v>1.85</v>
       </c>
       <c r="O257">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P257">
-        <v>1.909</v>
+        <v>3.8</v>
       </c>
       <c r="Q257">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R257">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S257">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T257">
         <v>2.75</v>
       </c>
       <c r="U257">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="V257">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W257">
         <v>-1</v>
@@ -23404,19 +23404,19 @@
         <v>-1</v>
       </c>
       <c r="Y257">
-        <v>0.909</v>
+        <v>2.8</v>
       </c>
       <c r="Z257">
         <v>-1</v>
       </c>
       <c r="AA257">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB257">
-        <v>0.75</v>
+        <v>0.475</v>
       </c>
       <c r="AC257">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="258" spans="1:29">
@@ -23614,7 +23614,7 @@
         <v>45212.91666666666</v>
       </c>
       <c r="F260" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G260" t="s">
         <v>34</v>
@@ -23958,7 +23958,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>6504580</v>
+        <v>6531323</v>
       </c>
       <c r="C264" t="s">
         <v>28</v>
@@ -23970,58 +23970,58 @@
         <v>45213.875</v>
       </c>
       <c r="F264" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G264" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H264">
         <v>2</v>
       </c>
       <c r="I264">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J264" t="s">
         <v>55</v>
       </c>
       <c r="K264">
-        <v>2.05</v>
+        <v>1.444</v>
       </c>
       <c r="L264">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M264">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="N264">
-        <v>2</v>
+        <v>1.45</v>
       </c>
       <c r="O264">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P264">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q264">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R264">
+        <v>1.975</v>
+      </c>
+      <c r="S264">
         <v>1.825</v>
-      </c>
-      <c r="S264">
-        <v>1.975</v>
       </c>
       <c r="T264">
         <v>3</v>
       </c>
       <c r="U264">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V264">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W264">
-        <v>1</v>
+        <v>0.45</v>
       </c>
       <c r="X264">
         <v>-1</v>
@@ -24030,16 +24030,16 @@
         <v>-1</v>
       </c>
       <c r="Z264">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA264">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB264">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC264">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="265" spans="1:29">
@@ -24047,7 +24047,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>6531323</v>
+        <v>6504580</v>
       </c>
       <c r="C265" t="s">
         <v>28</v>
@@ -24059,58 +24059,58 @@
         <v>45213.875</v>
       </c>
       <c r="F265" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G265" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H265">
         <v>2</v>
       </c>
       <c r="I265">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J265" t="s">
         <v>55</v>
       </c>
       <c r="K265">
-        <v>1.444</v>
+        <v>2.05</v>
       </c>
       <c r="L265">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M265">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="N265">
-        <v>1.45</v>
+        <v>2</v>
       </c>
       <c r="O265">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P265">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q265">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R265">
+        <v>1.825</v>
+      </c>
+      <c r="S265">
         <v>1.975</v>
-      </c>
-      <c r="S265">
-        <v>1.825</v>
       </c>
       <c r="T265">
         <v>3</v>
       </c>
       <c r="U265">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V265">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W265">
-        <v>0.45</v>
+        <v>1</v>
       </c>
       <c r="X265">
         <v>-1</v>
@@ -24119,16 +24119,16 @@
         <v>-1</v>
       </c>
       <c r="Z265">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA265">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB265">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC265">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="266" spans="1:29">
@@ -24148,7 +24148,7 @@
         <v>45213.89583333334</v>
       </c>
       <c r="F266" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G266" t="s">
         <v>41</v>
@@ -24225,7 +24225,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>6504524</v>
+        <v>6504695</v>
       </c>
       <c r="C267" t="s">
         <v>28</v>
@@ -24237,76 +24237,76 @@
         <v>45213.95833333334</v>
       </c>
       <c r="F267" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="G267" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H267">
+        <v>0</v>
+      </c>
+      <c r="I267">
         <v>1</v>
       </c>
-      <c r="I267">
-        <v>0</v>
-      </c>
       <c r="J267" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K267">
-        <v>1.533</v>
+        <v>2.3</v>
       </c>
       <c r="L267">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M267">
-        <v>4.75</v>
+        <v>2.6</v>
       </c>
       <c r="N267">
-        <v>1.7</v>
+        <v>3.8</v>
       </c>
       <c r="O267">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P267">
-        <v>3.8</v>
+        <v>1.8</v>
       </c>
       <c r="Q267">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R267">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S267">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T267">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U267">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V267">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W267">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X267">
         <v>-1</v>
       </c>
       <c r="Y267">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z267">
-        <v>0.475</v>
+        <v>-0.5</v>
       </c>
       <c r="AA267">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="AB267">
         <v>-1</v>
       </c>
       <c r="AC267">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="268" spans="1:29">
@@ -24314,7 +24314,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>6492480</v>
+        <v>6504524</v>
       </c>
       <c r="C268" t="s">
         <v>28</v>
@@ -24326,37 +24326,37 @@
         <v>45213.95833333334</v>
       </c>
       <c r="F268" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G268" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H268">
         <v>1</v>
       </c>
       <c r="I268">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J268" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K268">
-        <v>1.95</v>
+        <v>1.533</v>
       </c>
       <c r="L268">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M268">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="N268">
-        <v>1.727</v>
+        <v>1.7</v>
       </c>
       <c r="O268">
         <v>3.75</v>
       </c>
       <c r="P268">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q268">
         <v>-0.75</v>
@@ -24371,31 +24371,31 @@
         <v>2.75</v>
       </c>
       <c r="U268">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V268">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W268">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X268">
         <v>-1</v>
       </c>
       <c r="Y268">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z268">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA268">
+        <v>-0.5</v>
+      </c>
+      <c r="AB268">
+        <v>-1</v>
+      </c>
+      <c r="AC268">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB268">
-        <v>0.4</v>
-      </c>
-      <c r="AC268">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="269" spans="1:29">
@@ -24403,7 +24403,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>6504695</v>
+        <v>6492480</v>
       </c>
       <c r="C269" t="s">
         <v>28</v>
@@ -24415,55 +24415,55 @@
         <v>45213.95833333334</v>
       </c>
       <c r="F269" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="G269" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I269">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J269" t="s">
         <v>53</v>
       </c>
       <c r="K269">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="L269">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M269">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="N269">
-        <v>3.8</v>
+        <v>1.727</v>
       </c>
       <c r="O269">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P269">
+        <v>3.75</v>
+      </c>
+      <c r="Q269">
+        <v>-0.75</v>
+      </c>
+      <c r="R269">
+        <v>1.95</v>
+      </c>
+      <c r="S269">
+        <v>1.85</v>
+      </c>
+      <c r="T269">
+        <v>2.75</v>
+      </c>
+      <c r="U269">
         <v>1.8</v>
       </c>
-      <c r="Q269">
-        <v>0.75</v>
-      </c>
-      <c r="R269">
-        <v>1.8</v>
-      </c>
-      <c r="S269">
-        <v>2</v>
-      </c>
-      <c r="T269">
-        <v>2.5</v>
-      </c>
-      <c r="U269">
-        <v>1.875</v>
-      </c>
       <c r="V269">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W269">
         <v>-1</v>
@@ -24472,19 +24472,19 @@
         <v>-1</v>
       </c>
       <c r="Y269">
-        <v>0.8</v>
+        <v>2.75</v>
       </c>
       <c r="Z269">
+        <v>-1</v>
+      </c>
+      <c r="AA269">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB269">
+        <v>0.4</v>
+      </c>
+      <c r="AC269">
         <v>-0.5</v>
-      </c>
-      <c r="AA269">
-        <v>0.5</v>
-      </c>
-      <c r="AB269">
-        <v>-1</v>
-      </c>
-      <c r="AC269">
-        <v>0.925</v>
       </c>
     </row>
     <row r="270" spans="1:29">
@@ -24504,7 +24504,7 @@
         <v>45213.97916666666</v>
       </c>
       <c r="F270" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G270" t="s">
         <v>40</v>
@@ -24860,7 +24860,7 @@
         <v>45220.91666666666</v>
       </c>
       <c r="F274" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G274" t="s">
         <v>30</v>
@@ -24952,7 +24952,7 @@
         <v>51</v>
       </c>
       <c r="G275" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H275">
         <v>1</v>
@@ -25219,7 +25219,7 @@
         <v>40</v>
       </c>
       <c r="G278" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H278">
         <v>3</v>
@@ -25308,7 +25308,7 @@
         <v>51</v>
       </c>
       <c r="G279" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H279">
         <v>3</v>
@@ -25575,7 +25575,7 @@
         <v>38</v>
       </c>
       <c r="G282" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H282">
         <v>1</v>
@@ -25753,7 +25753,7 @@
         <v>51</v>
       </c>
       <c r="G284" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H284">
         <v>1</v>
@@ -25842,7 +25842,7 @@
         <v>29</v>
       </c>
       <c r="G285" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H285">
         <v>3</v>

--- a/USA USL Championship/USA USL Championship.xlsx
+++ b/USA USL Championship/USA USL Championship.xlsx
@@ -109,10 +109,10 @@
     <t>Colorado Switchbacks FC</t>
   </si>
   <si>
-    <t>Pittsburgh Riverhounds</t>
+    <t>Hartford Athletic</t>
   </si>
   <si>
-    <t>Hartford Athletic</t>
+    <t>Pittsburgh Riverhounds</t>
   </si>
   <si>
     <t>Tampa Bay Rowdies</t>
@@ -121,16 +121,16 @@
     <t>Memphis 901 FC</t>
   </si>
   <si>
+    <t>New Mexico United</t>
+  </si>
+  <si>
     <t>San Antonio FC</t>
   </si>
   <si>
-    <t>New Mexico United</t>
+    <t>Orange County SC</t>
   </si>
   <si>
     <t>Monterey Bay FC</t>
-  </si>
-  <si>
-    <t>Orange County SC</t>
   </si>
   <si>
     <t>Loudoun United FC</t>
@@ -184,10 +184,10 @@
     <t>A</t>
   </si>
   <si>
-    <t>H</t>
+    <t>D</t>
   </si>
   <si>
-    <t>D</t>
+    <t>H</t>
   </si>
 </sst>
 </file>
@@ -824,7 +824,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6126586</v>
+        <v>6126581</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -839,10 +839,10 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -851,61 +851,61 @@
         <v>56</v>
       </c>
       <c r="K4">
-        <v>1.7</v>
+        <v>3.5</v>
       </c>
       <c r="L4">
         <v>3.6</v>
       </c>
       <c r="M4">
-        <v>4.2</v>
+        <v>1.833</v>
       </c>
       <c r="N4">
+        <v>3.4</v>
+      </c>
+      <c r="O4">
+        <v>3.6</v>
+      </c>
+      <c r="P4">
         <v>1.85</v>
       </c>
-      <c r="O4">
-        <v>3.3</v>
-      </c>
-      <c r="P4">
-        <v>3.8</v>
-      </c>
       <c r="Q4">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R4">
+        <v>1.9</v>
+      </c>
+      <c r="S4">
+        <v>1.9</v>
+      </c>
+      <c r="T4">
+        <v>2.75</v>
+      </c>
+      <c r="U4">
+        <v>1.875</v>
+      </c>
+      <c r="V4">
         <v>1.925</v>
       </c>
-      <c r="S4">
-        <v>1.875</v>
-      </c>
-      <c r="T4">
-        <v>2.25</v>
-      </c>
-      <c r="U4">
-        <v>1.75</v>
-      </c>
-      <c r="V4">
-        <v>1.95</v>
-      </c>
       <c r="W4">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X4">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA4">
+        <v>-1</v>
+      </c>
+      <c r="AB4">
+        <v>-1</v>
+      </c>
+      <c r="AC4">
         <v>0.925</v>
-      </c>
-      <c r="AA4">
-        <v>-1</v>
-      </c>
-      <c r="AB4">
-        <v>-1</v>
-      </c>
-      <c r="AC4">
-        <v>0.95</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -913,7 +913,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6126581</v>
+        <v>6126586</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -928,10 +928,10 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -940,52 +940,52 @@
         <v>57</v>
       </c>
       <c r="K5">
-        <v>3.5</v>
+        <v>1.7</v>
       </c>
       <c r="L5">
         <v>3.6</v>
       </c>
       <c r="M5">
-        <v>1.833</v>
+        <v>4.2</v>
       </c>
       <c r="N5">
-        <v>3.4</v>
+        <v>1.85</v>
       </c>
       <c r="O5">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P5">
-        <v>1.85</v>
+        <v>3.8</v>
       </c>
       <c r="Q5">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R5">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S5">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T5">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U5">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="V5">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W5">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X5">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y5">
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AA5">
         <v>-1</v>
@@ -994,7 +994,7 @@
         <v>-1</v>
       </c>
       <c r="AC5">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1026,7 +1026,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K6">
         <v>2.25</v>
@@ -1115,7 +1115,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -1180,7 +1180,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6126587</v>
+        <v>6126584</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1195,73 +1195,73 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K8">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="L8">
         <v>3.4</v>
       </c>
       <c r="M8">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="N8">
-        <v>1.8</v>
+        <v>2.15</v>
       </c>
       <c r="O8">
         <v>3.4</v>
       </c>
       <c r="P8">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="Q8">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R8">
+        <v>1.95</v>
+      </c>
+      <c r="S8">
         <v>1.85</v>
       </c>
-      <c r="S8">
-        <v>1.95</v>
-      </c>
       <c r="T8">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U8">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V8">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W8">
         <v>-1</v>
       </c>
       <c r="X8">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y8">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z8">
         <v>-1</v>
       </c>
       <c r="AA8">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB8">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC8">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1269,7 +1269,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6126584</v>
+        <v>6126587</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1284,73 +1284,73 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K9">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="L9">
         <v>3.4</v>
       </c>
       <c r="M9">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="N9">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="O9">
         <v>3.4</v>
       </c>
       <c r="P9">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q9">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R9">
+        <v>1.85</v>
+      </c>
+      <c r="S9">
         <v>1.95</v>
       </c>
-      <c r="S9">
-        <v>1.85</v>
-      </c>
       <c r="T9">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U9">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V9">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W9">
         <v>-1</v>
       </c>
       <c r="X9">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y9">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z9">
         <v>-1</v>
       </c>
       <c r="AA9">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB9">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC9">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1358,7 +1358,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6126583</v>
+        <v>6126585</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1373,55 +1373,55 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K10">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L10">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M10">
+        <v>3.2</v>
+      </c>
+      <c r="N10">
+        <v>2.1</v>
+      </c>
+      <c r="O10">
+        <v>3.1</v>
+      </c>
+      <c r="P10">
         <v>3.3</v>
       </c>
-      <c r="N10">
-        <v>1.615</v>
-      </c>
-      <c r="O10">
-        <v>4</v>
-      </c>
-      <c r="P10">
-        <v>4.2</v>
-      </c>
       <c r="Q10">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R10">
+        <v>1.8</v>
+      </c>
+      <c r="S10">
+        <v>2</v>
+      </c>
+      <c r="T10">
+        <v>2.25</v>
+      </c>
+      <c r="U10">
+        <v>1.85</v>
+      </c>
+      <c r="V10">
         <v>1.95</v>
       </c>
-      <c r="S10">
-        <v>1.75</v>
-      </c>
-      <c r="T10">
-        <v>2.75</v>
-      </c>
-      <c r="U10">
-        <v>1.95</v>
-      </c>
-      <c r="V10">
-        <v>1.85</v>
-      </c>
       <c r="W10">
-        <v>0.615</v>
+        <v>1.1</v>
       </c>
       <c r="X10">
         <v>-1</v>
@@ -1430,16 +1430,16 @@
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AA10">
         <v>-1</v>
       </c>
       <c r="AB10">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AC10">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1447,7 +1447,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6126585</v>
+        <v>6126583</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1462,55 +1462,55 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K11">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="L11">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M11">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="N11">
-        <v>2.1</v>
+        <v>1.615</v>
       </c>
       <c r="O11">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P11">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="Q11">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R11">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S11">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T11">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U11">
+        <v>1.95</v>
+      </c>
+      <c r="V11">
         <v>1.85</v>
       </c>
-      <c r="V11">
-        <v>1.95</v>
-      </c>
       <c r="W11">
-        <v>1.1</v>
+        <v>0.615</v>
       </c>
       <c r="X11">
         <v>-1</v>
@@ -1519,16 +1519,16 @@
         <v>-1</v>
       </c>
       <c r="Z11">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AA11">
         <v>-1</v>
       </c>
       <c r="AB11">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC11">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1560,7 +1560,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K12">
         <v>1.8</v>
@@ -1649,7 +1649,7 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K13">
         <v>2.4</v>
@@ -1738,7 +1738,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K14">
         <v>2.3</v>
@@ -1815,7 +1815,7 @@
         <v>45087.83333333334</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G15" t="s">
         <v>29</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K15">
         <v>1.75</v>
@@ -1907,7 +1907,7 @@
         <v>41</v>
       </c>
       <c r="G16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -1916,7 +1916,7 @@
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K16">
         <v>1.666</v>
@@ -1996,7 +1996,7 @@
         <v>33</v>
       </c>
       <c r="G17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H17">
         <v>3</v>
@@ -2005,7 +2005,7 @@
         <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K17">
         <v>1.65</v>
@@ -2094,7 +2094,7 @@
         <v>3</v>
       </c>
       <c r="J18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K18">
         <v>2.05</v>
@@ -2263,7 +2263,7 @@
         <v>30</v>
       </c>
       <c r="G20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H20">
         <v>4</v>
@@ -2272,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K20">
         <v>1.85</v>
@@ -2349,7 +2349,7 @@
         <v>45087.91666666666</v>
       </c>
       <c r="F21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -2361,7 +2361,7 @@
         <v>2</v>
       </c>
       <c r="J21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -2450,7 +2450,7 @@
         <v>2</v>
       </c>
       <c r="J22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K22">
         <v>1.95</v>
@@ -2530,7 +2530,7 @@
         <v>45</v>
       </c>
       <c r="G23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -2616,7 +2616,7 @@
         <v>45091.83333333334</v>
       </c>
       <c r="F24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G24" t="s">
         <v>52</v>
@@ -2717,7 +2717,7 @@
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K25">
         <v>1.3</v>
@@ -2797,7 +2797,7 @@
         <v>40</v>
       </c>
       <c r="G26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H26">
         <v>2</v>
@@ -2806,7 +2806,7 @@
         <v>2</v>
       </c>
       <c r="J26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K26">
         <v>2.15</v>
@@ -2972,7 +2972,7 @@
         <v>45094.83333333334</v>
       </c>
       <c r="F28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G28" t="s">
         <v>29</v>
@@ -3073,7 +3073,7 @@
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K29">
         <v>1.8</v>
@@ -3153,7 +3153,7 @@
         <v>49</v>
       </c>
       <c r="G30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -3251,7 +3251,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K31">
         <v>1.65</v>
@@ -3340,7 +3340,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K32">
         <v>1.6</v>
@@ -3417,7 +3417,7 @@
         <v>45094.91666666666</v>
       </c>
       <c r="F33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G33" t="s">
         <v>42</v>
@@ -3429,7 +3429,7 @@
         <v>2</v>
       </c>
       <c r="J33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K33">
         <v>1.8</v>
@@ -3518,7 +3518,7 @@
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K34">
         <v>1.8</v>
@@ -3598,7 +3598,7 @@
         <v>50</v>
       </c>
       <c r="G35" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -3607,7 +3607,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K35">
         <v>2.1</v>
@@ -3696,7 +3696,7 @@
         <v>2</v>
       </c>
       <c r="J36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K36">
         <v>2.9</v>
@@ -3776,7 +3776,7 @@
         <v>51</v>
       </c>
       <c r="G37" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -3874,7 +3874,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K38">
         <v>1.615</v>
@@ -3963,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K39">
         <v>2.1</v>
@@ -4052,7 +4052,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K40">
         <v>1.8</v>
@@ -4129,7 +4129,7 @@
         <v>45098.91666666666</v>
       </c>
       <c r="F41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G41" t="s">
         <v>44</v>
@@ -4218,7 +4218,7 @@
         <v>45101.83333333334</v>
       </c>
       <c r="F42" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G42" t="s">
         <v>40</v>
@@ -4230,7 +4230,7 @@
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K42">
         <v>1.727</v>
@@ -4295,7 +4295,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6126622</v>
+        <v>6126621</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4307,55 +4307,55 @@
         <v>45101.83333333334</v>
       </c>
       <c r="F43" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G43" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J43" t="s">
         <v>55</v>
       </c>
       <c r="K43">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="L43">
         <v>3.4</v>
       </c>
       <c r="M43">
-        <v>1.909</v>
+        <v>2.625</v>
       </c>
       <c r="N43">
-        <v>3.75</v>
+        <v>2.4</v>
       </c>
       <c r="O43">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P43">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="Q43">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R43">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S43">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T43">
         <v>2.75</v>
       </c>
       <c r="U43">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V43">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W43">
         <v>-1</v>
@@ -4364,19 +4364,19 @@
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="Z43">
         <v>-1</v>
       </c>
       <c r="AA43">
+        <v>0.925</v>
+      </c>
+      <c r="AB43">
+        <v>-1</v>
+      </c>
+      <c r="AC43">
         <v>0.825</v>
-      </c>
-      <c r="AB43">
-        <v>0.925</v>
-      </c>
-      <c r="AC43">
-        <v>-1</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4384,7 +4384,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6126621</v>
+        <v>6126622</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4396,55 +4396,55 @@
         <v>45101.83333333334</v>
       </c>
       <c r="F44" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G44" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J44" t="s">
         <v>55</v>
       </c>
       <c r="K44">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="L44">
         <v>3.4</v>
       </c>
       <c r="M44">
-        <v>2.625</v>
+        <v>1.909</v>
       </c>
       <c r="N44">
-        <v>2.4</v>
+        <v>3.75</v>
       </c>
       <c r="O44">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P44">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="Q44">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R44">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S44">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T44">
         <v>2.75</v>
       </c>
       <c r="U44">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V44">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W44">
         <v>-1</v>
@@ -4453,19 +4453,19 @@
         <v>-1</v>
       </c>
       <c r="Y44">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="Z44">
         <v>-1</v>
       </c>
       <c r="AA44">
+        <v>0.825</v>
+      </c>
+      <c r="AB44">
         <v>0.925</v>
       </c>
-      <c r="AB44">
-        <v>-1</v>
-      </c>
       <c r="AC44">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4488,7 +4488,7 @@
         <v>52</v>
       </c>
       <c r="G45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K46">
         <v>1.615</v>
@@ -4675,7 +4675,7 @@
         <v>2</v>
       </c>
       <c r="J47" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K47">
         <v>1.727</v>
@@ -4752,7 +4752,7 @@
         <v>45101.91666666666</v>
       </c>
       <c r="F48" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G48" t="s">
         <v>30</v>
@@ -4764,7 +4764,7 @@
         <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K48">
         <v>2.1</v>
@@ -4841,7 +4841,7 @@
         <v>45101.95833333334</v>
       </c>
       <c r="F49" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G49" t="s">
         <v>47</v>
@@ -4853,7 +4853,7 @@
         <v>0</v>
       </c>
       <c r="J49" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K49">
         <v>1.833</v>
@@ -4942,7 +4942,7 @@
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K50">
         <v>1.833</v>
@@ -5022,7 +5022,7 @@
         <v>51</v>
       </c>
       <c r="G51" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H51">
         <v>3</v>
@@ -5031,7 +5031,7 @@
         <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K51">
         <v>1.75</v>
@@ -5209,7 +5209,7 @@
         <v>0</v>
       </c>
       <c r="J53" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K53">
         <v>1.571</v>
@@ -5298,7 +5298,7 @@
         <v>2</v>
       </c>
       <c r="J54" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K54">
         <v>2.1</v>
@@ -5387,7 +5387,7 @@
         <v>2</v>
       </c>
       <c r="J55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K55">
         <v>2.25</v>
@@ -5464,7 +5464,7 @@
         <v>45108.83333333334</v>
       </c>
       <c r="F56" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G56" t="s">
         <v>43</v>
@@ -5476,7 +5476,7 @@
         <v>0</v>
       </c>
       <c r="J56" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K56">
         <v>1.909</v>
@@ -5541,7 +5541,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6126641</v>
+        <v>6126633</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5553,52 +5553,52 @@
         <v>45108.91666666666</v>
       </c>
       <c r="F57" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G57" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H57">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K57">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L57">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M57">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="N57">
         <v>1.666</v>
       </c>
       <c r="O57">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P57">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q57">
         <v>-0.75</v>
       </c>
       <c r="R57">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S57">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T57">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U57">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="V57">
         <v>1.95</v>
@@ -5613,16 +5613,16 @@
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA57">
         <v>-1</v>
       </c>
       <c r="AB57">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC57">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5630,7 +5630,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6126633</v>
+        <v>6126641</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5642,52 +5642,52 @@
         <v>45108.91666666666</v>
       </c>
       <c r="F58" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K58">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="L58">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M58">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="N58">
         <v>1.666</v>
       </c>
       <c r="O58">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P58">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q58">
         <v>-0.75</v>
       </c>
       <c r="R58">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S58">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T58">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U58">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="V58">
         <v>1.95</v>
@@ -5702,16 +5702,16 @@
         <v>-1</v>
       </c>
       <c r="Z58">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA58">
         <v>-1</v>
       </c>
       <c r="AB58">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC58">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5734,7 +5734,7 @@
         <v>46</v>
       </c>
       <c r="G59" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -5820,10 +5820,10 @@
         <v>45108.95833333334</v>
       </c>
       <c r="F60" t="s">
+        <v>37</v>
+      </c>
+      <c r="G60" t="s">
         <v>38</v>
-      </c>
-      <c r="G60" t="s">
-        <v>37</v>
       </c>
       <c r="H60">
         <v>3</v>
@@ -5832,7 +5832,7 @@
         <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K60">
         <v>2.15</v>
@@ -6010,7 +6010,7 @@
         <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K62">
         <v>1.571</v>
@@ -6099,7 +6099,7 @@
         <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K63">
         <v>2.15</v>
@@ -6179,7 +6179,7 @@
         <v>39</v>
       </c>
       <c r="G64" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H64">
         <v>2</v>
@@ -6188,7 +6188,7 @@
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K64">
         <v>2.1</v>
@@ -6268,7 +6268,7 @@
         <v>45</v>
       </c>
       <c r="G65" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H65">
         <v>2</v>
@@ -6277,7 +6277,7 @@
         <v>2</v>
       </c>
       <c r="J65" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K65">
         <v>2.625</v>
@@ -6357,7 +6357,7 @@
         <v>30</v>
       </c>
       <c r="G66" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H66">
         <v>4</v>
@@ -6366,7 +6366,7 @@
         <v>0</v>
       </c>
       <c r="J66" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K66">
         <v>2</v>
@@ -6446,7 +6446,7 @@
         <v>34</v>
       </c>
       <c r="G67" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -6520,7 +6520,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6126652</v>
+        <v>6126647</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6532,76 +6532,76 @@
         <v>45115.83333333334</v>
       </c>
       <c r="F68" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G68" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H68">
         <v>0</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K68">
         <v>1.909</v>
       </c>
       <c r="L68">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M68">
+        <v>3.5</v>
+      </c>
+      <c r="N68">
+        <v>1.666</v>
+      </c>
+      <c r="O68">
         <v>3.6</v>
       </c>
-      <c r="N68">
+      <c r="P68">
+        <v>4.5</v>
+      </c>
+      <c r="Q68">
+        <v>-0.75</v>
+      </c>
+      <c r="R68">
+        <v>1.9</v>
+      </c>
+      <c r="S68">
+        <v>1.9</v>
+      </c>
+      <c r="T68">
+        <v>2.75</v>
+      </c>
+      <c r="U68">
+        <v>1.85</v>
+      </c>
+      <c r="V68">
         <v>1.95</v>
       </c>
-      <c r="O68">
-        <v>3.25</v>
-      </c>
-      <c r="P68">
-        <v>3.75</v>
-      </c>
-      <c r="Q68">
-        <v>-0.25</v>
-      </c>
-      <c r="R68">
-        <v>1.75</v>
-      </c>
-      <c r="S68">
-        <v>2.05</v>
-      </c>
-      <c r="T68">
-        <v>1.75</v>
-      </c>
-      <c r="U68">
-        <v>1.8</v>
-      </c>
-      <c r="V68">
-        <v>2</v>
-      </c>
       <c r="W68">
         <v>-1</v>
       </c>
       <c r="X68">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y68">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z68">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA68">
-        <v>0.5249999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB68">
         <v>-1</v>
       </c>
       <c r="AC68">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6609,7 +6609,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6126647</v>
+        <v>6126652</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6621,76 +6621,76 @@
         <v>45115.83333333334</v>
       </c>
       <c r="F69" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G69" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H69">
         <v>0</v>
       </c>
       <c r="I69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K69">
         <v>1.909</v>
       </c>
       <c r="L69">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M69">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="N69">
-        <v>1.666</v>
+        <v>1.95</v>
       </c>
       <c r="O69">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P69">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q69">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R69">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S69">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T69">
-        <v>2.75</v>
+        <v>1.75</v>
       </c>
       <c r="U69">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V69">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W69">
         <v>-1</v>
       </c>
       <c r="X69">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y69">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z69">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA69">
-        <v>0.8999999999999999</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB69">
         <v>-1</v>
       </c>
       <c r="AC69">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6722,7 +6722,7 @@
         <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K70">
         <v>2.7</v>
@@ -6799,7 +6799,7 @@
         <v>45115.83333333334</v>
       </c>
       <c r="F71" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G71" t="s">
         <v>40</v>
@@ -6900,7 +6900,7 @@
         <v>0</v>
       </c>
       <c r="J72" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K72">
         <v>2</v>
@@ -6977,7 +6977,7 @@
         <v>45115.91666666666</v>
       </c>
       <c r="F73" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G73" t="s">
         <v>52</v>
@@ -6989,7 +6989,7 @@
         <v>0</v>
       </c>
       <c r="J73" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K73">
         <v>2</v>
@@ -7078,7 +7078,7 @@
         <v>0</v>
       </c>
       <c r="J74" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K74">
         <v>1.533</v>
@@ -7155,7 +7155,7 @@
         <v>45115.95833333334</v>
       </c>
       <c r="F75" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G75" t="s">
         <v>46</v>
@@ -7167,7 +7167,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K75">
         <v>2.5</v>
@@ -7256,7 +7256,7 @@
         <v>3</v>
       </c>
       <c r="J76" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K76">
         <v>2.6</v>
@@ -7336,7 +7336,7 @@
         <v>42</v>
       </c>
       <c r="G77" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H77">
         <v>2</v>
@@ -7345,7 +7345,7 @@
         <v>0</v>
       </c>
       <c r="J77" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K77">
         <v>2.1</v>
@@ -7434,7 +7434,7 @@
         <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K78">
         <v>2.2</v>
@@ -7523,7 +7523,7 @@
         <v>1</v>
       </c>
       <c r="J79" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K79">
         <v>1.75</v>
@@ -7603,7 +7603,7 @@
         <v>43</v>
       </c>
       <c r="G80" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H80">
         <v>0</v>
@@ -7677,7 +7677,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6126657</v>
+        <v>6126658</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7689,19 +7689,19 @@
         <v>45119.91666666666</v>
       </c>
       <c r="F81" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G81" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="H81">
         <v>1</v>
       </c>
       <c r="I81">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K81">
         <v>1.95</v>
@@ -7713,52 +7713,52 @@
         <v>3.25</v>
       </c>
       <c r="N81">
-        <v>2.75</v>
+        <v>2.375</v>
       </c>
       <c r="O81">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P81">
-        <v>2.4</v>
+        <v>2.875</v>
       </c>
       <c r="Q81">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R81">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S81">
-        <v>1.775</v>
+        <v>1.725</v>
       </c>
       <c r="T81">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U81">
+        <v>2</v>
+      </c>
+      <c r="V81">
         <v>1.8</v>
       </c>
-      <c r="V81">
-        <v>2</v>
-      </c>
       <c r="W81">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X81">
         <v>-1</v>
       </c>
       <c r="Y81">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z81">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA81">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB81">
+        <v>-1</v>
+      </c>
+      <c r="AC81">
         <v>0.8</v>
-      </c>
-      <c r="AC81">
-        <v>-1</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7766,7 +7766,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6126658</v>
+        <v>6126657</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7778,19 +7778,19 @@
         <v>45119.91666666666</v>
       </c>
       <c r="F82" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G82" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H82">
         <v>1</v>
       </c>
       <c r="I82">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J82" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K82">
         <v>1.95</v>
@@ -7802,52 +7802,52 @@
         <v>3.25</v>
       </c>
       <c r="N82">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="O82">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P82">
-        <v>2.875</v>
+        <v>2.4</v>
       </c>
       <c r="Q82">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R82">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S82">
-        <v>1.725</v>
+        <v>1.775</v>
       </c>
       <c r="T82">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U82">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V82">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W82">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X82">
         <v>-1</v>
       </c>
       <c r="Y82">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z82">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA82">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB82">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC82">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7879,7 +7879,7 @@
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K83">
         <v>2.15</v>
@@ -8045,7 +8045,7 @@
         <v>45122.83333333334</v>
       </c>
       <c r="F85" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G85" t="s">
         <v>52</v>
@@ -8057,7 +8057,7 @@
         <v>0</v>
       </c>
       <c r="J85" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K85">
         <v>1.571</v>
@@ -8146,7 +8146,7 @@
         <v>1</v>
       </c>
       <c r="J86" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K86">
         <v>2.1</v>
@@ -8235,7 +8235,7 @@
         <v>0</v>
       </c>
       <c r="J87" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K87">
         <v>2.4</v>
@@ -8315,7 +8315,7 @@
         <v>39</v>
       </c>
       <c r="G88" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H88">
         <v>1</v>
@@ -8404,7 +8404,7 @@
         <v>49</v>
       </c>
       <c r="G89" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H89">
         <v>3</v>
@@ -8413,7 +8413,7 @@
         <v>2</v>
       </c>
       <c r="J89" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K89">
         <v>1.833</v>
@@ -8502,7 +8502,7 @@
         <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K90">
         <v>1.615</v>
@@ -8579,7 +8579,7 @@
         <v>45122.95833333334</v>
       </c>
       <c r="F91" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G91" t="s">
         <v>50</v>
@@ -8680,7 +8680,7 @@
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K92">
         <v>1.95</v>
@@ -8769,7 +8769,7 @@
         <v>0</v>
       </c>
       <c r="J93" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K93">
         <v>2.8</v>
@@ -8858,7 +8858,7 @@
         <v>1</v>
       </c>
       <c r="J94" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K94">
         <v>2.375</v>
@@ -8947,7 +8947,7 @@
         <v>0</v>
       </c>
       <c r="J95" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K95">
         <v>2.75</v>
@@ -9027,7 +9027,7 @@
         <v>52</v>
       </c>
       <c r="G96" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H96">
         <v>1</v>
@@ -9036,7 +9036,7 @@
         <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K96">
         <v>2.3</v>
@@ -9116,7 +9116,7 @@
         <v>29</v>
       </c>
       <c r="G97" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H97">
         <v>3</v>
@@ -9125,7 +9125,7 @@
         <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K97">
         <v>2.5</v>
@@ -9294,7 +9294,7 @@
         <v>34</v>
       </c>
       <c r="G99" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H99">
         <v>3</v>
@@ -9380,7 +9380,7 @@
         <v>45129.91666666666</v>
       </c>
       <c r="F100" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G100" t="s">
         <v>47</v>
@@ -9469,7 +9469,7 @@
         <v>45129.91666666666</v>
       </c>
       <c r="F101" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G101" t="s">
         <v>51</v>
@@ -9481,7 +9481,7 @@
         <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K101">
         <v>2.75</v>
@@ -9650,7 +9650,7 @@
         <v>45</v>
       </c>
       <c r="G103" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H103">
         <v>0</v>
@@ -9748,7 +9748,7 @@
         <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K104">
         <v>1.909</v>
@@ -9825,7 +9825,7 @@
         <v>45133.83333333334</v>
       </c>
       <c r="F105" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G105" t="s">
         <v>41</v>
@@ -9926,7 +9926,7 @@
         <v>0</v>
       </c>
       <c r="J106" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K106">
         <v>1.666</v>
@@ -10015,7 +10015,7 @@
         <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K107">
         <v>1.727</v>
@@ -10092,7 +10092,7 @@
         <v>45136.83333333334</v>
       </c>
       <c r="F108" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G108" t="s">
         <v>34</v>
@@ -10104,7 +10104,7 @@
         <v>2</v>
       </c>
       <c r="J108" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K108">
         <v>1.833</v>
@@ -10193,7 +10193,7 @@
         <v>0</v>
       </c>
       <c r="J109" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K109">
         <v>1.533</v>
@@ -10258,7 +10258,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6126687</v>
+        <v>6126685</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10270,10 +10270,10 @@
         <v>45136.85416666666</v>
       </c>
       <c r="F110" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="G110" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="H110">
         <v>1</v>
@@ -10285,40 +10285,40 @@
         <v>55</v>
       </c>
       <c r="K110">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L110">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M110">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="N110">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="O110">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P110">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="Q110">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R110">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="S110">
-        <v>2.075</v>
+        <v>1.95</v>
       </c>
       <c r="T110">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U110">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V110">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W110">
         <v>-1</v>
@@ -10327,19 +10327,19 @@
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="Z110">
         <v>-1</v>
       </c>
       <c r="AA110">
-        <v>1.075</v>
+        <v>0.95</v>
       </c>
       <c r="AB110">
-        <v>0.8500000000000001</v>
+        <v>0.4625</v>
       </c>
       <c r="AC110">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10347,7 +10347,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6126685</v>
+        <v>6126687</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10359,10 +10359,10 @@
         <v>45136.85416666666</v>
       </c>
       <c r="F111" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G111" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="H111">
         <v>1</v>
@@ -10374,41 +10374,41 @@
         <v>55</v>
       </c>
       <c r="K111">
+        <v>2.1</v>
+      </c>
+      <c r="L111">
+        <v>3.3</v>
+      </c>
+      <c r="M111">
+        <v>3</v>
+      </c>
+      <c r="N111">
         <v>2.25</v>
       </c>
-      <c r="L111">
-        <v>3.4</v>
-      </c>
-      <c r="M111">
-        <v>2.625</v>
-      </c>
-      <c r="N111">
-        <v>2.05</v>
-      </c>
       <c r="O111">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P111">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="Q111">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R111">
+        <v>1.725</v>
+      </c>
+      <c r="S111">
+        <v>2.075</v>
+      </c>
+      <c r="T111">
+        <v>2.5</v>
+      </c>
+      <c r="U111">
         <v>1.85</v>
       </c>
-      <c r="S111">
+      <c r="V111">
         <v>1.95</v>
       </c>
-      <c r="T111">
-        <v>2.75</v>
-      </c>
-      <c r="U111">
-        <v>1.925</v>
-      </c>
-      <c r="V111">
-        <v>1.875</v>
-      </c>
       <c r="W111">
         <v>-1</v>
       </c>
@@ -10416,19 +10416,19 @@
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="Z111">
         <v>-1</v>
       </c>
       <c r="AA111">
-        <v>0.95</v>
+        <v>1.075</v>
       </c>
       <c r="AB111">
-        <v>0.4625</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC111">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10460,7 +10460,7 @@
         <v>0</v>
       </c>
       <c r="J112" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K112">
         <v>1.95</v>
@@ -10549,7 +10549,7 @@
         <v>2</v>
       </c>
       <c r="J113" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K113">
         <v>2.375</v>
@@ -10626,10 +10626,10 @@
         <v>45136.91666666666</v>
       </c>
       <c r="F114" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G114" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H114">
         <v>5</v>
@@ -10638,7 +10638,7 @@
         <v>2</v>
       </c>
       <c r="J114" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K114">
         <v>1.444</v>
@@ -10715,10 +10715,10 @@
         <v>45136.95833333334</v>
       </c>
       <c r="F115" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G115" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H115">
         <v>1</v>
@@ -10727,7 +10727,7 @@
         <v>0</v>
       </c>
       <c r="J115" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K115">
         <v>2.1</v>
@@ -10816,7 +10816,7 @@
         <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K116">
         <v>1.6</v>
@@ -10893,7 +10893,7 @@
         <v>45136.95833333334</v>
       </c>
       <c r="F117" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G117" t="s">
         <v>44</v>
@@ -11083,7 +11083,7 @@
         <v>0</v>
       </c>
       <c r="J119" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K119">
         <v>1.8</v>
@@ -11172,7 +11172,7 @@
         <v>0</v>
       </c>
       <c r="J120" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K120">
         <v>2.875</v>
@@ -11439,7 +11439,7 @@
         <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K123">
         <v>2.05</v>
@@ -11528,7 +11528,7 @@
         <v>0</v>
       </c>
       <c r="J124" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K124">
         <v>2.55</v>
@@ -11605,10 +11605,10 @@
         <v>45143.83333333334</v>
       </c>
       <c r="F125" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G125" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H125">
         <v>2</v>
@@ -11617,7 +11617,7 @@
         <v>1</v>
       </c>
       <c r="J125" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K125">
         <v>2.9</v>
@@ -11783,7 +11783,7 @@
         <v>45143.83333333334</v>
       </c>
       <c r="F127" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G127" t="s">
         <v>33</v>
@@ -11795,7 +11795,7 @@
         <v>0</v>
       </c>
       <c r="J127" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K127">
         <v>2.15</v>
@@ -11872,7 +11872,7 @@
         <v>45143.95833333334</v>
       </c>
       <c r="F128" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G128" t="s">
         <v>51</v>
@@ -11964,7 +11964,7 @@
         <v>40</v>
       </c>
       <c r="G129" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H129">
         <v>1</v>
@@ -12062,7 +12062,7 @@
         <v>1</v>
       </c>
       <c r="J130" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K130">
         <v>2.8</v>
@@ -12142,7 +12142,7 @@
         <v>44</v>
       </c>
       <c r="G131" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H131">
         <v>1</v>
@@ -12240,7 +12240,7 @@
         <v>1</v>
       </c>
       <c r="J132" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K132">
         <v>1.909</v>
@@ -12329,7 +12329,7 @@
         <v>0</v>
       </c>
       <c r="J133" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K133">
         <v>2.15</v>
@@ -12418,7 +12418,7 @@
         <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K134">
         <v>1.75</v>
@@ -12507,7 +12507,7 @@
         <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K135">
         <v>1.4</v>
@@ -12661,7 +12661,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6126713</v>
+        <v>6126714</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12673,76 +12673,76 @@
         <v>45150.85416666666</v>
       </c>
       <c r="F137" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G137" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137">
         <v>1</v>
       </c>
       <c r="J137" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K137">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="L137">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M137">
         <v>2.5</v>
       </c>
       <c r="N137">
+        <v>2.45</v>
+      </c>
+      <c r="O137">
+        <v>3.2</v>
+      </c>
+      <c r="P137">
         <v>2.5</v>
-      </c>
-      <c r="O137">
-        <v>3.3</v>
-      </c>
-      <c r="P137">
-        <v>2.4</v>
       </c>
       <c r="Q137">
         <v>0</v>
       </c>
       <c r="R137">
+        <v>1.875</v>
+      </c>
+      <c r="S137">
+        <v>1.925</v>
+      </c>
+      <c r="T137">
+        <v>2.25</v>
+      </c>
+      <c r="U137">
         <v>1.95</v>
       </c>
-      <c r="S137">
+      <c r="V137">
         <v>1.85</v>
       </c>
-      <c r="T137">
-        <v>2.5</v>
-      </c>
-      <c r="U137">
-        <v>1.875</v>
-      </c>
-      <c r="V137">
-        <v>1.925</v>
-      </c>
       <c r="W137">
         <v>-1</v>
       </c>
       <c r="X137">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y137">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z137">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA137">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
       <c r="AB137">
         <v>-1</v>
       </c>
       <c r="AC137">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12750,7 +12750,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6126714</v>
+        <v>6126721</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12762,76 +12762,76 @@
         <v>45150.85416666666</v>
       </c>
       <c r="F138" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="G138" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I138">
         <v>1</v>
       </c>
       <c r="J138" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K138">
-        <v>2.45</v>
+        <v>1.4</v>
       </c>
       <c r="L138">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="M138">
+        <v>6</v>
+      </c>
+      <c r="N138">
+        <v>1.5</v>
+      </c>
+      <c r="O138">
+        <v>4</v>
+      </c>
+      <c r="P138">
+        <v>5.25</v>
+      </c>
+      <c r="Q138">
+        <v>-1</v>
+      </c>
+      <c r="R138">
+        <v>1.825</v>
+      </c>
+      <c r="S138">
+        <v>1.975</v>
+      </c>
+      <c r="T138">
         <v>2.5</v>
       </c>
-      <c r="N138">
-        <v>2.45</v>
-      </c>
-      <c r="O138">
-        <v>3.2</v>
-      </c>
-      <c r="P138">
-        <v>2.5</v>
-      </c>
-      <c r="Q138">
-        <v>0</v>
-      </c>
-      <c r="R138">
+      <c r="U138">
         <v>1.875</v>
       </c>
-      <c r="S138">
+      <c r="V138">
         <v>1.925</v>
       </c>
-      <c r="T138">
-        <v>2.25</v>
-      </c>
-      <c r="U138">
-        <v>1.95</v>
-      </c>
-      <c r="V138">
-        <v>1.85</v>
-      </c>
       <c r="W138">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X138">
         <v>-1</v>
       </c>
       <c r="Y138">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z138">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA138">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB138">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC138">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12839,7 +12839,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6126721</v>
+        <v>6126713</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12851,13 +12851,13 @@
         <v>45150.85416666666</v>
       </c>
       <c r="F139" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="G139" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="H139">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I139">
         <v>1</v>
@@ -12866,31 +12866,31 @@
         <v>56</v>
       </c>
       <c r="K139">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="L139">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="M139">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="N139">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="O139">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P139">
-        <v>5.25</v>
+        <v>2.4</v>
       </c>
       <c r="Q139">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R139">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S139">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T139">
         <v>2.5</v>
@@ -12902,25 +12902,25 @@
         <v>1.925</v>
       </c>
       <c r="W139">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X139">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y139">
         <v>-1</v>
       </c>
       <c r="Z139">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA139">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB139">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC139">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12952,7 +12952,7 @@
         <v>2</v>
       </c>
       <c r="J140" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K140">
         <v>1.8</v>
@@ -13029,10 +13029,10 @@
         <v>45150.91666666666</v>
       </c>
       <c r="F141" t="s">
+        <v>35</v>
+      </c>
+      <c r="G141" t="s">
         <v>36</v>
-      </c>
-      <c r="G141" t="s">
-        <v>35</v>
       </c>
       <c r="H141">
         <v>0</v>
@@ -13207,10 +13207,10 @@
         <v>45150.9625</v>
       </c>
       <c r="F143" t="s">
+        <v>32</v>
+      </c>
+      <c r="G143" t="s">
         <v>31</v>
-      </c>
-      <c r="G143" t="s">
-        <v>32</v>
       </c>
       <c r="H143">
         <v>2</v>
@@ -13219,7 +13219,7 @@
         <v>0</v>
       </c>
       <c r="J143" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K143">
         <v>1.3</v>
@@ -13397,7 +13397,7 @@
         <v>0</v>
       </c>
       <c r="J145" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K145">
         <v>2.1</v>
@@ -13474,7 +13474,7 @@
         <v>45154.91666666666</v>
       </c>
       <c r="F146" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G146" t="s">
         <v>42</v>
@@ -13486,7 +13486,7 @@
         <v>1</v>
       </c>
       <c r="J146" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K146">
         <v>1.571</v>
@@ -13563,10 +13563,10 @@
         <v>45154.95833333334</v>
       </c>
       <c r="F147" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G147" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H147">
         <v>1</v>
@@ -13575,7 +13575,7 @@
         <v>0</v>
       </c>
       <c r="J147" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K147">
         <v>2.55</v>
@@ -13753,7 +13753,7 @@
         <v>0</v>
       </c>
       <c r="J149" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K149">
         <v>2.15</v>
@@ -13830,7 +13830,7 @@
         <v>45157.83333333334</v>
       </c>
       <c r="F150" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G150" t="s">
         <v>47</v>
@@ -14020,7 +14020,7 @@
         <v>0</v>
       </c>
       <c r="J152" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K152">
         <v>1.833</v>
@@ -14109,7 +14109,7 @@
         <v>0</v>
       </c>
       <c r="J153" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K153">
         <v>2.2</v>
@@ -14186,10 +14186,10 @@
         <v>45157.91666666666</v>
       </c>
       <c r="F154" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G154" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H154">
         <v>0</v>
@@ -14198,7 +14198,7 @@
         <v>0</v>
       </c>
       <c r="J154" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K154">
         <v>1.4</v>
@@ -14367,7 +14367,7 @@
         <v>40</v>
       </c>
       <c r="G156" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H156">
         <v>2</v>
@@ -14376,7 +14376,7 @@
         <v>2</v>
       </c>
       <c r="J156" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K156">
         <v>1.65</v>
@@ -14453,7 +14453,7 @@
         <v>45157.95833333334</v>
       </c>
       <c r="F157" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G157" t="s">
         <v>29</v>
@@ -14465,7 +14465,7 @@
         <v>0</v>
       </c>
       <c r="J157" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K157">
         <v>2</v>
@@ -14631,10 +14631,10 @@
         <v>45161.83333333334</v>
       </c>
       <c r="F159" t="s">
+        <v>31</v>
+      </c>
+      <c r="G159" t="s">
         <v>32</v>
-      </c>
-      <c r="G159" t="s">
-        <v>31</v>
       </c>
       <c r="H159">
         <v>3</v>
@@ -14732,7 +14732,7 @@
         <v>0</v>
       </c>
       <c r="J160" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K160">
         <v>1.909</v>
@@ -14898,7 +14898,7 @@
         <v>45161.91666666666</v>
       </c>
       <c r="F162" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G162" t="s">
         <v>50</v>
@@ -14999,7 +14999,7 @@
         <v>1</v>
       </c>
       <c r="J163" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K163">
         <v>1.8</v>
@@ -15165,7 +15165,7 @@
         <v>45164.83333333334</v>
       </c>
       <c r="F165" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G165" t="s">
         <v>46</v>
@@ -15266,7 +15266,7 @@
         <v>1</v>
       </c>
       <c r="J166" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K166">
         <v>2.05</v>
@@ -15355,7 +15355,7 @@
         <v>0</v>
       </c>
       <c r="J167" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K167">
         <v>2.05</v>
@@ -15521,7 +15521,7 @@
         <v>45164.91666666666</v>
       </c>
       <c r="F169" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G169" t="s">
         <v>49</v>
@@ -15533,7 +15533,7 @@
         <v>1</v>
       </c>
       <c r="J169" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K169">
         <v>1.95</v>
@@ -15610,10 +15610,10 @@
         <v>45164.91666666666</v>
       </c>
       <c r="F170" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G170" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H170">
         <v>0</v>
@@ -15622,7 +15622,7 @@
         <v>0</v>
       </c>
       <c r="J170" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K170">
         <v>2.05</v>
@@ -15699,7 +15699,7 @@
         <v>45164.95833333334</v>
       </c>
       <c r="F171" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G171" t="s">
         <v>30</v>
@@ -15711,7 +15711,7 @@
         <v>1</v>
       </c>
       <c r="J171" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K171">
         <v>2.5</v>
@@ -15791,7 +15791,7 @@
         <v>51</v>
       </c>
       <c r="G172" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H172">
         <v>0</v>
@@ -16058,7 +16058,7 @@
         <v>42</v>
       </c>
       <c r="G175" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H175">
         <v>0</v>
@@ -16067,7 +16067,7 @@
         <v>0</v>
       </c>
       <c r="J175" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K175">
         <v>3.1</v>
@@ -16144,7 +16144,7 @@
         <v>45168.91666666666</v>
       </c>
       <c r="F176" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G176" t="s">
         <v>45</v>
@@ -16156,7 +16156,7 @@
         <v>3</v>
       </c>
       <c r="J176" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K176">
         <v>1.85</v>
@@ -16245,7 +16245,7 @@
         <v>1</v>
       </c>
       <c r="J177" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K177">
         <v>2.15</v>
@@ -16334,7 +16334,7 @@
         <v>0</v>
       </c>
       <c r="J178" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K178">
         <v>2</v>
@@ -16423,7 +16423,7 @@
         <v>1</v>
       </c>
       <c r="J179" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K179">
         <v>2.9</v>
@@ -16503,7 +16503,7 @@
         <v>33</v>
       </c>
       <c r="G180" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H180">
         <v>2</v>
@@ -16512,7 +16512,7 @@
         <v>1</v>
       </c>
       <c r="J180" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K180">
         <v>1.333</v>
@@ -16678,7 +16678,7 @@
         <v>45171.91666666666</v>
       </c>
       <c r="F182" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G182" t="s">
         <v>29</v>
@@ -16770,7 +16770,7 @@
         <v>46</v>
       </c>
       <c r="G183" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H183">
         <v>1</v>
@@ -16933,7 +16933,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>6126762</v>
+        <v>6126765</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16945,76 +16945,76 @@
         <v>45171.97916666666</v>
       </c>
       <c r="F185" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G185" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H185">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I185">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J185" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K185">
+        <v>2</v>
+      </c>
+      <c r="L185">
+        <v>3.5</v>
+      </c>
+      <c r="M185">
+        <v>3.2</v>
+      </c>
+      <c r="N185">
+        <v>1.909</v>
+      </c>
+      <c r="O185">
+        <v>3.75</v>
+      </c>
+      <c r="P185">
         <v>3.3</v>
       </c>
-      <c r="L185">
-        <v>3.4</v>
-      </c>
-      <c r="M185">
-        <v>2</v>
-      </c>
-      <c r="N185">
-        <v>2.9</v>
-      </c>
-      <c r="O185">
-        <v>3.5</v>
-      </c>
-      <c r="P185">
-        <v>2.15</v>
-      </c>
       <c r="Q185">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R185">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S185">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T185">
         <v>2.75</v>
       </c>
       <c r="U185">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V185">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W185">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X185">
         <v>-1</v>
       </c>
       <c r="Y185">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z185">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA185">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB185">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC185">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -17022,7 +17022,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>6126765</v>
+        <v>6126762</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17034,76 +17034,76 @@
         <v>45171.97916666666</v>
       </c>
       <c r="F186" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G186" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I186">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J186" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K186">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="L186">
+        <v>3.4</v>
+      </c>
+      <c r="M186">
+        <v>2</v>
+      </c>
+      <c r="N186">
+        <v>2.9</v>
+      </c>
+      <c r="O186">
         <v>3.5</v>
       </c>
-      <c r="M186">
-        <v>3.2</v>
-      </c>
-      <c r="N186">
-        <v>1.909</v>
-      </c>
-      <c r="O186">
-        <v>3.75</v>
-      </c>
       <c r="P186">
-        <v>3.3</v>
+        <v>2.15</v>
       </c>
       <c r="Q186">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R186">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S186">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T186">
         <v>2.75</v>
       </c>
       <c r="U186">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V186">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W186">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X186">
         <v>-1</v>
       </c>
       <c r="Y186">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z186">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA186">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB186">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC186">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17135,7 +17135,7 @@
         <v>0</v>
       </c>
       <c r="J187" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K187">
         <v>1.95</v>
@@ -17215,7 +17215,7 @@
         <v>49</v>
       </c>
       <c r="G188" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H188">
         <v>2</v>
@@ -17224,7 +17224,7 @@
         <v>1</v>
       </c>
       <c r="J188" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K188">
         <v>3.4</v>
@@ -17313,7 +17313,7 @@
         <v>2</v>
       </c>
       <c r="J189" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K189">
         <v>2.9</v>
@@ -17390,7 +17390,7 @@
         <v>45178.83333333334</v>
       </c>
       <c r="F190" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G190" t="s">
         <v>39</v>
@@ -17402,7 +17402,7 @@
         <v>1</v>
       </c>
       <c r="J190" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K190">
         <v>1.4</v>
@@ -17491,7 +17491,7 @@
         <v>1</v>
       </c>
       <c r="J191" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K191">
         <v>1.75</v>
@@ -17580,7 +17580,7 @@
         <v>1</v>
       </c>
       <c r="J192" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K192">
         <v>2.1</v>
@@ -17669,7 +17669,7 @@
         <v>0</v>
       </c>
       <c r="J193" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K193">
         <v>2.2</v>
@@ -17749,7 +17749,7 @@
         <v>34</v>
       </c>
       <c r="G194" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H194">
         <v>0</v>
@@ -17847,7 +17847,7 @@
         <v>0</v>
       </c>
       <c r="J195" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K195">
         <v>2.05</v>
@@ -17927,7 +17927,7 @@
         <v>30</v>
       </c>
       <c r="G196" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H196">
         <v>1</v>
@@ -17936,7 +17936,7 @@
         <v>1</v>
       </c>
       <c r="J196" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K196">
         <v>2.2</v>
@@ -18013,7 +18013,7 @@
         <v>45178.95833333334</v>
       </c>
       <c r="F197" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G197" t="s">
         <v>46</v>
@@ -18025,7 +18025,7 @@
         <v>0</v>
       </c>
       <c r="J197" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K197">
         <v>1.615</v>
@@ -18114,7 +18114,7 @@
         <v>1</v>
       </c>
       <c r="J198" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K198">
         <v>3.2</v>
@@ -18194,7 +18194,7 @@
         <v>48</v>
       </c>
       <c r="G199" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H199">
         <v>1</v>
@@ -18203,7 +18203,7 @@
         <v>0</v>
       </c>
       <c r="J199" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K199">
         <v>1.909</v>
@@ -18369,7 +18369,7 @@
         <v>45184.91666666666</v>
       </c>
       <c r="F201" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G201" t="s">
         <v>41</v>
@@ -18381,7 +18381,7 @@
         <v>2</v>
       </c>
       <c r="J201" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K201">
         <v>2.2</v>
@@ -18458,7 +18458,7 @@
         <v>45184.95833333334</v>
       </c>
       <c r="F202" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G202" t="s">
         <v>30</v>
@@ -18550,7 +18550,7 @@
         <v>47</v>
       </c>
       <c r="G203" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H203">
         <v>1</v>
@@ -18648,7 +18648,7 @@
         <v>2</v>
       </c>
       <c r="J204" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K204">
         <v>2.875</v>
@@ -18737,7 +18737,7 @@
         <v>0</v>
       </c>
       <c r="J205" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K205">
         <v>2.1</v>
@@ -18817,7 +18817,7 @@
         <v>34</v>
       </c>
       <c r="G206" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H206">
         <v>4</v>
@@ -18826,7 +18826,7 @@
         <v>2</v>
       </c>
       <c r="J206" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K206">
         <v>1.5</v>
@@ -18903,7 +18903,7 @@
         <v>45185.89583333334</v>
       </c>
       <c r="F207" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G207" t="s">
         <v>33</v>
@@ -18915,7 +18915,7 @@
         <v>3</v>
       </c>
       <c r="J207" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K207">
         <v>1.909</v>
@@ -18980,7 +18980,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>6126787</v>
+        <v>6126788</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18992,76 +18992,76 @@
         <v>45185.95833333334</v>
       </c>
       <c r="F208" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="G208" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H208">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I208">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J208" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K208">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="L208">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M208">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="N208">
-        <v>1.833</v>
+        <v>1.7</v>
       </c>
       <c r="O208">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P208">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="Q208">
         <v>-0.75</v>
       </c>
       <c r="R208">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="S208">
-        <v>1.7</v>
+        <v>1.875</v>
       </c>
       <c r="T208">
         <v>2.75</v>
       </c>
       <c r="U208">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V208">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W208">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X208">
         <v>-1</v>
       </c>
       <c r="Y208">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z208">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="AA208">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB208">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC208">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -19093,7 +19093,7 @@
         <v>0</v>
       </c>
       <c r="J209" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K209">
         <v>1.5</v>
@@ -19158,7 +19158,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>6126788</v>
+        <v>6126787</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19170,76 +19170,76 @@
         <v>45185.95833333334</v>
       </c>
       <c r="F210" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="G210" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I210">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J210" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K210">
-        <v>1.8</v>
+        <v>1.727</v>
       </c>
       <c r="L210">
+        <v>3.75</v>
+      </c>
+      <c r="M210">
+        <v>4.2</v>
+      </c>
+      <c r="N210">
+        <v>1.833</v>
+      </c>
+      <c r="O210">
         <v>3.5</v>
       </c>
-      <c r="M210">
-        <v>4.1</v>
-      </c>
-      <c r="N210">
-        <v>1.7</v>
-      </c>
-      <c r="O210">
-        <v>3.6</v>
-      </c>
       <c r="P210">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Q210">
         <v>-0.75</v>
       </c>
       <c r="R210">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="S210">
-        <v>1.875</v>
+        <v>1.7</v>
       </c>
       <c r="T210">
         <v>2.75</v>
       </c>
       <c r="U210">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V210">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W210">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X210">
         <v>-1</v>
       </c>
       <c r="Y210">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z210">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="AA210">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB210">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC210">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="211" spans="1:29">
@@ -19271,7 +19271,7 @@
         <v>0</v>
       </c>
       <c r="J211" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K211">
         <v>1.8</v>
@@ -19360,7 +19360,7 @@
         <v>0</v>
       </c>
       <c r="J212" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K212">
         <v>2.05</v>
@@ -19449,7 +19449,7 @@
         <v>3</v>
       </c>
       <c r="J213" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K213">
         <v>2.4</v>
@@ -19538,7 +19538,7 @@
         <v>1</v>
       </c>
       <c r="J214" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K214">
         <v>2</v>
@@ -19603,7 +19603,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>6230627</v>
+        <v>6126795</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19615,76 +19615,76 @@
         <v>45189.95833333334</v>
       </c>
       <c r="F215" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="G215" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215">
+        <v>0</v>
+      </c>
+      <c r="J215" t="s">
+        <v>56</v>
+      </c>
+      <c r="K215">
+        <v>1.5</v>
+      </c>
+      <c r="L215">
+        <v>3.75</v>
+      </c>
+      <c r="M215">
+        <v>5.5</v>
+      </c>
+      <c r="N215">
+        <v>1.571</v>
+      </c>
+      <c r="O215">
+        <v>4.2</v>
+      </c>
+      <c r="P215">
+        <v>4.5</v>
+      </c>
+      <c r="Q215">
+        <v>-1</v>
+      </c>
+      <c r="R215">
+        <v>1.925</v>
+      </c>
+      <c r="S215">
+        <v>1.875</v>
+      </c>
+      <c r="T215">
         <v>3</v>
       </c>
-      <c r="J215" t="s">
-        <v>55</v>
-      </c>
-      <c r="K215">
-        <v>2.4</v>
-      </c>
-      <c r="L215">
-        <v>3.4</v>
-      </c>
-      <c r="M215">
-        <v>2.5</v>
-      </c>
-      <c r="N215">
-        <v>2.7</v>
-      </c>
-      <c r="O215">
-        <v>3.3</v>
-      </c>
-      <c r="P215">
-        <v>2.3</v>
-      </c>
-      <c r="Q215">
-        <v>0.25</v>
-      </c>
-      <c r="R215">
-        <v>1.725</v>
-      </c>
-      <c r="S215">
+      <c r="U215">
+        <v>1.825</v>
+      </c>
+      <c r="V215">
         <v>1.975</v>
       </c>
-      <c r="T215">
-        <v>2.75</v>
-      </c>
-      <c r="U215">
-        <v>1.9</v>
-      </c>
-      <c r="V215">
-        <v>1.9</v>
-      </c>
       <c r="W215">
         <v>-1</v>
       </c>
       <c r="X215">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y215">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z215">
         <v>-1</v>
       </c>
       <c r="AA215">
+        <v>0.875</v>
+      </c>
+      <c r="AB215">
+        <v>-1</v>
+      </c>
+      <c r="AC215">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB215">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC215">
-        <v>-1</v>
       </c>
     </row>
     <row r="216" spans="1:29">
@@ -19692,7 +19692,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>6126795</v>
+        <v>6230627</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19704,76 +19704,76 @@
         <v>45189.95833333334</v>
       </c>
       <c r="F216" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G216" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J216" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K216">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="L216">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M216">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="N216">
-        <v>1.571</v>
+        <v>2.7</v>
       </c>
       <c r="O216">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="P216">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q216">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R216">
-        <v>1.925</v>
+        <v>1.725</v>
       </c>
       <c r="S216">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T216">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U216">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V216">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W216">
         <v>-1</v>
       </c>
       <c r="X216">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y216">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z216">
         <v>-1</v>
       </c>
       <c r="AA216">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB216">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC216">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -19805,7 +19805,7 @@
         <v>1</v>
       </c>
       <c r="J217" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K217">
         <v>1.909</v>
@@ -19971,10 +19971,10 @@
         <v>45192.83333333334</v>
       </c>
       <c r="F219" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G219" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H219">
         <v>2</v>
@@ -19983,7 +19983,7 @@
         <v>1</v>
       </c>
       <c r="J219" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K219">
         <v>1.666</v>
@@ -20161,7 +20161,7 @@
         <v>1</v>
       </c>
       <c r="J221" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K221">
         <v>1.666</v>
@@ -20241,7 +20241,7 @@
         <v>52</v>
       </c>
       <c r="G222" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H222">
         <v>3</v>
@@ -20250,7 +20250,7 @@
         <v>0</v>
       </c>
       <c r="J222" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K222">
         <v>1.5</v>
@@ -20339,7 +20339,7 @@
         <v>0</v>
       </c>
       <c r="J223" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K223">
         <v>2.4</v>
@@ -20416,10 +20416,10 @@
         <v>45192.89583333334</v>
       </c>
       <c r="F224" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G224" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H224">
         <v>4</v>
@@ -20428,7 +20428,7 @@
         <v>0</v>
       </c>
       <c r="J224" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K224">
         <v>2.1</v>
@@ -20517,7 +20517,7 @@
         <v>1</v>
       </c>
       <c r="J225" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K225">
         <v>3.4</v>
@@ -20597,7 +20597,7 @@
         <v>50</v>
       </c>
       <c r="G226" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H226">
         <v>2</v>
@@ -20606,7 +20606,7 @@
         <v>2</v>
       </c>
       <c r="J226" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K226">
         <v>2</v>
@@ -20784,7 +20784,7 @@
         <v>1</v>
       </c>
       <c r="J228" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K228">
         <v>1.5</v>
@@ -20950,7 +20950,7 @@
         <v>45196.83333333334</v>
       </c>
       <c r="F230" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G230" t="s">
         <v>33</v>
@@ -21140,7 +21140,7 @@
         <v>0</v>
       </c>
       <c r="J232" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K232">
         <v>1.833</v>
@@ -21220,7 +21220,7 @@
         <v>47</v>
       </c>
       <c r="G233" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H233">
         <v>2</v>
@@ -21229,7 +21229,7 @@
         <v>0</v>
       </c>
       <c r="J233" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K233">
         <v>1.45</v>
@@ -21306,7 +21306,7 @@
         <v>45199.83333333334</v>
       </c>
       <c r="F234" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G234" t="s">
         <v>49</v>
@@ -21318,7 +21318,7 @@
         <v>2</v>
       </c>
       <c r="J234" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K234">
         <v>1.4</v>
@@ -21407,7 +21407,7 @@
         <v>0</v>
       </c>
       <c r="J235" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K235">
         <v>1.363</v>
@@ -21496,7 +21496,7 @@
         <v>1</v>
       </c>
       <c r="J236" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K236">
         <v>1.833</v>
@@ -21662,7 +21662,7 @@
         <v>45199.91666666666</v>
       </c>
       <c r="F238" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G238" t="s">
         <v>43</v>
@@ -21674,7 +21674,7 @@
         <v>0</v>
       </c>
       <c r="J238" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K238">
         <v>2.4</v>
@@ -21763,7 +21763,7 @@
         <v>2</v>
       </c>
       <c r="J239" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K239">
         <v>2.65</v>
@@ -21843,7 +21843,7 @@
         <v>50</v>
       </c>
       <c r="G240" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H240">
         <v>2</v>
@@ -21852,7 +21852,7 @@
         <v>2</v>
       </c>
       <c r="J240" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K240">
         <v>3</v>
@@ -21932,7 +21932,7 @@
         <v>40</v>
       </c>
       <c r="G241" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H241">
         <v>4</v>
@@ -21941,7 +21941,7 @@
         <v>1</v>
       </c>
       <c r="J241" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K241">
         <v>1.666</v>
@@ -22021,7 +22021,7 @@
         <v>44</v>
       </c>
       <c r="G242" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H242">
         <v>1</v>
@@ -22030,7 +22030,7 @@
         <v>1</v>
       </c>
       <c r="J242" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K242">
         <v>1.909</v>
@@ -22119,7 +22119,7 @@
         <v>0</v>
       </c>
       <c r="J243" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K243">
         <v>1.3</v>
@@ -22196,7 +22196,7 @@
         <v>45203.83333333334</v>
       </c>
       <c r="F244" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G244" t="s">
         <v>42</v>
@@ -22208,7 +22208,7 @@
         <v>2</v>
       </c>
       <c r="J244" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K244">
         <v>2.8</v>
@@ -22297,7 +22297,7 @@
         <v>0</v>
       </c>
       <c r="J245" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K245">
         <v>2.2</v>
@@ -22374,7 +22374,7 @@
         <v>45203.95833333334</v>
       </c>
       <c r="F246" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G246" t="s">
         <v>50</v>
@@ -22386,7 +22386,7 @@
         <v>1</v>
       </c>
       <c r="J246" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K246">
         <v>1.909</v>
@@ -22644,7 +22644,7 @@
         <v>33</v>
       </c>
       <c r="G249" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H249">
         <v>0</v>
@@ -22733,7 +22733,7 @@
         <v>43</v>
       </c>
       <c r="G250" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H250">
         <v>1</v>
@@ -22742,7 +22742,7 @@
         <v>1</v>
       </c>
       <c r="J250" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K250">
         <v>1.3</v>
@@ -22831,7 +22831,7 @@
         <v>0</v>
       </c>
       <c r="J251" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K251">
         <v>1.85</v>
@@ -23074,7 +23074,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>6488732</v>
+        <v>6488884</v>
       </c>
       <c r="C254" t="s">
         <v>28</v>
@@ -23086,58 +23086,58 @@
         <v>45206.95833333334</v>
       </c>
       <c r="F254" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G254" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="H254">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I254">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J254" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K254">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="L254">
+        <v>3.6</v>
+      </c>
+      <c r="M254">
+        <v>3.75</v>
+      </c>
+      <c r="N254">
+        <v>1.909</v>
+      </c>
+      <c r="O254">
+        <v>3.75</v>
+      </c>
+      <c r="P254">
         <v>3.4</v>
       </c>
-      <c r="M254">
+      <c r="Q254">
+        <v>-0.5</v>
+      </c>
+      <c r="R254">
+        <v>1.925</v>
+      </c>
+      <c r="S254">
+        <v>1.875</v>
+      </c>
+      <c r="T254">
         <v>3</v>
       </c>
-      <c r="N254">
-        <v>2.375</v>
-      </c>
-      <c r="O254">
-        <v>3.4</v>
-      </c>
-      <c r="P254">
-        <v>2.9</v>
-      </c>
-      <c r="Q254">
-        <v>-0.25</v>
-      </c>
-      <c r="R254">
-        <v>1.975</v>
-      </c>
-      <c r="S254">
-        <v>1.725</v>
-      </c>
-      <c r="T254">
-        <v>2.5</v>
-      </c>
       <c r="U254">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V254">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W254">
-        <v>1.375</v>
+        <v>0.909</v>
       </c>
       <c r="X254">
         <v>-1</v>
@@ -23146,16 +23146,16 @@
         <v>-1</v>
       </c>
       <c r="Z254">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA254">
         <v>-1</v>
       </c>
       <c r="AB254">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC254">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="255" spans="1:29">
@@ -23163,7 +23163,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>6488884</v>
+        <v>6488732</v>
       </c>
       <c r="C255" t="s">
         <v>28</v>
@@ -23175,58 +23175,58 @@
         <v>45206.95833333334</v>
       </c>
       <c r="F255" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G255" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="H255">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I255">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J255" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K255">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="L255">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M255">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="N255">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="O255">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P255">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="Q255">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R255">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S255">
-        <v>1.875</v>
+        <v>1.725</v>
       </c>
       <c r="T255">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U255">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V255">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W255">
-        <v>0.909</v>
+        <v>1.375</v>
       </c>
       <c r="X255">
         <v>-1</v>
@@ -23235,16 +23235,16 @@
         <v>-1</v>
       </c>
       <c r="Z255">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA255">
         <v>-1</v>
       </c>
       <c r="AB255">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC255">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="256" spans="1:29">
@@ -23356,7 +23356,7 @@
         <v>44</v>
       </c>
       <c r="G257" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H257">
         <v>1</v>
@@ -23445,7 +23445,7 @@
         <v>48</v>
       </c>
       <c r="G258" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H258">
         <v>2</v>
@@ -23454,7 +23454,7 @@
         <v>0</v>
       </c>
       <c r="J258" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K258">
         <v>1.95</v>
@@ -23531,7 +23531,7 @@
         <v>45212.83333333334</v>
       </c>
       <c r="F259" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G259" t="s">
         <v>49</v>
@@ -23620,7 +23620,7 @@
         <v>45212.91666666666</v>
       </c>
       <c r="F260" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G260" t="s">
         <v>34</v>
@@ -23632,7 +23632,7 @@
         <v>1</v>
       </c>
       <c r="J260" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K260">
         <v>2.375</v>
@@ -23712,7 +23712,7 @@
         <v>52</v>
       </c>
       <c r="G261" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H261">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="J261" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K261">
         <v>3</v>
@@ -23810,7 +23810,7 @@
         <v>0</v>
       </c>
       <c r="J262" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K262">
         <v>1.909</v>
@@ -23988,7 +23988,7 @@
         <v>0</v>
       </c>
       <c r="J264" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K264">
         <v>2.05</v>
@@ -24077,7 +24077,7 @@
         <v>1</v>
       </c>
       <c r="J265" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K265">
         <v>1.444</v>
@@ -24154,7 +24154,7 @@
         <v>45213.89583333334</v>
       </c>
       <c r="F266" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G266" t="s">
         <v>41</v>
@@ -24166,7 +24166,7 @@
         <v>3</v>
       </c>
       <c r="J266" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K266">
         <v>1.615</v>
@@ -24231,7 +24231,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>6492480</v>
+        <v>6504524</v>
       </c>
       <c r="C267" t="s">
         <v>28</v>
@@ -24243,37 +24243,37 @@
         <v>45213.95833333334</v>
       </c>
       <c r="F267" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G267" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H267">
         <v>1</v>
       </c>
       <c r="I267">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J267" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K267">
-        <v>1.95</v>
+        <v>1.533</v>
       </c>
       <c r="L267">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M267">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="N267">
-        <v>1.727</v>
+        <v>1.7</v>
       </c>
       <c r="O267">
         <v>3.75</v>
       </c>
       <c r="P267">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q267">
         <v>-0.75</v>
@@ -24288,31 +24288,31 @@
         <v>2.75</v>
       </c>
       <c r="U267">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V267">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W267">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X267">
         <v>-1</v>
       </c>
       <c r="Y267">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z267">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA267">
+        <v>-0.5</v>
+      </c>
+      <c r="AB267">
+        <v>-1</v>
+      </c>
+      <c r="AC267">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB267">
-        <v>0.4</v>
-      </c>
-      <c r="AC267">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="268" spans="1:29">
@@ -24320,7 +24320,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>6504524</v>
+        <v>6492480</v>
       </c>
       <c r="C268" t="s">
         <v>28</v>
@@ -24332,37 +24332,37 @@
         <v>45213.95833333334</v>
       </c>
       <c r="F268" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G268" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H268">
         <v>1</v>
       </c>
       <c r="I268">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J268" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K268">
-        <v>1.533</v>
+        <v>1.95</v>
       </c>
       <c r="L268">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M268">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="N268">
-        <v>1.7</v>
+        <v>1.727</v>
       </c>
       <c r="O268">
         <v>3.75</v>
       </c>
       <c r="P268">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="Q268">
         <v>-0.75</v>
@@ -24377,31 +24377,31 @@
         <v>2.75</v>
       </c>
       <c r="U268">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V268">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W268">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X268">
         <v>-1</v>
       </c>
       <c r="Y268">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z268">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA268">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB268">
+        <v>0.4</v>
+      </c>
+      <c r="AC268">
         <v>-0.5</v>
-      </c>
-      <c r="AB268">
-        <v>-1</v>
-      </c>
-      <c r="AC268">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="269" spans="1:29">
@@ -24421,10 +24421,10 @@
         <v>45213.95833333334</v>
       </c>
       <c r="F269" t="s">
+        <v>38</v>
+      </c>
+      <c r="G269" t="s">
         <v>37</v>
-      </c>
-      <c r="G269" t="s">
-        <v>38</v>
       </c>
       <c r="H269">
         <v>0</v>
@@ -24688,7 +24688,7 @@
         <v>45220.83333333334</v>
       </c>
       <c r="F272" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G272" t="s">
         <v>52</v>
@@ -24866,7 +24866,7 @@
         <v>45220.91666666666</v>
       </c>
       <c r="F274" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G274" t="s">
         <v>30</v>
@@ -24878,7 +24878,7 @@
         <v>0</v>
       </c>
       <c r="J274" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K274">
         <v>1.833</v>
@@ -24958,7 +24958,7 @@
         <v>51</v>
       </c>
       <c r="G275" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H275">
         <v>1</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="J275" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K275">
         <v>1.571</v>
@@ -25044,7 +25044,7 @@
         <v>45220.97916666666</v>
       </c>
       <c r="F276" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G276" t="s">
         <v>46</v>
@@ -25056,7 +25056,7 @@
         <v>0</v>
       </c>
       <c r="J276" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K276">
         <v>1.727</v>
@@ -25145,7 +25145,7 @@
         <v>0</v>
       </c>
       <c r="J277" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K277">
         <v>2</v>
@@ -25314,7 +25314,7 @@
         <v>51</v>
       </c>
       <c r="G279" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H279">
         <v>3</v>
@@ -25323,7 +25323,7 @@
         <v>1</v>
       </c>
       <c r="J279" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K279">
         <v>2.1</v>
@@ -25412,7 +25412,7 @@
         <v>1</v>
       </c>
       <c r="J280" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K280">
         <v>1.909</v>
@@ -25501,7 +25501,7 @@
         <v>0</v>
       </c>
       <c r="J281" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K281">
         <v>1.7</v>
@@ -25578,7 +25578,7 @@
         <v>45227.95833333334</v>
       </c>
       <c r="F282" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G282" t="s">
         <v>44</v>
@@ -25679,7 +25679,7 @@
         <v>1</v>
       </c>
       <c r="J283" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K283">
         <v>2.3</v>
@@ -25934,10 +25934,10 @@
         <v>45360.75</v>
       </c>
       <c r="F286" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G286" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H286">
         <v>1</v>
@@ -25946,7 +25946,7 @@
         <v>0</v>
       </c>
       <c r="J286" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K286">
         <v>2.2</v>
@@ -26035,7 +26035,7 @@
         <v>1</v>
       </c>
       <c r="J287" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K287">
         <v>1.571</v>
@@ -26124,7 +26124,7 @@
         <v>0</v>
       </c>
       <c r="J288" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K288">
         <v>2.25</v>
@@ -26213,7 +26213,7 @@
         <v>0</v>
       </c>
       <c r="J289" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K289">
         <v>2.25</v>
@@ -26290,7 +26290,7 @@
         <v>45360.9375</v>
       </c>
       <c r="F290" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G290" t="s">
         <v>39</v>
@@ -26302,7 +26302,7 @@
         <v>2</v>
       </c>
       <c r="J290" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K290">
         <v>1.363</v>
@@ -26382,7 +26382,7 @@
         <v>46</v>
       </c>
       <c r="G291" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H291">
         <v>0</v>
@@ -26545,7 +26545,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>7689545</v>
+        <v>7689546</v>
       </c>
       <c r="C293" t="s">
         <v>28</v>
@@ -26557,73 +26557,73 @@
         <v>45361</v>
       </c>
       <c r="F293" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G293" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H293">
         <v>2</v>
       </c>
       <c r="I293">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J293" t="s">
         <v>56</v>
       </c>
       <c r="K293">
-        <v>2.3</v>
+        <v>1.533</v>
       </c>
       <c r="L293">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M293">
+        <v>5</v>
+      </c>
+      <c r="N293">
+        <v>1.75</v>
+      </c>
+      <c r="O293">
+        <v>3.6</v>
+      </c>
+      <c r="P293">
+        <v>3.8</v>
+      </c>
+      <c r="Q293">
+        <v>-0.75</v>
+      </c>
+      <c r="R293">
+        <v>2.025</v>
+      </c>
+      <c r="S293">
+        <v>1.775</v>
+      </c>
+      <c r="T293">
+        <v>2.25</v>
+      </c>
+      <c r="U293">
+        <v>1.775</v>
+      </c>
+      <c r="V293">
+        <v>2.025</v>
+      </c>
+      <c r="W293">
+        <v>-1</v>
+      </c>
+      <c r="X293">
         <v>2.6</v>
       </c>
-      <c r="N293">
-        <v>2.45</v>
-      </c>
-      <c r="O293">
-        <v>3.3</v>
-      </c>
-      <c r="P293">
-        <v>2.5</v>
-      </c>
-      <c r="Q293">
-        <v>0</v>
-      </c>
-      <c r="R293">
-        <v>1.85</v>
-      </c>
-      <c r="S293">
-        <v>1.95</v>
-      </c>
-      <c r="T293">
-        <v>2.5</v>
-      </c>
-      <c r="U293">
-        <v>1.825</v>
-      </c>
-      <c r="V293">
-        <v>1.975</v>
-      </c>
-      <c r="W293">
-        <v>1.45</v>
-      </c>
-      <c r="X293">
-        <v>-1</v>
-      </c>
       <c r="Y293">
         <v>-1</v>
       </c>
       <c r="Z293">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA293">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB293">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC293">
         <v>-1</v>
@@ -26634,7 +26634,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>7689546</v>
+        <v>7689545</v>
       </c>
       <c r="C294" t="s">
         <v>28</v>
@@ -26646,73 +26646,73 @@
         <v>45361</v>
       </c>
       <c r="F294" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G294" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H294">
         <v>2</v>
       </c>
       <c r="I294">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J294" t="s">
         <v>57</v>
       </c>
       <c r="K294">
-        <v>1.533</v>
+        <v>2.3</v>
       </c>
       <c r="L294">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M294">
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="N294">
-        <v>1.75</v>
+        <v>2.45</v>
       </c>
       <c r="O294">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P294">
-        <v>3.8</v>
+        <v>2.5</v>
       </c>
       <c r="Q294">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R294">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S294">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T294">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U294">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V294">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W294">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X294">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y294">
         <v>-1</v>
       </c>
       <c r="Z294">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA294">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB294">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC294">
         <v>-1</v>
@@ -26738,7 +26738,7 @@
         <v>46</v>
       </c>
       <c r="G295" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H295">
         <v>1</v>
@@ -26747,7 +26747,7 @@
         <v>1</v>
       </c>
       <c r="J295" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K295">
         <v>1.95</v>
@@ -26901,7 +26901,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>7689554</v>
+        <v>7689550</v>
       </c>
       <c r="C297" t="s">
         <v>28</v>
@@ -26913,49 +26913,49 @@
         <v>45367.70833333334</v>
       </c>
       <c r="F297" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G297" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="H297">
+        <v>3</v>
+      </c>
+      <c r="I297">
         <v>1</v>
       </c>
-      <c r="I297">
-        <v>2</v>
-      </c>
       <c r="J297" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K297">
         <v>2.25</v>
       </c>
       <c r="L297">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M297">
+        <v>2.5</v>
+      </c>
+      <c r="N297">
+        <v>2.625</v>
+      </c>
+      <c r="O297">
+        <v>3.8</v>
+      </c>
+      <c r="P297">
+        <v>2.1</v>
+      </c>
+      <c r="Q297">
+        <v>0.25</v>
+      </c>
+      <c r="R297">
+        <v>1.85</v>
+      </c>
+      <c r="S297">
+        <v>1.95</v>
+      </c>
+      <c r="T297">
         <v>2.75</v>
-      </c>
-      <c r="N297">
-        <v>1.909</v>
-      </c>
-      <c r="O297">
-        <v>3.4</v>
-      </c>
-      <c r="P297">
-        <v>3.4</v>
-      </c>
-      <c r="Q297">
-        <v>-0.25</v>
-      </c>
-      <c r="R297">
-        <v>1.8</v>
-      </c>
-      <c r="S297">
-        <v>2</v>
-      </c>
-      <c r="T297">
-        <v>2.5</v>
       </c>
       <c r="U297">
         <v>1.85</v>
@@ -26964,19 +26964,19 @@
         <v>1.95</v>
       </c>
       <c r="W297">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X297">
         <v>-1</v>
       </c>
       <c r="Y297">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z297">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA297">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB297">
         <v>0.8500000000000001</v>
@@ -26990,7 +26990,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>7689550</v>
+        <v>7689554</v>
       </c>
       <c r="C298" t="s">
         <v>28</v>
@@ -27002,49 +27002,49 @@
         <v>45367.70833333334</v>
       </c>
       <c r="F298" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G298" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="H298">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I298">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J298" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K298">
         <v>2.25</v>
       </c>
       <c r="L298">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M298">
+        <v>2.75</v>
+      </c>
+      <c r="N298">
+        <v>1.909</v>
+      </c>
+      <c r="O298">
+        <v>3.4</v>
+      </c>
+      <c r="P298">
+        <v>3.4</v>
+      </c>
+      <c r="Q298">
+        <v>-0.25</v>
+      </c>
+      <c r="R298">
+        <v>1.8</v>
+      </c>
+      <c r="S298">
+        <v>2</v>
+      </c>
+      <c r="T298">
         <v>2.5</v>
-      </c>
-      <c r="N298">
-        <v>2.625</v>
-      </c>
-      <c r="O298">
-        <v>3.8</v>
-      </c>
-      <c r="P298">
-        <v>2.1</v>
-      </c>
-      <c r="Q298">
-        <v>0.25</v>
-      </c>
-      <c r="R298">
-        <v>1.85</v>
-      </c>
-      <c r="S298">
-        <v>1.95</v>
-      </c>
-      <c r="T298">
-        <v>2.75</v>
       </c>
       <c r="U298">
         <v>1.85</v>
@@ -27053,19 +27053,19 @@
         <v>1.95</v>
       </c>
       <c r="W298">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X298">
         <v>-1</v>
       </c>
       <c r="Y298">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z298">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA298">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB298">
         <v>0.8500000000000001</v>
@@ -27079,7 +27079,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>7689838</v>
+        <v>7689553</v>
       </c>
       <c r="C299" t="s">
         <v>28</v>
@@ -27091,49 +27091,49 @@
         <v>45367.83333333334</v>
       </c>
       <c r="F299" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G299" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="H299">
         <v>0</v>
       </c>
       <c r="I299">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J299" t="s">
         <v>55</v>
       </c>
       <c r="K299">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="L299">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M299">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="N299">
-        <v>1.85</v>
+        <v>3.75</v>
       </c>
       <c r="O299">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P299">
-        <v>3.6</v>
+        <v>1.727</v>
       </c>
       <c r="Q299">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R299">
+        <v>1.825</v>
+      </c>
+      <c r="S299">
         <v>1.975</v>
       </c>
-      <c r="S299">
-        <v>1.825</v>
-      </c>
       <c r="T299">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U299">
         <v>1.975</v>
@@ -27148,19 +27148,19 @@
         <v>-1</v>
       </c>
       <c r="Y299">
-        <v>2.6</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z299">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA299">
+        <v>0.4875</v>
+      </c>
+      <c r="AB299">
+        <v>-1</v>
+      </c>
+      <c r="AC299">
         <v>0.825</v>
-      </c>
-      <c r="AB299">
-        <v>-0.5</v>
-      </c>
-      <c r="AC299">
-        <v>0.4125</v>
       </c>
     </row>
     <row r="300" spans="1:29">
@@ -27168,7 +27168,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>7689553</v>
+        <v>7689838</v>
       </c>
       <c r="C300" t="s">
         <v>28</v>
@@ -27180,49 +27180,49 @@
         <v>45367.83333333334</v>
       </c>
       <c r="F300" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="G300" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H300">
         <v>0</v>
       </c>
       <c r="I300">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J300" t="s">
         <v>55</v>
       </c>
       <c r="K300">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="L300">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M300">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="N300">
-        <v>3.75</v>
+        <v>1.85</v>
       </c>
       <c r="O300">
+        <v>3.25</v>
+      </c>
+      <c r="P300">
         <v>3.6</v>
       </c>
-      <c r="P300">
-        <v>1.727</v>
-      </c>
       <c r="Q300">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R300">
+        <v>1.975</v>
+      </c>
+      <c r="S300">
         <v>1.825</v>
       </c>
-      <c r="S300">
-        <v>1.975</v>
-      </c>
       <c r="T300">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U300">
         <v>1.975</v>
@@ -27237,19 +27237,19 @@
         <v>-1</v>
       </c>
       <c r="Y300">
-        <v>0.7270000000000001</v>
+        <v>2.6</v>
       </c>
       <c r="Z300">
+        <v>-1</v>
+      </c>
+      <c r="AA300">
+        <v>0.825</v>
+      </c>
+      <c r="AB300">
         <v>-0.5</v>
       </c>
-      <c r="AA300">
-        <v>0.4875</v>
-      </c>
-      <c r="AB300">
-        <v>-1</v>
-      </c>
       <c r="AC300">
-        <v>0.825</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="301" spans="1:29">
@@ -27272,7 +27272,7 @@
         <v>33</v>
       </c>
       <c r="G301" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H301">
         <v>2</v>
@@ -27281,7 +27281,7 @@
         <v>2</v>
       </c>
       <c r="J301" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K301">
         <v>2.1</v>
@@ -27548,7 +27548,7 @@
         <v>1</v>
       </c>
       <c r="J304" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K304">
         <v>2.4</v>
@@ -27625,7 +27625,7 @@
         <v>45367.95833333334</v>
       </c>
       <c r="F305" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G305" t="s">
         <v>44</v>
@@ -27637,7 +27637,7 @@
         <v>0</v>
       </c>
       <c r="J305" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K305">
         <v>2.6</v>
@@ -27714,7 +27714,7 @@
         <v>45374.625</v>
       </c>
       <c r="F306" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G306" t="s">
         <v>48</v>
@@ -27726,7 +27726,7 @@
         <v>0</v>
       </c>
       <c r="J306" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K306">
         <v>2.6</v>
@@ -27815,7 +27815,7 @@
         <v>1</v>
       </c>
       <c r="J307" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K307">
         <v>2</v>
@@ -27895,7 +27895,7 @@
         <v>43</v>
       </c>
       <c r="G308" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H308">
         <v>3</v>
@@ -27904,7 +27904,7 @@
         <v>1</v>
       </c>
       <c r="J308" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K308">
         <v>2.5</v>
@@ -27993,7 +27993,7 @@
         <v>1</v>
       </c>
       <c r="J309" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K309">
         <v>2.75</v>
@@ -28082,7 +28082,7 @@
         <v>1</v>
       </c>
       <c r="J310" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K310">
         <v>2.5</v>
@@ -28162,7 +28162,7 @@
         <v>29</v>
       </c>
       <c r="G311" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H311">
         <v>4</v>
@@ -28171,7 +28171,7 @@
         <v>0</v>
       </c>
       <c r="J311" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K311">
         <v>1.833</v>
@@ -28260,7 +28260,7 @@
         <v>0</v>
       </c>
       <c r="J312" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K312">
         <v>2.7</v>
@@ -28337,7 +28337,7 @@
         <v>45374.89583333334</v>
       </c>
       <c r="F313" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G313" t="s">
         <v>30</v>
@@ -28349,7 +28349,7 @@
         <v>0</v>
       </c>
       <c r="J313" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K313">
         <v>1.909</v>
@@ -28414,7 +28414,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>7689560</v>
+        <v>7689559</v>
       </c>
       <c r="C314" t="s">
         <v>28</v>
@@ -28426,76 +28426,76 @@
         <v>45374.95833333334</v>
       </c>
       <c r="F314" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G314" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H314">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I314">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J314" t="s">
         <v>57</v>
       </c>
       <c r="K314">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="L314">
         <v>3.4</v>
       </c>
       <c r="M314">
-        <v>4.2</v>
+        <v>2.875</v>
       </c>
       <c r="N314">
-        <v>1.615</v>
+        <v>1.6</v>
       </c>
       <c r="O314">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P314">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="Q314">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R314">
+        <v>2</v>
+      </c>
+      <c r="S314">
         <v>1.8</v>
       </c>
-      <c r="S314">
-        <v>2</v>
-      </c>
       <c r="T314">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U314">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V314">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W314">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X314">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y314">
         <v>-1</v>
       </c>
       <c r="Z314">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA314">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB314">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC314">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="315" spans="1:29">
@@ -28503,7 +28503,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>7689559</v>
+        <v>7689560</v>
       </c>
       <c r="C315" t="s">
         <v>28</v>
@@ -28515,76 +28515,76 @@
         <v>45374.95833333334</v>
       </c>
       <c r="F315" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G315" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H315">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I315">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J315" t="s">
         <v>56</v>
       </c>
       <c r="K315">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="L315">
         <v>3.4</v>
       </c>
       <c r="M315">
-        <v>2.875</v>
+        <v>4.2</v>
       </c>
       <c r="N315">
-        <v>1.6</v>
+        <v>1.615</v>
       </c>
       <c r="O315">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P315">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q315">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R315">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S315">
+        <v>2</v>
+      </c>
+      <c r="T315">
+        <v>2.5</v>
+      </c>
+      <c r="U315">
+        <v>2</v>
+      </c>
+      <c r="V315">
         <v>1.8</v>
       </c>
-      <c r="T315">
-        <v>2.75</v>
-      </c>
-      <c r="U315">
-        <v>1.825</v>
-      </c>
-      <c r="V315">
-        <v>1.975</v>
-      </c>
       <c r="W315">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X315">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y315">
         <v>-1</v>
       </c>
       <c r="Z315">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA315">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AB315">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC315">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="316" spans="1:29">
@@ -28604,7 +28604,7 @@
         <v>45375.79166666666</v>
       </c>
       <c r="F316" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G316" t="s">
         <v>54</v>
@@ -28616,7 +28616,7 @@
         <v>2</v>
       </c>
       <c r="J316" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K316">
         <v>1.833</v>
@@ -28696,7 +28696,7 @@
         <v>53</v>
       </c>
       <c r="G317" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K317">
         <v>2.2</v>
@@ -28708,22 +28708,22 @@
         <v>2.75</v>
       </c>
       <c r="N317">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="O317">
         <v>3.6</v>
       </c>
       <c r="P317">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q317">
         <v>-0.5</v>
       </c>
       <c r="R317">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S317">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T317">
         <v>2.75</v>
@@ -28782,22 +28782,22 @@
         <v>3.4</v>
       </c>
       <c r="N318">
-        <v>1.727</v>
+        <v>1.7</v>
       </c>
       <c r="O318">
         <v>3.6</v>
       </c>
       <c r="P318">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q318">
         <v>-0.75</v>
       </c>
       <c r="R318">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S318">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T318">
         <v>2.5</v>
@@ -28856,22 +28856,22 @@
         <v>2.3</v>
       </c>
       <c r="N319">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="O319">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P319">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="Q319">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R319">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S319">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T319">
         <v>2.5</v>
@@ -28930,31 +28930,31 @@
         <v>3.1</v>
       </c>
       <c r="N320">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="O320">
+        <v>3.5</v>
+      </c>
+      <c r="P320">
         <v>3.4</v>
       </c>
-      <c r="P320">
-        <v>3</v>
-      </c>
       <c r="Q320">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R320">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S320">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T320">
         <v>2.5</v>
       </c>
       <c r="U320">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V320">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W320">
         <v>0</v>
@@ -29063,10 +29063,10 @@
         <v>45381.89583333334</v>
       </c>
       <c r="F322" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G322" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K322">
         <v>1.571</v>
@@ -29081,19 +29081,19 @@
         <v>1.533</v>
       </c>
       <c r="O322">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P322">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="Q322">
         <v>-1</v>
       </c>
       <c r="R322">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S322">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T322">
         <v>2.75</v>
@@ -29137,7 +29137,7 @@
         <v>45381.95833333334</v>
       </c>
       <c r="F323" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G323" t="s">
         <v>49</v>
@@ -29152,13 +29152,13 @@
         <v>4.333</v>
       </c>
       <c r="N323">
-        <v>1.615</v>
+        <v>1.65</v>
       </c>
       <c r="O323">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P323">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="Q323">
         <v>-0.75</v>
@@ -29173,10 +29173,10 @@
         <v>2.75</v>
       </c>
       <c r="U323">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V323">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W323">
         <v>0</v>
@@ -29199,7 +29199,7 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>7689573</v>
+        <v>7689840</v>
       </c>
       <c r="C324" t="s">
         <v>28</v>
@@ -29211,31 +29211,31 @@
         <v>45381.95833333334</v>
       </c>
       <c r="F324" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G324" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="K324">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="L324">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M324">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="N324">
-        <v>1.666</v>
+        <v>2.1</v>
       </c>
       <c r="O324">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P324">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q324">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R324">
         <v>1.925</v>
@@ -29247,10 +29247,10 @@
         <v>2.5</v>
       </c>
       <c r="U324">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V324">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W324">
         <v>0</v>
@@ -29273,7 +29273,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>7689840</v>
+        <v>7689573</v>
       </c>
       <c r="C325" t="s">
         <v>28</v>
@@ -29285,46 +29285,46 @@
         <v>45381.95833333334</v>
       </c>
       <c r="F325" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G325" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="K325">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="L325">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M325">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="N325">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="O325">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P325">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="Q325">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R325">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S325">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T325">
         <v>2.5</v>
       </c>
       <c r="U325">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V325">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W325">
         <v>0</v>
@@ -29362,7 +29362,7 @@
         <v>44</v>
       </c>
       <c r="G326" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K326">
         <v>1.909</v>
@@ -29380,16 +29380,16 @@
         <v>3.5</v>
       </c>
       <c r="P326">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="Q326">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R326">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S326">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T326">
         <v>2.5</v>

--- a/USA USL Championship/USA USL Championship.xlsx
+++ b/USA USL Championship/USA USL Championship.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1643" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1635" uniqueCount="58">
   <si>
     <t>id</t>
   </si>
@@ -109,10 +109,10 @@
     <t>Colorado Switchbacks FC</t>
   </si>
   <si>
-    <t>Hartford Athletic</t>
+    <t>Pittsburgh Riverhounds</t>
   </si>
   <si>
-    <t>Pittsburgh Riverhounds</t>
+    <t>Hartford Athletic</t>
   </si>
   <si>
     <t>Tampa Bay Rowdies</t>
@@ -121,16 +121,16 @@
     <t>Memphis 901 FC</t>
   </si>
   <si>
+    <t>San Antonio FC</t>
+  </si>
+  <si>
     <t>New Mexico United</t>
   </si>
   <si>
-    <t>San Antonio FC</t>
+    <t>Monterey Bay FC</t>
   </si>
   <si>
     <t>Orange County SC</t>
-  </si>
-  <si>
-    <t>Monterey Bay FC</t>
   </si>
   <si>
     <t>Loudoun United FC</t>
@@ -184,10 +184,10 @@
     <t>A</t>
   </si>
   <si>
-    <t>D</t>
+    <t>H</t>
   </si>
   <si>
-    <t>H</t>
+    <t>D</t>
   </si>
 </sst>
 </file>
@@ -549,7 +549,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC326"/>
+  <dimension ref="A1:AC324"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -824,7 +824,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6126581</v>
+        <v>6126586</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -839,10 +839,10 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -851,52 +851,52 @@
         <v>56</v>
       </c>
       <c r="K4">
-        <v>3.5</v>
+        <v>1.7</v>
       </c>
       <c r="L4">
         <v>3.6</v>
       </c>
       <c r="M4">
-        <v>1.833</v>
+        <v>4.2</v>
       </c>
       <c r="N4">
-        <v>3.4</v>
+        <v>1.85</v>
       </c>
       <c r="O4">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P4">
-        <v>1.85</v>
+        <v>3.8</v>
       </c>
       <c r="Q4">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R4">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S4">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T4">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U4">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="V4">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W4">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X4">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AA4">
         <v>-1</v>
@@ -905,7 +905,7 @@
         <v>-1</v>
       </c>
       <c r="AC4">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -913,7 +913,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6126586</v>
+        <v>6126581</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -928,10 +928,10 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -940,61 +940,61 @@
         <v>57</v>
       </c>
       <c r="K5">
-        <v>1.7</v>
+        <v>3.5</v>
       </c>
       <c r="L5">
         <v>3.6</v>
       </c>
       <c r="M5">
-        <v>4.2</v>
+        <v>1.833</v>
       </c>
       <c r="N5">
+        <v>3.4</v>
+      </c>
+      <c r="O5">
+        <v>3.6</v>
+      </c>
+      <c r="P5">
         <v>1.85</v>
       </c>
-      <c r="O5">
-        <v>3.3</v>
-      </c>
-      <c r="P5">
-        <v>3.8</v>
-      </c>
       <c r="Q5">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R5">
+        <v>1.9</v>
+      </c>
+      <c r="S5">
+        <v>1.9</v>
+      </c>
+      <c r="T5">
+        <v>2.75</v>
+      </c>
+      <c r="U5">
+        <v>1.875</v>
+      </c>
+      <c r="V5">
         <v>1.925</v>
       </c>
-      <c r="S5">
-        <v>1.875</v>
-      </c>
-      <c r="T5">
-        <v>2.25</v>
-      </c>
-      <c r="U5">
-        <v>1.75</v>
-      </c>
-      <c r="V5">
-        <v>1.95</v>
-      </c>
       <c r="W5">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X5">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y5">
         <v>-1</v>
       </c>
       <c r="Z5">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA5">
+        <v>-1</v>
+      </c>
+      <c r="AB5">
+        <v>-1</v>
+      </c>
+      <c r="AC5">
         <v>0.925</v>
-      </c>
-      <c r="AA5">
-        <v>-1</v>
-      </c>
-      <c r="AB5">
-        <v>-1</v>
-      </c>
-      <c r="AC5">
-        <v>0.95</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1026,7 +1026,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K6">
         <v>2.25</v>
@@ -1115,7 +1115,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -1180,7 +1180,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6126584</v>
+        <v>6126587</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1195,73 +1195,73 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K8">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="L8">
         <v>3.4</v>
       </c>
       <c r="M8">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="N8">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="O8">
         <v>3.4</v>
       </c>
       <c r="P8">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q8">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R8">
+        <v>1.85</v>
+      </c>
+      <c r="S8">
         <v>1.95</v>
       </c>
-      <c r="S8">
-        <v>1.85</v>
-      </c>
       <c r="T8">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U8">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V8">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W8">
         <v>-1</v>
       </c>
       <c r="X8">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y8">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z8">
         <v>-1</v>
       </c>
       <c r="AA8">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB8">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC8">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1269,7 +1269,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6126587</v>
+        <v>6126584</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1284,73 +1284,73 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K9">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="L9">
         <v>3.4</v>
       </c>
       <c r="M9">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="N9">
-        <v>1.8</v>
+        <v>2.15</v>
       </c>
       <c r="O9">
         <v>3.4</v>
       </c>
       <c r="P9">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="Q9">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R9">
+        <v>1.95</v>
+      </c>
+      <c r="S9">
         <v>1.85</v>
       </c>
-      <c r="S9">
-        <v>1.95</v>
-      </c>
       <c r="T9">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U9">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V9">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W9">
         <v>-1</v>
       </c>
       <c r="X9">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y9">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z9">
         <v>-1</v>
       </c>
       <c r="AA9">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB9">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC9">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1358,7 +1358,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6126585</v>
+        <v>6126583</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1373,55 +1373,55 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K10">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="L10">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M10">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="N10">
-        <v>2.1</v>
+        <v>1.615</v>
       </c>
       <c r="O10">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P10">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="Q10">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R10">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S10">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T10">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U10">
+        <v>1.95</v>
+      </c>
+      <c r="V10">
         <v>1.85</v>
       </c>
-      <c r="V10">
-        <v>1.95</v>
-      </c>
       <c r="W10">
-        <v>1.1</v>
+        <v>0.615</v>
       </c>
       <c r="X10">
         <v>-1</v>
@@ -1430,16 +1430,16 @@
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AA10">
         <v>-1</v>
       </c>
       <c r="AB10">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC10">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1447,7 +1447,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6126583</v>
+        <v>6126585</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1462,55 +1462,55 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K11">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L11">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M11">
+        <v>3.2</v>
+      </c>
+      <c r="N11">
+        <v>2.1</v>
+      </c>
+      <c r="O11">
+        <v>3.1</v>
+      </c>
+      <c r="P11">
         <v>3.3</v>
       </c>
-      <c r="N11">
-        <v>1.615</v>
-      </c>
-      <c r="O11">
-        <v>4</v>
-      </c>
-      <c r="P11">
-        <v>4.2</v>
-      </c>
       <c r="Q11">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R11">
+        <v>1.8</v>
+      </c>
+      <c r="S11">
+        <v>2</v>
+      </c>
+      <c r="T11">
+        <v>2.25</v>
+      </c>
+      <c r="U11">
+        <v>1.85</v>
+      </c>
+      <c r="V11">
         <v>1.95</v>
       </c>
-      <c r="S11">
-        <v>1.75</v>
-      </c>
-      <c r="T11">
-        <v>2.75</v>
-      </c>
-      <c r="U11">
-        <v>1.95</v>
-      </c>
-      <c r="V11">
-        <v>1.85</v>
-      </c>
       <c r="W11">
-        <v>0.615</v>
+        <v>1.1</v>
       </c>
       <c r="X11">
         <v>-1</v>
@@ -1519,16 +1519,16 @@
         <v>-1</v>
       </c>
       <c r="Z11">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AA11">
         <v>-1</v>
       </c>
       <c r="AB11">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AC11">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1560,7 +1560,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K12">
         <v>1.8</v>
@@ -1649,7 +1649,7 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K13">
         <v>2.4</v>
@@ -1738,7 +1738,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K14">
         <v>2.3</v>
@@ -1815,7 +1815,7 @@
         <v>45087.83333333334</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G15" t="s">
         <v>29</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K15">
         <v>1.75</v>
@@ -1907,7 +1907,7 @@
         <v>41</v>
       </c>
       <c r="G16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -1916,7 +1916,7 @@
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K16">
         <v>1.666</v>
@@ -1996,7 +1996,7 @@
         <v>33</v>
       </c>
       <c r="G17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H17">
         <v>3</v>
@@ -2005,7 +2005,7 @@
         <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K17">
         <v>1.65</v>
@@ -2094,7 +2094,7 @@
         <v>3</v>
       </c>
       <c r="J18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K18">
         <v>2.05</v>
@@ -2263,7 +2263,7 @@
         <v>30</v>
       </c>
       <c r="G20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H20">
         <v>4</v>
@@ -2272,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K20">
         <v>1.85</v>
@@ -2349,7 +2349,7 @@
         <v>45087.91666666666</v>
       </c>
       <c r="F21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -2361,7 +2361,7 @@
         <v>2</v>
       </c>
       <c r="J21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -2450,7 +2450,7 @@
         <v>2</v>
       </c>
       <c r="J22" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K22">
         <v>1.95</v>
@@ -2530,7 +2530,7 @@
         <v>45</v>
       </c>
       <c r="G23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -2616,7 +2616,7 @@
         <v>45091.83333333334</v>
       </c>
       <c r="F24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G24" t="s">
         <v>52</v>
@@ -2717,7 +2717,7 @@
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K25">
         <v>1.3</v>
@@ -2797,7 +2797,7 @@
         <v>40</v>
       </c>
       <c r="G26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H26">
         <v>2</v>
@@ -2806,7 +2806,7 @@
         <v>2</v>
       </c>
       <c r="J26" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K26">
         <v>2.15</v>
@@ -2972,7 +2972,7 @@
         <v>45094.83333333334</v>
       </c>
       <c r="F28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G28" t="s">
         <v>29</v>
@@ -3073,7 +3073,7 @@
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K29">
         <v>1.8</v>
@@ -3153,7 +3153,7 @@
         <v>49</v>
       </c>
       <c r="G30" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -3251,7 +3251,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K31">
         <v>1.65</v>
@@ -3340,7 +3340,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K32">
         <v>1.6</v>
@@ -3417,7 +3417,7 @@
         <v>45094.91666666666</v>
       </c>
       <c r="F33" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G33" t="s">
         <v>42</v>
@@ -3429,7 +3429,7 @@
         <v>2</v>
       </c>
       <c r="J33" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K33">
         <v>1.8</v>
@@ -3518,7 +3518,7 @@
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K34">
         <v>1.8</v>
@@ -3598,7 +3598,7 @@
         <v>50</v>
       </c>
       <c r="G35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -3607,7 +3607,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K35">
         <v>2.1</v>
@@ -3696,7 +3696,7 @@
         <v>2</v>
       </c>
       <c r="J36" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K36">
         <v>2.9</v>
@@ -3776,7 +3776,7 @@
         <v>51</v>
       </c>
       <c r="G37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -3850,7 +3850,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6126617</v>
+        <v>6126616</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3862,58 +3862,58 @@
         <v>45098.875</v>
       </c>
       <c r="F38" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="G38" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H38">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I38">
         <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K38">
-        <v>1.615</v>
+        <v>1.8</v>
       </c>
       <c r="L38">
+        <v>3.5</v>
+      </c>
+      <c r="M38">
+        <v>3.6</v>
+      </c>
+      <c r="N38">
+        <v>1.7</v>
+      </c>
+      <c r="O38">
+        <v>3.8</v>
+      </c>
+      <c r="P38">
         <v>3.75</v>
       </c>
-      <c r="M38">
-        <v>4.333</v>
-      </c>
-      <c r="N38">
-        <v>1.5</v>
-      </c>
-      <c r="O38">
-        <v>4.2</v>
-      </c>
-      <c r="P38">
-        <v>4.75</v>
-      </c>
       <c r="Q38">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R38">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S38">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T38">
         <v>3</v>
       </c>
       <c r="U38">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V38">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="W38">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="X38">
         <v>-1</v>
@@ -3922,16 +3922,16 @@
         <v>-1</v>
       </c>
       <c r="Z38">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AA38">
         <v>-1</v>
       </c>
       <c r="AB38">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC38">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3939,7 +3939,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6126619</v>
+        <v>6126617</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3951,58 +3951,58 @@
         <v>45098.875</v>
       </c>
       <c r="F39" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G39" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K39">
-        <v>2.1</v>
+        <v>1.615</v>
       </c>
       <c r="L39">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M39">
+        <v>4.333</v>
+      </c>
+      <c r="N39">
+        <v>1.5</v>
+      </c>
+      <c r="O39">
+        <v>4.2</v>
+      </c>
+      <c r="P39">
+        <v>4.75</v>
+      </c>
+      <c r="Q39">
+        <v>-1</v>
+      </c>
+      <c r="R39">
+        <v>1.825</v>
+      </c>
+      <c r="S39">
+        <v>1.975</v>
+      </c>
+      <c r="T39">
         <v>3</v>
       </c>
-      <c r="N39">
-        <v>2.15</v>
-      </c>
-      <c r="O39">
-        <v>3.4</v>
-      </c>
-      <c r="P39">
-        <v>2.875</v>
-      </c>
-      <c r="Q39">
-        <v>-0.25</v>
-      </c>
-      <c r="R39">
-        <v>1.975</v>
-      </c>
-      <c r="S39">
-        <v>1.825</v>
-      </c>
-      <c r="T39">
-        <v>2.75</v>
-      </c>
       <c r="U39">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V39">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="W39">
-        <v>1.15</v>
+        <v>0.5</v>
       </c>
       <c r="X39">
         <v>-1</v>
@@ -4011,16 +4011,16 @@
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA39">
         <v>-1</v>
       </c>
       <c r="AB39">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC39">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4028,7 +4028,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6126616</v>
+        <v>6126619</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4040,58 +4040,58 @@
         <v>45098.875</v>
       </c>
       <c r="F40" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G40" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40">
         <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K40">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="L40">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M40">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="N40">
-        <v>1.7</v>
+        <v>2.15</v>
       </c>
       <c r="O40">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P40">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="Q40">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R40">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S40">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T40">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U40">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V40">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W40">
-        <v>0.7</v>
+        <v>1.15</v>
       </c>
       <c r="X40">
         <v>-1</v>
@@ -4100,7 +4100,7 @@
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA40">
         <v>-1</v>
@@ -4109,7 +4109,7 @@
         <v>-1</v>
       </c>
       <c r="AC40">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4129,7 +4129,7 @@
         <v>45098.91666666666</v>
       </c>
       <c r="F41" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G41" t="s">
         <v>44</v>
@@ -4218,7 +4218,7 @@
         <v>45101.83333333334</v>
       </c>
       <c r="F42" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G42" t="s">
         <v>40</v>
@@ -4230,7 +4230,7 @@
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K42">
         <v>1.727</v>
@@ -4307,7 +4307,7 @@
         <v>45101.83333333334</v>
       </c>
       <c r="F43" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G43" t="s">
         <v>41</v>
@@ -4488,7 +4488,7 @@
         <v>52</v>
       </c>
       <c r="G45" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K46">
         <v>1.615</v>
@@ -4675,7 +4675,7 @@
         <v>2</v>
       </c>
       <c r="J47" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K47">
         <v>1.727</v>
@@ -4752,7 +4752,7 @@
         <v>45101.91666666666</v>
       </c>
       <c r="F48" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G48" t="s">
         <v>30</v>
@@ -4764,7 +4764,7 @@
         <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K48">
         <v>2.1</v>
@@ -4841,7 +4841,7 @@
         <v>45101.95833333334</v>
       </c>
       <c r="F49" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G49" t="s">
         <v>47</v>
@@ -4853,7 +4853,7 @@
         <v>0</v>
       </c>
       <c r="J49" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K49">
         <v>1.833</v>
@@ -4942,7 +4942,7 @@
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K50">
         <v>1.833</v>
@@ -5022,7 +5022,7 @@
         <v>51</v>
       </c>
       <c r="G51" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H51">
         <v>3</v>
@@ -5031,7 +5031,7 @@
         <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K51">
         <v>1.75</v>
@@ -5209,7 +5209,7 @@
         <v>0</v>
       </c>
       <c r="J53" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K53">
         <v>1.571</v>
@@ -5298,7 +5298,7 @@
         <v>2</v>
       </c>
       <c r="J54" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K54">
         <v>2.1</v>
@@ -5387,7 +5387,7 @@
         <v>2</v>
       </c>
       <c r="J55" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K55">
         <v>2.25</v>
@@ -5464,7 +5464,7 @@
         <v>45108.83333333334</v>
       </c>
       <c r="F56" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G56" t="s">
         <v>43</v>
@@ -5476,7 +5476,7 @@
         <v>0</v>
       </c>
       <c r="J56" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K56">
         <v>1.909</v>
@@ -5541,7 +5541,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6126633</v>
+        <v>6126641</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5553,52 +5553,52 @@
         <v>45108.91666666666</v>
       </c>
       <c r="F57" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K57">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="L57">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M57">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="N57">
         <v>1.666</v>
       </c>
       <c r="O57">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P57">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q57">
         <v>-0.75</v>
       </c>
       <c r="R57">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S57">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T57">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U57">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="V57">
         <v>1.95</v>
@@ -5613,16 +5613,16 @@
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA57">
         <v>-1</v>
       </c>
       <c r="AB57">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC57">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5630,7 +5630,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6126641</v>
+        <v>6126633</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5642,52 +5642,52 @@
         <v>45108.91666666666</v>
       </c>
       <c r="F58" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G58" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H58">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K58">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L58">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M58">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="N58">
         <v>1.666</v>
       </c>
       <c r="O58">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P58">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q58">
         <v>-0.75</v>
       </c>
       <c r="R58">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S58">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T58">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U58">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="V58">
         <v>1.95</v>
@@ -5702,16 +5702,16 @@
         <v>-1</v>
       </c>
       <c r="Z58">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA58">
         <v>-1</v>
       </c>
       <c r="AB58">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC58">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5734,7 +5734,7 @@
         <v>46</v>
       </c>
       <c r="G59" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -5820,10 +5820,10 @@
         <v>45108.95833333334</v>
       </c>
       <c r="F60" t="s">
+        <v>38</v>
+      </c>
+      <c r="G60" t="s">
         <v>37</v>
-      </c>
-      <c r="G60" t="s">
-        <v>38</v>
       </c>
       <c r="H60">
         <v>3</v>
@@ -5832,7 +5832,7 @@
         <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K60">
         <v>2.15</v>
@@ -6010,7 +6010,7 @@
         <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K62">
         <v>1.571</v>
@@ -6099,7 +6099,7 @@
         <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K63">
         <v>2.15</v>
@@ -6179,7 +6179,7 @@
         <v>39</v>
       </c>
       <c r="G64" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H64">
         <v>2</v>
@@ -6188,7 +6188,7 @@
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K64">
         <v>2.1</v>
@@ -6268,7 +6268,7 @@
         <v>45</v>
       </c>
       <c r="G65" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H65">
         <v>2</v>
@@ -6277,7 +6277,7 @@
         <v>2</v>
       </c>
       <c r="J65" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K65">
         <v>2.625</v>
@@ -6357,7 +6357,7 @@
         <v>30</v>
       </c>
       <c r="G66" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H66">
         <v>4</v>
@@ -6366,7 +6366,7 @@
         <v>0</v>
       </c>
       <c r="J66" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K66">
         <v>2</v>
@@ -6446,7 +6446,7 @@
         <v>34</v>
       </c>
       <c r="G67" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -6520,7 +6520,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6126647</v>
+        <v>6126655</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6532,76 +6532,76 @@
         <v>45115.83333333334</v>
       </c>
       <c r="F68" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G68" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68">
         <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K68">
-        <v>1.909</v>
+        <v>2.7</v>
       </c>
       <c r="L68">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M68">
-        <v>3.5</v>
+        <v>2.375</v>
       </c>
       <c r="N68">
-        <v>1.666</v>
+        <v>3</v>
       </c>
       <c r="O68">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P68">
-        <v>4.5</v>
+        <v>2.2</v>
       </c>
       <c r="Q68">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R68">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S68">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T68">
         <v>2.75</v>
       </c>
       <c r="U68">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V68">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W68">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X68">
         <v>-1</v>
       </c>
       <c r="Y68">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z68">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA68">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB68">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC68">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6621,7 +6621,7 @@
         <v>45115.83333333334</v>
       </c>
       <c r="F69" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G69" t="s">
         <v>51</v>
@@ -6633,7 +6633,7 @@
         <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K69">
         <v>1.909</v>
@@ -6698,7 +6698,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6126655</v>
+        <v>6126647</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6710,76 +6710,76 @@
         <v>45115.83333333334</v>
       </c>
       <c r="F70" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G70" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70">
         <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K70">
-        <v>2.7</v>
+        <v>1.909</v>
       </c>
       <c r="L70">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M70">
-        <v>2.375</v>
+        <v>3.5</v>
       </c>
       <c r="N70">
-        <v>3</v>
+        <v>1.666</v>
       </c>
       <c r="O70">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P70">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
       <c r="Q70">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R70">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S70">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T70">
         <v>2.75</v>
       </c>
       <c r="U70">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V70">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W70">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X70">
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z70">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA70">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB70">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AC70">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6799,7 +6799,7 @@
         <v>45115.83333333334</v>
       </c>
       <c r="F71" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G71" t="s">
         <v>40</v>
@@ -6900,7 +6900,7 @@
         <v>0</v>
       </c>
       <c r="J72" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K72">
         <v>2</v>
@@ -6977,7 +6977,7 @@
         <v>45115.91666666666</v>
       </c>
       <c r="F73" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G73" t="s">
         <v>52</v>
@@ -6989,7 +6989,7 @@
         <v>0</v>
       </c>
       <c r="J73" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K73">
         <v>2</v>
@@ -7078,7 +7078,7 @@
         <v>0</v>
       </c>
       <c r="J74" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K74">
         <v>1.533</v>
@@ -7155,7 +7155,7 @@
         <v>45115.95833333334</v>
       </c>
       <c r="F75" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G75" t="s">
         <v>46</v>
@@ -7167,7 +7167,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K75">
         <v>2.5</v>
@@ -7256,7 +7256,7 @@
         <v>3</v>
       </c>
       <c r="J76" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K76">
         <v>2.6</v>
@@ -7336,7 +7336,7 @@
         <v>42</v>
       </c>
       <c r="G77" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H77">
         <v>2</v>
@@ -7345,7 +7345,7 @@
         <v>0</v>
       </c>
       <c r="J77" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K77">
         <v>2.1</v>
@@ -7434,7 +7434,7 @@
         <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K78">
         <v>2.2</v>
@@ -7523,7 +7523,7 @@
         <v>1</v>
       </c>
       <c r="J79" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K79">
         <v>1.75</v>
@@ -7603,7 +7603,7 @@
         <v>43</v>
       </c>
       <c r="G80" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H80">
         <v>0</v>
@@ -7677,7 +7677,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6126658</v>
+        <v>6126657</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7689,19 +7689,19 @@
         <v>45119.91666666666</v>
       </c>
       <c r="F81" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G81" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="H81">
         <v>1</v>
       </c>
       <c r="I81">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J81" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K81">
         <v>1.95</v>
@@ -7713,52 +7713,52 @@
         <v>3.25</v>
       </c>
       <c r="N81">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="O81">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P81">
-        <v>2.875</v>
+        <v>2.4</v>
       </c>
       <c r="Q81">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R81">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S81">
-        <v>1.725</v>
+        <v>1.775</v>
       </c>
       <c r="T81">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U81">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V81">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W81">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X81">
         <v>-1</v>
       </c>
       <c r="Y81">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z81">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA81">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB81">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC81">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7766,7 +7766,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6126657</v>
+        <v>6126658</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7778,19 +7778,19 @@
         <v>45119.91666666666</v>
       </c>
       <c r="F82" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G82" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H82">
         <v>1</v>
       </c>
       <c r="I82">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J82" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K82">
         <v>1.95</v>
@@ -7802,52 +7802,52 @@
         <v>3.25</v>
       </c>
       <c r="N82">
-        <v>2.75</v>
+        <v>2.375</v>
       </c>
       <c r="O82">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P82">
-        <v>2.4</v>
+        <v>2.875</v>
       </c>
       <c r="Q82">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R82">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S82">
-        <v>1.775</v>
+        <v>1.725</v>
       </c>
       <c r="T82">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U82">
+        <v>2</v>
+      </c>
+      <c r="V82">
         <v>1.8</v>
       </c>
-      <c r="V82">
-        <v>2</v>
-      </c>
       <c r="W82">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X82">
         <v>-1</v>
       </c>
       <c r="Y82">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z82">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA82">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB82">
+        <v>-1</v>
+      </c>
+      <c r="AC82">
         <v>0.8</v>
-      </c>
-      <c r="AC82">
-        <v>-1</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7879,7 +7879,7 @@
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K83">
         <v>2.15</v>
@@ -8045,7 +8045,7 @@
         <v>45122.83333333334</v>
       </c>
       <c r="F85" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G85" t="s">
         <v>52</v>
@@ -8057,7 +8057,7 @@
         <v>0</v>
       </c>
       <c r="J85" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K85">
         <v>1.571</v>
@@ -8146,7 +8146,7 @@
         <v>1</v>
       </c>
       <c r="J86" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K86">
         <v>2.1</v>
@@ -8235,7 +8235,7 @@
         <v>0</v>
       </c>
       <c r="J87" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K87">
         <v>2.4</v>
@@ -8315,7 +8315,7 @@
         <v>39</v>
       </c>
       <c r="G88" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H88">
         <v>1</v>
@@ -8404,7 +8404,7 @@
         <v>49</v>
       </c>
       <c r="G89" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H89">
         <v>3</v>
@@ -8413,7 +8413,7 @@
         <v>2</v>
       </c>
       <c r="J89" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K89">
         <v>1.833</v>
@@ -8502,7 +8502,7 @@
         <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K90">
         <v>1.615</v>
@@ -8579,7 +8579,7 @@
         <v>45122.95833333334</v>
       </c>
       <c r="F91" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G91" t="s">
         <v>50</v>
@@ -8680,7 +8680,7 @@
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K92">
         <v>1.95</v>
@@ -8769,7 +8769,7 @@
         <v>0</v>
       </c>
       <c r="J93" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K93">
         <v>2.8</v>
@@ -8858,7 +8858,7 @@
         <v>1</v>
       </c>
       <c r="J94" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K94">
         <v>2.375</v>
@@ -8947,7 +8947,7 @@
         <v>0</v>
       </c>
       <c r="J95" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K95">
         <v>2.75</v>
@@ -9027,7 +9027,7 @@
         <v>52</v>
       </c>
       <c r="G96" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H96">
         <v>1</v>
@@ -9036,7 +9036,7 @@
         <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K96">
         <v>2.3</v>
@@ -9116,7 +9116,7 @@
         <v>29</v>
       </c>
       <c r="G97" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H97">
         <v>3</v>
@@ -9125,7 +9125,7 @@
         <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K97">
         <v>2.5</v>
@@ -9294,7 +9294,7 @@
         <v>34</v>
       </c>
       <c r="G99" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H99">
         <v>3</v>
@@ -9380,7 +9380,7 @@
         <v>45129.91666666666</v>
       </c>
       <c r="F100" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G100" t="s">
         <v>47</v>
@@ -9469,7 +9469,7 @@
         <v>45129.91666666666</v>
       </c>
       <c r="F101" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G101" t="s">
         <v>51</v>
@@ -9481,7 +9481,7 @@
         <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K101">
         <v>2.75</v>
@@ -9650,7 +9650,7 @@
         <v>45</v>
       </c>
       <c r="G103" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H103">
         <v>0</v>
@@ -9748,7 +9748,7 @@
         <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K104">
         <v>1.909</v>
@@ -9825,7 +9825,7 @@
         <v>45133.83333333334</v>
       </c>
       <c r="F105" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G105" t="s">
         <v>41</v>
@@ -9926,7 +9926,7 @@
         <v>0</v>
       </c>
       <c r="J106" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K106">
         <v>1.666</v>
@@ -10015,7 +10015,7 @@
         <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K107">
         <v>1.727</v>
@@ -10092,7 +10092,7 @@
         <v>45136.83333333334</v>
       </c>
       <c r="F108" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G108" t="s">
         <v>34</v>
@@ -10104,7 +10104,7 @@
         <v>2</v>
       </c>
       <c r="J108" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K108">
         <v>1.833</v>
@@ -10193,7 +10193,7 @@
         <v>0</v>
       </c>
       <c r="J109" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K109">
         <v>1.533</v>
@@ -10460,7 +10460,7 @@
         <v>0</v>
       </c>
       <c r="J112" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K112">
         <v>1.95</v>
@@ -10549,7 +10549,7 @@
         <v>2</v>
       </c>
       <c r="J113" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K113">
         <v>2.375</v>
@@ -10626,10 +10626,10 @@
         <v>45136.91666666666</v>
       </c>
       <c r="F114" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G114" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H114">
         <v>5</v>
@@ -10638,7 +10638,7 @@
         <v>2</v>
       </c>
       <c r="J114" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K114">
         <v>1.444</v>
@@ -10715,10 +10715,10 @@
         <v>45136.95833333334</v>
       </c>
       <c r="F115" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G115" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H115">
         <v>1</v>
@@ -10727,7 +10727,7 @@
         <v>0</v>
       </c>
       <c r="J115" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K115">
         <v>2.1</v>
@@ -10816,7 +10816,7 @@
         <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K116">
         <v>1.6</v>
@@ -10893,7 +10893,7 @@
         <v>45136.95833333334</v>
       </c>
       <c r="F117" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G117" t="s">
         <v>44</v>
@@ -11083,7 +11083,7 @@
         <v>0</v>
       </c>
       <c r="J119" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K119">
         <v>1.8</v>
@@ -11172,7 +11172,7 @@
         <v>0</v>
       </c>
       <c r="J120" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K120">
         <v>2.875</v>
@@ -11439,7 +11439,7 @@
         <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K123">
         <v>2.05</v>
@@ -11528,7 +11528,7 @@
         <v>0</v>
       </c>
       <c r="J124" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K124">
         <v>2.55</v>
@@ -11605,10 +11605,10 @@
         <v>45143.83333333334</v>
       </c>
       <c r="F125" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G125" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H125">
         <v>2</v>
@@ -11617,7 +11617,7 @@
         <v>1</v>
       </c>
       <c r="J125" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K125">
         <v>2.9</v>
@@ -11783,7 +11783,7 @@
         <v>45143.83333333334</v>
       </c>
       <c r="F127" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G127" t="s">
         <v>33</v>
@@ -11795,7 +11795,7 @@
         <v>0</v>
       </c>
       <c r="J127" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K127">
         <v>2.15</v>
@@ -11860,7 +11860,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6126704</v>
+        <v>6126707</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11872,55 +11872,55 @@
         <v>45143.95833333334</v>
       </c>
       <c r="F128" t="s">
+        <v>40</v>
+      </c>
+      <c r="G128" t="s">
         <v>38</v>
       </c>
-      <c r="G128" t="s">
-        <v>51</v>
-      </c>
       <c r="H128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I128">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J128" t="s">
         <v>55</v>
       </c>
       <c r="K128">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="L128">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M128">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="N128">
-        <v>3.4</v>
+        <v>1.727</v>
       </c>
       <c r="O128">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P128">
-        <v>2.05</v>
+        <v>3.6</v>
       </c>
       <c r="Q128">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R128">
-        <v>1.725</v>
+        <v>1.75</v>
       </c>
       <c r="S128">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T128">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U128">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V128">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W128">
         <v>-1</v>
@@ -11929,19 +11929,19 @@
         <v>-1</v>
       </c>
       <c r="Y128">
-        <v>1.05</v>
+        <v>2.6</v>
       </c>
       <c r="Z128">
         <v>-1</v>
       </c>
       <c r="AA128">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB128">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC128">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11949,7 +11949,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6126707</v>
+        <v>6126704</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11961,55 +11961,55 @@
         <v>45143.95833333334</v>
       </c>
       <c r="F129" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G129" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="H129">
+        <v>0</v>
+      </c>
+      <c r="I129">
         <v>1</v>
-      </c>
-      <c r="I129">
-        <v>3</v>
       </c>
       <c r="J129" t="s">
         <v>55</v>
       </c>
       <c r="K129">
+        <v>2.5</v>
+      </c>
+      <c r="L129">
+        <v>3.2</v>
+      </c>
+      <c r="M129">
+        <v>2.5</v>
+      </c>
+      <c r="N129">
+        <v>3.4</v>
+      </c>
+      <c r="O129">
+        <v>3.1</v>
+      </c>
+      <c r="P129">
         <v>2.05</v>
       </c>
-      <c r="L129">
-        <v>3.5</v>
-      </c>
-      <c r="M129">
-        <v>2.9</v>
-      </c>
-      <c r="N129">
-        <v>1.727</v>
-      </c>
-      <c r="O129">
-        <v>3.75</v>
-      </c>
-      <c r="P129">
-        <v>3.6</v>
-      </c>
       <c r="Q129">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R129">
-        <v>1.75</v>
+        <v>1.725</v>
       </c>
       <c r="S129">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T129">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U129">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V129">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W129">
         <v>-1</v>
@@ -12018,19 +12018,19 @@
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>2.6</v>
+        <v>1.05</v>
       </c>
       <c r="Z129">
         <v>-1</v>
       </c>
       <c r="AA129">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB129">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC129">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12062,7 +12062,7 @@
         <v>1</v>
       </c>
       <c r="J130" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K130">
         <v>2.8</v>
@@ -12142,7 +12142,7 @@
         <v>44</v>
       </c>
       <c r="G131" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H131">
         <v>1</v>
@@ -12240,7 +12240,7 @@
         <v>1</v>
       </c>
       <c r="J132" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K132">
         <v>1.909</v>
@@ -12305,7 +12305,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6126709</v>
+        <v>6126712</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12317,49 +12317,49 @@
         <v>45147.91666666666</v>
       </c>
       <c r="F133" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G133" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H133">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J133" t="s">
         <v>57</v>
       </c>
       <c r="K133">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="L133">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M133">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="N133">
-        <v>2.6</v>
+        <v>1.615</v>
       </c>
       <c r="O133">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="P133">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q133">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R133">
+        <v>1.75</v>
+      </c>
+      <c r="S133">
         <v>1.95</v>
       </c>
-      <c r="S133">
-        <v>1.85</v>
-      </c>
       <c r="T133">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U133">
         <v>1.95</v>
@@ -12368,25 +12368,25 @@
         <v>1.85</v>
       </c>
       <c r="W133">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X133">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y133">
         <v>-1</v>
       </c>
       <c r="Z133">
+        <v>-1</v>
+      </c>
+      <c r="AA133">
         <v>0.95</v>
       </c>
-      <c r="AA133">
-        <v>-1</v>
-      </c>
       <c r="AB133">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC133">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12394,7 +12394,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6126712</v>
+        <v>6126709</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12406,49 +12406,49 @@
         <v>45147.91666666666</v>
       </c>
       <c r="F134" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G134" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J134" t="s">
         <v>56</v>
       </c>
       <c r="K134">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="L134">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M134">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="N134">
-        <v>1.615</v>
+        <v>2.6</v>
       </c>
       <c r="O134">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="P134">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q134">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R134">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S134">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T134">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U134">
         <v>1.95</v>
@@ -12457,25 +12457,25 @@
         <v>1.85</v>
       </c>
       <c r="W134">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X134">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y134">
         <v>-1</v>
       </c>
       <c r="Z134">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA134">
+        <v>-1</v>
+      </c>
+      <c r="AB134">
         <v>0.95</v>
       </c>
-      <c r="AB134">
-        <v>-1</v>
-      </c>
       <c r="AC134">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12507,7 +12507,7 @@
         <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K135">
         <v>1.4</v>
@@ -12765,7 +12765,7 @@
         <v>33</v>
       </c>
       <c r="G138" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H138">
         <v>4</v>
@@ -12774,7 +12774,7 @@
         <v>1</v>
       </c>
       <c r="J138" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K138">
         <v>1.4</v>
@@ -12863,7 +12863,7 @@
         <v>1</v>
       </c>
       <c r="J139" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K139">
         <v>2.4</v>
@@ -12952,7 +12952,7 @@
         <v>2</v>
       </c>
       <c r="J140" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K140">
         <v>1.8</v>
@@ -13029,10 +13029,10 @@
         <v>45150.91666666666</v>
       </c>
       <c r="F141" t="s">
+        <v>36</v>
+      </c>
+      <c r="G141" t="s">
         <v>35</v>
-      </c>
-      <c r="G141" t="s">
-        <v>36</v>
       </c>
       <c r="H141">
         <v>0</v>
@@ -13207,10 +13207,10 @@
         <v>45150.9625</v>
       </c>
       <c r="F143" t="s">
+        <v>31</v>
+      </c>
+      <c r="G143" t="s">
         <v>32</v>
-      </c>
-      <c r="G143" t="s">
-        <v>31</v>
       </c>
       <c r="H143">
         <v>2</v>
@@ -13219,7 +13219,7 @@
         <v>0</v>
       </c>
       <c r="J143" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K143">
         <v>1.3</v>
@@ -13397,7 +13397,7 @@
         <v>0</v>
       </c>
       <c r="J145" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K145">
         <v>2.1</v>
@@ -13474,7 +13474,7 @@
         <v>45154.91666666666</v>
       </c>
       <c r="F146" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G146" t="s">
         <v>42</v>
@@ -13486,7 +13486,7 @@
         <v>1</v>
       </c>
       <c r="J146" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K146">
         <v>1.571</v>
@@ -13563,10 +13563,10 @@
         <v>45154.95833333334</v>
       </c>
       <c r="F147" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G147" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H147">
         <v>1</v>
@@ -13575,7 +13575,7 @@
         <v>0</v>
       </c>
       <c r="J147" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K147">
         <v>2.55</v>
@@ -13753,7 +13753,7 @@
         <v>0</v>
       </c>
       <c r="J149" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K149">
         <v>2.15</v>
@@ -13830,7 +13830,7 @@
         <v>45157.83333333334</v>
       </c>
       <c r="F150" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G150" t="s">
         <v>47</v>
@@ -14020,7 +14020,7 @@
         <v>0</v>
       </c>
       <c r="J152" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K152">
         <v>1.833</v>
@@ -14109,7 +14109,7 @@
         <v>0</v>
       </c>
       <c r="J153" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K153">
         <v>2.2</v>
@@ -14186,10 +14186,10 @@
         <v>45157.91666666666</v>
       </c>
       <c r="F154" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G154" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H154">
         <v>0</v>
@@ -14198,7 +14198,7 @@
         <v>0</v>
       </c>
       <c r="J154" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K154">
         <v>1.4</v>
@@ -14367,7 +14367,7 @@
         <v>40</v>
       </c>
       <c r="G156" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H156">
         <v>2</v>
@@ -14376,7 +14376,7 @@
         <v>2</v>
       </c>
       <c r="J156" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K156">
         <v>1.65</v>
@@ -14453,7 +14453,7 @@
         <v>45157.95833333334</v>
       </c>
       <c r="F157" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G157" t="s">
         <v>29</v>
@@ -14465,7 +14465,7 @@
         <v>0</v>
       </c>
       <c r="J157" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K157">
         <v>2</v>
@@ -14631,10 +14631,10 @@
         <v>45161.83333333334</v>
       </c>
       <c r="F159" t="s">
+        <v>32</v>
+      </c>
+      <c r="G159" t="s">
         <v>31</v>
-      </c>
-      <c r="G159" t="s">
-        <v>32</v>
       </c>
       <c r="H159">
         <v>3</v>
@@ -14708,7 +14708,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6126741</v>
+        <v>6126739</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14720,76 +14720,76 @@
         <v>45161.875</v>
       </c>
       <c r="F160" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="G160" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H160">
+        <v>1</v>
+      </c>
+      <c r="I160">
+        <v>3</v>
+      </c>
+      <c r="J160" t="s">
+        <v>55</v>
+      </c>
+      <c r="K160">
+        <v>2.55</v>
+      </c>
+      <c r="L160">
+        <v>3.3</v>
+      </c>
+      <c r="M160">
+        <v>2.625</v>
+      </c>
+      <c r="N160">
+        <v>2.7</v>
+      </c>
+      <c r="O160">
+        <v>3.5</v>
+      </c>
+      <c r="P160">
+        <v>2.375</v>
+      </c>
+      <c r="Q160">
         <v>0</v>
       </c>
-      <c r="I160">
-        <v>0</v>
-      </c>
-      <c r="J160" t="s">
-        <v>56</v>
-      </c>
-      <c r="K160">
-        <v>1.909</v>
-      </c>
-      <c r="L160">
-        <v>3.5</v>
-      </c>
-      <c r="M160">
-        <v>3.7</v>
-      </c>
-      <c r="N160">
-        <v>2</v>
-      </c>
-      <c r="O160">
-        <v>3.4</v>
-      </c>
-      <c r="P160">
-        <v>3.4</v>
-      </c>
-      <c r="Q160">
-        <v>-0.25</v>
-      </c>
       <c r="R160">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="S160">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="T160">
         <v>2.75</v>
       </c>
       <c r="U160">
+        <v>1.85</v>
+      </c>
+      <c r="V160">
         <v>1.95</v>
       </c>
-      <c r="V160">
-        <v>1.85</v>
-      </c>
       <c r="W160">
         <v>-1</v>
       </c>
       <c r="X160">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y160">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z160">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA160">
-        <v>0.5249999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB160">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC160">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -14797,7 +14797,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6126739</v>
+        <v>6126741</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14809,76 +14809,76 @@
         <v>45161.875</v>
       </c>
       <c r="F161" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="G161" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I161">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J161" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K161">
-        <v>2.55</v>
+        <v>1.909</v>
       </c>
       <c r="L161">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M161">
-        <v>2.625</v>
+        <v>3.7</v>
       </c>
       <c r="N161">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="O161">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P161">
-        <v>2.375</v>
+        <v>3.4</v>
       </c>
       <c r="Q161">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R161">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="S161">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="T161">
         <v>2.75</v>
       </c>
       <c r="U161">
+        <v>1.95</v>
+      </c>
+      <c r="V161">
         <v>1.85</v>
       </c>
-      <c r="V161">
-        <v>1.95</v>
-      </c>
       <c r="W161">
         <v>-1</v>
       </c>
       <c r="X161">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y161">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z161">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA161">
-        <v>0.7749999999999999</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB161">
+        <v>-1</v>
+      </c>
+      <c r="AC161">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC161">
-        <v>-1</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -14898,7 +14898,7 @@
         <v>45161.91666666666</v>
       </c>
       <c r="F162" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G162" t="s">
         <v>50</v>
@@ -14975,7 +14975,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6126745</v>
+        <v>6126753</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14987,76 +14987,76 @@
         <v>45164.83333333334</v>
       </c>
       <c r="F163" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G163" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J163" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K163">
-        <v>1.8</v>
+        <v>2.45</v>
       </c>
       <c r="L163">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M163">
-        <v>4.1</v>
+        <v>2.6</v>
       </c>
       <c r="N163">
-        <v>1.571</v>
+        <v>2.75</v>
       </c>
       <c r="O163">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P163">
-        <v>5.25</v>
+        <v>2.375</v>
       </c>
       <c r="Q163">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R163">
+        <v>2.05</v>
+      </c>
+      <c r="S163">
+        <v>1.75</v>
+      </c>
+      <c r="T163">
+        <v>2.5</v>
+      </c>
+      <c r="U163">
         <v>1.925</v>
       </c>
-      <c r="S163">
+      <c r="V163">
         <v>1.875</v>
       </c>
-      <c r="T163">
-        <v>2.75</v>
-      </c>
-      <c r="U163">
-        <v>1.875</v>
-      </c>
-      <c r="V163">
-        <v>1.925</v>
-      </c>
       <c r="W163">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X163">
         <v>-1</v>
       </c>
       <c r="Y163">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z163">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA163">
-        <v>-0</v>
+        <v>0.75</v>
       </c>
       <c r="AB163">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AC163">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -15064,7 +15064,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6126753</v>
+        <v>6126745</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15076,76 +15076,76 @@
         <v>45164.83333333334</v>
       </c>
       <c r="F164" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G164" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H164">
+        <v>2</v>
+      </c>
+      <c r="I164">
+        <v>1</v>
+      </c>
+      <c r="J164" t="s">
+        <v>56</v>
+      </c>
+      <c r="K164">
+        <v>1.8</v>
+      </c>
+      <c r="L164">
+        <v>3.5</v>
+      </c>
+      <c r="M164">
+        <v>4.1</v>
+      </c>
+      <c r="N164">
+        <v>1.571</v>
+      </c>
+      <c r="O164">
+        <v>4</v>
+      </c>
+      <c r="P164">
+        <v>5.25</v>
+      </c>
+      <c r="Q164">
+        <v>-1</v>
+      </c>
+      <c r="R164">
+        <v>1.925</v>
+      </c>
+      <c r="S164">
+        <v>1.875</v>
+      </c>
+      <c r="T164">
+        <v>2.75</v>
+      </c>
+      <c r="U164">
+        <v>1.875</v>
+      </c>
+      <c r="V164">
+        <v>1.925</v>
+      </c>
+      <c r="W164">
+        <v>0.571</v>
+      </c>
+      <c r="X164">
+        <v>-1</v>
+      </c>
+      <c r="Y164">
+        <v>-1</v>
+      </c>
+      <c r="Z164">
         <v>0</v>
       </c>
-      <c r="I164">
-        <v>2</v>
-      </c>
-      <c r="J164" t="s">
-        <v>55</v>
-      </c>
-      <c r="K164">
-        <v>2.45</v>
-      </c>
-      <c r="L164">
-        <v>3.4</v>
-      </c>
-      <c r="M164">
-        <v>2.6</v>
-      </c>
-      <c r="N164">
-        <v>2.75</v>
-      </c>
-      <c r="O164">
-        <v>3.4</v>
-      </c>
-      <c r="P164">
-        <v>2.375</v>
-      </c>
-      <c r="Q164">
-        <v>0</v>
-      </c>
-      <c r="R164">
-        <v>2.05</v>
-      </c>
-      <c r="S164">
-        <v>1.75</v>
-      </c>
-      <c r="T164">
-        <v>2.5</v>
-      </c>
-      <c r="U164">
-        <v>1.925</v>
-      </c>
-      <c r="V164">
-        <v>1.875</v>
-      </c>
-      <c r="W164">
-        <v>-1</v>
-      </c>
-      <c r="X164">
-        <v>-1</v>
-      </c>
-      <c r="Y164">
-        <v>1.375</v>
-      </c>
-      <c r="Z164">
-        <v>-1</v>
-      </c>
       <c r="AA164">
-        <v>0.75</v>
+        <v>-0</v>
       </c>
       <c r="AB164">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC164">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15165,7 +15165,7 @@
         <v>45164.83333333334</v>
       </c>
       <c r="F165" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G165" t="s">
         <v>46</v>
@@ -15242,7 +15242,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6126747</v>
+        <v>6126743</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15254,19 +15254,19 @@
         <v>45164.85416666666</v>
       </c>
       <c r="F166" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G166" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J166" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K166">
         <v>2.05</v>
@@ -15278,34 +15278,34 @@
         <v>3.25</v>
       </c>
       <c r="N166">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="O166">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P166">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q166">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R166">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S166">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T166">
         <v>2.5</v>
       </c>
       <c r="U166">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V166">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W166">
-        <v>0.8500000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="X166">
         <v>-1</v>
@@ -15314,16 +15314,16 @@
         <v>-1</v>
       </c>
       <c r="Z166">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA166">
         <v>-1</v>
       </c>
       <c r="AB166">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC166">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15331,7 +15331,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6126743</v>
+        <v>6126747</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15343,19 +15343,19 @@
         <v>45164.85416666666</v>
       </c>
       <c r="F167" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G167" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="H167">
+        <v>2</v>
+      </c>
+      <c r="I167">
         <v>1</v>
       </c>
-      <c r="I167">
-        <v>0</v>
-      </c>
       <c r="J167" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K167">
         <v>2.05</v>
@@ -15367,34 +15367,34 @@
         <v>3.25</v>
       </c>
       <c r="N167">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="O167">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P167">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="Q167">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R167">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S167">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T167">
         <v>2.5</v>
       </c>
       <c r="U167">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V167">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W167">
-        <v>1.1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X167">
         <v>-1</v>
@@ -15403,16 +15403,16 @@
         <v>-1</v>
       </c>
       <c r="Z167">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA167">
         <v>-1</v>
       </c>
       <c r="AB167">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC167">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15521,7 +15521,7 @@
         <v>45164.91666666666</v>
       </c>
       <c r="F169" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G169" t="s">
         <v>49</v>
@@ -15533,7 +15533,7 @@
         <v>1</v>
       </c>
       <c r="J169" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K169">
         <v>1.95</v>
@@ -15610,10 +15610,10 @@
         <v>45164.91666666666</v>
       </c>
       <c r="F170" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G170" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H170">
         <v>0</v>
@@ -15622,7 +15622,7 @@
         <v>0</v>
       </c>
       <c r="J170" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K170">
         <v>2.05</v>
@@ -15699,7 +15699,7 @@
         <v>45164.95833333334</v>
       </c>
       <c r="F171" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G171" t="s">
         <v>30</v>
@@ -15711,7 +15711,7 @@
         <v>1</v>
       </c>
       <c r="J171" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K171">
         <v>2.5</v>
@@ -15791,7 +15791,7 @@
         <v>51</v>
       </c>
       <c r="G172" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H172">
         <v>0</v>
@@ -16058,7 +16058,7 @@
         <v>42</v>
       </c>
       <c r="G175" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H175">
         <v>0</v>
@@ -16067,7 +16067,7 @@
         <v>0</v>
       </c>
       <c r="J175" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K175">
         <v>3.1</v>
@@ -16144,7 +16144,7 @@
         <v>45168.91666666666</v>
       </c>
       <c r="F176" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G176" t="s">
         <v>45</v>
@@ -16156,7 +16156,7 @@
         <v>3</v>
       </c>
       <c r="J176" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K176">
         <v>1.85</v>
@@ -16245,7 +16245,7 @@
         <v>1</v>
       </c>
       <c r="J177" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K177">
         <v>2.15</v>
@@ -16334,7 +16334,7 @@
         <v>0</v>
       </c>
       <c r="J178" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K178">
         <v>2</v>
@@ -16399,7 +16399,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6126759</v>
+        <v>6126766</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16411,13 +16411,13 @@
         <v>45171.85416666666</v>
       </c>
       <c r="F179" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="G179" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I179">
         <v>1</v>
@@ -16426,61 +16426,61 @@
         <v>56</v>
       </c>
       <c r="K179">
-        <v>2.9</v>
+        <v>1.333</v>
       </c>
       <c r="L179">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="M179">
-        <v>2.2</v>
+        <v>7.5</v>
       </c>
       <c r="N179">
-        <v>2.6</v>
+        <v>1.045</v>
       </c>
       <c r="O179">
-        <v>3.25</v>
+        <v>11</v>
       </c>
       <c r="P179">
-        <v>2.5</v>
+        <v>19</v>
       </c>
       <c r="Q179">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="R179">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S179">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T179">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U179">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="V179">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W179">
-        <v>-1</v>
+        <v>0.04499999999999993</v>
       </c>
       <c r="X179">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y179">
         <v>-1</v>
       </c>
       <c r="Z179">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA179">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
       <c r="AB179">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC179">
-        <v>-0</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16488,7 +16488,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6126766</v>
+        <v>6126759</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16500,13 +16500,13 @@
         <v>45171.85416666666</v>
       </c>
       <c r="F180" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="G180" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I180">
         <v>1</v>
@@ -16515,61 +16515,61 @@
         <v>57</v>
       </c>
       <c r="K180">
-        <v>1.333</v>
+        <v>2.9</v>
       </c>
       <c r="L180">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="M180">
-        <v>7.5</v>
+        <v>2.2</v>
       </c>
       <c r="N180">
-        <v>1.045</v>
+        <v>2.6</v>
       </c>
       <c r="O180">
-        <v>11</v>
+        <v>3.25</v>
       </c>
       <c r="P180">
-        <v>19</v>
+        <v>2.5</v>
       </c>
       <c r="Q180">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="R180">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S180">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T180">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U180">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="V180">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W180">
-        <v>0.04499999999999993</v>
+        <v>-1</v>
       </c>
       <c r="X180">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y180">
         <v>-1</v>
       </c>
       <c r="Z180">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA180">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
       <c r="AB180">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC180">
-        <v>1.05</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16678,7 +16678,7 @@
         <v>45171.91666666666</v>
       </c>
       <c r="F182" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G182" t="s">
         <v>29</v>
@@ -16770,7 +16770,7 @@
         <v>46</v>
       </c>
       <c r="G183" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H183">
         <v>1</v>
@@ -16957,7 +16957,7 @@
         <v>0</v>
       </c>
       <c r="J185" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K185">
         <v>2</v>
@@ -17037,7 +17037,7 @@
         <v>45</v>
       </c>
       <c r="G186" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H186">
         <v>1</v>
@@ -17135,7 +17135,7 @@
         <v>0</v>
       </c>
       <c r="J187" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K187">
         <v>1.95</v>
@@ -17215,7 +17215,7 @@
         <v>49</v>
       </c>
       <c r="G188" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H188">
         <v>2</v>
@@ -17224,7 +17224,7 @@
         <v>1</v>
       </c>
       <c r="J188" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K188">
         <v>3.4</v>
@@ -17313,7 +17313,7 @@
         <v>2</v>
       </c>
       <c r="J189" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K189">
         <v>2.9</v>
@@ -17390,7 +17390,7 @@
         <v>45178.83333333334</v>
       </c>
       <c r="F190" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G190" t="s">
         <v>39</v>
@@ -17402,7 +17402,7 @@
         <v>1</v>
       </c>
       <c r="J190" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K190">
         <v>1.4</v>
@@ -17491,7 +17491,7 @@
         <v>1</v>
       </c>
       <c r="J191" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K191">
         <v>1.75</v>
@@ -17580,7 +17580,7 @@
         <v>1</v>
       </c>
       <c r="J192" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K192">
         <v>2.1</v>
@@ -17669,7 +17669,7 @@
         <v>0</v>
       </c>
       <c r="J193" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K193">
         <v>2.2</v>
@@ -17749,7 +17749,7 @@
         <v>34</v>
       </c>
       <c r="G194" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H194">
         <v>0</v>
@@ -17847,7 +17847,7 @@
         <v>0</v>
       </c>
       <c r="J195" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K195">
         <v>2.05</v>
@@ -17927,7 +17927,7 @@
         <v>30</v>
       </c>
       <c r="G196" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H196">
         <v>1</v>
@@ -17936,7 +17936,7 @@
         <v>1</v>
       </c>
       <c r="J196" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K196">
         <v>2.2</v>
@@ -18013,7 +18013,7 @@
         <v>45178.95833333334</v>
       </c>
       <c r="F197" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G197" t="s">
         <v>46</v>
@@ -18025,7 +18025,7 @@
         <v>0</v>
       </c>
       <c r="J197" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K197">
         <v>1.615</v>
@@ -18114,7 +18114,7 @@
         <v>1</v>
       </c>
       <c r="J198" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K198">
         <v>3.2</v>
@@ -18194,7 +18194,7 @@
         <v>48</v>
       </c>
       <c r="G199" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H199">
         <v>1</v>
@@ -18203,7 +18203,7 @@
         <v>0</v>
       </c>
       <c r="J199" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K199">
         <v>1.909</v>
@@ -18369,7 +18369,7 @@
         <v>45184.91666666666</v>
       </c>
       <c r="F201" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G201" t="s">
         <v>41</v>
@@ -18381,7 +18381,7 @@
         <v>2</v>
       </c>
       <c r="J201" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K201">
         <v>2.2</v>
@@ -18458,7 +18458,7 @@
         <v>45184.95833333334</v>
       </c>
       <c r="F202" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G202" t="s">
         <v>30</v>
@@ -18550,7 +18550,7 @@
         <v>47</v>
       </c>
       <c r="G203" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H203">
         <v>1</v>
@@ -18648,7 +18648,7 @@
         <v>2</v>
       </c>
       <c r="J204" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K204">
         <v>2.875</v>
@@ -18737,7 +18737,7 @@
         <v>0</v>
       </c>
       <c r="J205" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K205">
         <v>2.1</v>
@@ -18817,7 +18817,7 @@
         <v>34</v>
       </c>
       <c r="G206" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H206">
         <v>4</v>
@@ -18826,7 +18826,7 @@
         <v>2</v>
       </c>
       <c r="J206" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K206">
         <v>1.5</v>
@@ -18903,7 +18903,7 @@
         <v>45185.89583333334</v>
       </c>
       <c r="F207" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G207" t="s">
         <v>33</v>
@@ -18915,7 +18915,7 @@
         <v>3</v>
       </c>
       <c r="J207" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K207">
         <v>1.909</v>
@@ -18980,7 +18980,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>6126788</v>
+        <v>6126787</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18992,76 +18992,76 @@
         <v>45185.95833333334</v>
       </c>
       <c r="F208" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="G208" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I208">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J208" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K208">
-        <v>1.8</v>
+        <v>1.727</v>
       </c>
       <c r="L208">
+        <v>3.75</v>
+      </c>
+      <c r="M208">
+        <v>4.2</v>
+      </c>
+      <c r="N208">
+        <v>1.833</v>
+      </c>
+      <c r="O208">
         <v>3.5</v>
       </c>
-      <c r="M208">
-        <v>4.1</v>
-      </c>
-      <c r="N208">
-        <v>1.7</v>
-      </c>
-      <c r="O208">
-        <v>3.6</v>
-      </c>
       <c r="P208">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Q208">
         <v>-0.75</v>
       </c>
       <c r="R208">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="S208">
-        <v>1.875</v>
+        <v>1.7</v>
       </c>
       <c r="T208">
         <v>2.75</v>
       </c>
       <c r="U208">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V208">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W208">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X208">
         <v>-1</v>
       </c>
       <c r="Y208">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z208">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="AA208">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB208">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC208">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -19093,7 +19093,7 @@
         <v>0</v>
       </c>
       <c r="J209" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K209">
         <v>1.5</v>
@@ -19158,7 +19158,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>6126787</v>
+        <v>6126788</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19170,76 +19170,76 @@
         <v>45185.95833333334</v>
       </c>
       <c r="F210" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="G210" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H210">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I210">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J210" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K210">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="L210">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M210">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="N210">
-        <v>1.833</v>
+        <v>1.7</v>
       </c>
       <c r="O210">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P210">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="Q210">
         <v>-0.75</v>
       </c>
       <c r="R210">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="S210">
-        <v>1.7</v>
+        <v>1.875</v>
       </c>
       <c r="T210">
         <v>2.75</v>
       </c>
       <c r="U210">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V210">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W210">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X210">
         <v>-1</v>
       </c>
       <c r="Y210">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z210">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="AA210">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB210">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC210">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="211" spans="1:29">
@@ -19271,7 +19271,7 @@
         <v>0</v>
       </c>
       <c r="J211" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K211">
         <v>1.8</v>
@@ -19360,7 +19360,7 @@
         <v>0</v>
       </c>
       <c r="J212" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K212">
         <v>2.05</v>
@@ -19449,7 +19449,7 @@
         <v>3</v>
       </c>
       <c r="J213" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K213">
         <v>2.4</v>
@@ -19538,7 +19538,7 @@
         <v>1</v>
       </c>
       <c r="J214" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K214">
         <v>2</v>
@@ -19603,7 +19603,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>6126795</v>
+        <v>6230627</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19615,76 +19615,76 @@
         <v>45189.95833333334</v>
       </c>
       <c r="F215" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="G215" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J215" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K215">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="L215">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M215">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="N215">
-        <v>1.571</v>
+        <v>2.7</v>
       </c>
       <c r="O215">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="P215">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q215">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R215">
-        <v>1.925</v>
+        <v>1.725</v>
       </c>
       <c r="S215">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T215">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U215">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V215">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W215">
         <v>-1</v>
       </c>
       <c r="X215">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y215">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z215">
         <v>-1</v>
       </c>
       <c r="AA215">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB215">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC215">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="216" spans="1:29">
@@ -19692,7 +19692,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>6230627</v>
+        <v>6126795</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19704,76 +19704,76 @@
         <v>45189.95833333334</v>
       </c>
       <c r="F216" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="G216" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216">
+        <v>0</v>
+      </c>
+      <c r="J216" t="s">
+        <v>57</v>
+      </c>
+      <c r="K216">
+        <v>1.5</v>
+      </c>
+      <c r="L216">
+        <v>3.75</v>
+      </c>
+      <c r="M216">
+        <v>5.5</v>
+      </c>
+      <c r="N216">
+        <v>1.571</v>
+      </c>
+      <c r="O216">
+        <v>4.2</v>
+      </c>
+      <c r="P216">
+        <v>4.5</v>
+      </c>
+      <c r="Q216">
+        <v>-1</v>
+      </c>
+      <c r="R216">
+        <v>1.925</v>
+      </c>
+      <c r="S216">
+        <v>1.875</v>
+      </c>
+      <c r="T216">
         <v>3</v>
       </c>
-      <c r="J216" t="s">
-        <v>55</v>
-      </c>
-      <c r="K216">
-        <v>2.4</v>
-      </c>
-      <c r="L216">
-        <v>3.4</v>
-      </c>
-      <c r="M216">
-        <v>2.5</v>
-      </c>
-      <c r="N216">
-        <v>2.7</v>
-      </c>
-      <c r="O216">
-        <v>3.3</v>
-      </c>
-      <c r="P216">
-        <v>2.3</v>
-      </c>
-      <c r="Q216">
-        <v>0.25</v>
-      </c>
-      <c r="R216">
-        <v>1.725</v>
-      </c>
-      <c r="S216">
+      <c r="U216">
+        <v>1.825</v>
+      </c>
+      <c r="V216">
         <v>1.975</v>
       </c>
-      <c r="T216">
-        <v>2.75</v>
-      </c>
-      <c r="U216">
-        <v>1.9</v>
-      </c>
-      <c r="V216">
-        <v>1.9</v>
-      </c>
       <c r="W216">
         <v>-1</v>
       </c>
       <c r="X216">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y216">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z216">
         <v>-1</v>
       </c>
       <c r="AA216">
+        <v>0.875</v>
+      </c>
+      <c r="AB216">
+        <v>-1</v>
+      </c>
+      <c r="AC216">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB216">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC216">
-        <v>-1</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -19805,7 +19805,7 @@
         <v>1</v>
       </c>
       <c r="J217" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K217">
         <v>1.909</v>
@@ -19971,10 +19971,10 @@
         <v>45192.83333333334</v>
       </c>
       <c r="F219" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G219" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H219">
         <v>2</v>
@@ -19983,7 +19983,7 @@
         <v>1</v>
       </c>
       <c r="J219" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K219">
         <v>1.666</v>
@@ -20048,7 +20048,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>6126801</v>
+        <v>6387474</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20060,40 +20060,40 @@
         <v>45192.85416666666</v>
       </c>
       <c r="F220" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G220" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="H220">
         <v>2</v>
       </c>
       <c r="I220">
+        <v>1</v>
+      </c>
+      <c r="J220" t="s">
+        <v>56</v>
+      </c>
+      <c r="K220">
+        <v>1.666</v>
+      </c>
+      <c r="L220">
+        <v>3.75</v>
+      </c>
+      <c r="M220">
         <v>4</v>
       </c>
-      <c r="J220" t="s">
-        <v>55</v>
-      </c>
-      <c r="K220">
-        <v>1.909</v>
-      </c>
-      <c r="L220">
-        <v>3.4</v>
-      </c>
-      <c r="M220">
-        <v>3.4</v>
-      </c>
       <c r="N220">
-        <v>2</v>
+        <v>1.55</v>
       </c>
       <c r="O220">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="P220">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="Q220">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R220">
         <v>1.85</v>
@@ -20111,25 +20111,25 @@
         <v>1.975</v>
       </c>
       <c r="W220">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X220">
         <v>-1</v>
       </c>
       <c r="Y220">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z220">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA220">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
       <c r="AB220">
-        <v>0.825</v>
+        <v>0.4125</v>
       </c>
       <c r="AC220">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20137,7 +20137,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>6387474</v>
+        <v>6126798</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20149,58 +20149,58 @@
         <v>45192.85416666666</v>
       </c>
       <c r="F221" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="G221" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I221">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J221" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K221">
-        <v>1.666</v>
+        <v>1.5</v>
       </c>
       <c r="L221">
+        <v>4</v>
+      </c>
+      <c r="M221">
+        <v>5</v>
+      </c>
+      <c r="N221">
+        <v>1.75</v>
+      </c>
+      <c r="O221">
         <v>3.75</v>
       </c>
-      <c r="M221">
+      <c r="P221">
         <v>4</v>
       </c>
-      <c r="N221">
-        <v>1.55</v>
-      </c>
-      <c r="O221">
-        <v>4.333</v>
-      </c>
-      <c r="P221">
-        <v>4.75</v>
-      </c>
       <c r="Q221">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R221">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S221">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T221">
         <v>2.75</v>
       </c>
       <c r="U221">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V221">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W221">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="X221">
         <v>-1</v>
@@ -20209,13 +20209,13 @@
         <v>-1</v>
       </c>
       <c r="Z221">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA221">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB221">
-        <v>0.4125</v>
+        <v>0.475</v>
       </c>
       <c r="AC221">
         <v>-0.5</v>
@@ -20226,7 +20226,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>6126798</v>
+        <v>6126801</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20238,76 +20238,76 @@
         <v>45192.85416666666</v>
       </c>
       <c r="F222" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="G222" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H222">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I222">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J222" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K222">
-        <v>1.5</v>
+        <v>1.909</v>
       </c>
       <c r="L222">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M222">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="N222">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="O222">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P222">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="Q222">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R222">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S222">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T222">
         <v>2.75</v>
       </c>
       <c r="U222">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V222">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W222">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X222">
         <v>-1</v>
       </c>
       <c r="Y222">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z222">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA222">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB222">
-        <v>0.475</v>
+        <v>0.825</v>
       </c>
       <c r="AC222">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="223" spans="1:29">
@@ -20339,7 +20339,7 @@
         <v>0</v>
       </c>
       <c r="J223" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K223">
         <v>2.4</v>
@@ -20416,10 +20416,10 @@
         <v>45192.89583333334</v>
       </c>
       <c r="F224" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G224" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H224">
         <v>4</v>
@@ -20428,7 +20428,7 @@
         <v>0</v>
       </c>
       <c r="J224" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K224">
         <v>2.1</v>
@@ -20517,7 +20517,7 @@
         <v>1</v>
       </c>
       <c r="J225" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K225">
         <v>3.4</v>
@@ -20597,7 +20597,7 @@
         <v>50</v>
       </c>
       <c r="G226" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H226">
         <v>2</v>
@@ -20606,7 +20606,7 @@
         <v>2</v>
       </c>
       <c r="J226" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K226">
         <v>2</v>
@@ -20784,7 +20784,7 @@
         <v>1</v>
       </c>
       <c r="J228" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K228">
         <v>1.5</v>
@@ -20950,7 +20950,7 @@
         <v>45196.83333333334</v>
       </c>
       <c r="F230" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G230" t="s">
         <v>33</v>
@@ -21140,7 +21140,7 @@
         <v>0</v>
       </c>
       <c r="J232" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K232">
         <v>1.833</v>
@@ -21220,7 +21220,7 @@
         <v>47</v>
       </c>
       <c r="G233" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H233">
         <v>2</v>
@@ -21229,7 +21229,7 @@
         <v>0</v>
       </c>
       <c r="J233" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K233">
         <v>1.45</v>
@@ -21306,7 +21306,7 @@
         <v>45199.83333333334</v>
       </c>
       <c r="F234" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G234" t="s">
         <v>49</v>
@@ -21318,7 +21318,7 @@
         <v>2</v>
       </c>
       <c r="J234" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K234">
         <v>1.4</v>
@@ -21407,7 +21407,7 @@
         <v>0</v>
       </c>
       <c r="J235" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K235">
         <v>1.363</v>
@@ -21496,7 +21496,7 @@
         <v>1</v>
       </c>
       <c r="J236" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K236">
         <v>1.833</v>
@@ -21662,7 +21662,7 @@
         <v>45199.91666666666</v>
       </c>
       <c r="F238" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G238" t="s">
         <v>43</v>
@@ -21674,7 +21674,7 @@
         <v>0</v>
       </c>
       <c r="J238" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K238">
         <v>2.4</v>
@@ -21763,7 +21763,7 @@
         <v>2</v>
       </c>
       <c r="J239" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K239">
         <v>2.65</v>
@@ -21843,7 +21843,7 @@
         <v>50</v>
       </c>
       <c r="G240" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H240">
         <v>2</v>
@@ -21852,7 +21852,7 @@
         <v>2</v>
       </c>
       <c r="J240" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K240">
         <v>3</v>
@@ -21932,7 +21932,7 @@
         <v>40</v>
       </c>
       <c r="G241" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H241">
         <v>4</v>
@@ -21941,7 +21941,7 @@
         <v>1</v>
       </c>
       <c r="J241" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K241">
         <v>1.666</v>
@@ -22021,7 +22021,7 @@
         <v>44</v>
       </c>
       <c r="G242" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H242">
         <v>1</v>
@@ -22030,7 +22030,7 @@
         <v>1</v>
       </c>
       <c r="J242" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K242">
         <v>1.909</v>
@@ -22119,7 +22119,7 @@
         <v>0</v>
       </c>
       <c r="J243" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K243">
         <v>1.3</v>
@@ -22196,7 +22196,7 @@
         <v>45203.83333333334</v>
       </c>
       <c r="F244" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G244" t="s">
         <v>42</v>
@@ -22208,7 +22208,7 @@
         <v>2</v>
       </c>
       <c r="J244" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K244">
         <v>2.8</v>
@@ -22297,7 +22297,7 @@
         <v>0</v>
       </c>
       <c r="J245" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K245">
         <v>2.2</v>
@@ -22374,7 +22374,7 @@
         <v>45203.95833333334</v>
       </c>
       <c r="F246" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G246" t="s">
         <v>50</v>
@@ -22386,7 +22386,7 @@
         <v>1</v>
       </c>
       <c r="J246" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K246">
         <v>1.909</v>
@@ -22644,7 +22644,7 @@
         <v>33</v>
       </c>
       <c r="G249" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H249">
         <v>0</v>
@@ -22733,7 +22733,7 @@
         <v>43</v>
       </c>
       <c r="G250" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H250">
         <v>1</v>
@@ -22742,7 +22742,7 @@
         <v>1</v>
       </c>
       <c r="J250" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K250">
         <v>1.3</v>
@@ -22831,7 +22831,7 @@
         <v>0</v>
       </c>
       <c r="J251" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K251">
         <v>1.85</v>
@@ -23074,7 +23074,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>6488884</v>
+        <v>6488732</v>
       </c>
       <c r="C254" t="s">
         <v>28</v>
@@ -23086,58 +23086,58 @@
         <v>45206.95833333334</v>
       </c>
       <c r="F254" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G254" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="H254">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I254">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J254" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K254">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="L254">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M254">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="N254">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="O254">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P254">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="Q254">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R254">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S254">
-        <v>1.875</v>
+        <v>1.725</v>
       </c>
       <c r="T254">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U254">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V254">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W254">
-        <v>0.909</v>
+        <v>1.375</v>
       </c>
       <c r="X254">
         <v>-1</v>
@@ -23146,16 +23146,16 @@
         <v>-1</v>
       </c>
       <c r="Z254">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA254">
         <v>-1</v>
       </c>
       <c r="AB254">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC254">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="255" spans="1:29">
@@ -23163,7 +23163,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>6488732</v>
+        <v>6488884</v>
       </c>
       <c r="C255" t="s">
         <v>28</v>
@@ -23175,58 +23175,58 @@
         <v>45206.95833333334</v>
       </c>
       <c r="F255" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G255" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="H255">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I255">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J255" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K255">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="L255">
+        <v>3.6</v>
+      </c>
+      <c r="M255">
+        <v>3.75</v>
+      </c>
+      <c r="N255">
+        <v>1.909</v>
+      </c>
+      <c r="O255">
+        <v>3.75</v>
+      </c>
+      <c r="P255">
         <v>3.4</v>
       </c>
-      <c r="M255">
+      <c r="Q255">
+        <v>-0.5</v>
+      </c>
+      <c r="R255">
+        <v>1.925</v>
+      </c>
+      <c r="S255">
+        <v>1.875</v>
+      </c>
+      <c r="T255">
         <v>3</v>
       </c>
-      <c r="N255">
-        <v>2.375</v>
-      </c>
-      <c r="O255">
-        <v>3.4</v>
-      </c>
-      <c r="P255">
-        <v>2.9</v>
-      </c>
-      <c r="Q255">
-        <v>-0.25</v>
-      </c>
-      <c r="R255">
-        <v>1.975</v>
-      </c>
-      <c r="S255">
-        <v>1.725</v>
-      </c>
-      <c r="T255">
-        <v>2.5</v>
-      </c>
       <c r="U255">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V255">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W255">
-        <v>1.375</v>
+        <v>0.909</v>
       </c>
       <c r="X255">
         <v>-1</v>
@@ -23235,16 +23235,16 @@
         <v>-1</v>
       </c>
       <c r="Z255">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA255">
         <v>-1</v>
       </c>
       <c r="AB255">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC255">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="256" spans="1:29">
@@ -23356,7 +23356,7 @@
         <v>44</v>
       </c>
       <c r="G257" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H257">
         <v>1</v>
@@ -23445,7 +23445,7 @@
         <v>48</v>
       </c>
       <c r="G258" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H258">
         <v>2</v>
@@ -23454,7 +23454,7 @@
         <v>0</v>
       </c>
       <c r="J258" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K258">
         <v>1.95</v>
@@ -23531,7 +23531,7 @@
         <v>45212.83333333334</v>
       </c>
       <c r="F259" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G259" t="s">
         <v>49</v>
@@ -23620,7 +23620,7 @@
         <v>45212.91666666666</v>
       </c>
       <c r="F260" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G260" t="s">
         <v>34</v>
@@ -23632,7 +23632,7 @@
         <v>1</v>
       </c>
       <c r="J260" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K260">
         <v>2.375</v>
@@ -23712,7 +23712,7 @@
         <v>52</v>
       </c>
       <c r="G261" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H261">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="J261" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K261">
         <v>3</v>
@@ -23810,7 +23810,7 @@
         <v>0</v>
       </c>
       <c r="J262" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K262">
         <v>1.909</v>
@@ -23988,7 +23988,7 @@
         <v>0</v>
       </c>
       <c r="J264" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K264">
         <v>2.05</v>
@@ -24077,7 +24077,7 @@
         <v>1</v>
       </c>
       <c r="J265" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K265">
         <v>1.444</v>
@@ -24154,7 +24154,7 @@
         <v>45213.89583333334</v>
       </c>
       <c r="F266" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G266" t="s">
         <v>41</v>
@@ -24166,7 +24166,7 @@
         <v>3</v>
       </c>
       <c r="J266" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K266">
         <v>1.615</v>
@@ -24231,7 +24231,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>6504524</v>
+        <v>6492480</v>
       </c>
       <c r="C267" t="s">
         <v>28</v>
@@ -24243,37 +24243,37 @@
         <v>45213.95833333334</v>
       </c>
       <c r="F267" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G267" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H267">
         <v>1</v>
       </c>
       <c r="I267">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J267" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K267">
-        <v>1.533</v>
+        <v>1.95</v>
       </c>
       <c r="L267">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M267">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="N267">
-        <v>1.7</v>
+        <v>1.727</v>
       </c>
       <c r="O267">
         <v>3.75</v>
       </c>
       <c r="P267">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="Q267">
         <v>-0.75</v>
@@ -24288,31 +24288,31 @@
         <v>2.75</v>
       </c>
       <c r="U267">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V267">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W267">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X267">
         <v>-1</v>
       </c>
       <c r="Y267">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z267">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA267">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB267">
+        <v>0.4</v>
+      </c>
+      <c r="AC267">
         <v>-0.5</v>
-      </c>
-      <c r="AB267">
-        <v>-1</v>
-      </c>
-      <c r="AC267">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="268" spans="1:29">
@@ -24320,7 +24320,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>6492480</v>
+        <v>6504524</v>
       </c>
       <c r="C268" t="s">
         <v>28</v>
@@ -24332,37 +24332,37 @@
         <v>45213.95833333334</v>
       </c>
       <c r="F268" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G268" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H268">
         <v>1</v>
       </c>
       <c r="I268">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J268" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K268">
-        <v>1.95</v>
+        <v>1.533</v>
       </c>
       <c r="L268">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M268">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="N268">
-        <v>1.727</v>
+        <v>1.7</v>
       </c>
       <c r="O268">
         <v>3.75</v>
       </c>
       <c r="P268">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q268">
         <v>-0.75</v>
@@ -24377,31 +24377,31 @@
         <v>2.75</v>
       </c>
       <c r="U268">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V268">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W268">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X268">
         <v>-1</v>
       </c>
       <c r="Y268">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z268">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA268">
+        <v>-0.5</v>
+      </c>
+      <c r="AB268">
+        <v>-1</v>
+      </c>
+      <c r="AC268">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB268">
-        <v>0.4</v>
-      </c>
-      <c r="AC268">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="269" spans="1:29">
@@ -24421,10 +24421,10 @@
         <v>45213.95833333334</v>
       </c>
       <c r="F269" t="s">
+        <v>37</v>
+      </c>
+      <c r="G269" t="s">
         <v>38</v>
-      </c>
-      <c r="G269" t="s">
-        <v>37</v>
       </c>
       <c r="H269">
         <v>0</v>
@@ -24688,7 +24688,7 @@
         <v>45220.83333333334</v>
       </c>
       <c r="F272" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G272" t="s">
         <v>52</v>
@@ -24866,7 +24866,7 @@
         <v>45220.91666666666</v>
       </c>
       <c r="F274" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G274" t="s">
         <v>30</v>
@@ -24878,7 +24878,7 @@
         <v>0</v>
       </c>
       <c r="J274" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K274">
         <v>1.833</v>
@@ -24958,7 +24958,7 @@
         <v>51</v>
       </c>
       <c r="G275" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H275">
         <v>1</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="J275" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K275">
         <v>1.571</v>
@@ -25044,7 +25044,7 @@
         <v>45220.97916666666</v>
       </c>
       <c r="F276" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G276" t="s">
         <v>46</v>
@@ -25056,7 +25056,7 @@
         <v>0</v>
       </c>
       <c r="J276" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K276">
         <v>1.727</v>
@@ -25145,7 +25145,7 @@
         <v>0</v>
       </c>
       <c r="J277" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K277">
         <v>2</v>
@@ -25314,7 +25314,7 @@
         <v>51</v>
       </c>
       <c r="G279" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H279">
         <v>3</v>
@@ -25323,7 +25323,7 @@
         <v>1</v>
       </c>
       <c r="J279" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K279">
         <v>2.1</v>
@@ -25412,7 +25412,7 @@
         <v>1</v>
       </c>
       <c r="J280" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K280">
         <v>1.909</v>
@@ -25501,7 +25501,7 @@
         <v>0</v>
       </c>
       <c r="J281" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K281">
         <v>1.7</v>
@@ -25578,7 +25578,7 @@
         <v>45227.95833333334</v>
       </c>
       <c r="F282" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G282" t="s">
         <v>44</v>
@@ -25679,7 +25679,7 @@
         <v>1</v>
       </c>
       <c r="J283" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K283">
         <v>2.3</v>
@@ -25934,10 +25934,10 @@
         <v>45360.75</v>
       </c>
       <c r="F286" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G286" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H286">
         <v>1</v>
@@ -25946,7 +25946,7 @@
         <v>0</v>
       </c>
       <c r="J286" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K286">
         <v>2.2</v>
@@ -26035,7 +26035,7 @@
         <v>1</v>
       </c>
       <c r="J287" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K287">
         <v>1.571</v>
@@ -26124,7 +26124,7 @@
         <v>0</v>
       </c>
       <c r="J288" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K288">
         <v>2.25</v>
@@ -26213,7 +26213,7 @@
         <v>0</v>
       </c>
       <c r="J289" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K289">
         <v>2.25</v>
@@ -26290,7 +26290,7 @@
         <v>45360.9375</v>
       </c>
       <c r="F290" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G290" t="s">
         <v>39</v>
@@ -26302,7 +26302,7 @@
         <v>2</v>
       </c>
       <c r="J290" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K290">
         <v>1.363</v>
@@ -26382,7 +26382,7 @@
         <v>46</v>
       </c>
       <c r="G291" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H291">
         <v>0</v>
@@ -26545,7 +26545,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>7689546</v>
+        <v>7689545</v>
       </c>
       <c r="C293" t="s">
         <v>28</v>
@@ -26557,73 +26557,73 @@
         <v>45361</v>
       </c>
       <c r="F293" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G293" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H293">
         <v>2</v>
       </c>
       <c r="I293">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J293" t="s">
         <v>56</v>
       </c>
       <c r="K293">
-        <v>1.533</v>
+        <v>2.3</v>
       </c>
       <c r="L293">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M293">
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="N293">
-        <v>1.75</v>
+        <v>2.45</v>
       </c>
       <c r="O293">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P293">
-        <v>3.8</v>
+        <v>2.5</v>
       </c>
       <c r="Q293">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R293">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S293">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T293">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U293">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V293">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W293">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X293">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y293">
         <v>-1</v>
       </c>
       <c r="Z293">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA293">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB293">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC293">
         <v>-1</v>
@@ -26634,7 +26634,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>7689545</v>
+        <v>7689546</v>
       </c>
       <c r="C294" t="s">
         <v>28</v>
@@ -26646,73 +26646,73 @@
         <v>45361</v>
       </c>
       <c r="F294" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G294" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H294">
         <v>2</v>
       </c>
       <c r="I294">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J294" t="s">
         <v>57</v>
       </c>
       <c r="K294">
-        <v>2.3</v>
+        <v>1.533</v>
       </c>
       <c r="L294">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M294">
+        <v>5</v>
+      </c>
+      <c r="N294">
+        <v>1.75</v>
+      </c>
+      <c r="O294">
+        <v>3.6</v>
+      </c>
+      <c r="P294">
+        <v>3.8</v>
+      </c>
+      <c r="Q294">
+        <v>-0.75</v>
+      </c>
+      <c r="R294">
+        <v>2.025</v>
+      </c>
+      <c r="S294">
+        <v>1.775</v>
+      </c>
+      <c r="T294">
+        <v>2.25</v>
+      </c>
+      <c r="U294">
+        <v>1.775</v>
+      </c>
+      <c r="V294">
+        <v>2.025</v>
+      </c>
+      <c r="W294">
+        <v>-1</v>
+      </c>
+      <c r="X294">
         <v>2.6</v>
       </c>
-      <c r="N294">
-        <v>2.45</v>
-      </c>
-      <c r="O294">
-        <v>3.3</v>
-      </c>
-      <c r="P294">
-        <v>2.5</v>
-      </c>
-      <c r="Q294">
-        <v>0</v>
-      </c>
-      <c r="R294">
-        <v>1.85</v>
-      </c>
-      <c r="S294">
-        <v>1.95</v>
-      </c>
-      <c r="T294">
-        <v>2.5</v>
-      </c>
-      <c r="U294">
-        <v>1.825</v>
-      </c>
-      <c r="V294">
-        <v>1.975</v>
-      </c>
-      <c r="W294">
-        <v>1.45</v>
-      </c>
-      <c r="X294">
-        <v>-1</v>
-      </c>
       <c r="Y294">
         <v>-1</v>
       </c>
       <c r="Z294">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA294">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB294">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC294">
         <v>-1</v>
@@ -26738,7 +26738,7 @@
         <v>46</v>
       </c>
       <c r="G295" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H295">
         <v>1</v>
@@ -26747,7 +26747,7 @@
         <v>1</v>
       </c>
       <c r="J295" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K295">
         <v>1.95</v>
@@ -26925,7 +26925,7 @@
         <v>1</v>
       </c>
       <c r="J297" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K297">
         <v>2.25</v>
@@ -27180,10 +27180,10 @@
         <v>45367.83333333334</v>
       </c>
       <c r="F300" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G300" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H300">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>33</v>
       </c>
       <c r="G301" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H301">
         <v>2</v>
@@ -27281,7 +27281,7 @@
         <v>2</v>
       </c>
       <c r="J301" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K301">
         <v>2.1</v>
@@ -27548,7 +27548,7 @@
         <v>1</v>
       </c>
       <c r="J304" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K304">
         <v>2.4</v>
@@ -27625,7 +27625,7 @@
         <v>45367.95833333334</v>
       </c>
       <c r="F305" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G305" t="s">
         <v>44</v>
@@ -27637,7 +27637,7 @@
         <v>0</v>
       </c>
       <c r="J305" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K305">
         <v>2.6</v>
@@ -27714,7 +27714,7 @@
         <v>45374.625</v>
       </c>
       <c r="F306" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G306" t="s">
         <v>48</v>
@@ -27726,7 +27726,7 @@
         <v>0</v>
       </c>
       <c r="J306" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K306">
         <v>2.6</v>
@@ -27815,7 +27815,7 @@
         <v>1</v>
       </c>
       <c r="J307" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K307">
         <v>2</v>
@@ -27895,7 +27895,7 @@
         <v>43</v>
       </c>
       <c r="G308" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H308">
         <v>3</v>
@@ -27904,7 +27904,7 @@
         <v>1</v>
       </c>
       <c r="J308" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K308">
         <v>2.5</v>
@@ -27969,7 +27969,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>7689564</v>
+        <v>7689561</v>
       </c>
       <c r="C309" t="s">
         <v>28</v>
@@ -27981,10 +27981,10 @@
         <v>45374.83333333334</v>
       </c>
       <c r="F309" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="G309" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="H309">
         <v>1</v>
@@ -27993,64 +27993,64 @@
         <v>1</v>
       </c>
       <c r="J309" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K309">
+        <v>2.5</v>
+      </c>
+      <c r="L309">
+        <v>3.4</v>
+      </c>
+      <c r="M309">
+        <v>2.375</v>
+      </c>
+      <c r="N309">
+        <v>2.3</v>
+      </c>
+      <c r="O309">
+        <v>3.4</v>
+      </c>
+      <c r="P309">
+        <v>2.7</v>
+      </c>
+      <c r="Q309">
+        <v>0</v>
+      </c>
+      <c r="R309">
+        <v>1.75</v>
+      </c>
+      <c r="S309">
+        <v>2.05</v>
+      </c>
+      <c r="T309">
         <v>2.75</v>
       </c>
-      <c r="L309">
-        <v>3.25</v>
-      </c>
-      <c r="M309">
-        <v>2.25</v>
-      </c>
-      <c r="N309">
-        <v>2.375</v>
-      </c>
-      <c r="O309">
-        <v>3.2</v>
-      </c>
-      <c r="P309">
-        <v>2.8</v>
-      </c>
-      <c r="Q309">
-        <v>-0.25</v>
-      </c>
-      <c r="R309">
-        <v>2.025</v>
-      </c>
-      <c r="S309">
-        <v>1.775</v>
-      </c>
-      <c r="T309">
-        <v>2.25</v>
-      </c>
       <c r="U309">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V309">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W309">
         <v>-1</v>
       </c>
       <c r="X309">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="Y309">
         <v>-1</v>
       </c>
       <c r="Z309">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA309">
-        <v>0.3875</v>
+        <v>-0</v>
       </c>
       <c r="AB309">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC309">
-        <v>0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="310" spans="1:29">
@@ -28058,7 +28058,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>7689561</v>
+        <v>7689564</v>
       </c>
       <c r="C310" t="s">
         <v>28</v>
@@ -28070,10 +28070,10 @@
         <v>45374.83333333334</v>
       </c>
       <c r="F310" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="G310" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="H310">
         <v>1</v>
@@ -28082,64 +28082,64 @@
         <v>1</v>
       </c>
       <c r="J310" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K310">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="L310">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M310">
+        <v>2.25</v>
+      </c>
+      <c r="N310">
         <v>2.375</v>
       </c>
-      <c r="N310">
-        <v>2.3</v>
-      </c>
       <c r="O310">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P310">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="Q310">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R310">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="S310">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="T310">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U310">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V310">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W310">
         <v>-1</v>
       </c>
       <c r="X310">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="Y310">
         <v>-1</v>
       </c>
       <c r="Z310">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA310">
-        <v>-0</v>
+        <v>0.3875</v>
       </c>
       <c r="AB310">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC310">
-        <v>0.8500000000000001</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="311" spans="1:29">
@@ -28162,7 +28162,7 @@
         <v>29</v>
       </c>
       <c r="G311" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H311">
         <v>4</v>
@@ -28171,7 +28171,7 @@
         <v>0</v>
       </c>
       <c r="J311" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K311">
         <v>1.833</v>
@@ -28260,7 +28260,7 @@
         <v>0</v>
       </c>
       <c r="J312" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K312">
         <v>2.7</v>
@@ -28337,7 +28337,7 @@
         <v>45374.89583333334</v>
       </c>
       <c r="F313" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G313" t="s">
         <v>30</v>
@@ -28349,7 +28349,7 @@
         <v>0</v>
       </c>
       <c r="J313" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K313">
         <v>1.909</v>
@@ -28438,7 +28438,7 @@
         <v>0</v>
       </c>
       <c r="J314" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K314">
         <v>2.1</v>
@@ -28515,7 +28515,7 @@
         <v>45374.95833333334</v>
       </c>
       <c r="F315" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G315" t="s">
         <v>47</v>
@@ -28527,7 +28527,7 @@
         <v>2</v>
       </c>
       <c r="J315" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K315">
         <v>1.727</v>
@@ -28604,7 +28604,7 @@
         <v>45375.79166666666</v>
       </c>
       <c r="F316" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G316" t="s">
         <v>54</v>
@@ -28616,7 +28616,7 @@
         <v>2</v>
       </c>
       <c r="J316" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K316">
         <v>1.833</v>
@@ -28681,7 +28681,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>7689567</v>
+        <v>7689568</v>
       </c>
       <c r="C317" t="s">
         <v>28</v>
@@ -28690,49 +28690,49 @@
         <v>28</v>
       </c>
       <c r="E317" s="2">
-        <v>45380.83333333334</v>
+        <v>45381.83333333334</v>
       </c>
       <c r="F317" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="G317" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="K317">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L317">
         <v>3.4</v>
       </c>
       <c r="M317">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="N317">
-        <v>1.909</v>
+        <v>1.615</v>
       </c>
       <c r="O317">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P317">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q317">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R317">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S317">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T317">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U317">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V317">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W317">
         <v>0</v>
@@ -28755,7 +28755,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>7689569</v>
+        <v>7689570</v>
       </c>
       <c r="C318" t="s">
         <v>28</v>
@@ -28764,49 +28764,49 @@
         <v>28</v>
       </c>
       <c r="E318" s="2">
-        <v>45381.70833333334</v>
+        <v>45381.83333333334</v>
       </c>
       <c r="F318" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G318" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="K318">
-        <v>1.909</v>
+        <v>2.7</v>
       </c>
       <c r="L318">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M318">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="N318">
-        <v>1.7</v>
+        <v>5.25</v>
       </c>
       <c r="O318">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P318">
-        <v>4.2</v>
+        <v>1.5</v>
       </c>
       <c r="Q318">
-        <v>-0.75</v>
+        <v>1</v>
       </c>
       <c r="R318">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S318">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T318">
         <v>2.5</v>
       </c>
       <c r="U318">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V318">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W318">
         <v>0</v>
@@ -28829,7 +28829,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>7689570</v>
+        <v>7710083</v>
       </c>
       <c r="C319" t="s">
         <v>28</v>
@@ -28838,49 +28838,49 @@
         <v>28</v>
       </c>
       <c r="E319" s="2">
-        <v>45381.83333333334</v>
+        <v>45381.85416666666</v>
       </c>
       <c r="F319" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="G319" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="K319">
-        <v>2.7</v>
+        <v>1.666</v>
       </c>
       <c r="L319">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M319">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="N319">
-        <v>3.2</v>
+        <v>1.666</v>
       </c>
       <c r="O319">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P319">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q319">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R319">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S319">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T319">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U319">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V319">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W319">
         <v>0</v>
@@ -28903,7 +28903,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>7689568</v>
+        <v>7689574</v>
       </c>
       <c r="C320" t="s">
         <v>28</v>
@@ -28912,49 +28912,49 @@
         <v>28</v>
       </c>
       <c r="E320" s="2">
-        <v>45381.83333333334</v>
+        <v>45381.89583333334</v>
       </c>
       <c r="F320" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G320" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="K320">
-        <v>2</v>
+        <v>1.571</v>
       </c>
       <c r="L320">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M320">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="N320">
-        <v>1.85</v>
+        <v>1.5</v>
       </c>
       <c r="O320">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P320">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="Q320">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R320">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S320">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T320">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U320">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V320">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W320">
         <v>0</v>
@@ -28977,7 +28977,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>7710083</v>
+        <v>7689573</v>
       </c>
       <c r="C321" t="s">
         <v>28</v>
@@ -28986,13 +28986,13 @@
         <v>28</v>
       </c>
       <c r="E321" s="2">
-        <v>45381.85416666666</v>
+        <v>45381.95833333334</v>
       </c>
       <c r="F321" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="G321" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="K321">
         <v>1.666</v>
@@ -29004,31 +29004,31 @@
         <v>4</v>
       </c>
       <c r="N321">
-        <v>1.666</v>
+        <v>1.571</v>
       </c>
       <c r="O321">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P321">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="Q321">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R321">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S321">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T321">
         <v>2.75</v>
       </c>
       <c r="U321">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V321">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W321">
         <v>0</v>
@@ -29051,7 +29051,7 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>7689574</v>
+        <v>7689840</v>
       </c>
       <c r="C322" t="s">
         <v>28</v>
@@ -29060,49 +29060,49 @@
         <v>28</v>
       </c>
       <c r="E322" s="2">
-        <v>45381.89583333334</v>
+        <v>45381.95833333334</v>
       </c>
       <c r="F322" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="G322" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="K322">
-        <v>1.571</v>
+        <v>1.909</v>
       </c>
       <c r="L322">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M322">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="N322">
-        <v>1.533</v>
+        <v>2.25</v>
       </c>
       <c r="O322">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="P322">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="Q322">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R322">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S322">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T322">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U322">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V322">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W322">
         <v>0</v>
@@ -29137,7 +29137,7 @@
         <v>45381.95833333334</v>
       </c>
       <c r="F323" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G323" t="s">
         <v>49</v>
@@ -29152,13 +29152,13 @@
         <v>4.333</v>
       </c>
       <c r="N323">
-        <v>1.65</v>
+        <v>1.615</v>
       </c>
       <c r="O323">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P323">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="Q323">
         <v>-0.75</v>
@@ -29173,10 +29173,10 @@
         <v>2.75</v>
       </c>
       <c r="U323">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V323">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W323">
         <v>0</v>
@@ -29199,7 +29199,7 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>7689840</v>
+        <v>7689572</v>
       </c>
       <c r="C324" t="s">
         <v>28</v>
@@ -29208,13 +29208,13 @@
         <v>28</v>
       </c>
       <c r="E324" s="2">
-        <v>45381.95833333334</v>
+        <v>45381.97916666666</v>
       </c>
       <c r="F324" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G324" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="K324">
         <v>1.909</v>
@@ -29226,31 +29226,31 @@
         <v>3.4</v>
       </c>
       <c r="N324">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="O324">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P324">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="Q324">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R324">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S324">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T324">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U324">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V324">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W324">
         <v>0</v>
@@ -29265,154 +29265,6 @@
         <v>0</v>
       </c>
       <c r="AA324">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="325" spans="1:27">
-      <c r="A325" s="1">
-        <v>323</v>
-      </c>
-      <c r="B325">
-        <v>7689573</v>
-      </c>
-      <c r="C325" t="s">
-        <v>28</v>
-      </c>
-      <c r="D325" t="s">
-        <v>28</v>
-      </c>
-      <c r="E325" s="2">
-        <v>45381.95833333334</v>
-      </c>
-      <c r="F325" t="s">
-        <v>51</v>
-      </c>
-      <c r="G325" t="s">
-        <v>34</v>
-      </c>
-      <c r="K325">
-        <v>1.666</v>
-      </c>
-      <c r="L325">
-        <v>3.75</v>
-      </c>
-      <c r="M325">
-        <v>4</v>
-      </c>
-      <c r="N325">
-        <v>1.666</v>
-      </c>
-      <c r="O325">
-        <v>3.75</v>
-      </c>
-      <c r="P325">
-        <v>4</v>
-      </c>
-      <c r="Q325">
-        <v>-0.75</v>
-      </c>
-      <c r="R325">
-        <v>1.925</v>
-      </c>
-      <c r="S325">
-        <v>1.875</v>
-      </c>
-      <c r="T325">
-        <v>2.5</v>
-      </c>
-      <c r="U325">
-        <v>1.825</v>
-      </c>
-      <c r="V325">
-        <v>1.975</v>
-      </c>
-      <c r="W325">
-        <v>0</v>
-      </c>
-      <c r="X325">
-        <v>0</v>
-      </c>
-      <c r="Y325">
-        <v>0</v>
-      </c>
-      <c r="Z325">
-        <v>0</v>
-      </c>
-      <c r="AA325">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="326" spans="1:27">
-      <c r="A326" s="1">
-        <v>324</v>
-      </c>
-      <c r="B326">
-        <v>7689572</v>
-      </c>
-      <c r="C326" t="s">
-        <v>28</v>
-      </c>
-      <c r="D326" t="s">
-        <v>28</v>
-      </c>
-      <c r="E326" s="2">
-        <v>45381.97916666666</v>
-      </c>
-      <c r="F326" t="s">
-        <v>44</v>
-      </c>
-      <c r="G326" t="s">
-        <v>35</v>
-      </c>
-      <c r="K326">
-        <v>1.909</v>
-      </c>
-      <c r="L326">
-        <v>3.4</v>
-      </c>
-      <c r="M326">
-        <v>3.4</v>
-      </c>
-      <c r="N326">
-        <v>1.75</v>
-      </c>
-      <c r="O326">
-        <v>3.5</v>
-      </c>
-      <c r="P326">
-        <v>4</v>
-      </c>
-      <c r="Q326">
-        <v>-0.75</v>
-      </c>
-      <c r="R326">
-        <v>1.95</v>
-      </c>
-      <c r="S326">
-        <v>1.85</v>
-      </c>
-      <c r="T326">
-        <v>2.5</v>
-      </c>
-      <c r="U326">
-        <v>1.8</v>
-      </c>
-      <c r="V326">
-        <v>2</v>
-      </c>
-      <c r="W326">
-        <v>0</v>
-      </c>
-      <c r="X326">
-        <v>0</v>
-      </c>
-      <c r="Y326">
-        <v>0</v>
-      </c>
-      <c r="Z326">
-        <v>0</v>
-      </c>
-      <c r="AA326">
         <v>0</v>
       </c>
     </row>

--- a/USA USL Championship/USA USL Championship.xlsx
+++ b/USA USL Championship/USA USL Championship.xlsx
@@ -26901,7 +26901,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>7689550</v>
+        <v>7689554</v>
       </c>
       <c r="C297" t="s">
         <v>28</v>
@@ -26913,49 +26913,49 @@
         <v>45367.70833333334</v>
       </c>
       <c r="F297" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G297" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="H297">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I297">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J297" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K297">
         <v>2.25</v>
       </c>
       <c r="L297">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M297">
+        <v>2.75</v>
+      </c>
+      <c r="N297">
+        <v>1.909</v>
+      </c>
+      <c r="O297">
+        <v>3.4</v>
+      </c>
+      <c r="P297">
+        <v>3.4</v>
+      </c>
+      <c r="Q297">
+        <v>-0.25</v>
+      </c>
+      <c r="R297">
+        <v>1.8</v>
+      </c>
+      <c r="S297">
+        <v>2</v>
+      </c>
+      <c r="T297">
         <v>2.5</v>
-      </c>
-      <c r="N297">
-        <v>2.625</v>
-      </c>
-      <c r="O297">
-        <v>3.8</v>
-      </c>
-      <c r="P297">
-        <v>2.1</v>
-      </c>
-      <c r="Q297">
-        <v>0.25</v>
-      </c>
-      <c r="R297">
-        <v>1.85</v>
-      </c>
-      <c r="S297">
-        <v>1.95</v>
-      </c>
-      <c r="T297">
-        <v>2.75</v>
       </c>
       <c r="U297">
         <v>1.85</v>
@@ -26964,19 +26964,19 @@
         <v>1.95</v>
       </c>
       <c r="W297">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X297">
         <v>-1</v>
       </c>
       <c r="Y297">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z297">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA297">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB297">
         <v>0.8500000000000001</v>
@@ -26990,7 +26990,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>7689554</v>
+        <v>7689550</v>
       </c>
       <c r="C298" t="s">
         <v>28</v>
@@ -27002,49 +27002,49 @@
         <v>45367.70833333334</v>
       </c>
       <c r="F298" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G298" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="H298">
+        <v>3</v>
+      </c>
+      <c r="I298">
         <v>1</v>
       </c>
-      <c r="I298">
-        <v>2</v>
-      </c>
       <c r="J298" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K298">
         <v>2.25</v>
       </c>
       <c r="L298">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M298">
+        <v>2.5</v>
+      </c>
+      <c r="N298">
+        <v>2.625</v>
+      </c>
+      <c r="O298">
+        <v>3.8</v>
+      </c>
+      <c r="P298">
+        <v>2.1</v>
+      </c>
+      <c r="Q298">
+        <v>0.25</v>
+      </c>
+      <c r="R298">
+        <v>1.85</v>
+      </c>
+      <c r="S298">
+        <v>1.95</v>
+      </c>
+      <c r="T298">
         <v>2.75</v>
-      </c>
-      <c r="N298">
-        <v>1.909</v>
-      </c>
-      <c r="O298">
-        <v>3.4</v>
-      </c>
-      <c r="P298">
-        <v>3.4</v>
-      </c>
-      <c r="Q298">
-        <v>-0.25</v>
-      </c>
-      <c r="R298">
-        <v>1.8</v>
-      </c>
-      <c r="S298">
-        <v>2</v>
-      </c>
-      <c r="T298">
-        <v>2.5</v>
       </c>
       <c r="U298">
         <v>1.85</v>
@@ -27053,19 +27053,19 @@
         <v>1.95</v>
       </c>
       <c r="W298">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X298">
         <v>-1</v>
       </c>
       <c r="Y298">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z298">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA298">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB298">
         <v>0.8500000000000001</v>
@@ -27346,7 +27346,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>7689555</v>
+        <v>7689556</v>
       </c>
       <c r="C302" t="s">
         <v>28</v>
@@ -27358,55 +27358,55 @@
         <v>45367.875</v>
       </c>
       <c r="F302" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G302" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H302">
         <v>1</v>
       </c>
       <c r="I302">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J302" t="s">
         <v>55</v>
       </c>
       <c r="K302">
+        <v>1.909</v>
+      </c>
+      <c r="L302">
+        <v>3.6</v>
+      </c>
+      <c r="M302">
+        <v>3.2</v>
+      </c>
+      <c r="N302">
+        <v>1.45</v>
+      </c>
+      <c r="O302">
+        <v>4</v>
+      </c>
+      <c r="P302">
+        <v>5.25</v>
+      </c>
+      <c r="Q302">
+        <v>-1</v>
+      </c>
+      <c r="R302">
+        <v>1.8</v>
+      </c>
+      <c r="S302">
+        <v>2</v>
+      </c>
+      <c r="T302">
         <v>2.5</v>
       </c>
-      <c r="L302">
-        <v>3.2</v>
-      </c>
-      <c r="M302">
-        <v>2.5</v>
-      </c>
-      <c r="N302">
-        <v>1.95</v>
-      </c>
-      <c r="O302">
-        <v>3.3</v>
-      </c>
-      <c r="P302">
-        <v>3.2</v>
-      </c>
-      <c r="Q302">
-        <v>-0.25</v>
-      </c>
-      <c r="R302">
-        <v>1.825</v>
-      </c>
-      <c r="S302">
-        <v>1.975</v>
-      </c>
-      <c r="T302">
-        <v>2.75</v>
-      </c>
       <c r="U302">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V302">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W302">
         <v>-1</v>
@@ -27415,16 +27415,16 @@
         <v>-1</v>
       </c>
       <c r="Y302">
-        <v>2.2</v>
+        <v>4.25</v>
       </c>
       <c r="Z302">
         <v>-1</v>
       </c>
       <c r="AA302">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB302">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC302">
         <v>-1</v>
@@ -27435,7 +27435,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>7689556</v>
+        <v>7689555</v>
       </c>
       <c r="C303" t="s">
         <v>28</v>
@@ -27447,55 +27447,55 @@
         <v>45367.875</v>
       </c>
       <c r="F303" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G303" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H303">
         <v>1</v>
       </c>
       <c r="I303">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J303" t="s">
         <v>55</v>
       </c>
       <c r="K303">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="L303">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M303">
+        <v>2.5</v>
+      </c>
+      <c r="N303">
+        <v>1.95</v>
+      </c>
+      <c r="O303">
+        <v>3.3</v>
+      </c>
+      <c r="P303">
         <v>3.2</v>
       </c>
-      <c r="N303">
-        <v>1.45</v>
-      </c>
-      <c r="O303">
-        <v>4</v>
-      </c>
-      <c r="P303">
-        <v>5.25</v>
-      </c>
       <c r="Q303">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R303">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S303">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T303">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U303">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V303">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W303">
         <v>-1</v>
@@ -27504,16 +27504,16 @@
         <v>-1</v>
       </c>
       <c r="Y303">
-        <v>4.25</v>
+        <v>2.2</v>
       </c>
       <c r="Z303">
         <v>-1</v>
       </c>
       <c r="AA303">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB303">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC303">
         <v>-1</v>
@@ -27969,7 +27969,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>7689564</v>
+        <v>7689561</v>
       </c>
       <c r="C309" t="s">
         <v>28</v>
@@ -27981,10 +27981,10 @@
         <v>45374.83333333334</v>
       </c>
       <c r="F309" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="G309" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="H309">
         <v>1</v>
@@ -27996,61 +27996,61 @@
         <v>57</v>
       </c>
       <c r="K309">
+        <v>2.5</v>
+      </c>
+      <c r="L309">
+        <v>3.4</v>
+      </c>
+      <c r="M309">
+        <v>2.375</v>
+      </c>
+      <c r="N309">
+        <v>2.3</v>
+      </c>
+      <c r="O309">
+        <v>3.4</v>
+      </c>
+      <c r="P309">
+        <v>2.7</v>
+      </c>
+      <c r="Q309">
+        <v>0</v>
+      </c>
+      <c r="R309">
+        <v>1.75</v>
+      </c>
+      <c r="S309">
+        <v>2.05</v>
+      </c>
+      <c r="T309">
         <v>2.75</v>
       </c>
-      <c r="L309">
-        <v>3.25</v>
-      </c>
-      <c r="M309">
-        <v>2.25</v>
-      </c>
-      <c r="N309">
-        <v>2.375</v>
-      </c>
-      <c r="O309">
-        <v>3.2</v>
-      </c>
-      <c r="P309">
-        <v>2.8</v>
-      </c>
-      <c r="Q309">
-        <v>-0.25</v>
-      </c>
-      <c r="R309">
-        <v>2.025</v>
-      </c>
-      <c r="S309">
-        <v>1.775</v>
-      </c>
-      <c r="T309">
-        <v>2.25</v>
-      </c>
       <c r="U309">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V309">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W309">
         <v>-1</v>
       </c>
       <c r="X309">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="Y309">
         <v>-1</v>
       </c>
       <c r="Z309">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA309">
-        <v>0.3875</v>
+        <v>-0</v>
       </c>
       <c r="AB309">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC309">
-        <v>0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="310" spans="1:29">
@@ -28058,7 +28058,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>7689561</v>
+        <v>7689564</v>
       </c>
       <c r="C310" t="s">
         <v>28</v>
@@ -28070,10 +28070,10 @@
         <v>45374.83333333334</v>
       </c>
       <c r="F310" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="G310" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="H310">
         <v>1</v>
@@ -28085,61 +28085,61 @@
         <v>57</v>
       </c>
       <c r="K310">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="L310">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M310">
+        <v>2.25</v>
+      </c>
+      <c r="N310">
         <v>2.375</v>
       </c>
-      <c r="N310">
-        <v>2.3</v>
-      </c>
       <c r="O310">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P310">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="Q310">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R310">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="S310">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="T310">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U310">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V310">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W310">
         <v>-1</v>
       </c>
       <c r="X310">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="Y310">
         <v>-1</v>
       </c>
       <c r="Z310">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA310">
-        <v>-0</v>
+        <v>0.3875</v>
       </c>
       <c r="AB310">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC310">
-        <v>0.8500000000000001</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="311" spans="1:29">
@@ -29215,7 +29215,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>7689571</v>
+        <v>7689840</v>
       </c>
       <c r="C323" t="s">
         <v>28</v>
@@ -29227,49 +29227,49 @@
         <v>45381.95833333334</v>
       </c>
       <c r="F323" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="G323" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H323">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I323">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J323" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K323">
-        <v>1.615</v>
+        <v>1.909</v>
       </c>
       <c r="L323">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M323">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="N323">
-        <v>1.7</v>
+        <v>2.25</v>
       </c>
       <c r="O323">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P323">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="Q323">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R323">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S323">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T323">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U323">
         <v>1.9</v>
@@ -29278,25 +29278,25 @@
         <v>1.9</v>
       </c>
       <c r="W323">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X323">
         <v>-1</v>
       </c>
       <c r="Y323">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z323">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA323">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB323">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC323">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="324" spans="1:29">
@@ -29393,7 +29393,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>7689840</v>
+        <v>7689571</v>
       </c>
       <c r="C325" t="s">
         <v>28</v>
@@ -29405,49 +29405,49 @@
         <v>45381.95833333334</v>
       </c>
       <c r="F325" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="G325" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="H325">
+        <v>1</v>
+      </c>
+      <c r="I325">
         <v>0</v>
       </c>
-      <c r="I325">
-        <v>3</v>
-      </c>
       <c r="J325" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K325">
-        <v>1.909</v>
+        <v>1.615</v>
       </c>
       <c r="L325">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M325">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="N325">
-        <v>2.25</v>
+        <v>1.7</v>
       </c>
       <c r="O325">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P325">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="Q325">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R325">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S325">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T325">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U325">
         <v>1.9</v>
@@ -29456,25 +29456,25 @@
         <v>1.9</v>
       </c>
       <c r="W325">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X325">
         <v>-1</v>
       </c>
       <c r="Y325">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z325">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA325">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB325">
+        <v>-1</v>
+      </c>
+      <c r="AC325">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC325">
-        <v>-1</v>
       </c>
     </row>
     <row r="326" spans="1:29">

--- a/USA USL Championship/USA USL Championship.xlsx
+++ b/USA USL Championship/USA USL Championship.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1653" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1657" uniqueCount="58">
   <si>
     <t>id</t>
   </si>
@@ -549,7 +549,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC326"/>
+  <dimension ref="A1:AC327"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -26901,7 +26901,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>7689554</v>
+        <v>7689550</v>
       </c>
       <c r="C297" t="s">
         <v>28</v>
@@ -26913,49 +26913,49 @@
         <v>45367.70833333334</v>
       </c>
       <c r="F297" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G297" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="H297">
+        <v>3</v>
+      </c>
+      <c r="I297">
         <v>1</v>
       </c>
-      <c r="I297">
-        <v>2</v>
-      </c>
       <c r="J297" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K297">
         <v>2.25</v>
       </c>
       <c r="L297">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M297">
+        <v>2.5</v>
+      </c>
+      <c r="N297">
+        <v>2.625</v>
+      </c>
+      <c r="O297">
+        <v>3.8</v>
+      </c>
+      <c r="P297">
+        <v>2.1</v>
+      </c>
+      <c r="Q297">
+        <v>0.25</v>
+      </c>
+      <c r="R297">
+        <v>1.85</v>
+      </c>
+      <c r="S297">
+        <v>1.95</v>
+      </c>
+      <c r="T297">
         <v>2.75</v>
-      </c>
-      <c r="N297">
-        <v>1.909</v>
-      </c>
-      <c r="O297">
-        <v>3.4</v>
-      </c>
-      <c r="P297">
-        <v>3.4</v>
-      </c>
-      <c r="Q297">
-        <v>-0.25</v>
-      </c>
-      <c r="R297">
-        <v>1.8</v>
-      </c>
-      <c r="S297">
-        <v>2</v>
-      </c>
-      <c r="T297">
-        <v>2.5</v>
       </c>
       <c r="U297">
         <v>1.85</v>
@@ -26964,19 +26964,19 @@
         <v>1.95</v>
       </c>
       <c r="W297">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X297">
         <v>-1</v>
       </c>
       <c r="Y297">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z297">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA297">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB297">
         <v>0.8500000000000001</v>
@@ -26990,7 +26990,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>7689550</v>
+        <v>7689554</v>
       </c>
       <c r="C298" t="s">
         <v>28</v>
@@ -27002,49 +27002,49 @@
         <v>45367.70833333334</v>
       </c>
       <c r="F298" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G298" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="H298">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I298">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J298" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K298">
         <v>2.25</v>
       </c>
       <c r="L298">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M298">
+        <v>2.75</v>
+      </c>
+      <c r="N298">
+        <v>1.909</v>
+      </c>
+      <c r="O298">
+        <v>3.4</v>
+      </c>
+      <c r="P298">
+        <v>3.4</v>
+      </c>
+      <c r="Q298">
+        <v>-0.25</v>
+      </c>
+      <c r="R298">
+        <v>1.8</v>
+      </c>
+      <c r="S298">
+        <v>2</v>
+      </c>
+      <c r="T298">
         <v>2.5</v>
-      </c>
-      <c r="N298">
-        <v>2.625</v>
-      </c>
-      <c r="O298">
-        <v>3.8</v>
-      </c>
-      <c r="P298">
-        <v>2.1</v>
-      </c>
-      <c r="Q298">
-        <v>0.25</v>
-      </c>
-      <c r="R298">
-        <v>1.85</v>
-      </c>
-      <c r="S298">
-        <v>1.95</v>
-      </c>
-      <c r="T298">
-        <v>2.75</v>
       </c>
       <c r="U298">
         <v>1.85</v>
@@ -27053,19 +27053,19 @@
         <v>1.95</v>
       </c>
       <c r="W298">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X298">
         <v>-1</v>
       </c>
       <c r="Y298">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z298">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA298">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB298">
         <v>0.8500000000000001</v>
@@ -27346,7 +27346,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>7689556</v>
+        <v>7689555</v>
       </c>
       <c r="C302" t="s">
         <v>28</v>
@@ -27358,55 +27358,55 @@
         <v>45367.875</v>
       </c>
       <c r="F302" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G302" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H302">
         <v>1</v>
       </c>
       <c r="I302">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J302" t="s">
         <v>55</v>
       </c>
       <c r="K302">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="L302">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M302">
+        <v>2.5</v>
+      </c>
+      <c r="N302">
+        <v>1.95</v>
+      </c>
+      <c r="O302">
+        <v>3.3</v>
+      </c>
+      <c r="P302">
         <v>3.2</v>
       </c>
-      <c r="N302">
-        <v>1.45</v>
-      </c>
-      <c r="O302">
-        <v>4</v>
-      </c>
-      <c r="P302">
-        <v>5.25</v>
-      </c>
       <c r="Q302">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R302">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S302">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T302">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U302">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V302">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W302">
         <v>-1</v>
@@ -27415,16 +27415,16 @@
         <v>-1</v>
       </c>
       <c r="Y302">
-        <v>4.25</v>
+        <v>2.2</v>
       </c>
       <c r="Z302">
         <v>-1</v>
       </c>
       <c r="AA302">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB302">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC302">
         <v>-1</v>
@@ -27435,7 +27435,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>7689555</v>
+        <v>7689556</v>
       </c>
       <c r="C303" t="s">
         <v>28</v>
@@ -27447,55 +27447,55 @@
         <v>45367.875</v>
       </c>
       <c r="F303" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G303" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H303">
         <v>1</v>
       </c>
       <c r="I303">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J303" t="s">
         <v>55</v>
       </c>
       <c r="K303">
+        <v>1.909</v>
+      </c>
+      <c r="L303">
+        <v>3.6</v>
+      </c>
+      <c r="M303">
+        <v>3.2</v>
+      </c>
+      <c r="N303">
+        <v>1.45</v>
+      </c>
+      <c r="O303">
+        <v>4</v>
+      </c>
+      <c r="P303">
+        <v>5.25</v>
+      </c>
+      <c r="Q303">
+        <v>-1</v>
+      </c>
+      <c r="R303">
+        <v>1.8</v>
+      </c>
+      <c r="S303">
+        <v>2</v>
+      </c>
+      <c r="T303">
         <v>2.5</v>
       </c>
-      <c r="L303">
-        <v>3.2</v>
-      </c>
-      <c r="M303">
-        <v>2.5</v>
-      </c>
-      <c r="N303">
-        <v>1.95</v>
-      </c>
-      <c r="O303">
-        <v>3.3</v>
-      </c>
-      <c r="P303">
-        <v>3.2</v>
-      </c>
-      <c r="Q303">
-        <v>-0.25</v>
-      </c>
-      <c r="R303">
-        <v>1.825</v>
-      </c>
-      <c r="S303">
-        <v>1.975</v>
-      </c>
-      <c r="T303">
-        <v>2.75</v>
-      </c>
       <c r="U303">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V303">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W303">
         <v>-1</v>
@@ -27504,16 +27504,16 @@
         <v>-1</v>
       </c>
       <c r="Y303">
-        <v>2.2</v>
+        <v>4.25</v>
       </c>
       <c r="Z303">
         <v>-1</v>
       </c>
       <c r="AA303">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB303">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC303">
         <v>-1</v>
@@ -27969,7 +27969,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>7689561</v>
+        <v>7689564</v>
       </c>
       <c r="C309" t="s">
         <v>28</v>
@@ -27981,10 +27981,10 @@
         <v>45374.83333333334</v>
       </c>
       <c r="F309" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="G309" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="H309">
         <v>1</v>
@@ -27996,61 +27996,61 @@
         <v>57</v>
       </c>
       <c r="K309">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="L309">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M309">
+        <v>2.25</v>
+      </c>
+      <c r="N309">
         <v>2.375</v>
       </c>
-      <c r="N309">
-        <v>2.3</v>
-      </c>
       <c r="O309">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P309">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="Q309">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R309">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="S309">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="T309">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U309">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V309">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W309">
         <v>-1</v>
       </c>
       <c r="X309">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="Y309">
         <v>-1</v>
       </c>
       <c r="Z309">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA309">
-        <v>-0</v>
+        <v>0.3875</v>
       </c>
       <c r="AB309">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC309">
-        <v>0.8500000000000001</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="310" spans="1:29">
@@ -28058,7 +28058,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>7689564</v>
+        <v>7689561</v>
       </c>
       <c r="C310" t="s">
         <v>28</v>
@@ -28070,10 +28070,10 @@
         <v>45374.83333333334</v>
       </c>
       <c r="F310" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="G310" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="H310">
         <v>1</v>
@@ -28085,61 +28085,61 @@
         <v>57</v>
       </c>
       <c r="K310">
+        <v>2.5</v>
+      </c>
+      <c r="L310">
+        <v>3.4</v>
+      </c>
+      <c r="M310">
+        <v>2.375</v>
+      </c>
+      <c r="N310">
+        <v>2.3</v>
+      </c>
+      <c r="O310">
+        <v>3.4</v>
+      </c>
+      <c r="P310">
+        <v>2.7</v>
+      </c>
+      <c r="Q310">
+        <v>0</v>
+      </c>
+      <c r="R310">
+        <v>1.75</v>
+      </c>
+      <c r="S310">
+        <v>2.05</v>
+      </c>
+      <c r="T310">
         <v>2.75</v>
       </c>
-      <c r="L310">
-        <v>3.25</v>
-      </c>
-      <c r="M310">
-        <v>2.25</v>
-      </c>
-      <c r="N310">
-        <v>2.375</v>
-      </c>
-      <c r="O310">
-        <v>3.2</v>
-      </c>
-      <c r="P310">
-        <v>2.8</v>
-      </c>
-      <c r="Q310">
-        <v>-0.25</v>
-      </c>
-      <c r="R310">
-        <v>2.025</v>
-      </c>
-      <c r="S310">
-        <v>1.775</v>
-      </c>
-      <c r="T310">
-        <v>2.25</v>
-      </c>
       <c r="U310">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V310">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W310">
         <v>-1</v>
       </c>
       <c r="X310">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="Y310">
         <v>-1</v>
       </c>
       <c r="Z310">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA310">
-        <v>0.3875</v>
+        <v>-0</v>
       </c>
       <c r="AB310">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC310">
-        <v>0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="311" spans="1:29">
@@ -29215,7 +29215,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>7689840</v>
+        <v>7689571</v>
       </c>
       <c r="C323" t="s">
         <v>28</v>
@@ -29227,49 +29227,49 @@
         <v>45381.95833333334</v>
       </c>
       <c r="F323" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="G323" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="H323">
+        <v>1</v>
+      </c>
+      <c r="I323">
         <v>0</v>
       </c>
-      <c r="I323">
-        <v>3</v>
-      </c>
       <c r="J323" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K323">
-        <v>1.909</v>
+        <v>1.615</v>
       </c>
       <c r="L323">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M323">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="N323">
-        <v>2.25</v>
+        <v>1.7</v>
       </c>
       <c r="O323">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P323">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="Q323">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R323">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S323">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T323">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U323">
         <v>1.9</v>
@@ -29278,25 +29278,25 @@
         <v>1.9</v>
       </c>
       <c r="W323">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X323">
         <v>-1</v>
       </c>
       <c r="Y323">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z323">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA323">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB323">
+        <v>-1</v>
+      </c>
+      <c r="AC323">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC323">
-        <v>-1</v>
       </c>
     </row>
     <row r="324" spans="1:29">
@@ -29393,7 +29393,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>7689571</v>
+        <v>7689840</v>
       </c>
       <c r="C325" t="s">
         <v>28</v>
@@ -29405,49 +29405,49 @@
         <v>45381.95833333334</v>
       </c>
       <c r="F325" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="G325" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H325">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I325">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J325" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K325">
-        <v>1.615</v>
+        <v>1.909</v>
       </c>
       <c r="L325">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M325">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="N325">
-        <v>1.7</v>
+        <v>2.25</v>
       </c>
       <c r="O325">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P325">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="Q325">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R325">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S325">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T325">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U325">
         <v>1.9</v>
@@ -29456,25 +29456,25 @@
         <v>1.9</v>
       </c>
       <c r="W325">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X325">
         <v>-1</v>
       </c>
       <c r="Y325">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z325">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA325">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB325">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC325">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="326" spans="1:29">
@@ -29564,6 +29564,80 @@
       </c>
       <c r="AC326">
         <v>0.8</v>
+      </c>
+    </row>
+    <row r="327" spans="1:29">
+      <c r="A327" s="1">
+        <v>325</v>
+      </c>
+      <c r="B327">
+        <v>7689575</v>
+      </c>
+      <c r="C327" t="s">
+        <v>28</v>
+      </c>
+      <c r="D327" t="s">
+        <v>28</v>
+      </c>
+      <c r="E327" s="2">
+        <v>45387.89583333334</v>
+      </c>
+      <c r="F327" t="s">
+        <v>49</v>
+      </c>
+      <c r="G327" t="s">
+        <v>45</v>
+      </c>
+      <c r="K327">
+        <v>2.6</v>
+      </c>
+      <c r="L327">
+        <v>3.5</v>
+      </c>
+      <c r="M327">
+        <v>2.25</v>
+      </c>
+      <c r="N327">
+        <v>2.5</v>
+      </c>
+      <c r="O327">
+        <v>3.5</v>
+      </c>
+      <c r="P327">
+        <v>2.3</v>
+      </c>
+      <c r="Q327">
+        <v>0</v>
+      </c>
+      <c r="R327">
+        <v>1.975</v>
+      </c>
+      <c r="S327">
+        <v>1.825</v>
+      </c>
+      <c r="T327">
+        <v>2.75</v>
+      </c>
+      <c r="U327">
+        <v>1.9</v>
+      </c>
+      <c r="V327">
+        <v>1.9</v>
+      </c>
+      <c r="W327">
+        <v>0</v>
+      </c>
+      <c r="X327">
+        <v>0</v>
+      </c>
+      <c r="Y327">
+        <v>0</v>
+      </c>
+      <c r="Z327">
+        <v>0</v>
+      </c>
+      <c r="AA327">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/USA USL Championship/USA USL Championship.xlsx
+++ b/USA USL Championship/USA USL Championship.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1657" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1693" uniqueCount="58">
   <si>
     <t>id</t>
   </si>
@@ -121,10 +121,10 @@
     <t>Memphis 901 FC</t>
   </si>
   <si>
-    <t>San Antonio FC</t>
+    <t>New Mexico United</t>
   </si>
   <si>
-    <t>New Mexico United</t>
+    <t>San Antonio FC</t>
   </si>
   <si>
     <t>Orange County SC</t>
@@ -549,7 +549,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC327"/>
+  <dimension ref="A1:AC336"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1180,7 +1180,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6126587</v>
+        <v>6126584</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1195,73 +1195,73 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K8">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="L8">
         <v>3.4</v>
       </c>
       <c r="M8">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="N8">
-        <v>1.8</v>
+        <v>2.15</v>
       </c>
       <c r="O8">
         <v>3.4</v>
       </c>
       <c r="P8">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="Q8">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R8">
+        <v>1.95</v>
+      </c>
+      <c r="S8">
         <v>1.85</v>
       </c>
-      <c r="S8">
-        <v>1.95</v>
-      </c>
       <c r="T8">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U8">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V8">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W8">
         <v>-1</v>
       </c>
       <c r="X8">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y8">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z8">
         <v>-1</v>
       </c>
       <c r="AA8">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB8">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC8">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1269,7 +1269,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6126584</v>
+        <v>6126587</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1284,73 +1284,73 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K9">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="L9">
         <v>3.4</v>
       </c>
       <c r="M9">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="N9">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="O9">
         <v>3.4</v>
       </c>
       <c r="P9">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q9">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R9">
+        <v>1.85</v>
+      </c>
+      <c r="S9">
         <v>1.95</v>
       </c>
-      <c r="S9">
-        <v>1.85</v>
-      </c>
       <c r="T9">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U9">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V9">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W9">
         <v>-1</v>
       </c>
       <c r="X9">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y9">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z9">
         <v>-1</v>
       </c>
       <c r="AA9">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB9">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC9">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1803,7 +1803,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6126598</v>
+        <v>6126594</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1815,76 +1815,76 @@
         <v>45087.83333333334</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G15" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K15">
+        <v>1.666</v>
+      </c>
+      <c r="L15">
+        <v>3.75</v>
+      </c>
+      <c r="M15">
+        <v>4</v>
+      </c>
+      <c r="N15">
         <v>1.75</v>
       </c>
-      <c r="L15">
+      <c r="O15">
         <v>3.6</v>
       </c>
-      <c r="M15">
-        <v>3.75</v>
-      </c>
-      <c r="N15">
-        <v>1.7</v>
-      </c>
-      <c r="O15">
-        <v>3.25</v>
-      </c>
       <c r="P15">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q15">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R15">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S15">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T15">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U15">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V15">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W15">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X15">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y15">
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA15">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB15">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC15">
-        <v>0.4375</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1892,7 +1892,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6126594</v>
+        <v>6126598</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1904,76 +1904,76 @@
         <v>45087.83333333334</v>
       </c>
       <c r="F16" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G16" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K16">
-        <v>1.666</v>
+        <v>1.75</v>
       </c>
       <c r="L16">
+        <v>3.6</v>
+      </c>
+      <c r="M16">
         <v>3.75</v>
       </c>
-      <c r="M16">
-        <v>4</v>
-      </c>
       <c r="N16">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="O16">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P16">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="Q16">
+        <v>-0.75</v>
+      </c>
+      <c r="R16">
+        <v>1.975</v>
+      </c>
+      <c r="S16">
+        <v>1.825</v>
+      </c>
+      <c r="T16">
+        <v>2.25</v>
+      </c>
+      <c r="U16">
+        <v>1.925</v>
+      </c>
+      <c r="V16">
+        <v>1.875</v>
+      </c>
+      <c r="W16">
+        <v>0.7</v>
+      </c>
+      <c r="X16">
+        <v>-1</v>
+      </c>
+      <c r="Y16">
+        <v>-1</v>
+      </c>
+      <c r="Z16">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA16">
+        <v>-1</v>
+      </c>
+      <c r="AB16">
         <v>-0.5</v>
       </c>
-      <c r="R16">
-        <v>1.75</v>
-      </c>
-      <c r="S16">
-        <v>1.95</v>
-      </c>
-      <c r="T16">
-        <v>2.75</v>
-      </c>
-      <c r="U16">
-        <v>1.9</v>
-      </c>
-      <c r="V16">
-        <v>1.9</v>
-      </c>
-      <c r="W16">
-        <v>-1</v>
-      </c>
-      <c r="X16">
-        <v>2.6</v>
-      </c>
-      <c r="Y16">
-        <v>-1</v>
-      </c>
-      <c r="Z16">
-        <v>-1</v>
-      </c>
-      <c r="AA16">
-        <v>0.95</v>
-      </c>
-      <c r="AB16">
-        <v>-1</v>
-      </c>
       <c r="AC16">
-        <v>0.8999999999999999</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1996,7 +1996,7 @@
         <v>33</v>
       </c>
       <c r="G17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H17">
         <v>3</v>
@@ -2260,7 +2260,7 @@
         <v>45087.91666666666</v>
       </c>
       <c r="F20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -2797,7 +2797,7 @@
         <v>40</v>
       </c>
       <c r="G26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H26">
         <v>2</v>
@@ -3316,7 +3316,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6126606</v>
+        <v>6126611</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3328,76 +3328,76 @@
         <v>45094.91666666666</v>
       </c>
       <c r="F32" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H32">
         <v>2</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J32" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K32">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="L32">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M32">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="N32">
-        <v>1.7</v>
+        <v>2.05</v>
       </c>
       <c r="O32">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P32">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q32">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R32">
+        <v>1.85</v>
+      </c>
+      <c r="S32">
+        <v>1.95</v>
+      </c>
+      <c r="T32">
+        <v>2.5</v>
+      </c>
+      <c r="U32">
         <v>1.875</v>
       </c>
-      <c r="S32">
+      <c r="V32">
         <v>1.925</v>
       </c>
-      <c r="T32">
-        <v>3</v>
-      </c>
-      <c r="U32">
-        <v>1.975</v>
-      </c>
-      <c r="V32">
-        <v>1.825</v>
-      </c>
       <c r="W32">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X32">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y32">
         <v>-1</v>
       </c>
       <c r="Z32">
+        <v>-0.5</v>
+      </c>
+      <c r="AA32">
+        <v>0.475</v>
+      </c>
+      <c r="AB32">
         <v>0.875</v>
       </c>
-      <c r="AA32">
-        <v>-1</v>
-      </c>
-      <c r="AB32">
-        <v>-1</v>
-      </c>
       <c r="AC32">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3405,7 +3405,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6126611</v>
+        <v>6126606</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3417,76 +3417,76 @@
         <v>45094.91666666666</v>
       </c>
       <c r="F33" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H33">
         <v>2</v>
       </c>
       <c r="I33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K33">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="L33">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M33">
+        <v>4.75</v>
+      </c>
+      <c r="N33">
+        <v>1.7</v>
+      </c>
+      <c r="O33">
         <v>3.8</v>
       </c>
-      <c r="N33">
-        <v>2.05</v>
-      </c>
-      <c r="O33">
-        <v>3.4</v>
-      </c>
       <c r="P33">
+        <v>4</v>
+      </c>
+      <c r="Q33">
+        <v>-0.75</v>
+      </c>
+      <c r="R33">
+        <v>1.875</v>
+      </c>
+      <c r="S33">
+        <v>1.925</v>
+      </c>
+      <c r="T33">
         <v>3</v>
       </c>
-      <c r="Q33">
-        <v>-0.25</v>
-      </c>
-      <c r="R33">
-        <v>1.85</v>
-      </c>
-      <c r="S33">
-        <v>1.95</v>
-      </c>
-      <c r="T33">
-        <v>2.5</v>
-      </c>
       <c r="U33">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V33">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W33">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X33">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y33">
         <v>-1</v>
       </c>
       <c r="Z33">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA33">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB33">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC33">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3939,7 +3939,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6126616</v>
+        <v>6126617</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3951,13 +3951,13 @@
         <v>45098.875</v>
       </c>
       <c r="F39" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="G39" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -3966,43 +3966,43 @@
         <v>56</v>
       </c>
       <c r="K39">
-        <v>1.8</v>
+        <v>1.615</v>
       </c>
       <c r="L39">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M39">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="N39">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="O39">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P39">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="Q39">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R39">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S39">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T39">
         <v>3</v>
       </c>
       <c r="U39">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V39">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="W39">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="X39">
         <v>-1</v>
@@ -4011,16 +4011,16 @@
         <v>-1</v>
       </c>
       <c r="Z39">
+        <v>0.825</v>
+      </c>
+      <c r="AA39">
+        <v>-1</v>
+      </c>
+      <c r="AB39">
         <v>0.95</v>
       </c>
-      <c r="AA39">
-        <v>-1</v>
-      </c>
-      <c r="AB39">
-        <v>-1</v>
-      </c>
       <c r="AC39">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4028,7 +4028,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6126617</v>
+        <v>6126616</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4040,13 +4040,13 @@
         <v>45098.875</v>
       </c>
       <c r="F40" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="G40" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H40">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -4055,43 +4055,43 @@
         <v>56</v>
       </c>
       <c r="K40">
-        <v>1.615</v>
+        <v>1.8</v>
       </c>
       <c r="L40">
+        <v>3.5</v>
+      </c>
+      <c r="M40">
+        <v>3.6</v>
+      </c>
+      <c r="N40">
+        <v>1.7</v>
+      </c>
+      <c r="O40">
+        <v>3.8</v>
+      </c>
+      <c r="P40">
         <v>3.75</v>
       </c>
-      <c r="M40">
-        <v>4.333</v>
-      </c>
-      <c r="N40">
-        <v>1.5</v>
-      </c>
-      <c r="O40">
-        <v>4.2</v>
-      </c>
-      <c r="P40">
-        <v>4.75</v>
-      </c>
       <c r="Q40">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R40">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S40">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T40">
         <v>3</v>
       </c>
       <c r="U40">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V40">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="W40">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="X40">
         <v>-1</v>
@@ -4100,16 +4100,16 @@
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AA40">
         <v>-1</v>
       </c>
       <c r="AB40">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC40">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4129,7 +4129,7 @@
         <v>45098.91666666666</v>
       </c>
       <c r="F41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G41" t="s">
         <v>45</v>
@@ -4752,7 +4752,7 @@
         <v>45101.91666666666</v>
       </c>
       <c r="F48" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G48" t="s">
         <v>30</v>
@@ -5022,7 +5022,7 @@
         <v>51</v>
       </c>
       <c r="G51" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H51">
         <v>3</v>
@@ -5642,7 +5642,7 @@
         <v>45108.91666666666</v>
       </c>
       <c r="F58" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G58" t="s">
         <v>48</v>
@@ -5734,7 +5734,7 @@
         <v>46</v>
       </c>
       <c r="G59" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -5986,7 +5986,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6126638</v>
+        <v>6126640</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5998,76 +5998,76 @@
         <v>45109</v>
       </c>
       <c r="F62" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G62" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H62">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K62">
-        <v>2.15</v>
+        <v>1.571</v>
       </c>
       <c r="L62">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M62">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="N62">
-        <v>2.2</v>
+        <v>1.533</v>
       </c>
       <c r="O62">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P62">
-        <v>2.7</v>
+        <v>5.25</v>
       </c>
       <c r="Q62">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R62">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S62">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T62">
+        <v>2.5</v>
+      </c>
+      <c r="U62">
+        <v>1.875</v>
+      </c>
+      <c r="V62">
+        <v>1.925</v>
+      </c>
+      <c r="W62">
+        <v>-1</v>
+      </c>
+      <c r="X62">
         <v>3</v>
       </c>
-      <c r="U62">
-        <v>1.8</v>
-      </c>
-      <c r="V62">
-        <v>2</v>
-      </c>
-      <c r="W62">
-        <v>1.2</v>
-      </c>
-      <c r="X62">
-        <v>-1</v>
-      </c>
       <c r="Y62">
         <v>-1</v>
       </c>
       <c r="Z62">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA62">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB62">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC62">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6075,7 +6075,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6126640</v>
+        <v>6126638</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6087,76 +6087,76 @@
         <v>45109</v>
       </c>
       <c r="F63" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="G63" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K63">
-        <v>1.571</v>
+        <v>2.15</v>
       </c>
       <c r="L63">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M63">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="N63">
-        <v>1.533</v>
+        <v>2.2</v>
       </c>
       <c r="O63">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P63">
-        <v>5.25</v>
+        <v>2.7</v>
       </c>
       <c r="Q63">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R63">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S63">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T63">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U63">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V63">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W63">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X63">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y63">
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA63">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB63">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC63">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6357,7 +6357,7 @@
         <v>44</v>
       </c>
       <c r="G66" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H66">
         <v>2</v>
@@ -6446,7 +6446,7 @@
         <v>34</v>
       </c>
       <c r="G67" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -6520,7 +6520,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6126652</v>
+        <v>6126655</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6532,76 +6532,76 @@
         <v>45115.83333333334</v>
       </c>
       <c r="F68" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G68" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K68">
-        <v>1.909</v>
+        <v>2.7</v>
       </c>
       <c r="L68">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M68">
-        <v>3.6</v>
+        <v>2.375</v>
       </c>
       <c r="N68">
-        <v>1.95</v>
+        <v>3</v>
       </c>
       <c r="O68">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P68">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="Q68">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R68">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S68">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T68">
-        <v>1.75</v>
+        <v>2.75</v>
       </c>
       <c r="U68">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V68">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W68">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X68">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y68">
         <v>-1</v>
       </c>
       <c r="Z68">
+        <v>0.825</v>
+      </c>
+      <c r="AA68">
+        <v>-1</v>
+      </c>
+      <c r="AB68">
+        <v>0.4375</v>
+      </c>
+      <c r="AC68">
         <v>-0.5</v>
-      </c>
-      <c r="AA68">
-        <v>0.5249999999999999</v>
-      </c>
-      <c r="AB68">
-        <v>-1</v>
-      </c>
-      <c r="AC68">
-        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6609,7 +6609,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6126647</v>
+        <v>6126646</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6621,55 +6621,55 @@
         <v>45115.83333333334</v>
       </c>
       <c r="F69" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G69" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="H69">
         <v>0</v>
       </c>
       <c r="I69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J69" t="s">
         <v>55</v>
       </c>
       <c r="K69">
-        <v>1.909</v>
+        <v>3.25</v>
       </c>
       <c r="L69">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M69">
+        <v>2</v>
+      </c>
+      <c r="N69">
+        <v>3</v>
+      </c>
+      <c r="O69">
         <v>3.5</v>
       </c>
-      <c r="N69">
-        <v>1.666</v>
-      </c>
-      <c r="O69">
-        <v>3.6</v>
-      </c>
       <c r="P69">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q69">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R69">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S69">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T69">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U69">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V69">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W69">
         <v>-1</v>
@@ -6678,19 +6678,19 @@
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>3.5</v>
+        <v>1.1</v>
       </c>
       <c r="Z69">
         <v>-1</v>
       </c>
       <c r="AA69">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB69">
         <v>-1</v>
       </c>
       <c r="AC69">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6698,7 +6698,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6126646</v>
+        <v>6126647</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6710,76 +6710,76 @@
         <v>45115.83333333334</v>
       </c>
       <c r="F70" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G70" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="H70">
         <v>0</v>
       </c>
       <c r="I70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J70" t="s">
         <v>55</v>
       </c>
       <c r="K70">
-        <v>3.25</v>
+        <v>1.909</v>
       </c>
       <c r="L70">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M70">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="N70">
-        <v>3</v>
+        <v>1.666</v>
       </c>
       <c r="O70">
+        <v>3.6</v>
+      </c>
+      <c r="P70">
+        <v>4.5</v>
+      </c>
+      <c r="Q70">
+        <v>-0.75</v>
+      </c>
+      <c r="R70">
+        <v>1.9</v>
+      </c>
+      <c r="S70">
+        <v>1.9</v>
+      </c>
+      <c r="T70">
+        <v>2.75</v>
+      </c>
+      <c r="U70">
+        <v>1.85</v>
+      </c>
+      <c r="V70">
+        <v>1.95</v>
+      </c>
+      <c r="W70">
+        <v>-1</v>
+      </c>
+      <c r="X70">
+        <v>-1</v>
+      </c>
+      <c r="Y70">
         <v>3.5</v>
       </c>
-      <c r="P70">
-        <v>2.1</v>
-      </c>
-      <c r="Q70">
-        <v>0.25</v>
-      </c>
-      <c r="R70">
-        <v>1.975</v>
-      </c>
-      <c r="S70">
-        <v>1.825</v>
-      </c>
-      <c r="T70">
-        <v>3</v>
-      </c>
-      <c r="U70">
-        <v>1.8</v>
-      </c>
-      <c r="V70">
-        <v>2</v>
-      </c>
-      <c r="W70">
-        <v>-1</v>
-      </c>
-      <c r="X70">
-        <v>-1</v>
-      </c>
-      <c r="Y70">
-        <v>1.1</v>
-      </c>
       <c r="Z70">
         <v>-1</v>
       </c>
       <c r="AA70">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB70">
         <v>-1</v>
       </c>
       <c r="AC70">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6787,7 +6787,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6126655</v>
+        <v>6126652</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6799,76 +6799,76 @@
         <v>45115.83333333334</v>
       </c>
       <c r="F71" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G71" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71" t="s">
+        <v>57</v>
+      </c>
+      <c r="K71">
+        <v>1.909</v>
+      </c>
+      <c r="L71">
+        <v>3.3</v>
+      </c>
+      <c r="M71">
+        <v>3.6</v>
+      </c>
+      <c r="N71">
+        <v>1.95</v>
+      </c>
+      <c r="O71">
+        <v>3.25</v>
+      </c>
+      <c r="P71">
+        <v>3.75</v>
+      </c>
+      <c r="Q71">
+        <v>-0.25</v>
+      </c>
+      <c r="R71">
+        <v>1.75</v>
+      </c>
+      <c r="S71">
+        <v>2.05</v>
+      </c>
+      <c r="T71">
+        <v>1.75</v>
+      </c>
+      <c r="U71">
+        <v>1.8</v>
+      </c>
+      <c r="V71">
+        <v>2</v>
+      </c>
+      <c r="W71">
+        <v>-1</v>
+      </c>
+      <c r="X71">
+        <v>2.25</v>
+      </c>
+      <c r="Y71">
+        <v>-1</v>
+      </c>
+      <c r="Z71">
+        <v>-0.5</v>
+      </c>
+      <c r="AA71">
+        <v>0.5249999999999999</v>
+      </c>
+      <c r="AB71">
+        <v>-1</v>
+      </c>
+      <c r="AC71">
         <v>1</v>
-      </c>
-      <c r="J71" t="s">
-        <v>56</v>
-      </c>
-      <c r="K71">
-        <v>2.7</v>
-      </c>
-      <c r="L71">
-        <v>3.2</v>
-      </c>
-      <c r="M71">
-        <v>2.375</v>
-      </c>
-      <c r="N71">
-        <v>3</v>
-      </c>
-      <c r="O71">
-        <v>3.2</v>
-      </c>
-      <c r="P71">
-        <v>2.2</v>
-      </c>
-      <c r="Q71">
-        <v>0.25</v>
-      </c>
-      <c r="R71">
-        <v>1.825</v>
-      </c>
-      <c r="S71">
-        <v>1.975</v>
-      </c>
-      <c r="T71">
-        <v>2.75</v>
-      </c>
-      <c r="U71">
-        <v>1.875</v>
-      </c>
-      <c r="V71">
-        <v>1.925</v>
-      </c>
-      <c r="W71">
-        <v>2</v>
-      </c>
-      <c r="X71">
-        <v>-1</v>
-      </c>
-      <c r="Y71">
-        <v>-1</v>
-      </c>
-      <c r="Z71">
-        <v>0.825</v>
-      </c>
-      <c r="AA71">
-        <v>-1</v>
-      </c>
-      <c r="AB71">
-        <v>0.4375</v>
-      </c>
-      <c r="AC71">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -7066,7 +7066,7 @@
         <v>45115.91666666666</v>
       </c>
       <c r="F74" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G74" t="s">
         <v>52</v>
@@ -7781,7 +7781,7 @@
         <v>46</v>
       </c>
       <c r="G82" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H82">
         <v>1</v>
@@ -8033,7 +8033,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6126669</v>
+        <v>6126667</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8045,76 +8045,76 @@
         <v>45122.83333333334</v>
       </c>
       <c r="F85" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G85" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K85">
-        <v>2.1</v>
+        <v>1.571</v>
       </c>
       <c r="L85">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M85">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N85">
-        <v>2.55</v>
+        <v>1.5</v>
       </c>
       <c r="O85">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P85">
-        <v>2.375</v>
+        <v>6</v>
       </c>
       <c r="Q85">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R85">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="S85">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T85">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U85">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V85">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W85">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X85">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y85">
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>0.3625</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA85">
+        <v>-1</v>
+      </c>
+      <c r="AB85">
         <v>-0.5</v>
       </c>
-      <c r="AB85">
-        <v>-1</v>
-      </c>
       <c r="AC85">
-        <v>0.825</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8122,7 +8122,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6126667</v>
+        <v>6126669</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8134,76 +8134,76 @@
         <v>45122.83333333334</v>
       </c>
       <c r="F86" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G86" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K86">
-        <v>1.571</v>
+        <v>2.1</v>
       </c>
       <c r="L86">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M86">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N86">
-        <v>1.5</v>
+        <v>2.55</v>
       </c>
       <c r="O86">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P86">
-        <v>6</v>
+        <v>2.375</v>
       </c>
       <c r="Q86">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R86">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="S86">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T86">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U86">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V86">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W86">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X86">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y86">
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>0.8999999999999999</v>
+        <v>0.3625</v>
       </c>
       <c r="AA86">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB86">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC86">
-        <v>0.475</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8211,7 +8211,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6126662</v>
+        <v>6126665</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8223,76 +8223,76 @@
         <v>45122.85416666666</v>
       </c>
       <c r="F87" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G87" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H87">
         <v>1</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J87" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K87">
+        <v>2.375</v>
+      </c>
+      <c r="L87">
+        <v>3.4</v>
+      </c>
+      <c r="M87">
+        <v>2.5</v>
+      </c>
+      <c r="N87">
+        <v>2.45</v>
+      </c>
+      <c r="O87">
+        <v>3.5</v>
+      </c>
+      <c r="P87">
         <v>2.4</v>
       </c>
-      <c r="L87">
-        <v>3.2</v>
-      </c>
-      <c r="M87">
-        <v>2.625</v>
-      </c>
-      <c r="N87">
-        <v>2.55</v>
-      </c>
-      <c r="O87">
-        <v>3.2</v>
-      </c>
-      <c r="P87">
-        <v>2.45</v>
-      </c>
       <c r="Q87">
         <v>0</v>
       </c>
       <c r="R87">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S87">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T87">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U87">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V87">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W87">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X87">
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z87">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA87">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB87">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC87">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8300,7 +8300,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6126665</v>
+        <v>6126662</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8312,76 +8312,76 @@
         <v>45122.85416666666</v>
       </c>
       <c r="F88" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="G88" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H88">
         <v>1</v>
       </c>
       <c r="I88">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J88" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K88">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="L88">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M88">
-        <v>2.5</v>
+        <v>2.625</v>
       </c>
       <c r="N88">
+        <v>2.55</v>
+      </c>
+      <c r="O88">
+        <v>3.2</v>
+      </c>
+      <c r="P88">
         <v>2.45</v>
       </c>
-      <c r="O88">
-        <v>3.5</v>
-      </c>
-      <c r="P88">
-        <v>2.4</v>
-      </c>
       <c r="Q88">
         <v>0</v>
       </c>
       <c r="R88">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S88">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T88">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U88">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V88">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W88">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X88">
         <v>-1</v>
       </c>
       <c r="Y88">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z88">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA88">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB88">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC88">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -9368,7 +9368,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6126679</v>
+        <v>6126681</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9383,73 +9383,73 @@
         <v>36</v>
       </c>
       <c r="G100" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H100">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K100">
+        <v>1.571</v>
+      </c>
+      <c r="L100">
+        <v>3.75</v>
+      </c>
+      <c r="M100">
+        <v>5</v>
+      </c>
+      <c r="N100">
+        <v>1.45</v>
+      </c>
+      <c r="O100">
+        <v>4.2</v>
+      </c>
+      <c r="P100">
+        <v>5.5</v>
+      </c>
+      <c r="Q100">
+        <v>-1</v>
+      </c>
+      <c r="R100">
+        <v>1.8</v>
+      </c>
+      <c r="S100">
+        <v>2</v>
+      </c>
+      <c r="T100">
         <v>2.75</v>
       </c>
-      <c r="L100">
-        <v>3.3</v>
-      </c>
-      <c r="M100">
-        <v>2.3</v>
-      </c>
-      <c r="N100">
-        <v>2.5</v>
-      </c>
-      <c r="O100">
-        <v>3.3</v>
-      </c>
-      <c r="P100">
-        <v>2.5</v>
-      </c>
-      <c r="Q100">
-        <v>0</v>
-      </c>
-      <c r="R100">
-        <v>1.9</v>
-      </c>
-      <c r="S100">
-        <v>1.9</v>
-      </c>
-      <c r="T100">
-        <v>2.5</v>
-      </c>
       <c r="U100">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V100">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W100">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X100">
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Z100">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA100">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB100">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC100">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9457,7 +9457,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6126681</v>
+        <v>6126679</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9472,73 +9472,73 @@
         <v>35</v>
       </c>
       <c r="G101" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K101">
-        <v>1.571</v>
+        <v>2.75</v>
       </c>
       <c r="L101">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M101">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="N101">
-        <v>1.45</v>
+        <v>2.5</v>
       </c>
       <c r="O101">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="P101">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q101">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R101">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S101">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T101">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U101">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V101">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W101">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X101">
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Z101">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA101">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB101">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC101">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9635,7 +9635,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6126676</v>
+        <v>6126680</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9647,76 +9647,76 @@
         <v>45129.97916666666</v>
       </c>
       <c r="F103" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G103" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I103">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K103">
+        <v>1.909</v>
+      </c>
+      <c r="L103">
+        <v>3.4</v>
+      </c>
+      <c r="M103">
+        <v>3.5</v>
+      </c>
+      <c r="N103">
+        <v>1.7</v>
+      </c>
+      <c r="O103">
+        <v>3.8</v>
+      </c>
+      <c r="P103">
+        <v>4</v>
+      </c>
+      <c r="Q103">
+        <v>-0.75</v>
+      </c>
+      <c r="R103">
+        <v>2</v>
+      </c>
+      <c r="S103">
+        <v>1.8</v>
+      </c>
+      <c r="T103">
+        <v>3</v>
+      </c>
+      <c r="U103">
+        <v>1.95</v>
+      </c>
+      <c r="V103">
         <v>1.85</v>
       </c>
-      <c r="L103">
-        <v>3.5</v>
-      </c>
-      <c r="M103">
-        <v>3.6</v>
-      </c>
-      <c r="N103">
-        <v>1.75</v>
-      </c>
-      <c r="O103">
-        <v>4</v>
-      </c>
-      <c r="P103">
-        <v>3.5</v>
-      </c>
-      <c r="Q103">
-        <v>-0.5</v>
-      </c>
-      <c r="R103">
-        <v>1.825</v>
-      </c>
-      <c r="S103">
-        <v>1.975</v>
-      </c>
-      <c r="T103">
-        <v>3.25</v>
-      </c>
-      <c r="U103">
-        <v>1.975</v>
-      </c>
-      <c r="V103">
-        <v>1.825</v>
-      </c>
       <c r="W103">
         <v>-1</v>
       </c>
       <c r="X103">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y103">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z103">
         <v>-1</v>
       </c>
       <c r="AA103">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB103">
         <v>-1</v>
       </c>
       <c r="AC103">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9724,7 +9724,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6126680</v>
+        <v>6126676</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9736,76 +9736,76 @@
         <v>45129.97916666666</v>
       </c>
       <c r="F104" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G104" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J104" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K104">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="L104">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M104">
+        <v>3.6</v>
+      </c>
+      <c r="N104">
+        <v>1.75</v>
+      </c>
+      <c r="O104">
+        <v>4</v>
+      </c>
+      <c r="P104">
         <v>3.5</v>
       </c>
-      <c r="N104">
-        <v>1.7</v>
-      </c>
-      <c r="O104">
-        <v>3.8</v>
-      </c>
-      <c r="P104">
-        <v>4</v>
-      </c>
       <c r="Q104">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R104">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S104">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T104">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U104">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V104">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W104">
         <v>-1</v>
       </c>
       <c r="X104">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y104">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z104">
         <v>-1</v>
       </c>
       <c r="AA104">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB104">
         <v>-1</v>
       </c>
       <c r="AC104">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -10169,7 +10169,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6126696</v>
+        <v>6126687</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10181,76 +10181,76 @@
         <v>45136.85416666666</v>
       </c>
       <c r="F109" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G109" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H109">
+        <v>1</v>
+      </c>
+      <c r="I109">
+        <v>2</v>
+      </c>
+      <c r="J109" t="s">
+        <v>55</v>
+      </c>
+      <c r="K109">
+        <v>2.1</v>
+      </c>
+      <c r="L109">
+        <v>3.3</v>
+      </c>
+      <c r="M109">
         <v>3</v>
       </c>
-      <c r="I109">
-        <v>0</v>
-      </c>
-      <c r="J109" t="s">
-        <v>56</v>
-      </c>
-      <c r="K109">
-        <v>1.533</v>
-      </c>
-      <c r="L109">
-        <v>3.8</v>
-      </c>
-      <c r="M109">
-        <v>5</v>
-      </c>
       <c r="N109">
-        <v>1.444</v>
+        <v>2.25</v>
       </c>
       <c r="O109">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P109">
-        <v>5.75</v>
+        <v>2.7</v>
       </c>
       <c r="Q109">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R109">
-        <v>1.975</v>
+        <v>1.725</v>
       </c>
       <c r="S109">
-        <v>1.825</v>
+        <v>2.075</v>
       </c>
       <c r="T109">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U109">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V109">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W109">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X109">
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z109">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA109">
-        <v>-1</v>
+        <v>1.075</v>
       </c>
       <c r="AB109">
-        <v>0.45</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC109">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10258,7 +10258,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6126687</v>
+        <v>6126685</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10270,10 +10270,10 @@
         <v>45136.85416666666</v>
       </c>
       <c r="F110" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="G110" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="H110">
         <v>1</v>
@@ -10285,40 +10285,40 @@
         <v>55</v>
       </c>
       <c r="K110">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L110">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M110">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="N110">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="O110">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P110">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="Q110">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R110">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="S110">
-        <v>2.075</v>
+        <v>1.95</v>
       </c>
       <c r="T110">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U110">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V110">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W110">
         <v>-1</v>
@@ -10327,19 +10327,19 @@
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="Z110">
         <v>-1</v>
       </c>
       <c r="AA110">
-        <v>1.075</v>
+        <v>0.95</v>
       </c>
       <c r="AB110">
-        <v>0.8500000000000001</v>
+        <v>0.4625</v>
       </c>
       <c r="AC110">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10347,7 +10347,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6126685</v>
+        <v>6126696</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10359,73 +10359,73 @@
         <v>45136.85416666666</v>
       </c>
       <c r="F111" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="G111" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I111">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J111" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K111">
-        <v>2.25</v>
+        <v>1.533</v>
       </c>
       <c r="L111">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M111">
-        <v>2.625</v>
+        <v>5</v>
       </c>
       <c r="N111">
-        <v>2.05</v>
+        <v>1.444</v>
       </c>
       <c r="O111">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P111">
-        <v>2.9</v>
+        <v>5.75</v>
       </c>
       <c r="Q111">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R111">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S111">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T111">
         <v>2.75</v>
       </c>
       <c r="U111">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V111">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W111">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X111">
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z111">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA111">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB111">
-        <v>0.4625</v>
+        <v>0.45</v>
       </c>
       <c r="AC111">
         <v>-0.5</v>
@@ -10436,7 +10436,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6126688</v>
+        <v>6126693</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10448,58 +10448,58 @@
         <v>45136.875</v>
       </c>
       <c r="F112" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G112" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I112">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J112" t="s">
         <v>56</v>
       </c>
       <c r="K112">
-        <v>1.95</v>
+        <v>2.375</v>
       </c>
       <c r="L112">
         <v>3.25</v>
       </c>
       <c r="M112">
+        <v>2.6</v>
+      </c>
+      <c r="N112">
+        <v>2.05</v>
+      </c>
+      <c r="O112">
         <v>3.4</v>
       </c>
-      <c r="N112">
-        <v>1.75</v>
-      </c>
-      <c r="O112">
-        <v>3.3</v>
-      </c>
       <c r="P112">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q112">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R112">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S112">
+        <v>1.975</v>
+      </c>
+      <c r="T112">
+        <v>2.5</v>
+      </c>
+      <c r="U112">
+        <v>1.85</v>
+      </c>
+      <c r="V112">
         <v>1.95</v>
       </c>
-      <c r="T112">
-        <v>2.25</v>
-      </c>
-      <c r="U112">
-        <v>1.8</v>
-      </c>
-      <c r="V112">
-        <v>2</v>
-      </c>
       <c r="W112">
-        <v>0.75</v>
+        <v>1.05</v>
       </c>
       <c r="X112">
         <v>-1</v>
@@ -10508,16 +10508,16 @@
         <v>-1</v>
       </c>
       <c r="Z112">
-        <v>0.75</v>
+        <v>0.825</v>
       </c>
       <c r="AA112">
         <v>-1</v>
       </c>
       <c r="AB112">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC112">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10525,7 +10525,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6126693</v>
+        <v>6126688</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10537,58 +10537,58 @@
         <v>45136.875</v>
       </c>
       <c r="F113" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G113" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H113">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I113">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J113" t="s">
         <v>56</v>
       </c>
       <c r="K113">
-        <v>2.375</v>
+        <v>1.95</v>
       </c>
       <c r="L113">
         <v>3.25</v>
       </c>
       <c r="M113">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="N113">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="O113">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P113">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="Q113">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R113">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S113">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T113">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U113">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V113">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W113">
-        <v>1.05</v>
+        <v>0.75</v>
       </c>
       <c r="X113">
         <v>-1</v>
@@ -10597,16 +10597,16 @@
         <v>-1</v>
       </c>
       <c r="Z113">
-        <v>0.825</v>
+        <v>0.75</v>
       </c>
       <c r="AA113">
         <v>-1</v>
       </c>
       <c r="AB113">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC113">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10626,7 +10626,7 @@
         <v>45136.91666666666</v>
       </c>
       <c r="F114" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G114" t="s">
         <v>32</v>
@@ -10703,7 +10703,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6126690</v>
+        <v>6126689</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10715,76 +10715,76 @@
         <v>45136.95833333334</v>
       </c>
       <c r="F115" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="G115" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="H115">
+        <v>0</v>
+      </c>
+      <c r="I115">
+        <v>2</v>
+      </c>
+      <c r="J115" t="s">
+        <v>55</v>
+      </c>
+      <c r="K115">
+        <v>2</v>
+      </c>
+      <c r="L115">
+        <v>3.4</v>
+      </c>
+      <c r="M115">
+        <v>3.1</v>
+      </c>
+      <c r="N115">
+        <v>2.7</v>
+      </c>
+      <c r="O115">
+        <v>3.4</v>
+      </c>
+      <c r="P115">
+        <v>2.25</v>
+      </c>
+      <c r="Q115">
+        <v>0.25</v>
+      </c>
+      <c r="R115">
+        <v>1.8</v>
+      </c>
+      <c r="S115">
+        <v>2</v>
+      </c>
+      <c r="T115">
+        <v>2.75</v>
+      </c>
+      <c r="U115">
+        <v>1.75</v>
+      </c>
+      <c r="V115">
+        <v>1.95</v>
+      </c>
+      <c r="W115">
+        <v>-1</v>
+      </c>
+      <c r="X115">
+        <v>-1</v>
+      </c>
+      <c r="Y115">
+        <v>1.25</v>
+      </c>
+      <c r="Z115">
+        <v>-1</v>
+      </c>
+      <c r="AA115">
         <v>1</v>
       </c>
-      <c r="I115">
-        <v>1</v>
-      </c>
-      <c r="J115" t="s">
-        <v>57</v>
-      </c>
-      <c r="K115">
-        <v>1.6</v>
-      </c>
-      <c r="L115">
-        <v>3.75</v>
-      </c>
-      <c r="M115">
-        <v>4.5</v>
-      </c>
-      <c r="N115">
-        <v>1.727</v>
-      </c>
-      <c r="O115">
-        <v>3.6</v>
-      </c>
-      <c r="P115">
-        <v>3.8</v>
-      </c>
-      <c r="Q115">
-        <v>-0.5</v>
-      </c>
-      <c r="R115">
-        <v>1.75</v>
-      </c>
-      <c r="S115">
-        <v>1.95</v>
-      </c>
-      <c r="T115">
-        <v>2.5</v>
-      </c>
-      <c r="U115">
-        <v>1.975</v>
-      </c>
-      <c r="V115">
-        <v>1.825</v>
-      </c>
-      <c r="W115">
-        <v>-1</v>
-      </c>
-      <c r="X115">
-        <v>2.6</v>
-      </c>
-      <c r="Y115">
-        <v>-1</v>
-      </c>
-      <c r="Z115">
-        <v>-1</v>
-      </c>
-      <c r="AA115">
+      <c r="AB115">
+        <v>-1</v>
+      </c>
+      <c r="AC115">
         <v>0.95</v>
-      </c>
-      <c r="AB115">
-        <v>-1</v>
-      </c>
-      <c r="AC115">
-        <v>0.825</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10807,7 +10807,7 @@
         <v>37</v>
       </c>
       <c r="G116" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H116">
         <v>1</v>
@@ -10881,7 +10881,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6126689</v>
+        <v>6126690</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10893,76 +10893,76 @@
         <v>45136.95833333334</v>
       </c>
       <c r="F117" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="G117" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I117">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J117" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K117">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="L117">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M117">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="N117">
-        <v>2.7</v>
+        <v>1.727</v>
       </c>
       <c r="O117">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P117">
-        <v>2.25</v>
+        <v>3.8</v>
       </c>
       <c r="Q117">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R117">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S117">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T117">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U117">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V117">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W117">
         <v>-1</v>
       </c>
       <c r="X117">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y117">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z117">
         <v>-1</v>
       </c>
       <c r="AA117">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AB117">
         <v>-1</v>
       </c>
       <c r="AC117">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -11326,7 +11326,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6126699</v>
+        <v>6126700</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11338,76 +11338,76 @@
         <v>45142.91666666666</v>
       </c>
       <c r="F122" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="G122" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J122" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K122">
+        <v>2.4</v>
+      </c>
+      <c r="L122">
+        <v>3.3</v>
+      </c>
+      <c r="M122">
+        <v>2.55</v>
+      </c>
+      <c r="N122">
+        <v>3.1</v>
+      </c>
+      <c r="O122">
+        <v>3.4</v>
+      </c>
+      <c r="P122">
         <v>2.05</v>
       </c>
-      <c r="L122">
-        <v>3.4</v>
-      </c>
-      <c r="M122">
-        <v>3</v>
-      </c>
-      <c r="N122">
-        <v>2</v>
-      </c>
-      <c r="O122">
-        <v>3.8</v>
-      </c>
-      <c r="P122">
-        <v>2.875</v>
-      </c>
       <c r="Q122">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R122">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S122">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T122">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U122">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V122">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W122">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X122">
         <v>-1</v>
       </c>
       <c r="Y122">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z122">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA122">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB122">
-        <v>0.4</v>
+        <v>0.875</v>
       </c>
       <c r="AC122">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11415,7 +11415,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6126700</v>
+        <v>6126699</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11427,76 +11427,76 @@
         <v>45142.91666666666</v>
       </c>
       <c r="F123" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="G123" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123">
+        <v>1</v>
+      </c>
+      <c r="J123" t="s">
+        <v>56</v>
+      </c>
+      <c r="K123">
+        <v>2.05</v>
+      </c>
+      <c r="L123">
+        <v>3.4</v>
+      </c>
+      <c r="M123">
         <v>3</v>
       </c>
-      <c r="J123" t="s">
-        <v>55</v>
-      </c>
-      <c r="K123">
-        <v>2.4</v>
-      </c>
-      <c r="L123">
-        <v>3.3</v>
-      </c>
-      <c r="M123">
-        <v>2.55</v>
-      </c>
       <c r="N123">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="O123">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P123">
-        <v>2.05</v>
+        <v>2.875</v>
       </c>
       <c r="Q123">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R123">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S123">
+        <v>1.95</v>
+      </c>
+      <c r="T123">
+        <v>2.75</v>
+      </c>
+      <c r="U123">
         <v>1.8</v>
       </c>
-      <c r="T123">
-        <v>2.5</v>
-      </c>
-      <c r="U123">
-        <v>1.875</v>
-      </c>
       <c r="V123">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W123">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X123">
         <v>-1</v>
       </c>
       <c r="Y123">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z123">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA123">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB123">
-        <v>0.875</v>
+        <v>0.4</v>
       </c>
       <c r="AC123">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11504,7 +11504,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6126701</v>
+        <v>6126708</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11516,58 +11516,58 @@
         <v>45143.83333333334</v>
       </c>
       <c r="F124" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="G124" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J124" t="s">
         <v>56</v>
       </c>
       <c r="K124">
-        <v>2.9</v>
+        <v>2.55</v>
       </c>
       <c r="L124">
+        <v>3.25</v>
+      </c>
+      <c r="M124">
+        <v>2.4</v>
+      </c>
+      <c r="N124">
+        <v>2.2</v>
+      </c>
+      <c r="O124">
         <v>3.4</v>
       </c>
-      <c r="M124">
-        <v>2.1</v>
-      </c>
-      <c r="N124">
-        <v>2.7</v>
-      </c>
-      <c r="O124">
-        <v>3.8</v>
-      </c>
       <c r="P124">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="Q124">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R124">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S124">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T124">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U124">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V124">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W124">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="X124">
         <v>-1</v>
@@ -11576,16 +11576,16 @@
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AA124">
         <v>-1</v>
       </c>
       <c r="AB124">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC124">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11593,7 +11593,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6126708</v>
+        <v>6126702</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11605,73 +11605,73 @@
         <v>45143.83333333334</v>
       </c>
       <c r="F125" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G125" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="H125">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I125">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J125" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K125">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="L125">
         <v>3.25</v>
       </c>
       <c r="M125">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="N125">
         <v>2.2</v>
       </c>
       <c r="O125">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P125">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q125">
         <v>-0.25</v>
       </c>
       <c r="R125">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S125">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T125">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U125">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V125">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W125">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X125">
         <v>-1</v>
       </c>
       <c r="Y125">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z125">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA125">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB125">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AC125">
         <v>-1</v>
@@ -11682,7 +11682,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6126702</v>
+        <v>6126706</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11694,76 +11694,76 @@
         <v>45143.83333333334</v>
       </c>
       <c r="F126" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G126" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H126">
         <v>1</v>
       </c>
       <c r="I126">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J126" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K126">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="L126">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M126">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="N126">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="O126">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P126">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Q126">
         <v>-0.25</v>
       </c>
       <c r="R126">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S126">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T126">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U126">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V126">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W126">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X126">
         <v>-1</v>
       </c>
       <c r="Y126">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z126">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA126">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB126">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC126">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11771,7 +11771,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6126706</v>
+        <v>6126701</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11783,58 +11783,58 @@
         <v>45143.83333333334</v>
       </c>
       <c r="F127" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G127" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H127">
+        <v>2</v>
+      </c>
+      <c r="I127">
         <v>1</v>
-      </c>
-      <c r="I127">
-        <v>0</v>
       </c>
       <c r="J127" t="s">
         <v>56</v>
       </c>
       <c r="K127">
-        <v>2.15</v>
+        <v>2.9</v>
       </c>
       <c r="L127">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M127">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="N127">
-        <v>1.95</v>
+        <v>2.7</v>
       </c>
       <c r="O127">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P127">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q127">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R127">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S127">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T127">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U127">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V127">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="W127">
-        <v>0.95</v>
+        <v>1.7</v>
       </c>
       <c r="X127">
         <v>-1</v>
@@ -11843,16 +11843,16 @@
         <v>-1</v>
       </c>
       <c r="Z127">
-        <v>0.7749999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AA127">
         <v>-1</v>
       </c>
       <c r="AB127">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC127">
-        <v>0.7749999999999999</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -12142,7 +12142,7 @@
         <v>45</v>
       </c>
       <c r="G131" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H131">
         <v>1</v>
@@ -12305,7 +12305,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6126709</v>
+        <v>6126712</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12317,49 +12317,49 @@
         <v>45147.91666666666</v>
       </c>
       <c r="F133" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G133" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H133">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J133" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K133">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="L133">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M133">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="N133">
-        <v>2.6</v>
+        <v>1.615</v>
       </c>
       <c r="O133">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="P133">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q133">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R133">
+        <v>1.75</v>
+      </c>
+      <c r="S133">
         <v>1.95</v>
       </c>
-      <c r="S133">
-        <v>1.85</v>
-      </c>
       <c r="T133">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U133">
         <v>1.95</v>
@@ -12368,25 +12368,25 @@
         <v>1.85</v>
       </c>
       <c r="W133">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X133">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y133">
         <v>-1</v>
       </c>
       <c r="Z133">
+        <v>-1</v>
+      </c>
+      <c r="AA133">
         <v>0.95</v>
       </c>
-      <c r="AA133">
-        <v>-1</v>
-      </c>
       <c r="AB133">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC133">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12394,7 +12394,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6126712</v>
+        <v>6126709</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12406,49 +12406,49 @@
         <v>45147.91666666666</v>
       </c>
       <c r="F134" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G134" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J134" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K134">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="L134">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M134">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="N134">
-        <v>1.615</v>
+        <v>2.6</v>
       </c>
       <c r="O134">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="P134">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q134">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R134">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S134">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T134">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U134">
         <v>1.95</v>
@@ -12457,25 +12457,25 @@
         <v>1.85</v>
       </c>
       <c r="W134">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X134">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y134">
         <v>-1</v>
       </c>
       <c r="Z134">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA134">
+        <v>-1</v>
+      </c>
+      <c r="AB134">
         <v>0.95</v>
       </c>
-      <c r="AB134">
-        <v>-1</v>
-      </c>
       <c r="AC134">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12661,7 +12661,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6126713</v>
+        <v>6126721</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12673,46 +12673,46 @@
         <v>45150.85416666666</v>
       </c>
       <c r="F137" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="G137" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I137">
         <v>1</v>
       </c>
       <c r="J137" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K137">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="L137">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="M137">
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="N137">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="O137">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P137">
-        <v>2.4</v>
+        <v>5.25</v>
       </c>
       <c r="Q137">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R137">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S137">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T137">
         <v>2.5</v>
@@ -12724,25 +12724,25 @@
         <v>1.925</v>
       </c>
       <c r="W137">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X137">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y137">
         <v>-1</v>
       </c>
       <c r="Z137">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA137">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB137">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC137">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12750,7 +12750,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6126714</v>
+        <v>6126713</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12762,76 +12762,76 @@
         <v>45150.85416666666</v>
       </c>
       <c r="F138" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G138" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I138">
         <v>1</v>
       </c>
       <c r="J138" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K138">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="L138">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M138">
         <v>2.5</v>
       </c>
       <c r="N138">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="O138">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P138">
+        <v>2.4</v>
+      </c>
+      <c r="Q138">
+        <v>0</v>
+      </c>
+      <c r="R138">
+        <v>1.95</v>
+      </c>
+      <c r="S138">
+        <v>1.85</v>
+      </c>
+      <c r="T138">
         <v>2.5</v>
       </c>
-      <c r="Q138">
-        <v>0</v>
-      </c>
-      <c r="R138">
+      <c r="U138">
         <v>1.875</v>
       </c>
-      <c r="S138">
+      <c r="V138">
         <v>1.925</v>
       </c>
-      <c r="T138">
-        <v>2.25</v>
-      </c>
-      <c r="U138">
-        <v>1.95</v>
-      </c>
-      <c r="V138">
-        <v>1.85</v>
-      </c>
       <c r="W138">
         <v>-1</v>
       </c>
       <c r="X138">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y138">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z138">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA138">
+        <v>-0</v>
+      </c>
+      <c r="AB138">
+        <v>-1</v>
+      </c>
+      <c r="AC138">
         <v>0.925</v>
-      </c>
-      <c r="AB138">
-        <v>-1</v>
-      </c>
-      <c r="AC138">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12839,7 +12839,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6126721</v>
+        <v>6126714</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12851,76 +12851,76 @@
         <v>45150.85416666666</v>
       </c>
       <c r="F139" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="G139" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H139">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I139">
         <v>1</v>
       </c>
       <c r="J139" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K139">
-        <v>1.4</v>
+        <v>2.45</v>
       </c>
       <c r="L139">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="M139">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="N139">
+        <v>2.45</v>
+      </c>
+      <c r="O139">
+        <v>3.2</v>
+      </c>
+      <c r="P139">
+        <v>2.5</v>
+      </c>
+      <c r="Q139">
+        <v>0</v>
+      </c>
+      <c r="R139">
+        <v>1.875</v>
+      </c>
+      <c r="S139">
+        <v>1.925</v>
+      </c>
+      <c r="T139">
+        <v>2.25</v>
+      </c>
+      <c r="U139">
+        <v>1.95</v>
+      </c>
+      <c r="V139">
+        <v>1.85</v>
+      </c>
+      <c r="W139">
+        <v>-1</v>
+      </c>
+      <c r="X139">
+        <v>-1</v>
+      </c>
+      <c r="Y139">
         <v>1.5</v>
       </c>
-      <c r="O139">
-        <v>4</v>
-      </c>
-      <c r="P139">
-        <v>5.25</v>
-      </c>
-      <c r="Q139">
-        <v>-1</v>
-      </c>
-      <c r="R139">
-        <v>1.825</v>
-      </c>
-      <c r="S139">
-        <v>1.975</v>
-      </c>
-      <c r="T139">
-        <v>2.5</v>
-      </c>
-      <c r="U139">
-        <v>1.875</v>
-      </c>
-      <c r="V139">
-        <v>1.925</v>
-      </c>
-      <c r="W139">
-        <v>0.5</v>
-      </c>
-      <c r="X139">
-        <v>-1</v>
-      </c>
-      <c r="Y139">
-        <v>-1</v>
-      </c>
       <c r="Z139">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA139">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB139">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC139">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -13029,10 +13029,10 @@
         <v>45150.91666666666</v>
       </c>
       <c r="F141" t="s">
+        <v>35</v>
+      </c>
+      <c r="G141" t="s">
         <v>36</v>
-      </c>
-      <c r="G141" t="s">
-        <v>35</v>
       </c>
       <c r="H141">
         <v>0</v>
@@ -13474,7 +13474,7 @@
         <v>45154.91666666666</v>
       </c>
       <c r="F146" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G146" t="s">
         <v>43</v>
@@ -13907,7 +13907,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>6126730</v>
+        <v>6126727</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13919,40 +13919,40 @@
         <v>45157.85416666666</v>
       </c>
       <c r="F151" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="G151" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="H151">
         <v>1</v>
       </c>
       <c r="I151">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J151" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K151">
+        <v>1.833</v>
+      </c>
+      <c r="L151">
+        <v>3.4</v>
+      </c>
+      <c r="M151">
+        <v>3.6</v>
+      </c>
+      <c r="N151">
+        <v>1.85</v>
+      </c>
+      <c r="O151">
         <v>3.5</v>
       </c>
-      <c r="L151">
-        <v>3.25</v>
-      </c>
-      <c r="M151">
-        <v>1.909</v>
-      </c>
-      <c r="N151">
-        <v>3.75</v>
-      </c>
-      <c r="O151">
-        <v>3.3</v>
-      </c>
       <c r="P151">
-        <v>1.85</v>
+        <v>3.5</v>
       </c>
       <c r="Q151">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R151">
         <v>1.9</v>
@@ -13961,34 +13961,34 @@
         <v>1.9</v>
       </c>
       <c r="T151">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U151">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V151">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W151">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X151">
         <v>-1</v>
       </c>
       <c r="Y151">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z151">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA151">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB151">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC151">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -13996,7 +13996,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6126727</v>
+        <v>6126730</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -14008,40 +14008,40 @@
         <v>45157.85416666666</v>
       </c>
       <c r="F152" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="G152" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="H152">
         <v>1</v>
       </c>
       <c r="I152">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J152" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K152">
-        <v>1.833</v>
+        <v>3.5</v>
       </c>
       <c r="L152">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M152">
-        <v>3.6</v>
+        <v>1.909</v>
       </c>
       <c r="N152">
+        <v>3.75</v>
+      </c>
+      <c r="O152">
+        <v>3.3</v>
+      </c>
+      <c r="P152">
         <v>1.85</v>
       </c>
-      <c r="O152">
-        <v>3.5</v>
-      </c>
-      <c r="P152">
-        <v>3.5</v>
-      </c>
       <c r="Q152">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R152">
         <v>1.9</v>
@@ -14050,34 +14050,34 @@
         <v>1.9</v>
       </c>
       <c r="T152">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U152">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V152">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W152">
+        <v>-1</v>
+      </c>
+      <c r="X152">
+        <v>-1</v>
+      </c>
+      <c r="Y152">
         <v>0.8500000000000001</v>
       </c>
-      <c r="X152">
-        <v>-1</v>
-      </c>
-      <c r="Y152">
-        <v>-1</v>
-      </c>
       <c r="Z152">
+        <v>-1</v>
+      </c>
+      <c r="AA152">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA152">
-        <v>-1</v>
-      </c>
       <c r="AB152">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC152">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14186,7 +14186,7 @@
         <v>45157.91666666666</v>
       </c>
       <c r="F154" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G154" t="s">
         <v>38</v>
@@ -14278,7 +14278,7 @@
         <v>40</v>
       </c>
       <c r="G155" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H155">
         <v>2</v>
@@ -14441,7 +14441,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6126732</v>
+        <v>6126731</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14453,19 +14453,19 @@
         <v>45157.95833333334</v>
       </c>
       <c r="F157" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="G157" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H157">
         <v>2</v>
       </c>
       <c r="I157">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J157" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K157">
         <v>2</v>
@@ -14477,52 +14477,52 @@
         <v>3.1</v>
       </c>
       <c r="N157">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="O157">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P157">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="Q157">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R157">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S157">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T157">
         <v>2.5</v>
       </c>
       <c r="U157">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V157">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W157">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X157">
         <v>-1</v>
       </c>
       <c r="Y157">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z157">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA157">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB157">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC157">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14530,7 +14530,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6126731</v>
+        <v>6126732</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14542,19 +14542,19 @@
         <v>45157.95833333334</v>
       </c>
       <c r="F158" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="G158" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H158">
         <v>2</v>
       </c>
       <c r="I158">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J158" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K158">
         <v>2</v>
@@ -14566,52 +14566,52 @@
         <v>3.1</v>
       </c>
       <c r="N158">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="O158">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P158">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="Q158">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R158">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S158">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T158">
         <v>2.5</v>
       </c>
       <c r="U158">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V158">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W158">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X158">
         <v>-1</v>
       </c>
       <c r="Y158">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z158">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA158">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB158">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC158">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14708,7 +14708,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6126739</v>
+        <v>6126741</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14720,76 +14720,76 @@
         <v>45161.875</v>
       </c>
       <c r="F160" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="G160" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J160" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K160">
-        <v>2.55</v>
+        <v>1.909</v>
       </c>
       <c r="L160">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M160">
-        <v>2.625</v>
+        <v>3.7</v>
       </c>
       <c r="N160">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="O160">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P160">
-        <v>2.375</v>
+        <v>3.4</v>
       </c>
       <c r="Q160">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R160">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="S160">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="T160">
         <v>2.75</v>
       </c>
       <c r="U160">
+        <v>1.95</v>
+      </c>
+      <c r="V160">
         <v>1.85</v>
       </c>
-      <c r="V160">
-        <v>1.95</v>
-      </c>
       <c r="W160">
         <v>-1</v>
       </c>
       <c r="X160">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y160">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z160">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA160">
-        <v>0.7749999999999999</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB160">
+        <v>-1</v>
+      </c>
+      <c r="AC160">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC160">
-        <v>-1</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -14797,7 +14797,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6126741</v>
+        <v>6126739</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14809,76 +14809,76 @@
         <v>45161.875</v>
       </c>
       <c r="F161" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="G161" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I161">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J161" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K161">
-        <v>1.909</v>
+        <v>2.55</v>
       </c>
       <c r="L161">
+        <v>3.3</v>
+      </c>
+      <c r="M161">
+        <v>2.625</v>
+      </c>
+      <c r="N161">
+        <v>2.7</v>
+      </c>
+      <c r="O161">
         <v>3.5</v>
       </c>
-      <c r="M161">
-        <v>3.7</v>
-      </c>
-      <c r="N161">
-        <v>2</v>
-      </c>
-      <c r="O161">
-        <v>3.4</v>
-      </c>
       <c r="P161">
-        <v>3.4</v>
+        <v>2.375</v>
       </c>
       <c r="Q161">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R161">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="S161">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="T161">
         <v>2.75</v>
       </c>
       <c r="U161">
+        <v>1.85</v>
+      </c>
+      <c r="V161">
         <v>1.95</v>
       </c>
-      <c r="V161">
-        <v>1.85</v>
-      </c>
       <c r="W161">
         <v>-1</v>
       </c>
       <c r="X161">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y161">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z161">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA161">
-        <v>0.5249999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB161">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC161">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -14898,7 +14898,7 @@
         <v>45161.91666666666</v>
       </c>
       <c r="F162" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G162" t="s">
         <v>50</v>
@@ -15242,7 +15242,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6126747</v>
+        <v>6126743</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15254,16 +15254,16 @@
         <v>45164.85416666666</v>
       </c>
       <c r="F166" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G166" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J166" t="s">
         <v>56</v>
@@ -15278,34 +15278,34 @@
         <v>3.25</v>
       </c>
       <c r="N166">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="O166">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P166">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q166">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R166">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S166">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T166">
         <v>2.5</v>
       </c>
       <c r="U166">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V166">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W166">
-        <v>0.8500000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="X166">
         <v>-1</v>
@@ -15314,16 +15314,16 @@
         <v>-1</v>
       </c>
       <c r="Z166">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA166">
         <v>-1</v>
       </c>
       <c r="AB166">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC166">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15331,7 +15331,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6126743</v>
+        <v>6126747</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15343,16 +15343,16 @@
         <v>45164.85416666666</v>
       </c>
       <c r="F167" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G167" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="H167">
+        <v>2</v>
+      </c>
+      <c r="I167">
         <v>1</v>
-      </c>
-      <c r="I167">
-        <v>0</v>
       </c>
       <c r="J167" t="s">
         <v>56</v>
@@ -15367,34 +15367,34 @@
         <v>3.25</v>
       </c>
       <c r="N167">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="O167">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P167">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="Q167">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R167">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S167">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T167">
         <v>2.5</v>
       </c>
       <c r="U167">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V167">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W167">
-        <v>1.1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X167">
         <v>-1</v>
@@ -15403,16 +15403,16 @@
         <v>-1</v>
       </c>
       <c r="Z167">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA167">
         <v>-1</v>
       </c>
       <c r="AB167">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC167">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15521,7 +15521,7 @@
         <v>45164.91666666666</v>
       </c>
       <c r="F169" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G169" t="s">
         <v>49</v>
@@ -15610,7 +15610,7 @@
         <v>45164.91666666666</v>
       </c>
       <c r="F170" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G170" t="s">
         <v>31</v>
@@ -15776,7 +15776,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6126751</v>
+        <v>6126746</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15788,55 +15788,55 @@
         <v>45164.97916666666</v>
       </c>
       <c r="F172" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G172" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J172" t="s">
         <v>55</v>
       </c>
       <c r="K172">
-        <v>1.75</v>
+        <v>3.25</v>
       </c>
       <c r="L172">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M172">
-        <v>4.333</v>
+        <v>2.05</v>
       </c>
       <c r="N172">
-        <v>1.615</v>
+        <v>3</v>
       </c>
       <c r="O172">
         <v>3.75</v>
       </c>
       <c r="P172">
-        <v>5</v>
+        <v>2.15</v>
       </c>
       <c r="Q172">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R172">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S172">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T172">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U172">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V172">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W172">
         <v>-1</v>
@@ -15845,19 +15845,19 @@
         <v>-1</v>
       </c>
       <c r="Y172">
-        <v>4</v>
+        <v>1.15</v>
       </c>
       <c r="Z172">
         <v>-1</v>
       </c>
       <c r="AA172">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB172">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC172">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -15865,7 +15865,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6126746</v>
+        <v>6126751</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15877,56 +15877,56 @@
         <v>45164.97916666666</v>
       </c>
       <c r="F173" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G173" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J173" t="s">
         <v>55</v>
       </c>
       <c r="K173">
-        <v>3.25</v>
+        <v>1.75</v>
       </c>
       <c r="L173">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M173">
-        <v>2.05</v>
+        <v>4.333</v>
       </c>
       <c r="N173">
-        <v>3</v>
+        <v>1.615</v>
       </c>
       <c r="O173">
         <v>3.75</v>
       </c>
       <c r="P173">
-        <v>2.15</v>
+        <v>5</v>
       </c>
       <c r="Q173">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R173">
+        <v>1.95</v>
+      </c>
+      <c r="S173">
+        <v>1.75</v>
+      </c>
+      <c r="T173">
+        <v>2.5</v>
+      </c>
+      <c r="U173">
         <v>1.9</v>
       </c>
-      <c r="S173">
+      <c r="V173">
         <v>1.9</v>
       </c>
-      <c r="T173">
-        <v>3</v>
-      </c>
-      <c r="U173">
-        <v>2</v>
-      </c>
-      <c r="V173">
-        <v>1.8</v>
-      </c>
       <c r="W173">
         <v>-1</v>
       </c>
@@ -15934,19 +15934,19 @@
         <v>-1</v>
       </c>
       <c r="Y173">
-        <v>1.15</v>
+        <v>4</v>
       </c>
       <c r="Z173">
         <v>-1</v>
       </c>
       <c r="AA173">
+        <v>0.75</v>
+      </c>
+      <c r="AB173">
+        <v>-1</v>
+      </c>
+      <c r="AC173">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB173">
-        <v>1</v>
-      </c>
-      <c r="AC173">
-        <v>-1</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -16058,7 +16058,7 @@
         <v>43</v>
       </c>
       <c r="G175" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H175">
         <v>0</v>
@@ -16144,7 +16144,7 @@
         <v>45168.91666666666</v>
       </c>
       <c r="F176" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G176" t="s">
         <v>44</v>
@@ -16399,7 +16399,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6126766</v>
+        <v>6126759</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16411,76 +16411,76 @@
         <v>45171.85416666666</v>
       </c>
       <c r="F179" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="G179" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I179">
         <v>1</v>
       </c>
       <c r="J179" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K179">
-        <v>1.333</v>
+        <v>2.9</v>
       </c>
       <c r="L179">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="M179">
-        <v>7.5</v>
+        <v>2.2</v>
       </c>
       <c r="N179">
-        <v>1.045</v>
+        <v>2.6</v>
       </c>
       <c r="O179">
-        <v>11</v>
+        <v>3.25</v>
       </c>
       <c r="P179">
-        <v>19</v>
+        <v>2.5</v>
       </c>
       <c r="Q179">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="R179">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S179">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T179">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U179">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="V179">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W179">
-        <v>0.04499999999999993</v>
+        <v>-1</v>
       </c>
       <c r="X179">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y179">
         <v>-1</v>
       </c>
       <c r="Z179">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA179">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
       <c r="AB179">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC179">
-        <v>1.05</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16488,7 +16488,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6126759</v>
+        <v>6126766</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16500,76 +16500,76 @@
         <v>45171.85416666666</v>
       </c>
       <c r="F180" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="G180" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H180">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I180">
         <v>1</v>
       </c>
       <c r="J180" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K180">
-        <v>2.9</v>
+        <v>1.333</v>
       </c>
       <c r="L180">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="M180">
-        <v>2.2</v>
+        <v>7.5</v>
       </c>
       <c r="N180">
-        <v>2.6</v>
+        <v>1.045</v>
       </c>
       <c r="O180">
-        <v>3.25</v>
+        <v>11</v>
       </c>
       <c r="P180">
-        <v>2.5</v>
+        <v>19</v>
       </c>
       <c r="Q180">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="R180">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S180">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T180">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U180">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="V180">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W180">
-        <v>-1</v>
+        <v>0.04499999999999993</v>
       </c>
       <c r="X180">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y180">
         <v>-1</v>
       </c>
       <c r="Z180">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA180">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
       <c r="AB180">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC180">
-        <v>-0</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16678,7 +16678,7 @@
         <v>45171.91666666666</v>
       </c>
       <c r="F182" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G182" t="s">
         <v>29</v>
@@ -17215,7 +17215,7 @@
         <v>49</v>
       </c>
       <c r="G188" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H188">
         <v>2</v>
@@ -17467,7 +17467,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>6126779</v>
+        <v>6126770</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17479,58 +17479,58 @@
         <v>45178.85416666666</v>
       </c>
       <c r="F191" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G191" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H191">
         <v>2</v>
       </c>
       <c r="I191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J191" t="s">
         <v>56</v>
       </c>
       <c r="K191">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="L191">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M191">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="N191">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="O191">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P191">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="Q191">
         <v>-0.25</v>
       </c>
       <c r="R191">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S191">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T191">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U191">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V191">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W191">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="X191">
         <v>-1</v>
@@ -17539,16 +17539,16 @@
         <v>-1</v>
       </c>
       <c r="Z191">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AA191">
         <v>-1</v>
       </c>
       <c r="AB191">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC191">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -17645,7 +17645,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>6126770</v>
+        <v>6126779</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17657,58 +17657,58 @@
         <v>45178.85416666666</v>
       </c>
       <c r="F193" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G193" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H193">
         <v>2</v>
       </c>
       <c r="I193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J193" t="s">
         <v>56</v>
       </c>
       <c r="K193">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="L193">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M193">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="N193">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="O193">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P193">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="Q193">
         <v>-0.25</v>
       </c>
       <c r="R193">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S193">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T193">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U193">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V193">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W193">
-        <v>1.15</v>
+        <v>1</v>
       </c>
       <c r="X193">
         <v>-1</v>
@@ -17717,16 +17717,16 @@
         <v>-1</v>
       </c>
       <c r="Z193">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AA193">
         <v>-1</v>
       </c>
       <c r="AB193">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC193">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="194" spans="1:29">
@@ -17927,7 +17927,7 @@
         <v>30</v>
       </c>
       <c r="G196" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H196">
         <v>1</v>
@@ -18194,7 +18194,7 @@
         <v>48</v>
       </c>
       <c r="G199" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H199">
         <v>1</v>
@@ -18369,7 +18369,7 @@
         <v>45184.91666666666</v>
       </c>
       <c r="F201" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G201" t="s">
         <v>41</v>
@@ -18903,7 +18903,7 @@
         <v>45185.89583333334</v>
       </c>
       <c r="F207" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G207" t="s">
         <v>33</v>
@@ -18980,7 +18980,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>6126787</v>
+        <v>6126788</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18992,76 +18992,76 @@
         <v>45185.95833333334</v>
       </c>
       <c r="F208" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="G208" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="H208">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I208">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J208" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K208">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="L208">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M208">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="N208">
-        <v>1.833</v>
+        <v>1.7</v>
       </c>
       <c r="O208">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P208">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="Q208">
         <v>-0.75</v>
       </c>
       <c r="R208">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="S208">
-        <v>1.7</v>
+        <v>1.875</v>
       </c>
       <c r="T208">
         <v>2.75</v>
       </c>
       <c r="U208">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V208">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W208">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X208">
         <v>-1</v>
       </c>
       <c r="Y208">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z208">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="AA208">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB208">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC208">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -19069,7 +19069,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>6126788</v>
+        <v>6126790</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19081,34 +19081,34 @@
         <v>45185.95833333334</v>
       </c>
       <c r="F209" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G209" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I209">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J209" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K209">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="L209">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="M209">
-        <v>4.1</v>
+        <v>5.5</v>
       </c>
       <c r="N209">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="O209">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P209">
         <v>4.5</v>
@@ -19117,40 +19117,40 @@
         <v>-0.75</v>
       </c>
       <c r="R209">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S209">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T209">
         <v>2.75</v>
       </c>
       <c r="U209">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V209">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W209">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X209">
         <v>-1</v>
       </c>
       <c r="Y209">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z209">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA209">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB209">
         <v>-1</v>
       </c>
       <c r="AC209">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="210" spans="1:29">
@@ -19158,7 +19158,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>6126790</v>
+        <v>6126787</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19170,46 +19170,46 @@
         <v>45185.95833333334</v>
       </c>
       <c r="F210" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G210" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H210">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I210">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J210" t="s">
         <v>56</v>
       </c>
       <c r="K210">
-        <v>1.5</v>
+        <v>1.727</v>
       </c>
       <c r="L210">
+        <v>3.75</v>
+      </c>
+      <c r="M210">
         <v>4.2</v>
       </c>
-      <c r="M210">
-        <v>5.5</v>
-      </c>
       <c r="N210">
-        <v>1.65</v>
+        <v>1.833</v>
       </c>
       <c r="O210">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P210">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Q210">
         <v>-0.75</v>
       </c>
       <c r="R210">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="S210">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="T210">
         <v>2.75</v>
@@ -19221,7 +19221,7 @@
         <v>1.85</v>
       </c>
       <c r="W210">
-        <v>0.6499999999999999</v>
+        <v>0.833</v>
       </c>
       <c r="X210">
         <v>-1</v>
@@ -19230,16 +19230,16 @@
         <v>-1</v>
       </c>
       <c r="Z210">
-        <v>0.425</v>
+        <v>0.55</v>
       </c>
       <c r="AA210">
         <v>-0.5</v>
       </c>
       <c r="AB210">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC210">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="211" spans="1:29">
@@ -19707,7 +19707,7 @@
         <v>51</v>
       </c>
       <c r="G216" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H216">
         <v>0</v>
@@ -19974,7 +19974,7 @@
         <v>31</v>
       </c>
       <c r="G219" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H219">
         <v>2</v>
@@ -20048,7 +20048,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>6126801</v>
+        <v>6126798</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20060,76 +20060,76 @@
         <v>45192.85416666666</v>
       </c>
       <c r="F220" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="G220" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I220">
+        <v>0</v>
+      </c>
+      <c r="J220" t="s">
+        <v>56</v>
+      </c>
+      <c r="K220">
+        <v>1.5</v>
+      </c>
+      <c r="L220">
         <v>4</v>
       </c>
-      <c r="J220" t="s">
-        <v>55</v>
-      </c>
-      <c r="K220">
-        <v>1.909</v>
-      </c>
-      <c r="L220">
-        <v>3.4</v>
-      </c>
       <c r="M220">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="N220">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="O220">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P220">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="Q220">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R220">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S220">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T220">
         <v>2.75</v>
       </c>
       <c r="U220">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V220">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W220">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X220">
         <v>-1</v>
       </c>
       <c r="Y220">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z220">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA220">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB220">
-        <v>0.825</v>
+        <v>0.475</v>
       </c>
       <c r="AC220">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20226,7 +20226,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>6126798</v>
+        <v>6126801</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20238,76 +20238,76 @@
         <v>45192.85416666666</v>
       </c>
       <c r="F222" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="G222" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H222">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I222">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J222" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K222">
-        <v>1.5</v>
+        <v>1.909</v>
       </c>
       <c r="L222">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M222">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="N222">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="O222">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P222">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="Q222">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R222">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S222">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T222">
         <v>2.75</v>
       </c>
       <c r="U222">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V222">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W222">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X222">
         <v>-1</v>
       </c>
       <c r="Y222">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z222">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA222">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB222">
-        <v>0.475</v>
+        <v>0.825</v>
       </c>
       <c r="AC222">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="223" spans="1:29">
@@ -20416,7 +20416,7 @@
         <v>45192.89583333334</v>
       </c>
       <c r="F224" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G224" t="s">
         <v>37</v>
@@ -21116,7 +21116,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>6418149</v>
+        <v>6413717</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21128,40 +21128,40 @@
         <v>45199.83333333334</v>
       </c>
       <c r="F232" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G232" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I232">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J232" t="s">
         <v>56</v>
       </c>
       <c r="K232">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="L232">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="M232">
-        <v>5.75</v>
+        <v>6.6</v>
       </c>
       <c r="N232">
-        <v>1.5</v>
+        <v>1.333</v>
       </c>
       <c r="O232">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P232">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="Q232">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R232">
         <v>1.75</v>
@@ -21170,16 +21170,16 @@
         <v>1.95</v>
       </c>
       <c r="T232">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U232">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V232">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W232">
-        <v>0.5</v>
+        <v>0.333</v>
       </c>
       <c r="X232">
         <v>-1</v>
@@ -21188,16 +21188,16 @@
         <v>-1</v>
       </c>
       <c r="Z232">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="AA232">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB232">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC232">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="233" spans="1:29">
@@ -21294,7 +21294,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>6413717</v>
+        <v>6418149</v>
       </c>
       <c r="C234" t="s">
         <v>28</v>
@@ -21306,40 +21306,40 @@
         <v>45199.83333333334</v>
       </c>
       <c r="F234" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G234" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="H234">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I234">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J234" t="s">
         <v>56</v>
       </c>
       <c r="K234">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="L234">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="M234">
-        <v>6.6</v>
+        <v>5.75</v>
       </c>
       <c r="N234">
-        <v>1.333</v>
+        <v>1.5</v>
       </c>
       <c r="O234">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P234">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="Q234">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R234">
         <v>1.75</v>
@@ -21348,16 +21348,16 @@
         <v>1.95</v>
       </c>
       <c r="T234">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U234">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V234">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W234">
-        <v>0.333</v>
+        <v>0.5</v>
       </c>
       <c r="X234">
         <v>-1</v>
@@ -21366,16 +21366,16 @@
         <v>-1</v>
       </c>
       <c r="Z234">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AA234">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB234">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC234">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="235" spans="1:29">
@@ -21662,7 +21662,7 @@
         <v>45199.91666666666</v>
       </c>
       <c r="F238" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G238" t="s">
         <v>42</v>
@@ -21932,7 +21932,7 @@
         <v>50</v>
       </c>
       <c r="G241" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H241">
         <v>2</v>
@@ -23178,7 +23178,7 @@
         <v>37</v>
       </c>
       <c r="G255" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H255">
         <v>1</v>
@@ -23252,7 +23252,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>6492575</v>
+        <v>6507495</v>
       </c>
       <c r="C256" t="s">
         <v>28</v>
@@ -23264,55 +23264,55 @@
         <v>45206.97916666666</v>
       </c>
       <c r="F256" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G256" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H256">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I256">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J256" t="s">
         <v>55</v>
       </c>
       <c r="K256">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L256">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M256">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="N256">
-        <v>3.5</v>
+        <v>1.85</v>
       </c>
       <c r="O256">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P256">
-        <v>1.909</v>
+        <v>3.8</v>
       </c>
       <c r="Q256">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R256">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S256">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T256">
         <v>2.75</v>
       </c>
       <c r="U256">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="V256">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W256">
         <v>-1</v>
@@ -23321,19 +23321,19 @@
         <v>-1</v>
       </c>
       <c r="Y256">
-        <v>0.909</v>
+        <v>2.8</v>
       </c>
       <c r="Z256">
         <v>-1</v>
       </c>
       <c r="AA256">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB256">
-        <v>0.75</v>
+        <v>0.475</v>
       </c>
       <c r="AC256">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="257" spans="1:29">
@@ -23341,7 +23341,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>6507495</v>
+        <v>6492575</v>
       </c>
       <c r="C257" t="s">
         <v>28</v>
@@ -23353,56 +23353,56 @@
         <v>45206.97916666666</v>
       </c>
       <c r="F257" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G257" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H257">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I257">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J257" t="s">
         <v>55</v>
       </c>
       <c r="K257">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L257">
+        <v>3.4</v>
+      </c>
+      <c r="M257">
+        <v>2.3</v>
+      </c>
+      <c r="N257">
         <v>3.5</v>
       </c>
-      <c r="M257">
+      <c r="O257">
         <v>3.6</v>
       </c>
-      <c r="N257">
-        <v>1.85</v>
-      </c>
-      <c r="O257">
-        <v>3.75</v>
-      </c>
       <c r="P257">
-        <v>3.8</v>
+        <v>1.909</v>
       </c>
       <c r="Q257">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R257">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S257">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T257">
         <v>2.75</v>
       </c>
       <c r="U257">
+        <v>1.75</v>
+      </c>
+      <c r="V257">
         <v>1.95</v>
       </c>
-      <c r="V257">
-        <v>1.85</v>
-      </c>
       <c r="W257">
         <v>-1</v>
       </c>
@@ -23410,19 +23410,19 @@
         <v>-1</v>
       </c>
       <c r="Y257">
-        <v>2.8</v>
+        <v>0.909</v>
       </c>
       <c r="Z257">
         <v>-1</v>
       </c>
       <c r="AA257">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB257">
-        <v>0.475</v>
+        <v>0.75</v>
       </c>
       <c r="AC257">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="258" spans="1:29">
@@ -23620,7 +23620,7 @@
         <v>45212.91666666666</v>
       </c>
       <c r="F260" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G260" t="s">
         <v>34</v>
@@ -23964,7 +23964,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>6531323</v>
+        <v>6504580</v>
       </c>
       <c r="C264" t="s">
         <v>28</v>
@@ -23976,58 +23976,58 @@
         <v>45213.875</v>
       </c>
       <c r="F264" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G264" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H264">
         <v>2</v>
       </c>
       <c r="I264">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J264" t="s">
         <v>56</v>
       </c>
       <c r="K264">
-        <v>1.444</v>
+        <v>2.05</v>
       </c>
       <c r="L264">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M264">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="N264">
-        <v>1.45</v>
+        <v>2</v>
       </c>
       <c r="O264">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P264">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q264">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R264">
+        <v>1.825</v>
+      </c>
+      <c r="S264">
         <v>1.975</v>
-      </c>
-      <c r="S264">
-        <v>1.825</v>
       </c>
       <c r="T264">
         <v>3</v>
       </c>
       <c r="U264">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V264">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W264">
-        <v>0.45</v>
+        <v>1</v>
       </c>
       <c r="X264">
         <v>-1</v>
@@ -24036,16 +24036,16 @@
         <v>-1</v>
       </c>
       <c r="Z264">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA264">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB264">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC264">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="265" spans="1:29">
@@ -24053,7 +24053,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>6504580</v>
+        <v>6531323</v>
       </c>
       <c r="C265" t="s">
         <v>28</v>
@@ -24065,58 +24065,58 @@
         <v>45213.875</v>
       </c>
       <c r="F265" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G265" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H265">
         <v>2</v>
       </c>
       <c r="I265">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J265" t="s">
         <v>56</v>
       </c>
       <c r="K265">
-        <v>2.05</v>
+        <v>1.444</v>
       </c>
       <c r="L265">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M265">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="N265">
-        <v>2</v>
+        <v>1.45</v>
       </c>
       <c r="O265">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P265">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q265">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R265">
+        <v>1.975</v>
+      </c>
+      <c r="S265">
         <v>1.825</v>
-      </c>
-      <c r="S265">
-        <v>1.975</v>
       </c>
       <c r="T265">
         <v>3</v>
       </c>
       <c r="U265">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V265">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W265">
-        <v>1</v>
+        <v>0.45</v>
       </c>
       <c r="X265">
         <v>-1</v>
@@ -24125,16 +24125,16 @@
         <v>-1</v>
       </c>
       <c r="Z265">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA265">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB265">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC265">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="266" spans="1:29">
@@ -24154,7 +24154,7 @@
         <v>45213.89583333334</v>
       </c>
       <c r="F266" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G266" t="s">
         <v>41</v>
@@ -24231,7 +24231,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>6492480</v>
+        <v>6504524</v>
       </c>
       <c r="C267" t="s">
         <v>28</v>
@@ -24243,37 +24243,37 @@
         <v>45213.95833333334</v>
       </c>
       <c r="F267" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G267" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H267">
         <v>1</v>
       </c>
       <c r="I267">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J267" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K267">
-        <v>1.95</v>
+        <v>1.533</v>
       </c>
       <c r="L267">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M267">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="N267">
-        <v>1.727</v>
+        <v>1.7</v>
       </c>
       <c r="O267">
         <v>3.75</v>
       </c>
       <c r="P267">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q267">
         <v>-0.75</v>
@@ -24288,31 +24288,31 @@
         <v>2.75</v>
       </c>
       <c r="U267">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V267">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W267">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X267">
         <v>-1</v>
       </c>
       <c r="Y267">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z267">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA267">
+        <v>-0.5</v>
+      </c>
+      <c r="AB267">
+        <v>-1</v>
+      </c>
+      <c r="AC267">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB267">
-        <v>0.4</v>
-      </c>
-      <c r="AC267">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="268" spans="1:29">
@@ -24320,7 +24320,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>6504695</v>
+        <v>6492480</v>
       </c>
       <c r="C268" t="s">
         <v>28</v>
@@ -24332,55 +24332,55 @@
         <v>45213.95833333334</v>
       </c>
       <c r="F268" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="G268" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I268">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J268" t="s">
         <v>55</v>
       </c>
       <c r="K268">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="L268">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M268">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="N268">
-        <v>3.8</v>
+        <v>1.727</v>
       </c>
       <c r="O268">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P268">
+        <v>3.75</v>
+      </c>
+      <c r="Q268">
+        <v>-0.75</v>
+      </c>
+      <c r="R268">
+        <v>1.95</v>
+      </c>
+      <c r="S268">
+        <v>1.85</v>
+      </c>
+      <c r="T268">
+        <v>2.75</v>
+      </c>
+      <c r="U268">
         <v>1.8</v>
       </c>
-      <c r="Q268">
-        <v>0.75</v>
-      </c>
-      <c r="R268">
-        <v>1.8</v>
-      </c>
-      <c r="S268">
-        <v>2</v>
-      </c>
-      <c r="T268">
-        <v>2.5</v>
-      </c>
-      <c r="U268">
-        <v>1.875</v>
-      </c>
       <c r="V268">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W268">
         <v>-1</v>
@@ -24389,19 +24389,19 @@
         <v>-1</v>
       </c>
       <c r="Y268">
-        <v>0.8</v>
+        <v>2.75</v>
       </c>
       <c r="Z268">
+        <v>-1</v>
+      </c>
+      <c r="AA268">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB268">
+        <v>0.4</v>
+      </c>
+      <c r="AC268">
         <v>-0.5</v>
-      </c>
-      <c r="AA268">
-        <v>0.5</v>
-      </c>
-      <c r="AB268">
-        <v>-1</v>
-      </c>
-      <c r="AC268">
-        <v>0.925</v>
       </c>
     </row>
     <row r="269" spans="1:29">
@@ -24409,7 +24409,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>6504524</v>
+        <v>6504695</v>
       </c>
       <c r="C269" t="s">
         <v>28</v>
@@ -24421,76 +24421,76 @@
         <v>45213.95833333334</v>
       </c>
       <c r="F269" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G269" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="H269">
+        <v>0</v>
+      </c>
+      <c r="I269">
         <v>1</v>
       </c>
-      <c r="I269">
-        <v>0</v>
-      </c>
       <c r="J269" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K269">
-        <v>1.533</v>
+        <v>2.3</v>
       </c>
       <c r="L269">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M269">
-        <v>4.75</v>
+        <v>2.6</v>
       </c>
       <c r="N269">
-        <v>1.7</v>
+        <v>3.8</v>
       </c>
       <c r="O269">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P269">
-        <v>3.8</v>
+        <v>1.8</v>
       </c>
       <c r="Q269">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R269">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S269">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T269">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U269">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V269">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W269">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X269">
         <v>-1</v>
       </c>
       <c r="Y269">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z269">
-        <v>0.475</v>
+        <v>-0.5</v>
       </c>
       <c r="AA269">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="AB269">
         <v>-1</v>
       </c>
       <c r="AC269">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="270" spans="1:29">
@@ -24866,7 +24866,7 @@
         <v>45220.91666666666</v>
       </c>
       <c r="F274" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G274" t="s">
         <v>30</v>
@@ -24958,7 +24958,7 @@
         <v>51</v>
       </c>
       <c r="G275" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H275">
         <v>1</v>
@@ -25314,7 +25314,7 @@
         <v>51</v>
       </c>
       <c r="G279" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H279">
         <v>3</v>
@@ -25934,7 +25934,7 @@
         <v>45360.75</v>
       </c>
       <c r="F286" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G286" t="s">
         <v>31</v>
@@ -26290,7 +26290,7 @@
         <v>45360.9375</v>
       </c>
       <c r="F290" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G290" t="s">
         <v>39</v>
@@ -26545,7 +26545,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>7689546</v>
+        <v>7689545</v>
       </c>
       <c r="C293" t="s">
         <v>28</v>
@@ -26557,73 +26557,73 @@
         <v>45361</v>
       </c>
       <c r="F293" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G293" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H293">
         <v>2</v>
       </c>
       <c r="I293">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J293" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K293">
-        <v>1.533</v>
+        <v>2.3</v>
       </c>
       <c r="L293">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M293">
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="N293">
-        <v>1.75</v>
+        <v>2.45</v>
       </c>
       <c r="O293">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P293">
-        <v>3.8</v>
+        <v>2.5</v>
       </c>
       <c r="Q293">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R293">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S293">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T293">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U293">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V293">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W293">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X293">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y293">
         <v>-1</v>
       </c>
       <c r="Z293">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA293">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB293">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC293">
         <v>-1</v>
@@ -26634,7 +26634,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>7689545</v>
+        <v>7689546</v>
       </c>
       <c r="C294" t="s">
         <v>28</v>
@@ -26646,73 +26646,73 @@
         <v>45361</v>
       </c>
       <c r="F294" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G294" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H294">
         <v>2</v>
       </c>
       <c r="I294">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J294" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K294">
-        <v>2.3</v>
+        <v>1.533</v>
       </c>
       <c r="L294">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M294">
+        <v>5</v>
+      </c>
+      <c r="N294">
+        <v>1.75</v>
+      </c>
+      <c r="O294">
+        <v>3.6</v>
+      </c>
+      <c r="P294">
+        <v>3.8</v>
+      </c>
+      <c r="Q294">
+        <v>-0.75</v>
+      </c>
+      <c r="R294">
+        <v>2.025</v>
+      </c>
+      <c r="S294">
+        <v>1.775</v>
+      </c>
+      <c r="T294">
+        <v>2.25</v>
+      </c>
+      <c r="U294">
+        <v>1.775</v>
+      </c>
+      <c r="V294">
+        <v>2.025</v>
+      </c>
+      <c r="W294">
+        <v>-1</v>
+      </c>
+      <c r="X294">
         <v>2.6</v>
       </c>
-      <c r="N294">
-        <v>2.45</v>
-      </c>
-      <c r="O294">
-        <v>3.3</v>
-      </c>
-      <c r="P294">
-        <v>2.5</v>
-      </c>
-      <c r="Q294">
-        <v>0</v>
-      </c>
-      <c r="R294">
-        <v>1.85</v>
-      </c>
-      <c r="S294">
-        <v>1.95</v>
-      </c>
-      <c r="T294">
-        <v>2.5</v>
-      </c>
-      <c r="U294">
-        <v>1.825</v>
-      </c>
-      <c r="V294">
-        <v>1.975</v>
-      </c>
-      <c r="W294">
-        <v>1.45</v>
-      </c>
-      <c r="X294">
-        <v>-1</v>
-      </c>
       <c r="Y294">
         <v>-1</v>
       </c>
       <c r="Z294">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA294">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB294">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC294">
         <v>-1</v>
@@ -27079,7 +27079,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>7689838</v>
+        <v>7689553</v>
       </c>
       <c r="C299" t="s">
         <v>28</v>
@@ -27091,49 +27091,49 @@
         <v>45367.83333333334</v>
       </c>
       <c r="F299" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G299" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="H299">
         <v>0</v>
       </c>
       <c r="I299">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J299" t="s">
         <v>55</v>
       </c>
       <c r="K299">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="L299">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M299">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="N299">
-        <v>1.85</v>
+        <v>3.75</v>
       </c>
       <c r="O299">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P299">
-        <v>3.6</v>
+        <v>1.727</v>
       </c>
       <c r="Q299">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R299">
+        <v>1.825</v>
+      </c>
+      <c r="S299">
         <v>1.975</v>
       </c>
-      <c r="S299">
-        <v>1.825</v>
-      </c>
       <c r="T299">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U299">
         <v>1.975</v>
@@ -27148,19 +27148,19 @@
         <v>-1</v>
       </c>
       <c r="Y299">
-        <v>2.6</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z299">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA299">
+        <v>0.4875</v>
+      </c>
+      <c r="AB299">
+        <v>-1</v>
+      </c>
+      <c r="AC299">
         <v>0.825</v>
-      </c>
-      <c r="AB299">
-        <v>-0.5</v>
-      </c>
-      <c r="AC299">
-        <v>0.4125</v>
       </c>
     </row>
     <row r="300" spans="1:29">
@@ -27168,7 +27168,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>7689553</v>
+        <v>7689838</v>
       </c>
       <c r="C300" t="s">
         <v>28</v>
@@ -27180,49 +27180,49 @@
         <v>45367.83333333334</v>
       </c>
       <c r="F300" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G300" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H300">
         <v>0</v>
       </c>
       <c r="I300">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J300" t="s">
         <v>55</v>
       </c>
       <c r="K300">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="L300">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M300">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="N300">
-        <v>3.75</v>
+        <v>1.85</v>
       </c>
       <c r="O300">
+        <v>3.25</v>
+      </c>
+      <c r="P300">
         <v>3.6</v>
       </c>
-      <c r="P300">
-        <v>1.727</v>
-      </c>
       <c r="Q300">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R300">
+        <v>1.975</v>
+      </c>
+      <c r="S300">
         <v>1.825</v>
       </c>
-      <c r="S300">
-        <v>1.975</v>
-      </c>
       <c r="T300">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U300">
         <v>1.975</v>
@@ -27237,19 +27237,19 @@
         <v>-1</v>
       </c>
       <c r="Y300">
-        <v>0.7270000000000001</v>
+        <v>2.6</v>
       </c>
       <c r="Z300">
+        <v>-1</v>
+      </c>
+      <c r="AA300">
+        <v>0.825</v>
+      </c>
+      <c r="AB300">
         <v>-0.5</v>
       </c>
-      <c r="AA300">
-        <v>0.4875</v>
-      </c>
-      <c r="AB300">
-        <v>-1</v>
-      </c>
       <c r="AC300">
-        <v>0.825</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="301" spans="1:29">
@@ -27272,7 +27272,7 @@
         <v>33</v>
       </c>
       <c r="G301" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H301">
         <v>2</v>
@@ -27791,7 +27791,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>7689562</v>
+        <v>7689566</v>
       </c>
       <c r="C307" t="s">
         <v>28</v>
@@ -27803,13 +27803,13 @@
         <v>45374.70833333334</v>
       </c>
       <c r="F307" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G307" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H307">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I307">
         <v>1</v>
@@ -27818,43 +27818,43 @@
         <v>56</v>
       </c>
       <c r="K307">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="L307">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M307">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="N307">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="O307">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P307">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="Q307">
         <v>-0.5</v>
       </c>
       <c r="R307">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S307">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T307">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U307">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V307">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W307">
-        <v>1</v>
+        <v>0.909</v>
       </c>
       <c r="X307">
         <v>-1</v>
@@ -27863,16 +27863,16 @@
         <v>-1</v>
       </c>
       <c r="Z307">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AA307">
         <v>-1</v>
       </c>
       <c r="AB307">
-        <v>0.8999999999999999</v>
+        <v>0.4625</v>
       </c>
       <c r="AC307">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="308" spans="1:29">
@@ -27880,7 +27880,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>7689566</v>
+        <v>7689562</v>
       </c>
       <c r="C308" t="s">
         <v>28</v>
@@ -27892,13 +27892,13 @@
         <v>45374.70833333334</v>
       </c>
       <c r="F308" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G308" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I308">
         <v>1</v>
@@ -27907,43 +27907,43 @@
         <v>56</v>
       </c>
       <c r="K308">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="L308">
+        <v>3.2</v>
+      </c>
+      <c r="M308">
+        <v>2.5</v>
+      </c>
+      <c r="N308">
+        <v>2</v>
+      </c>
+      <c r="O308">
+        <v>3.3</v>
+      </c>
+      <c r="P308">
         <v>3.4</v>
-      </c>
-      <c r="M308">
-        <v>3.1</v>
-      </c>
-      <c r="N308">
-        <v>1.909</v>
-      </c>
-      <c r="O308">
-        <v>3.5</v>
-      </c>
-      <c r="P308">
-        <v>3.6</v>
       </c>
       <c r="Q308">
         <v>-0.5</v>
       </c>
       <c r="R308">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S308">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T308">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U308">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V308">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W308">
-        <v>0.909</v>
+        <v>1</v>
       </c>
       <c r="X308">
         <v>-1</v>
@@ -27952,16 +27952,16 @@
         <v>-1</v>
       </c>
       <c r="Z308">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AA308">
         <v>-1</v>
       </c>
       <c r="AB308">
-        <v>0.4625</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC308">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="309" spans="1:29">
@@ -28162,7 +28162,7 @@
         <v>29</v>
       </c>
       <c r="G311" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H311">
         <v>4</v>
@@ -28337,7 +28337,7 @@
         <v>45374.89583333334</v>
       </c>
       <c r="F313" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G313" t="s">
         <v>30</v>
@@ -28414,7 +28414,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>7689559</v>
+        <v>7689560</v>
       </c>
       <c r="C314" t="s">
         <v>28</v>
@@ -28426,76 +28426,76 @@
         <v>45374.95833333334</v>
       </c>
       <c r="F314" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G314" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H314">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I314">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J314" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K314">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="L314">
         <v>3.4</v>
       </c>
       <c r="M314">
-        <v>2.875</v>
+        <v>4.2</v>
       </c>
       <c r="N314">
-        <v>1.6</v>
+        <v>1.615</v>
       </c>
       <c r="O314">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P314">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q314">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R314">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S314">
+        <v>2</v>
+      </c>
+      <c r="T314">
+        <v>2.5</v>
+      </c>
+      <c r="U314">
+        <v>2</v>
+      </c>
+      <c r="V314">
         <v>1.8</v>
       </c>
-      <c r="T314">
-        <v>2.75</v>
-      </c>
-      <c r="U314">
-        <v>1.825</v>
-      </c>
-      <c r="V314">
-        <v>1.975</v>
-      </c>
       <c r="W314">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X314">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y314">
         <v>-1</v>
       </c>
       <c r="Z314">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA314">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AB314">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC314">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="315" spans="1:29">
@@ -28503,7 +28503,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>7689560</v>
+        <v>7689559</v>
       </c>
       <c r="C315" t="s">
         <v>28</v>
@@ -28515,76 +28515,76 @@
         <v>45374.95833333334</v>
       </c>
       <c r="F315" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G315" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H315">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I315">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J315" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K315">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="L315">
         <v>3.4</v>
       </c>
       <c r="M315">
-        <v>4.2</v>
+        <v>2.875</v>
       </c>
       <c r="N315">
-        <v>1.615</v>
+        <v>1.6</v>
       </c>
       <c r="O315">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P315">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="Q315">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R315">
+        <v>2</v>
+      </c>
+      <c r="S315">
         <v>1.8</v>
       </c>
-      <c r="S315">
-        <v>2</v>
-      </c>
       <c r="T315">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U315">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V315">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W315">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X315">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y315">
         <v>-1</v>
       </c>
       <c r="Z315">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA315">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB315">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC315">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="316" spans="1:29">
@@ -29138,7 +29138,7 @@
         <v>45381.89583333334</v>
       </c>
       <c r="F322" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G322" t="s">
         <v>38</v>
@@ -29215,7 +29215,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>7689571</v>
+        <v>7689573</v>
       </c>
       <c r="C323" t="s">
         <v>28</v>
@@ -29227,10 +29227,10 @@
         <v>45381.95833333334</v>
       </c>
       <c r="F323" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="G323" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="H323">
         <v>1</v>
@@ -29242,43 +29242,43 @@
         <v>56</v>
       </c>
       <c r="K323">
-        <v>1.615</v>
+        <v>1.666</v>
       </c>
       <c r="L323">
         <v>3.75</v>
       </c>
       <c r="M323">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="N323">
-        <v>1.7</v>
+        <v>1.533</v>
       </c>
       <c r="O323">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P323">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="Q323">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R323">
+        <v>1.875</v>
+      </c>
+      <c r="S323">
+        <v>1.925</v>
+      </c>
+      <c r="T323">
+        <v>2.5</v>
+      </c>
+      <c r="U323">
+        <v>1.825</v>
+      </c>
+      <c r="V323">
         <v>1.975</v>
       </c>
-      <c r="S323">
-        <v>1.825</v>
-      </c>
-      <c r="T323">
-        <v>2.75</v>
-      </c>
-      <c r="U323">
-        <v>1.9</v>
-      </c>
-      <c r="V323">
-        <v>1.9</v>
-      </c>
       <c r="W323">
-        <v>0.7</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X323">
         <v>-1</v>
@@ -29287,16 +29287,16 @@
         <v>-1</v>
       </c>
       <c r="Z323">
-        <v>0.4875</v>
+        <v>0</v>
       </c>
       <c r="AA323">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB323">
         <v>-1</v>
       </c>
       <c r="AC323">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="324" spans="1:29">
@@ -29304,7 +29304,7 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>7689573</v>
+        <v>7689571</v>
       </c>
       <c r="C324" t="s">
         <v>28</v>
@@ -29316,10 +29316,10 @@
         <v>45381.95833333334</v>
       </c>
       <c r="F324" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="G324" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="H324">
         <v>1</v>
@@ -29331,43 +29331,43 @@
         <v>56</v>
       </c>
       <c r="K324">
-        <v>1.666</v>
+        <v>1.615</v>
       </c>
       <c r="L324">
         <v>3.75</v>
       </c>
       <c r="M324">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="N324">
-        <v>1.533</v>
+        <v>1.7</v>
       </c>
       <c r="O324">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P324">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q324">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R324">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S324">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T324">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U324">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V324">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W324">
-        <v>0.5329999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="X324">
         <v>-1</v>
@@ -29376,16 +29376,16 @@
         <v>-1</v>
       </c>
       <c r="Z324">
-        <v>0</v>
+        <v>0.4875</v>
       </c>
       <c r="AA324">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB324">
         <v>-1</v>
       </c>
       <c r="AC324">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="325" spans="1:29">
@@ -29497,7 +29497,7 @@
         <v>45</v>
       </c>
       <c r="G326" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H326">
         <v>0</v>
@@ -29571,7 +29571,7 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>7689575</v>
+        <v>7689582</v>
       </c>
       <c r="C327" t="s">
         <v>28</v>
@@ -29580,63 +29580,729 @@
         <v>28</v>
       </c>
       <c r="E327" s="2">
-        <v>45387.89583333334</v>
+        <v>45388.625</v>
       </c>
       <c r="F327" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="G327" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K327">
+        <v>2.4</v>
+      </c>
+      <c r="L327">
+        <v>3.4</v>
+      </c>
+      <c r="M327">
+        <v>2.5</v>
+      </c>
+      <c r="N327">
+        <v>1.571</v>
+      </c>
+      <c r="O327">
+        <v>4</v>
+      </c>
+      <c r="P327">
+        <v>4.333</v>
+      </c>
+      <c r="Q327">
+        <v>-1</v>
+      </c>
+      <c r="R327">
+        <v>2</v>
+      </c>
+      <c r="S327">
+        <v>1.8</v>
+      </c>
+      <c r="T327">
+        <v>3</v>
+      </c>
+      <c r="U327">
+        <v>1.95</v>
+      </c>
+      <c r="V327">
+        <v>1.85</v>
+      </c>
+      <c r="W327">
+        <v>0</v>
+      </c>
+      <c r="X327">
+        <v>0</v>
+      </c>
+      <c r="Y327">
+        <v>0</v>
+      </c>
+      <c r="Z327">
+        <v>0</v>
+      </c>
+      <c r="AA327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:29">
+      <c r="A328" s="1">
+        <v>326</v>
+      </c>
+      <c r="B328">
+        <v>7689583</v>
+      </c>
+      <c r="C328" t="s">
+        <v>28</v>
+      </c>
+      <c r="D328" t="s">
+        <v>28</v>
+      </c>
+      <c r="E328" s="2">
+        <v>45388.625</v>
+      </c>
+      <c r="F328" t="s">
+        <v>52</v>
+      </c>
+      <c r="G328" t="s">
+        <v>53</v>
+      </c>
+      <c r="K328">
+        <v>2.1</v>
+      </c>
+      <c r="L328">
+        <v>3.6</v>
+      </c>
+      <c r="M328">
+        <v>2.8</v>
+      </c>
+      <c r="N328">
+        <v>2.1</v>
+      </c>
+      <c r="O328">
+        <v>3.6</v>
+      </c>
+      <c r="P328">
+        <v>2.8</v>
+      </c>
+      <c r="Q328">
+        <v>-0.25</v>
+      </c>
+      <c r="R328">
+        <v>1.9</v>
+      </c>
+      <c r="S328">
+        <v>1.9</v>
+      </c>
+      <c r="T328">
+        <v>2.5</v>
+      </c>
+      <c r="U328">
+        <v>1.8</v>
+      </c>
+      <c r="V328">
+        <v>2</v>
+      </c>
+      <c r="W328">
+        <v>0</v>
+      </c>
+      <c r="X328">
+        <v>0</v>
+      </c>
+      <c r="Y328">
+        <v>0</v>
+      </c>
+      <c r="Z328">
+        <v>0</v>
+      </c>
+      <c r="AA328">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:29">
+      <c r="A329" s="1">
+        <v>327</v>
+      </c>
+      <c r="B329">
+        <v>7689580</v>
+      </c>
+      <c r="C329" t="s">
+        <v>28</v>
+      </c>
+      <c r="D329" t="s">
+        <v>28</v>
+      </c>
+      <c r="E329" s="2">
+        <v>45388.70833333334</v>
+      </c>
+      <c r="F329" t="s">
+        <v>42</v>
+      </c>
+      <c r="G329" t="s">
+        <v>41</v>
+      </c>
+      <c r="K329">
+        <v>1.6</v>
+      </c>
+      <c r="L329">
+        <v>3.75</v>
+      </c>
+      <c r="M329">
+        <v>4.5</v>
+      </c>
+      <c r="N329">
+        <v>1.55</v>
+      </c>
+      <c r="O329">
+        <v>3.75</v>
+      </c>
+      <c r="P329">
+        <v>5</v>
+      </c>
+      <c r="Q329">
+        <v>-1</v>
+      </c>
+      <c r="R329">
+        <v>1.95</v>
+      </c>
+      <c r="S329">
+        <v>1.85</v>
+      </c>
+      <c r="T329">
+        <v>2.75</v>
+      </c>
+      <c r="U329">
+        <v>1.875</v>
+      </c>
+      <c r="V329">
+        <v>1.925</v>
+      </c>
+      <c r="W329">
+        <v>0</v>
+      </c>
+      <c r="X329">
+        <v>0</v>
+      </c>
+      <c r="Y329">
+        <v>0</v>
+      </c>
+      <c r="Z329">
+        <v>0</v>
+      </c>
+      <c r="AA329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:29">
+      <c r="A330" s="1">
+        <v>328</v>
+      </c>
+      <c r="B330">
+        <v>7689579</v>
+      </c>
+      <c r="C330" t="s">
+        <v>28</v>
+      </c>
+      <c r="D330" t="s">
+        <v>28</v>
+      </c>
+      <c r="E330" s="2">
+        <v>45388.70833333334</v>
+      </c>
+      <c r="F330" t="s">
+        <v>34</v>
+      </c>
+      <c r="G330" t="s">
+        <v>37</v>
+      </c>
+      <c r="K330">
+        <v>2.5</v>
+      </c>
+      <c r="L330">
+        <v>3.4</v>
+      </c>
+      <c r="M330">
+        <v>2.4</v>
+      </c>
+      <c r="N330">
+        <v>2.3</v>
+      </c>
+      <c r="O330">
+        <v>3.4</v>
+      </c>
+      <c r="P330">
         <v>2.6</v>
       </c>
-      <c r="L327">
+      <c r="Q330">
+        <v>0</v>
+      </c>
+      <c r="R330">
+        <v>1.775</v>
+      </c>
+      <c r="S330">
+        <v>2.025</v>
+      </c>
+      <c r="T330">
+        <v>2.5</v>
+      </c>
+      <c r="U330">
+        <v>1.8</v>
+      </c>
+      <c r="V330">
+        <v>2</v>
+      </c>
+      <c r="W330">
+        <v>0</v>
+      </c>
+      <c r="X330">
+        <v>0</v>
+      </c>
+      <c r="Y330">
+        <v>0</v>
+      </c>
+      <c r="Z330">
+        <v>0</v>
+      </c>
+      <c r="AA330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:29">
+      <c r="A331" s="1">
+        <v>329</v>
+      </c>
+      <c r="B331">
+        <v>7689841</v>
+      </c>
+      <c r="C331" t="s">
+        <v>28</v>
+      </c>
+      <c r="D331" t="s">
+        <v>28</v>
+      </c>
+      <c r="E331" s="2">
+        <v>45388.83333333334</v>
+      </c>
+      <c r="F331" t="s">
+        <v>31</v>
+      </c>
+      <c r="G331" t="s">
+        <v>33</v>
+      </c>
+      <c r="K331">
+        <v>2.4</v>
+      </c>
+      <c r="L331">
+        <v>3.6</v>
+      </c>
+      <c r="M331">
+        <v>2.4</v>
+      </c>
+      <c r="N331">
+        <v>2.2</v>
+      </c>
+      <c r="O331">
+        <v>3.75</v>
+      </c>
+      <c r="P331">
+        <v>2.6</v>
+      </c>
+      <c r="Q331">
+        <v>-0.25</v>
+      </c>
+      <c r="R331">
+        <v>1.95</v>
+      </c>
+      <c r="S331">
+        <v>1.85</v>
+      </c>
+      <c r="T331">
+        <v>2.25</v>
+      </c>
+      <c r="U331">
+        <v>1.85</v>
+      </c>
+      <c r="V331">
+        <v>1.95</v>
+      </c>
+      <c r="W331">
+        <v>0</v>
+      </c>
+      <c r="X331">
+        <v>0</v>
+      </c>
+      <c r="Y331">
+        <v>0</v>
+      </c>
+      <c r="Z331">
+        <v>0</v>
+      </c>
+      <c r="AA331">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:29">
+      <c r="A332" s="1">
+        <v>330</v>
+      </c>
+      <c r="B332">
+        <v>7710082</v>
+      </c>
+      <c r="C332" t="s">
+        <v>28</v>
+      </c>
+      <c r="D332" t="s">
+        <v>28</v>
+      </c>
+      <c r="E332" s="2">
+        <v>45388.85416666666</v>
+      </c>
+      <c r="F332" t="s">
+        <v>54</v>
+      </c>
+      <c r="G332" t="s">
+        <v>29</v>
+      </c>
+      <c r="K332">
+        <v>3.2</v>
+      </c>
+      <c r="L332">
+        <v>3.6</v>
+      </c>
+      <c r="M332">
+        <v>1.909</v>
+      </c>
+      <c r="N332">
+        <v>3.1</v>
+      </c>
+      <c r="O332">
+        <v>3.6</v>
+      </c>
+      <c r="P332">
+        <v>1.95</v>
+      </c>
+      <c r="Q332">
+        <v>0.25</v>
+      </c>
+      <c r="R332">
+        <v>2.05</v>
+      </c>
+      <c r="S332">
+        <v>1.75</v>
+      </c>
+      <c r="T332">
+        <v>2.75</v>
+      </c>
+      <c r="U332">
+        <v>1.925</v>
+      </c>
+      <c r="V332">
+        <v>1.875</v>
+      </c>
+      <c r="W332">
+        <v>0</v>
+      </c>
+      <c r="X332">
+        <v>0</v>
+      </c>
+      <c r="Y332">
+        <v>0</v>
+      </c>
+      <c r="Z332">
+        <v>0</v>
+      </c>
+      <c r="AA332">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:29">
+      <c r="A333" s="1">
+        <v>331</v>
+      </c>
+      <c r="B333">
+        <v>7689576</v>
+      </c>
+      <c r="C333" t="s">
+        <v>28</v>
+      </c>
+      <c r="D333" t="s">
+        <v>28</v>
+      </c>
+      <c r="E333" s="2">
+        <v>45388.875</v>
+      </c>
+      <c r="F333" t="s">
+        <v>30</v>
+      </c>
+      <c r="G333" t="s">
+        <v>51</v>
+      </c>
+      <c r="K333">
+        <v>2.6</v>
+      </c>
+      <c r="L333">
+        <v>3.4</v>
+      </c>
+      <c r="M333">
+        <v>2.3</v>
+      </c>
+      <c r="N333">
+        <v>2.7</v>
+      </c>
+      <c r="O333">
+        <v>3.4</v>
+      </c>
+      <c r="P333">
+        <v>2.25</v>
+      </c>
+      <c r="Q333">
+        <v>0.25</v>
+      </c>
+      <c r="R333">
+        <v>1.775</v>
+      </c>
+      <c r="S333">
+        <v>2.025</v>
+      </c>
+      <c r="T333">
+        <v>2.5</v>
+      </c>
+      <c r="U333">
+        <v>1.95</v>
+      </c>
+      <c r="V333">
+        <v>1.85</v>
+      </c>
+      <c r="W333">
+        <v>0</v>
+      </c>
+      <c r="X333">
+        <v>0</v>
+      </c>
+      <c r="Y333">
+        <v>0</v>
+      </c>
+      <c r="Z333">
+        <v>0</v>
+      </c>
+      <c r="AA333">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:29">
+      <c r="A334" s="1">
+        <v>332</v>
+      </c>
+      <c r="B334">
+        <v>7689578</v>
+      </c>
+      <c r="C334" t="s">
+        <v>28</v>
+      </c>
+      <c r="D334" t="s">
+        <v>28</v>
+      </c>
+      <c r="E334" s="2">
+        <v>45388.91666666666</v>
+      </c>
+      <c r="F334" t="s">
+        <v>35</v>
+      </c>
+      <c r="G334" t="s">
+        <v>46</v>
+      </c>
+      <c r="K334">
+        <v>1.8</v>
+      </c>
+      <c r="L334">
+        <v>3.75</v>
+      </c>
+      <c r="M334">
+        <v>3.4</v>
+      </c>
+      <c r="N334">
+        <v>1.7</v>
+      </c>
+      <c r="O334">
+        <v>3.8</v>
+      </c>
+      <c r="P334">
+        <v>3.75</v>
+      </c>
+      <c r="Q334">
+        <v>-0.5</v>
+      </c>
+      <c r="R334">
+        <v>1.75</v>
+      </c>
+      <c r="S334">
+        <v>2.05</v>
+      </c>
+      <c r="T334">
+        <v>2.5</v>
+      </c>
+      <c r="U334">
+        <v>2</v>
+      </c>
+      <c r="V334">
+        <v>1.8</v>
+      </c>
+      <c r="W334">
+        <v>0</v>
+      </c>
+      <c r="X334">
+        <v>0</v>
+      </c>
+      <c r="Y334">
+        <v>0</v>
+      </c>
+      <c r="Z334">
+        <v>0</v>
+      </c>
+      <c r="AA334">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:29">
+      <c r="A335" s="1">
+        <v>333</v>
+      </c>
+      <c r="B335">
+        <v>7689577</v>
+      </c>
+      <c r="C335" t="s">
+        <v>28</v>
+      </c>
+      <c r="D335" t="s">
+        <v>28</v>
+      </c>
+      <c r="E335" s="2">
+        <v>45388.95833333334</v>
+      </c>
+      <c r="F335" t="s">
+        <v>50</v>
+      </c>
+      <c r="G335" t="s">
+        <v>38</v>
+      </c>
+      <c r="K335">
+        <v>2</v>
+      </c>
+      <c r="L335">
+        <v>3.6</v>
+      </c>
+      <c r="M335">
+        <v>3</v>
+      </c>
+      <c r="N335">
+        <v>2.15</v>
+      </c>
+      <c r="O335">
         <v>3.5</v>
       </c>
-      <c r="M327">
-        <v>2.25</v>
-      </c>
-      <c r="N327">
+      <c r="P335">
+        <v>2.75</v>
+      </c>
+      <c r="Q335">
+        <v>-0.25</v>
+      </c>
+      <c r="R335">
+        <v>1.95</v>
+      </c>
+      <c r="S335">
+        <v>1.85</v>
+      </c>
+      <c r="T335">
         <v>2.5</v>
       </c>
-      <c r="O327">
-        <v>3.5</v>
-      </c>
-      <c r="P327">
-        <v>2.3</v>
-      </c>
-      <c r="Q327">
-        <v>0</v>
-      </c>
-      <c r="R327">
+      <c r="U335">
+        <v>1.95</v>
+      </c>
+      <c r="V335">
+        <v>1.85</v>
+      </c>
+      <c r="W335">
+        <v>0</v>
+      </c>
+      <c r="X335">
+        <v>0</v>
+      </c>
+      <c r="Y335">
+        <v>0</v>
+      </c>
+      <c r="Z335">
+        <v>0</v>
+      </c>
+      <c r="AA335">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:29">
+      <c r="A336" s="1">
+        <v>334</v>
+      </c>
+      <c r="B336">
+        <v>7689581</v>
+      </c>
+      <c r="C336" t="s">
+        <v>28</v>
+      </c>
+      <c r="D336" t="s">
+        <v>28</v>
+      </c>
+      <c r="E336" s="2">
+        <v>45388.97916666666</v>
+      </c>
+      <c r="F336" t="s">
+        <v>44</v>
+      </c>
+      <c r="G336" t="s">
+        <v>36</v>
+      </c>
+      <c r="K336">
+        <v>3</v>
+      </c>
+      <c r="L336">
+        <v>3.6</v>
+      </c>
+      <c r="M336">
+        <v>2</v>
+      </c>
+      <c r="N336">
+        <v>3.2</v>
+      </c>
+      <c r="O336">
+        <v>3.6</v>
+      </c>
+      <c r="P336">
+        <v>1.909</v>
+      </c>
+      <c r="Q336">
+        <v>0.5</v>
+      </c>
+      <c r="R336">
+        <v>1.825</v>
+      </c>
+      <c r="S336">
         <v>1.975</v>
       </c>
-      <c r="S327">
+      <c r="T336">
+        <v>2.75</v>
+      </c>
+      <c r="U336">
+        <v>1.975</v>
+      </c>
+      <c r="V336">
         <v>1.825</v>
       </c>
-      <c r="T327">
-        <v>2.75</v>
-      </c>
-      <c r="U327">
-        <v>1.9</v>
-      </c>
-      <c r="V327">
-        <v>1.9</v>
-      </c>
-      <c r="W327">
-        <v>0</v>
-      </c>
-      <c r="X327">
-        <v>0</v>
-      </c>
-      <c r="Y327">
-        <v>0</v>
-      </c>
-      <c r="Z327">
-        <v>0</v>
-      </c>
-      <c r="AA327">
+      <c r="W336">
+        <v>0</v>
+      </c>
+      <c r="X336">
+        <v>0</v>
+      </c>
+      <c r="Y336">
+        <v>0</v>
+      </c>
+      <c r="Z336">
+        <v>0</v>
+      </c>
+      <c r="AA336">
         <v>0</v>
       </c>
     </row>

--- a/USA USL Championship/USA USL Championship.xlsx
+++ b/USA USL Championship/USA USL Championship.xlsx
@@ -3316,7 +3316,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6126611</v>
+        <v>6126606</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3328,76 +3328,76 @@
         <v>45094.91666666666</v>
       </c>
       <c r="F32" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H32">
         <v>2</v>
       </c>
       <c r="I32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K32">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="L32">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M32">
+        <v>4.75</v>
+      </c>
+      <c r="N32">
+        <v>1.7</v>
+      </c>
+      <c r="O32">
         <v>3.8</v>
       </c>
-      <c r="N32">
-        <v>2.05</v>
-      </c>
-      <c r="O32">
-        <v>3.4</v>
-      </c>
       <c r="P32">
+        <v>4</v>
+      </c>
+      <c r="Q32">
+        <v>-0.75</v>
+      </c>
+      <c r="R32">
+        <v>1.875</v>
+      </c>
+      <c r="S32">
+        <v>1.925</v>
+      </c>
+      <c r="T32">
         <v>3</v>
       </c>
-      <c r="Q32">
-        <v>-0.25</v>
-      </c>
-      <c r="R32">
-        <v>1.85</v>
-      </c>
-      <c r="S32">
-        <v>1.95</v>
-      </c>
-      <c r="T32">
-        <v>2.5</v>
-      </c>
       <c r="U32">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V32">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W32">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X32">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y32">
         <v>-1</v>
       </c>
       <c r="Z32">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA32">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB32">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC32">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3405,7 +3405,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6126606</v>
+        <v>6126611</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3417,76 +3417,76 @@
         <v>45094.91666666666</v>
       </c>
       <c r="F33" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H33">
         <v>2</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J33" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K33">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="L33">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M33">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="N33">
-        <v>1.7</v>
+        <v>2.05</v>
       </c>
       <c r="O33">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P33">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q33">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R33">
+        <v>1.85</v>
+      </c>
+      <c r="S33">
+        <v>1.95</v>
+      </c>
+      <c r="T33">
+        <v>2.5</v>
+      </c>
+      <c r="U33">
         <v>1.875</v>
       </c>
-      <c r="S33">
+      <c r="V33">
         <v>1.925</v>
       </c>
-      <c r="T33">
-        <v>3</v>
-      </c>
-      <c r="U33">
-        <v>1.975</v>
-      </c>
-      <c r="V33">
-        <v>1.825</v>
-      </c>
       <c r="W33">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X33">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y33">
         <v>-1</v>
       </c>
       <c r="Z33">
+        <v>-0.5</v>
+      </c>
+      <c r="AA33">
+        <v>0.475</v>
+      </c>
+      <c r="AB33">
         <v>0.875</v>
       </c>
-      <c r="AA33">
-        <v>-1</v>
-      </c>
-      <c r="AB33">
-        <v>-1</v>
-      </c>
       <c r="AC33">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -4829,7 +4829,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6126625</v>
+        <v>6126627</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4841,76 +4841,76 @@
         <v>45101.95833333334</v>
       </c>
       <c r="F49" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="G49" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H49">
         <v>1</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K49">
         <v>1.833</v>
       </c>
       <c r="L49">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M49">
         <v>3.6</v>
       </c>
       <c r="N49">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="O49">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P49">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="Q49">
+        <v>-0.25</v>
+      </c>
+      <c r="R49">
+        <v>1.925</v>
+      </c>
+      <c r="S49">
+        <v>1.875</v>
+      </c>
+      <c r="T49">
+        <v>2.5</v>
+      </c>
+      <c r="U49">
+        <v>1.875</v>
+      </c>
+      <c r="V49">
+        <v>1.925</v>
+      </c>
+      <c r="W49">
+        <v>-1</v>
+      </c>
+      <c r="X49">
+        <v>2.25</v>
+      </c>
+      <c r="Y49">
+        <v>-1</v>
+      </c>
+      <c r="Z49">
         <v>-0.5</v>
       </c>
-      <c r="R49">
-        <v>1.825</v>
-      </c>
-      <c r="S49">
-        <v>1.975</v>
-      </c>
-      <c r="T49">
-        <v>2.25</v>
-      </c>
-      <c r="U49">
-        <v>1.95</v>
-      </c>
-      <c r="V49">
-        <v>1.85</v>
-      </c>
-      <c r="W49">
-        <v>0.8</v>
-      </c>
-      <c r="X49">
-        <v>-1</v>
-      </c>
-      <c r="Y49">
-        <v>-1</v>
-      </c>
-      <c r="Z49">
-        <v>0.825</v>
-      </c>
       <c r="AA49">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB49">
         <v>-1</v>
       </c>
       <c r="AC49">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4918,7 +4918,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6126627</v>
+        <v>6126625</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4930,76 +4930,76 @@
         <v>45101.95833333334</v>
       </c>
       <c r="F50" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="G50" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H50">
         <v>1</v>
       </c>
       <c r="I50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K50">
         <v>1.833</v>
       </c>
       <c r="L50">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M50">
         <v>3.6</v>
       </c>
       <c r="N50">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="O50">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P50">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="Q50">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R50">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S50">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T50">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U50">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V50">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W50">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X50">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y50">
         <v>-1</v>
       </c>
       <c r="Z50">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA50">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB50">
         <v>-1</v>
       </c>
       <c r="AC50">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -5986,7 +5986,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6126640</v>
+        <v>6126638</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5998,76 +5998,76 @@
         <v>45109</v>
       </c>
       <c r="F62" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="G62" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K62">
-        <v>1.571</v>
+        <v>2.15</v>
       </c>
       <c r="L62">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M62">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="N62">
-        <v>1.533</v>
+        <v>2.2</v>
       </c>
       <c r="O62">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P62">
-        <v>5.25</v>
+        <v>2.7</v>
       </c>
       <c r="Q62">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R62">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S62">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T62">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U62">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V62">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W62">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X62">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y62">
         <v>-1</v>
       </c>
       <c r="Z62">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA62">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB62">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC62">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6075,7 +6075,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6126638</v>
+        <v>6126640</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6087,76 +6087,76 @@
         <v>45109</v>
       </c>
       <c r="F63" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G63" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H63">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K63">
-        <v>2.15</v>
+        <v>1.571</v>
       </c>
       <c r="L63">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M63">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="N63">
-        <v>2.2</v>
+        <v>1.533</v>
       </c>
       <c r="O63">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P63">
-        <v>2.7</v>
+        <v>5.25</v>
       </c>
       <c r="Q63">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R63">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S63">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T63">
+        <v>2.5</v>
+      </c>
+      <c r="U63">
+        <v>1.875</v>
+      </c>
+      <c r="V63">
+        <v>1.925</v>
+      </c>
+      <c r="W63">
+        <v>-1</v>
+      </c>
+      <c r="X63">
         <v>3</v>
       </c>
-      <c r="U63">
-        <v>1.8</v>
-      </c>
-      <c r="V63">
-        <v>2</v>
-      </c>
-      <c r="W63">
-        <v>1.2</v>
-      </c>
-      <c r="X63">
-        <v>-1</v>
-      </c>
       <c r="Y63">
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA63">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB63">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC63">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -9635,7 +9635,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6126680</v>
+        <v>6126676</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9647,76 +9647,76 @@
         <v>45129.97916666666</v>
       </c>
       <c r="F103" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G103" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J103" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K103">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="L103">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M103">
+        <v>3.6</v>
+      </c>
+      <c r="N103">
+        <v>1.75</v>
+      </c>
+      <c r="O103">
+        <v>4</v>
+      </c>
+      <c r="P103">
         <v>3.5</v>
       </c>
-      <c r="N103">
-        <v>1.7</v>
-      </c>
-      <c r="O103">
-        <v>3.8</v>
-      </c>
-      <c r="P103">
-        <v>4</v>
-      </c>
       <c r="Q103">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R103">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S103">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T103">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U103">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V103">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W103">
         <v>-1</v>
       </c>
       <c r="X103">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y103">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z103">
         <v>-1</v>
       </c>
       <c r="AA103">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB103">
         <v>-1</v>
       </c>
       <c r="AC103">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9724,7 +9724,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6126676</v>
+        <v>6126680</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9736,76 +9736,76 @@
         <v>45129.97916666666</v>
       </c>
       <c r="F104" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G104" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K104">
+        <v>1.909</v>
+      </c>
+      <c r="L104">
+        <v>3.4</v>
+      </c>
+      <c r="M104">
+        <v>3.5</v>
+      </c>
+      <c r="N104">
+        <v>1.7</v>
+      </c>
+      <c r="O104">
+        <v>3.8</v>
+      </c>
+      <c r="P104">
+        <v>4</v>
+      </c>
+      <c r="Q104">
+        <v>-0.75</v>
+      </c>
+      <c r="R104">
+        <v>2</v>
+      </c>
+      <c r="S104">
+        <v>1.8</v>
+      </c>
+      <c r="T104">
+        <v>3</v>
+      </c>
+      <c r="U104">
+        <v>1.95</v>
+      </c>
+      <c r="V104">
         <v>1.85</v>
       </c>
-      <c r="L104">
-        <v>3.5</v>
-      </c>
-      <c r="M104">
-        <v>3.6</v>
-      </c>
-      <c r="N104">
-        <v>1.75</v>
-      </c>
-      <c r="O104">
-        <v>4</v>
-      </c>
-      <c r="P104">
-        <v>3.5</v>
-      </c>
-      <c r="Q104">
-        <v>-0.5</v>
-      </c>
-      <c r="R104">
-        <v>1.825</v>
-      </c>
-      <c r="S104">
-        <v>1.975</v>
-      </c>
-      <c r="T104">
-        <v>3.25</v>
-      </c>
-      <c r="U104">
-        <v>1.975</v>
-      </c>
-      <c r="V104">
-        <v>1.825</v>
-      </c>
       <c r="W104">
         <v>-1</v>
       </c>
       <c r="X104">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y104">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z104">
         <v>-1</v>
       </c>
       <c r="AA104">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB104">
         <v>-1</v>
       </c>
       <c r="AC104">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -10169,7 +10169,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6126687</v>
+        <v>6126685</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10181,10 +10181,10 @@
         <v>45136.85416666666</v>
       </c>
       <c r="F109" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="G109" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="H109">
         <v>1</v>
@@ -10196,40 +10196,40 @@
         <v>55</v>
       </c>
       <c r="K109">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L109">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M109">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="N109">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="O109">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P109">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="Q109">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R109">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="S109">
-        <v>2.075</v>
+        <v>1.95</v>
       </c>
       <c r="T109">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U109">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V109">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W109">
         <v>-1</v>
@@ -10238,19 +10238,19 @@
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="Z109">
         <v>-1</v>
       </c>
       <c r="AA109">
-        <v>1.075</v>
+        <v>0.95</v>
       </c>
       <c r="AB109">
-        <v>0.8500000000000001</v>
+        <v>0.4625</v>
       </c>
       <c r="AC109">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10258,7 +10258,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6126685</v>
+        <v>6126687</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10270,10 +10270,10 @@
         <v>45136.85416666666</v>
       </c>
       <c r="F110" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G110" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="H110">
         <v>1</v>
@@ -10285,41 +10285,41 @@
         <v>55</v>
       </c>
       <c r="K110">
+        <v>2.1</v>
+      </c>
+      <c r="L110">
+        <v>3.3</v>
+      </c>
+      <c r="M110">
+        <v>3</v>
+      </c>
+      <c r="N110">
         <v>2.25</v>
       </c>
-      <c r="L110">
-        <v>3.4</v>
-      </c>
-      <c r="M110">
-        <v>2.625</v>
-      </c>
-      <c r="N110">
-        <v>2.05</v>
-      </c>
       <c r="O110">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P110">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="Q110">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R110">
+        <v>1.725</v>
+      </c>
+      <c r="S110">
+        <v>2.075</v>
+      </c>
+      <c r="T110">
+        <v>2.5</v>
+      </c>
+      <c r="U110">
         <v>1.85</v>
       </c>
-      <c r="S110">
+      <c r="V110">
         <v>1.95</v>
       </c>
-      <c r="T110">
-        <v>2.75</v>
-      </c>
-      <c r="U110">
-        <v>1.925</v>
-      </c>
-      <c r="V110">
-        <v>1.875</v>
-      </c>
       <c r="W110">
         <v>-1</v>
       </c>
@@ -10327,19 +10327,19 @@
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="Z110">
         <v>-1</v>
       </c>
       <c r="AA110">
-        <v>0.95</v>
+        <v>1.075</v>
       </c>
       <c r="AB110">
-        <v>0.4625</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC110">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -11682,7 +11682,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6126706</v>
+        <v>6126701</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11694,58 +11694,58 @@
         <v>45143.83333333334</v>
       </c>
       <c r="F126" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G126" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H126">
+        <v>2</v>
+      </c>
+      <c r="I126">
         <v>1</v>
-      </c>
-      <c r="I126">
-        <v>0</v>
       </c>
       <c r="J126" t="s">
         <v>56</v>
       </c>
       <c r="K126">
-        <v>2.15</v>
+        <v>2.9</v>
       </c>
       <c r="L126">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M126">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="N126">
-        <v>1.95</v>
+        <v>2.7</v>
       </c>
       <c r="O126">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P126">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q126">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R126">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S126">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T126">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U126">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V126">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="W126">
-        <v>0.95</v>
+        <v>1.7</v>
       </c>
       <c r="X126">
         <v>-1</v>
@@ -11754,16 +11754,16 @@
         <v>-1</v>
       </c>
       <c r="Z126">
-        <v>0.7749999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AA126">
         <v>-1</v>
       </c>
       <c r="AB126">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC126">
-        <v>0.7749999999999999</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11771,7 +11771,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6126701</v>
+        <v>6126706</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11783,58 +11783,58 @@
         <v>45143.83333333334</v>
       </c>
       <c r="F127" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G127" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J127" t="s">
         <v>56</v>
       </c>
       <c r="K127">
+        <v>2.15</v>
+      </c>
+      <c r="L127">
+        <v>3.3</v>
+      </c>
+      <c r="M127">
         <v>2.9</v>
       </c>
-      <c r="L127">
-        <v>3.4</v>
-      </c>
-      <c r="M127">
-        <v>2.1</v>
-      </c>
       <c r="N127">
-        <v>2.7</v>
+        <v>1.95</v>
       </c>
       <c r="O127">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P127">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="Q127">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R127">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S127">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T127">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U127">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V127">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="W127">
-        <v>1.7</v>
+        <v>0.95</v>
       </c>
       <c r="X127">
         <v>-1</v>
@@ -11843,16 +11843,16 @@
         <v>-1</v>
       </c>
       <c r="Z127">
-        <v>0.875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA127">
         <v>-1</v>
       </c>
       <c r="AB127">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC127">
-        <v>0.4625</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11860,7 +11860,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6126704</v>
+        <v>6126707</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11872,55 +11872,55 @@
         <v>45143.95833333334</v>
       </c>
       <c r="F128" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G128" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I128">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J128" t="s">
         <v>55</v>
       </c>
       <c r="K128">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="L128">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M128">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="N128">
-        <v>3.4</v>
+        <v>1.727</v>
       </c>
       <c r="O128">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P128">
-        <v>2.05</v>
+        <v>3.6</v>
       </c>
       <c r="Q128">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R128">
-        <v>1.725</v>
+        <v>1.75</v>
       </c>
       <c r="S128">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T128">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U128">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V128">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W128">
         <v>-1</v>
@@ -11929,19 +11929,19 @@
         <v>-1</v>
       </c>
       <c r="Y128">
-        <v>1.05</v>
+        <v>2.6</v>
       </c>
       <c r="Z128">
         <v>-1</v>
       </c>
       <c r="AA128">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB128">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC128">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11949,7 +11949,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6126707</v>
+        <v>6126704</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11961,55 +11961,55 @@
         <v>45143.95833333334</v>
       </c>
       <c r="F129" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G129" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="H129">
+        <v>0</v>
+      </c>
+      <c r="I129">
         <v>1</v>
-      </c>
-      <c r="I129">
-        <v>3</v>
       </c>
       <c r="J129" t="s">
         <v>55</v>
       </c>
       <c r="K129">
+        <v>2.5</v>
+      </c>
+      <c r="L129">
+        <v>3.2</v>
+      </c>
+      <c r="M129">
+        <v>2.5</v>
+      </c>
+      <c r="N129">
+        <v>3.4</v>
+      </c>
+      <c r="O129">
+        <v>3.1</v>
+      </c>
+      <c r="P129">
         <v>2.05</v>
       </c>
-      <c r="L129">
-        <v>3.5</v>
-      </c>
-      <c r="M129">
-        <v>2.9</v>
-      </c>
-      <c r="N129">
-        <v>1.727</v>
-      </c>
-      <c r="O129">
-        <v>3.75</v>
-      </c>
-      <c r="P129">
-        <v>3.6</v>
-      </c>
       <c r="Q129">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R129">
-        <v>1.75</v>
+        <v>1.725</v>
       </c>
       <c r="S129">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T129">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U129">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V129">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W129">
         <v>-1</v>
@@ -12018,19 +12018,19 @@
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>2.6</v>
+        <v>1.05</v>
       </c>
       <c r="Z129">
         <v>-1</v>
       </c>
       <c r="AA129">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB129">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC129">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12305,7 +12305,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6126712</v>
+        <v>6126709</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12317,49 +12317,49 @@
         <v>45147.91666666666</v>
       </c>
       <c r="F133" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G133" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J133" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K133">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="L133">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M133">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="N133">
-        <v>1.615</v>
+        <v>2.6</v>
       </c>
       <c r="O133">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="P133">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q133">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R133">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S133">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T133">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U133">
         <v>1.95</v>
@@ -12368,25 +12368,25 @@
         <v>1.85</v>
       </c>
       <c r="W133">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X133">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y133">
         <v>-1</v>
       </c>
       <c r="Z133">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA133">
+        <v>-1</v>
+      </c>
+      <c r="AB133">
         <v>0.95</v>
       </c>
-      <c r="AB133">
-        <v>-1</v>
-      </c>
       <c r="AC133">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12394,7 +12394,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6126709</v>
+        <v>6126712</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12406,49 +12406,49 @@
         <v>45147.91666666666</v>
       </c>
       <c r="F134" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G134" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H134">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K134">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="L134">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M134">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="N134">
-        <v>2.6</v>
+        <v>1.615</v>
       </c>
       <c r="O134">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="P134">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q134">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R134">
+        <v>1.75</v>
+      </c>
+      <c r="S134">
         <v>1.95</v>
       </c>
-      <c r="S134">
-        <v>1.85</v>
-      </c>
       <c r="T134">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U134">
         <v>1.95</v>
@@ -12457,25 +12457,25 @@
         <v>1.85</v>
       </c>
       <c r="W134">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X134">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y134">
         <v>-1</v>
       </c>
       <c r="Z134">
+        <v>-1</v>
+      </c>
+      <c r="AA134">
         <v>0.95</v>
       </c>
-      <c r="AA134">
-        <v>-1</v>
-      </c>
       <c r="AB134">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC134">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -14441,7 +14441,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6126731</v>
+        <v>6126732</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14453,19 +14453,19 @@
         <v>45157.95833333334</v>
       </c>
       <c r="F157" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="G157" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H157">
         <v>2</v>
       </c>
       <c r="I157">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J157" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K157">
         <v>2</v>
@@ -14477,52 +14477,52 @@
         <v>3.1</v>
       </c>
       <c r="N157">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="O157">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P157">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="Q157">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R157">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S157">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T157">
         <v>2.5</v>
       </c>
       <c r="U157">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V157">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W157">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X157">
         <v>-1</v>
       </c>
       <c r="Y157">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z157">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA157">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB157">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC157">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14530,7 +14530,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6126732</v>
+        <v>6126731</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14542,19 +14542,19 @@
         <v>45157.95833333334</v>
       </c>
       <c r="F158" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="G158" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H158">
         <v>2</v>
       </c>
       <c r="I158">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J158" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K158">
         <v>2</v>
@@ -14566,52 +14566,52 @@
         <v>3.1</v>
       </c>
       <c r="N158">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="O158">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P158">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="Q158">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R158">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S158">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T158">
         <v>2.5</v>
       </c>
       <c r="U158">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V158">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W158">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X158">
         <v>-1</v>
       </c>
       <c r="Y158">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z158">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA158">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB158">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC158">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14975,7 +14975,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6126753</v>
+        <v>6126745</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14987,76 +14987,76 @@
         <v>45164.83333333334</v>
       </c>
       <c r="F163" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G163" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J163" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K163">
-        <v>2.45</v>
+        <v>1.8</v>
       </c>
       <c r="L163">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M163">
-        <v>2.6</v>
+        <v>4.1</v>
       </c>
       <c r="N163">
+        <v>1.571</v>
+      </c>
+      <c r="O163">
+        <v>4</v>
+      </c>
+      <c r="P163">
+        <v>5.25</v>
+      </c>
+      <c r="Q163">
+        <v>-1</v>
+      </c>
+      <c r="R163">
+        <v>1.925</v>
+      </c>
+      <c r="S163">
+        <v>1.875</v>
+      </c>
+      <c r="T163">
         <v>2.75</v>
       </c>
-      <c r="O163">
-        <v>3.4</v>
-      </c>
-      <c r="P163">
-        <v>2.375</v>
-      </c>
-      <c r="Q163">
-        <v>0</v>
-      </c>
-      <c r="R163">
-        <v>2.05</v>
-      </c>
-      <c r="S163">
-        <v>1.75</v>
-      </c>
-      <c r="T163">
-        <v>2.5</v>
-      </c>
       <c r="U163">
+        <v>1.875</v>
+      </c>
+      <c r="V163">
         <v>1.925</v>
       </c>
-      <c r="V163">
-        <v>1.875</v>
-      </c>
       <c r="W163">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X163">
         <v>-1</v>
       </c>
       <c r="Y163">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z163">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA163">
-        <v>0.75</v>
+        <v>-0</v>
       </c>
       <c r="AB163">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC163">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -15064,7 +15064,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6126745</v>
+        <v>6126753</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15076,76 +15076,76 @@
         <v>45164.83333333334</v>
       </c>
       <c r="F164" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G164" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J164" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K164">
-        <v>1.8</v>
+        <v>2.45</v>
       </c>
       <c r="L164">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M164">
-        <v>4.1</v>
+        <v>2.6</v>
       </c>
       <c r="N164">
-        <v>1.571</v>
+        <v>2.75</v>
       </c>
       <c r="O164">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P164">
-        <v>5.25</v>
+        <v>2.375</v>
       </c>
       <c r="Q164">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R164">
+        <v>2.05</v>
+      </c>
+      <c r="S164">
+        <v>1.75</v>
+      </c>
+      <c r="T164">
+        <v>2.5</v>
+      </c>
+      <c r="U164">
         <v>1.925</v>
       </c>
-      <c r="S164">
+      <c r="V164">
         <v>1.875</v>
       </c>
-      <c r="T164">
-        <v>2.75</v>
-      </c>
-      <c r="U164">
-        <v>1.875</v>
-      </c>
-      <c r="V164">
-        <v>1.925</v>
-      </c>
       <c r="W164">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X164">
         <v>-1</v>
       </c>
       <c r="Y164">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z164">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA164">
-        <v>-0</v>
+        <v>0.75</v>
       </c>
       <c r="AB164">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AC164">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15242,7 +15242,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6126743</v>
+        <v>6126747</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15254,16 +15254,16 @@
         <v>45164.85416666666</v>
       </c>
       <c r="F166" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G166" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="H166">
+        <v>2</v>
+      </c>
+      <c r="I166">
         <v>1</v>
-      </c>
-      <c r="I166">
-        <v>0</v>
       </c>
       <c r="J166" t="s">
         <v>56</v>
@@ -15278,34 +15278,34 @@
         <v>3.25</v>
       </c>
       <c r="N166">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="O166">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P166">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="Q166">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R166">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S166">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T166">
         <v>2.5</v>
       </c>
       <c r="U166">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V166">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W166">
-        <v>1.1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X166">
         <v>-1</v>
@@ -15314,16 +15314,16 @@
         <v>-1</v>
       </c>
       <c r="Z166">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA166">
         <v>-1</v>
       </c>
       <c r="AB166">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC166">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15331,7 +15331,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6126747</v>
+        <v>6126743</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15343,16 +15343,16 @@
         <v>45164.85416666666</v>
       </c>
       <c r="F167" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G167" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J167" t="s">
         <v>56</v>
@@ -15367,34 +15367,34 @@
         <v>3.25</v>
       </c>
       <c r="N167">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="O167">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P167">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q167">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R167">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S167">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T167">
         <v>2.5</v>
       </c>
       <c r="U167">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V167">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W167">
-        <v>0.8500000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="X167">
         <v>-1</v>
@@ -15403,16 +15403,16 @@
         <v>-1</v>
       </c>
       <c r="Z167">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA167">
         <v>-1</v>
       </c>
       <c r="AB167">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC167">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15776,7 +15776,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6126746</v>
+        <v>6126751</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15788,56 +15788,56 @@
         <v>45164.97916666666</v>
       </c>
       <c r="F172" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G172" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J172" t="s">
         <v>55</v>
       </c>
       <c r="K172">
-        <v>3.25</v>
+        <v>1.75</v>
       </c>
       <c r="L172">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M172">
-        <v>2.05</v>
+        <v>4.333</v>
       </c>
       <c r="N172">
-        <v>3</v>
+        <v>1.615</v>
       </c>
       <c r="O172">
         <v>3.75</v>
       </c>
       <c r="P172">
-        <v>2.15</v>
+        <v>5</v>
       </c>
       <c r="Q172">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R172">
+        <v>1.95</v>
+      </c>
+      <c r="S172">
+        <v>1.75</v>
+      </c>
+      <c r="T172">
+        <v>2.5</v>
+      </c>
+      <c r="U172">
         <v>1.9</v>
       </c>
-      <c r="S172">
+      <c r="V172">
         <v>1.9</v>
       </c>
-      <c r="T172">
-        <v>3</v>
-      </c>
-      <c r="U172">
-        <v>2</v>
-      </c>
-      <c r="V172">
-        <v>1.8</v>
-      </c>
       <c r="W172">
         <v>-1</v>
       </c>
@@ -15845,19 +15845,19 @@
         <v>-1</v>
       </c>
       <c r="Y172">
-        <v>1.15</v>
+        <v>4</v>
       </c>
       <c r="Z172">
         <v>-1</v>
       </c>
       <c r="AA172">
+        <v>0.75</v>
+      </c>
+      <c r="AB172">
+        <v>-1</v>
+      </c>
+      <c r="AC172">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB172">
-        <v>1</v>
-      </c>
-      <c r="AC172">
-        <v>-1</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -15865,7 +15865,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6126751</v>
+        <v>6126746</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15877,55 +15877,55 @@
         <v>45164.97916666666</v>
       </c>
       <c r="F173" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G173" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J173" t="s">
         <v>55</v>
       </c>
       <c r="K173">
-        <v>1.75</v>
+        <v>3.25</v>
       </c>
       <c r="L173">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M173">
-        <v>4.333</v>
+        <v>2.05</v>
       </c>
       <c r="N173">
-        <v>1.615</v>
+        <v>3</v>
       </c>
       <c r="O173">
         <v>3.75</v>
       </c>
       <c r="P173">
-        <v>5</v>
+        <v>2.15</v>
       </c>
       <c r="Q173">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R173">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S173">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T173">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U173">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V173">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W173">
         <v>-1</v>
@@ -15934,19 +15934,19 @@
         <v>-1</v>
       </c>
       <c r="Y173">
-        <v>4</v>
+        <v>1.15</v>
       </c>
       <c r="Z173">
         <v>-1</v>
       </c>
       <c r="AA173">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB173">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC173">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -18980,7 +18980,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>6126788</v>
+        <v>6126787</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18992,76 +18992,76 @@
         <v>45185.95833333334</v>
       </c>
       <c r="F208" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="G208" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I208">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J208" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K208">
-        <v>1.8</v>
+        <v>1.727</v>
       </c>
       <c r="L208">
+        <v>3.75</v>
+      </c>
+      <c r="M208">
+        <v>4.2</v>
+      </c>
+      <c r="N208">
+        <v>1.833</v>
+      </c>
+      <c r="O208">
         <v>3.5</v>
       </c>
-      <c r="M208">
-        <v>4.1</v>
-      </c>
-      <c r="N208">
-        <v>1.7</v>
-      </c>
-      <c r="O208">
-        <v>3.6</v>
-      </c>
       <c r="P208">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Q208">
         <v>-0.75</v>
       </c>
       <c r="R208">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="S208">
-        <v>1.875</v>
+        <v>1.7</v>
       </c>
       <c r="T208">
         <v>2.75</v>
       </c>
       <c r="U208">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V208">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W208">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X208">
         <v>-1</v>
       </c>
       <c r="Y208">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z208">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="AA208">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB208">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC208">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -19069,7 +19069,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>6126790</v>
+        <v>6126788</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19081,34 +19081,34 @@
         <v>45185.95833333334</v>
       </c>
       <c r="F209" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G209" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H209">
+        <v>0</v>
+      </c>
+      <c r="I209">
         <v>1</v>
       </c>
-      <c r="I209">
-        <v>0</v>
-      </c>
       <c r="J209" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K209">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="L209">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="M209">
-        <v>5.5</v>
+        <v>4.1</v>
       </c>
       <c r="N209">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="O209">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P209">
         <v>4.5</v>
@@ -19117,40 +19117,40 @@
         <v>-0.75</v>
       </c>
       <c r="R209">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S209">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T209">
         <v>2.75</v>
       </c>
       <c r="U209">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V209">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W209">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X209">
         <v>-1</v>
       </c>
       <c r="Y209">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z209">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA209">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB209">
         <v>-1</v>
       </c>
       <c r="AC209">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="210" spans="1:29">
@@ -19158,7 +19158,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>6126787</v>
+        <v>6126790</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19170,46 +19170,46 @@
         <v>45185.95833333334</v>
       </c>
       <c r="F210" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="G210" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H210">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I210">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J210" t="s">
         <v>56</v>
       </c>
       <c r="K210">
-        <v>1.727</v>
+        <v>1.5</v>
       </c>
       <c r="L210">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M210">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="N210">
-        <v>1.833</v>
+        <v>1.65</v>
       </c>
       <c r="O210">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P210">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="Q210">
         <v>-0.75</v>
       </c>
       <c r="R210">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="S210">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="T210">
         <v>2.75</v>
@@ -19221,7 +19221,7 @@
         <v>1.85</v>
       </c>
       <c r="W210">
-        <v>0.833</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X210">
         <v>-1</v>
@@ -19230,16 +19230,16 @@
         <v>-1</v>
       </c>
       <c r="Z210">
-        <v>0.55</v>
+        <v>0.425</v>
       </c>
       <c r="AA210">
         <v>-0.5</v>
       </c>
       <c r="AB210">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC210">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="211" spans="1:29">
@@ -21828,7 +21828,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>6387717</v>
+        <v>6387479</v>
       </c>
       <c r="C240" t="s">
         <v>28</v>
@@ -21840,73 +21840,73 @@
         <v>45199.95833333334</v>
       </c>
       <c r="F240" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G240" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H240">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I240">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J240" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K240">
-        <v>1.666</v>
+        <v>3</v>
       </c>
       <c r="L240">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M240">
-        <v>4.333</v>
+        <v>2.1</v>
       </c>
       <c r="N240">
-        <v>1.533</v>
+        <v>3</v>
       </c>
       <c r="O240">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P240">
-        <v>5</v>
+        <v>2.05</v>
       </c>
       <c r="Q240">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R240">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S240">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T240">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U240">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V240">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W240">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X240">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y240">
         <v>-1</v>
       </c>
       <c r="Z240">
-        <v>0.8999999999999999</v>
+        <v>0.4875</v>
       </c>
       <c r="AA240">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB240">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AC240">
         <v>-1</v>
@@ -21917,7 +21917,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>6387479</v>
+        <v>6387717</v>
       </c>
       <c r="C241" t="s">
         <v>28</v>
@@ -21929,73 +21929,73 @@
         <v>45199.95833333334</v>
       </c>
       <c r="F241" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G241" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I241">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J241" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K241">
+        <v>1.666</v>
+      </c>
+      <c r="L241">
+        <v>3.75</v>
+      </c>
+      <c r="M241">
+        <v>4.333</v>
+      </c>
+      <c r="N241">
+        <v>1.533</v>
+      </c>
+      <c r="O241">
+        <v>4</v>
+      </c>
+      <c r="P241">
+        <v>5</v>
+      </c>
+      <c r="Q241">
+        <v>-1</v>
+      </c>
+      <c r="R241">
+        <v>1.9</v>
+      </c>
+      <c r="S241">
+        <v>1.9</v>
+      </c>
+      <c r="T241">
         <v>3</v>
       </c>
-      <c r="L241">
-        <v>3.5</v>
-      </c>
-      <c r="M241">
-        <v>2.1</v>
-      </c>
-      <c r="N241">
-        <v>3</v>
-      </c>
-      <c r="O241">
-        <v>3.6</v>
-      </c>
-      <c r="P241">
-        <v>2.05</v>
-      </c>
-      <c r="Q241">
-        <v>0.25</v>
-      </c>
-      <c r="R241">
-        <v>1.975</v>
-      </c>
-      <c r="S241">
-        <v>1.825</v>
-      </c>
-      <c r="T241">
-        <v>2.75</v>
-      </c>
       <c r="U241">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V241">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W241">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X241">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y241">
         <v>-1</v>
       </c>
       <c r="Z241">
-        <v>0.4875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA241">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB241">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AC241">
         <v>-1</v>
@@ -25922,7 +25922,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>7689543</v>
+        <v>7689541</v>
       </c>
       <c r="C286" t="s">
         <v>28</v>
@@ -25934,58 +25934,58 @@
         <v>45360.75</v>
       </c>
       <c r="F286" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G286" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H286">
+        <v>2</v>
+      </c>
+      <c r="I286">
         <v>1</v>
-      </c>
-      <c r="I286">
-        <v>0</v>
       </c>
       <c r="J286" t="s">
         <v>56</v>
       </c>
       <c r="K286">
-        <v>2.2</v>
+        <v>1.571</v>
       </c>
       <c r="L286">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M286">
-        <v>2.75</v>
+        <v>4.333</v>
       </c>
       <c r="N286">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="O286">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P286">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="Q286">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R286">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S286">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="T286">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U286">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V286">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="W286">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="X286">
         <v>-1</v>
@@ -25994,16 +25994,16 @@
         <v>-1</v>
       </c>
       <c r="Z286">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA286">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB286">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC286">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="287" spans="1:29">
@@ -26011,7 +26011,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>7689541</v>
+        <v>7689543</v>
       </c>
       <c r="C287" t="s">
         <v>28</v>
@@ -26023,58 +26023,58 @@
         <v>45360.75</v>
       </c>
       <c r="F287" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G287" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H287">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I287">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J287" t="s">
         <v>56</v>
       </c>
       <c r="K287">
-        <v>1.571</v>
+        <v>2.2</v>
       </c>
       <c r="L287">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M287">
-        <v>4.333</v>
+        <v>2.75</v>
       </c>
       <c r="N287">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="O287">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P287">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q287">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R287">
+        <v>1.975</v>
+      </c>
+      <c r="S287">
+        <v>1.725</v>
+      </c>
+      <c r="T287">
+        <v>2.5</v>
+      </c>
+      <c r="U287">
         <v>1.85</v>
       </c>
-      <c r="S287">
+      <c r="V287">
         <v>1.95</v>
       </c>
-      <c r="T287">
-        <v>3</v>
-      </c>
-      <c r="U287">
-        <v>1.95</v>
-      </c>
-      <c r="V287">
-        <v>1.75</v>
-      </c>
       <c r="W287">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="X287">
         <v>-1</v>
@@ -26083,16 +26083,16 @@
         <v>-1</v>
       </c>
       <c r="Z287">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA287">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB287">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC287">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="288" spans="1:29">
@@ -26545,7 +26545,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>7689545</v>
+        <v>7689546</v>
       </c>
       <c r="C293" t="s">
         <v>28</v>
@@ -26557,73 +26557,73 @@
         <v>45361</v>
       </c>
       <c r="F293" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G293" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H293">
         <v>2</v>
       </c>
       <c r="I293">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J293" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K293">
-        <v>2.3</v>
+        <v>1.533</v>
       </c>
       <c r="L293">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M293">
+        <v>5</v>
+      </c>
+      <c r="N293">
+        <v>1.75</v>
+      </c>
+      <c r="O293">
+        <v>3.6</v>
+      </c>
+      <c r="P293">
+        <v>3.8</v>
+      </c>
+      <c r="Q293">
+        <v>-0.75</v>
+      </c>
+      <c r="R293">
+        <v>2.025</v>
+      </c>
+      <c r="S293">
+        <v>1.775</v>
+      </c>
+      <c r="T293">
+        <v>2.25</v>
+      </c>
+      <c r="U293">
+        <v>1.775</v>
+      </c>
+      <c r="V293">
+        <v>2.025</v>
+      </c>
+      <c r="W293">
+        <v>-1</v>
+      </c>
+      <c r="X293">
         <v>2.6</v>
       </c>
-      <c r="N293">
-        <v>2.45</v>
-      </c>
-      <c r="O293">
-        <v>3.3</v>
-      </c>
-      <c r="P293">
-        <v>2.5</v>
-      </c>
-      <c r="Q293">
-        <v>0</v>
-      </c>
-      <c r="R293">
-        <v>1.85</v>
-      </c>
-      <c r="S293">
-        <v>1.95</v>
-      </c>
-      <c r="T293">
-        <v>2.5</v>
-      </c>
-      <c r="U293">
-        <v>1.825</v>
-      </c>
-      <c r="V293">
-        <v>1.975</v>
-      </c>
-      <c r="W293">
-        <v>1.45</v>
-      </c>
-      <c r="X293">
-        <v>-1</v>
-      </c>
       <c r="Y293">
         <v>-1</v>
       </c>
       <c r="Z293">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA293">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB293">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC293">
         <v>-1</v>
@@ -26634,7 +26634,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>7689546</v>
+        <v>7689545</v>
       </c>
       <c r="C294" t="s">
         <v>28</v>
@@ -26646,73 +26646,73 @@
         <v>45361</v>
       </c>
       <c r="F294" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G294" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H294">
         <v>2</v>
       </c>
       <c r="I294">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J294" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K294">
-        <v>1.533</v>
+        <v>2.3</v>
       </c>
       <c r="L294">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M294">
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="N294">
-        <v>1.75</v>
+        <v>2.45</v>
       </c>
       <c r="O294">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P294">
-        <v>3.8</v>
+        <v>2.5</v>
       </c>
       <c r="Q294">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R294">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S294">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T294">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U294">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V294">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W294">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X294">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y294">
         <v>-1</v>
       </c>
       <c r="Z294">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA294">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB294">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC294">
         <v>-1</v>
@@ -27079,7 +27079,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>7689553</v>
+        <v>7689838</v>
       </c>
       <c r="C299" t="s">
         <v>28</v>
@@ -27091,49 +27091,49 @@
         <v>45367.83333333334</v>
       </c>
       <c r="F299" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G299" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H299">
         <v>0</v>
       </c>
       <c r="I299">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J299" t="s">
         <v>55</v>
       </c>
       <c r="K299">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="L299">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M299">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="N299">
-        <v>3.75</v>
+        <v>1.85</v>
       </c>
       <c r="O299">
+        <v>3.25</v>
+      </c>
+      <c r="P299">
         <v>3.6</v>
       </c>
-      <c r="P299">
-        <v>1.727</v>
-      </c>
       <c r="Q299">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R299">
+        <v>1.975</v>
+      </c>
+      <c r="S299">
         <v>1.825</v>
       </c>
-      <c r="S299">
-        <v>1.975</v>
-      </c>
       <c r="T299">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U299">
         <v>1.975</v>
@@ -27148,19 +27148,19 @@
         <v>-1</v>
       </c>
       <c r="Y299">
-        <v>0.7270000000000001</v>
+        <v>2.6</v>
       </c>
       <c r="Z299">
+        <v>-1</v>
+      </c>
+      <c r="AA299">
+        <v>0.825</v>
+      </c>
+      <c r="AB299">
         <v>-0.5</v>
       </c>
-      <c r="AA299">
-        <v>0.4875</v>
-      </c>
-      <c r="AB299">
-        <v>-1</v>
-      </c>
       <c r="AC299">
-        <v>0.825</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="300" spans="1:29">
@@ -27168,7 +27168,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>7689838</v>
+        <v>7689553</v>
       </c>
       <c r="C300" t="s">
         <v>28</v>
@@ -27180,49 +27180,49 @@
         <v>45367.83333333334</v>
       </c>
       <c r="F300" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G300" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="H300">
         <v>0</v>
       </c>
       <c r="I300">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J300" t="s">
         <v>55</v>
       </c>
       <c r="K300">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="L300">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M300">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="N300">
-        <v>1.85</v>
+        <v>3.75</v>
       </c>
       <c r="O300">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P300">
-        <v>3.6</v>
+        <v>1.727</v>
       </c>
       <c r="Q300">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R300">
+        <v>1.825</v>
+      </c>
+      <c r="S300">
         <v>1.975</v>
       </c>
-      <c r="S300">
-        <v>1.825</v>
-      </c>
       <c r="T300">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U300">
         <v>1.975</v>
@@ -27237,19 +27237,19 @@
         <v>-1</v>
       </c>
       <c r="Y300">
-        <v>2.6</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z300">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA300">
+        <v>0.4875</v>
+      </c>
+      <c r="AB300">
+        <v>-1</v>
+      </c>
+      <c r="AC300">
         <v>0.825</v>
-      </c>
-      <c r="AB300">
-        <v>-0.5</v>
-      </c>
-      <c r="AC300">
-        <v>0.4125</v>
       </c>
     </row>
     <row r="301" spans="1:29">
@@ -27346,7 +27346,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>7689555</v>
+        <v>7689556</v>
       </c>
       <c r="C302" t="s">
         <v>28</v>
@@ -27358,55 +27358,55 @@
         <v>45367.875</v>
       </c>
       <c r="F302" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G302" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H302">
         <v>1</v>
       </c>
       <c r="I302">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J302" t="s">
         <v>55</v>
       </c>
       <c r="K302">
+        <v>1.909</v>
+      </c>
+      <c r="L302">
+        <v>3.6</v>
+      </c>
+      <c r="M302">
+        <v>3.2</v>
+      </c>
+      <c r="N302">
+        <v>1.45</v>
+      </c>
+      <c r="O302">
+        <v>4</v>
+      </c>
+      <c r="P302">
+        <v>5.25</v>
+      </c>
+      <c r="Q302">
+        <v>-1</v>
+      </c>
+      <c r="R302">
+        <v>1.8</v>
+      </c>
+      <c r="S302">
+        <v>2</v>
+      </c>
+      <c r="T302">
         <v>2.5</v>
       </c>
-      <c r="L302">
-        <v>3.2</v>
-      </c>
-      <c r="M302">
-        <v>2.5</v>
-      </c>
-      <c r="N302">
-        <v>1.95</v>
-      </c>
-      <c r="O302">
-        <v>3.3</v>
-      </c>
-      <c r="P302">
-        <v>3.2</v>
-      </c>
-      <c r="Q302">
-        <v>-0.25</v>
-      </c>
-      <c r="R302">
-        <v>1.825</v>
-      </c>
-      <c r="S302">
-        <v>1.975</v>
-      </c>
-      <c r="T302">
-        <v>2.75</v>
-      </c>
       <c r="U302">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V302">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W302">
         <v>-1</v>
@@ -27415,16 +27415,16 @@
         <v>-1</v>
       </c>
       <c r="Y302">
-        <v>2.2</v>
+        <v>4.25</v>
       </c>
       <c r="Z302">
         <v>-1</v>
       </c>
       <c r="AA302">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB302">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC302">
         <v>-1</v>
@@ -27435,7 +27435,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>7689556</v>
+        <v>7689555</v>
       </c>
       <c r="C303" t="s">
         <v>28</v>
@@ -27447,55 +27447,55 @@
         <v>45367.875</v>
       </c>
       <c r="F303" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G303" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H303">
         <v>1</v>
       </c>
       <c r="I303">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J303" t="s">
         <v>55</v>
       </c>
       <c r="K303">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="L303">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M303">
+        <v>2.5</v>
+      </c>
+      <c r="N303">
+        <v>1.95</v>
+      </c>
+      <c r="O303">
+        <v>3.3</v>
+      </c>
+      <c r="P303">
         <v>3.2</v>
       </c>
-      <c r="N303">
-        <v>1.45</v>
-      </c>
-      <c r="O303">
-        <v>4</v>
-      </c>
-      <c r="P303">
-        <v>5.25</v>
-      </c>
       <c r="Q303">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R303">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S303">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T303">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U303">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V303">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W303">
         <v>-1</v>
@@ -27504,16 +27504,16 @@
         <v>-1</v>
       </c>
       <c r="Y303">
-        <v>4.25</v>
+        <v>2.2</v>
       </c>
       <c r="Z303">
         <v>-1</v>
       </c>
       <c r="AA303">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB303">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC303">
         <v>-1</v>
@@ -27524,7 +27524,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>7689839</v>
+        <v>7689552</v>
       </c>
       <c r="C304" t="s">
         <v>28</v>
@@ -27536,76 +27536,76 @@
         <v>45367.95833333334</v>
       </c>
       <c r="F304" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="G304" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="H304">
         <v>1</v>
       </c>
       <c r="I304">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J304" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K304">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="L304">
         <v>3.6</v>
       </c>
       <c r="M304">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="N304">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="O304">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P304">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="Q304">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R304">
-        <v>1.725</v>
+        <v>1.975</v>
       </c>
       <c r="S304">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T304">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U304">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V304">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W304">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X304">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y304">
         <v>-1</v>
       </c>
       <c r="Z304">
-        <v>0.3625</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA304">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB304">
         <v>-1</v>
       </c>
       <c r="AC304">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="305" spans="1:29">
@@ -27613,7 +27613,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>7689552</v>
+        <v>7689839</v>
       </c>
       <c r="C305" t="s">
         <v>28</v>
@@ -27625,76 +27625,76 @@
         <v>45367.95833333334</v>
       </c>
       <c r="F305" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="G305" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="H305">
         <v>1</v>
       </c>
       <c r="I305">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J305" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K305">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="L305">
         <v>3.6</v>
       </c>
       <c r="M305">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="N305">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="O305">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P305">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="Q305">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R305">
+        <v>1.725</v>
+      </c>
+      <c r="S305">
         <v>1.975</v>
       </c>
-      <c r="S305">
-        <v>1.825</v>
-      </c>
       <c r="T305">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U305">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V305">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W305">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X305">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y305">
         <v>-1</v>
       </c>
       <c r="Z305">
-        <v>0.9750000000000001</v>
+        <v>0.3625</v>
       </c>
       <c r="AA305">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB305">
         <v>-1</v>
       </c>
       <c r="AC305">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="306" spans="1:29">
@@ -27969,7 +27969,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>7689564</v>
+        <v>7689561</v>
       </c>
       <c r="C309" t="s">
         <v>28</v>
@@ -27981,10 +27981,10 @@
         <v>45374.83333333334</v>
       </c>
       <c r="F309" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="G309" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="H309">
         <v>1</v>
@@ -27996,61 +27996,61 @@
         <v>57</v>
       </c>
       <c r="K309">
+        <v>2.5</v>
+      </c>
+      <c r="L309">
+        <v>3.4</v>
+      </c>
+      <c r="M309">
+        <v>2.375</v>
+      </c>
+      <c r="N309">
+        <v>2.3</v>
+      </c>
+      <c r="O309">
+        <v>3.4</v>
+      </c>
+      <c r="P309">
+        <v>2.7</v>
+      </c>
+      <c r="Q309">
+        <v>0</v>
+      </c>
+      <c r="R309">
+        <v>1.75</v>
+      </c>
+      <c r="S309">
+        <v>2.05</v>
+      </c>
+      <c r="T309">
         <v>2.75</v>
       </c>
-      <c r="L309">
-        <v>3.25</v>
-      </c>
-      <c r="M309">
-        <v>2.25</v>
-      </c>
-      <c r="N309">
-        <v>2.375</v>
-      </c>
-      <c r="O309">
-        <v>3.2</v>
-      </c>
-      <c r="P309">
-        <v>2.8</v>
-      </c>
-      <c r="Q309">
-        <v>-0.25</v>
-      </c>
-      <c r="R309">
-        <v>2.025</v>
-      </c>
-      <c r="S309">
-        <v>1.775</v>
-      </c>
-      <c r="T309">
-        <v>2.25</v>
-      </c>
       <c r="U309">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V309">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W309">
         <v>-1</v>
       </c>
       <c r="X309">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="Y309">
         <v>-1</v>
       </c>
       <c r="Z309">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA309">
-        <v>0.3875</v>
+        <v>-0</v>
       </c>
       <c r="AB309">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC309">
-        <v>0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="310" spans="1:29">
@@ -28058,7 +28058,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>7689561</v>
+        <v>7689564</v>
       </c>
       <c r="C310" t="s">
         <v>28</v>
@@ -28070,10 +28070,10 @@
         <v>45374.83333333334</v>
       </c>
       <c r="F310" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="G310" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="H310">
         <v>1</v>
@@ -28085,61 +28085,61 @@
         <v>57</v>
       </c>
       <c r="K310">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="L310">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M310">
+        <v>2.25</v>
+      </c>
+      <c r="N310">
         <v>2.375</v>
       </c>
-      <c r="N310">
-        <v>2.3</v>
-      </c>
       <c r="O310">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P310">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="Q310">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R310">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="S310">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="T310">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U310">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V310">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W310">
         <v>-1</v>
       </c>
       <c r="X310">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="Y310">
         <v>-1</v>
       </c>
       <c r="Z310">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA310">
-        <v>-0</v>
+        <v>0.3875</v>
       </c>
       <c r="AB310">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC310">
-        <v>0.8500000000000001</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="311" spans="1:29">
@@ -28859,7 +28859,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>7689570</v>
+        <v>7689568</v>
       </c>
       <c r="C319" t="s">
         <v>28</v>
@@ -28871,10 +28871,10 @@
         <v>45381.83333333334</v>
       </c>
       <c r="F319" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G319" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="H319">
         <v>1</v>
@@ -28886,40 +28886,40 @@
         <v>55</v>
       </c>
       <c r="K319">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="L319">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M319">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="N319">
-        <v>5</v>
+        <v>1.727</v>
       </c>
       <c r="O319">
+        <v>3.5</v>
+      </c>
+      <c r="P319">
         <v>3.8</v>
       </c>
-      <c r="P319">
-        <v>1.533</v>
-      </c>
       <c r="Q319">
-        <v>1</v>
+        <v>-0.75</v>
       </c>
       <c r="R319">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S319">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T319">
         <v>2.5</v>
       </c>
       <c r="U319">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V319">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W319">
         <v>-1</v>
@@ -28928,16 +28928,16 @@
         <v>-1</v>
       </c>
       <c r="Y319">
-        <v>0.5329999999999999</v>
+        <v>2.8</v>
       </c>
       <c r="Z319">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA319">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB319">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC319">
         <v>-1</v>
@@ -28948,7 +28948,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>7689568</v>
+        <v>7689570</v>
       </c>
       <c r="C320" t="s">
         <v>28</v>
@@ -28960,10 +28960,10 @@
         <v>45381.83333333334</v>
       </c>
       <c r="F320" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G320" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="H320">
         <v>1</v>
@@ -28975,40 +28975,40 @@
         <v>55</v>
       </c>
       <c r="K320">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="L320">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M320">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="N320">
-        <v>1.727</v>
+        <v>5</v>
       </c>
       <c r="O320">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P320">
-        <v>3.8</v>
+        <v>1.533</v>
       </c>
       <c r="Q320">
-        <v>-0.75</v>
+        <v>1</v>
       </c>
       <c r="R320">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S320">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T320">
         <v>2.5</v>
       </c>
       <c r="U320">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V320">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W320">
         <v>-1</v>
@@ -29017,16 +29017,16 @@
         <v>-1</v>
       </c>
       <c r="Y320">
-        <v>2.8</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z320">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA320">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB320">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC320">
         <v>-1</v>
@@ -29598,31 +29598,31 @@
         <v>2.5</v>
       </c>
       <c r="N327">
-        <v>1.571</v>
+        <v>1.533</v>
       </c>
       <c r="O327">
         <v>4</v>
       </c>
       <c r="P327">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="Q327">
         <v>-1</v>
       </c>
       <c r="R327">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S327">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T327">
         <v>3</v>
       </c>
       <c r="U327">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V327">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W327">
         <v>0</v>
@@ -29746,31 +29746,31 @@
         <v>4.5</v>
       </c>
       <c r="N329">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="O329">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P329">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="Q329">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R329">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S329">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T329">
         <v>2.75</v>
       </c>
       <c r="U329">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V329">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W329">
         <v>0</v>
@@ -29820,31 +29820,31 @@
         <v>2.4</v>
       </c>
       <c r="N330">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="O330">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P330">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="Q330">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R330">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S330">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T330">
         <v>2.5</v>
       </c>
       <c r="U330">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V330">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W330">
         <v>0</v>
@@ -29894,31 +29894,31 @@
         <v>2.4</v>
       </c>
       <c r="N331">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="O331">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P331">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="Q331">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R331">
+        <v>1.85</v>
+      </c>
+      <c r="S331">
         <v>1.95</v>
-      </c>
-      <c r="S331">
-        <v>1.85</v>
       </c>
       <c r="T331">
         <v>2.25</v>
       </c>
       <c r="U331">
+        <v>1.95</v>
+      </c>
+      <c r="V331">
         <v>1.85</v>
-      </c>
-      <c r="V331">
-        <v>1.95</v>
       </c>
       <c r="W331">
         <v>0</v>
@@ -29941,7 +29941,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>7710082</v>
+        <v>7689576</v>
       </c>
       <c r="C332" t="s">
         <v>28</v>
@@ -29950,49 +29950,49 @@
         <v>28</v>
       </c>
       <c r="E332" s="2">
-        <v>45388.85416666666</v>
+        <v>45388.875</v>
       </c>
       <c r="F332" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="G332" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="K332">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="L332">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M332">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="N332">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="O332">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P332">
+        <v>2.4</v>
+      </c>
+      <c r="Q332">
+        <v>0</v>
+      </c>
+      <c r="R332">
+        <v>1.975</v>
+      </c>
+      <c r="S332">
+        <v>1.825</v>
+      </c>
+      <c r="T332">
+        <v>2.5</v>
+      </c>
+      <c r="U332">
         <v>1.95</v>
       </c>
-      <c r="Q332">
-        <v>0.25</v>
-      </c>
-      <c r="R332">
-        <v>2.05</v>
-      </c>
-      <c r="S332">
-        <v>1.75</v>
-      </c>
-      <c r="T332">
-        <v>2.75</v>
-      </c>
-      <c r="U332">
-        <v>1.925</v>
-      </c>
       <c r="V332">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W332">
         <v>0</v>
@@ -30015,7 +30015,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>7689576</v>
+        <v>7689578</v>
       </c>
       <c r="C333" t="s">
         <v>28</v>
@@ -30024,49 +30024,49 @@
         <v>28</v>
       </c>
       <c r="E333" s="2">
-        <v>45388.875</v>
+        <v>45388.91666666666</v>
       </c>
       <c r="F333" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G333" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="K333">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="L333">
+        <v>3.75</v>
+      </c>
+      <c r="M333">
         <v>3.4</v>
       </c>
-      <c r="M333">
-        <v>2.3</v>
-      </c>
       <c r="N333">
-        <v>2.7</v>
+        <v>1.75</v>
       </c>
       <c r="O333">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P333">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q333">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R333">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S333">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T333">
         <v>2.5</v>
       </c>
       <c r="U333">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V333">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W333">
         <v>0</v>
@@ -30089,7 +30089,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>7689578</v>
+        <v>7689577</v>
       </c>
       <c r="C334" t="s">
         <v>28</v>
@@ -30098,49 +30098,49 @@
         <v>28</v>
       </c>
       <c r="E334" s="2">
-        <v>45388.91666666666</v>
+        <v>45388.95833333334</v>
       </c>
       <c r="F334" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="G334" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="K334">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L334">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M334">
+        <v>3</v>
+      </c>
+      <c r="N334">
+        <v>2.4</v>
+      </c>
+      <c r="O334">
         <v>3.4</v>
       </c>
-      <c r="N334">
-        <v>1.7</v>
-      </c>
-      <c r="O334">
-        <v>3.8</v>
-      </c>
       <c r="P334">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="Q334">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R334">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="S334">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T334">
         <v>2.5</v>
       </c>
       <c r="U334">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V334">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W334">
         <v>0</v>
@@ -30163,7 +30163,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>7689577</v>
+        <v>7689581</v>
       </c>
       <c r="C335" t="s">
         <v>28</v>
@@ -30172,49 +30172,49 @@
         <v>28</v>
       </c>
       <c r="E335" s="2">
-        <v>45388.95833333334</v>
+        <v>45388.97916666666</v>
       </c>
       <c r="F335" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G335" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K335">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L335">
         <v>3.6</v>
       </c>
       <c r="M335">
+        <v>2</v>
+      </c>
+      <c r="N335">
         <v>3</v>
       </c>
-      <c r="N335">
-        <v>2.15</v>
-      </c>
       <c r="O335">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P335">
+        <v>2</v>
+      </c>
+      <c r="Q335">
+        <v>0.25</v>
+      </c>
+      <c r="R335">
+        <v>2</v>
+      </c>
+      <c r="S335">
+        <v>1.8</v>
+      </c>
+      <c r="T335">
         <v>2.75</v>
       </c>
-      <c r="Q335">
-        <v>-0.25</v>
-      </c>
-      <c r="R335">
-        <v>1.95</v>
-      </c>
-      <c r="S335">
-        <v>1.85</v>
-      </c>
-      <c r="T335">
-        <v>2.5</v>
-      </c>
       <c r="U335">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V335">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W335">
         <v>0</v>
@@ -30237,7 +30237,7 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>7689581</v>
+        <v>7689584</v>
       </c>
       <c r="C336" t="s">
         <v>28</v>
@@ -30246,49 +30246,49 @@
         <v>28</v>
       </c>
       <c r="E336" s="2">
-        <v>45388.97916666666</v>
+        <v>45389.75</v>
       </c>
       <c r="F336" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G336" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K336">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="L336">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M336">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="N336">
-        <v>3.2</v>
+        <v>1.909</v>
       </c>
       <c r="O336">
         <v>3.6</v>
       </c>
       <c r="P336">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="Q336">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R336">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S336">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T336">
         <v>2.75</v>
       </c>
       <c r="U336">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V336">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W336">
         <v>0</v>

--- a/USA USL Championship/USA USL Championship.xlsx
+++ b/USA USL Championship/USA USL Championship.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1713" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1717" uniqueCount="58">
   <si>
     <t>id</t>
   </si>
@@ -142,10 +142,10 @@
     <t>Indy Eleven</t>
   </si>
   <si>
-    <t>Louisville City FC</t>
+    <t>Rio Grande Valley FC Toros</t>
   </si>
   <si>
-    <t>Rio Grande Valley FC Toros</t>
+    <t>Louisville City FC</t>
   </si>
   <si>
     <t>Phoenix Rising FC</t>
@@ -549,7 +549,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC338"/>
+  <dimension ref="A1:AC339"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -928,7 +928,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1373,7 +1373,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H10">
         <v>2</v>
@@ -2070,7 +2070,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6126596</v>
+        <v>6126599</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2085,70 +2085,70 @@
         <v>42</v>
       </c>
       <c r="G18" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I18">
         <v>3</v>
       </c>
       <c r="J18" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K18">
-        <v>1.7</v>
+        <v>2.05</v>
       </c>
       <c r="L18">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M18">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="N18">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="O18">
         <v>3.4</v>
       </c>
       <c r="P18">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="Q18">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R18">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S18">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T18">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U18">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V18">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W18">
         <v>-1</v>
       </c>
       <c r="X18">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y18">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z18">
         <v>-1</v>
       </c>
       <c r="AA18">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB18">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC18">
         <v>-1</v>
@@ -2159,7 +2159,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6126599</v>
+        <v>6126596</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2174,70 +2174,70 @@
         <v>43</v>
       </c>
       <c r="G19" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="H19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I19">
         <v>3</v>
       </c>
       <c r="J19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K19">
-        <v>2.05</v>
+        <v>1.7</v>
       </c>
       <c r="L19">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M19">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="N19">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="O19">
         <v>3.4</v>
       </c>
       <c r="P19">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q19">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R19">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S19">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T19">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U19">
+        <v>1.9</v>
+      </c>
+      <c r="V19">
+        <v>1.9</v>
+      </c>
+      <c r="W19">
+        <v>-1</v>
+      </c>
+      <c r="X19">
+        <v>-1</v>
+      </c>
+      <c r="Y19">
         <v>1.8</v>
       </c>
-      <c r="V19">
-        <v>2</v>
-      </c>
-      <c r="W19">
-        <v>-1</v>
-      </c>
-      <c r="X19">
-        <v>2.4</v>
-      </c>
-      <c r="Y19">
-        <v>-1</v>
-      </c>
       <c r="Z19">
         <v>-1</v>
       </c>
       <c r="AA19">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB19">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC19">
         <v>-1</v>
@@ -3331,7 +3331,7 @@
         <v>35</v>
       </c>
       <c r="G32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H32">
         <v>2</v>
@@ -3687,7 +3687,7 @@
         <v>44</v>
       </c>
       <c r="G36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H36">
         <v>2</v>
@@ -4040,7 +4040,7 @@
         <v>45098.875</v>
       </c>
       <c r="F40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G40" t="s">
         <v>30</v>
@@ -4206,7 +4206,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6126628</v>
+        <v>6126621</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4218,76 +4218,76 @@
         <v>45101.83333333334</v>
       </c>
       <c r="F42" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G42" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J42" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K42">
-        <v>1.727</v>
+        <v>2.3</v>
       </c>
       <c r="L42">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M42">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="N42">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="O42">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P42">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="Q42">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R42">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S42">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T42">
         <v>2.75</v>
       </c>
       <c r="U42">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V42">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W42">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X42">
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z42">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA42">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB42">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC42">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4295,7 +4295,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6126622</v>
+        <v>6126628</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4307,46 +4307,46 @@
         <v>45101.83333333334</v>
       </c>
       <c r="F43" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G43" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H43">
         <v>2</v>
       </c>
       <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43" t="s">
+        <v>56</v>
+      </c>
+      <c r="K43">
+        <v>1.727</v>
+      </c>
+      <c r="L43">
+        <v>3.5</v>
+      </c>
+      <c r="M43">
         <v>4</v>
       </c>
-      <c r="J43" t="s">
-        <v>55</v>
-      </c>
-      <c r="K43">
-        <v>3.4</v>
-      </c>
-      <c r="L43">
-        <v>3.4</v>
-      </c>
-      <c r="M43">
+      <c r="N43">
         <v>1.909</v>
-      </c>
-      <c r="N43">
-        <v>3.75</v>
       </c>
       <c r="O43">
         <v>3.5</v>
       </c>
       <c r="P43">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q43">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R43">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S43">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T43">
         <v>2.75</v>
@@ -4355,28 +4355,28 @@
         <v>1.925</v>
       </c>
       <c r="V43">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W43">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X43">
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z43">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA43">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB43">
-        <v>0.925</v>
+        <v>0.4625</v>
       </c>
       <c r="AC43">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4384,7 +4384,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6126621</v>
+        <v>6126622</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4396,55 +4396,55 @@
         <v>45101.83333333334</v>
       </c>
       <c r="F44" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G44" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J44" t="s">
         <v>55</v>
       </c>
       <c r="K44">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="L44">
         <v>3.4</v>
       </c>
       <c r="M44">
-        <v>2.625</v>
+        <v>1.909</v>
       </c>
       <c r="N44">
-        <v>2.4</v>
+        <v>3.75</v>
       </c>
       <c r="O44">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P44">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="Q44">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R44">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S44">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T44">
         <v>2.75</v>
       </c>
       <c r="U44">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V44">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W44">
         <v>-1</v>
@@ -4453,19 +4453,19 @@
         <v>-1</v>
       </c>
       <c r="Y44">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="Z44">
         <v>-1</v>
       </c>
       <c r="AA44">
+        <v>0.825</v>
+      </c>
+      <c r="AB44">
         <v>0.925</v>
       </c>
-      <c r="AB44">
-        <v>-1</v>
-      </c>
       <c r="AC44">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4574,7 +4574,7 @@
         <v>45101.875</v>
       </c>
       <c r="F46" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G46" t="s">
         <v>45</v>
@@ -5111,7 +5111,7 @@
         <v>50</v>
       </c>
       <c r="G52" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H52">
         <v>0</v>
@@ -5467,7 +5467,7 @@
         <v>31</v>
       </c>
       <c r="G56" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -6001,7 +6001,7 @@
         <v>51</v>
       </c>
       <c r="G62" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H62">
         <v>1</v>
@@ -7066,7 +7066,7 @@
         <v>45115.91666666666</v>
       </c>
       <c r="F74" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G74" t="s">
         <v>39</v>
@@ -7333,7 +7333,7 @@
         <v>45116.875</v>
       </c>
       <c r="F77" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G77" t="s">
         <v>37</v>
@@ -7600,7 +7600,7 @@
         <v>45119.875</v>
       </c>
       <c r="F80" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G80" t="s">
         <v>31</v>
@@ -8493,7 +8493,7 @@
         <v>46</v>
       </c>
       <c r="G90" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H90">
         <v>1</v>
@@ -8760,7 +8760,7 @@
         <v>52</v>
       </c>
       <c r="G93" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H93">
         <v>2</v>
@@ -8849,7 +8849,7 @@
         <v>49</v>
       </c>
       <c r="G94" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H94">
         <v>2</v>
@@ -9202,7 +9202,7 @@
         <v>45129.875</v>
       </c>
       <c r="F98" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G98" t="s">
         <v>48</v>
@@ -10436,7 +10436,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6126693</v>
+        <v>6126688</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10451,55 +10451,55 @@
         <v>43</v>
       </c>
       <c r="G112" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H112">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I112">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J112" t="s">
         <v>56</v>
       </c>
       <c r="K112">
-        <v>2.375</v>
+        <v>1.95</v>
       </c>
       <c r="L112">
         <v>3.25</v>
       </c>
       <c r="M112">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="N112">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="O112">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P112">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="Q112">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R112">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S112">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T112">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U112">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V112">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W112">
-        <v>1.05</v>
+        <v>0.75</v>
       </c>
       <c r="X112">
         <v>-1</v>
@@ -10508,16 +10508,16 @@
         <v>-1</v>
       </c>
       <c r="Z112">
-        <v>0.825</v>
+        <v>0.75</v>
       </c>
       <c r="AA112">
         <v>-1</v>
       </c>
       <c r="AB112">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC112">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10525,7 +10525,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6126688</v>
+        <v>6126693</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10540,55 +10540,55 @@
         <v>42</v>
       </c>
       <c r="G113" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I113">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J113" t="s">
         <v>56</v>
       </c>
       <c r="K113">
-        <v>1.95</v>
+        <v>2.375</v>
       </c>
       <c r="L113">
         <v>3.25</v>
       </c>
       <c r="M113">
+        <v>2.6</v>
+      </c>
+      <c r="N113">
+        <v>2.05</v>
+      </c>
+      <c r="O113">
         <v>3.4</v>
       </c>
-      <c r="N113">
-        <v>1.75</v>
-      </c>
-      <c r="O113">
-        <v>3.3</v>
-      </c>
       <c r="P113">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q113">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R113">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S113">
+        <v>1.975</v>
+      </c>
+      <c r="T113">
+        <v>2.5</v>
+      </c>
+      <c r="U113">
+        <v>1.85</v>
+      </c>
+      <c r="V113">
         <v>1.95</v>
       </c>
-      <c r="T113">
-        <v>2.25</v>
-      </c>
-      <c r="U113">
-        <v>1.8</v>
-      </c>
-      <c r="V113">
-        <v>2</v>
-      </c>
       <c r="W113">
-        <v>0.75</v>
+        <v>1.05</v>
       </c>
       <c r="X113">
         <v>-1</v>
@@ -10597,16 +10597,16 @@
         <v>-1</v>
       </c>
       <c r="Z113">
-        <v>0.75</v>
+        <v>0.825</v>
       </c>
       <c r="AA113">
         <v>-1</v>
       </c>
       <c r="AB113">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC113">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10703,7 +10703,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6126689</v>
+        <v>6126690</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10715,76 +10715,76 @@
         <v>45136.95833333334</v>
       </c>
       <c r="F115" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="G115" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I115">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K115">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="L115">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M115">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="N115">
-        <v>2.7</v>
+        <v>1.727</v>
       </c>
       <c r="O115">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P115">
-        <v>2.25</v>
+        <v>3.8</v>
       </c>
       <c r="Q115">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R115">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S115">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T115">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U115">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V115">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W115">
         <v>-1</v>
       </c>
       <c r="X115">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y115">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z115">
         <v>-1</v>
       </c>
       <c r="AA115">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AB115">
         <v>-1</v>
       </c>
       <c r="AC115">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10881,7 +10881,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6126690</v>
+        <v>6126689</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10893,76 +10893,76 @@
         <v>45136.95833333334</v>
       </c>
       <c r="F117" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="G117" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="H117">
+        <v>0</v>
+      </c>
+      <c r="I117">
+        <v>2</v>
+      </c>
+      <c r="J117" t="s">
+        <v>55</v>
+      </c>
+      <c r="K117">
+        <v>2</v>
+      </c>
+      <c r="L117">
+        <v>3.4</v>
+      </c>
+      <c r="M117">
+        <v>3.1</v>
+      </c>
+      <c r="N117">
+        <v>2.7</v>
+      </c>
+      <c r="O117">
+        <v>3.4</v>
+      </c>
+      <c r="P117">
+        <v>2.25</v>
+      </c>
+      <c r="Q117">
+        <v>0.25</v>
+      </c>
+      <c r="R117">
+        <v>1.8</v>
+      </c>
+      <c r="S117">
+        <v>2</v>
+      </c>
+      <c r="T117">
+        <v>2.75</v>
+      </c>
+      <c r="U117">
+        <v>1.75</v>
+      </c>
+      <c r="V117">
+        <v>1.95</v>
+      </c>
+      <c r="W117">
+        <v>-1</v>
+      </c>
+      <c r="X117">
+        <v>-1</v>
+      </c>
+      <c r="Y117">
+        <v>1.25</v>
+      </c>
+      <c r="Z117">
+        <v>-1</v>
+      </c>
+      <c r="AA117">
         <v>1</v>
       </c>
-      <c r="I117">
-        <v>1</v>
-      </c>
-      <c r="J117" t="s">
-        <v>57</v>
-      </c>
-      <c r="K117">
-        <v>1.6</v>
-      </c>
-      <c r="L117">
-        <v>3.75</v>
-      </c>
-      <c r="M117">
-        <v>4.5</v>
-      </c>
-      <c r="N117">
-        <v>1.727</v>
-      </c>
-      <c r="O117">
-        <v>3.6</v>
-      </c>
-      <c r="P117">
-        <v>3.8</v>
-      </c>
-      <c r="Q117">
-        <v>-0.5</v>
-      </c>
-      <c r="R117">
-        <v>1.75</v>
-      </c>
-      <c r="S117">
-        <v>1.95</v>
-      </c>
-      <c r="T117">
-        <v>2.5</v>
-      </c>
-      <c r="U117">
-        <v>1.975</v>
-      </c>
-      <c r="V117">
-        <v>1.825</v>
-      </c>
-      <c r="W117">
-        <v>-1</v>
-      </c>
-      <c r="X117">
-        <v>2.6</v>
-      </c>
-      <c r="Y117">
-        <v>-1</v>
-      </c>
-      <c r="Z117">
-        <v>-1</v>
-      </c>
-      <c r="AA117">
+      <c r="AB117">
+        <v>-1</v>
+      </c>
+      <c r="AC117">
         <v>0.95</v>
-      </c>
-      <c r="AB117">
-        <v>-1</v>
-      </c>
-      <c r="AC117">
-        <v>0.825</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -11430,7 +11430,7 @@
         <v>49</v>
       </c>
       <c r="G123" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H123">
         <v>0</v>
@@ -12053,7 +12053,7 @@
         <v>45</v>
       </c>
       <c r="G130" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H130">
         <v>2</v>
@@ -12228,7 +12228,7 @@
         <v>45147.875</v>
       </c>
       <c r="F132" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G132" t="s">
         <v>29</v>
@@ -12661,7 +12661,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6126713</v>
+        <v>6126721</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12673,46 +12673,46 @@
         <v>45150.85416666666</v>
       </c>
       <c r="F137" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="G137" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I137">
         <v>1</v>
       </c>
       <c r="J137" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K137">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="L137">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="M137">
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="N137">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="O137">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P137">
-        <v>2.4</v>
+        <v>5.25</v>
       </c>
       <c r="Q137">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R137">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S137">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T137">
         <v>2.5</v>
@@ -12724,25 +12724,25 @@
         <v>1.925</v>
       </c>
       <c r="W137">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X137">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y137">
         <v>-1</v>
       </c>
       <c r="Z137">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA137">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB137">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC137">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12839,7 +12839,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6126721</v>
+        <v>6126713</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12851,46 +12851,46 @@
         <v>45150.85416666666</v>
       </c>
       <c r="F139" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="G139" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="H139">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I139">
         <v>1</v>
       </c>
       <c r="J139" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K139">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="L139">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="M139">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="N139">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="O139">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P139">
-        <v>5.25</v>
+        <v>2.4</v>
       </c>
       <c r="Q139">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R139">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S139">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T139">
         <v>2.5</v>
@@ -12902,25 +12902,25 @@
         <v>1.925</v>
       </c>
       <c r="W139">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X139">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y139">
         <v>-1</v>
       </c>
       <c r="Z139">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA139">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB139">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC139">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12940,10 +12940,10 @@
         <v>45150.875</v>
       </c>
       <c r="F140" t="s">
+        <v>43</v>
+      </c>
+      <c r="G140" t="s">
         <v>42</v>
-      </c>
-      <c r="G140" t="s">
-        <v>43</v>
       </c>
       <c r="H140">
         <v>2</v>
@@ -13477,7 +13477,7 @@
         <v>36</v>
       </c>
       <c r="G146" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H146">
         <v>2</v>
@@ -13744,7 +13744,7 @@
         <v>48</v>
       </c>
       <c r="G149" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H149">
         <v>2</v>
@@ -14097,7 +14097,7 @@
         <v>45157.875</v>
       </c>
       <c r="F153" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G153" t="s">
         <v>44</v>
@@ -15343,7 +15343,7 @@
         <v>45164.85416666666</v>
       </c>
       <c r="F167" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G167" t="s">
         <v>50</v>
@@ -15432,7 +15432,7 @@
         <v>45164.875</v>
       </c>
       <c r="F168" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G168" t="s">
         <v>40</v>
@@ -16055,7 +16055,7 @@
         <v>45168.875</v>
       </c>
       <c r="F175" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G175" t="s">
         <v>36</v>
@@ -16681,7 +16681,7 @@
         <v>30</v>
       </c>
       <c r="G182" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H182">
         <v>2</v>
@@ -16948,7 +16948,7 @@
         <v>44</v>
       </c>
       <c r="G185" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H185">
         <v>2</v>
@@ -17467,7 +17467,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>6126770</v>
+        <v>6126779</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17479,58 +17479,58 @@
         <v>45178.85416666666</v>
       </c>
       <c r="F191" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G191" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H191">
         <v>2</v>
       </c>
       <c r="I191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J191" t="s">
         <v>56</v>
       </c>
       <c r="K191">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="L191">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M191">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="N191">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="O191">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P191">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="Q191">
         <v>-0.25</v>
       </c>
       <c r="R191">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S191">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T191">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U191">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V191">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W191">
-        <v>1.15</v>
+        <v>1</v>
       </c>
       <c r="X191">
         <v>-1</v>
@@ -17539,16 +17539,16 @@
         <v>-1</v>
       </c>
       <c r="Z191">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AA191">
         <v>-1</v>
       </c>
       <c r="AB191">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC191">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -17556,7 +17556,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>6126772</v>
+        <v>6126770</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17568,58 +17568,58 @@
         <v>45178.85416666666</v>
       </c>
       <c r="F192" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="G192" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="H192">
         <v>2</v>
       </c>
       <c r="I192">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J192" t="s">
         <v>56</v>
       </c>
       <c r="K192">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L192">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M192">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="N192">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O192">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P192">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="Q192">
         <v>-0.25</v>
       </c>
       <c r="R192">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S192">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T192">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U192">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V192">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W192">
-        <v>1.2</v>
+        <v>1.15</v>
       </c>
       <c r="X192">
         <v>-1</v>
@@ -17628,16 +17628,16 @@
         <v>-1</v>
       </c>
       <c r="Z192">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA192">
         <v>-1</v>
       </c>
       <c r="AB192">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC192">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="193" spans="1:29">
@@ -17645,7 +17645,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>6126779</v>
+        <v>6126772</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17657,10 +17657,10 @@
         <v>45178.85416666666</v>
       </c>
       <c r="F193" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="G193" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H193">
         <v>2</v>
@@ -17672,43 +17672,43 @@
         <v>56</v>
       </c>
       <c r="K193">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="L193">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M193">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="N193">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="O193">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P193">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q193">
         <v>-0.25</v>
       </c>
       <c r="R193">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S193">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T193">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U193">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V193">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W193">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="X193">
         <v>-1</v>
@@ -17717,13 +17717,13 @@
         <v>-1</v>
       </c>
       <c r="Z193">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA193">
         <v>-1</v>
       </c>
       <c r="AB193">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC193">
         <v>-1</v>
@@ -18725,7 +18725,7 @@
         <v>45185.85416666666</v>
       </c>
       <c r="F205" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G205" t="s">
         <v>40</v>
@@ -18980,7 +18980,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>6126790</v>
+        <v>6126787</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18992,46 +18992,46 @@
         <v>45185.95833333334</v>
       </c>
       <c r="F208" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G208" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H208">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I208">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J208" t="s">
         <v>56</v>
       </c>
       <c r="K208">
-        <v>1.5</v>
+        <v>1.727</v>
       </c>
       <c r="L208">
+        <v>3.75</v>
+      </c>
+      <c r="M208">
         <v>4.2</v>
       </c>
-      <c r="M208">
-        <v>5.5</v>
-      </c>
       <c r="N208">
-        <v>1.65</v>
+        <v>1.833</v>
       </c>
       <c r="O208">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P208">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Q208">
         <v>-0.75</v>
       </c>
       <c r="R208">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="S208">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="T208">
         <v>2.75</v>
@@ -19043,7 +19043,7 @@
         <v>1.85</v>
       </c>
       <c r="W208">
-        <v>0.6499999999999999</v>
+        <v>0.833</v>
       </c>
       <c r="X208">
         <v>-1</v>
@@ -19052,16 +19052,16 @@
         <v>-1</v>
       </c>
       <c r="Z208">
-        <v>0.425</v>
+        <v>0.55</v>
       </c>
       <c r="AA208">
         <v>-0.5</v>
       </c>
       <c r="AB208">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC208">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -19158,7 +19158,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>6126787</v>
+        <v>6126790</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19170,46 +19170,46 @@
         <v>45185.95833333334</v>
       </c>
       <c r="F210" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="G210" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H210">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I210">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J210" t="s">
         <v>56</v>
       </c>
       <c r="K210">
-        <v>1.727</v>
+        <v>1.5</v>
       </c>
       <c r="L210">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M210">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="N210">
-        <v>1.833</v>
+        <v>1.65</v>
       </c>
       <c r="O210">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P210">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="Q210">
         <v>-0.75</v>
       </c>
       <c r="R210">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="S210">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="T210">
         <v>2.75</v>
@@ -19221,7 +19221,7 @@
         <v>1.85</v>
       </c>
       <c r="W210">
-        <v>0.833</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X210">
         <v>-1</v>
@@ -19230,16 +19230,16 @@
         <v>-1</v>
       </c>
       <c r="Z210">
-        <v>0.55</v>
+        <v>0.425</v>
       </c>
       <c r="AA210">
         <v>-0.5</v>
       </c>
       <c r="AB210">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC210">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="211" spans="1:29">
@@ -19348,7 +19348,7 @@
         <v>45186.92916666667</v>
       </c>
       <c r="F212" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G212" t="s">
         <v>48</v>
@@ -19440,7 +19440,7 @@
         <v>47</v>
       </c>
       <c r="G213" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H213">
         <v>4</v>
@@ -19603,7 +19603,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>6230627</v>
+        <v>6126795</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19615,76 +19615,76 @@
         <v>45189.95833333334</v>
       </c>
       <c r="F215" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="G215" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215">
+        <v>0</v>
+      </c>
+      <c r="J215" t="s">
+        <v>57</v>
+      </c>
+      <c r="K215">
+        <v>1.5</v>
+      </c>
+      <c r="L215">
+        <v>3.75</v>
+      </c>
+      <c r="M215">
+        <v>5.5</v>
+      </c>
+      <c r="N215">
+        <v>1.571</v>
+      </c>
+      <c r="O215">
+        <v>4.2</v>
+      </c>
+      <c r="P215">
+        <v>4.5</v>
+      </c>
+      <c r="Q215">
+        <v>-1</v>
+      </c>
+      <c r="R215">
+        <v>1.925</v>
+      </c>
+      <c r="S215">
+        <v>1.875</v>
+      </c>
+      <c r="T215">
         <v>3</v>
       </c>
-      <c r="J215" t="s">
-        <v>55</v>
-      </c>
-      <c r="K215">
-        <v>2.4</v>
-      </c>
-      <c r="L215">
-        <v>3.4</v>
-      </c>
-      <c r="M215">
-        <v>2.5</v>
-      </c>
-      <c r="N215">
-        <v>2.7</v>
-      </c>
-      <c r="O215">
-        <v>3.3</v>
-      </c>
-      <c r="P215">
-        <v>2.3</v>
-      </c>
-      <c r="Q215">
-        <v>0.25</v>
-      </c>
-      <c r="R215">
-        <v>1.725</v>
-      </c>
-      <c r="S215">
+      <c r="U215">
+        <v>1.825</v>
+      </c>
+      <c r="V215">
         <v>1.975</v>
       </c>
-      <c r="T215">
-        <v>2.75</v>
-      </c>
-      <c r="U215">
-        <v>1.9</v>
-      </c>
-      <c r="V215">
-        <v>1.9</v>
-      </c>
       <c r="W215">
         <v>-1</v>
       </c>
       <c r="X215">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y215">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z215">
         <v>-1</v>
       </c>
       <c r="AA215">
+        <v>0.875</v>
+      </c>
+      <c r="AB215">
+        <v>-1</v>
+      </c>
+      <c r="AC215">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB215">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC215">
-        <v>-1</v>
       </c>
     </row>
     <row r="216" spans="1:29">
@@ -19692,7 +19692,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>6126795</v>
+        <v>6230627</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19704,76 +19704,76 @@
         <v>45189.95833333334</v>
       </c>
       <c r="F216" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G216" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J216" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K216">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="L216">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M216">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="N216">
-        <v>1.571</v>
+        <v>2.7</v>
       </c>
       <c r="O216">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="P216">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q216">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R216">
-        <v>1.925</v>
+        <v>1.725</v>
       </c>
       <c r="S216">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T216">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U216">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V216">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W216">
         <v>-1</v>
       </c>
       <c r="X216">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y216">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z216">
         <v>-1</v>
       </c>
       <c r="AA216">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB216">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC216">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -19885,7 +19885,7 @@
         <v>39</v>
       </c>
       <c r="G218" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H218">
         <v>1</v>
@@ -20686,7 +20686,7 @@
         <v>41</v>
       </c>
       <c r="G227" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H227">
         <v>0</v>
@@ -21487,7 +21487,7 @@
         <v>30</v>
       </c>
       <c r="G236" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H236">
         <v>1</v>
@@ -21665,7 +21665,7 @@
         <v>35</v>
       </c>
       <c r="G238" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H238">
         <v>2</v>
@@ -22199,7 +22199,7 @@
         <v>32</v>
       </c>
       <c r="G244" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H244">
         <v>2</v>
@@ -22730,7 +22730,7 @@
         <v>45206.85416666666</v>
       </c>
       <c r="F250" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G250" t="s">
         <v>32</v>
@@ -22908,7 +22908,7 @@
         <v>45206.875</v>
       </c>
       <c r="F252" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G252" t="s">
         <v>51</v>
@@ -23252,7 +23252,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>6507495</v>
+        <v>6492575</v>
       </c>
       <c r="C256" t="s">
         <v>28</v>
@@ -23264,56 +23264,56 @@
         <v>45206.97916666666</v>
       </c>
       <c r="F256" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G256" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H256">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I256">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J256" t="s">
         <v>55</v>
       </c>
       <c r="K256">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L256">
+        <v>3.4</v>
+      </c>
+      <c r="M256">
+        <v>2.3</v>
+      </c>
+      <c r="N256">
         <v>3.5</v>
       </c>
-      <c r="M256">
+      <c r="O256">
         <v>3.6</v>
       </c>
-      <c r="N256">
-        <v>1.85</v>
-      </c>
-      <c r="O256">
-        <v>3.75</v>
-      </c>
       <c r="P256">
-        <v>3.8</v>
+        <v>1.909</v>
       </c>
       <c r="Q256">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R256">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S256">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T256">
         <v>2.75</v>
       </c>
       <c r="U256">
+        <v>1.75</v>
+      </c>
+      <c r="V256">
         <v>1.95</v>
       </c>
-      <c r="V256">
-        <v>1.85</v>
-      </c>
       <c r="W256">
         <v>-1</v>
       </c>
@@ -23321,19 +23321,19 @@
         <v>-1</v>
       </c>
       <c r="Y256">
-        <v>2.8</v>
+        <v>0.909</v>
       </c>
       <c r="Z256">
         <v>-1</v>
       </c>
       <c r="AA256">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB256">
-        <v>0.475</v>
+        <v>0.75</v>
       </c>
       <c r="AC256">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="257" spans="1:29">
@@ -23341,7 +23341,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>6492575</v>
+        <v>6507495</v>
       </c>
       <c r="C257" t="s">
         <v>28</v>
@@ -23353,55 +23353,55 @@
         <v>45206.97916666666</v>
       </c>
       <c r="F257" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G257" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H257">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I257">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J257" t="s">
         <v>55</v>
       </c>
       <c r="K257">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L257">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M257">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="N257">
-        <v>3.5</v>
+        <v>1.85</v>
       </c>
       <c r="O257">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P257">
-        <v>1.909</v>
+        <v>3.8</v>
       </c>
       <c r="Q257">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R257">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S257">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T257">
         <v>2.75</v>
       </c>
       <c r="U257">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="V257">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W257">
         <v>-1</v>
@@ -23410,19 +23410,19 @@
         <v>-1</v>
       </c>
       <c r="Y257">
-        <v>0.909</v>
+        <v>2.8</v>
       </c>
       <c r="Z257">
         <v>-1</v>
       </c>
       <c r="AA257">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB257">
-        <v>0.75</v>
+        <v>0.475</v>
       </c>
       <c r="AC257">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="258" spans="1:29">
@@ -23887,7 +23887,7 @@
         <v>45213.85416666666</v>
       </c>
       <c r="F263" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G263" t="s">
         <v>33</v>
@@ -23976,7 +23976,7 @@
         <v>45213.875</v>
       </c>
       <c r="F264" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G264" t="s">
         <v>39</v>
@@ -24602,7 +24602,7 @@
         <v>34</v>
       </c>
       <c r="G271" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H271">
         <v>5</v>
@@ -25489,7 +25489,7 @@
         <v>45227.85416666666</v>
       </c>
       <c r="F281" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G281" t="s">
         <v>52</v>
@@ -25670,7 +25670,7 @@
         <v>29</v>
       </c>
       <c r="G283" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H283">
         <v>2</v>
@@ -26100,7 +26100,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>7689544</v>
+        <v>7689542</v>
       </c>
       <c r="C288" t="s">
         <v>28</v>
@@ -26112,19 +26112,19 @@
         <v>45360.875</v>
       </c>
       <c r="F288" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G288" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288">
         <v>0</v>
       </c>
       <c r="J288" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K288">
         <v>2.25</v>
@@ -26136,52 +26136,52 @@
         <v>2.7</v>
       </c>
       <c r="N288">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="O288">
         <v>3.4</v>
       </c>
       <c r="P288">
-        <v>2.75</v>
+        <v>2.15</v>
       </c>
       <c r="Q288">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R288">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S288">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T288">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U288">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V288">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W288">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X288">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y288">
         <v>-1</v>
       </c>
       <c r="Z288">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA288">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB288">
         <v>-1</v>
       </c>
       <c r="AC288">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="289" spans="1:29">
@@ -26189,7 +26189,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>7689542</v>
+        <v>7689544</v>
       </c>
       <c r="C289" t="s">
         <v>28</v>
@@ -26201,19 +26201,19 @@
         <v>45360.875</v>
       </c>
       <c r="F289" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G289" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289">
         <v>0</v>
       </c>
       <c r="J289" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K289">
         <v>2.25</v>
@@ -26225,52 +26225,52 @@
         <v>2.7</v>
       </c>
       <c r="N289">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="O289">
         <v>3.4</v>
       </c>
       <c r="P289">
-        <v>2.15</v>
+        <v>2.75</v>
       </c>
       <c r="Q289">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R289">
+        <v>2</v>
+      </c>
+      <c r="S289">
+        <v>1.8</v>
+      </c>
+      <c r="T289">
+        <v>2.75</v>
+      </c>
+      <c r="U289">
+        <v>1.925</v>
+      </c>
+      <c r="V289">
         <v>1.875</v>
       </c>
-      <c r="S289">
-        <v>1.925</v>
-      </c>
-      <c r="T289">
-        <v>2.5</v>
-      </c>
-      <c r="U289">
-        <v>1.825</v>
-      </c>
-      <c r="V289">
-        <v>1.975</v>
-      </c>
       <c r="W289">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X289">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y289">
         <v>-1</v>
       </c>
       <c r="Z289">
+        <v>-0.5</v>
+      </c>
+      <c r="AA289">
+        <v>0.4</v>
+      </c>
+      <c r="AB289">
+        <v>-1</v>
+      </c>
+      <c r="AC289">
         <v>0.875</v>
-      </c>
-      <c r="AA289">
-        <v>-1</v>
-      </c>
-      <c r="AB289">
-        <v>-1</v>
-      </c>
-      <c r="AC289">
-        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="290" spans="1:29">
@@ -26545,7 +26545,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>7689546</v>
+        <v>7689545</v>
       </c>
       <c r="C293" t="s">
         <v>28</v>
@@ -26557,73 +26557,73 @@
         <v>45361</v>
       </c>
       <c r="F293" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G293" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H293">
         <v>2</v>
       </c>
       <c r="I293">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J293" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K293">
-        <v>1.533</v>
+        <v>2.3</v>
       </c>
       <c r="L293">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M293">
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="N293">
-        <v>1.75</v>
+        <v>2.45</v>
       </c>
       <c r="O293">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P293">
-        <v>3.8</v>
+        <v>2.5</v>
       </c>
       <c r="Q293">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R293">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S293">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T293">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U293">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V293">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W293">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X293">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y293">
         <v>-1</v>
       </c>
       <c r="Z293">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA293">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB293">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC293">
         <v>-1</v>
@@ -26634,7 +26634,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>7689545</v>
+        <v>7689546</v>
       </c>
       <c r="C294" t="s">
         <v>28</v>
@@ -26646,73 +26646,73 @@
         <v>45361</v>
       </c>
       <c r="F294" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G294" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H294">
         <v>2</v>
       </c>
       <c r="I294">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J294" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K294">
-        <v>2.3</v>
+        <v>1.533</v>
       </c>
       <c r="L294">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M294">
+        <v>5</v>
+      </c>
+      <c r="N294">
+        <v>1.75</v>
+      </c>
+      <c r="O294">
+        <v>3.6</v>
+      </c>
+      <c r="P294">
+        <v>3.8</v>
+      </c>
+      <c r="Q294">
+        <v>-0.75</v>
+      </c>
+      <c r="R294">
+        <v>2.025</v>
+      </c>
+      <c r="S294">
+        <v>1.775</v>
+      </c>
+      <c r="T294">
+        <v>2.25</v>
+      </c>
+      <c r="U294">
+        <v>1.775</v>
+      </c>
+      <c r="V294">
+        <v>2.025</v>
+      </c>
+      <c r="W294">
+        <v>-1</v>
+      </c>
+      <c r="X294">
         <v>2.6</v>
       </c>
-      <c r="N294">
-        <v>2.45</v>
-      </c>
-      <c r="O294">
-        <v>3.3</v>
-      </c>
-      <c r="P294">
-        <v>2.5</v>
-      </c>
-      <c r="Q294">
-        <v>0</v>
-      </c>
-      <c r="R294">
-        <v>1.85</v>
-      </c>
-      <c r="S294">
-        <v>1.95</v>
-      </c>
-      <c r="T294">
-        <v>2.5</v>
-      </c>
-      <c r="U294">
-        <v>1.825</v>
-      </c>
-      <c r="V294">
-        <v>1.975</v>
-      </c>
-      <c r="W294">
-        <v>1.45</v>
-      </c>
-      <c r="X294">
-        <v>-1</v>
-      </c>
       <c r="Y294">
         <v>-1</v>
       </c>
       <c r="Z294">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA294">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB294">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC294">
         <v>-1</v>
@@ -26827,7 +26827,7 @@
         <v>46</v>
       </c>
       <c r="G296" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H296">
         <v>0</v>
@@ -27524,7 +27524,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>7689552</v>
+        <v>7689839</v>
       </c>
       <c r="C304" t="s">
         <v>28</v>
@@ -27536,76 +27536,76 @@
         <v>45367.95833333334</v>
       </c>
       <c r="F304" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="G304" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H304">
         <v>1</v>
       </c>
       <c r="I304">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J304" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K304">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="L304">
         <v>3.6</v>
       </c>
       <c r="M304">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="N304">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="O304">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P304">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="Q304">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R304">
+        <v>1.725</v>
+      </c>
+      <c r="S304">
         <v>1.975</v>
       </c>
-      <c r="S304">
-        <v>1.825</v>
-      </c>
       <c r="T304">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U304">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V304">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W304">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X304">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y304">
         <v>-1</v>
       </c>
       <c r="Z304">
-        <v>0.9750000000000001</v>
+        <v>0.3625</v>
       </c>
       <c r="AA304">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB304">
         <v>-1</v>
       </c>
       <c r="AC304">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="305" spans="1:29">
@@ -27613,7 +27613,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>7689839</v>
+        <v>7689552</v>
       </c>
       <c r="C305" t="s">
         <v>28</v>
@@ -27625,76 +27625,76 @@
         <v>45367.95833333334</v>
       </c>
       <c r="F305" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="G305" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H305">
         <v>1</v>
       </c>
       <c r="I305">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J305" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K305">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="L305">
         <v>3.6</v>
       </c>
       <c r="M305">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="N305">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="O305">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P305">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="Q305">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R305">
-        <v>1.725</v>
+        <v>1.975</v>
       </c>
       <c r="S305">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T305">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U305">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V305">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W305">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X305">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y305">
         <v>-1</v>
       </c>
       <c r="Z305">
-        <v>0.3625</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA305">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB305">
         <v>-1</v>
       </c>
       <c r="AC305">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="306" spans="1:29">
@@ -27803,7 +27803,7 @@
         <v>45374.70833333334</v>
       </c>
       <c r="F307" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G307" t="s">
         <v>31</v>
@@ -28782,7 +28782,7 @@
         <v>45381.70833333334</v>
       </c>
       <c r="F318" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G318" t="s">
         <v>48</v>
@@ -28859,7 +28859,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>7689568</v>
+        <v>7689570</v>
       </c>
       <c r="C319" t="s">
         <v>28</v>
@@ -28871,10 +28871,10 @@
         <v>45381.83333333334</v>
       </c>
       <c r="F319" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G319" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="H319">
         <v>1</v>
@@ -28886,40 +28886,40 @@
         <v>55</v>
       </c>
       <c r="K319">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="L319">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M319">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="N319">
-        <v>1.727</v>
+        <v>5</v>
       </c>
       <c r="O319">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P319">
-        <v>3.8</v>
+        <v>1.533</v>
       </c>
       <c r="Q319">
-        <v>-0.75</v>
+        <v>1</v>
       </c>
       <c r="R319">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S319">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T319">
         <v>2.5</v>
       </c>
       <c r="U319">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V319">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W319">
         <v>-1</v>
@@ -28928,16 +28928,16 @@
         <v>-1</v>
       </c>
       <c r="Y319">
-        <v>2.8</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z319">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA319">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB319">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC319">
         <v>-1</v>
@@ -28948,7 +28948,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>7689570</v>
+        <v>7689568</v>
       </c>
       <c r="C320" t="s">
         <v>28</v>
@@ -28960,10 +28960,10 @@
         <v>45381.83333333334</v>
       </c>
       <c r="F320" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G320" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="H320">
         <v>1</v>
@@ -28975,40 +28975,40 @@
         <v>55</v>
       </c>
       <c r="K320">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="L320">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M320">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="N320">
-        <v>5</v>
+        <v>1.727</v>
       </c>
       <c r="O320">
+        <v>3.5</v>
+      </c>
+      <c r="P320">
         <v>3.8</v>
       </c>
-      <c r="P320">
-        <v>1.533</v>
-      </c>
       <c r="Q320">
-        <v>1</v>
+        <v>-0.75</v>
       </c>
       <c r="R320">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S320">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T320">
         <v>2.5</v>
       </c>
       <c r="U320">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V320">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W320">
         <v>-1</v>
@@ -29017,16 +29017,16 @@
         <v>-1</v>
       </c>
       <c r="Y320">
-        <v>0.5329999999999999</v>
+        <v>2.8</v>
       </c>
       <c r="Z320">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA320">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB320">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC320">
         <v>-1</v>
@@ -29939,7 +29939,7 @@
         <v>45388.70833333334</v>
       </c>
       <c r="F331" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G331" t="s">
         <v>41</v>
@@ -30632,6 +30632,80 @@
       </c>
       <c r="AC338">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="339" spans="1:29">
+      <c r="A339" s="1">
+        <v>337</v>
+      </c>
+      <c r="B339">
+        <v>7689586</v>
+      </c>
+      <c r="C339" t="s">
+        <v>28</v>
+      </c>
+      <c r="D339" t="s">
+        <v>28</v>
+      </c>
+      <c r="E339" s="2">
+        <v>45393.83333333334</v>
+      </c>
+      <c r="F339" t="s">
+        <v>47</v>
+      </c>
+      <c r="G339" t="s">
+        <v>33</v>
+      </c>
+      <c r="K339">
+        <v>2.7</v>
+      </c>
+      <c r="L339">
+        <v>3.4</v>
+      </c>
+      <c r="M339">
+        <v>2.5</v>
+      </c>
+      <c r="N339">
+        <v>3.8</v>
+      </c>
+      <c r="O339">
+        <v>3.6</v>
+      </c>
+      <c r="P339">
+        <v>1.909</v>
+      </c>
+      <c r="Q339">
+        <v>0.5</v>
+      </c>
+      <c r="R339">
+        <v>1.875</v>
+      </c>
+      <c r="S339">
+        <v>1.925</v>
+      </c>
+      <c r="T339">
+        <v>2.5</v>
+      </c>
+      <c r="U339">
+        <v>1.875</v>
+      </c>
+      <c r="V339">
+        <v>1.925</v>
+      </c>
+      <c r="W339">
+        <v>0</v>
+      </c>
+      <c r="X339">
+        <v>0</v>
+      </c>
+      <c r="Y339">
+        <v>0</v>
+      </c>
+      <c r="Z339">
+        <v>0</v>
+      </c>
+      <c r="AA339">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/USA USL Championship/USA USL Championship.xlsx
+++ b/USA USL Championship/USA USL Championship.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1768" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1816" uniqueCount="58">
   <si>
     <t>id</t>
   </si>
@@ -121,10 +121,10 @@
     <t>Memphis 901 FC</t>
   </si>
   <si>
-    <t>San Antonio FC</t>
+    <t>New Mexico United</t>
   </si>
   <si>
-    <t>New Mexico United</t>
+    <t>San Antonio FC</t>
   </si>
   <si>
     <t>Monterey Bay FC</t>
@@ -142,10 +142,10 @@
     <t>Indy Eleven</t>
   </si>
   <si>
-    <t>Louisville City FC</t>
+    <t>Rio Grande Valley FC Toros</t>
   </si>
   <si>
-    <t>Rio Grande Valley FC Toros</t>
+    <t>Louisville City FC</t>
   </si>
   <si>
     <t>Phoenix Rising FC</t>
@@ -549,7 +549,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC349"/>
+  <dimension ref="A1:AC361"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -928,7 +928,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6126587</v>
+        <v>6126584</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1195,73 +1195,73 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K8">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="L8">
         <v>3.4</v>
       </c>
       <c r="M8">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="N8">
-        <v>1.8</v>
+        <v>2.15</v>
       </c>
       <c r="O8">
         <v>3.4</v>
       </c>
       <c r="P8">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="Q8">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R8">
+        <v>1.95</v>
+      </c>
+      <c r="S8">
         <v>1.85</v>
       </c>
-      <c r="S8">
-        <v>1.95</v>
-      </c>
       <c r="T8">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U8">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V8">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W8">
         <v>-1</v>
       </c>
       <c r="X8">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y8">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z8">
         <v>-1</v>
       </c>
       <c r="AA8">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB8">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC8">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1269,7 +1269,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6126584</v>
+        <v>6126587</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1284,73 +1284,73 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K9">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="L9">
         <v>3.4</v>
       </c>
       <c r="M9">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="N9">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="O9">
         <v>3.4</v>
       </c>
       <c r="P9">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q9">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R9">
+        <v>1.85</v>
+      </c>
+      <c r="S9">
         <v>1.95</v>
       </c>
-      <c r="S9">
-        <v>1.85</v>
-      </c>
       <c r="T9">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U9">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V9">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W9">
         <v>-1</v>
       </c>
       <c r="X9">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y9">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z9">
         <v>-1</v>
       </c>
       <c r="AA9">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB9">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC9">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1462,7 +1462,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H11">
         <v>2</v>
@@ -1803,7 +1803,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6126598</v>
+        <v>6126594</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1815,76 +1815,76 @@
         <v>45087.83333333334</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G15" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K15">
+        <v>1.666</v>
+      </c>
+      <c r="L15">
+        <v>3.75</v>
+      </c>
+      <c r="M15">
+        <v>4</v>
+      </c>
+      <c r="N15">
         <v>1.75</v>
       </c>
-      <c r="L15">
+      <c r="O15">
         <v>3.6</v>
       </c>
-      <c r="M15">
-        <v>3.75</v>
-      </c>
-      <c r="N15">
-        <v>1.7</v>
-      </c>
-      <c r="O15">
-        <v>3.25</v>
-      </c>
       <c r="P15">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q15">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R15">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S15">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T15">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U15">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V15">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W15">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X15">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y15">
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA15">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB15">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC15">
-        <v>0.4375</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1892,7 +1892,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6126594</v>
+        <v>6126598</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1904,76 +1904,76 @@
         <v>45087.83333333334</v>
       </c>
       <c r="F16" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G16" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K16">
-        <v>1.666</v>
+        <v>1.75</v>
       </c>
       <c r="L16">
+        <v>3.6</v>
+      </c>
+      <c r="M16">
         <v>3.75</v>
       </c>
-      <c r="M16">
-        <v>4</v>
-      </c>
       <c r="N16">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="O16">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P16">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="Q16">
+        <v>-0.75</v>
+      </c>
+      <c r="R16">
+        <v>1.975</v>
+      </c>
+      <c r="S16">
+        <v>1.825</v>
+      </c>
+      <c r="T16">
+        <v>2.25</v>
+      </c>
+      <c r="U16">
+        <v>1.925</v>
+      </c>
+      <c r="V16">
+        <v>1.875</v>
+      </c>
+      <c r="W16">
+        <v>0.7</v>
+      </c>
+      <c r="X16">
+        <v>-1</v>
+      </c>
+      <c r="Y16">
+        <v>-1</v>
+      </c>
+      <c r="Z16">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA16">
+        <v>-1</v>
+      </c>
+      <c r="AB16">
         <v>-0.5</v>
       </c>
-      <c r="R16">
-        <v>1.75</v>
-      </c>
-      <c r="S16">
-        <v>1.95</v>
-      </c>
-      <c r="T16">
-        <v>2.75</v>
-      </c>
-      <c r="U16">
-        <v>1.9</v>
-      </c>
-      <c r="V16">
-        <v>1.9</v>
-      </c>
-      <c r="W16">
-        <v>-1</v>
-      </c>
-      <c r="X16">
-        <v>2.6</v>
-      </c>
-      <c r="Y16">
-        <v>-1</v>
-      </c>
-      <c r="Z16">
-        <v>-1</v>
-      </c>
-      <c r="AA16">
-        <v>0.95</v>
-      </c>
-      <c r="AB16">
-        <v>-1</v>
-      </c>
       <c r="AC16">
-        <v>0.8999999999999999</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1996,7 +1996,7 @@
         <v>33</v>
       </c>
       <c r="G17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H17">
         <v>3</v>
@@ -2070,7 +2070,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6126596</v>
+        <v>6126599</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2085,70 +2085,70 @@
         <v>42</v>
       </c>
       <c r="G18" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I18">
         <v>3</v>
       </c>
       <c r="J18" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K18">
-        <v>1.7</v>
+        <v>2.05</v>
       </c>
       <c r="L18">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M18">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="N18">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="O18">
         <v>3.4</v>
       </c>
       <c r="P18">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="Q18">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R18">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S18">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T18">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U18">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V18">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W18">
         <v>-1</v>
       </c>
       <c r="X18">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y18">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z18">
         <v>-1</v>
       </c>
       <c r="AA18">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB18">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC18">
         <v>-1</v>
@@ -2159,7 +2159,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6126599</v>
+        <v>6126596</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2174,70 +2174,70 @@
         <v>43</v>
       </c>
       <c r="G19" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="H19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I19">
         <v>3</v>
       </c>
       <c r="J19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K19">
-        <v>2.05</v>
+        <v>1.7</v>
       </c>
       <c r="L19">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M19">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="N19">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="O19">
         <v>3.4</v>
       </c>
       <c r="P19">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q19">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R19">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S19">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T19">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U19">
+        <v>1.9</v>
+      </c>
+      <c r="V19">
+        <v>1.9</v>
+      </c>
+      <c r="W19">
+        <v>-1</v>
+      </c>
+      <c r="X19">
+        <v>-1</v>
+      </c>
+      <c r="Y19">
         <v>1.8</v>
       </c>
-      <c r="V19">
-        <v>2</v>
-      </c>
-      <c r="W19">
-        <v>-1</v>
-      </c>
-      <c r="X19">
-        <v>2.4</v>
-      </c>
-      <c r="Y19">
-        <v>-1</v>
-      </c>
       <c r="Z19">
         <v>-1</v>
       </c>
       <c r="AA19">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB19">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC19">
         <v>-1</v>
@@ -2349,7 +2349,7 @@
         <v>45087.91666666666</v>
       </c>
       <c r="F21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -2797,7 +2797,7 @@
         <v>40</v>
       </c>
       <c r="G26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H26">
         <v>2</v>
@@ -3328,10 +3328,10 @@
         <v>45094.91666666666</v>
       </c>
       <c r="F32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H32">
         <v>2</v>
@@ -3687,7 +3687,7 @@
         <v>44</v>
       </c>
       <c r="G36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H36">
         <v>2</v>
@@ -3850,7 +3850,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6126619</v>
+        <v>6126616</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3862,13 +3862,13 @@
         <v>45098.875</v>
       </c>
       <c r="F38" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G38" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -3877,43 +3877,43 @@
         <v>56</v>
       </c>
       <c r="K38">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="L38">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M38">
+        <v>3.6</v>
+      </c>
+      <c r="N38">
+        <v>1.7</v>
+      </c>
+      <c r="O38">
+        <v>3.8</v>
+      </c>
+      <c r="P38">
+        <v>3.75</v>
+      </c>
+      <c r="Q38">
+        <v>-0.75</v>
+      </c>
+      <c r="R38">
+        <v>1.95</v>
+      </c>
+      <c r="S38">
+        <v>1.85</v>
+      </c>
+      <c r="T38">
         <v>3</v>
       </c>
-      <c r="N38">
-        <v>2.15</v>
-      </c>
-      <c r="O38">
-        <v>3.4</v>
-      </c>
-      <c r="P38">
-        <v>2.875</v>
-      </c>
-      <c r="Q38">
-        <v>-0.25</v>
-      </c>
-      <c r="R38">
-        <v>1.975</v>
-      </c>
-      <c r="S38">
-        <v>1.825</v>
-      </c>
-      <c r="T38">
-        <v>2.75</v>
-      </c>
       <c r="U38">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V38">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W38">
-        <v>1.15</v>
+        <v>0.7</v>
       </c>
       <c r="X38">
         <v>-1</v>
@@ -3922,7 +3922,7 @@
         <v>-1</v>
       </c>
       <c r="Z38">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA38">
         <v>-1</v>
@@ -3931,7 +3931,7 @@
         <v>-1</v>
       </c>
       <c r="AC38">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -4028,7 +4028,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6126616</v>
+        <v>6126619</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4040,13 +4040,13 @@
         <v>45098.875</v>
       </c>
       <c r="F40" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G40" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -4055,43 +4055,43 @@
         <v>56</v>
       </c>
       <c r="K40">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="L40">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M40">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="N40">
-        <v>1.7</v>
+        <v>2.15</v>
       </c>
       <c r="O40">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P40">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="Q40">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R40">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S40">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T40">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U40">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V40">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W40">
-        <v>0.7</v>
+        <v>1.15</v>
       </c>
       <c r="X40">
         <v>-1</v>
@@ -4100,7 +4100,7 @@
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA40">
         <v>-1</v>
@@ -4109,7 +4109,7 @@
         <v>-1</v>
       </c>
       <c r="AC40">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4129,7 +4129,7 @@
         <v>45098.91666666666</v>
       </c>
       <c r="F41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G41" t="s">
         <v>44</v>
@@ -4206,7 +4206,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6126628</v>
+        <v>6126621</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4218,76 +4218,76 @@
         <v>45101.83333333334</v>
       </c>
       <c r="F42" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G42" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J42" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K42">
-        <v>1.727</v>
+        <v>2.3</v>
       </c>
       <c r="L42">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M42">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="N42">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="O42">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P42">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="Q42">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R42">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S42">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T42">
         <v>2.75</v>
       </c>
       <c r="U42">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V42">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W42">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X42">
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z42">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA42">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB42">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC42">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4295,7 +4295,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6126621</v>
+        <v>6126622</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4307,55 +4307,55 @@
         <v>45101.83333333334</v>
       </c>
       <c r="F43" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G43" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J43" t="s">
         <v>55</v>
       </c>
       <c r="K43">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="L43">
         <v>3.4</v>
       </c>
       <c r="M43">
-        <v>2.625</v>
+        <v>1.909</v>
       </c>
       <c r="N43">
-        <v>2.4</v>
+        <v>3.75</v>
       </c>
       <c r="O43">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P43">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="Q43">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R43">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S43">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T43">
         <v>2.75</v>
       </c>
       <c r="U43">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V43">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W43">
         <v>-1</v>
@@ -4364,19 +4364,19 @@
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="Z43">
         <v>-1</v>
       </c>
       <c r="AA43">
+        <v>0.825</v>
+      </c>
+      <c r="AB43">
         <v>0.925</v>
       </c>
-      <c r="AB43">
-        <v>-1</v>
-      </c>
       <c r="AC43">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4384,7 +4384,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6126622</v>
+        <v>6126628</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4396,46 +4396,46 @@
         <v>45101.83333333334</v>
       </c>
       <c r="F44" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G44" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H44">
         <v>2</v>
       </c>
       <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44" t="s">
+        <v>56</v>
+      </c>
+      <c r="K44">
+        <v>1.727</v>
+      </c>
+      <c r="L44">
+        <v>3.5</v>
+      </c>
+      <c r="M44">
         <v>4</v>
       </c>
-      <c r="J44" t="s">
-        <v>55</v>
-      </c>
-      <c r="K44">
-        <v>3.4</v>
-      </c>
-      <c r="L44">
-        <v>3.4</v>
-      </c>
-      <c r="M44">
+      <c r="N44">
         <v>1.909</v>
-      </c>
-      <c r="N44">
-        <v>3.75</v>
       </c>
       <c r="O44">
         <v>3.5</v>
       </c>
       <c r="P44">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q44">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R44">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S44">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T44">
         <v>2.75</v>
@@ -4444,28 +4444,28 @@
         <v>1.925</v>
       </c>
       <c r="V44">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W44">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X44">
         <v>-1</v>
       </c>
       <c r="Y44">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z44">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA44">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB44">
-        <v>0.925</v>
+        <v>0.4625</v>
       </c>
       <c r="AC44">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4574,7 +4574,7 @@
         <v>45101.875</v>
       </c>
       <c r="F46" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G46" t="s">
         <v>45</v>
@@ -4752,7 +4752,7 @@
         <v>45101.91666666666</v>
       </c>
       <c r="F48" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G48" t="s">
         <v>30</v>
@@ -5022,7 +5022,7 @@
         <v>51</v>
       </c>
       <c r="G51" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H51">
         <v>3</v>
@@ -5111,7 +5111,7 @@
         <v>50</v>
       </c>
       <c r="G52" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H52">
         <v>0</v>
@@ -5467,7 +5467,7 @@
         <v>31</v>
       </c>
       <c r="G56" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -5553,7 +5553,7 @@
         <v>45108.91666666666</v>
       </c>
       <c r="F57" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G57" t="s">
         <v>48</v>
@@ -5734,7 +5734,7 @@
         <v>46</v>
       </c>
       <c r="G59" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -5986,7 +5986,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6126640</v>
+        <v>6126638</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5998,76 +5998,76 @@
         <v>45109</v>
       </c>
       <c r="F62" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G62" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K62">
-        <v>1.571</v>
+        <v>2.15</v>
       </c>
       <c r="L62">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M62">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="N62">
-        <v>1.533</v>
+        <v>2.2</v>
       </c>
       <c r="O62">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P62">
-        <v>5.25</v>
+        <v>2.7</v>
       </c>
       <c r="Q62">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R62">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S62">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T62">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U62">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V62">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W62">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X62">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y62">
         <v>-1</v>
       </c>
       <c r="Z62">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA62">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB62">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC62">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6075,7 +6075,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6126638</v>
+        <v>6126640</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6087,76 +6087,76 @@
         <v>45109</v>
       </c>
       <c r="F63" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G63" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H63">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K63">
-        <v>2.15</v>
+        <v>1.571</v>
       </c>
       <c r="L63">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M63">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="N63">
-        <v>2.2</v>
+        <v>1.533</v>
       </c>
       <c r="O63">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P63">
-        <v>2.7</v>
+        <v>5.25</v>
       </c>
       <c r="Q63">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R63">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S63">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T63">
+        <v>2.5</v>
+      </c>
+      <c r="U63">
+        <v>1.875</v>
+      </c>
+      <c r="V63">
+        <v>1.925</v>
+      </c>
+      <c r="W63">
+        <v>-1</v>
+      </c>
+      <c r="X63">
         <v>3</v>
       </c>
-      <c r="U63">
-        <v>1.8</v>
-      </c>
-      <c r="V63">
-        <v>2</v>
-      </c>
-      <c r="W63">
-        <v>1.2</v>
-      </c>
-      <c r="X63">
-        <v>-1</v>
-      </c>
       <c r="Y63">
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA63">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB63">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC63">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6357,7 +6357,7 @@
         <v>45</v>
       </c>
       <c r="G66" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H66">
         <v>2</v>
@@ -6446,7 +6446,7 @@
         <v>34</v>
       </c>
       <c r="G67" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -6520,7 +6520,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6126655</v>
+        <v>6126646</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6532,76 +6532,76 @@
         <v>45115.83333333334</v>
       </c>
       <c r="F68" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="G68" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J68" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K68">
-        <v>2.7</v>
+        <v>3.25</v>
       </c>
       <c r="L68">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M68">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="N68">
         <v>3</v>
       </c>
       <c r="O68">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P68">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q68">
         <v>0.25</v>
       </c>
       <c r="R68">
+        <v>1.975</v>
+      </c>
+      <c r="S68">
         <v>1.825</v>
       </c>
-      <c r="S68">
-        <v>1.975</v>
-      </c>
       <c r="T68">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U68">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V68">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W68">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X68">
         <v>-1</v>
       </c>
       <c r="Y68">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z68">
+        <v>-1</v>
+      </c>
+      <c r="AA68">
         <v>0.825</v>
       </c>
-      <c r="AA68">
-        <v>-1</v>
-      </c>
       <c r="AB68">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AC68">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6609,7 +6609,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6126652</v>
+        <v>6126647</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6621,76 +6621,76 @@
         <v>45115.83333333334</v>
       </c>
       <c r="F69" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G69" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H69">
         <v>0</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K69">
         <v>1.909</v>
       </c>
       <c r="L69">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M69">
+        <v>3.5</v>
+      </c>
+      <c r="N69">
+        <v>1.666</v>
+      </c>
+      <c r="O69">
         <v>3.6</v>
       </c>
-      <c r="N69">
+      <c r="P69">
+        <v>4.5</v>
+      </c>
+      <c r="Q69">
+        <v>-0.75</v>
+      </c>
+      <c r="R69">
+        <v>1.9</v>
+      </c>
+      <c r="S69">
+        <v>1.9</v>
+      </c>
+      <c r="T69">
+        <v>2.75</v>
+      </c>
+      <c r="U69">
+        <v>1.85</v>
+      </c>
+      <c r="V69">
         <v>1.95</v>
       </c>
-      <c r="O69">
-        <v>3.25</v>
-      </c>
-      <c r="P69">
-        <v>3.75</v>
-      </c>
-      <c r="Q69">
-        <v>-0.25</v>
-      </c>
-      <c r="R69">
-        <v>1.75</v>
-      </c>
-      <c r="S69">
-        <v>2.05</v>
-      </c>
-      <c r="T69">
-        <v>1.75</v>
-      </c>
-      <c r="U69">
-        <v>1.8</v>
-      </c>
-      <c r="V69">
-        <v>2</v>
-      </c>
       <c r="W69">
         <v>-1</v>
       </c>
       <c r="X69">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y69">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z69">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA69">
-        <v>0.5249999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB69">
         <v>-1</v>
       </c>
       <c r="AC69">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6698,7 +6698,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6126646</v>
+        <v>6126652</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6710,49 +6710,49 @@
         <v>45115.83333333334</v>
       </c>
       <c r="F70" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G70" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H70">
         <v>0</v>
       </c>
       <c r="I70">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J70" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K70">
-        <v>3.25</v>
+        <v>1.909</v>
       </c>
       <c r="L70">
         <v>3.3</v>
       </c>
       <c r="M70">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="N70">
-        <v>3</v>
+        <v>1.95</v>
       </c>
       <c r="O70">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P70">
-        <v>2.1</v>
+        <v>3.75</v>
       </c>
       <c r="Q70">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R70">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S70">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T70">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="U70">
         <v>1.8</v>
@@ -6764,16 +6764,16 @@
         <v>-1</v>
       </c>
       <c r="X70">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y70">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z70">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA70">
-        <v>0.825</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB70">
         <v>-1</v>
@@ -6787,7 +6787,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6126647</v>
+        <v>6126655</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6799,76 +6799,76 @@
         <v>45115.83333333334</v>
       </c>
       <c r="F71" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G71" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71">
         <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K71">
-        <v>1.909</v>
+        <v>2.7</v>
       </c>
       <c r="L71">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M71">
-        <v>3.5</v>
+        <v>2.375</v>
       </c>
       <c r="N71">
-        <v>1.666</v>
+        <v>3</v>
       </c>
       <c r="O71">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P71">
-        <v>4.5</v>
+        <v>2.2</v>
       </c>
       <c r="Q71">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R71">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S71">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T71">
         <v>2.75</v>
       </c>
       <c r="U71">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V71">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W71">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X71">
         <v>-1</v>
       </c>
       <c r="Y71">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z71">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA71">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB71">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC71">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6965,7 +6965,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6126649</v>
+        <v>6126651</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6977,10 +6977,10 @@
         <v>45115.91666666666</v>
       </c>
       <c r="F73" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G73" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="H73">
         <v>1</v>
@@ -6992,43 +6992,43 @@
         <v>56</v>
       </c>
       <c r="K73">
-        <v>1.533</v>
+        <v>2</v>
       </c>
       <c r="L73">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M73">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="N73">
-        <v>1.333</v>
+        <v>2</v>
       </c>
       <c r="O73">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P73">
-        <v>8</v>
+        <v>3.25</v>
       </c>
       <c r="Q73">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R73">
         <v>1.95</v>
       </c>
       <c r="S73">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="T73">
         <v>2.5</v>
       </c>
       <c r="U73">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V73">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W73">
-        <v>0.333</v>
+        <v>1</v>
       </c>
       <c r="X73">
         <v>-1</v>
@@ -7037,16 +7037,16 @@
         <v>-1</v>
       </c>
       <c r="Z73">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA73">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB73">
         <v>-1</v>
       </c>
       <c r="AC73">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7054,7 +7054,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6126651</v>
+        <v>6126649</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7066,10 +7066,10 @@
         <v>45115.91666666666</v>
       </c>
       <c r="F74" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G74" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="H74">
         <v>1</v>
@@ -7081,43 +7081,43 @@
         <v>56</v>
       </c>
       <c r="K74">
-        <v>2</v>
+        <v>1.533</v>
       </c>
       <c r="L74">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M74">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="N74">
-        <v>2</v>
+        <v>1.333</v>
       </c>
       <c r="O74">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P74">
-        <v>3.25</v>
+        <v>8</v>
       </c>
       <c r="Q74">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R74">
         <v>1.95</v>
       </c>
       <c r="S74">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T74">
         <v>2.5</v>
       </c>
       <c r="U74">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V74">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W74">
-        <v>1</v>
+        <v>0.333</v>
       </c>
       <c r="X74">
         <v>-1</v>
@@ -7126,16 +7126,16 @@
         <v>-1</v>
       </c>
       <c r="Z74">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA74">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB74">
         <v>-1</v>
       </c>
       <c r="AC74">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7333,7 +7333,7 @@
         <v>45116.875</v>
       </c>
       <c r="F77" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G77" t="s">
         <v>38</v>
@@ -7600,7 +7600,7 @@
         <v>45119.875</v>
       </c>
       <c r="F80" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G80" t="s">
         <v>31</v>
@@ -7677,7 +7677,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6126657</v>
+        <v>6126658</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7689,19 +7689,19 @@
         <v>45119.91666666666</v>
       </c>
       <c r="F81" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G81" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="H81">
         <v>1</v>
       </c>
       <c r="I81">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K81">
         <v>1.95</v>
@@ -7713,52 +7713,52 @@
         <v>3.25</v>
       </c>
       <c r="N81">
-        <v>2.75</v>
+        <v>2.375</v>
       </c>
       <c r="O81">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P81">
-        <v>2.4</v>
+        <v>2.875</v>
       </c>
       <c r="Q81">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R81">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S81">
-        <v>1.775</v>
+        <v>1.725</v>
       </c>
       <c r="T81">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U81">
+        <v>2</v>
+      </c>
+      <c r="V81">
         <v>1.8</v>
       </c>
-      <c r="V81">
-        <v>2</v>
-      </c>
       <c r="W81">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X81">
         <v>-1</v>
       </c>
       <c r="Y81">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z81">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA81">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB81">
+        <v>-1</v>
+      </c>
+      <c r="AC81">
         <v>0.8</v>
-      </c>
-      <c r="AC81">
-        <v>-1</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7766,7 +7766,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6126658</v>
+        <v>6126657</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7778,19 +7778,19 @@
         <v>45119.91666666666</v>
       </c>
       <c r="F82" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G82" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H82">
         <v>1</v>
       </c>
       <c r="I82">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J82" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K82">
         <v>1.95</v>
@@ -7802,52 +7802,52 @@
         <v>3.25</v>
       </c>
       <c r="N82">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="O82">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P82">
-        <v>2.875</v>
+        <v>2.4</v>
       </c>
       <c r="Q82">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R82">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S82">
-        <v>1.725</v>
+        <v>1.775</v>
       </c>
       <c r="T82">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U82">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V82">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W82">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X82">
         <v>-1</v>
       </c>
       <c r="Y82">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z82">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA82">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB82">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC82">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -8033,7 +8033,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6126667</v>
+        <v>6126669</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8045,76 +8045,76 @@
         <v>45122.83333333334</v>
       </c>
       <c r="F85" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G85" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K85">
-        <v>1.571</v>
+        <v>2.1</v>
       </c>
       <c r="L85">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M85">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N85">
-        <v>1.5</v>
+        <v>2.55</v>
       </c>
       <c r="O85">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P85">
-        <v>6</v>
+        <v>2.375</v>
       </c>
       <c r="Q85">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R85">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="S85">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T85">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U85">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V85">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W85">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X85">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y85">
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>0.8999999999999999</v>
+        <v>0.3625</v>
       </c>
       <c r="AA85">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB85">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC85">
-        <v>0.475</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8122,7 +8122,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6126669</v>
+        <v>6126667</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8134,76 +8134,76 @@
         <v>45122.83333333334</v>
       </c>
       <c r="F86" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G86" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K86">
-        <v>2.1</v>
+        <v>1.571</v>
       </c>
       <c r="L86">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M86">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N86">
-        <v>2.55</v>
+        <v>1.5</v>
       </c>
       <c r="O86">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P86">
-        <v>2.375</v>
+        <v>6</v>
       </c>
       <c r="Q86">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R86">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="S86">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T86">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U86">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V86">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W86">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X86">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y86">
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>0.3625</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA86">
+        <v>-1</v>
+      </c>
+      <c r="AB86">
         <v>-0.5</v>
       </c>
-      <c r="AB86">
-        <v>-1</v>
-      </c>
       <c r="AC86">
-        <v>0.825</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8493,7 +8493,7 @@
         <v>46</v>
       </c>
       <c r="G90" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H90">
         <v>1</v>
@@ -8760,7 +8760,7 @@
         <v>52</v>
       </c>
       <c r="G93" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H93">
         <v>2</v>
@@ -8849,7 +8849,7 @@
         <v>49</v>
       </c>
       <c r="G94" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H94">
         <v>2</v>
@@ -9202,7 +9202,7 @@
         <v>45129.875</v>
       </c>
       <c r="F98" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G98" t="s">
         <v>48</v>
@@ -9368,7 +9368,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6126679</v>
+        <v>6126681</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9383,73 +9383,73 @@
         <v>36</v>
       </c>
       <c r="G100" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H100">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K100">
+        <v>1.571</v>
+      </c>
+      <c r="L100">
+        <v>3.75</v>
+      </c>
+      <c r="M100">
+        <v>5</v>
+      </c>
+      <c r="N100">
+        <v>1.45</v>
+      </c>
+      <c r="O100">
+        <v>4.2</v>
+      </c>
+      <c r="P100">
+        <v>5.5</v>
+      </c>
+      <c r="Q100">
+        <v>-1</v>
+      </c>
+      <c r="R100">
+        <v>1.8</v>
+      </c>
+      <c r="S100">
+        <v>2</v>
+      </c>
+      <c r="T100">
         <v>2.75</v>
       </c>
-      <c r="L100">
-        <v>3.3</v>
-      </c>
-      <c r="M100">
-        <v>2.3</v>
-      </c>
-      <c r="N100">
-        <v>2.5</v>
-      </c>
-      <c r="O100">
-        <v>3.3</v>
-      </c>
-      <c r="P100">
-        <v>2.5</v>
-      </c>
-      <c r="Q100">
-        <v>0</v>
-      </c>
-      <c r="R100">
-        <v>1.9</v>
-      </c>
-      <c r="S100">
-        <v>1.9</v>
-      </c>
-      <c r="T100">
-        <v>2.5</v>
-      </c>
       <c r="U100">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V100">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W100">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X100">
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Z100">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA100">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB100">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC100">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9457,7 +9457,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6126681</v>
+        <v>6126679</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9472,73 +9472,73 @@
         <v>35</v>
       </c>
       <c r="G101" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K101">
-        <v>1.571</v>
+        <v>2.75</v>
       </c>
       <c r="L101">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M101">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="N101">
-        <v>1.45</v>
+        <v>2.5</v>
       </c>
       <c r="O101">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="P101">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q101">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R101">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S101">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T101">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U101">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V101">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W101">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X101">
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Z101">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA101">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB101">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC101">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -10258,7 +10258,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6126685</v>
+        <v>6126687</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10270,10 +10270,10 @@
         <v>45136.85416666666</v>
       </c>
       <c r="F110" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G110" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="H110">
         <v>1</v>
@@ -10285,41 +10285,41 @@
         <v>55</v>
       </c>
       <c r="K110">
+        <v>2.1</v>
+      </c>
+      <c r="L110">
+        <v>3.3</v>
+      </c>
+      <c r="M110">
+        <v>3</v>
+      </c>
+      <c r="N110">
         <v>2.25</v>
       </c>
-      <c r="L110">
-        <v>3.4</v>
-      </c>
-      <c r="M110">
-        <v>2.625</v>
-      </c>
-      <c r="N110">
-        <v>2.05</v>
-      </c>
       <c r="O110">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P110">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="Q110">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R110">
+        <v>1.725</v>
+      </c>
+      <c r="S110">
+        <v>2.075</v>
+      </c>
+      <c r="T110">
+        <v>2.5</v>
+      </c>
+      <c r="U110">
         <v>1.85</v>
       </c>
-      <c r="S110">
+      <c r="V110">
         <v>1.95</v>
       </c>
-      <c r="T110">
-        <v>2.75</v>
-      </c>
-      <c r="U110">
-        <v>1.925</v>
-      </c>
-      <c r="V110">
-        <v>1.875</v>
-      </c>
       <c r="W110">
         <v>-1</v>
       </c>
@@ -10327,19 +10327,19 @@
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="Z110">
         <v>-1</v>
       </c>
       <c r="AA110">
-        <v>0.95</v>
+        <v>1.075</v>
       </c>
       <c r="AB110">
-        <v>0.4625</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC110">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10347,7 +10347,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6126687</v>
+        <v>6126685</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10359,10 +10359,10 @@
         <v>45136.85416666666</v>
       </c>
       <c r="F111" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="G111" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="H111">
         <v>1</v>
@@ -10374,40 +10374,40 @@
         <v>55</v>
       </c>
       <c r="K111">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L111">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M111">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="N111">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="O111">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P111">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="Q111">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R111">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="S111">
-        <v>2.075</v>
+        <v>1.95</v>
       </c>
       <c r="T111">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U111">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V111">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W111">
         <v>-1</v>
@@ -10416,19 +10416,19 @@
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="Z111">
         <v>-1</v>
       </c>
       <c r="AA111">
-        <v>1.075</v>
+        <v>0.95</v>
       </c>
       <c r="AB111">
-        <v>0.8500000000000001</v>
+        <v>0.4625</v>
       </c>
       <c r="AC111">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10448,7 +10448,7 @@
         <v>45136.875</v>
       </c>
       <c r="F112" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G112" t="s">
         <v>46</v>
@@ -10537,7 +10537,7 @@
         <v>45136.875</v>
       </c>
       <c r="F113" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G113" t="s">
         <v>41</v>
@@ -10626,7 +10626,7 @@
         <v>45136.91666666666</v>
       </c>
       <c r="F114" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G114" t="s">
         <v>32</v>
@@ -10703,7 +10703,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6126691</v>
+        <v>6126690</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10715,76 +10715,76 @@
         <v>45136.95833333334</v>
       </c>
       <c r="F115" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="G115" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="H115">
         <v>1</v>
       </c>
       <c r="I115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K115">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="L115">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M115">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="N115">
-        <v>2.05</v>
+        <v>1.727</v>
       </c>
       <c r="O115">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P115">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="Q115">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R115">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="S115">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T115">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U115">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V115">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W115">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X115">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y115">
         <v>-1</v>
       </c>
       <c r="Z115">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA115">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB115">
         <v>-1</v>
       </c>
       <c r="AC115">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10792,7 +10792,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6126690</v>
+        <v>6126691</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10804,76 +10804,76 @@
         <v>45136.95833333334</v>
       </c>
       <c r="F116" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="G116" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="H116">
         <v>1</v>
       </c>
       <c r="I116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K116">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="L116">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M116">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="N116">
-        <v>1.727</v>
+        <v>2.05</v>
       </c>
       <c r="O116">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P116">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="Q116">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R116">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="S116">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T116">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U116">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V116">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W116">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X116">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y116">
         <v>-1</v>
       </c>
       <c r="Z116">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA116">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB116">
         <v>-1</v>
       </c>
       <c r="AC116">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -11341,7 +11341,7 @@
         <v>49</v>
       </c>
       <c r="G122" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H122">
         <v>0</v>
@@ -11504,7 +11504,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6126702</v>
+        <v>6126708</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11516,73 +11516,73 @@
         <v>45143.83333333334</v>
       </c>
       <c r="F124" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G124" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I124">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J124" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K124">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="L124">
         <v>3.25</v>
       </c>
       <c r="M124">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="N124">
         <v>2.2</v>
       </c>
       <c r="O124">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P124">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q124">
         <v>-0.25</v>
       </c>
       <c r="R124">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S124">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T124">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U124">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V124">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W124">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X124">
         <v>-1</v>
       </c>
       <c r="Y124">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z124">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA124">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB124">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AC124">
         <v>-1</v>
@@ -11608,7 +11608,7 @@
         <v>32</v>
       </c>
       <c r="G125" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H125">
         <v>2</v>
@@ -11682,7 +11682,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6126706</v>
+        <v>6126702</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11694,76 +11694,76 @@
         <v>45143.83333333334</v>
       </c>
       <c r="F126" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G126" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H126">
         <v>1</v>
       </c>
       <c r="I126">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J126" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K126">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="L126">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M126">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="N126">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="O126">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P126">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q126">
         <v>-0.25</v>
       </c>
       <c r="R126">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S126">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T126">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U126">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V126">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="W126">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X126">
         <v>-1</v>
       </c>
       <c r="Y126">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z126">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA126">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB126">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC126">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11771,7 +11771,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6126708</v>
+        <v>6126706</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11783,13 +11783,13 @@
         <v>45143.83333333334</v>
       </c>
       <c r="F127" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G127" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="H127">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I127">
         <v>0</v>
@@ -11798,43 +11798,43 @@
         <v>56</v>
       </c>
       <c r="K127">
-        <v>2.55</v>
+        <v>2.15</v>
       </c>
       <c r="L127">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M127">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="N127">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="O127">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P127">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="Q127">
         <v>-0.25</v>
       </c>
       <c r="R127">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S127">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T127">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U127">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V127">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="W127">
-        <v>1.2</v>
+        <v>0.95</v>
       </c>
       <c r="X127">
         <v>-1</v>
@@ -11843,16 +11843,16 @@
         <v>-1</v>
       </c>
       <c r="Z127">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA127">
         <v>-1</v>
       </c>
       <c r="AB127">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC127">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -12053,7 +12053,7 @@
         <v>45</v>
       </c>
       <c r="G130" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H130">
         <v>2</v>
@@ -12142,7 +12142,7 @@
         <v>44</v>
       </c>
       <c r="G131" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H131">
         <v>1</v>
@@ -12228,7 +12228,7 @@
         <v>45147.875</v>
       </c>
       <c r="F132" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G132" t="s">
         <v>29</v>
@@ -12305,7 +12305,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6126709</v>
+        <v>6126712</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12317,49 +12317,49 @@
         <v>45147.91666666666</v>
       </c>
       <c r="F133" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G133" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H133">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J133" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K133">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="L133">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M133">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="N133">
-        <v>2.6</v>
+        <v>1.615</v>
       </c>
       <c r="O133">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="P133">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q133">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R133">
+        <v>1.75</v>
+      </c>
+      <c r="S133">
         <v>1.95</v>
       </c>
-      <c r="S133">
-        <v>1.85</v>
-      </c>
       <c r="T133">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U133">
         <v>1.95</v>
@@ -12368,25 +12368,25 @@
         <v>1.85</v>
       </c>
       <c r="W133">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X133">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y133">
         <v>-1</v>
       </c>
       <c r="Z133">
+        <v>-1</v>
+      </c>
+      <c r="AA133">
         <v>0.95</v>
       </c>
-      <c r="AA133">
-        <v>-1</v>
-      </c>
       <c r="AB133">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC133">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12394,7 +12394,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6126712</v>
+        <v>6126709</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12406,49 +12406,49 @@
         <v>45147.91666666666</v>
       </c>
       <c r="F134" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G134" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J134" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K134">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="L134">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M134">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="N134">
-        <v>1.615</v>
+        <v>2.6</v>
       </c>
       <c r="O134">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="P134">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q134">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R134">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S134">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T134">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U134">
         <v>1.95</v>
@@ -12457,25 +12457,25 @@
         <v>1.85</v>
       </c>
       <c r="W134">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X134">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y134">
         <v>-1</v>
       </c>
       <c r="Z134">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA134">
+        <v>-1</v>
+      </c>
+      <c r="AB134">
         <v>0.95</v>
       </c>
-      <c r="AB134">
-        <v>-1</v>
-      </c>
       <c r="AC134">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12661,7 +12661,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6126721</v>
+        <v>6126714</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12673,76 +12673,76 @@
         <v>45150.85416666666</v>
       </c>
       <c r="F137" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="G137" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H137">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I137">
         <v>1</v>
       </c>
       <c r="J137" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K137">
-        <v>1.4</v>
+        <v>2.45</v>
       </c>
       <c r="L137">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="M137">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="N137">
+        <v>2.45</v>
+      </c>
+      <c r="O137">
+        <v>3.2</v>
+      </c>
+      <c r="P137">
+        <v>2.5</v>
+      </c>
+      <c r="Q137">
+        <v>0</v>
+      </c>
+      <c r="R137">
+        <v>1.875</v>
+      </c>
+      <c r="S137">
+        <v>1.925</v>
+      </c>
+      <c r="T137">
+        <v>2.25</v>
+      </c>
+      <c r="U137">
+        <v>1.95</v>
+      </c>
+      <c r="V137">
+        <v>1.85</v>
+      </c>
+      <c r="W137">
+        <v>-1</v>
+      </c>
+      <c r="X137">
+        <v>-1</v>
+      </c>
+      <c r="Y137">
         <v>1.5</v>
       </c>
-      <c r="O137">
-        <v>4</v>
-      </c>
-      <c r="P137">
-        <v>5.25</v>
-      </c>
-      <c r="Q137">
-        <v>-1</v>
-      </c>
-      <c r="R137">
-        <v>1.825</v>
-      </c>
-      <c r="S137">
-        <v>1.975</v>
-      </c>
-      <c r="T137">
-        <v>2.5</v>
-      </c>
-      <c r="U137">
-        <v>1.875</v>
-      </c>
-      <c r="V137">
-        <v>1.925</v>
-      </c>
-      <c r="W137">
-        <v>0.5</v>
-      </c>
-      <c r="X137">
-        <v>-1</v>
-      </c>
-      <c r="Y137">
-        <v>-1</v>
-      </c>
       <c r="Z137">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA137">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB137">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC137">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12750,7 +12750,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6126714</v>
+        <v>6126713</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12762,76 +12762,76 @@
         <v>45150.85416666666</v>
       </c>
       <c r="F138" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G138" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I138">
         <v>1</v>
       </c>
       <c r="J138" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K138">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="L138">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M138">
         <v>2.5</v>
       </c>
       <c r="N138">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="O138">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P138">
+        <v>2.4</v>
+      </c>
+      <c r="Q138">
+        <v>0</v>
+      </c>
+      <c r="R138">
+        <v>1.95</v>
+      </c>
+      <c r="S138">
+        <v>1.85</v>
+      </c>
+      <c r="T138">
         <v>2.5</v>
       </c>
-      <c r="Q138">
-        <v>0</v>
-      </c>
-      <c r="R138">
+      <c r="U138">
         <v>1.875</v>
       </c>
-      <c r="S138">
+      <c r="V138">
         <v>1.925</v>
       </c>
-      <c r="T138">
-        <v>2.25</v>
-      </c>
-      <c r="U138">
-        <v>1.95</v>
-      </c>
-      <c r="V138">
-        <v>1.85</v>
-      </c>
       <c r="W138">
         <v>-1</v>
       </c>
       <c r="X138">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y138">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z138">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA138">
+        <v>-0</v>
+      </c>
+      <c r="AB138">
+        <v>-1</v>
+      </c>
+      <c r="AC138">
         <v>0.925</v>
-      </c>
-      <c r="AB138">
-        <v>-1</v>
-      </c>
-      <c r="AC138">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12839,7 +12839,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6126713</v>
+        <v>6126721</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12851,46 +12851,46 @@
         <v>45150.85416666666</v>
       </c>
       <c r="F139" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="G139" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I139">
         <v>1</v>
       </c>
       <c r="J139" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K139">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="L139">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="M139">
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="N139">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="O139">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P139">
-        <v>2.4</v>
+        <v>5.25</v>
       </c>
       <c r="Q139">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R139">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S139">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T139">
         <v>2.5</v>
@@ -12902,25 +12902,25 @@
         <v>1.925</v>
       </c>
       <c r="W139">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X139">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y139">
         <v>-1</v>
       </c>
       <c r="Z139">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA139">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB139">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC139">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12940,10 +12940,10 @@
         <v>45150.875</v>
       </c>
       <c r="F140" t="s">
+        <v>43</v>
+      </c>
+      <c r="G140" t="s">
         <v>42</v>
-      </c>
-      <c r="G140" t="s">
-        <v>43</v>
       </c>
       <c r="H140">
         <v>2</v>
@@ -13029,10 +13029,10 @@
         <v>45150.91666666666</v>
       </c>
       <c r="F141" t="s">
+        <v>35</v>
+      </c>
+      <c r="G141" t="s">
         <v>36</v>
-      </c>
-      <c r="G141" t="s">
-        <v>35</v>
       </c>
       <c r="H141">
         <v>0</v>
@@ -13474,10 +13474,10 @@
         <v>45154.91666666666</v>
       </c>
       <c r="F146" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G146" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H146">
         <v>2</v>
@@ -13744,7 +13744,7 @@
         <v>48</v>
       </c>
       <c r="G149" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H149">
         <v>2</v>
@@ -14097,7 +14097,7 @@
         <v>45157.875</v>
       </c>
       <c r="F153" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G153" t="s">
         <v>44</v>
@@ -14186,7 +14186,7 @@
         <v>45157.91666666666</v>
       </c>
       <c r="F154" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G154" t="s">
         <v>37</v>
@@ -14263,7 +14263,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6126735</v>
+        <v>6126728</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14275,73 +14275,73 @@
         <v>45157.9375</v>
       </c>
       <c r="F155" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G155" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H155">
         <v>2</v>
       </c>
       <c r="I155">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J155" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K155">
-        <v>1.65</v>
+        <v>2.2</v>
       </c>
       <c r="L155">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M155">
-        <v>4.333</v>
+        <v>2.75</v>
       </c>
       <c r="N155">
+        <v>2.2</v>
+      </c>
+      <c r="O155">
+        <v>3.3</v>
+      </c>
+      <c r="P155">
+        <v>2.75</v>
+      </c>
+      <c r="Q155">
+        <v>-0.25</v>
+      </c>
+      <c r="R155">
+        <v>2</v>
+      </c>
+      <c r="S155">
+        <v>1.8</v>
+      </c>
+      <c r="T155">
+        <v>2.5</v>
+      </c>
+      <c r="U155">
+        <v>1.85</v>
+      </c>
+      <c r="V155">
+        <v>1.95</v>
+      </c>
+      <c r="W155">
+        <v>-1</v>
+      </c>
+      <c r="X155">
+        <v>-1</v>
+      </c>
+      <c r="Y155">
         <v>1.75</v>
       </c>
-      <c r="O155">
-        <v>3.6</v>
-      </c>
-      <c r="P155">
-        <v>3.8</v>
-      </c>
-      <c r="Q155">
-        <v>-0.5</v>
-      </c>
-      <c r="R155">
-        <v>1.775</v>
-      </c>
-      <c r="S155">
-        <v>1.925</v>
-      </c>
-      <c r="T155">
-        <v>3</v>
-      </c>
-      <c r="U155">
-        <v>1.95</v>
-      </c>
-      <c r="V155">
-        <v>1.85</v>
-      </c>
-      <c r="W155">
-        <v>-1</v>
-      </c>
-      <c r="X155">
-        <v>2.6</v>
-      </c>
-      <c r="Y155">
-        <v>-1</v>
-      </c>
       <c r="Z155">
         <v>-1</v>
       </c>
       <c r="AA155">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AB155">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC155">
         <v>-1</v>
@@ -14352,7 +14352,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6126728</v>
+        <v>6126735</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14364,73 +14364,73 @@
         <v>45157.9375</v>
       </c>
       <c r="F156" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G156" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H156">
         <v>2</v>
       </c>
       <c r="I156">
+        <v>2</v>
+      </c>
+      <c r="J156" t="s">
+        <v>57</v>
+      </c>
+      <c r="K156">
+        <v>1.65</v>
+      </c>
+      <c r="L156">
+        <v>3.6</v>
+      </c>
+      <c r="M156">
+        <v>4.333</v>
+      </c>
+      <c r="N156">
+        <v>1.75</v>
+      </c>
+      <c r="O156">
+        <v>3.6</v>
+      </c>
+      <c r="P156">
+        <v>3.8</v>
+      </c>
+      <c r="Q156">
+        <v>-0.5</v>
+      </c>
+      <c r="R156">
+        <v>1.775</v>
+      </c>
+      <c r="S156">
+        <v>1.925</v>
+      </c>
+      <c r="T156">
         <v>3</v>
       </c>
-      <c r="J156" t="s">
-        <v>55</v>
-      </c>
-      <c r="K156">
-        <v>2.2</v>
-      </c>
-      <c r="L156">
-        <v>3.4</v>
-      </c>
-      <c r="M156">
-        <v>2.75</v>
-      </c>
-      <c r="N156">
-        <v>2.2</v>
-      </c>
-      <c r="O156">
-        <v>3.3</v>
-      </c>
-      <c r="P156">
-        <v>2.75</v>
-      </c>
-      <c r="Q156">
-        <v>-0.25</v>
-      </c>
-      <c r="R156">
-        <v>2</v>
-      </c>
-      <c r="S156">
-        <v>1.8</v>
-      </c>
-      <c r="T156">
-        <v>2.5</v>
-      </c>
       <c r="U156">
+        <v>1.95</v>
+      </c>
+      <c r="V156">
         <v>1.85</v>
       </c>
-      <c r="V156">
-        <v>1.95</v>
-      </c>
       <c r="W156">
         <v>-1</v>
       </c>
       <c r="X156">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y156">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z156">
         <v>-1</v>
       </c>
       <c r="AA156">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB156">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC156">
         <v>-1</v>
@@ -14898,7 +14898,7 @@
         <v>45161.91666666666</v>
       </c>
       <c r="F162" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G162" t="s">
         <v>50</v>
@@ -14975,7 +14975,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6126745</v>
+        <v>6126744</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14987,76 +14987,76 @@
         <v>45164.83333333334</v>
       </c>
       <c r="F163" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G163" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J163" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K163">
-        <v>1.8</v>
+        <v>2.875</v>
       </c>
       <c r="L163">
         <v>3.5</v>
       </c>
       <c r="M163">
-        <v>4.1</v>
+        <v>2.25</v>
       </c>
       <c r="N163">
-        <v>1.571</v>
+        <v>2.15</v>
       </c>
       <c r="O163">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P163">
-        <v>5.25</v>
+        <v>2.7</v>
       </c>
       <c r="Q163">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R163">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S163">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T163">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U163">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V163">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W163">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X163">
         <v>-1</v>
       </c>
       <c r="Y163">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z163">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA163">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB163">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AC163">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -15064,7 +15064,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6126744</v>
+        <v>6126745</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15076,76 +15076,76 @@
         <v>45164.83333333334</v>
       </c>
       <c r="F164" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G164" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J164" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K164">
-        <v>2.875</v>
+        <v>1.8</v>
       </c>
       <c r="L164">
         <v>3.5</v>
       </c>
       <c r="M164">
-        <v>2.25</v>
+        <v>4.1</v>
       </c>
       <c r="N164">
-        <v>2.15</v>
+        <v>1.571</v>
       </c>
       <c r="O164">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P164">
-        <v>2.7</v>
+        <v>5.25</v>
       </c>
       <c r="Q164">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R164">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S164">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T164">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U164">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V164">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W164">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X164">
         <v>-1</v>
       </c>
       <c r="Y164">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z164">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA164">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB164">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC164">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15343,7 +15343,7 @@
         <v>45164.85416666666</v>
       </c>
       <c r="F167" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G167" t="s">
         <v>50</v>
@@ -15432,7 +15432,7 @@
         <v>45164.875</v>
       </c>
       <c r="F168" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G168" t="s">
         <v>40</v>
@@ -15521,7 +15521,7 @@
         <v>45164.91666666666</v>
       </c>
       <c r="F169" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G169" t="s">
         <v>49</v>
@@ -15610,7 +15610,7 @@
         <v>45164.91666666666</v>
       </c>
       <c r="F170" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G170" t="s">
         <v>31</v>
@@ -15776,7 +15776,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6126751</v>
+        <v>6126746</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15788,55 +15788,55 @@
         <v>45164.97916666666</v>
       </c>
       <c r="F172" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="G172" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J172" t="s">
         <v>55</v>
       </c>
       <c r="K172">
-        <v>1.75</v>
+        <v>3.25</v>
       </c>
       <c r="L172">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M172">
-        <v>4.333</v>
+        <v>2.05</v>
       </c>
       <c r="N172">
-        <v>1.615</v>
+        <v>3</v>
       </c>
       <c r="O172">
         <v>3.75</v>
       </c>
       <c r="P172">
-        <v>5</v>
+        <v>2.15</v>
       </c>
       <c r="Q172">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R172">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S172">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T172">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U172">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V172">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W172">
         <v>-1</v>
@@ -15845,19 +15845,19 @@
         <v>-1</v>
       </c>
       <c r="Y172">
-        <v>4</v>
+        <v>1.15</v>
       </c>
       <c r="Z172">
         <v>-1</v>
       </c>
       <c r="AA172">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB172">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC172">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -15865,7 +15865,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6126746</v>
+        <v>6126751</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15877,56 +15877,56 @@
         <v>45164.97916666666</v>
       </c>
       <c r="F173" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G173" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J173" t="s">
         <v>55</v>
       </c>
       <c r="K173">
-        <v>3.25</v>
+        <v>1.75</v>
       </c>
       <c r="L173">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M173">
-        <v>2.05</v>
+        <v>4.333</v>
       </c>
       <c r="N173">
-        <v>3</v>
+        <v>1.615</v>
       </c>
       <c r="O173">
         <v>3.75</v>
       </c>
       <c r="P173">
-        <v>2.15</v>
+        <v>5</v>
       </c>
       <c r="Q173">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R173">
+        <v>1.95</v>
+      </c>
+      <c r="S173">
+        <v>1.75</v>
+      </c>
+      <c r="T173">
+        <v>2.5</v>
+      </c>
+      <c r="U173">
         <v>1.9</v>
       </c>
-      <c r="S173">
+      <c r="V173">
         <v>1.9</v>
       </c>
-      <c r="T173">
-        <v>3</v>
-      </c>
-      <c r="U173">
-        <v>2</v>
-      </c>
-      <c r="V173">
-        <v>1.8</v>
-      </c>
       <c r="W173">
         <v>-1</v>
       </c>
@@ -15934,19 +15934,19 @@
         <v>-1</v>
       </c>
       <c r="Y173">
-        <v>1.15</v>
+        <v>4</v>
       </c>
       <c r="Z173">
         <v>-1</v>
       </c>
       <c r="AA173">
+        <v>0.75</v>
+      </c>
+      <c r="AB173">
+        <v>-1</v>
+      </c>
+      <c r="AC173">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB173">
-        <v>1</v>
-      </c>
-      <c r="AC173">
-        <v>-1</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -16055,10 +16055,10 @@
         <v>45168.875</v>
       </c>
       <c r="F175" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G175" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H175">
         <v>0</v>
@@ -16144,7 +16144,7 @@
         <v>45168.91666666666</v>
       </c>
       <c r="F176" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G176" t="s">
         <v>45</v>
@@ -16589,7 +16589,7 @@
         <v>45171.91666666666</v>
       </c>
       <c r="F181" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G181" t="s">
         <v>29</v>
@@ -16681,7 +16681,7 @@
         <v>30</v>
       </c>
       <c r="G182" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H182">
         <v>2</v>
@@ -16933,7 +16933,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>6126765</v>
+        <v>6126762</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16945,76 +16945,76 @@
         <v>45171.97916666666</v>
       </c>
       <c r="F185" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G185" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I185">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J185" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K185">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="L185">
+        <v>3.4</v>
+      </c>
+      <c r="M185">
+        <v>2</v>
+      </c>
+      <c r="N185">
+        <v>2.9</v>
+      </c>
+      <c r="O185">
         <v>3.5</v>
       </c>
-      <c r="M185">
-        <v>3.2</v>
-      </c>
-      <c r="N185">
-        <v>1.909</v>
-      </c>
-      <c r="O185">
-        <v>3.75</v>
-      </c>
       <c r="P185">
-        <v>3.3</v>
+        <v>2.15</v>
       </c>
       <c r="Q185">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R185">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S185">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T185">
         <v>2.75</v>
       </c>
       <c r="U185">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V185">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W185">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X185">
         <v>-1</v>
       </c>
       <c r="Y185">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z185">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA185">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB185">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC185">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -17022,7 +17022,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>6126762</v>
+        <v>6126765</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17034,76 +17034,76 @@
         <v>45171.97916666666</v>
       </c>
       <c r="F186" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G186" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H186">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I186">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J186" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K186">
+        <v>2</v>
+      </c>
+      <c r="L186">
+        <v>3.5</v>
+      </c>
+      <c r="M186">
+        <v>3.2</v>
+      </c>
+      <c r="N186">
+        <v>1.909</v>
+      </c>
+      <c r="O186">
+        <v>3.75</v>
+      </c>
+      <c r="P186">
         <v>3.3</v>
       </c>
-      <c r="L186">
-        <v>3.4</v>
-      </c>
-      <c r="M186">
-        <v>2</v>
-      </c>
-      <c r="N186">
-        <v>2.9</v>
-      </c>
-      <c r="O186">
-        <v>3.5</v>
-      </c>
-      <c r="P186">
-        <v>2.15</v>
-      </c>
       <c r="Q186">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R186">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S186">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T186">
         <v>2.75</v>
       </c>
       <c r="U186">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V186">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W186">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X186">
         <v>-1</v>
       </c>
       <c r="Y186">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z186">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA186">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB186">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC186">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17215,7 +17215,7 @@
         <v>49</v>
       </c>
       <c r="G188" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H188">
         <v>2</v>
@@ -17556,7 +17556,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>6126779</v>
+        <v>6126772</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17568,10 +17568,10 @@
         <v>45178.85416666666</v>
       </c>
       <c r="F192" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="G192" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H192">
         <v>2</v>
@@ -17583,43 +17583,43 @@
         <v>56</v>
       </c>
       <c r="K192">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="L192">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M192">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="N192">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="O192">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P192">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q192">
         <v>-0.25</v>
       </c>
       <c r="R192">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S192">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T192">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U192">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V192">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W192">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="X192">
         <v>-1</v>
@@ -17628,13 +17628,13 @@
         <v>-1</v>
       </c>
       <c r="Z192">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA192">
         <v>-1</v>
       </c>
       <c r="AB192">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC192">
         <v>-1</v>
@@ -17645,7 +17645,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>6126772</v>
+        <v>6126779</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17657,10 +17657,10 @@
         <v>45178.85416666666</v>
       </c>
       <c r="F193" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="G193" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H193">
         <v>2</v>
@@ -17672,43 +17672,43 @@
         <v>56</v>
       </c>
       <c r="K193">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="L193">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M193">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="N193">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="O193">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P193">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Q193">
         <v>-0.25</v>
       </c>
       <c r="R193">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S193">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T193">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U193">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V193">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W193">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="X193">
         <v>-1</v>
@@ -17717,13 +17717,13 @@
         <v>-1</v>
       </c>
       <c r="Z193">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA193">
         <v>-1</v>
       </c>
       <c r="AB193">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC193">
         <v>-1</v>
@@ -17927,7 +17927,7 @@
         <v>30</v>
       </c>
       <c r="G196" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H196">
         <v>1</v>
@@ -18194,7 +18194,7 @@
         <v>48</v>
       </c>
       <c r="G199" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H199">
         <v>1</v>
@@ -18369,7 +18369,7 @@
         <v>45184.91666666666</v>
       </c>
       <c r="F201" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G201" t="s">
         <v>41</v>
@@ -18535,7 +18535,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>6126792</v>
+        <v>6126784</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18547,52 +18547,52 @@
         <v>45185.83333333334</v>
       </c>
       <c r="F203" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G203" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H203">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I203">
         <v>2</v>
       </c>
       <c r="J203" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K203">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="L203">
         <v>3.4</v>
       </c>
       <c r="M203">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="N203">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="O203">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P203">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="Q203">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R203">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S203">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T203">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U203">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="V203">
         <v>1.95</v>
@@ -18601,19 +18601,19 @@
         <v>-1</v>
       </c>
       <c r="X203">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y203">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z203">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA203">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB203">
-        <v>0.75</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC203">
         <v>-1</v>
@@ -18624,7 +18624,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>6126784</v>
+        <v>6126792</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18636,52 +18636,52 @@
         <v>45185.83333333334</v>
       </c>
       <c r="F204" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G204" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I204">
         <v>2</v>
       </c>
       <c r="J204" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K204">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="L204">
         <v>3.4</v>
       </c>
       <c r="M204">
+        <v>2.35</v>
+      </c>
+      <c r="N204">
+        <v>2.7</v>
+      </c>
+      <c r="O204">
+        <v>3.2</v>
+      </c>
+      <c r="P204">
+        <v>2.5</v>
+      </c>
+      <c r="Q204">
+        <v>0</v>
+      </c>
+      <c r="R204">
+        <v>1.975</v>
+      </c>
+      <c r="S204">
+        <v>1.825</v>
+      </c>
+      <c r="T204">
         <v>2.25</v>
       </c>
-      <c r="N204">
-        <v>3.8</v>
-      </c>
-      <c r="O204">
-        <v>3.4</v>
-      </c>
-      <c r="P204">
+      <c r="U204">
         <v>1.75</v>
-      </c>
-      <c r="Q204">
-        <v>0.75</v>
-      </c>
-      <c r="R204">
-        <v>1.75</v>
-      </c>
-      <c r="S204">
-        <v>1.95</v>
-      </c>
-      <c r="T204">
-        <v>2.75</v>
-      </c>
-      <c r="U204">
-        <v>1.85</v>
       </c>
       <c r="V204">
         <v>1.95</v>
@@ -18690,19 +18690,19 @@
         <v>-1</v>
       </c>
       <c r="X204">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y204">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z204">
+        <v>-1</v>
+      </c>
+      <c r="AA204">
+        <v>0.825</v>
+      </c>
+      <c r="AB204">
         <v>0.75</v>
-      </c>
-      <c r="AA204">
-        <v>-1</v>
-      </c>
-      <c r="AB204">
-        <v>0.8500000000000001</v>
       </c>
       <c r="AC204">
         <v>-1</v>
@@ -18725,7 +18725,7 @@
         <v>45185.85416666666</v>
       </c>
       <c r="F205" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G205" t="s">
         <v>40</v>
@@ -18903,7 +18903,7 @@
         <v>45185.89583333334</v>
       </c>
       <c r="F207" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G207" t="s">
         <v>33</v>
@@ -18980,7 +18980,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>6126787</v>
+        <v>6126788</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18992,76 +18992,76 @@
         <v>45185.95833333334</v>
       </c>
       <c r="F208" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="G208" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H208">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I208">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J208" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K208">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="L208">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M208">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="N208">
-        <v>1.833</v>
+        <v>1.7</v>
       </c>
       <c r="O208">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P208">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="Q208">
         <v>-0.75</v>
       </c>
       <c r="R208">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="S208">
-        <v>1.7</v>
+        <v>1.875</v>
       </c>
       <c r="T208">
         <v>2.75</v>
       </c>
       <c r="U208">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V208">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W208">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X208">
         <v>-1</v>
       </c>
       <c r="Y208">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z208">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="AA208">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB208">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC208">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -19069,7 +19069,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>6126788</v>
+        <v>6126790</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19081,34 +19081,34 @@
         <v>45185.95833333334</v>
       </c>
       <c r="F209" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G209" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I209">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J209" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K209">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="L209">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="M209">
-        <v>4.1</v>
+        <v>5.5</v>
       </c>
       <c r="N209">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="O209">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P209">
         <v>4.5</v>
@@ -19117,40 +19117,40 @@
         <v>-0.75</v>
       </c>
       <c r="R209">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S209">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T209">
         <v>2.75</v>
       </c>
       <c r="U209">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V209">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W209">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X209">
         <v>-1</v>
       </c>
       <c r="Y209">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z209">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA209">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB209">
         <v>-1</v>
       </c>
       <c r="AC209">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="210" spans="1:29">
@@ -19158,7 +19158,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>6126790</v>
+        <v>6126787</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19170,46 +19170,46 @@
         <v>45185.95833333334</v>
       </c>
       <c r="F210" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="G210" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H210">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I210">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J210" t="s">
         <v>56</v>
       </c>
       <c r="K210">
-        <v>1.5</v>
+        <v>1.727</v>
       </c>
       <c r="L210">
+        <v>3.75</v>
+      </c>
+      <c r="M210">
         <v>4.2</v>
       </c>
-      <c r="M210">
-        <v>5.5</v>
-      </c>
       <c r="N210">
-        <v>1.65</v>
+        <v>1.833</v>
       </c>
       <c r="O210">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P210">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Q210">
         <v>-0.75</v>
       </c>
       <c r="R210">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="S210">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="T210">
         <v>2.75</v>
@@ -19221,7 +19221,7 @@
         <v>1.85</v>
       </c>
       <c r="W210">
-        <v>0.6499999999999999</v>
+        <v>0.833</v>
       </c>
       <c r="X210">
         <v>-1</v>
@@ -19230,16 +19230,16 @@
         <v>-1</v>
       </c>
       <c r="Z210">
-        <v>0.425</v>
+        <v>0.55</v>
       </c>
       <c r="AA210">
         <v>-0.5</v>
       </c>
       <c r="AB210">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC210">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="211" spans="1:29">
@@ -19348,7 +19348,7 @@
         <v>45186.92916666667</v>
       </c>
       <c r="F212" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G212" t="s">
         <v>48</v>
@@ -19440,7 +19440,7 @@
         <v>47</v>
       </c>
       <c r="G213" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H213">
         <v>4</v>
@@ -19618,7 +19618,7 @@
         <v>51</v>
       </c>
       <c r="G215" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H215">
         <v>0</v>
@@ -19885,7 +19885,7 @@
         <v>39</v>
       </c>
       <c r="G218" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H218">
         <v>1</v>
@@ -19974,7 +19974,7 @@
         <v>31</v>
       </c>
       <c r="G219" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H219">
         <v>2</v>
@@ -20416,7 +20416,7 @@
         <v>45192.89583333334</v>
       </c>
       <c r="F224" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G224" t="s">
         <v>38</v>
@@ -20686,7 +20686,7 @@
         <v>41</v>
       </c>
       <c r="G227" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H227">
         <v>0</v>
@@ -21472,7 +21472,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>6418146</v>
+        <v>6413716</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21484,76 +21484,76 @@
         <v>45199.875</v>
       </c>
       <c r="F236" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G236" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="H236">
         <v>1</v>
       </c>
       <c r="I236">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J236" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K236">
-        <v>1.833</v>
+        <v>1.727</v>
       </c>
       <c r="L236">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M236">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="N236">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="O236">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P236">
+        <v>4</v>
+      </c>
+      <c r="Q236">
+        <v>-0.75</v>
+      </c>
+      <c r="R236">
+        <v>1.9</v>
+      </c>
+      <c r="S236">
+        <v>1.9</v>
+      </c>
+      <c r="T236">
         <v>3</v>
       </c>
-      <c r="Q236">
-        <v>-0.25</v>
-      </c>
-      <c r="R236">
-        <v>1.825</v>
-      </c>
-      <c r="S236">
-        <v>1.975</v>
-      </c>
-      <c r="T236">
-        <v>2.75</v>
-      </c>
       <c r="U236">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V236">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W236">
         <v>-1</v>
       </c>
       <c r="X236">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y236">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z236">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA236">
-        <v>0.4875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB236">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC236">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="237" spans="1:29">
@@ -21561,7 +21561,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>6413716</v>
+        <v>6418146</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21573,76 +21573,76 @@
         <v>45199.875</v>
       </c>
       <c r="F237" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G237" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H237">
         <v>1</v>
       </c>
       <c r="I237">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J237" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K237">
-        <v>1.727</v>
+        <v>1.833</v>
       </c>
       <c r="L237">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M237">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="N237">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="O237">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P237">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q237">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R237">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S237">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T237">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U237">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V237">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W237">
         <v>-1</v>
       </c>
       <c r="X237">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y237">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z237">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA237">
-        <v>0.8999999999999999</v>
+        <v>0.4875</v>
       </c>
       <c r="AB237">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC237">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="238" spans="1:29">
@@ -21662,10 +21662,10 @@
         <v>45199.91666666666</v>
       </c>
       <c r="F238" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G238" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H238">
         <v>2</v>
@@ -21932,7 +21932,7 @@
         <v>50</v>
       </c>
       <c r="G241" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H241">
         <v>2</v>
@@ -22199,7 +22199,7 @@
         <v>32</v>
       </c>
       <c r="G244" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H244">
         <v>2</v>
@@ -22730,7 +22730,7 @@
         <v>45206.85416666666</v>
       </c>
       <c r="F250" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G250" t="s">
         <v>32</v>
@@ -22807,7 +22807,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>6418155</v>
+        <v>6492410</v>
       </c>
       <c r="C251" t="s">
         <v>28</v>
@@ -22819,40 +22819,40 @@
         <v>45206.875</v>
       </c>
       <c r="F251" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G251" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="H251">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I251">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J251" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K251">
-        <v>1.85</v>
+        <v>2.9</v>
       </c>
       <c r="L251">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M251">
-        <v>4</v>
+        <v>2.375</v>
       </c>
       <c r="N251">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="O251">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P251">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="Q251">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R251">
         <v>1.85</v>
@@ -22861,31 +22861,31 @@
         <v>1.95</v>
       </c>
       <c r="T251">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U251">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V251">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W251">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X251">
         <v>-1</v>
       </c>
       <c r="Y251">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z251">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA251">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB251">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AC251">
         <v>-1</v>
@@ -22896,7 +22896,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>6492410</v>
+        <v>6418155</v>
       </c>
       <c r="C252" t="s">
         <v>28</v>
@@ -22908,40 +22908,40 @@
         <v>45206.875</v>
       </c>
       <c r="F252" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G252" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I252">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J252" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K252">
-        <v>2.9</v>
+        <v>1.85</v>
       </c>
       <c r="L252">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M252">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="N252">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="O252">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P252">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="Q252">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R252">
         <v>1.85</v>
@@ -22950,31 +22950,31 @@
         <v>1.95</v>
       </c>
       <c r="T252">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U252">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V252">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W252">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X252">
         <v>-1</v>
       </c>
       <c r="Y252">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z252">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA252">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB252">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AC252">
         <v>-1</v>
@@ -23178,7 +23178,7 @@
         <v>38</v>
       </c>
       <c r="G255" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H255">
         <v>1</v>
@@ -23356,7 +23356,7 @@
         <v>44</v>
       </c>
       <c r="G257" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H257">
         <v>1</v>
@@ -23620,7 +23620,7 @@
         <v>45212.91666666666</v>
       </c>
       <c r="F260" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G260" t="s">
         <v>34</v>
@@ -23887,7 +23887,7 @@
         <v>45213.85416666666</v>
       </c>
       <c r="F263" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G263" t="s">
         <v>33</v>
@@ -23976,7 +23976,7 @@
         <v>45213.875</v>
       </c>
       <c r="F264" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G264" t="s">
         <v>39</v>
@@ -24154,7 +24154,7 @@
         <v>45213.89583333334</v>
       </c>
       <c r="F266" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G266" t="s">
         <v>41</v>
@@ -24231,7 +24231,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>6492480</v>
+        <v>6504695</v>
       </c>
       <c r="C267" t="s">
         <v>28</v>
@@ -24243,55 +24243,55 @@
         <v>45213.95833333334</v>
       </c>
       <c r="F267" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="G267" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H267">
+        <v>0</v>
+      </c>
+      <c r="I267">
         <v>1</v>
-      </c>
-      <c r="I267">
-        <v>2</v>
       </c>
       <c r="J267" t="s">
         <v>55</v>
       </c>
       <c r="K267">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="L267">
+        <v>3.4</v>
+      </c>
+      <c r="M267">
+        <v>2.6</v>
+      </c>
+      <c r="N267">
+        <v>3.8</v>
+      </c>
+      <c r="O267">
         <v>3.5</v>
       </c>
-      <c r="M267">
-        <v>3.2</v>
-      </c>
-      <c r="N267">
-        <v>1.727</v>
-      </c>
-      <c r="O267">
-        <v>3.75</v>
-      </c>
       <c r="P267">
-        <v>3.75</v>
+        <v>1.8</v>
       </c>
       <c r="Q267">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R267">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S267">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T267">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U267">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V267">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W267">
         <v>-1</v>
@@ -24300,19 +24300,19 @@
         <v>-1</v>
       </c>
       <c r="Y267">
-        <v>2.75</v>
+        <v>0.8</v>
       </c>
       <c r="Z267">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA267">
-        <v>0.8500000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AB267">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC267">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="268" spans="1:29">
@@ -24320,7 +24320,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>6504695</v>
+        <v>6504524</v>
       </c>
       <c r="C268" t="s">
         <v>28</v>
@@ -24332,76 +24332,76 @@
         <v>45213.95833333334</v>
       </c>
       <c r="F268" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="G268" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I268">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J268" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K268">
-        <v>2.3</v>
+        <v>1.533</v>
       </c>
       <c r="L268">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M268">
-        <v>2.6</v>
+        <v>4.75</v>
       </c>
       <c r="N268">
+        <v>1.7</v>
+      </c>
+      <c r="O268">
+        <v>3.75</v>
+      </c>
+      <c r="P268">
         <v>3.8</v>
       </c>
-      <c r="O268">
-        <v>3.5</v>
-      </c>
-      <c r="P268">
-        <v>1.8</v>
-      </c>
       <c r="Q268">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R268">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S268">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T268">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U268">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V268">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W268">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X268">
         <v>-1</v>
       </c>
       <c r="Y268">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z268">
+        <v>0.475</v>
+      </c>
+      <c r="AA268">
         <v>-0.5</v>
       </c>
-      <c r="AA268">
-        <v>0.5</v>
-      </c>
       <c r="AB268">
         <v>-1</v>
       </c>
       <c r="AC268">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="269" spans="1:29">
@@ -24409,7 +24409,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>6504524</v>
+        <v>6492480</v>
       </c>
       <c r="C269" t="s">
         <v>28</v>
@@ -24421,37 +24421,37 @@
         <v>45213.95833333334</v>
       </c>
       <c r="F269" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G269" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H269">
         <v>1</v>
       </c>
       <c r="I269">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J269" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K269">
-        <v>1.533</v>
+        <v>1.95</v>
       </c>
       <c r="L269">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M269">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="N269">
-        <v>1.7</v>
+        <v>1.727</v>
       </c>
       <c r="O269">
         <v>3.75</v>
       </c>
       <c r="P269">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="Q269">
         <v>-0.75</v>
@@ -24466,31 +24466,31 @@
         <v>2.75</v>
       </c>
       <c r="U269">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V269">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W269">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X269">
         <v>-1</v>
       </c>
       <c r="Y269">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z269">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA269">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB269">
+        <v>0.4</v>
+      </c>
+      <c r="AC269">
         <v>-0.5</v>
-      </c>
-      <c r="AB269">
-        <v>-1</v>
-      </c>
-      <c r="AC269">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="270" spans="1:29">
@@ -24602,7 +24602,7 @@
         <v>34</v>
       </c>
       <c r="G271" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H271">
         <v>5</v>
@@ -24866,7 +24866,7 @@
         <v>45220.91666666666</v>
       </c>
       <c r="F274" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G274" t="s">
         <v>30</v>
@@ -24958,7 +24958,7 @@
         <v>51</v>
       </c>
       <c r="G275" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H275">
         <v>1</v>
@@ -25314,7 +25314,7 @@
         <v>51</v>
       </c>
       <c r="G279" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H279">
         <v>3</v>
@@ -25489,7 +25489,7 @@
         <v>45227.85416666666</v>
       </c>
       <c r="F281" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G281" t="s">
         <v>52</v>
@@ -25670,7 +25670,7 @@
         <v>29</v>
       </c>
       <c r="G283" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H283">
         <v>2</v>
@@ -25922,7 +25922,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>7689541</v>
+        <v>7689543</v>
       </c>
       <c r="C286" t="s">
         <v>28</v>
@@ -25934,58 +25934,58 @@
         <v>45360.75</v>
       </c>
       <c r="F286" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G286" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H286">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I286">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J286" t="s">
         <v>56</v>
       </c>
       <c r="K286">
-        <v>1.571</v>
+        <v>2.2</v>
       </c>
       <c r="L286">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M286">
-        <v>4.333</v>
+        <v>2.75</v>
       </c>
       <c r="N286">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="O286">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P286">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q286">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R286">
+        <v>1.975</v>
+      </c>
+      <c r="S286">
+        <v>1.725</v>
+      </c>
+      <c r="T286">
+        <v>2.5</v>
+      </c>
+      <c r="U286">
         <v>1.85</v>
       </c>
-      <c r="S286">
+      <c r="V286">
         <v>1.95</v>
       </c>
-      <c r="T286">
-        <v>3</v>
-      </c>
-      <c r="U286">
-        <v>1.95</v>
-      </c>
-      <c r="V286">
-        <v>1.75</v>
-      </c>
       <c r="W286">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="X286">
         <v>-1</v>
@@ -25994,16 +25994,16 @@
         <v>-1</v>
       </c>
       <c r="Z286">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA286">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB286">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC286">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="287" spans="1:29">
@@ -26011,7 +26011,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>7689543</v>
+        <v>7689541</v>
       </c>
       <c r="C287" t="s">
         <v>28</v>
@@ -26023,58 +26023,58 @@
         <v>45360.75</v>
       </c>
       <c r="F287" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G287" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H287">
+        <v>2</v>
+      </c>
+      <c r="I287">
         <v>1</v>
-      </c>
-      <c r="I287">
-        <v>0</v>
       </c>
       <c r="J287" t="s">
         <v>56</v>
       </c>
       <c r="K287">
-        <v>2.2</v>
+        <v>1.571</v>
       </c>
       <c r="L287">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M287">
-        <v>2.75</v>
+        <v>4.333</v>
       </c>
       <c r="N287">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="O287">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P287">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="Q287">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R287">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S287">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="T287">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U287">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V287">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="W287">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="X287">
         <v>-1</v>
@@ -26083,16 +26083,16 @@
         <v>-1</v>
       </c>
       <c r="Z287">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA287">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB287">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC287">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="288" spans="1:29">
@@ -26100,7 +26100,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>7689542</v>
+        <v>7689544</v>
       </c>
       <c r="C288" t="s">
         <v>28</v>
@@ -26112,19 +26112,19 @@
         <v>45360.875</v>
       </c>
       <c r="F288" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G288" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288">
         <v>0</v>
       </c>
       <c r="J288" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K288">
         <v>2.25</v>
@@ -26136,52 +26136,52 @@
         <v>2.7</v>
       </c>
       <c r="N288">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="O288">
         <v>3.4</v>
       </c>
       <c r="P288">
-        <v>2.15</v>
+        <v>2.75</v>
       </c>
       <c r="Q288">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R288">
+        <v>2</v>
+      </c>
+      <c r="S288">
+        <v>1.8</v>
+      </c>
+      <c r="T288">
+        <v>2.75</v>
+      </c>
+      <c r="U288">
+        <v>1.925</v>
+      </c>
+      <c r="V288">
         <v>1.875</v>
       </c>
-      <c r="S288">
-        <v>1.925</v>
-      </c>
-      <c r="T288">
-        <v>2.5</v>
-      </c>
-      <c r="U288">
-        <v>1.825</v>
-      </c>
-      <c r="V288">
-        <v>1.975</v>
-      </c>
       <c r="W288">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X288">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y288">
         <v>-1</v>
       </c>
       <c r="Z288">
+        <v>-0.5</v>
+      </c>
+      <c r="AA288">
+        <v>0.4</v>
+      </c>
+      <c r="AB288">
+        <v>-1</v>
+      </c>
+      <c r="AC288">
         <v>0.875</v>
-      </c>
-      <c r="AA288">
-        <v>-1</v>
-      </c>
-      <c r="AB288">
-        <v>-1</v>
-      </c>
-      <c r="AC288">
-        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="289" spans="1:29">
@@ -26189,7 +26189,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>7689544</v>
+        <v>7689542</v>
       </c>
       <c r="C289" t="s">
         <v>28</v>
@@ -26201,19 +26201,19 @@
         <v>45360.875</v>
       </c>
       <c r="F289" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G289" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289">
         <v>0</v>
       </c>
       <c r="J289" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K289">
         <v>2.25</v>
@@ -26225,52 +26225,52 @@
         <v>2.7</v>
       </c>
       <c r="N289">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="O289">
         <v>3.4</v>
       </c>
       <c r="P289">
-        <v>2.75</v>
+        <v>2.15</v>
       </c>
       <c r="Q289">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R289">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S289">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T289">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U289">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V289">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W289">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X289">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y289">
         <v>-1</v>
       </c>
       <c r="Z289">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA289">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB289">
         <v>-1</v>
       </c>
       <c r="AC289">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="290" spans="1:29">
@@ -26290,7 +26290,7 @@
         <v>45360.9375</v>
       </c>
       <c r="F290" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G290" t="s">
         <v>39</v>
@@ -26827,7 +26827,7 @@
         <v>46</v>
       </c>
       <c r="G296" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H296">
         <v>0</v>
@@ -26901,7 +26901,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>7689550</v>
+        <v>7689554</v>
       </c>
       <c r="C297" t="s">
         <v>28</v>
@@ -26913,49 +26913,49 @@
         <v>45367.70833333334</v>
       </c>
       <c r="F297" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G297" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="H297">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I297">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J297" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K297">
         <v>2.25</v>
       </c>
       <c r="L297">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M297">
+        <v>2.75</v>
+      </c>
+      <c r="N297">
+        <v>1.909</v>
+      </c>
+      <c r="O297">
+        <v>3.4</v>
+      </c>
+      <c r="P297">
+        <v>3.4</v>
+      </c>
+      <c r="Q297">
+        <v>-0.25</v>
+      </c>
+      <c r="R297">
+        <v>1.8</v>
+      </c>
+      <c r="S297">
+        <v>2</v>
+      </c>
+      <c r="T297">
         <v>2.5</v>
-      </c>
-      <c r="N297">
-        <v>2.625</v>
-      </c>
-      <c r="O297">
-        <v>3.8</v>
-      </c>
-      <c r="P297">
-        <v>2.1</v>
-      </c>
-      <c r="Q297">
-        <v>0.25</v>
-      </c>
-      <c r="R297">
-        <v>1.85</v>
-      </c>
-      <c r="S297">
-        <v>1.95</v>
-      </c>
-      <c r="T297">
-        <v>2.75</v>
       </c>
       <c r="U297">
         <v>1.85</v>
@@ -26964,19 +26964,19 @@
         <v>1.95</v>
       </c>
       <c r="W297">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X297">
         <v>-1</v>
       </c>
       <c r="Y297">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z297">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA297">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB297">
         <v>0.8500000000000001</v>
@@ -26990,7 +26990,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>7689554</v>
+        <v>7689550</v>
       </c>
       <c r="C298" t="s">
         <v>28</v>
@@ -27002,49 +27002,49 @@
         <v>45367.70833333334</v>
       </c>
       <c r="F298" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G298" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="H298">
+        <v>3</v>
+      </c>
+      <c r="I298">
         <v>1</v>
       </c>
-      <c r="I298">
-        <v>2</v>
-      </c>
       <c r="J298" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K298">
         <v>2.25</v>
       </c>
       <c r="L298">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M298">
+        <v>2.5</v>
+      </c>
+      <c r="N298">
+        <v>2.625</v>
+      </c>
+      <c r="O298">
+        <v>3.8</v>
+      </c>
+      <c r="P298">
+        <v>2.1</v>
+      </c>
+      <c r="Q298">
+        <v>0.25</v>
+      </c>
+      <c r="R298">
+        <v>1.85</v>
+      </c>
+      <c r="S298">
+        <v>1.95</v>
+      </c>
+      <c r="T298">
         <v>2.75</v>
-      </c>
-      <c r="N298">
-        <v>1.909</v>
-      </c>
-      <c r="O298">
-        <v>3.4</v>
-      </c>
-      <c r="P298">
-        <v>3.4</v>
-      </c>
-      <c r="Q298">
-        <v>-0.25</v>
-      </c>
-      <c r="R298">
-        <v>1.8</v>
-      </c>
-      <c r="S298">
-        <v>2</v>
-      </c>
-      <c r="T298">
-        <v>2.5</v>
       </c>
       <c r="U298">
         <v>1.85</v>
@@ -27053,19 +27053,19 @@
         <v>1.95</v>
       </c>
       <c r="W298">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X298">
         <v>-1</v>
       </c>
       <c r="Y298">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z298">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA298">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB298">
         <v>0.8500000000000001</v>
@@ -27079,7 +27079,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>7689838</v>
+        <v>7689553</v>
       </c>
       <c r="C299" t="s">
         <v>28</v>
@@ -27091,49 +27091,49 @@
         <v>45367.83333333334</v>
       </c>
       <c r="F299" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G299" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="H299">
         <v>0</v>
       </c>
       <c r="I299">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J299" t="s">
         <v>55</v>
       </c>
       <c r="K299">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="L299">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M299">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="N299">
-        <v>1.85</v>
+        <v>3.75</v>
       </c>
       <c r="O299">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P299">
-        <v>3.6</v>
+        <v>1.727</v>
       </c>
       <c r="Q299">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R299">
+        <v>1.825</v>
+      </c>
+      <c r="S299">
         <v>1.975</v>
       </c>
-      <c r="S299">
-        <v>1.825</v>
-      </c>
       <c r="T299">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U299">
         <v>1.975</v>
@@ -27148,19 +27148,19 @@
         <v>-1</v>
       </c>
       <c r="Y299">
-        <v>2.6</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z299">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA299">
+        <v>0.4875</v>
+      </c>
+      <c r="AB299">
+        <v>-1</v>
+      </c>
+      <c r="AC299">
         <v>0.825</v>
-      </c>
-      <c r="AB299">
-        <v>-0.5</v>
-      </c>
-      <c r="AC299">
-        <v>0.4125</v>
       </c>
     </row>
     <row r="300" spans="1:29">
@@ -27168,7 +27168,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>7689553</v>
+        <v>7689838</v>
       </c>
       <c r="C300" t="s">
         <v>28</v>
@@ -27180,49 +27180,49 @@
         <v>45367.83333333334</v>
       </c>
       <c r="F300" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G300" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="H300">
         <v>0</v>
       </c>
       <c r="I300">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J300" t="s">
         <v>55</v>
       </c>
       <c r="K300">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="L300">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M300">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="N300">
-        <v>3.75</v>
+        <v>1.85</v>
       </c>
       <c r="O300">
+        <v>3.25</v>
+      </c>
+      <c r="P300">
         <v>3.6</v>
       </c>
-      <c r="P300">
-        <v>1.727</v>
-      </c>
       <c r="Q300">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R300">
+        <v>1.975</v>
+      </c>
+      <c r="S300">
         <v>1.825</v>
       </c>
-      <c r="S300">
-        <v>1.975</v>
-      </c>
       <c r="T300">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U300">
         <v>1.975</v>
@@ -27237,19 +27237,19 @@
         <v>-1</v>
       </c>
       <c r="Y300">
-        <v>0.7270000000000001</v>
+        <v>2.6</v>
       </c>
       <c r="Z300">
+        <v>-1</v>
+      </c>
+      <c r="AA300">
+        <v>0.825</v>
+      </c>
+      <c r="AB300">
         <v>-0.5</v>
       </c>
-      <c r="AA300">
-        <v>0.4875</v>
-      </c>
-      <c r="AB300">
-        <v>-1</v>
-      </c>
       <c r="AC300">
-        <v>0.825</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="301" spans="1:29">
@@ -27272,7 +27272,7 @@
         <v>33</v>
       </c>
       <c r="G301" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H301">
         <v>2</v>
@@ -27803,7 +27803,7 @@
         <v>45374.70833333334</v>
       </c>
       <c r="F307" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G307" t="s">
         <v>31</v>
@@ -28162,7 +28162,7 @@
         <v>29</v>
       </c>
       <c r="G311" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H311">
         <v>4</v>
@@ -28337,7 +28337,7 @@
         <v>45374.89583333334</v>
       </c>
       <c r="F313" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G313" t="s">
         <v>30</v>
@@ -28782,7 +28782,7 @@
         <v>45381.70833333334</v>
       </c>
       <c r="F318" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G318" t="s">
         <v>48</v>
@@ -28859,7 +28859,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>7689568</v>
+        <v>7689570</v>
       </c>
       <c r="C319" t="s">
         <v>28</v>
@@ -28871,10 +28871,10 @@
         <v>45381.83333333334</v>
       </c>
       <c r="F319" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G319" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="H319">
         <v>1</v>
@@ -28886,40 +28886,40 @@
         <v>55</v>
       </c>
       <c r="K319">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="L319">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M319">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="N319">
-        <v>1.727</v>
+        <v>5</v>
       </c>
       <c r="O319">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P319">
-        <v>3.8</v>
+        <v>1.533</v>
       </c>
       <c r="Q319">
-        <v>-0.75</v>
+        <v>1</v>
       </c>
       <c r="R319">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S319">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T319">
         <v>2.5</v>
       </c>
       <c r="U319">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V319">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W319">
         <v>-1</v>
@@ -28928,16 +28928,16 @@
         <v>-1</v>
       </c>
       <c r="Y319">
-        <v>2.8</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z319">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA319">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB319">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC319">
         <v>-1</v>
@@ -28948,7 +28948,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>7689570</v>
+        <v>7689568</v>
       </c>
       <c r="C320" t="s">
         <v>28</v>
@@ -28960,10 +28960,10 @@
         <v>45381.83333333334</v>
       </c>
       <c r="F320" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G320" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="H320">
         <v>1</v>
@@ -28975,40 +28975,40 @@
         <v>55</v>
       </c>
       <c r="K320">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="L320">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M320">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="N320">
-        <v>5</v>
+        <v>1.727</v>
       </c>
       <c r="O320">
+        <v>3.5</v>
+      </c>
+      <c r="P320">
         <v>3.8</v>
       </c>
-      <c r="P320">
-        <v>1.533</v>
-      </c>
       <c r="Q320">
-        <v>1</v>
+        <v>-0.75</v>
       </c>
       <c r="R320">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S320">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T320">
         <v>2.5</v>
       </c>
       <c r="U320">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V320">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W320">
         <v>-1</v>
@@ -29017,16 +29017,16 @@
         <v>-1</v>
       </c>
       <c r="Y320">
-        <v>0.5329999999999999</v>
+        <v>2.8</v>
       </c>
       <c r="Z320">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA320">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB320">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC320">
         <v>-1</v>
@@ -29138,7 +29138,7 @@
         <v>45381.89583333334</v>
       </c>
       <c r="F322" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G322" t="s">
         <v>37</v>
@@ -29304,7 +29304,7 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>7689571</v>
+        <v>7689573</v>
       </c>
       <c r="C324" t="s">
         <v>28</v>
@@ -29316,10 +29316,10 @@
         <v>45381.95833333334</v>
       </c>
       <c r="F324" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="G324" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="H324">
         <v>1</v>
@@ -29331,43 +29331,43 @@
         <v>56</v>
       </c>
       <c r="K324">
-        <v>1.615</v>
+        <v>1.666</v>
       </c>
       <c r="L324">
         <v>3.75</v>
       </c>
       <c r="M324">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="N324">
-        <v>1.7</v>
+        <v>1.533</v>
       </c>
       <c r="O324">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P324">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="Q324">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R324">
+        <v>1.875</v>
+      </c>
+      <c r="S324">
+        <v>1.925</v>
+      </c>
+      <c r="T324">
+        <v>2.5</v>
+      </c>
+      <c r="U324">
+        <v>1.825</v>
+      </c>
+      <c r="V324">
         <v>1.975</v>
       </c>
-      <c r="S324">
-        <v>1.825</v>
-      </c>
-      <c r="T324">
-        <v>2.75</v>
-      </c>
-      <c r="U324">
-        <v>1.9</v>
-      </c>
-      <c r="V324">
-        <v>1.9</v>
-      </c>
       <c r="W324">
-        <v>0.7</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X324">
         <v>-1</v>
@@ -29376,16 +29376,16 @@
         <v>-1</v>
       </c>
       <c r="Z324">
-        <v>0.4875</v>
+        <v>0</v>
       </c>
       <c r="AA324">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB324">
         <v>-1</v>
       </c>
       <c r="AC324">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="325" spans="1:29">
@@ -29393,7 +29393,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>7689573</v>
+        <v>7689571</v>
       </c>
       <c r="C325" t="s">
         <v>28</v>
@@ -29405,10 +29405,10 @@
         <v>45381.95833333334</v>
       </c>
       <c r="F325" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G325" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="H325">
         <v>1</v>
@@ -29420,43 +29420,43 @@
         <v>56</v>
       </c>
       <c r="K325">
-        <v>1.666</v>
+        <v>1.615</v>
       </c>
       <c r="L325">
         <v>3.75</v>
       </c>
       <c r="M325">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="N325">
-        <v>1.533</v>
+        <v>1.7</v>
       </c>
       <c r="O325">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P325">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q325">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R325">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S325">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T325">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U325">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V325">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W325">
-        <v>0.5329999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="X325">
         <v>-1</v>
@@ -29465,16 +29465,16 @@
         <v>-1</v>
       </c>
       <c r="Z325">
-        <v>0</v>
+        <v>0.4875</v>
       </c>
       <c r="AA325">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB325">
         <v>-1</v>
       </c>
       <c r="AC325">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="326" spans="1:29">
@@ -29497,7 +29497,7 @@
         <v>44</v>
       </c>
       <c r="G326" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H326">
         <v>0</v>
@@ -29660,7 +29660,7 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>7689583</v>
+        <v>7689582</v>
       </c>
       <c r="C328" t="s">
         <v>28</v>
@@ -29672,58 +29672,58 @@
         <v>45388.625</v>
       </c>
       <c r="F328" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="G328" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="H328">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I328">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J328" t="s">
         <v>56</v>
       </c>
       <c r="K328">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="L328">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M328">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="N328">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="O328">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P328">
-        <v>2.8</v>
+        <v>4.75</v>
       </c>
       <c r="Q328">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R328">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S328">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T328">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U328">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V328">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W328">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="X328">
         <v>-1</v>
@@ -29732,16 +29732,16 @@
         <v>-1</v>
       </c>
       <c r="Z328">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA328">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB328">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC328">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="329" spans="1:29">
@@ -29749,7 +29749,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>7689582</v>
+        <v>7689583</v>
       </c>
       <c r="C329" t="s">
         <v>28</v>
@@ -29761,58 +29761,58 @@
         <v>45388.625</v>
       </c>
       <c r="F329" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="G329" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="H329">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I329">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J329" t="s">
         <v>56</v>
       </c>
       <c r="K329">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="L329">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M329">
+        <v>2.8</v>
+      </c>
+      <c r="N329">
+        <v>2.1</v>
+      </c>
+      <c r="O329">
+        <v>3.6</v>
+      </c>
+      <c r="P329">
+        <v>2.8</v>
+      </c>
+      <c r="Q329">
+        <v>-0.25</v>
+      </c>
+      <c r="R329">
+        <v>1.9</v>
+      </c>
+      <c r="S329">
+        <v>1.9</v>
+      </c>
+      <c r="T329">
         <v>2.5</v>
       </c>
-      <c r="N329">
-        <v>1.5</v>
-      </c>
-      <c r="O329">
-        <v>4.2</v>
-      </c>
-      <c r="P329">
-        <v>4.75</v>
-      </c>
-      <c r="Q329">
-        <v>-1</v>
-      </c>
-      <c r="R329">
-        <v>1.85</v>
-      </c>
-      <c r="S329">
-        <v>1.95</v>
-      </c>
-      <c r="T329">
-        <v>3</v>
-      </c>
       <c r="U329">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V329">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W329">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="X329">
         <v>-1</v>
@@ -29821,16 +29821,16 @@
         <v>-1</v>
       </c>
       <c r="Z329">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA329">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB329">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC329">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330" spans="1:29">
@@ -29939,7 +29939,7 @@
         <v>45388.70833333334</v>
       </c>
       <c r="F331" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G331" t="s">
         <v>41</v>
@@ -30295,7 +30295,7 @@
         <v>45388.91666666666</v>
       </c>
       <c r="F335" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G335" t="s">
         <v>46</v>
@@ -30476,7 +30476,7 @@
         <v>45</v>
       </c>
       <c r="G337" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H337">
         <v>1</v>
@@ -30654,7 +30654,7 @@
         <v>29</v>
       </c>
       <c r="G339" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H339">
         <v>3</v>
@@ -31096,7 +31096,7 @@
         <v>45395.89583333334</v>
       </c>
       <c r="F344" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G344" t="s">
         <v>38</v>
@@ -31611,6 +31611,894 @@
       </c>
       <c r="AC349">
         <v>0.8999999999999999</v>
+      </c>
+    </row>
+    <row r="350" spans="1:29">
+      <c r="A350" s="1">
+        <v>348</v>
+      </c>
+      <c r="B350">
+        <v>7689604</v>
+      </c>
+      <c r="C350" t="s">
+        <v>28</v>
+      </c>
+      <c r="D350" t="s">
+        <v>28</v>
+      </c>
+      <c r="E350" s="2">
+        <v>45402.70833333334</v>
+      </c>
+      <c r="F350" t="s">
+        <v>52</v>
+      </c>
+      <c r="G350" t="s">
+        <v>50</v>
+      </c>
+      <c r="K350">
+        <v>2.1</v>
+      </c>
+      <c r="L350">
+        <v>3.6</v>
+      </c>
+      <c r="M350">
+        <v>2.8</v>
+      </c>
+      <c r="N350">
+        <v>1.85</v>
+      </c>
+      <c r="O350">
+        <v>3.6</v>
+      </c>
+      <c r="P350">
+        <v>3.3</v>
+      </c>
+      <c r="Q350">
+        <v>-0.5</v>
+      </c>
+      <c r="R350">
+        <v>1.9</v>
+      </c>
+      <c r="S350">
+        <v>1.9</v>
+      </c>
+      <c r="T350">
+        <v>2.5</v>
+      </c>
+      <c r="U350">
+        <v>2</v>
+      </c>
+      <c r="V350">
+        <v>1.8</v>
+      </c>
+      <c r="W350">
+        <v>0</v>
+      </c>
+      <c r="X350">
+        <v>0</v>
+      </c>
+      <c r="Y350">
+        <v>0</v>
+      </c>
+      <c r="Z350">
+        <v>0</v>
+      </c>
+      <c r="AA350">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:29">
+      <c r="A351" s="1">
+        <v>349</v>
+      </c>
+      <c r="B351">
+        <v>7689601</v>
+      </c>
+      <c r="C351" t="s">
+        <v>28</v>
+      </c>
+      <c r="D351" t="s">
+        <v>28</v>
+      </c>
+      <c r="E351" s="2">
+        <v>45402.70833333334</v>
+      </c>
+      <c r="F351" t="s">
+        <v>39</v>
+      </c>
+      <c r="G351" t="s">
+        <v>43</v>
+      </c>
+      <c r="K351">
+        <v>3</v>
+      </c>
+      <c r="L351">
+        <v>3.6</v>
+      </c>
+      <c r="M351">
+        <v>2</v>
+      </c>
+      <c r="N351">
+        <v>3.3</v>
+      </c>
+      <c r="O351">
+        <v>3.6</v>
+      </c>
+      <c r="P351">
+        <v>1.85</v>
+      </c>
+      <c r="Q351">
+        <v>0.5</v>
+      </c>
+      <c r="R351">
+        <v>1.875</v>
+      </c>
+      <c r="S351">
+        <v>1.925</v>
+      </c>
+      <c r="T351">
+        <v>2.75</v>
+      </c>
+      <c r="U351">
+        <v>1.9</v>
+      </c>
+      <c r="V351">
+        <v>1.9</v>
+      </c>
+      <c r="W351">
+        <v>0</v>
+      </c>
+      <c r="X351">
+        <v>0</v>
+      </c>
+      <c r="Y351">
+        <v>0</v>
+      </c>
+      <c r="Z351">
+        <v>0</v>
+      </c>
+      <c r="AA351">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:29">
+      <c r="A352" s="1">
+        <v>350</v>
+      </c>
+      <c r="B352">
+        <v>7689602</v>
+      </c>
+      <c r="C352" t="s">
+        <v>28</v>
+      </c>
+      <c r="D352" t="s">
+        <v>28</v>
+      </c>
+      <c r="E352" s="2">
+        <v>45402.75</v>
+      </c>
+      <c r="F352" t="s">
+        <v>32</v>
+      </c>
+      <c r="G352" t="s">
+        <v>36</v>
+      </c>
+      <c r="K352">
+        <v>3</v>
+      </c>
+      <c r="L352">
+        <v>3.6</v>
+      </c>
+      <c r="M352">
+        <v>2</v>
+      </c>
+      <c r="N352">
+        <v>2.4</v>
+      </c>
+      <c r="O352">
+        <v>3.5</v>
+      </c>
+      <c r="P352">
+        <v>2.6</v>
+      </c>
+      <c r="Q352">
+        <v>0</v>
+      </c>
+      <c r="R352">
+        <v>1.825</v>
+      </c>
+      <c r="S352">
+        <v>1.975</v>
+      </c>
+      <c r="T352">
+        <v>3</v>
+      </c>
+      <c r="U352">
+        <v>1.95</v>
+      </c>
+      <c r="V352">
+        <v>1.85</v>
+      </c>
+      <c r="W352">
+        <v>0</v>
+      </c>
+      <c r="X352">
+        <v>0</v>
+      </c>
+      <c r="Y352">
+        <v>0</v>
+      </c>
+      <c r="Z352">
+        <v>0</v>
+      </c>
+      <c r="AA352">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:27">
+      <c r="A353" s="1">
+        <v>351</v>
+      </c>
+      <c r="B353">
+        <v>7689603</v>
+      </c>
+      <c r="C353" t="s">
+        <v>28</v>
+      </c>
+      <c r="D353" t="s">
+        <v>28</v>
+      </c>
+      <c r="E353" s="2">
+        <v>45402.79166666666</v>
+      </c>
+      <c r="F353" t="s">
+        <v>49</v>
+      </c>
+      <c r="G353" t="s">
+        <v>29</v>
+      </c>
+      <c r="K353">
+        <v>2.5</v>
+      </c>
+      <c r="L353">
+        <v>3.75</v>
+      </c>
+      <c r="M353">
+        <v>2.25</v>
+      </c>
+      <c r="N353">
+        <v>3.1</v>
+      </c>
+      <c r="O353">
+        <v>3.8</v>
+      </c>
+      <c r="P353">
+        <v>1.909</v>
+      </c>
+      <c r="Q353">
+        <v>0.5</v>
+      </c>
+      <c r="R353">
+        <v>1.825</v>
+      </c>
+      <c r="S353">
+        <v>1.975</v>
+      </c>
+      <c r="T353">
+        <v>2.75</v>
+      </c>
+      <c r="U353">
+        <v>1.8</v>
+      </c>
+      <c r="V353">
+        <v>2</v>
+      </c>
+      <c r="W353">
+        <v>0</v>
+      </c>
+      <c r="X353">
+        <v>0</v>
+      </c>
+      <c r="Y353">
+        <v>0</v>
+      </c>
+      <c r="Z353">
+        <v>0</v>
+      </c>
+      <c r="AA353">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:27">
+      <c r="A354" s="1">
+        <v>352</v>
+      </c>
+      <c r="B354">
+        <v>7689600</v>
+      </c>
+      <c r="C354" t="s">
+        <v>28</v>
+      </c>
+      <c r="D354" t="s">
+        <v>28</v>
+      </c>
+      <c r="E354" s="2">
+        <v>45402.83333333334</v>
+      </c>
+      <c r="F354" t="s">
+        <v>47</v>
+      </c>
+      <c r="G354" t="s">
+        <v>48</v>
+      </c>
+      <c r="K354">
+        <v>3.6</v>
+      </c>
+      <c r="L354">
+        <v>3.6</v>
+      </c>
+      <c r="M354">
+        <v>1.8</v>
+      </c>
+      <c r="N354">
+        <v>3.6</v>
+      </c>
+      <c r="O354">
+        <v>3.6</v>
+      </c>
+      <c r="P354">
+        <v>1.8</v>
+      </c>
+      <c r="Q354">
+        <v>0.5</v>
+      </c>
+      <c r="R354">
+        <v>1.95</v>
+      </c>
+      <c r="S354">
+        <v>1.85</v>
+      </c>
+      <c r="T354">
+        <v>2.75</v>
+      </c>
+      <c r="U354">
+        <v>1.85</v>
+      </c>
+      <c r="V354">
+        <v>1.95</v>
+      </c>
+      <c r="W354">
+        <v>0</v>
+      </c>
+      <c r="X354">
+        <v>0</v>
+      </c>
+      <c r="Y354">
+        <v>0</v>
+      </c>
+      <c r="Z354">
+        <v>0</v>
+      </c>
+      <c r="AA354">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:27">
+      <c r="A355" s="1">
+        <v>353</v>
+      </c>
+      <c r="B355">
+        <v>7689599</v>
+      </c>
+      <c r="C355" t="s">
+        <v>28</v>
+      </c>
+      <c r="D355" t="s">
+        <v>28</v>
+      </c>
+      <c r="E355" s="2">
+        <v>45402.83333333334</v>
+      </c>
+      <c r="F355" t="s">
+        <v>53</v>
+      </c>
+      <c r="G355" t="s">
+        <v>35</v>
+      </c>
+      <c r="K355">
+        <v>2</v>
+      </c>
+      <c r="L355">
+        <v>3.6</v>
+      </c>
+      <c r="M355">
+        <v>3</v>
+      </c>
+      <c r="N355">
+        <v>1.909</v>
+      </c>
+      <c r="O355">
+        <v>3.6</v>
+      </c>
+      <c r="P355">
+        <v>3.25</v>
+      </c>
+      <c r="Q355">
+        <v>-0.5</v>
+      </c>
+      <c r="R355">
+        <v>1.95</v>
+      </c>
+      <c r="S355">
+        <v>1.85</v>
+      </c>
+      <c r="T355">
+        <v>2.75</v>
+      </c>
+      <c r="U355">
+        <v>1.925</v>
+      </c>
+      <c r="V355">
+        <v>1.875</v>
+      </c>
+      <c r="W355">
+        <v>0</v>
+      </c>
+      <c r="X355">
+        <v>0</v>
+      </c>
+      <c r="Y355">
+        <v>0</v>
+      </c>
+      <c r="Z355">
+        <v>0</v>
+      </c>
+      <c r="AA355">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:27">
+      <c r="A356" s="1">
+        <v>354</v>
+      </c>
+      <c r="B356">
+        <v>7689596</v>
+      </c>
+      <c r="C356" t="s">
+        <v>28</v>
+      </c>
+      <c r="D356" t="s">
+        <v>28</v>
+      </c>
+      <c r="E356" s="2">
+        <v>45402.85416666666</v>
+      </c>
+      <c r="F356" t="s">
+        <v>33</v>
+      </c>
+      <c r="G356" t="s">
+        <v>46</v>
+      </c>
+      <c r="K356">
+        <v>1.666</v>
+      </c>
+      <c r="L356">
+        <v>3.5</v>
+      </c>
+      <c r="M356">
+        <v>4.333</v>
+      </c>
+      <c r="N356">
+        <v>1.444</v>
+      </c>
+      <c r="O356">
+        <v>3.8</v>
+      </c>
+      <c r="P356">
+        <v>6.5</v>
+      </c>
+      <c r="Q356">
+        <v>-1.25</v>
+      </c>
+      <c r="R356">
+        <v>1.95</v>
+      </c>
+      <c r="S356">
+        <v>1.85</v>
+      </c>
+      <c r="T356">
+        <v>2.75</v>
+      </c>
+      <c r="U356">
+        <v>1.85</v>
+      </c>
+      <c r="V356">
+        <v>1.95</v>
+      </c>
+      <c r="W356">
+        <v>0</v>
+      </c>
+      <c r="X356">
+        <v>0</v>
+      </c>
+      <c r="Y356">
+        <v>0</v>
+      </c>
+      <c r="Z356">
+        <v>0</v>
+      </c>
+      <c r="AA356">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:27">
+      <c r="A357" s="1">
+        <v>355</v>
+      </c>
+      <c r="B357">
+        <v>7689595</v>
+      </c>
+      <c r="C357" t="s">
+        <v>28</v>
+      </c>
+      <c r="D357" t="s">
+        <v>28</v>
+      </c>
+      <c r="E357" s="2">
+        <v>45402.875</v>
+      </c>
+      <c r="F357" t="s">
+        <v>30</v>
+      </c>
+      <c r="G357" t="s">
+        <v>41</v>
+      </c>
+      <c r="K357">
+        <v>2.4</v>
+      </c>
+      <c r="L357">
+        <v>3.4</v>
+      </c>
+      <c r="M357">
+        <v>2.5</v>
+      </c>
+      <c r="N357">
+        <v>2.15</v>
+      </c>
+      <c r="O357">
+        <v>3.4</v>
+      </c>
+      <c r="P357">
+        <v>2.8</v>
+      </c>
+      <c r="Q357">
+        <v>-0.25</v>
+      </c>
+      <c r="R357">
+        <v>1.95</v>
+      </c>
+      <c r="S357">
+        <v>1.85</v>
+      </c>
+      <c r="T357">
+        <v>2.75</v>
+      </c>
+      <c r="U357">
+        <v>1.9</v>
+      </c>
+      <c r="V357">
+        <v>1.9</v>
+      </c>
+      <c r="W357">
+        <v>0</v>
+      </c>
+      <c r="X357">
+        <v>0</v>
+      </c>
+      <c r="Y357">
+        <v>0</v>
+      </c>
+      <c r="Z357">
+        <v>0</v>
+      </c>
+      <c r="AA357">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:27">
+      <c r="A358" s="1">
+        <v>356</v>
+      </c>
+      <c r="B358">
+        <v>7689605</v>
+      </c>
+      <c r="C358" t="s">
+        <v>28</v>
+      </c>
+      <c r="D358" t="s">
+        <v>28</v>
+      </c>
+      <c r="E358" s="2">
+        <v>45402.875</v>
+      </c>
+      <c r="F358" t="s">
+        <v>34</v>
+      </c>
+      <c r="G358" t="s">
+        <v>37</v>
+      </c>
+      <c r="K358">
+        <v>1.666</v>
+      </c>
+      <c r="L358">
+        <v>3.5</v>
+      </c>
+      <c r="M358">
+        <v>4.333</v>
+      </c>
+      <c r="N358">
+        <v>1.85</v>
+      </c>
+      <c r="O358">
+        <v>3.4</v>
+      </c>
+      <c r="P358">
+        <v>3.6</v>
+      </c>
+      <c r="Q358">
+        <v>-0.5</v>
+      </c>
+      <c r="R358">
+        <v>1.9</v>
+      </c>
+      <c r="S358">
+        <v>1.9</v>
+      </c>
+      <c r="T358">
+        <v>2.75</v>
+      </c>
+      <c r="U358">
+        <v>1.875</v>
+      </c>
+      <c r="V358">
+        <v>1.925</v>
+      </c>
+      <c r="W358">
+        <v>0</v>
+      </c>
+      <c r="X358">
+        <v>0</v>
+      </c>
+      <c r="Y358">
+        <v>0</v>
+      </c>
+      <c r="Z358">
+        <v>0</v>
+      </c>
+      <c r="AA358">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:27">
+      <c r="A359" s="1">
+        <v>357</v>
+      </c>
+      <c r="B359">
+        <v>7710080</v>
+      </c>
+      <c r="C359" t="s">
+        <v>28</v>
+      </c>
+      <c r="D359" t="s">
+        <v>28</v>
+      </c>
+      <c r="E359" s="2">
+        <v>45402.875</v>
+      </c>
+      <c r="F359" t="s">
+        <v>45</v>
+      </c>
+      <c r="G359" t="s">
+        <v>54</v>
+      </c>
+      <c r="K359">
+        <v>2.2</v>
+      </c>
+      <c r="L359">
+        <v>3.4</v>
+      </c>
+      <c r="M359">
+        <v>2.75</v>
+      </c>
+      <c r="N359">
+        <v>2.1</v>
+      </c>
+      <c r="O359">
+        <v>3.4</v>
+      </c>
+      <c r="P359">
+        <v>2.9</v>
+      </c>
+      <c r="Q359">
+        <v>-0.25</v>
+      </c>
+      <c r="R359">
+        <v>1.9</v>
+      </c>
+      <c r="S359">
+        <v>1.9</v>
+      </c>
+      <c r="T359">
+        <v>3</v>
+      </c>
+      <c r="U359">
+        <v>2.025</v>
+      </c>
+      <c r="V359">
+        <v>1.775</v>
+      </c>
+      <c r="W359">
+        <v>0</v>
+      </c>
+      <c r="X359">
+        <v>0</v>
+      </c>
+      <c r="Y359">
+        <v>0</v>
+      </c>
+      <c r="Z359">
+        <v>0</v>
+      </c>
+      <c r="AA359">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:27">
+      <c r="A360" s="1">
+        <v>358</v>
+      </c>
+      <c r="B360">
+        <v>7689598</v>
+      </c>
+      <c r="C360" t="s">
+        <v>28</v>
+      </c>
+      <c r="D360" t="s">
+        <v>28</v>
+      </c>
+      <c r="E360" s="2">
+        <v>45402.95833333334</v>
+      </c>
+      <c r="F360" t="s">
+        <v>38</v>
+      </c>
+      <c r="G360" t="s">
+        <v>51</v>
+      </c>
+      <c r="K360">
+        <v>2.3</v>
+      </c>
+      <c r="L360">
+        <v>3.3</v>
+      </c>
+      <c r="M360">
+        <v>2.625</v>
+      </c>
+      <c r="N360">
+        <v>3.25</v>
+      </c>
+      <c r="O360">
+        <v>3.4</v>
+      </c>
+      <c r="P360">
+        <v>2</v>
+      </c>
+      <c r="Q360">
+        <v>0.25</v>
+      </c>
+      <c r="R360">
+        <v>2.025</v>
+      </c>
+      <c r="S360">
+        <v>1.775</v>
+      </c>
+      <c r="T360">
+        <v>2.5</v>
+      </c>
+      <c r="U360">
+        <v>1.95</v>
+      </c>
+      <c r="V360">
+        <v>1.85</v>
+      </c>
+      <c r="W360">
+        <v>0</v>
+      </c>
+      <c r="X360">
+        <v>0</v>
+      </c>
+      <c r="Y360">
+        <v>0</v>
+      </c>
+      <c r="Z360">
+        <v>0</v>
+      </c>
+      <c r="AA360">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:27">
+      <c r="A361" s="1">
+        <v>359</v>
+      </c>
+      <c r="B361">
+        <v>7689597</v>
+      </c>
+      <c r="C361" t="s">
+        <v>28</v>
+      </c>
+      <c r="D361" t="s">
+        <v>28</v>
+      </c>
+      <c r="E361" s="2">
+        <v>45402.97916666666</v>
+      </c>
+      <c r="F361" t="s">
+        <v>44</v>
+      </c>
+      <c r="G361" t="s">
+        <v>31</v>
+      </c>
+      <c r="K361">
+        <v>1.8</v>
+      </c>
+      <c r="L361">
+        <v>3.4</v>
+      </c>
+      <c r="M361">
+        <v>3.8</v>
+      </c>
+      <c r="N361">
+        <v>1.909</v>
+      </c>
+      <c r="O361">
+        <v>3.3</v>
+      </c>
+      <c r="P361">
+        <v>3.6</v>
+      </c>
+      <c r="Q361">
+        <v>-0.5</v>
+      </c>
+      <c r="R361">
+        <v>1.95</v>
+      </c>
+      <c r="S361">
+        <v>1.85</v>
+      </c>
+      <c r="T361">
+        <v>2.5</v>
+      </c>
+      <c r="U361">
+        <v>1.95</v>
+      </c>
+      <c r="V361">
+        <v>1.85</v>
+      </c>
+      <c r="W361">
+        <v>0</v>
+      </c>
+      <c r="X361">
+        <v>0</v>
+      </c>
+      <c r="Y361">
+        <v>0</v>
+      </c>
+      <c r="Z361">
+        <v>0</v>
+      </c>
+      <c r="AA361">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/USA USL Championship/USA USL Championship.xlsx
+++ b/USA USL Championship/USA USL Championship.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1816" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1768" uniqueCount="58">
   <si>
     <t>id</t>
   </si>
@@ -142,16 +142,16 @@
     <t>Indy Eleven</t>
   </si>
   <si>
+    <t>Rio Grande Valley FC Toros</t>
+  </si>
+  <si>
     <t>Louisville City FC</t>
   </si>
   <si>
-    <t>Rio Grande Valley FC Toros</t>
+    <t>Phoenix Rising FC</t>
   </si>
   <si>
     <t>Las Vegas Lights FC</t>
-  </si>
-  <si>
-    <t>Phoenix Rising FC</t>
   </si>
   <si>
     <t>El Paso Locomotive FC</t>
@@ -549,7 +549,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC361"/>
+  <dimension ref="A1:AC349"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -839,7 +839,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -928,7 +928,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -1462,7 +1462,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H11">
         <v>2</v>
@@ -2070,7 +2070,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6126596</v>
+        <v>6126599</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2085,70 +2085,70 @@
         <v>42</v>
       </c>
       <c r="G18" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I18">
         <v>3</v>
       </c>
       <c r="J18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K18">
-        <v>1.7</v>
+        <v>2.05</v>
       </c>
       <c r="L18">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M18">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="N18">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="O18">
         <v>3.4</v>
       </c>
       <c r="P18">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="Q18">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R18">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S18">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T18">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U18">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V18">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W18">
         <v>-1</v>
       </c>
       <c r="X18">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y18">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z18">
         <v>-1</v>
       </c>
       <c r="AA18">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB18">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC18">
         <v>-1</v>
@@ -2159,7 +2159,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6126599</v>
+        <v>6126596</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2174,70 +2174,70 @@
         <v>43</v>
       </c>
       <c r="G19" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="H19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I19">
         <v>3</v>
       </c>
       <c r="J19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K19">
-        <v>2.05</v>
+        <v>1.7</v>
       </c>
       <c r="L19">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M19">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="N19">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="O19">
         <v>3.4</v>
       </c>
       <c r="P19">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q19">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R19">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S19">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T19">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U19">
+        <v>1.9</v>
+      </c>
+      <c r="V19">
+        <v>1.9</v>
+      </c>
+      <c r="W19">
+        <v>-1</v>
+      </c>
+      <c r="X19">
+        <v>-1</v>
+      </c>
+      <c r="Y19">
         <v>1.8</v>
       </c>
-      <c r="V19">
-        <v>2</v>
-      </c>
-      <c r="W19">
-        <v>-1</v>
-      </c>
-      <c r="X19">
-        <v>2.4</v>
-      </c>
-      <c r="Y19">
-        <v>-1</v>
-      </c>
       <c r="Z19">
         <v>-1</v>
       </c>
       <c r="AA19">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB19">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC19">
         <v>-1</v>
@@ -2426,7 +2426,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6126595</v>
+        <v>6126597</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2441,73 +2441,73 @@
         <v>44</v>
       </c>
       <c r="G22" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22">
         <v>2</v>
       </c>
       <c r="J22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K22">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="L22">
         <v>3.3</v>
       </c>
       <c r="M22">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="N22">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="O22">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P22">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R22">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S22">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T22">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U22">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V22">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W22">
         <v>-1</v>
       </c>
       <c r="X22">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y22">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z22">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA22">
-        <v>1</v>
+        <v>0.475</v>
       </c>
       <c r="AB22">
-        <v>0.4875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC22">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2515,7 +2515,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6126597</v>
+        <v>6126595</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2530,73 +2530,73 @@
         <v>45</v>
       </c>
       <c r="G23" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23">
         <v>2</v>
       </c>
       <c r="J23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K23">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="L23">
         <v>3.3</v>
       </c>
       <c r="M23">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="N23">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="O23">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P23">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="Q23">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R23">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S23">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T23">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U23">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V23">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W23">
         <v>-1</v>
       </c>
       <c r="X23">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y23">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z23">
+        <v>-1</v>
+      </c>
+      <c r="AA23">
+        <v>1</v>
+      </c>
+      <c r="AB23">
+        <v>0.4875</v>
+      </c>
+      <c r="AC23">
         <v>-0.5</v>
-      </c>
-      <c r="AA23">
-        <v>0.475</v>
-      </c>
-      <c r="AB23">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC23">
-        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2708,7 +2708,7 @@
         <v>46</v>
       </c>
       <c r="G25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H25">
         <v>2</v>
@@ -2871,7 +2871,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6126609</v>
+        <v>6126615</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2883,55 +2883,55 @@
         <v>45094.83333333334</v>
       </c>
       <c r="F27" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G27" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I27">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J27" t="s">
         <v>55</v>
       </c>
       <c r="K27">
-        <v>2.875</v>
+        <v>1.7</v>
       </c>
       <c r="L27">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M27">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
       <c r="N27">
-        <v>2.45</v>
+        <v>1.666</v>
       </c>
       <c r="O27">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P27">
-        <v>2.55</v>
+        <v>4.75</v>
       </c>
       <c r="Q27">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R27">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S27">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T27">
         <v>2.75</v>
       </c>
       <c r="U27">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V27">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W27">
         <v>-1</v>
@@ -2940,19 +2940,19 @@
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>1.55</v>
+        <v>3.75</v>
       </c>
       <c r="Z27">
         <v>-1</v>
       </c>
       <c r="AA27">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AB27">
-        <v>0.925</v>
+        <v>0.475</v>
       </c>
       <c r="AC27">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2960,7 +2960,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6126615</v>
+        <v>6126609</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2972,55 +2972,55 @@
         <v>45094.83333333334</v>
       </c>
       <c r="F28" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G28" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J28" t="s">
         <v>55</v>
       </c>
       <c r="K28">
-        <v>1.7</v>
+        <v>2.875</v>
       </c>
       <c r="L28">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M28">
-        <v>4.5</v>
+        <v>2.2</v>
       </c>
       <c r="N28">
-        <v>1.666</v>
+        <v>2.45</v>
       </c>
       <c r="O28">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P28">
-        <v>4.75</v>
+        <v>2.55</v>
       </c>
       <c r="Q28">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R28">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S28">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T28">
         <v>2.75</v>
       </c>
       <c r="U28">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V28">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W28">
         <v>-1</v>
@@ -3029,19 +3029,19 @@
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>3.75</v>
+        <v>1.55</v>
       </c>
       <c r="Z28">
         <v>-1</v>
       </c>
       <c r="AA28">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AB28">
-        <v>0.475</v>
+        <v>0.925</v>
       </c>
       <c r="AC28">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3331,7 +3331,7 @@
         <v>36</v>
       </c>
       <c r="G32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H32">
         <v>2</v>
@@ -3420,7 +3420,7 @@
         <v>30</v>
       </c>
       <c r="G33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H33">
         <v>2</v>
@@ -3684,10 +3684,10 @@
         <v>45094.97916666666</v>
       </c>
       <c r="F36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H36">
         <v>2</v>
@@ -3850,7 +3850,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6126619</v>
+        <v>6126617</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3862,13 +3862,13 @@
         <v>45098.875</v>
       </c>
       <c r="F38" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G38" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -3877,43 +3877,43 @@
         <v>57</v>
       </c>
       <c r="K38">
-        <v>2.1</v>
+        <v>1.615</v>
       </c>
       <c r="L38">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M38">
+        <v>4.333</v>
+      </c>
+      <c r="N38">
+        <v>1.5</v>
+      </c>
+      <c r="O38">
+        <v>4.2</v>
+      </c>
+      <c r="P38">
+        <v>4.75</v>
+      </c>
+      <c r="Q38">
+        <v>-1</v>
+      </c>
+      <c r="R38">
+        <v>1.825</v>
+      </c>
+      <c r="S38">
+        <v>1.975</v>
+      </c>
+      <c r="T38">
         <v>3</v>
       </c>
-      <c r="N38">
-        <v>2.15</v>
-      </c>
-      <c r="O38">
-        <v>3.4</v>
-      </c>
-      <c r="P38">
-        <v>2.875</v>
-      </c>
-      <c r="Q38">
-        <v>-0.25</v>
-      </c>
-      <c r="R38">
-        <v>1.975</v>
-      </c>
-      <c r="S38">
-        <v>1.825</v>
-      </c>
-      <c r="T38">
-        <v>2.75</v>
-      </c>
       <c r="U38">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V38">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="W38">
-        <v>1.15</v>
+        <v>0.5</v>
       </c>
       <c r="X38">
         <v>-1</v>
@@ -3922,16 +3922,16 @@
         <v>-1</v>
       </c>
       <c r="Z38">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA38">
         <v>-1</v>
       </c>
       <c r="AB38">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC38">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3939,7 +3939,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6126617</v>
+        <v>6126619</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3951,13 +3951,13 @@
         <v>45098.875</v>
       </c>
       <c r="F39" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G39" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="H39">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -3966,43 +3966,43 @@
         <v>57</v>
       </c>
       <c r="K39">
-        <v>1.615</v>
+        <v>2.1</v>
       </c>
       <c r="L39">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M39">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="N39">
-        <v>1.5</v>
+        <v>2.15</v>
       </c>
       <c r="O39">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P39">
-        <v>4.75</v>
+        <v>2.875</v>
       </c>
       <c r="Q39">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R39">
+        <v>1.975</v>
+      </c>
+      <c r="S39">
         <v>1.825</v>
       </c>
-      <c r="S39">
+      <c r="T39">
+        <v>2.75</v>
+      </c>
+      <c r="U39">
         <v>1.975</v>
       </c>
-      <c r="T39">
-        <v>3</v>
-      </c>
-      <c r="U39">
-        <v>1.95</v>
-      </c>
       <c r="V39">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="W39">
-        <v>0.5</v>
+        <v>1.15</v>
       </c>
       <c r="X39">
         <v>-1</v>
@@ -4011,16 +4011,16 @@
         <v>-1</v>
       </c>
       <c r="Z39">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA39">
+        <v>-1</v>
+      </c>
+      <c r="AB39">
+        <v>-1</v>
+      </c>
+      <c r="AC39">
         <v>0.825</v>
-      </c>
-      <c r="AA39">
-        <v>-1</v>
-      </c>
-      <c r="AB39">
-        <v>0.95</v>
-      </c>
-      <c r="AC39">
-        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4132,7 +4132,7 @@
         <v>36</v>
       </c>
       <c r="G41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H41">
         <v>1</v>
@@ -4574,10 +4574,10 @@
         <v>45101.875</v>
       </c>
       <c r="F46" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H46">
         <v>1</v>
@@ -4844,7 +4844,7 @@
         <v>50</v>
       </c>
       <c r="G49" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -5111,7 +5111,7 @@
         <v>50</v>
       </c>
       <c r="G52" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H52">
         <v>0</v>
@@ -5467,7 +5467,7 @@
         <v>32</v>
       </c>
       <c r="G56" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -5541,7 +5541,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6126641</v>
+        <v>6126633</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5553,52 +5553,52 @@
         <v>45108.91666666666</v>
       </c>
       <c r="F57" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G57" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H57">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" t="s">
         <v>57</v>
       </c>
       <c r="K57">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L57">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M57">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="N57">
         <v>1.666</v>
       </c>
       <c r="O57">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P57">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q57">
         <v>-0.75</v>
       </c>
       <c r="R57">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S57">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T57">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U57">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="V57">
         <v>1.95</v>
@@ -5613,16 +5613,16 @@
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA57">
         <v>-1</v>
       </c>
       <c r="AB57">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC57">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5630,7 +5630,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6126633</v>
+        <v>6126641</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5642,52 +5642,52 @@
         <v>45108.91666666666</v>
       </c>
       <c r="F58" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="s">
         <v>57</v>
       </c>
       <c r="K58">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="L58">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M58">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="N58">
         <v>1.666</v>
       </c>
       <c r="O58">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P58">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q58">
         <v>-0.75</v>
       </c>
       <c r="R58">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S58">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T58">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U58">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="V58">
         <v>1.95</v>
@@ -5702,16 +5702,16 @@
         <v>-1</v>
       </c>
       <c r="Z58">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA58">
         <v>-1</v>
       </c>
       <c r="AB58">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC58">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5909,7 +5909,7 @@
         <v>45108.97916666666</v>
       </c>
       <c r="F61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G61" t="s">
         <v>33</v>
@@ -6001,7 +6001,7 @@
         <v>51</v>
       </c>
       <c r="G62" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H62">
         <v>1</v>
@@ -6087,7 +6087,7 @@
         <v>45109</v>
       </c>
       <c r="F63" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G63" t="s">
         <v>34</v>
@@ -6265,7 +6265,7 @@
         <v>45111.91666666666</v>
       </c>
       <c r="F65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G65" t="s">
         <v>36</v>
@@ -6802,7 +6802,7 @@
         <v>47</v>
       </c>
       <c r="G71" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H71">
         <v>2</v>
@@ -7066,7 +7066,7 @@
         <v>45115.91666666666</v>
       </c>
       <c r="F74" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G74" t="s">
         <v>39</v>
@@ -7244,7 +7244,7 @@
         <v>45115.97916666666</v>
       </c>
       <c r="F76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G76" t="s">
         <v>48</v>
@@ -7333,7 +7333,7 @@
         <v>45116.875</v>
       </c>
       <c r="F77" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G77" t="s">
         <v>38</v>
@@ -7600,7 +7600,7 @@
         <v>45119.875</v>
       </c>
       <c r="F80" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G80" t="s">
         <v>32</v>
@@ -8211,7 +8211,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6126662</v>
+        <v>6126665</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8223,76 +8223,76 @@
         <v>45122.85416666666</v>
       </c>
       <c r="F87" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G87" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H87">
         <v>1</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J87" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K87">
+        <v>2.375</v>
+      </c>
+      <c r="L87">
+        <v>3.4</v>
+      </c>
+      <c r="M87">
+        <v>2.5</v>
+      </c>
+      <c r="N87">
+        <v>2.45</v>
+      </c>
+      <c r="O87">
+        <v>3.5</v>
+      </c>
+      <c r="P87">
         <v>2.4</v>
-      </c>
-      <c r="L87">
-        <v>3.2</v>
-      </c>
-      <c r="M87">
-        <v>2.625</v>
-      </c>
-      <c r="N87">
-        <v>2.55</v>
-      </c>
-      <c r="O87">
-        <v>3.2</v>
-      </c>
-      <c r="P87">
-        <v>2.45</v>
       </c>
       <c r="Q87">
         <v>0</v>
       </c>
       <c r="R87">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S87">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T87">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U87">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V87">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W87">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X87">
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z87">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA87">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB87">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC87">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8300,7 +8300,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6126665</v>
+        <v>6126662</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8312,76 +8312,76 @@
         <v>45122.85416666666</v>
       </c>
       <c r="F88" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="G88" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H88">
         <v>1</v>
       </c>
       <c r="I88">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J88" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K88">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="L88">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M88">
-        <v>2.5</v>
+        <v>2.625</v>
       </c>
       <c r="N88">
+        <v>2.55</v>
+      </c>
+      <c r="O88">
+        <v>3.2</v>
+      </c>
+      <c r="P88">
         <v>2.45</v>
-      </c>
-      <c r="O88">
-        <v>3.5</v>
-      </c>
-      <c r="P88">
-        <v>2.4</v>
       </c>
       <c r="Q88">
         <v>0</v>
       </c>
       <c r="R88">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S88">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T88">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U88">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V88">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W88">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X88">
         <v>-1</v>
       </c>
       <c r="Y88">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z88">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA88">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB88">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC88">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8493,7 +8493,7 @@
         <v>46</v>
       </c>
       <c r="G90" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H90">
         <v>1</v>
@@ -8760,7 +8760,7 @@
         <v>52</v>
       </c>
       <c r="G93" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H93">
         <v>2</v>
@@ -8849,7 +8849,7 @@
         <v>49</v>
       </c>
       <c r="G94" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H94">
         <v>2</v>
@@ -9202,7 +9202,7 @@
         <v>45129.875</v>
       </c>
       <c r="F98" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G98" t="s">
         <v>48</v>
@@ -9368,7 +9368,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6126681</v>
+        <v>6126679</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9380,76 +9380,76 @@
         <v>45129.91666666666</v>
       </c>
       <c r="F100" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G100" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H100">
+        <v>3</v>
+      </c>
+      <c r="I100">
         <v>0</v>
       </c>
-      <c r="I100">
-        <v>1</v>
-      </c>
       <c r="J100" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K100">
-        <v>1.571</v>
+        <v>2.75</v>
       </c>
       <c r="L100">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M100">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="N100">
-        <v>1.45</v>
+        <v>2.5</v>
       </c>
       <c r="O100">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="P100">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q100">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R100">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S100">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T100">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U100">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V100">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W100">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X100">
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Z100">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA100">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB100">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC100">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9457,7 +9457,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6126679</v>
+        <v>6126681</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9469,76 +9469,76 @@
         <v>45129.91666666666</v>
       </c>
       <c r="F101" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G101" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H101">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K101">
+        <v>1.571</v>
+      </c>
+      <c r="L101">
+        <v>3.75</v>
+      </c>
+      <c r="M101">
+        <v>5</v>
+      </c>
+      <c r="N101">
+        <v>1.45</v>
+      </c>
+      <c r="O101">
+        <v>4.2</v>
+      </c>
+      <c r="P101">
+        <v>5.5</v>
+      </c>
+      <c r="Q101">
+        <v>-1</v>
+      </c>
+      <c r="R101">
+        <v>1.8</v>
+      </c>
+      <c r="S101">
+        <v>2</v>
+      </c>
+      <c r="T101">
         <v>2.75</v>
       </c>
-      <c r="L101">
-        <v>3.3</v>
-      </c>
-      <c r="M101">
-        <v>2.3</v>
-      </c>
-      <c r="N101">
-        <v>2.5</v>
-      </c>
-      <c r="O101">
-        <v>3.3</v>
-      </c>
-      <c r="P101">
-        <v>2.5</v>
-      </c>
-      <c r="Q101">
-        <v>0</v>
-      </c>
-      <c r="R101">
-        <v>1.9</v>
-      </c>
-      <c r="S101">
-        <v>1.9</v>
-      </c>
-      <c r="T101">
-        <v>2.5</v>
-      </c>
       <c r="U101">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V101">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W101">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X101">
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Z101">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA101">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB101">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC101">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9635,7 +9635,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6126680</v>
+        <v>6126676</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9650,73 +9650,73 @@
         <v>45</v>
       </c>
       <c r="G103" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J103" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K103">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="L103">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M103">
+        <v>3.6</v>
+      </c>
+      <c r="N103">
+        <v>1.75</v>
+      </c>
+      <c r="O103">
+        <v>4</v>
+      </c>
+      <c r="P103">
         <v>3.5</v>
       </c>
-      <c r="N103">
-        <v>1.7</v>
-      </c>
-      <c r="O103">
-        <v>3.8</v>
-      </c>
-      <c r="P103">
-        <v>4</v>
-      </c>
       <c r="Q103">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R103">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S103">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T103">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U103">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V103">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W103">
         <v>-1</v>
       </c>
       <c r="X103">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y103">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z103">
         <v>-1</v>
       </c>
       <c r="AA103">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB103">
         <v>-1</v>
       </c>
       <c r="AC103">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9724,7 +9724,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6126676</v>
+        <v>6126680</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9739,73 +9739,73 @@
         <v>44</v>
       </c>
       <c r="G104" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K104">
+        <v>1.909</v>
+      </c>
+      <c r="L104">
+        <v>3.4</v>
+      </c>
+      <c r="M104">
+        <v>3.5</v>
+      </c>
+      <c r="N104">
+        <v>1.7</v>
+      </c>
+      <c r="O104">
+        <v>3.8</v>
+      </c>
+      <c r="P104">
+        <v>4</v>
+      </c>
+      <c r="Q104">
+        <v>-0.75</v>
+      </c>
+      <c r="R104">
+        <v>2</v>
+      </c>
+      <c r="S104">
+        <v>1.8</v>
+      </c>
+      <c r="T104">
+        <v>3</v>
+      </c>
+      <c r="U104">
+        <v>1.95</v>
+      </c>
+      <c r="V104">
         <v>1.85</v>
       </c>
-      <c r="L104">
-        <v>3.5</v>
-      </c>
-      <c r="M104">
-        <v>3.6</v>
-      </c>
-      <c r="N104">
-        <v>1.75</v>
-      </c>
-      <c r="O104">
-        <v>4</v>
-      </c>
-      <c r="P104">
-        <v>3.5</v>
-      </c>
-      <c r="Q104">
-        <v>-0.5</v>
-      </c>
-      <c r="R104">
-        <v>1.825</v>
-      </c>
-      <c r="S104">
-        <v>1.975</v>
-      </c>
-      <c r="T104">
-        <v>3.25</v>
-      </c>
-      <c r="U104">
-        <v>1.975</v>
-      </c>
-      <c r="V104">
-        <v>1.825</v>
-      </c>
       <c r="W104">
         <v>-1</v>
       </c>
       <c r="X104">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y104">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z104">
         <v>-1</v>
       </c>
       <c r="AA104">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB104">
         <v>-1</v>
       </c>
       <c r="AC104">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9917,7 +9917,7 @@
         <v>50</v>
       </c>
       <c r="G106" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H106">
         <v>1</v>
@@ -10006,7 +10006,7 @@
         <v>51</v>
       </c>
       <c r="G107" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H107">
         <v>4</v>
@@ -10448,7 +10448,7 @@
         <v>45136.875</v>
       </c>
       <c r="F112" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G112" t="s">
         <v>41</v>
@@ -10537,7 +10537,7 @@
         <v>45136.875</v>
       </c>
       <c r="F113" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G113" t="s">
         <v>46</v>
@@ -10896,7 +10896,7 @@
         <v>37</v>
       </c>
       <c r="G117" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H117">
         <v>0</v>
@@ -10982,7 +10982,7 @@
         <v>45136.97916666666</v>
       </c>
       <c r="F118" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G118" t="s">
         <v>51</v>
@@ -11341,7 +11341,7 @@
         <v>49</v>
       </c>
       <c r="G122" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H122">
         <v>0</v>
@@ -11860,7 +11860,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6126707</v>
+        <v>6126704</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11872,55 +11872,55 @@
         <v>45143.95833333334</v>
       </c>
       <c r="F128" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G128" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="H128">
+        <v>0</v>
+      </c>
+      <c r="I128">
         <v>1</v>
-      </c>
-      <c r="I128">
-        <v>3</v>
       </c>
       <c r="J128" t="s">
         <v>55</v>
       </c>
       <c r="K128">
+        <v>2.5</v>
+      </c>
+      <c r="L128">
+        <v>3.2</v>
+      </c>
+      <c r="M128">
+        <v>2.5</v>
+      </c>
+      <c r="N128">
+        <v>3.4</v>
+      </c>
+      <c r="O128">
+        <v>3.1</v>
+      </c>
+      <c r="P128">
         <v>2.05</v>
       </c>
-      <c r="L128">
-        <v>3.5</v>
-      </c>
-      <c r="M128">
-        <v>2.9</v>
-      </c>
-      <c r="N128">
-        <v>1.727</v>
-      </c>
-      <c r="O128">
-        <v>3.75</v>
-      </c>
-      <c r="P128">
-        <v>3.6</v>
-      </c>
       <c r="Q128">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R128">
-        <v>1.75</v>
+        <v>1.725</v>
       </c>
       <c r="S128">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T128">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U128">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V128">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W128">
         <v>-1</v>
@@ -11929,19 +11929,19 @@
         <v>-1</v>
       </c>
       <c r="Y128">
-        <v>2.6</v>
+        <v>1.05</v>
       </c>
       <c r="Z128">
         <v>-1</v>
       </c>
       <c r="AA128">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB128">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC128">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11949,7 +11949,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6126704</v>
+        <v>6126707</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11961,55 +11961,55 @@
         <v>45143.95833333334</v>
       </c>
       <c r="F129" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G129" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I129">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J129" t="s">
         <v>55</v>
       </c>
       <c r="K129">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="L129">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M129">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="N129">
-        <v>3.4</v>
+        <v>1.727</v>
       </c>
       <c r="O129">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P129">
-        <v>2.05</v>
+        <v>3.6</v>
       </c>
       <c r="Q129">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R129">
-        <v>1.725</v>
+        <v>1.75</v>
       </c>
       <c r="S129">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T129">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U129">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V129">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W129">
         <v>-1</v>
@@ -12018,19 +12018,19 @@
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>1.05</v>
+        <v>2.6</v>
       </c>
       <c r="Z129">
         <v>-1</v>
       </c>
       <c r="AA129">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB129">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC129">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12050,10 +12050,10 @@
         <v>45143.97916666666</v>
       </c>
       <c r="F130" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G130" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H130">
         <v>2</v>
@@ -12139,7 +12139,7 @@
         <v>45144</v>
       </c>
       <c r="F131" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G131" t="s">
         <v>35</v>
@@ -12228,7 +12228,7 @@
         <v>45147.875</v>
       </c>
       <c r="F132" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G132" t="s">
         <v>29</v>
@@ -12305,7 +12305,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6126709</v>
+        <v>6126712</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12317,49 +12317,49 @@
         <v>45147.91666666666</v>
       </c>
       <c r="F133" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G133" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H133">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J133" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K133">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="L133">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M133">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="N133">
-        <v>2.6</v>
+        <v>1.615</v>
       </c>
       <c r="O133">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="P133">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q133">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R133">
+        <v>1.75</v>
+      </c>
+      <c r="S133">
         <v>1.95</v>
       </c>
-      <c r="S133">
-        <v>1.85</v>
-      </c>
       <c r="T133">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U133">
         <v>1.95</v>
@@ -12368,25 +12368,25 @@
         <v>1.85</v>
       </c>
       <c r="W133">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X133">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y133">
         <v>-1</v>
       </c>
       <c r="Z133">
+        <v>-1</v>
+      </c>
+      <c r="AA133">
         <v>0.95</v>
       </c>
-      <c r="AA133">
-        <v>-1</v>
-      </c>
       <c r="AB133">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC133">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12394,7 +12394,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6126712</v>
+        <v>6126709</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12406,49 +12406,49 @@
         <v>45147.91666666666</v>
       </c>
       <c r="F134" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G134" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J134" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K134">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="L134">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M134">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="N134">
-        <v>1.615</v>
+        <v>2.6</v>
       </c>
       <c r="O134">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="P134">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q134">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R134">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S134">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T134">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U134">
         <v>1.95</v>
@@ -12457,25 +12457,25 @@
         <v>1.85</v>
       </c>
       <c r="W134">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X134">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y134">
         <v>-1</v>
       </c>
       <c r="Z134">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA134">
+        <v>-1</v>
+      </c>
+      <c r="AB134">
         <v>0.95</v>
       </c>
-      <c r="AB134">
-        <v>-1</v>
-      </c>
       <c r="AC134">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12661,7 +12661,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6126714</v>
+        <v>6126713</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12673,76 +12673,76 @@
         <v>45150.85416666666</v>
       </c>
       <c r="F137" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G137" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I137">
         <v>1</v>
       </c>
       <c r="J137" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K137">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="L137">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M137">
         <v>2.5</v>
       </c>
       <c r="N137">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="O137">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P137">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="Q137">
         <v>0</v>
       </c>
       <c r="R137">
+        <v>1.95</v>
+      </c>
+      <c r="S137">
+        <v>1.85</v>
+      </c>
+      <c r="T137">
+        <v>2.5</v>
+      </c>
+      <c r="U137">
         <v>1.875</v>
       </c>
-      <c r="S137">
+      <c r="V137">
         <v>1.925</v>
       </c>
-      <c r="T137">
-        <v>2.25</v>
-      </c>
-      <c r="U137">
-        <v>1.95</v>
-      </c>
-      <c r="V137">
-        <v>1.85</v>
-      </c>
       <c r="W137">
         <v>-1</v>
       </c>
       <c r="X137">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y137">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z137">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA137">
+        <v>-0</v>
+      </c>
+      <c r="AB137">
+        <v>-1</v>
+      </c>
+      <c r="AC137">
         <v>0.925</v>
-      </c>
-      <c r="AB137">
-        <v>-1</v>
-      </c>
-      <c r="AC137">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12750,7 +12750,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6126713</v>
+        <v>6126721</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12762,46 +12762,46 @@
         <v>45150.85416666666</v>
       </c>
       <c r="F138" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="G138" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I138">
         <v>1</v>
       </c>
       <c r="J138" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K138">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="L138">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="M138">
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="N138">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="O138">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P138">
-        <v>2.4</v>
+        <v>5.25</v>
       </c>
       <c r="Q138">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R138">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S138">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T138">
         <v>2.5</v>
@@ -12813,25 +12813,25 @@
         <v>1.925</v>
       </c>
       <c r="W138">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X138">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y138">
         <v>-1</v>
       </c>
       <c r="Z138">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA138">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB138">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC138">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12839,7 +12839,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6126721</v>
+        <v>6126714</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12851,76 +12851,76 @@
         <v>45150.85416666666</v>
       </c>
       <c r="F139" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="G139" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H139">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I139">
         <v>1</v>
       </c>
       <c r="J139" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K139">
-        <v>1.4</v>
+        <v>2.45</v>
       </c>
       <c r="L139">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="M139">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="N139">
+        <v>2.45</v>
+      </c>
+      <c r="O139">
+        <v>3.2</v>
+      </c>
+      <c r="P139">
+        <v>2.5</v>
+      </c>
+      <c r="Q139">
+        <v>0</v>
+      </c>
+      <c r="R139">
+        <v>1.875</v>
+      </c>
+      <c r="S139">
+        <v>1.925</v>
+      </c>
+      <c r="T139">
+        <v>2.25</v>
+      </c>
+      <c r="U139">
+        <v>1.95</v>
+      </c>
+      <c r="V139">
+        <v>1.85</v>
+      </c>
+      <c r="W139">
+        <v>-1</v>
+      </c>
+      <c r="X139">
+        <v>-1</v>
+      </c>
+      <c r="Y139">
         <v>1.5</v>
       </c>
-      <c r="O139">
-        <v>4</v>
-      </c>
-      <c r="P139">
-        <v>5.25</v>
-      </c>
-      <c r="Q139">
-        <v>-1</v>
-      </c>
-      <c r="R139">
-        <v>1.825</v>
-      </c>
-      <c r="S139">
-        <v>1.975</v>
-      </c>
-      <c r="T139">
-        <v>2.5</v>
-      </c>
-      <c r="U139">
-        <v>1.875</v>
-      </c>
-      <c r="V139">
-        <v>1.925</v>
-      </c>
-      <c r="W139">
-        <v>0.5</v>
-      </c>
-      <c r="X139">
-        <v>-1</v>
-      </c>
-      <c r="Y139">
-        <v>-1</v>
-      </c>
       <c r="Z139">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA139">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB139">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC139">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12940,10 +12940,10 @@
         <v>45150.875</v>
       </c>
       <c r="F140" t="s">
+        <v>43</v>
+      </c>
+      <c r="G140" t="s">
         <v>42</v>
-      </c>
-      <c r="G140" t="s">
-        <v>43</v>
       </c>
       <c r="H140">
         <v>2</v>
@@ -13296,7 +13296,7 @@
         <v>45150.97916666666</v>
       </c>
       <c r="F144" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G144" t="s">
         <v>39</v>
@@ -13385,7 +13385,7 @@
         <v>45151</v>
       </c>
       <c r="F145" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G145" t="s">
         <v>46</v>
@@ -13477,7 +13477,7 @@
         <v>35</v>
       </c>
       <c r="G146" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H146">
         <v>2</v>
@@ -13744,7 +13744,7 @@
         <v>48</v>
       </c>
       <c r="G149" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H149">
         <v>2</v>
@@ -14011,7 +14011,7 @@
         <v>52</v>
       </c>
       <c r="G152" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H152">
         <v>1</v>
@@ -14097,10 +14097,10 @@
         <v>45157.875</v>
       </c>
       <c r="F153" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G153" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H153">
         <v>1</v>
@@ -14708,7 +14708,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6126739</v>
+        <v>6126741</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14720,76 +14720,76 @@
         <v>45161.875</v>
       </c>
       <c r="F160" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="G160" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J160" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K160">
-        <v>2.55</v>
+        <v>1.909</v>
       </c>
       <c r="L160">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M160">
-        <v>2.625</v>
+        <v>3.7</v>
       </c>
       <c r="N160">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="O160">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P160">
-        <v>2.375</v>
+        <v>3.4</v>
       </c>
       <c r="Q160">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R160">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="S160">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="T160">
         <v>2.75</v>
       </c>
       <c r="U160">
+        <v>1.95</v>
+      </c>
+      <c r="V160">
         <v>1.85</v>
       </c>
-      <c r="V160">
-        <v>1.95</v>
-      </c>
       <c r="W160">
         <v>-1</v>
       </c>
       <c r="X160">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y160">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z160">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA160">
-        <v>0.7749999999999999</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB160">
+        <v>-1</v>
+      </c>
+      <c r="AC160">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC160">
-        <v>-1</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -14797,7 +14797,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6126741</v>
+        <v>6126739</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14809,76 +14809,76 @@
         <v>45161.875</v>
       </c>
       <c r="F161" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="G161" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H161">
+        <v>1</v>
+      </c>
+      <c r="I161">
+        <v>3</v>
+      </c>
+      <c r="J161" t="s">
+        <v>55</v>
+      </c>
+      <c r="K161">
+        <v>2.55</v>
+      </c>
+      <c r="L161">
+        <v>3.3</v>
+      </c>
+      <c r="M161">
+        <v>2.625</v>
+      </c>
+      <c r="N161">
+        <v>2.7</v>
+      </c>
+      <c r="O161">
+        <v>3.5</v>
+      </c>
+      <c r="P161">
+        <v>2.375</v>
+      </c>
+      <c r="Q161">
         <v>0</v>
       </c>
-      <c r="I161">
-        <v>0</v>
-      </c>
-      <c r="J161" t="s">
-        <v>56</v>
-      </c>
-      <c r="K161">
-        <v>1.909</v>
-      </c>
-      <c r="L161">
-        <v>3.5</v>
-      </c>
-      <c r="M161">
-        <v>3.7</v>
-      </c>
-      <c r="N161">
-        <v>2</v>
-      </c>
-      <c r="O161">
-        <v>3.4</v>
-      </c>
-      <c r="P161">
-        <v>3.4</v>
-      </c>
-      <c r="Q161">
-        <v>-0.25</v>
-      </c>
       <c r="R161">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="S161">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="T161">
         <v>2.75</v>
       </c>
       <c r="U161">
+        <v>1.85</v>
+      </c>
+      <c r="V161">
         <v>1.95</v>
       </c>
-      <c r="V161">
-        <v>1.85</v>
-      </c>
       <c r="W161">
         <v>-1</v>
       </c>
       <c r="X161">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y161">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z161">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA161">
-        <v>0.5249999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB161">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC161">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -15242,7 +15242,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6126743</v>
+        <v>6126747</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15254,16 +15254,16 @@
         <v>45164.85416666666</v>
       </c>
       <c r="F166" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G166" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="H166">
+        <v>2</v>
+      </c>
+      <c r="I166">
         <v>1</v>
-      </c>
-      <c r="I166">
-        <v>0</v>
       </c>
       <c r="J166" t="s">
         <v>57</v>
@@ -15278,34 +15278,34 @@
         <v>3.25</v>
       </c>
       <c r="N166">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="O166">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P166">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="Q166">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R166">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S166">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T166">
         <v>2.5</v>
       </c>
       <c r="U166">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V166">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W166">
-        <v>1.1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X166">
         <v>-1</v>
@@ -15314,16 +15314,16 @@
         <v>-1</v>
       </c>
       <c r="Z166">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA166">
         <v>-1</v>
       </c>
       <c r="AB166">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC166">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15331,7 +15331,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6126747</v>
+        <v>6126743</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15343,16 +15343,16 @@
         <v>45164.85416666666</v>
       </c>
       <c r="F167" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G167" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J167" t="s">
         <v>57</v>
@@ -15367,34 +15367,34 @@
         <v>3.25</v>
       </c>
       <c r="N167">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="O167">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P167">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q167">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R167">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S167">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T167">
         <v>2.5</v>
       </c>
       <c r="U167">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V167">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W167">
-        <v>0.8500000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="X167">
         <v>-1</v>
@@ -15403,16 +15403,16 @@
         <v>-1</v>
       </c>
       <c r="Z167">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA167">
         <v>-1</v>
       </c>
       <c r="AB167">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC167">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15432,7 +15432,7 @@
         <v>45164.875</v>
       </c>
       <c r="F168" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G168" t="s">
         <v>40</v>
@@ -15877,10 +15877,10 @@
         <v>45164.97916666666</v>
       </c>
       <c r="F173" t="s">
+        <v>45</v>
+      </c>
+      <c r="G173" t="s">
         <v>44</v>
-      </c>
-      <c r="G173" t="s">
-        <v>45</v>
       </c>
       <c r="H173">
         <v>2</v>
@@ -16055,7 +16055,7 @@
         <v>45168.875</v>
       </c>
       <c r="F175" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G175" t="s">
         <v>35</v>
@@ -16147,7 +16147,7 @@
         <v>36</v>
       </c>
       <c r="G176" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H176">
         <v>3</v>
@@ -16233,7 +16233,7 @@
         <v>45168.97916666666</v>
       </c>
       <c r="F177" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G177" t="s">
         <v>51</v>
@@ -16399,7 +16399,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6126759</v>
+        <v>6126766</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16411,76 +16411,76 @@
         <v>45171.85416666666</v>
       </c>
       <c r="F179" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="G179" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I179">
         <v>1</v>
       </c>
       <c r="J179" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K179">
-        <v>2.9</v>
+        <v>1.333</v>
       </c>
       <c r="L179">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="M179">
-        <v>2.2</v>
+        <v>7.5</v>
       </c>
       <c r="N179">
-        <v>2.6</v>
+        <v>1.045</v>
       </c>
       <c r="O179">
-        <v>3.25</v>
+        <v>11</v>
       </c>
       <c r="P179">
-        <v>2.5</v>
+        <v>19</v>
       </c>
       <c r="Q179">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="R179">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S179">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T179">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U179">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="V179">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W179">
-        <v>-1</v>
+        <v>0.04499999999999993</v>
       </c>
       <c r="X179">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y179">
         <v>-1</v>
       </c>
       <c r="Z179">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA179">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
       <c r="AB179">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC179">
-        <v>-0</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16488,7 +16488,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6126766</v>
+        <v>6126759</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16500,76 +16500,76 @@
         <v>45171.85416666666</v>
       </c>
       <c r="F180" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="G180" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I180">
         <v>1</v>
       </c>
       <c r="J180" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K180">
-        <v>1.333</v>
+        <v>2.9</v>
       </c>
       <c r="L180">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="M180">
-        <v>7.5</v>
+        <v>2.2</v>
       </c>
       <c r="N180">
-        <v>1.045</v>
+        <v>2.6</v>
       </c>
       <c r="O180">
-        <v>11</v>
+        <v>3.25</v>
       </c>
       <c r="P180">
-        <v>19</v>
+        <v>2.5</v>
       </c>
       <c r="Q180">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="R180">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S180">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T180">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U180">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="V180">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W180">
-        <v>0.04499999999999993</v>
+        <v>-1</v>
       </c>
       <c r="X180">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y180">
         <v>-1</v>
       </c>
       <c r="Z180">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA180">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
       <c r="AB180">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC180">
-        <v>1.05</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16681,7 +16681,7 @@
         <v>30</v>
       </c>
       <c r="G182" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H182">
         <v>2</v>
@@ -16933,7 +16933,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>6126765</v>
+        <v>6126762</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16948,73 +16948,73 @@
         <v>45</v>
       </c>
       <c r="G185" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I185">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J185" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K185">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="L185">
+        <v>3.4</v>
+      </c>
+      <c r="M185">
+        <v>2</v>
+      </c>
+      <c r="N185">
+        <v>2.9</v>
+      </c>
+      <c r="O185">
         <v>3.5</v>
       </c>
-      <c r="M185">
-        <v>3.2</v>
-      </c>
-      <c r="N185">
-        <v>1.909</v>
-      </c>
-      <c r="O185">
-        <v>3.75</v>
-      </c>
       <c r="P185">
-        <v>3.3</v>
+        <v>2.15</v>
       </c>
       <c r="Q185">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R185">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S185">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T185">
         <v>2.75</v>
       </c>
       <c r="U185">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V185">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W185">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X185">
         <v>-1</v>
       </c>
       <c r="Y185">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z185">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA185">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB185">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC185">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -17022,7 +17022,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>6126762</v>
+        <v>6126765</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17037,73 +17037,73 @@
         <v>44</v>
       </c>
       <c r="G186" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H186">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I186">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J186" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K186">
+        <v>2</v>
+      </c>
+      <c r="L186">
+        <v>3.5</v>
+      </c>
+      <c r="M186">
+        <v>3.2</v>
+      </c>
+      <c r="N186">
+        <v>1.909</v>
+      </c>
+      <c r="O186">
+        <v>3.75</v>
+      </c>
+      <c r="P186">
         <v>3.3</v>
       </c>
-      <c r="L186">
-        <v>3.4</v>
-      </c>
-      <c r="M186">
-        <v>2</v>
-      </c>
-      <c r="N186">
-        <v>2.9</v>
-      </c>
-      <c r="O186">
-        <v>3.5</v>
-      </c>
-      <c r="P186">
-        <v>2.15</v>
-      </c>
       <c r="Q186">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R186">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S186">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T186">
         <v>2.75</v>
       </c>
       <c r="U186">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V186">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W186">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X186">
         <v>-1</v>
       </c>
       <c r="Y186">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z186">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA186">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB186">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC186">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17467,7 +17467,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>6126770</v>
+        <v>6126772</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17479,58 +17479,58 @@
         <v>45178.85416666666</v>
       </c>
       <c r="F191" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="G191" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="H191">
         <v>2</v>
       </c>
       <c r="I191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J191" t="s">
         <v>57</v>
       </c>
       <c r="K191">
+        <v>2.1</v>
+      </c>
+      <c r="L191">
+        <v>3.25</v>
+      </c>
+      <c r="M191">
+        <v>3.1</v>
+      </c>
+      <c r="N191">
         <v>2.2</v>
       </c>
-      <c r="L191">
-        <v>3.3</v>
-      </c>
-      <c r="M191">
-        <v>2.875</v>
-      </c>
-      <c r="N191">
-        <v>2.15</v>
-      </c>
       <c r="O191">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P191">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="Q191">
         <v>-0.25</v>
       </c>
       <c r="R191">
+        <v>1.975</v>
+      </c>
+      <c r="S191">
+        <v>1.825</v>
+      </c>
+      <c r="T191">
+        <v>2.25</v>
+      </c>
+      <c r="U191">
         <v>1.95</v>
       </c>
-      <c r="S191">
+      <c r="V191">
         <v>1.85</v>
       </c>
-      <c r="T191">
-        <v>2.75</v>
-      </c>
-      <c r="U191">
-        <v>1.875</v>
-      </c>
-      <c r="V191">
-        <v>1.925</v>
-      </c>
       <c r="W191">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
       <c r="X191">
         <v>-1</v>
@@ -17539,16 +17539,16 @@
         <v>-1</v>
       </c>
       <c r="Z191">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA191">
+        <v>-1</v>
+      </c>
+      <c r="AB191">
         <v>0.95</v>
       </c>
-      <c r="AA191">
-        <v>-1</v>
-      </c>
-      <c r="AB191">
-        <v>-1</v>
-      </c>
       <c r="AC191">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -17556,7 +17556,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>6126772</v>
+        <v>6126779</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17568,10 +17568,10 @@
         <v>45178.85416666666</v>
       </c>
       <c r="F192" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="G192" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H192">
         <v>2</v>
@@ -17583,43 +17583,43 @@
         <v>57</v>
       </c>
       <c r="K192">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="L192">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M192">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="N192">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="O192">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P192">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Q192">
         <v>-0.25</v>
       </c>
       <c r="R192">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S192">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T192">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U192">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V192">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W192">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="X192">
         <v>-1</v>
@@ -17628,13 +17628,13 @@
         <v>-1</v>
       </c>
       <c r="Z192">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA192">
         <v>-1</v>
       </c>
       <c r="AB192">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC192">
         <v>-1</v>
@@ -17645,7 +17645,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>6126779</v>
+        <v>6126770</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17657,58 +17657,58 @@
         <v>45178.85416666666</v>
       </c>
       <c r="F193" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G193" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H193">
         <v>2</v>
       </c>
       <c r="I193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J193" t="s">
         <v>57</v>
       </c>
       <c r="K193">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="L193">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M193">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="N193">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="O193">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P193">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="Q193">
         <v>-0.25</v>
       </c>
       <c r="R193">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S193">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T193">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U193">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V193">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W193">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="X193">
         <v>-1</v>
@@ -17717,16 +17717,16 @@
         <v>-1</v>
       </c>
       <c r="Z193">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AA193">
         <v>-1</v>
       </c>
       <c r="AB193">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC193">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="194" spans="1:29">
@@ -17838,7 +17838,7 @@
         <v>49</v>
       </c>
       <c r="G195" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H195">
         <v>0</v>
@@ -18102,7 +18102,7 @@
         <v>45178.97916666666</v>
       </c>
       <c r="F198" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G198" t="s">
         <v>50</v>
@@ -18280,7 +18280,7 @@
         <v>45182.97916666666</v>
       </c>
       <c r="F200" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G200" t="s">
         <v>46</v>
@@ -18535,7 +18535,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>6126792</v>
+        <v>6126784</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18547,52 +18547,52 @@
         <v>45185.83333333334</v>
       </c>
       <c r="F203" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G203" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H203">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I203">
         <v>2</v>
       </c>
       <c r="J203" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K203">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="L203">
         <v>3.4</v>
       </c>
       <c r="M203">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="N203">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="O203">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P203">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="Q203">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R203">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S203">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T203">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U203">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="V203">
         <v>1.95</v>
@@ -18601,19 +18601,19 @@
         <v>-1</v>
       </c>
       <c r="X203">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y203">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z203">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA203">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB203">
-        <v>0.75</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC203">
         <v>-1</v>
@@ -18624,7 +18624,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>6126784</v>
+        <v>6126792</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18636,52 +18636,52 @@
         <v>45185.83333333334</v>
       </c>
       <c r="F204" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G204" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I204">
         <v>2</v>
       </c>
       <c r="J204" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K204">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="L204">
         <v>3.4</v>
       </c>
       <c r="M204">
+        <v>2.35</v>
+      </c>
+      <c r="N204">
+        <v>2.7</v>
+      </c>
+      <c r="O204">
+        <v>3.2</v>
+      </c>
+      <c r="P204">
+        <v>2.5</v>
+      </c>
+      <c r="Q204">
+        <v>0</v>
+      </c>
+      <c r="R204">
+        <v>1.975</v>
+      </c>
+      <c r="S204">
+        <v>1.825</v>
+      </c>
+      <c r="T204">
         <v>2.25</v>
       </c>
-      <c r="N204">
-        <v>3.8</v>
-      </c>
-      <c r="O204">
-        <v>3.4</v>
-      </c>
-      <c r="P204">
+      <c r="U204">
         <v>1.75</v>
-      </c>
-      <c r="Q204">
-        <v>0.75</v>
-      </c>
-      <c r="R204">
-        <v>1.75</v>
-      </c>
-      <c r="S204">
-        <v>1.95</v>
-      </c>
-      <c r="T204">
-        <v>2.75</v>
-      </c>
-      <c r="U204">
-        <v>1.85</v>
       </c>
       <c r="V204">
         <v>1.95</v>
@@ -18690,19 +18690,19 @@
         <v>-1</v>
       </c>
       <c r="X204">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y204">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z204">
+        <v>-1</v>
+      </c>
+      <c r="AA204">
+        <v>0.825</v>
+      </c>
+      <c r="AB204">
         <v>0.75</v>
-      </c>
-      <c r="AA204">
-        <v>-1</v>
-      </c>
-      <c r="AB204">
-        <v>0.8500000000000001</v>
       </c>
       <c r="AC204">
         <v>-1</v>
@@ -18725,7 +18725,7 @@
         <v>45185.85416666666</v>
       </c>
       <c r="F205" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G205" t="s">
         <v>40</v>
@@ -18980,7 +18980,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>6126788</v>
+        <v>6126787</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18992,76 +18992,76 @@
         <v>45185.95833333334</v>
       </c>
       <c r="F208" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="G208" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I208">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J208" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K208">
-        <v>1.8</v>
+        <v>1.727</v>
       </c>
       <c r="L208">
+        <v>3.75</v>
+      </c>
+      <c r="M208">
+        <v>4.2</v>
+      </c>
+      <c r="N208">
+        <v>1.833</v>
+      </c>
+      <c r="O208">
         <v>3.5</v>
       </c>
-      <c r="M208">
-        <v>4.1</v>
-      </c>
-      <c r="N208">
-        <v>1.7</v>
-      </c>
-      <c r="O208">
-        <v>3.6</v>
-      </c>
       <c r="P208">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Q208">
         <v>-0.75</v>
       </c>
       <c r="R208">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="S208">
-        <v>1.875</v>
+        <v>1.7</v>
       </c>
       <c r="T208">
         <v>2.75</v>
       </c>
       <c r="U208">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V208">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W208">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X208">
         <v>-1</v>
       </c>
       <c r="Y208">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z208">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="AA208">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB208">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC208">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -19069,7 +19069,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>6126790</v>
+        <v>6126788</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19081,34 +19081,34 @@
         <v>45185.95833333334</v>
       </c>
       <c r="F209" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G209" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H209">
+        <v>0</v>
+      </c>
+      <c r="I209">
         <v>1</v>
       </c>
-      <c r="I209">
-        <v>0</v>
-      </c>
       <c r="J209" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K209">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="L209">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="M209">
-        <v>5.5</v>
+        <v>4.1</v>
       </c>
       <c r="N209">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="O209">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P209">
         <v>4.5</v>
@@ -19117,40 +19117,40 @@
         <v>-0.75</v>
       </c>
       <c r="R209">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S209">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T209">
         <v>2.75</v>
       </c>
       <c r="U209">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V209">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W209">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X209">
         <v>-1</v>
       </c>
       <c r="Y209">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z209">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA209">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB209">
         <v>-1</v>
       </c>
       <c r="AC209">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="210" spans="1:29">
@@ -19158,7 +19158,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>6126787</v>
+        <v>6126790</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19170,46 +19170,46 @@
         <v>45185.95833333334</v>
       </c>
       <c r="F210" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="G210" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H210">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I210">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J210" t="s">
         <v>57</v>
       </c>
       <c r="K210">
-        <v>1.727</v>
+        <v>1.5</v>
       </c>
       <c r="L210">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M210">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="N210">
-        <v>1.833</v>
+        <v>1.65</v>
       </c>
       <c r="O210">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P210">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="Q210">
         <v>-0.75</v>
       </c>
       <c r="R210">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="S210">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="T210">
         <v>2.75</v>
@@ -19221,7 +19221,7 @@
         <v>1.85</v>
       </c>
       <c r="W210">
-        <v>0.833</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X210">
         <v>-1</v>
@@ -19230,16 +19230,16 @@
         <v>-1</v>
       </c>
       <c r="Z210">
-        <v>0.55</v>
+        <v>0.425</v>
       </c>
       <c r="AA210">
         <v>-0.5</v>
       </c>
       <c r="AB210">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC210">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="211" spans="1:29">
@@ -19259,7 +19259,7 @@
         <v>45185.97916666666</v>
       </c>
       <c r="F211" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G211" t="s">
         <v>52</v>
@@ -19348,7 +19348,7 @@
         <v>45186.92916666667</v>
       </c>
       <c r="F212" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G212" t="s">
         <v>48</v>
@@ -19440,7 +19440,7 @@
         <v>47</v>
       </c>
       <c r="G213" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H213">
         <v>4</v>
@@ -19603,7 +19603,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>6230627</v>
+        <v>6126795</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19615,76 +19615,76 @@
         <v>45189.95833333334</v>
       </c>
       <c r="F215" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="G215" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215">
+        <v>0</v>
+      </c>
+      <c r="J215" t="s">
+        <v>56</v>
+      </c>
+      <c r="K215">
+        <v>1.5</v>
+      </c>
+      <c r="L215">
+        <v>3.75</v>
+      </c>
+      <c r="M215">
+        <v>5.5</v>
+      </c>
+      <c r="N215">
+        <v>1.571</v>
+      </c>
+      <c r="O215">
+        <v>4.2</v>
+      </c>
+      <c r="P215">
+        <v>4.5</v>
+      </c>
+      <c r="Q215">
+        <v>-1</v>
+      </c>
+      <c r="R215">
+        <v>1.925</v>
+      </c>
+      <c r="S215">
+        <v>1.875</v>
+      </c>
+      <c r="T215">
         <v>3</v>
       </c>
-      <c r="J215" t="s">
-        <v>55</v>
-      </c>
-      <c r="K215">
-        <v>2.4</v>
-      </c>
-      <c r="L215">
-        <v>3.4</v>
-      </c>
-      <c r="M215">
-        <v>2.5</v>
-      </c>
-      <c r="N215">
-        <v>2.7</v>
-      </c>
-      <c r="O215">
-        <v>3.3</v>
-      </c>
-      <c r="P215">
-        <v>2.3</v>
-      </c>
-      <c r="Q215">
-        <v>0.25</v>
-      </c>
-      <c r="R215">
-        <v>1.725</v>
-      </c>
-      <c r="S215">
+      <c r="U215">
+        <v>1.825</v>
+      </c>
+      <c r="V215">
         <v>1.975</v>
       </c>
-      <c r="T215">
-        <v>2.75</v>
-      </c>
-      <c r="U215">
-        <v>1.9</v>
-      </c>
-      <c r="V215">
-        <v>1.9</v>
-      </c>
       <c r="W215">
         <v>-1</v>
       </c>
       <c r="X215">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y215">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z215">
         <v>-1</v>
       </c>
       <c r="AA215">
+        <v>0.875</v>
+      </c>
+      <c r="AB215">
+        <v>-1</v>
+      </c>
+      <c r="AC215">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB215">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC215">
-        <v>-1</v>
       </c>
     </row>
     <row r="216" spans="1:29">
@@ -19692,7 +19692,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>6126795</v>
+        <v>6230627</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19704,76 +19704,76 @@
         <v>45189.95833333334</v>
       </c>
       <c r="F216" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="G216" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J216" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K216">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="L216">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M216">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="N216">
-        <v>1.571</v>
+        <v>2.7</v>
       </c>
       <c r="O216">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="P216">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q216">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R216">
-        <v>1.925</v>
+        <v>1.725</v>
       </c>
       <c r="S216">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T216">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U216">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V216">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W216">
         <v>-1</v>
       </c>
       <c r="X216">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y216">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z216">
         <v>-1</v>
       </c>
       <c r="AA216">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB216">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC216">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -19793,7 +19793,7 @@
         <v>45189.97916666666</v>
       </c>
       <c r="F217" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G217" t="s">
         <v>41</v>
@@ -19885,7 +19885,7 @@
         <v>39</v>
       </c>
       <c r="G218" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H218">
         <v>1</v>
@@ -20508,7 +20508,7 @@
         <v>46</v>
       </c>
       <c r="G225" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H225">
         <v>1</v>
@@ -20686,7 +20686,7 @@
         <v>41</v>
       </c>
       <c r="G227" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H227">
         <v>0</v>
@@ -20775,7 +20775,7 @@
         <v>40</v>
       </c>
       <c r="G228" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H228">
         <v>1</v>
@@ -21487,7 +21487,7 @@
         <v>30</v>
       </c>
       <c r="G236" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H236">
         <v>1</v>
@@ -21665,7 +21665,7 @@
         <v>36</v>
       </c>
       <c r="G238" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H238">
         <v>2</v>
@@ -22018,7 +22018,7 @@
         <v>45199.97916666666</v>
       </c>
       <c r="F242" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G242" t="s">
         <v>38</v>
@@ -22110,7 +22110,7 @@
         <v>51</v>
       </c>
       <c r="G243" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H243">
         <v>2</v>
@@ -22199,7 +22199,7 @@
         <v>31</v>
       </c>
       <c r="G244" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H244">
         <v>2</v>
@@ -22629,7 +22629,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>6503957</v>
+        <v>6488610</v>
       </c>
       <c r="C249" t="s">
         <v>28</v>
@@ -22641,40 +22641,40 @@
         <v>45206.85416666666</v>
       </c>
       <c r="F249" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G249" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H249">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I249">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J249" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K249">
-        <v>1.3</v>
+        <v>2.15</v>
       </c>
       <c r="L249">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="M249">
-        <v>9</v>
+        <v>3.3</v>
       </c>
       <c r="N249">
-        <v>1.363</v>
+        <v>2.6</v>
       </c>
       <c r="O249">
-        <v>5.5</v>
+        <v>3.3</v>
       </c>
       <c r="P249">
-        <v>7</v>
+        <v>2.625</v>
       </c>
       <c r="Q249">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R249">
         <v>1.875</v>
@@ -22683,22 +22683,22 @@
         <v>1.925</v>
       </c>
       <c r="T249">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U249">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V249">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W249">
         <v>-1</v>
       </c>
       <c r="X249">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Y249">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z249">
         <v>-1</v>
@@ -22710,7 +22710,7 @@
         <v>-1</v>
       </c>
       <c r="AC249">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="250" spans="1:29">
@@ -22718,7 +22718,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>6488610</v>
+        <v>6503957</v>
       </c>
       <c r="C250" t="s">
         <v>28</v>
@@ -22730,40 +22730,40 @@
         <v>45206.85416666666</v>
       </c>
       <c r="F250" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G250" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I250">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J250" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K250">
-        <v>2.15</v>
+        <v>1.3</v>
       </c>
       <c r="L250">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="M250">
-        <v>3.3</v>
+        <v>9</v>
       </c>
       <c r="N250">
-        <v>2.6</v>
+        <v>1.363</v>
       </c>
       <c r="O250">
-        <v>3.3</v>
+        <v>5.5</v>
       </c>
       <c r="P250">
-        <v>2.625</v>
+        <v>7</v>
       </c>
       <c r="Q250">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R250">
         <v>1.875</v>
@@ -22772,22 +22772,22 @@
         <v>1.925</v>
       </c>
       <c r="T250">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U250">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V250">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W250">
         <v>-1</v>
       </c>
       <c r="X250">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Y250">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z250">
         <v>-1</v>
@@ -22799,7 +22799,7 @@
         <v>-1</v>
       </c>
       <c r="AC250">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="251" spans="1:29">
@@ -22908,7 +22908,7 @@
         <v>45206.875</v>
       </c>
       <c r="F252" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G252" t="s">
         <v>51</v>
@@ -23264,7 +23264,7 @@
         <v>45206.97916666666</v>
       </c>
       <c r="F256" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G256" t="s">
         <v>30</v>
@@ -23353,7 +23353,7 @@
         <v>45206.97916666666</v>
       </c>
       <c r="F257" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G257" t="s">
         <v>36</v>
@@ -23887,7 +23887,7 @@
         <v>45213.85416666666</v>
       </c>
       <c r="F263" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G263" t="s">
         <v>33</v>
@@ -23964,7 +23964,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>6531323</v>
+        <v>6504580</v>
       </c>
       <c r="C264" t="s">
         <v>28</v>
@@ -23976,58 +23976,58 @@
         <v>45213.875</v>
       </c>
       <c r="F264" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G264" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H264">
         <v>2</v>
       </c>
       <c r="I264">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J264" t="s">
         <v>57</v>
       </c>
       <c r="K264">
-        <v>1.444</v>
+        <v>2.05</v>
       </c>
       <c r="L264">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M264">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="N264">
-        <v>1.45</v>
+        <v>2</v>
       </c>
       <c r="O264">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P264">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q264">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R264">
+        <v>1.825</v>
+      </c>
+      <c r="S264">
         <v>1.975</v>
-      </c>
-      <c r="S264">
-        <v>1.825</v>
       </c>
       <c r="T264">
         <v>3</v>
       </c>
       <c r="U264">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V264">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W264">
-        <v>0.45</v>
+        <v>1</v>
       </c>
       <c r="X264">
         <v>-1</v>
@@ -24036,16 +24036,16 @@
         <v>-1</v>
       </c>
       <c r="Z264">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA264">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB264">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC264">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="265" spans="1:29">
@@ -24053,7 +24053,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>6504580</v>
+        <v>6531323</v>
       </c>
       <c r="C265" t="s">
         <v>28</v>
@@ -24065,58 +24065,58 @@
         <v>45213.875</v>
       </c>
       <c r="F265" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G265" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H265">
         <v>2</v>
       </c>
       <c r="I265">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J265" t="s">
         <v>57</v>
       </c>
       <c r="K265">
-        <v>2.05</v>
+        <v>1.444</v>
       </c>
       <c r="L265">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M265">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="N265">
-        <v>2</v>
+        <v>1.45</v>
       </c>
       <c r="O265">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P265">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q265">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R265">
+        <v>1.975</v>
+      </c>
+      <c r="S265">
         <v>1.825</v>
-      </c>
-      <c r="S265">
-        <v>1.975</v>
       </c>
       <c r="T265">
         <v>3</v>
       </c>
       <c r="U265">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V265">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W265">
-        <v>1</v>
+        <v>0.45</v>
       </c>
       <c r="X265">
         <v>-1</v>
@@ -24125,16 +24125,16 @@
         <v>-1</v>
       </c>
       <c r="Z265">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA265">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB265">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC265">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="266" spans="1:29">
@@ -24231,7 +24231,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>6504524</v>
+        <v>6492480</v>
       </c>
       <c r="C267" t="s">
         <v>28</v>
@@ -24243,37 +24243,37 @@
         <v>45213.95833333334</v>
       </c>
       <c r="F267" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G267" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H267">
         <v>1</v>
       </c>
       <c r="I267">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J267" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K267">
-        <v>1.533</v>
+        <v>1.95</v>
       </c>
       <c r="L267">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M267">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="N267">
-        <v>1.7</v>
+        <v>1.727</v>
       </c>
       <c r="O267">
         <v>3.75</v>
       </c>
       <c r="P267">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="Q267">
         <v>-0.75</v>
@@ -24288,31 +24288,31 @@
         <v>2.75</v>
       </c>
       <c r="U267">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V267">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W267">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X267">
         <v>-1</v>
       </c>
       <c r="Y267">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z267">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA267">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB267">
+        <v>0.4</v>
+      </c>
+      <c r="AC267">
         <v>-0.5</v>
-      </c>
-      <c r="AB267">
-        <v>-1</v>
-      </c>
-      <c r="AC267">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="268" spans="1:29">
@@ -24409,7 +24409,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>6492480</v>
+        <v>6504524</v>
       </c>
       <c r="C269" t="s">
         <v>28</v>
@@ -24421,37 +24421,37 @@
         <v>45213.95833333334</v>
       </c>
       <c r="F269" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G269" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H269">
         <v>1</v>
       </c>
       <c r="I269">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J269" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K269">
-        <v>1.95</v>
+        <v>1.533</v>
       </c>
       <c r="L269">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M269">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="N269">
-        <v>1.727</v>
+        <v>1.7</v>
       </c>
       <c r="O269">
         <v>3.75</v>
       </c>
       <c r="P269">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q269">
         <v>-0.75</v>
@@ -24466,31 +24466,31 @@
         <v>2.75</v>
       </c>
       <c r="U269">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V269">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W269">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X269">
         <v>-1</v>
       </c>
       <c r="Y269">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z269">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA269">
+        <v>-0.5</v>
+      </c>
+      <c r="AB269">
+        <v>-1</v>
+      </c>
+      <c r="AC269">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB269">
-        <v>0.4</v>
-      </c>
-      <c r="AC269">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="270" spans="1:29">
@@ -24510,7 +24510,7 @@
         <v>45213.97916666666</v>
       </c>
       <c r="F270" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G270" t="s">
         <v>40</v>
@@ -24602,7 +24602,7 @@
         <v>34</v>
       </c>
       <c r="G271" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H271">
         <v>5</v>
@@ -25225,7 +25225,7 @@
         <v>40</v>
       </c>
       <c r="G278" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H278">
         <v>3</v>
@@ -25489,7 +25489,7 @@
         <v>45227.85416666666</v>
       </c>
       <c r="F281" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G281" t="s">
         <v>52</v>
@@ -25581,7 +25581,7 @@
         <v>38</v>
       </c>
       <c r="G282" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H282">
         <v>1</v>
@@ -25670,7 +25670,7 @@
         <v>29</v>
       </c>
       <c r="G283" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H283">
         <v>2</v>
@@ -25759,7 +25759,7 @@
         <v>51</v>
       </c>
       <c r="G284" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H284">
         <v>1</v>
@@ -25848,7 +25848,7 @@
         <v>29</v>
       </c>
       <c r="G285" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H285">
         <v>3</v>
@@ -25937,7 +25937,7 @@
         <v>34</v>
       </c>
       <c r="G286" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H286">
         <v>2</v>
@@ -26468,7 +26468,7 @@
         <v>45360.97916666666</v>
       </c>
       <c r="F292" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G292" t="s">
         <v>48</v>
@@ -26827,7 +26827,7 @@
         <v>46</v>
       </c>
       <c r="G296" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H296">
         <v>0</v>
@@ -27358,7 +27358,7 @@
         <v>45367.875</v>
       </c>
       <c r="F302" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G302" t="s">
         <v>49</v>
@@ -27628,7 +27628,7 @@
         <v>37</v>
       </c>
       <c r="G305" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H305">
         <v>1</v>
@@ -27803,7 +27803,7 @@
         <v>45374.70833333334</v>
       </c>
       <c r="F307" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G307" t="s">
         <v>32</v>
@@ -27969,7 +27969,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>7689564</v>
+        <v>7689561</v>
       </c>
       <c r="C309" t="s">
         <v>28</v>
@@ -27981,10 +27981,10 @@
         <v>45374.83333333334</v>
       </c>
       <c r="F309" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="G309" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="H309">
         <v>1</v>
@@ -27996,61 +27996,61 @@
         <v>56</v>
       </c>
       <c r="K309">
+        <v>2.5</v>
+      </c>
+      <c r="L309">
+        <v>3.4</v>
+      </c>
+      <c r="M309">
+        <v>2.375</v>
+      </c>
+      <c r="N309">
+        <v>2.3</v>
+      </c>
+      <c r="O309">
+        <v>3.4</v>
+      </c>
+      <c r="P309">
+        <v>2.7</v>
+      </c>
+      <c r="Q309">
+        <v>0</v>
+      </c>
+      <c r="R309">
+        <v>1.75</v>
+      </c>
+      <c r="S309">
+        <v>2.05</v>
+      </c>
+      <c r="T309">
         <v>2.75</v>
       </c>
-      <c r="L309">
-        <v>3.25</v>
-      </c>
-      <c r="M309">
-        <v>2.25</v>
-      </c>
-      <c r="N309">
-        <v>2.375</v>
-      </c>
-      <c r="O309">
-        <v>3.2</v>
-      </c>
-      <c r="P309">
-        <v>2.8</v>
-      </c>
-      <c r="Q309">
-        <v>-0.25</v>
-      </c>
-      <c r="R309">
-        <v>2.025</v>
-      </c>
-      <c r="S309">
-        <v>1.775</v>
-      </c>
-      <c r="T309">
-        <v>2.25</v>
-      </c>
       <c r="U309">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V309">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W309">
         <v>-1</v>
       </c>
       <c r="X309">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="Y309">
         <v>-1</v>
       </c>
       <c r="Z309">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA309">
-        <v>0.3875</v>
+        <v>-0</v>
       </c>
       <c r="AB309">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC309">
-        <v>0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="310" spans="1:29">
@@ -28058,7 +28058,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>7689561</v>
+        <v>7689564</v>
       </c>
       <c r="C310" t="s">
         <v>28</v>
@@ -28070,10 +28070,10 @@
         <v>45374.83333333334</v>
       </c>
       <c r="F310" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="G310" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="H310">
         <v>1</v>
@@ -28085,61 +28085,61 @@
         <v>56</v>
       </c>
       <c r="K310">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="L310">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M310">
+        <v>2.25</v>
+      </c>
+      <c r="N310">
         <v>2.375</v>
       </c>
-      <c r="N310">
-        <v>2.3</v>
-      </c>
       <c r="O310">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P310">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="Q310">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R310">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="S310">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="T310">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U310">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V310">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W310">
         <v>-1</v>
       </c>
       <c r="X310">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="Y310">
         <v>-1</v>
       </c>
       <c r="Z310">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA310">
-        <v>-0</v>
+        <v>0.3875</v>
       </c>
       <c r="AB310">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC310">
-        <v>0.8500000000000001</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="311" spans="1:29">
@@ -28248,7 +28248,7 @@
         <v>45374.875</v>
       </c>
       <c r="F312" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G312" t="s">
         <v>46</v>
@@ -28414,7 +28414,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>7689560</v>
+        <v>7689559</v>
       </c>
       <c r="C314" t="s">
         <v>28</v>
@@ -28426,76 +28426,76 @@
         <v>45374.95833333334</v>
       </c>
       <c r="F314" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G314" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H314">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I314">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J314" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K314">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="L314">
         <v>3.4</v>
       </c>
       <c r="M314">
-        <v>4.2</v>
+        <v>2.875</v>
       </c>
       <c r="N314">
-        <v>1.615</v>
+        <v>1.6</v>
       </c>
       <c r="O314">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P314">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="Q314">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R314">
+        <v>2</v>
+      </c>
+      <c r="S314">
         <v>1.8</v>
       </c>
-      <c r="S314">
-        <v>2</v>
-      </c>
       <c r="T314">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U314">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V314">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W314">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X314">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y314">
         <v>-1</v>
       </c>
       <c r="Z314">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA314">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB314">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC314">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="315" spans="1:29">
@@ -28503,7 +28503,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>7689559</v>
+        <v>7689560</v>
       </c>
       <c r="C315" t="s">
         <v>28</v>
@@ -28515,76 +28515,76 @@
         <v>45374.95833333334</v>
       </c>
       <c r="F315" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G315" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H315">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I315">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J315" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K315">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="L315">
         <v>3.4</v>
       </c>
       <c r="M315">
-        <v>2.875</v>
+        <v>4.2</v>
       </c>
       <c r="N315">
-        <v>1.6</v>
+        <v>1.615</v>
       </c>
       <c r="O315">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P315">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q315">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R315">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S315">
+        <v>2</v>
+      </c>
+      <c r="T315">
+        <v>2.5</v>
+      </c>
+      <c r="U315">
+        <v>2</v>
+      </c>
+      <c r="V315">
         <v>1.8</v>
       </c>
-      <c r="T315">
-        <v>2.75</v>
-      </c>
-      <c r="U315">
-        <v>1.825</v>
-      </c>
-      <c r="V315">
-        <v>1.975</v>
-      </c>
       <c r="W315">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X315">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y315">
         <v>-1</v>
       </c>
       <c r="Z315">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA315">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AB315">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC315">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="316" spans="1:29">
@@ -28782,7 +28782,7 @@
         <v>45381.70833333334</v>
       </c>
       <c r="F318" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G318" t="s">
         <v>48</v>
@@ -29304,7 +29304,7 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>7689571</v>
+        <v>7689840</v>
       </c>
       <c r="C324" t="s">
         <v>28</v>
@@ -29316,49 +29316,49 @@
         <v>45381.95833333334</v>
       </c>
       <c r="F324" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="G324" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H324">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I324">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J324" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K324">
-        <v>1.615</v>
+        <v>1.909</v>
       </c>
       <c r="L324">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M324">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="N324">
-        <v>1.7</v>
+        <v>2.25</v>
       </c>
       <c r="O324">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P324">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="Q324">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R324">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S324">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T324">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U324">
         <v>1.9</v>
@@ -29367,25 +29367,25 @@
         <v>1.9</v>
       </c>
       <c r="W324">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X324">
         <v>-1</v>
       </c>
       <c r="Y324">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z324">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA324">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB324">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC324">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="325" spans="1:29">
@@ -29393,7 +29393,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>7689840</v>
+        <v>7689571</v>
       </c>
       <c r="C325" t="s">
         <v>28</v>
@@ -29405,49 +29405,49 @@
         <v>45381.95833333334</v>
       </c>
       <c r="F325" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="G325" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="H325">
+        <v>1</v>
+      </c>
+      <c r="I325">
         <v>0</v>
       </c>
-      <c r="I325">
-        <v>3</v>
-      </c>
       <c r="J325" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K325">
-        <v>1.909</v>
+        <v>1.615</v>
       </c>
       <c r="L325">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M325">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="N325">
-        <v>2.25</v>
+        <v>1.7</v>
       </c>
       <c r="O325">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P325">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="Q325">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R325">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S325">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T325">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U325">
         <v>1.9</v>
@@ -29456,25 +29456,25 @@
         <v>1.9</v>
       </c>
       <c r="W325">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X325">
         <v>-1</v>
       </c>
       <c r="Y325">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z325">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA325">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB325">
+        <v>-1</v>
+      </c>
+      <c r="AC325">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC325">
-        <v>-1</v>
       </c>
     </row>
     <row r="326" spans="1:29">
@@ -29494,7 +29494,7 @@
         <v>45381.97916666666</v>
       </c>
       <c r="F326" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G326" t="s">
         <v>36</v>
@@ -29586,7 +29586,7 @@
         <v>49</v>
       </c>
       <c r="G327" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H327">
         <v>3</v>
@@ -29939,7 +29939,7 @@
         <v>45388.70833333334</v>
       </c>
       <c r="F331" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G331" t="s">
         <v>41</v>
@@ -30473,7 +30473,7 @@
         <v>45388.97916666666</v>
       </c>
       <c r="F337" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G337" t="s">
         <v>35</v>
@@ -30654,7 +30654,7 @@
         <v>29</v>
       </c>
       <c r="G339" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H339">
         <v>3</v>
@@ -31366,7 +31366,7 @@
         <v>37</v>
       </c>
       <c r="G347" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H347">
         <v>3</v>
@@ -31452,7 +31452,7 @@
         <v>45395.97916666666</v>
       </c>
       <c r="F348" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G348" t="s">
         <v>30</v>
@@ -31611,894 +31611,6 @@
       </c>
       <c r="AC349">
         <v>0.8999999999999999</v>
-      </c>
-    </row>
-    <row r="350" spans="1:29">
-      <c r="A350" s="1">
-        <v>348</v>
-      </c>
-      <c r="B350">
-        <v>7689601</v>
-      </c>
-      <c r="C350" t="s">
-        <v>28</v>
-      </c>
-      <c r="D350" t="s">
-        <v>28</v>
-      </c>
-      <c r="E350" s="2">
-        <v>45402.70833333334</v>
-      </c>
-      <c r="F350" t="s">
-        <v>39</v>
-      </c>
-      <c r="G350" t="s">
-        <v>42</v>
-      </c>
-      <c r="K350">
-        <v>3</v>
-      </c>
-      <c r="L350">
-        <v>3.6</v>
-      </c>
-      <c r="M350">
-        <v>2</v>
-      </c>
-      <c r="N350">
-        <v>3.3</v>
-      </c>
-      <c r="O350">
-        <v>3.6</v>
-      </c>
-      <c r="P350">
-        <v>1.85</v>
-      </c>
-      <c r="Q350">
-        <v>0.5</v>
-      </c>
-      <c r="R350">
-        <v>1.875</v>
-      </c>
-      <c r="S350">
-        <v>1.925</v>
-      </c>
-      <c r="T350">
-        <v>2.75</v>
-      </c>
-      <c r="U350">
-        <v>1.9</v>
-      </c>
-      <c r="V350">
-        <v>1.9</v>
-      </c>
-      <c r="W350">
-        <v>0</v>
-      </c>
-      <c r="X350">
-        <v>0</v>
-      </c>
-      <c r="Y350">
-        <v>0</v>
-      </c>
-      <c r="Z350">
-        <v>0</v>
-      </c>
-      <c r="AA350">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="351" spans="1:29">
-      <c r="A351" s="1">
-        <v>349</v>
-      </c>
-      <c r="B351">
-        <v>7689604</v>
-      </c>
-      <c r="C351" t="s">
-        <v>28</v>
-      </c>
-      <c r="D351" t="s">
-        <v>28</v>
-      </c>
-      <c r="E351" s="2">
-        <v>45402.70833333334</v>
-      </c>
-      <c r="F351" t="s">
-        <v>52</v>
-      </c>
-      <c r="G351" t="s">
-        <v>50</v>
-      </c>
-      <c r="K351">
-        <v>2.1</v>
-      </c>
-      <c r="L351">
-        <v>3.6</v>
-      </c>
-      <c r="M351">
-        <v>2.8</v>
-      </c>
-      <c r="N351">
-        <v>1.85</v>
-      </c>
-      <c r="O351">
-        <v>3.6</v>
-      </c>
-      <c r="P351">
-        <v>3.3</v>
-      </c>
-      <c r="Q351">
-        <v>-0.5</v>
-      </c>
-      <c r="R351">
-        <v>1.9</v>
-      </c>
-      <c r="S351">
-        <v>1.9</v>
-      </c>
-      <c r="T351">
-        <v>2.5</v>
-      </c>
-      <c r="U351">
-        <v>2</v>
-      </c>
-      <c r="V351">
-        <v>1.8</v>
-      </c>
-      <c r="W351">
-        <v>0</v>
-      </c>
-      <c r="X351">
-        <v>0</v>
-      </c>
-      <c r="Y351">
-        <v>0</v>
-      </c>
-      <c r="Z351">
-        <v>0</v>
-      </c>
-      <c r="AA351">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="352" spans="1:29">
-      <c r="A352" s="1">
-        <v>350</v>
-      </c>
-      <c r="B352">
-        <v>7689602</v>
-      </c>
-      <c r="C352" t="s">
-        <v>28</v>
-      </c>
-      <c r="D352" t="s">
-        <v>28</v>
-      </c>
-      <c r="E352" s="2">
-        <v>45402.75</v>
-      </c>
-      <c r="F352" t="s">
-        <v>31</v>
-      </c>
-      <c r="G352" t="s">
-        <v>35</v>
-      </c>
-      <c r="K352">
-        <v>3</v>
-      </c>
-      <c r="L352">
-        <v>3.6</v>
-      </c>
-      <c r="M352">
-        <v>2</v>
-      </c>
-      <c r="N352">
-        <v>2.4</v>
-      </c>
-      <c r="O352">
-        <v>3.5</v>
-      </c>
-      <c r="P352">
-        <v>2.6</v>
-      </c>
-      <c r="Q352">
-        <v>0</v>
-      </c>
-      <c r="R352">
-        <v>1.825</v>
-      </c>
-      <c r="S352">
-        <v>1.975</v>
-      </c>
-      <c r="T352">
-        <v>3</v>
-      </c>
-      <c r="U352">
-        <v>1.95</v>
-      </c>
-      <c r="V352">
-        <v>1.85</v>
-      </c>
-      <c r="W352">
-        <v>0</v>
-      </c>
-      <c r="X352">
-        <v>0</v>
-      </c>
-      <c r="Y352">
-        <v>0</v>
-      </c>
-      <c r="Z352">
-        <v>0</v>
-      </c>
-      <c r="AA352">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="353" spans="1:27">
-      <c r="A353" s="1">
-        <v>351</v>
-      </c>
-      <c r="B353">
-        <v>7689603</v>
-      </c>
-      <c r="C353" t="s">
-        <v>28</v>
-      </c>
-      <c r="D353" t="s">
-        <v>28</v>
-      </c>
-      <c r="E353" s="2">
-        <v>45402.79166666666</v>
-      </c>
-      <c r="F353" t="s">
-        <v>49</v>
-      </c>
-      <c r="G353" t="s">
-        <v>29</v>
-      </c>
-      <c r="K353">
-        <v>2.5</v>
-      </c>
-      <c r="L353">
-        <v>3.75</v>
-      </c>
-      <c r="M353">
-        <v>2.25</v>
-      </c>
-      <c r="N353">
-        <v>3.1</v>
-      </c>
-      <c r="O353">
-        <v>3.8</v>
-      </c>
-      <c r="P353">
-        <v>1.909</v>
-      </c>
-      <c r="Q353">
-        <v>0.5</v>
-      </c>
-      <c r="R353">
-        <v>1.825</v>
-      </c>
-      <c r="S353">
-        <v>1.975</v>
-      </c>
-      <c r="T353">
-        <v>2.75</v>
-      </c>
-      <c r="U353">
-        <v>1.8</v>
-      </c>
-      <c r="V353">
-        <v>2</v>
-      </c>
-      <c r="W353">
-        <v>0</v>
-      </c>
-      <c r="X353">
-        <v>0</v>
-      </c>
-      <c r="Y353">
-        <v>0</v>
-      </c>
-      <c r="Z353">
-        <v>0</v>
-      </c>
-      <c r="AA353">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="354" spans="1:27">
-      <c r="A354" s="1">
-        <v>352</v>
-      </c>
-      <c r="B354">
-        <v>7689600</v>
-      </c>
-      <c r="C354" t="s">
-        <v>28</v>
-      </c>
-      <c r="D354" t="s">
-        <v>28</v>
-      </c>
-      <c r="E354" s="2">
-        <v>45402.83333333334</v>
-      </c>
-      <c r="F354" t="s">
-        <v>47</v>
-      </c>
-      <c r="G354" t="s">
-        <v>48</v>
-      </c>
-      <c r="K354">
-        <v>3.6</v>
-      </c>
-      <c r="L354">
-        <v>3.6</v>
-      </c>
-      <c r="M354">
-        <v>1.8</v>
-      </c>
-      <c r="N354">
-        <v>3.6</v>
-      </c>
-      <c r="O354">
-        <v>3.6</v>
-      </c>
-      <c r="P354">
-        <v>1.8</v>
-      </c>
-      <c r="Q354">
-        <v>0.5</v>
-      </c>
-      <c r="R354">
-        <v>1.95</v>
-      </c>
-      <c r="S354">
-        <v>1.85</v>
-      </c>
-      <c r="T354">
-        <v>2.75</v>
-      </c>
-      <c r="U354">
-        <v>1.85</v>
-      </c>
-      <c r="V354">
-        <v>1.95</v>
-      </c>
-      <c r="W354">
-        <v>0</v>
-      </c>
-      <c r="X354">
-        <v>0</v>
-      </c>
-      <c r="Y354">
-        <v>0</v>
-      </c>
-      <c r="Z354">
-        <v>0</v>
-      </c>
-      <c r="AA354">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="355" spans="1:27">
-      <c r="A355" s="1">
-        <v>353</v>
-      </c>
-      <c r="B355">
-        <v>7689599</v>
-      </c>
-      <c r="C355" t="s">
-        <v>28</v>
-      </c>
-      <c r="D355" t="s">
-        <v>28</v>
-      </c>
-      <c r="E355" s="2">
-        <v>45402.83333333334</v>
-      </c>
-      <c r="F355" t="s">
-        <v>53</v>
-      </c>
-      <c r="G355" t="s">
-        <v>36</v>
-      </c>
-      <c r="K355">
-        <v>2</v>
-      </c>
-      <c r="L355">
-        <v>3.6</v>
-      </c>
-      <c r="M355">
-        <v>3</v>
-      </c>
-      <c r="N355">
-        <v>1.909</v>
-      </c>
-      <c r="O355">
-        <v>3.6</v>
-      </c>
-      <c r="P355">
-        <v>3.25</v>
-      </c>
-      <c r="Q355">
-        <v>-0.5</v>
-      </c>
-      <c r="R355">
-        <v>1.95</v>
-      </c>
-      <c r="S355">
-        <v>1.85</v>
-      </c>
-      <c r="T355">
-        <v>2.75</v>
-      </c>
-      <c r="U355">
-        <v>1.925</v>
-      </c>
-      <c r="V355">
-        <v>1.875</v>
-      </c>
-      <c r="W355">
-        <v>0</v>
-      </c>
-      <c r="X355">
-        <v>0</v>
-      </c>
-      <c r="Y355">
-        <v>0</v>
-      </c>
-      <c r="Z355">
-        <v>0</v>
-      </c>
-      <c r="AA355">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="356" spans="1:27">
-      <c r="A356" s="1">
-        <v>354</v>
-      </c>
-      <c r="B356">
-        <v>7689596</v>
-      </c>
-      <c r="C356" t="s">
-        <v>28</v>
-      </c>
-      <c r="D356" t="s">
-        <v>28</v>
-      </c>
-      <c r="E356" s="2">
-        <v>45402.85416666666</v>
-      </c>
-      <c r="F356" t="s">
-        <v>33</v>
-      </c>
-      <c r="G356" t="s">
-        <v>46</v>
-      </c>
-      <c r="K356">
-        <v>1.666</v>
-      </c>
-      <c r="L356">
-        <v>3.5</v>
-      </c>
-      <c r="M356">
-        <v>4.333</v>
-      </c>
-      <c r="N356">
-        <v>1.444</v>
-      </c>
-      <c r="O356">
-        <v>3.8</v>
-      </c>
-      <c r="P356">
-        <v>6.5</v>
-      </c>
-      <c r="Q356">
-        <v>-1.25</v>
-      </c>
-      <c r="R356">
-        <v>1.95</v>
-      </c>
-      <c r="S356">
-        <v>1.85</v>
-      </c>
-      <c r="T356">
-        <v>2.75</v>
-      </c>
-      <c r="U356">
-        <v>1.85</v>
-      </c>
-      <c r="V356">
-        <v>1.95</v>
-      </c>
-      <c r="W356">
-        <v>0</v>
-      </c>
-      <c r="X356">
-        <v>0</v>
-      </c>
-      <c r="Y356">
-        <v>0</v>
-      </c>
-      <c r="Z356">
-        <v>0</v>
-      </c>
-      <c r="AA356">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="357" spans="1:27">
-      <c r="A357" s="1">
-        <v>355</v>
-      </c>
-      <c r="B357">
-        <v>7689605</v>
-      </c>
-      <c r="C357" t="s">
-        <v>28</v>
-      </c>
-      <c r="D357" t="s">
-        <v>28</v>
-      </c>
-      <c r="E357" s="2">
-        <v>45402.875</v>
-      </c>
-      <c r="F357" t="s">
-        <v>34</v>
-      </c>
-      <c r="G357" t="s">
-        <v>37</v>
-      </c>
-      <c r="K357">
-        <v>1.666</v>
-      </c>
-      <c r="L357">
-        <v>3.5</v>
-      </c>
-      <c r="M357">
-        <v>4.333</v>
-      </c>
-      <c r="N357">
-        <v>1.85</v>
-      </c>
-      <c r="O357">
-        <v>3.4</v>
-      </c>
-      <c r="P357">
-        <v>3.6</v>
-      </c>
-      <c r="Q357">
-        <v>-0.5</v>
-      </c>
-      <c r="R357">
-        <v>1.9</v>
-      </c>
-      <c r="S357">
-        <v>1.9</v>
-      </c>
-      <c r="T357">
-        <v>2.75</v>
-      </c>
-      <c r="U357">
-        <v>1.875</v>
-      </c>
-      <c r="V357">
-        <v>1.925</v>
-      </c>
-      <c r="W357">
-        <v>0</v>
-      </c>
-      <c r="X357">
-        <v>0</v>
-      </c>
-      <c r="Y357">
-        <v>0</v>
-      </c>
-      <c r="Z357">
-        <v>0</v>
-      </c>
-      <c r="AA357">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="358" spans="1:27">
-      <c r="A358" s="1">
-        <v>356</v>
-      </c>
-      <c r="B358">
-        <v>7710080</v>
-      </c>
-      <c r="C358" t="s">
-        <v>28</v>
-      </c>
-      <c r="D358" t="s">
-        <v>28</v>
-      </c>
-      <c r="E358" s="2">
-        <v>45402.875</v>
-      </c>
-      <c r="F358" t="s">
-        <v>44</v>
-      </c>
-      <c r="G358" t="s">
-        <v>54</v>
-      </c>
-      <c r="K358">
-        <v>2.2</v>
-      </c>
-      <c r="L358">
-        <v>3.4</v>
-      </c>
-      <c r="M358">
-        <v>2.75</v>
-      </c>
-      <c r="N358">
-        <v>2.1</v>
-      </c>
-      <c r="O358">
-        <v>3.4</v>
-      </c>
-      <c r="P358">
-        <v>2.9</v>
-      </c>
-      <c r="Q358">
-        <v>-0.25</v>
-      </c>
-      <c r="R358">
-        <v>1.9</v>
-      </c>
-      <c r="S358">
-        <v>1.9</v>
-      </c>
-      <c r="T358">
-        <v>3</v>
-      </c>
-      <c r="U358">
-        <v>2.025</v>
-      </c>
-      <c r="V358">
-        <v>1.775</v>
-      </c>
-      <c r="W358">
-        <v>0</v>
-      </c>
-      <c r="X358">
-        <v>0</v>
-      </c>
-      <c r="Y358">
-        <v>0</v>
-      </c>
-      <c r="Z358">
-        <v>0</v>
-      </c>
-      <c r="AA358">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="359" spans="1:27">
-      <c r="A359" s="1">
-        <v>357</v>
-      </c>
-      <c r="B359">
-        <v>7689595</v>
-      </c>
-      <c r="C359" t="s">
-        <v>28</v>
-      </c>
-      <c r="D359" t="s">
-        <v>28</v>
-      </c>
-      <c r="E359" s="2">
-        <v>45402.875</v>
-      </c>
-      <c r="F359" t="s">
-        <v>30</v>
-      </c>
-      <c r="G359" t="s">
-        <v>41</v>
-      </c>
-      <c r="K359">
-        <v>2.4</v>
-      </c>
-      <c r="L359">
-        <v>3.4</v>
-      </c>
-      <c r="M359">
-        <v>2.5</v>
-      </c>
-      <c r="N359">
-        <v>2.15</v>
-      </c>
-      <c r="O359">
-        <v>3.4</v>
-      </c>
-      <c r="P359">
-        <v>2.8</v>
-      </c>
-      <c r="Q359">
-        <v>-0.25</v>
-      </c>
-      <c r="R359">
-        <v>1.95</v>
-      </c>
-      <c r="S359">
-        <v>1.85</v>
-      </c>
-      <c r="T359">
-        <v>2.75</v>
-      </c>
-      <c r="U359">
-        <v>1.9</v>
-      </c>
-      <c r="V359">
-        <v>1.9</v>
-      </c>
-      <c r="W359">
-        <v>0</v>
-      </c>
-      <c r="X359">
-        <v>0</v>
-      </c>
-      <c r="Y359">
-        <v>0</v>
-      </c>
-      <c r="Z359">
-        <v>0</v>
-      </c>
-      <c r="AA359">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="360" spans="1:27">
-      <c r="A360" s="1">
-        <v>358</v>
-      </c>
-      <c r="B360">
-        <v>7689598</v>
-      </c>
-      <c r="C360" t="s">
-        <v>28</v>
-      </c>
-      <c r="D360" t="s">
-        <v>28</v>
-      </c>
-      <c r="E360" s="2">
-        <v>45402.95833333334</v>
-      </c>
-      <c r="F360" t="s">
-        <v>38</v>
-      </c>
-      <c r="G360" t="s">
-        <v>51</v>
-      </c>
-      <c r="K360">
-        <v>2.3</v>
-      </c>
-      <c r="L360">
-        <v>3.3</v>
-      </c>
-      <c r="M360">
-        <v>2.625</v>
-      </c>
-      <c r="N360">
-        <v>3.25</v>
-      </c>
-      <c r="O360">
-        <v>3.4</v>
-      </c>
-      <c r="P360">
-        <v>2</v>
-      </c>
-      <c r="Q360">
-        <v>0.25</v>
-      </c>
-      <c r="R360">
-        <v>2.025</v>
-      </c>
-      <c r="S360">
-        <v>1.775</v>
-      </c>
-      <c r="T360">
-        <v>2.5</v>
-      </c>
-      <c r="U360">
-        <v>1.95</v>
-      </c>
-      <c r="V360">
-        <v>1.85</v>
-      </c>
-      <c r="W360">
-        <v>0</v>
-      </c>
-      <c r="X360">
-        <v>0</v>
-      </c>
-      <c r="Y360">
-        <v>0</v>
-      </c>
-      <c r="Z360">
-        <v>0</v>
-      </c>
-      <c r="AA360">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="361" spans="1:27">
-      <c r="A361" s="1">
-        <v>359</v>
-      </c>
-      <c r="B361">
-        <v>7689597</v>
-      </c>
-      <c r="C361" t="s">
-        <v>28</v>
-      </c>
-      <c r="D361" t="s">
-        <v>28</v>
-      </c>
-      <c r="E361" s="2">
-        <v>45402.97916666666</v>
-      </c>
-      <c r="F361" t="s">
-        <v>45</v>
-      </c>
-      <c r="G361" t="s">
-        <v>32</v>
-      </c>
-      <c r="K361">
-        <v>1.8</v>
-      </c>
-      <c r="L361">
-        <v>3.4</v>
-      </c>
-      <c r="M361">
-        <v>3.8</v>
-      </c>
-      <c r="N361">
-        <v>1.909</v>
-      </c>
-      <c r="O361">
-        <v>3.3</v>
-      </c>
-      <c r="P361">
-        <v>3.6</v>
-      </c>
-      <c r="Q361">
-        <v>-0.5</v>
-      </c>
-      <c r="R361">
-        <v>1.95</v>
-      </c>
-      <c r="S361">
-        <v>1.85</v>
-      </c>
-      <c r="T361">
-        <v>2.5</v>
-      </c>
-      <c r="U361">
-        <v>1.95</v>
-      </c>
-      <c r="V361">
-        <v>1.85</v>
-      </c>
-      <c r="W361">
-        <v>0</v>
-      </c>
-      <c r="X361">
-        <v>0</v>
-      </c>
-      <c r="Y361">
-        <v>0</v>
-      </c>
-      <c r="Z361">
-        <v>0</v>
-      </c>
-      <c r="AA361">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/USA USL Championship/USA USL Championship.xlsx
+++ b/USA USL Championship/USA USL Championship.xlsx
@@ -3736,7 +3736,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6126617</v>
+        <v>6126619</v>
       </c>
       <c r="C38" t="s">
         <v>27</v>
@@ -3745,13 +3745,13 @@
         <v>45098.875</v>
       </c>
       <c r="E38" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F38" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="G38">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -3760,43 +3760,43 @@
         <v>55</v>
       </c>
       <c r="J38">
-        <v>1.615</v>
+        <v>2.1</v>
       </c>
       <c r="K38">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="L38">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="M38">
-        <v>1.5</v>
+        <v>2.15</v>
       </c>
       <c r="N38">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="O38">
-        <v>4.75</v>
+        <v>2.875</v>
       </c>
       <c r="P38">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q38">
+        <v>1.975</v>
+      </c>
+      <c r="R38">
         <v>1.825</v>
       </c>
-      <c r="R38">
+      <c r="S38">
+        <v>2.75</v>
+      </c>
+      <c r="T38">
         <v>1.975</v>
       </c>
-      <c r="S38">
-        <v>3</v>
-      </c>
-      <c r="T38">
-        <v>1.95</v>
-      </c>
       <c r="U38">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V38">
-        <v>0.5</v>
+        <v>1.15</v>
       </c>
       <c r="W38">
         <v>-1</v>
@@ -3805,16 +3805,16 @@
         <v>-1</v>
       </c>
       <c r="Y38">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="Z38">
+        <v>-1</v>
+      </c>
+      <c r="AA38">
+        <v>-1</v>
+      </c>
+      <c r="AB38">
         <v>0.825</v>
-      </c>
-      <c r="Z38">
-        <v>-1</v>
-      </c>
-      <c r="AA38">
-        <v>0.95</v>
-      </c>
-      <c r="AB38">
-        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:28">
@@ -3908,7 +3908,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6126619</v>
+        <v>6126617</v>
       </c>
       <c r="C40" t="s">
         <v>27</v>
@@ -3917,13 +3917,13 @@
         <v>45098.875</v>
       </c>
       <c r="E40" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F40" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="G40">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -3932,43 +3932,43 @@
         <v>55</v>
       </c>
       <c r="J40">
-        <v>2.1</v>
+        <v>1.615</v>
       </c>
       <c r="K40">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="L40">
+        <v>4.333</v>
+      </c>
+      <c r="M40">
+        <v>1.5</v>
+      </c>
+      <c r="N40">
+        <v>4.2</v>
+      </c>
+      <c r="O40">
+        <v>4.75</v>
+      </c>
+      <c r="P40">
+        <v>-1</v>
+      </c>
+      <c r="Q40">
+        <v>1.825</v>
+      </c>
+      <c r="R40">
+        <v>1.975</v>
+      </c>
+      <c r="S40">
         <v>3</v>
       </c>
-      <c r="M40">
-        <v>2.15</v>
-      </c>
-      <c r="N40">
-        <v>3.4</v>
-      </c>
-      <c r="O40">
-        <v>2.875</v>
-      </c>
-      <c r="P40">
-        <v>-0.25</v>
-      </c>
-      <c r="Q40">
-        <v>1.975</v>
-      </c>
-      <c r="R40">
-        <v>1.825</v>
-      </c>
-      <c r="S40">
-        <v>2.75</v>
-      </c>
       <c r="T40">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="U40">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="V40">
-        <v>1.15</v>
+        <v>0.5</v>
       </c>
       <c r="W40">
         <v>-1</v>
@@ -3977,16 +3977,16 @@
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="Z40">
         <v>-1</v>
       </c>
       <c r="AA40">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB40">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="41" spans="1:28">
@@ -4080,7 +4080,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6126621</v>
+        <v>6126628</v>
       </c>
       <c r="C42" t="s">
         <v>27</v>
@@ -4089,76 +4089,76 @@
         <v>45101.83333333334</v>
       </c>
       <c r="E42" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J42">
-        <v>2.3</v>
+        <v>1.727</v>
       </c>
       <c r="K42">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L42">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="M42">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="N42">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O42">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="P42">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q42">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="R42">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S42">
         <v>2.75</v>
       </c>
       <c r="T42">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="U42">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V42">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="W42">
         <v>-1</v>
       </c>
       <c r="X42">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Y42">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z42">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA42">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB42">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="43" spans="1:28">
@@ -4252,7 +4252,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6126628</v>
+        <v>6126621</v>
       </c>
       <c r="C44" t="s">
         <v>27</v>
@@ -4261,76 +4261,76 @@
         <v>45101.83333333334</v>
       </c>
       <c r="E44" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F44" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I44" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J44">
-        <v>1.727</v>
+        <v>2.3</v>
       </c>
       <c r="K44">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L44">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="M44">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="N44">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="O44">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="P44">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q44">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="R44">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S44">
         <v>2.75</v>
       </c>
       <c r="T44">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="U44">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V44">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="W44">
         <v>-1</v>
       </c>
       <c r="X44">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Y44">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z44">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA44">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB44">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="45" spans="1:28">
@@ -5370,7 +5370,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6126633</v>
+        <v>6126641</v>
       </c>
       <c r="C57" t="s">
         <v>27</v>
@@ -5379,52 +5379,52 @@
         <v>45108.91666666666</v>
       </c>
       <c r="E57" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G57">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" t="s">
         <v>55</v>
       </c>
       <c r="J57">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="K57">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L57">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M57">
         <v>1.666</v>
       </c>
       <c r="N57">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="O57">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P57">
         <v>-0.75</v>
       </c>
       <c r="Q57">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="R57">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S57">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T57">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="U57">
         <v>1.95</v>
@@ -5439,16 +5439,16 @@
         <v>-1</v>
       </c>
       <c r="Y57">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z57">
         <v>-1</v>
       </c>
       <c r="AA57">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB57">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="58" spans="1:28">
@@ -5456,7 +5456,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6126641</v>
+        <v>6126633</v>
       </c>
       <c r="C58" t="s">
         <v>27</v>
@@ -5465,52 +5465,52 @@
         <v>45108.91666666666</v>
       </c>
       <c r="E58" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F58" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G58">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="s">
         <v>55</v>
       </c>
       <c r="J58">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="K58">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L58">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M58">
         <v>1.666</v>
       </c>
       <c r="N58">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="O58">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P58">
         <v>-0.75</v>
       </c>
       <c r="Q58">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="R58">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S58">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T58">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="U58">
         <v>1.95</v>
@@ -5525,16 +5525,16 @@
         <v>-1</v>
       </c>
       <c r="Y58">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z58">
         <v>-1</v>
       </c>
       <c r="AA58">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB58">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="59" spans="1:28">
@@ -6058,7 +6058,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6126644</v>
+        <v>6126643</v>
       </c>
       <c r="C65" t="s">
         <v>27</v>
@@ -6067,73 +6067,73 @@
         <v>45111.91666666666</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="F65" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G65">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J65">
-        <v>2.625</v>
+        <v>2</v>
       </c>
       <c r="K65">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="L65">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="M65">
-        <v>2.3</v>
+        <v>1.727</v>
       </c>
       <c r="N65">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="O65">
-        <v>2.55</v>
+        <v>3.8</v>
       </c>
       <c r="P65">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="Q65">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="R65">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S65">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T65">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="U65">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V65">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="W65">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X65">
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z65">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA65">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB65">
         <v>-1</v>
@@ -6144,7 +6144,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6126643</v>
+        <v>6126644</v>
       </c>
       <c r="C66" t="s">
         <v>27</v>
@@ -6153,73 +6153,73 @@
         <v>45111.91666666666</v>
       </c>
       <c r="E66" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="F66" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G66">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J66">
-        <v>2</v>
+        <v>2.625</v>
       </c>
       <c r="K66">
+        <v>3.5</v>
+      </c>
+      <c r="L66">
+        <v>2.3</v>
+      </c>
+      <c r="M66">
+        <v>2.3</v>
+      </c>
+      <c r="N66">
         <v>3.6</v>
       </c>
-      <c r="L66">
-        <v>3.1</v>
-      </c>
-      <c r="M66">
-        <v>1.727</v>
-      </c>
-      <c r="N66">
-        <v>3.8</v>
-      </c>
       <c r="O66">
-        <v>3.8</v>
+        <v>2.55</v>
       </c>
       <c r="P66">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="Q66">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="R66">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S66">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T66">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="U66">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V66">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="W66">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X66">
         <v>-1</v>
       </c>
       <c r="Y66">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z66">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA66">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB66">
         <v>-1</v>
@@ -10960,7 +10960,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6126699</v>
+        <v>6126700</v>
       </c>
       <c r="C122" t="s">
         <v>27</v>
@@ -10969,76 +10969,76 @@
         <v>45142.91666666666</v>
       </c>
       <c r="E122" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="F122" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G122">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I122" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J122">
+        <v>2.4</v>
+      </c>
+      <c r="K122">
+        <v>3.3</v>
+      </c>
+      <c r="L122">
+        <v>2.55</v>
+      </c>
+      <c r="M122">
+        <v>3.1</v>
+      </c>
+      <c r="N122">
+        <v>3.4</v>
+      </c>
+      <c r="O122">
         <v>2.05</v>
       </c>
-      <c r="K122">
-        <v>3.4</v>
-      </c>
-      <c r="L122">
-        <v>3</v>
-      </c>
-      <c r="M122">
-        <v>2</v>
-      </c>
-      <c r="N122">
-        <v>3.8</v>
-      </c>
-      <c r="O122">
-        <v>2.875</v>
-      </c>
       <c r="P122">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q122">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="R122">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S122">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T122">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="U122">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V122">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="W122">
         <v>-1</v>
       </c>
       <c r="X122">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Y122">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z122">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA122">
-        <v>0.4</v>
+        <v>0.875</v>
       </c>
       <c r="AB122">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="123" spans="1:28">
@@ -11046,7 +11046,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6126700</v>
+        <v>6126699</v>
       </c>
       <c r="C123" t="s">
         <v>27</v>
@@ -11055,76 +11055,76 @@
         <v>45142.91666666666</v>
       </c>
       <c r="E123" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="F123" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G123">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H123">
+        <v>1</v>
+      </c>
+      <c r="I123" t="s">
+        <v>55</v>
+      </c>
+      <c r="J123">
+        <v>2.05</v>
+      </c>
+      <c r="K123">
+        <v>3.4</v>
+      </c>
+      <c r="L123">
         <v>3</v>
       </c>
-      <c r="I123" t="s">
-        <v>54</v>
-      </c>
-      <c r="J123">
-        <v>2.4</v>
-      </c>
-      <c r="K123">
-        <v>3.3</v>
-      </c>
-      <c r="L123">
-        <v>2.55</v>
-      </c>
       <c r="M123">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="N123">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="O123">
-        <v>2.05</v>
+        <v>2.875</v>
       </c>
       <c r="P123">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q123">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="R123">
+        <v>1.95</v>
+      </c>
+      <c r="S123">
+        <v>2.75</v>
+      </c>
+      <c r="T123">
         <v>1.8</v>
       </c>
-      <c r="S123">
-        <v>2.5</v>
-      </c>
-      <c r="T123">
-        <v>1.875</v>
-      </c>
       <c r="U123">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V123">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W123">
         <v>-1</v>
       </c>
       <c r="X123">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Y123">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z123">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA123">
-        <v>0.875</v>
+        <v>0.4</v>
       </c>
       <c r="AB123">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="124" spans="1:28">
@@ -11906,7 +11906,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6126709</v>
+        <v>6126712</v>
       </c>
       <c r="C133" t="s">
         <v>27</v>
@@ -11915,49 +11915,49 @@
         <v>45147.91666666666</v>
       </c>
       <c r="E133" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="F133" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G133">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I133" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J133">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="K133">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="L133">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="M133">
-        <v>2.6</v>
+        <v>1.615</v>
       </c>
       <c r="N133">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="O133">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="P133">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="Q133">
+        <v>1.75</v>
+      </c>
+      <c r="R133">
         <v>1.95</v>
       </c>
-      <c r="R133">
-        <v>1.85</v>
-      </c>
       <c r="S133">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T133">
         <v>1.95</v>
@@ -11966,25 +11966,25 @@
         <v>1.85</v>
       </c>
       <c r="V133">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="W133">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="X133">
         <v>-1</v>
       </c>
       <c r="Y133">
+        <v>-1</v>
+      </c>
+      <c r="Z133">
         <v>0.95</v>
       </c>
-      <c r="Z133">
-        <v>-1</v>
-      </c>
       <c r="AA133">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB133">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="134" spans="1:28">
@@ -11992,7 +11992,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6126712</v>
+        <v>6126709</v>
       </c>
       <c r="C134" t="s">
         <v>27</v>
@@ -12001,49 +12001,49 @@
         <v>45147.91666666666</v>
       </c>
       <c r="E134" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="F134" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G134">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J134">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="K134">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="L134">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="M134">
-        <v>1.615</v>
+        <v>2.6</v>
       </c>
       <c r="N134">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="O134">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="P134">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="Q134">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="R134">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S134">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T134">
         <v>1.9